--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdeaCentre 300 20ISH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA66AB-E46D-45C8-9B40-AC7A308C48E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2240FAE-3C52-472C-97CF-D50D6465BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FEB 2024" sheetId="2" r:id="rId1"/>
+    <sheet name="NOV 2024" sheetId="2" r:id="rId1"/>
     <sheet name="KURSIWIS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Fill" hidden="1">KURSIWIS!$Z$9:$AS$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FEB 2024'!$A$1:$AS$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">KURSIWIS!$A$438:$AW$475</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'NOV 2024'!$A$1:$AS$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11241" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="780">
   <si>
     <t>DENAH TEMPAT DUDUK WISUDAWAN, SABTU 8 AGUSTUS 2009</t>
   </si>
@@ -2313,131 +2313,65 @@
     <t>S1 FKP</t>
   </si>
   <si>
-    <t>Sel2</t>
-  </si>
-  <si>
-    <t>D3 FT</t>
-  </si>
-  <si>
     <t>FKEP</t>
   </si>
   <si>
-    <t>M. Ilmu Ekonomi (MIE)</t>
-  </si>
-  <si>
-    <t>M. Manajemen (MM)</t>
-  </si>
-  <si>
-    <t>M. Akuntasi (MA)</t>
-  </si>
-  <si>
-    <t>S1 FEB</t>
-  </si>
-  <si>
-    <t>Sarjana Terapan Akuntansi Perpajakan</t>
-  </si>
-  <si>
-    <t>Profesi Insinyur (PI)</t>
-  </si>
-  <si>
-    <t>Profesi Arsitek (PA)</t>
-  </si>
-  <si>
-    <t>M. Teknik Sipil (MTS)</t>
-  </si>
-  <si>
-    <t>M. Teknik Elektro (MTE)</t>
-  </si>
-  <si>
-    <t>M. Teknik Industri (MTI)</t>
-  </si>
-  <si>
-    <t>M. Arsitektur (MA)</t>
-  </si>
-  <si>
-    <t>S1 FT</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>D. Ilmu Kedokteran (DIK)</t>
-  </si>
-  <si>
-    <t>Sp Ilmu Bedah (IB)</t>
-  </si>
-  <si>
-    <t>Sp Ilmu Penyakit Dalam (IPD)</t>
-  </si>
-  <si>
-    <t>Sp Ilmu Kebidanan dan Penyakit Kandungan (IKPK)</t>
-  </si>
-  <si>
-    <t>Sp Pulmonologi dan Kedokteran Respirasi (PKR)</t>
-  </si>
-  <si>
-    <t>Sp Ilmu Kesehatan Anak (IKA)</t>
-  </si>
-  <si>
-    <t>Sp Anestesiologi dan Reanimasi (AR)</t>
-  </si>
-  <si>
-    <t>Sp Bedah Plastik Rekonstruksi dan Estetis (BPRE)</t>
-  </si>
-  <si>
-    <t>M. Kesehatan Masyarakat (MKM)</t>
-  </si>
-  <si>
-    <t>M. Sains Biomedis (MSB)</t>
-  </si>
-  <si>
-    <t>Profesi Dokter (PD)</t>
-  </si>
-  <si>
-    <t>S1 Pendidikan Dokter</t>
-  </si>
-  <si>
-    <t>Sp Neurologi</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
-    <t>Profesi Apoteker (PA)</t>
-  </si>
-  <si>
-    <t>M. Matematika (MM)</t>
-  </si>
-  <si>
-    <t>M. Fisika (MF)</t>
-  </si>
-  <si>
-    <t>M. Kimia (MK)</t>
-  </si>
-  <si>
-    <t>M. Biologi (MB)</t>
-  </si>
-  <si>
-    <t>M. Kecerdasan Buatan (MAI)</t>
-  </si>
-  <si>
-    <t>S1 FMIPA</t>
-  </si>
-  <si>
-    <t>D3 FMIPA</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>M. Keperawatan (MKep)</t>
-  </si>
-  <si>
-    <t>S1 FKEP</t>
+    <t>Sel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DENAH TEMPAT DUDUK WISUDAWAN, JUM'AT 22 NOVEMBER 2024</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>S1  Kedokteran Hewan</t>
+  </si>
+  <si>
+    <t>M. Pendidikan Biologi (MPB)</t>
+  </si>
+  <si>
+    <t>M. Pendidikan Matematika (MPM)</t>
+  </si>
+  <si>
+    <t>M. Pendidikan B. Inggris (MPIng)</t>
+  </si>
+  <si>
+    <t>M. Pendidikan Olahraga (MPO)</t>
+  </si>
+  <si>
+    <t>M. Kes. Masy. Veteriner (MKMV)</t>
+  </si>
+  <si>
+    <t>D3 Kedokteran Hewan</t>
+  </si>
+  <si>
+    <t>FKP</t>
+  </si>
+  <si>
+    <t>MPB</t>
+  </si>
+  <si>
+    <t>MPM</t>
+  </si>
+  <si>
+    <t>MPIng</t>
+  </si>
+  <si>
+    <t>MPO</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">D3 FEB                   </t>
+      <t xml:space="preserve">S1 FKIP           </t>
     </r>
     <r>
       <rPr>
@@ -2450,27 +2384,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">S1 Psikologi           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Selingan 2</t>
-    </r>
-  </si>
-  <si>
-    <t>Sel1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      DENAH TEMPAT DUDUK WISUDAWAN, JUM'AT 22 NOVEMBER 2024</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>D3FKH</t>
+  </si>
+  <si>
+    <t>MKMV</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -2672,12 +2589,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -2716,13 +2627,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2749,18 +2653,12 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="7.5"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2816,48 +2714,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
         <bgColor indexed="9"/>
       </patternFill>
@@ -2870,18 +2726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="9"/>
       </patternFill>
@@ -2889,12 +2733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -2912,66 +2750,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD5E1C5"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCC00"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0099CC"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC48A86"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2984,55 +2762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEC94"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,42 +2774,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3405,20 +3105,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3633,9 +3324,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3686,9 +3374,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3723,16 +3408,13 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3747,39 +3429,26 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3788,10 +3457,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3831,232 +3497,69 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="47" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4065,35 +3568,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,15 +3583,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="52" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4119,6 +3592,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4145,6 +3621,109 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4499,10 +4078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT86"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4512,337 +4091,337 @@
     <col min="23" max="23" width="1.33203125" customWidth="1"/>
     <col min="24" max="43" width="2.77734375" customWidth="1"/>
     <col min="44" max="44" width="2.88671875" customWidth="1"/>
-    <col min="45" max="45" width="3.6640625" style="190" customWidth="1"/>
+    <col min="45" max="45" width="3.6640625" style="181" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="306" t="s">
-        <v>802</v>
-      </c>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
-      <c r="T1" s="307"/>
-      <c r="U1" s="307"/>
-      <c r="V1" s="307"/>
-      <c r="W1" s="307"/>
-      <c r="X1" s="307"/>
-      <c r="Y1" s="307"/>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="307"/>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="307"/>
-      <c r="AD1" s="307"/>
-      <c r="AE1" s="307"/>
-      <c r="AF1" s="307"/>
-      <c r="AG1" s="307"/>
-      <c r="AH1" s="307"/>
-      <c r="AI1" s="307"/>
-      <c r="AJ1" s="307"/>
-      <c r="AK1" s="307"/>
-      <c r="AL1" s="307"/>
-      <c r="AM1" s="307"/>
-      <c r="AN1" s="307"/>
-      <c r="AO1" s="307"/>
-      <c r="AP1" s="307"/>
-      <c r="AQ1" s="308"/>
+      <c r="C1" s="227" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="228"/>
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="228"/>
+      <c r="U1" s="228"/>
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="228"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="228"/>
+      <c r="AJ1" s="228"/>
+      <c r="AK1" s="228"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="228"/>
+      <c r="AO1" s="228"/>
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="229"/>
       <c r="AR1" s="33"/>
-      <c r="AS1" s="188"/>
+      <c r="AS1" s="179"/>
     </row>
     <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="309" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="309"/>
-      <c r="O2" s="309"/>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="309"/>
-      <c r="T2" s="309"/>
-      <c r="U2" s="309"/>
-      <c r="V2" s="309"/>
-      <c r="W2" s="309"/>
-      <c r="X2" s="309"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="309"/>
-      <c r="AA2" s="309"/>
-      <c r="AB2" s="309"/>
-      <c r="AC2" s="309"/>
-      <c r="AD2" s="309"/>
-      <c r="AE2" s="309"/>
-      <c r="AF2" s="309"/>
-      <c r="AG2" s="309"/>
-      <c r="AH2" s="309"/>
-      <c r="AI2" s="309"/>
-      <c r="AJ2" s="309"/>
-      <c r="AK2" s="309"/>
-      <c r="AL2" s="309"/>
-      <c r="AM2" s="309"/>
-      <c r="AN2" s="309"/>
-      <c r="AO2" s="309"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="131"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="230"/>
+      <c r="S2" s="230"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="230"/>
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="230"/>
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="230"/>
+      <c r="AI2" s="230"/>
+      <c r="AJ2" s="230"/>
+      <c r="AK2" s="230"/>
+      <c r="AL2" s="230"/>
+      <c r="AM2" s="230"/>
+      <c r="AN2" s="230"/>
+      <c r="AO2" s="230"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
-      <c r="AS2" s="188"/>
+      <c r="AS2" s="179"/>
     </row>
     <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="121"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="122"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="120"/>
       <c r="AR3" s="33"/>
-      <c r="AS3" s="188"/>
+      <c r="AS3" s="179"/>
     </row>
     <row r="4" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="117"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="117"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="117"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="118" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="117"/>
-      <c r="AM4" s="117"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="117"/>
-      <c r="AP4" s="117"/>
-      <c r="AQ4" s="117"/>
-      <c r="AS4" s="188"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AS4" s="179"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="133">
+      <c r="B5" s="134"/>
+      <c r="C5" s="132">
         <v>20</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="132">
         <v>19</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="132">
         <v>18</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="132">
         <v>17</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="132">
         <v>16</v>
       </c>
-      <c r="H5" s="133">
+      <c r="H5" s="132">
         <v>15</v>
       </c>
-      <c r="I5" s="133">
+      <c r="I5" s="132">
         <v>14</v>
       </c>
-      <c r="J5" s="133">
+      <c r="J5" s="132">
         <v>13</v>
       </c>
-      <c r="K5" s="133">
+      <c r="K5" s="132">
         <v>12</v>
       </c>
-      <c r="L5" s="133">
+      <c r="L5" s="132">
         <v>11</v>
       </c>
-      <c r="M5" s="133">
+      <c r="M5" s="132">
         <v>10</v>
       </c>
-      <c r="N5" s="133">
+      <c r="N5" s="132">
         <v>9</v>
       </c>
-      <c r="O5" s="133">
+      <c r="O5" s="132">
         <v>8</v>
       </c>
-      <c r="P5" s="133">
+      <c r="P5" s="132">
         <v>7</v>
       </c>
-      <c r="Q5" s="133">
+      <c r="Q5" s="132">
         <v>6</v>
       </c>
-      <c r="R5" s="133">
+      <c r="R5" s="132">
         <v>5</v>
       </c>
-      <c r="S5" s="133">
+      <c r="S5" s="132">
         <v>4</v>
       </c>
-      <c r="T5" s="133">
+      <c r="T5" s="132">
         <v>3</v>
       </c>
-      <c r="U5" s="133">
+      <c r="U5" s="132">
         <v>2</v>
       </c>
-      <c r="V5" s="133">
+      <c r="V5" s="132">
         <v>1</v>
       </c>
       <c r="W5" s="51"/>
-      <c r="X5" s="150">
+      <c r="X5" s="148">
         <v>1</v>
       </c>
-      <c r="Y5" s="146">
+      <c r="Y5" s="144">
         <v>2</v>
       </c>
-      <c r="Z5" s="146">
+      <c r="Z5" s="144">
         <v>3</v>
       </c>
-      <c r="AA5" s="146">
+      <c r="AA5" s="144">
         <v>4</v>
       </c>
-      <c r="AB5" s="146">
+      <c r="AB5" s="144">
         <v>5</v>
       </c>
-      <c r="AC5" s="146">
+      <c r="AC5" s="144">
         <v>6</v>
       </c>
-      <c r="AD5" s="146">
+      <c r="AD5" s="144">
         <v>7</v>
       </c>
-      <c r="AE5" s="150">
+      <c r="AE5" s="148">
         <v>8</v>
       </c>
-      <c r="AF5" s="150">
+      <c r="AF5" s="148">
         <v>9</v>
       </c>
-      <c r="AG5" s="146">
+      <c r="AG5" s="144">
         <v>10</v>
       </c>
-      <c r="AH5" s="146">
+      <c r="AH5" s="144">
         <v>11</v>
       </c>
-      <c r="AI5" s="150">
+      <c r="AI5" s="148">
         <v>12</v>
       </c>
-      <c r="AJ5" s="150">
+      <c r="AJ5" s="148">
         <v>13</v>
       </c>
-      <c r="AK5" s="146">
+      <c r="AK5" s="144">
         <v>14</v>
       </c>
-      <c r="AL5" s="146">
+      <c r="AL5" s="144">
         <v>15</v>
       </c>
-      <c r="AM5" s="146">
+      <c r="AM5" s="144">
         <v>16</v>
       </c>
-      <c r="AN5" s="146">
+      <c r="AN5" s="144">
         <v>17</v>
       </c>
-      <c r="AO5" s="150">
+      <c r="AO5" s="148">
         <v>18</v>
       </c>
-      <c r="AP5" s="146">
+      <c r="AP5" s="144">
         <v>19</v>
       </c>
-      <c r="AQ5" s="146">
+      <c r="AQ5" s="144">
         <v>20</v>
       </c>
-      <c r="AR5" s="124"/>
+      <c r="AR5" s="123"/>
       <c r="AS5" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="192"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="47"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4886,531 +4465,531 @@
       <c r="AP6" s="51"/>
       <c r="AQ6" s="51"/>
       <c r="AR6" s="47"/>
-      <c r="AS6" s="188"/>
+      <c r="AS6" s="179"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="134">
+      <c r="A7" s="133">
         <v>1</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="200" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="249" t="s">
+        <v>772</v>
+      </c>
+      <c r="D7" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="191" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="191" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="199" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="199" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="191" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="150"/>
+      <c r="X7" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="191" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF7" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="191" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI7" s="191" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ7" s="191" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK7" s="191" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="191" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN7" s="191" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" s="191" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP7" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="200" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="200" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="200" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="200" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="200" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="200" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="200" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="200" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="216" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="200" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="216" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="200" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="200" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="200" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="200" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="200" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="200" t="s">
-        <v>27</v>
-      </c>
-      <c r="V7" s="200" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="152"/>
-      <c r="X7" s="201" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="201" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="201" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="201" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" s="201" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC7" s="201" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD7" s="201" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="201" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF7" s="201" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG7" s="201" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" s="201" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI7" s="201" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ7" s="201" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK7" s="201" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL7" s="201" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM7" s="201" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN7" s="201" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO7" s="201" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP7" s="201" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ7" s="201" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="124"/>
+      <c r="AR7" s="123"/>
       <c r="AS7" s="51">
         <v>1</v>
       </c>
       <c r="AT7" s="13"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="193">
+      <c r="A8" s="184">
         <v>2</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="203" t="s">
+      <c r="B8" s="123"/>
+      <c r="C8" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="203" t="s">
+      <c r="F8" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="203" t="s">
+      <c r="H8" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="203" t="s">
+      <c r="I8" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="203" t="s">
+      <c r="J8" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="203" t="s">
+      <c r="K8" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="203" t="s">
+      <c r="L8" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="203" t="s">
+      <c r="M8" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="203" t="s">
+      <c r="N8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="203" t="s">
+      <c r="O8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="203" t="s">
+      <c r="P8" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="203" t="s">
+      <c r="Q8" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="203" t="s">
+      <c r="R8" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="203" t="s">
+      <c r="S8" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="203" t="s">
+      <c r="T8" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="203" t="s">
+      <c r="U8" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="203" t="s">
+      <c r="V8" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="153"/>
-      <c r="X8" s="203" t="s">
+      <c r="W8" s="151"/>
+      <c r="X8" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="203" t="s">
+      <c r="Y8" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="203" t="s">
+      <c r="Z8" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="203" t="s">
+      <c r="AA8" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="203" t="s">
+      <c r="AB8" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="203" t="s">
+      <c r="AC8" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="203" t="s">
+      <c r="AD8" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="203" t="s">
+      <c r="AE8" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="203" t="s">
+      <c r="AF8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="203" t="s">
+      <c r="AG8" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="AH8" s="203" t="s">
+      <c r="AH8" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="AI8" s="203" t="s">
+      <c r="AI8" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="AJ8" s="203" t="s">
+      <c r="AJ8" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="203" t="s">
+      <c r="AK8" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="AL8" s="203" t="s">
+      <c r="AL8" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="AM8" s="203" t="s">
+      <c r="AM8" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="203" t="s">
+      <c r="AN8" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="AO8" s="203" t="s">
+      <c r="AO8" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="AP8" s="203" t="s">
+      <c r="AP8" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="AQ8" s="203" t="s">
+      <c r="AQ8" s="191" t="s">
         <v>34</v>
       </c>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120">
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119">
         <v>2</v>
       </c>
       <c r="AT8" s="13"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="134">
+      <c r="A9" s="133">
         <v>3</v>
       </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="203" t="s">
+      <c r="B9" s="135"/>
+      <c r="C9" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="203" t="s">
+      <c r="D9" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="203" t="s">
+      <c r="E9" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="203" t="s">
+      <c r="F9" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="203" t="s">
+      <c r="G9" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="203" t="s">
+      <c r="H9" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="203" t="s">
+      <c r="I9" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="203" t="s">
+      <c r="J9" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="203" t="s">
+      <c r="K9" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="203" t="s">
+      <c r="L9" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="203" t="s">
+      <c r="M9" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="203" t="s">
+      <c r="N9" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="203" t="s">
+      <c r="O9" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="203" t="s">
+      <c r="P9" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="203" t="s">
+      <c r="Q9" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="203" t="s">
+      <c r="R9" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="203" t="s">
+      <c r="S9" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="203" t="s">
+      <c r="T9" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="203" t="s">
+      <c r="U9" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="203" t="s">
+      <c r="V9" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="W9" s="138"/>
-      <c r="X9" s="203" t="s">
+      <c r="W9" s="137"/>
+      <c r="X9" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="203" t="s">
+      <c r="Y9" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="203" t="s">
+      <c r="Z9" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="AA9" s="203" t="s">
+      <c r="AA9" s="191" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="203" t="s">
+      <c r="AB9" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="203" t="s">
+      <c r="AC9" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="203" t="s">
+      <c r="AD9" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="203" t="s">
+      <c r="AE9" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="203" t="s">
+      <c r="AF9" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="AG9" s="203" t="s">
+      <c r="AG9" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="AH9" s="203" t="s">
+      <c r="AH9" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="203" t="s">
+      <c r="AI9" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="AJ9" s="203" t="s">
+      <c r="AJ9" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="AK9" s="203" t="s">
+      <c r="AK9" s="191" t="s">
         <v>65</v>
       </c>
-      <c r="AL9" s="203" t="s">
+      <c r="AL9" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="AM9" s="203" t="s">
+      <c r="AM9" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="AN9" s="203" t="s">
+      <c r="AN9" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="AO9" s="203" t="s">
+      <c r="AO9" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="AP9" s="203" t="s">
+      <c r="AP9" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="203" t="s">
+      <c r="AQ9" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="124"/>
+      <c r="AR9" s="123"/>
       <c r="AS9" s="51">
         <v>3</v>
       </c>
       <c r="AT9" s="13"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10" s="134">
+      <c r="A10" s="133">
         <v>4</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="203" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="250" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="203" t="s">
+      <c r="D10" s="251" t="s">
+        <v>773</v>
+      </c>
+      <c r="E10" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="253" t="s">
+        <v>774</v>
+      </c>
+      <c r="K10" s="252" t="s">
+        <v>775</v>
+      </c>
+      <c r="L10" s="200" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="200" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="200" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="200" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="256" t="s">
+        <v>776</v>
+      </c>
+      <c r="R10" s="255" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="255" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="255" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="255" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="137"/>
+      <c r="X10" s="255" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="255" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="255" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="255" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="257" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC10" s="193" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="193" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE10" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF10" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG10" s="193" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH10" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI10" s="193" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ10" s="193" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK10" s="193" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10" s="193" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM10" s="193" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN10" s="193" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO10" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" s="193" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="203" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="203" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="203" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="203" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="203" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="203" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="203" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="203" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="203" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="203" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="203" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="203" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="203" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="203" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" s="138"/>
-      <c r="X10" s="203" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="203" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="203" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA10" s="203" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="203" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="203" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD10" s="203" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE10" s="203" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF10" s="203" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG10" s="203" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH10" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="203" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ10" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK10" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL10" s="203" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM10" s="203" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN10" s="203" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO10" s="203" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP10" s="203" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ10" s="203" t="s">
+      <c r="AQ10" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="AR10" s="174" t="s">
+      <c r="AR10" s="170" t="s">
         <v>537</v>
       </c>
       <c r="AS10" s="51">
@@ -5419,132 +4998,132 @@
       <c r="AT10" s="13"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="134">
+      <c r="A11" s="133">
         <v>5</v>
       </c>
       <c r="B11" s="115"/>
-      <c r="C11" s="203">
+      <c r="C11" s="193">
         <v>100</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="203" t="s">
+      <c r="E11" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="203" t="s">
+      <c r="F11" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="203" t="s">
+      <c r="G11" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="203" t="s">
+      <c r="H11" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="203" t="s">
+      <c r="I11" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="203" t="s">
+      <c r="J11" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="203" t="s">
+      <c r="K11" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="203" t="s">
+      <c r="L11" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="203" t="s">
+      <c r="M11" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="203" t="s">
+      <c r="N11" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="203" t="s">
+      <c r="O11" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="203" t="s">
+      <c r="P11" s="193" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="203" t="s">
+      <c r="Q11" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="203" t="s">
+      <c r="R11" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="203" t="s">
+      <c r="S11" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="203" t="s">
+      <c r="T11" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="203" t="s">
+      <c r="U11" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="203" t="s">
+      <c r="V11" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="W11" s="138"/>
-      <c r="X11" s="203" t="s">
+      <c r="W11" s="137"/>
+      <c r="X11" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="203" t="s">
+      <c r="Y11" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="203" t="s">
+      <c r="Z11" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="203" t="s">
+      <c r="AA11" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="203" t="s">
+      <c r="AB11" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="203" t="s">
+      <c r="AC11" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="203" t="s">
+      <c r="AD11" s="193" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="203" t="s">
+      <c r="AE11" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="203" t="s">
+      <c r="AF11" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="203" t="s">
+      <c r="AG11" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" s="203" t="s">
+      <c r="AH11" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="203" t="s">
+      <c r="AI11" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="AJ11" s="203" t="s">
+      <c r="AJ11" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="203" t="s">
+      <c r="AK11" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="203" t="s">
+      <c r="AL11" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="203" t="s">
+      <c r="AM11" s="193" t="s">
         <v>112</v>
       </c>
-      <c r="AN11" s="203" t="s">
+      <c r="AN11" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="AO11" s="203" t="s">
+      <c r="AO11" s="193" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" s="203" t="s">
+      <c r="AP11" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="AQ11" s="203" t="s">
+      <c r="AQ11" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="AR11" s="211" t="s">
+      <c r="AR11" s="197" t="s">
         <v>537</v>
       </c>
       <c r="AS11" s="51">
@@ -5553,1058 +5132,1056 @@
       <c r="AT11" s="13"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="134">
+      <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="301" t="s">
-        <v>801</v>
-      </c>
-      <c r="C12" s="202">
+      <c r="B12" s="270"/>
+      <c r="C12" s="193">
         <v>120</v>
       </c>
-      <c r="D12" s="202">
+      <c r="D12" s="193">
         <v>119</v>
       </c>
-      <c r="E12" s="202">
+      <c r="E12" s="193">
         <v>118</v>
       </c>
-      <c r="F12" s="202">
+      <c r="F12" s="193">
         <v>117</v>
       </c>
-      <c r="G12" s="202">
+      <c r="G12" s="193">
         <v>116</v>
       </c>
-      <c r="H12" s="202">
+      <c r="H12" s="193">
         <v>115</v>
       </c>
-      <c r="I12" s="202">
+      <c r="I12" s="193">
         <v>114</v>
       </c>
-      <c r="J12" s="202">
+      <c r="J12" s="193">
         <v>113</v>
       </c>
-      <c r="K12" s="202">
+      <c r="K12" s="193">
         <v>112</v>
       </c>
-      <c r="L12" s="202">
+      <c r="L12" s="193">
         <v>111</v>
       </c>
-      <c r="M12" s="202">
+      <c r="M12" s="193">
         <v>110</v>
       </c>
-      <c r="N12" s="202">
+      <c r="N12" s="193">
         <v>109</v>
       </c>
-      <c r="O12" s="202">
+      <c r="O12" s="193">
         <v>108</v>
       </c>
-      <c r="P12" s="202">
+      <c r="P12" s="193">
         <v>107</v>
       </c>
-      <c r="Q12" s="202">
+      <c r="Q12" s="193">
         <v>106</v>
       </c>
-      <c r="R12" s="202">
+      <c r="R12" s="193">
         <v>105</v>
       </c>
-      <c r="S12" s="202">
+      <c r="S12" s="193">
         <v>104</v>
       </c>
-      <c r="T12" s="202">
+      <c r="T12" s="193">
         <v>103</v>
       </c>
-      <c r="U12" s="202">
+      <c r="U12" s="193">
         <v>102</v>
       </c>
-      <c r="V12" s="202">
+      <c r="V12" s="193">
         <v>101</v>
       </c>
-      <c r="W12" s="193"/>
-      <c r="X12" s="202">
+      <c r="W12" s="184"/>
+      <c r="X12" s="193">
         <v>101</v>
       </c>
-      <c r="Y12" s="202" t="s">
+      <c r="Y12" s="193" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="202">
+      <c r="Z12" s="193">
         <v>102</v>
       </c>
-      <c r="AA12" s="202" t="s">
+      <c r="AA12" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="202">
+      <c r="AB12" s="193">
         <v>103</v>
       </c>
-      <c r="AC12" s="202" t="s">
+      <c r="AC12" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="202">
+      <c r="AD12" s="193">
         <v>104</v>
       </c>
-      <c r="AE12" s="202" t="s">
+      <c r="AE12" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="202">
+      <c r="AF12" s="193">
         <v>105</v>
       </c>
-      <c r="AG12" s="202" t="s">
+      <c r="AG12" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="202">
+      <c r="AH12" s="193">
         <v>106</v>
       </c>
-      <c r="AI12" s="202" t="s">
+      <c r="AI12" s="193" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" s="202">
+      <c r="AJ12" s="193">
         <v>107</v>
       </c>
-      <c r="AK12" s="202" t="s">
+      <c r="AK12" s="193" t="s">
         <v>142</v>
       </c>
-      <c r="AL12" s="202">
+      <c r="AL12" s="193">
         <v>108</v>
       </c>
-      <c r="AM12" s="202" t="s">
+      <c r="AM12" s="193" t="s">
         <v>141</v>
       </c>
-      <c r="AN12" s="202">
+      <c r="AN12" s="193">
         <v>109</v>
       </c>
-      <c r="AO12" s="202" t="s">
+      <c r="AO12" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="202">
+      <c r="AP12" s="193">
         <v>110</v>
       </c>
-      <c r="AQ12" s="202" t="s">
+      <c r="AQ12" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="AR12" s="120"/>
+      <c r="AR12" s="119"/>
       <c r="AS12" s="51">
         <v>6</v>
       </c>
       <c r="AT12" s="13"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A13" s="134">
+      <c r="A13" s="133">
         <v>7</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="217">
+      <c r="B13" s="119"/>
+      <c r="C13" s="193">
         <v>140</v>
       </c>
-      <c r="D13" s="217">
+      <c r="D13" s="193">
         <v>139</v>
       </c>
-      <c r="E13" s="217">
+      <c r="E13" s="193">
         <v>138</v>
       </c>
-      <c r="F13" s="217">
+      <c r="F13" s="193">
         <v>137</v>
       </c>
-      <c r="G13" s="217">
+      <c r="G13" s="193">
         <v>136</v>
       </c>
-      <c r="H13" s="217">
+      <c r="H13" s="193">
         <v>135</v>
       </c>
-      <c r="I13" s="217">
+      <c r="I13" s="193">
         <v>134</v>
       </c>
-      <c r="J13" s="217">
+      <c r="J13" s="193">
         <v>133</v>
       </c>
-      <c r="K13" s="217">
+      <c r="K13" s="193">
         <v>132</v>
       </c>
-      <c r="L13" s="217">
+      <c r="L13" s="193">
         <v>131</v>
       </c>
-      <c r="M13" s="217">
+      <c r="M13" s="193">
         <v>130</v>
       </c>
-      <c r="N13" s="217">
+      <c r="N13" s="193">
         <v>129</v>
       </c>
-      <c r="O13" s="217">
+      <c r="O13" s="193">
         <v>128</v>
       </c>
-      <c r="P13" s="217">
+      <c r="P13" s="193">
         <v>127</v>
       </c>
-      <c r="Q13" s="217">
+      <c r="Q13" s="193">
         <v>126</v>
       </c>
-      <c r="R13" s="217">
+      <c r="R13" s="193">
         <v>125</v>
       </c>
-      <c r="S13" s="217">
+      <c r="S13" s="193">
         <v>124</v>
       </c>
-      <c r="T13" s="217">
+      <c r="T13" s="193">
         <v>123</v>
       </c>
-      <c r="U13" s="217">
+      <c r="U13" s="193">
         <v>122</v>
       </c>
-      <c r="V13" s="217">
+      <c r="V13" s="193">
         <v>121</v>
       </c>
-      <c r="W13" s="138"/>
-      <c r="X13" s="217">
+      <c r="W13" s="137"/>
+      <c r="X13" s="193">
         <v>121</v>
       </c>
-      <c r="Y13" s="217">
+      <c r="Y13" s="193">
         <v>122</v>
       </c>
-      <c r="Z13" s="217">
+      <c r="Z13" s="193">
         <v>123</v>
       </c>
-      <c r="AA13" s="217">
+      <c r="AA13" s="193">
         <v>124</v>
       </c>
-      <c r="AB13" s="217">
+      <c r="AB13" s="193">
         <v>125</v>
       </c>
-      <c r="AC13" s="217">
+      <c r="AC13" s="193">
         <v>126</v>
       </c>
-      <c r="AD13" s="217">
+      <c r="AD13" s="193">
         <v>127</v>
       </c>
-      <c r="AE13" s="217">
+      <c r="AE13" s="193">
         <v>128</v>
       </c>
-      <c r="AF13" s="217">
+      <c r="AF13" s="193">
         <v>129</v>
       </c>
-      <c r="AG13" s="217">
+      <c r="AG13" s="193">
         <v>130</v>
       </c>
-      <c r="AH13" s="217">
+      <c r="AH13" s="193">
         <v>131</v>
       </c>
-      <c r="AI13" s="217">
+      <c r="AI13" s="193">
         <v>132</v>
       </c>
-      <c r="AJ13" s="217">
+      <c r="AJ13" s="193">
         <v>133</v>
       </c>
-      <c r="AK13" s="217">
+      <c r="AK13" s="193">
         <v>134</v>
       </c>
-      <c r="AL13" s="217">
+      <c r="AL13" s="193">
         <v>135</v>
       </c>
-      <c r="AM13" s="217">
+      <c r="AM13" s="193">
         <v>136</v>
       </c>
-      <c r="AN13" s="217">
+      <c r="AN13" s="193">
         <v>137</v>
       </c>
-      <c r="AO13" s="217">
+      <c r="AO13" s="193">
         <v>138</v>
       </c>
-      <c r="AP13" s="217">
+      <c r="AP13" s="193">
         <v>139</v>
       </c>
-      <c r="AQ13" s="217">
+      <c r="AQ13" s="193">
         <v>140</v>
       </c>
-      <c r="AR13" s="120"/>
+      <c r="AR13" s="119"/>
       <c r="AS13" s="51">
         <v>7</v>
       </c>
       <c r="AT13" s="13"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" s="134">
+      <c r="A14" s="133">
         <v>8</v>
       </c>
       <c r="B14" s="115"/>
-      <c r="C14" s="204">
+      <c r="C14" s="193">
         <v>160</v>
       </c>
-      <c r="D14" s="204">
+      <c r="D14" s="193">
         <v>159</v>
       </c>
-      <c r="E14" s="204">
+      <c r="E14" s="193">
         <v>158</v>
       </c>
-      <c r="F14" s="204">
+      <c r="F14" s="193">
         <v>157</v>
       </c>
-      <c r="G14" s="204">
+      <c r="G14" s="193">
         <v>156</v>
       </c>
-      <c r="H14" s="204">
+      <c r="H14" s="193">
         <v>155</v>
       </c>
-      <c r="I14" s="204">
+      <c r="I14" s="193">
         <v>154</v>
       </c>
-      <c r="J14" s="204">
+      <c r="J14" s="193">
         <v>153</v>
       </c>
-      <c r="K14" s="204">
+      <c r="K14" s="193">
         <v>152</v>
       </c>
-      <c r="L14" s="204">
+      <c r="L14" s="193">
         <v>151</v>
       </c>
-      <c r="M14" s="204">
+      <c r="M14" s="193">
         <v>150</v>
       </c>
-      <c r="N14" s="204">
+      <c r="N14" s="193">
         <v>149</v>
       </c>
-      <c r="O14" s="204">
+      <c r="O14" s="193">
         <v>148</v>
       </c>
-      <c r="P14" s="204">
+      <c r="P14" s="193">
         <v>147</v>
       </c>
-      <c r="Q14" s="204">
+      <c r="Q14" s="193">
         <v>146</v>
       </c>
-      <c r="R14" s="204">
+      <c r="R14" s="193">
         <v>145</v>
       </c>
-      <c r="S14" s="204">
+      <c r="S14" s="193">
         <v>144</v>
       </c>
-      <c r="T14" s="204">
+      <c r="T14" s="193">
         <v>143</v>
       </c>
-      <c r="U14" s="204">
+      <c r="U14" s="193">
         <v>142</v>
       </c>
-      <c r="V14" s="204">
+      <c r="V14" s="193">
         <v>141</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="X14" s="204" t="s">
+      <c r="W14" s="137"/>
+      <c r="X14" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="204" t="s">
+      <c r="Y14" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="Z14" s="204" t="s">
+      <c r="Z14" s="193" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="204" t="s">
+      <c r="AA14" s="193" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="204" t="s">
+      <c r="AB14" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="AC14" s="204" t="s">
+      <c r="AC14" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="204" t="s">
+      <c r="AD14" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="204" t="s">
+      <c r="AE14" s="193" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="204" t="s">
+      <c r="AF14" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="204" t="s">
+      <c r="AG14" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="AH14" s="204" t="s">
+      <c r="AH14" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="AI14" s="204" t="s">
+      <c r="AI14" s="193" t="s">
         <v>184</v>
       </c>
-      <c r="AJ14" s="204" t="s">
+      <c r="AJ14" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="AK14" s="204" t="s">
+      <c r="AK14" s="193" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="204" t="s">
+      <c r="AL14" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="AM14" s="204" t="s">
+      <c r="AM14" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="AN14" s="204" t="s">
+      <c r="AN14" s="193" t="s">
         <v>179</v>
       </c>
-      <c r="AO14" s="204" t="s">
+      <c r="AO14" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" s="204" t="s">
+      <c r="AP14" s="193" t="s">
         <v>177</v>
       </c>
-      <c r="AQ14" s="204" t="s">
+      <c r="AQ14" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="AR14" s="120"/>
+      <c r="AR14" s="119"/>
       <c r="AS14" s="51">
         <v>8</v>
       </c>
       <c r="AT14" s="13"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="134">
+      <c r="A15" s="133">
         <v>9</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="207" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="207" t="s">
+      <c r="D15" s="193" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="207" t="s">
+      <c r="E15" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="207" t="s">
+      <c r="F15" s="193" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="207" t="s">
+      <c r="G15" s="193" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="207" t="s">
+      <c r="H15" s="193" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="207" t="s">
+      <c r="I15" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="207" t="s">
+      <c r="J15" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="207" t="s">
+      <c r="K15" s="193" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="207" t="s">
+      <c r="L15" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="207" t="s">
+      <c r="M15" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="207" t="s">
+      <c r="N15" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="207" t="s">
+      <c r="O15" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="P15" s="207" t="s">
+      <c r="P15" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="207" t="s">
+      <c r="Q15" s="193" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="207" t="s">
+      <c r="R15" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="207" t="s">
+      <c r="S15" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="207" t="s">
+      <c r="T15" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="207" t="s">
+      <c r="U15" s="193" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="207" t="s">
+      <c r="V15" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="W15" s="138"/>
-      <c r="X15" s="207" t="s">
+      <c r="W15" s="137"/>
+      <c r="X15" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="207" t="s">
+      <c r="Y15" s="193" t="s">
         <v>174</v>
       </c>
-      <c r="Z15" s="207" t="s">
+      <c r="Z15" s="193" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="207" t="s">
+      <c r="AA15" s="193" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="207" t="s">
+      <c r="AB15" s="193" t="s">
         <v>171</v>
       </c>
-      <c r="AC15" s="207" t="s">
+      <c r="AC15" s="193" t="s">
         <v>170</v>
       </c>
-      <c r="AD15" s="207" t="s">
+      <c r="AD15" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="AE15" s="207" t="s">
+      <c r="AE15" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="AF15" s="207" t="s">
+      <c r="AF15" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="AG15" s="207" t="s">
+      <c r="AG15" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="AH15" s="207" t="s">
+      <c r="AH15" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="AI15" s="207" t="s">
+      <c r="AI15" s="193" t="s">
         <v>206</v>
       </c>
-      <c r="AJ15" s="207" t="s">
+      <c r="AJ15" s="193" t="s">
         <v>205</v>
       </c>
-      <c r="AK15" s="207" t="s">
+      <c r="AK15" s="193" t="s">
         <v>204</v>
       </c>
-      <c r="AL15" s="207" t="s">
+      <c r="AL15" s="193" t="s">
         <v>203</v>
       </c>
-      <c r="AM15" s="207" t="s">
+      <c r="AM15" s="193" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="207" t="s">
+      <c r="AN15" s="193" t="s">
         <v>201</v>
       </c>
-      <c r="AO15" s="207" t="s">
+      <c r="AO15" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="AP15" s="207" t="s">
+      <c r="AP15" s="193" t="s">
         <v>199</v>
       </c>
-      <c r="AQ15" s="207" t="s">
+      <c r="AQ15" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="AR15" s="124"/>
+      <c r="AR15" s="123"/>
       <c r="AS15" s="51">
         <v>9</v>
       </c>
       <c r="AT15" s="13"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="134">
+      <c r="A16" s="133">
         <v>10</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="207">
+      <c r="B16" s="124"/>
+      <c r="C16" s="193">
         <v>200</v>
       </c>
-      <c r="D16" s="207">
+      <c r="D16" s="193">
         <v>199</v>
       </c>
-      <c r="E16" s="207" t="s">
+      <c r="E16" s="193" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="207" t="s">
+      <c r="F16" s="193" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="207" t="s">
+      <c r="G16" s="193" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="207" t="s">
+      <c r="H16" s="193" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="207" t="s">
+      <c r="I16" s="193" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="207" t="s">
+      <c r="J16" s="193" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="207" t="s">
+      <c r="K16" s="193" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="207" t="s">
+      <c r="L16" s="193" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="207" t="s">
+      <c r="M16" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="207" t="s">
+      <c r="N16" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="207" t="s">
+      <c r="O16" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="207" t="s">
+      <c r="P16" s="193" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="207" t="s">
+      <c r="Q16" s="193" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="207" t="s">
+      <c r="R16" s="193" t="s">
         <v>193</v>
       </c>
-      <c r="S16" s="207" t="s">
+      <c r="S16" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="207" t="s">
+      <c r="T16" s="193" t="s">
         <v>195</v>
       </c>
-      <c r="U16" s="207" t="s">
+      <c r="U16" s="193" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="207" t="s">
+      <c r="V16" s="193" t="s">
         <v>197</v>
       </c>
-      <c r="W16" s="153"/>
-      <c r="X16" s="207">
+      <c r="W16" s="151"/>
+      <c r="X16" s="193">
         <v>181</v>
       </c>
-      <c r="Y16" s="207">
+      <c r="Y16" s="193">
         <v>182</v>
       </c>
-      <c r="Z16" s="207">
+      <c r="Z16" s="193">
         <v>183</v>
       </c>
-      <c r="AA16" s="207">
+      <c r="AA16" s="193">
         <v>184</v>
       </c>
-      <c r="AB16" s="207">
+      <c r="AB16" s="193">
         <v>185</v>
       </c>
-      <c r="AC16" s="207">
+      <c r="AC16" s="193">
         <v>186</v>
       </c>
-      <c r="AD16" s="207">
+      <c r="AD16" s="193">
         <v>187</v>
       </c>
-      <c r="AE16" s="207">
+      <c r="AE16" s="193">
         <v>188</v>
       </c>
-      <c r="AF16" s="207">
+      <c r="AF16" s="193">
         <v>189</v>
       </c>
-      <c r="AG16" s="207">
+      <c r="AG16" s="193">
         <v>190</v>
       </c>
-      <c r="AH16" s="207">
+      <c r="AH16" s="193">
         <v>191</v>
       </c>
-      <c r="AI16" s="207">
+      <c r="AI16" s="193">
         <v>192</v>
       </c>
-      <c r="AJ16" s="207">
+      <c r="AJ16" s="193">
         <v>193</v>
       </c>
-      <c r="AK16" s="207">
+      <c r="AK16" s="193">
         <v>194</v>
       </c>
-      <c r="AL16" s="207">
+      <c r="AL16" s="193">
         <v>195</v>
       </c>
-      <c r="AM16" s="207">
+      <c r="AM16" s="193">
         <v>196</v>
       </c>
-      <c r="AN16" s="207">
+      <c r="AN16" s="193">
         <v>197</v>
       </c>
-      <c r="AO16" s="207">
+      <c r="AO16" s="193">
         <v>198</v>
       </c>
-      <c r="AP16" s="207">
+      <c r="AP16" s="193">
         <v>199</v>
       </c>
-      <c r="AQ16" s="207">
+      <c r="AQ16" s="193">
         <v>200</v>
       </c>
-      <c r="AR16" s="120"/>
+      <c r="AR16" s="119"/>
       <c r="AS16" s="51">
         <v>10</v>
       </c>
       <c r="AT16" s="13"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A17" s="134">
+      <c r="A17" s="133">
         <v>11</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="207">
+      <c r="B17" s="119"/>
+      <c r="C17" s="193">
         <v>220</v>
       </c>
-      <c r="D17" s="207">
+      <c r="D17" s="193">
         <v>219</v>
       </c>
-      <c r="E17" s="207">
+      <c r="E17" s="193">
         <v>218</v>
       </c>
-      <c r="F17" s="207">
+      <c r="F17" s="193">
         <v>217</v>
       </c>
-      <c r="G17" s="207">
+      <c r="G17" s="193">
         <v>216</v>
       </c>
-      <c r="H17" s="207">
+      <c r="H17" s="193">
         <v>215</v>
       </c>
-      <c r="I17" s="207">
+      <c r="I17" s="193">
         <v>214</v>
       </c>
-      <c r="J17" s="207">
+      <c r="J17" s="193">
         <v>213</v>
       </c>
-      <c r="K17" s="207">
+      <c r="K17" s="193">
         <v>212</v>
       </c>
-      <c r="L17" s="207">
+      <c r="L17" s="193">
         <v>211</v>
       </c>
-      <c r="M17" s="207">
+      <c r="M17" s="193">
         <v>210</v>
       </c>
-      <c r="N17" s="207">
+      <c r="N17" s="193">
         <v>209</v>
       </c>
-      <c r="O17" s="207">
+      <c r="O17" s="193">
         <v>208</v>
       </c>
-      <c r="P17" s="207">
+      <c r="P17" s="193">
         <v>207</v>
       </c>
-      <c r="Q17" s="207">
+      <c r="Q17" s="193">
         <v>206</v>
       </c>
-      <c r="R17" s="207">
+      <c r="R17" s="193">
         <v>205</v>
       </c>
-      <c r="S17" s="207">
+      <c r="S17" s="193">
         <v>204</v>
       </c>
-      <c r="T17" s="207">
+      <c r="T17" s="193">
         <v>203</v>
       </c>
-      <c r="U17" s="207">
+      <c r="U17" s="193">
         <v>202</v>
       </c>
-      <c r="V17" s="207">
+      <c r="V17" s="193">
         <v>201</v>
       </c>
-      <c r="W17" s="138"/>
-      <c r="X17" s="207" t="s">
+      <c r="W17" s="137"/>
+      <c r="X17" s="193" t="s">
         <v>221</v>
       </c>
-      <c r="Y17" s="207" t="s">
+      <c r="Y17" s="193" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="207" t="s">
+      <c r="Z17" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="AA17" s="207" t="s">
+      <c r="AA17" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="AB17" s="207" t="s">
+      <c r="AB17" s="193" t="s">
         <v>217</v>
       </c>
-      <c r="AC17" s="207" t="s">
+      <c r="AC17" s="193" t="s">
         <v>216</v>
       </c>
-      <c r="AD17" s="207" t="s">
+      <c r="AD17" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="AE17" s="207" t="s">
+      <c r="AE17" s="193" t="s">
         <v>214</v>
       </c>
-      <c r="AF17" s="207" t="s">
+      <c r="AF17" s="193" t="s">
         <v>213</v>
       </c>
-      <c r="AG17" s="207" t="s">
+      <c r="AG17" s="193" t="s">
         <v>212</v>
       </c>
-      <c r="AH17" s="207" t="s">
+      <c r="AH17" s="193" t="s">
         <v>250</v>
       </c>
-      <c r="AI17" s="207" t="s">
+      <c r="AI17" s="193" t="s">
         <v>249</v>
       </c>
-      <c r="AJ17" s="207" t="s">
+      <c r="AJ17" s="193" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" s="207" t="s">
+      <c r="AK17" s="193" t="s">
         <v>247</v>
       </c>
-      <c r="AL17" s="207" t="s">
+      <c r="AL17" s="193" t="s">
         <v>246</v>
       </c>
-      <c r="AM17" s="207" t="s">
+      <c r="AM17" s="193" t="s">
         <v>245</v>
       </c>
-      <c r="AN17" s="207" t="s">
+      <c r="AN17" s="193" t="s">
         <v>244</v>
       </c>
-      <c r="AO17" s="207" t="s">
+      <c r="AO17" s="193" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="207" t="s">
+      <c r="AP17" s="193" t="s">
         <v>242</v>
       </c>
-      <c r="AQ17" s="207" t="s">
+      <c r="AQ17" s="193" t="s">
         <v>241</v>
       </c>
-      <c r="AR17" s="120"/>
+      <c r="AR17" s="119"/>
       <c r="AS17" s="51">
         <v>11</v>
       </c>
       <c r="AT17" s="13"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" s="134">
+      <c r="A18" s="133">
         <v>12</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="207">
+      <c r="B18" s="119"/>
+      <c r="C18" s="193">
         <v>240</v>
       </c>
-      <c r="D18" s="207">
+      <c r="D18" s="193">
         <v>239</v>
       </c>
-      <c r="E18" s="207">
+      <c r="E18" s="193">
         <v>238</v>
       </c>
-      <c r="F18" s="207">
+      <c r="F18" s="193">
         <v>237</v>
       </c>
-      <c r="G18" s="207">
+      <c r="G18" s="193">
         <v>236</v>
       </c>
-      <c r="H18" s="207">
+      <c r="H18" s="193">
         <v>235</v>
       </c>
-      <c r="I18" s="207">
+      <c r="I18" s="193">
         <v>234</v>
       </c>
-      <c r="J18" s="207">
+      <c r="J18" s="193">
         <v>233</v>
       </c>
-      <c r="K18" s="207">
+      <c r="K18" s="193">
         <v>232</v>
       </c>
-      <c r="L18" s="207">
+      <c r="L18" s="193">
         <v>231</v>
       </c>
-      <c r="M18" s="207">
+      <c r="M18" s="193">
         <v>230</v>
       </c>
-      <c r="N18" s="207">
+      <c r="N18" s="193">
         <v>229</v>
       </c>
-      <c r="O18" s="207">
+      <c r="O18" s="193">
         <v>228</v>
       </c>
-      <c r="P18" s="207">
+      <c r="P18" s="193">
         <v>227</v>
       </c>
-      <c r="Q18" s="207">
+      <c r="Q18" s="193">
         <v>226</v>
       </c>
-      <c r="R18" s="207">
+      <c r="R18" s="193">
         <v>225</v>
       </c>
-      <c r="S18" s="207">
+      <c r="S18" s="193">
         <v>224</v>
       </c>
-      <c r="T18" s="207">
+      <c r="T18" s="193">
         <v>223</v>
       </c>
-      <c r="U18" s="207">
+      <c r="U18" s="193">
         <v>222</v>
       </c>
-      <c r="V18" s="207">
+      <c r="V18" s="193">
         <v>221</v>
       </c>
-      <c r="W18" s="138"/>
-      <c r="X18" s="207" t="s">
+      <c r="W18" s="137"/>
+      <c r="X18" s="193" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="207" t="s">
+      <c r="Y18" s="193" t="s">
         <v>239</v>
       </c>
-      <c r="Z18" s="207" t="s">
+      <c r="Z18" s="193" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="207" t="s">
+      <c r="AA18" s="193" t="s">
         <v>237</v>
       </c>
-      <c r="AB18" s="207" t="s">
+      <c r="AB18" s="193" t="s">
         <v>251</v>
       </c>
-      <c r="AC18" s="207" t="s">
+      <c r="AC18" s="193" t="s">
         <v>252</v>
       </c>
-      <c r="AD18" s="207" t="s">
+      <c r="AD18" s="193" t="s">
         <v>253</v>
       </c>
-      <c r="AE18" s="207" t="s">
+      <c r="AE18" s="193" t="s">
         <v>236</v>
       </c>
-      <c r="AF18" s="207" t="s">
+      <c r="AF18" s="193" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="207" t="s">
+      <c r="AG18" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="AH18" s="207" t="s">
+      <c r="AH18" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="207" t="s">
+      <c r="AI18" s="193" t="s">
         <v>276</v>
       </c>
-      <c r="AJ18" s="207" t="s">
+      <c r="AJ18" s="193" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="207" t="s">
+      <c r="AK18" s="193" t="s">
         <v>274</v>
       </c>
-      <c r="AL18" s="207" t="s">
+      <c r="AL18" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="AM18" s="207" t="s">
+      <c r="AM18" s="193" t="s">
         <v>272</v>
       </c>
-      <c r="AN18" s="207" t="s">
+      <c r="AN18" s="193" t="s">
         <v>271</v>
       </c>
-      <c r="AO18" s="207" t="s">
+      <c r="AO18" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="AP18" s="207" t="s">
+      <c r="AP18" s="193" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="207" t="s">
+      <c r="AQ18" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="AR18" s="120"/>
+      <c r="AR18" s="119"/>
       <c r="AS18" s="51">
         <v>12</v>
       </c>
       <c r="AT18" s="13"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A19" s="134">
+      <c r="A19" s="133">
         <v>13</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="207">
+      <c r="B19" s="119"/>
+      <c r="C19" s="193">
         <v>260</v>
       </c>
-      <c r="D19" s="207">
+      <c r="D19" s="193">
         <v>259</v>
       </c>
-      <c r="E19" s="207">
+      <c r="E19" s="193">
         <v>258</v>
       </c>
-      <c r="F19" s="207">
+      <c r="F19" s="193">
         <v>257</v>
       </c>
-      <c r="G19" s="207">
+      <c r="G19" s="193">
         <v>256</v>
       </c>
-      <c r="H19" s="207">
+      <c r="H19" s="193">
         <v>255</v>
       </c>
-      <c r="I19" s="207">
+      <c r="I19" s="193">
         <v>254</v>
       </c>
-      <c r="J19" s="207">
+      <c r="J19" s="193">
         <v>253</v>
       </c>
-      <c r="K19" s="207">
+      <c r="K19" s="193">
         <v>252</v>
       </c>
-      <c r="L19" s="207">
+      <c r="L19" s="193">
         <v>251</v>
       </c>
-      <c r="M19" s="207">
+      <c r="M19" s="193">
         <v>250</v>
       </c>
-      <c r="N19" s="207">
+      <c r="N19" s="193">
         <v>249</v>
       </c>
-      <c r="O19" s="207">
+      <c r="O19" s="193">
         <v>248</v>
       </c>
-      <c r="P19" s="207">
+      <c r="P19" s="193">
         <v>247</v>
       </c>
-      <c r="Q19" s="207">
+      <c r="Q19" s="193">
         <v>246</v>
       </c>
-      <c r="R19" s="207">
+      <c r="R19" s="193">
         <v>245</v>
       </c>
-      <c r="S19" s="207">
+      <c r="S19" s="193">
         <v>244</v>
       </c>
-      <c r="T19" s="207">
+      <c r="T19" s="193">
         <v>243</v>
       </c>
-      <c r="U19" s="207">
+      <c r="U19" s="193">
         <v>242</v>
       </c>
-      <c r="V19" s="207">
+      <c r="V19" s="193">
         <v>241</v>
       </c>
-      <c r="W19" s="138"/>
-      <c r="X19" s="207">
+      <c r="W19" s="137"/>
+      <c r="X19" s="193">
         <v>241</v>
       </c>
-      <c r="Y19" s="207">
+      <c r="Y19" s="193">
         <v>242</v>
       </c>
-      <c r="Z19" s="207">
+      <c r="Z19" s="193">
         <v>243</v>
       </c>
-      <c r="AA19" s="207">
+      <c r="AA19" s="193">
         <v>244</v>
       </c>
-      <c r="AB19" s="207">
+      <c r="AB19" s="193">
         <v>245</v>
       </c>
-      <c r="AC19" s="207">
+      <c r="AC19" s="193">
         <v>246</v>
       </c>
-      <c r="AD19" s="207">
+      <c r="AD19" s="193">
         <v>247</v>
       </c>
-      <c r="AE19" s="207">
+      <c r="AE19" s="193">
         <v>248</v>
       </c>
-      <c r="AF19" s="207">
+      <c r="AF19" s="193">
         <v>249</v>
       </c>
-      <c r="AG19" s="207">
+      <c r="AG19" s="193">
         <v>250</v>
       </c>
-      <c r="AH19" s="207">
+      <c r="AH19" s="193">
         <v>251</v>
       </c>
-      <c r="AI19" s="207">
+      <c r="AI19" s="193">
         <v>252</v>
       </c>
-      <c r="AJ19" s="207">
+      <c r="AJ19" s="193">
         <v>253</v>
       </c>
-      <c r="AK19" s="207">
+      <c r="AK19" s="193">
         <v>254</v>
       </c>
-      <c r="AL19" s="207">
+      <c r="AL19" s="193">
         <v>255</v>
       </c>
-      <c r="AM19" s="207">
+      <c r="AM19" s="193">
         <v>256</v>
       </c>
-      <c r="AN19" s="207">
+      <c r="AN19" s="193">
         <v>257</v>
       </c>
-      <c r="AO19" s="207">
+      <c r="AO19" s="193">
         <v>258</v>
       </c>
-      <c r="AP19" s="207">
+      <c r="AP19" s="193">
         <v>259</v>
       </c>
-      <c r="AQ19" s="207">
+      <c r="AQ19" s="193">
         <v>260</v>
       </c>
-      <c r="AR19" s="187" t="s">
+      <c r="AR19" s="178" t="s">
         <v>460</v>
       </c>
       <c r="AS19" s="51">
@@ -6613,132 +6190,132 @@
       <c r="AT19" s="13"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A20" s="134">
+      <c r="A20" s="133">
         <v>14</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="207">
+      <c r="B20" s="198"/>
+      <c r="C20" s="193">
         <v>280</v>
       </c>
-      <c r="D20" s="207">
+      <c r="D20" s="193">
         <v>279</v>
       </c>
-      <c r="E20" s="207">
+      <c r="E20" s="193">
         <v>278</v>
       </c>
-      <c r="F20" s="207">
+      <c r="F20" s="193">
         <v>277</v>
       </c>
-      <c r="G20" s="207">
+      <c r="G20" s="193">
         <v>276</v>
       </c>
-      <c r="H20" s="207">
+      <c r="H20" s="193">
         <v>275</v>
       </c>
-      <c r="I20" s="207">
+      <c r="I20" s="193">
         <v>274</v>
       </c>
-      <c r="J20" s="207">
+      <c r="J20" s="193">
         <v>273</v>
       </c>
-      <c r="K20" s="207">
+      <c r="K20" s="193">
         <v>272</v>
       </c>
-      <c r="L20" s="207">
+      <c r="L20" s="193">
         <v>271</v>
       </c>
-      <c r="M20" s="207">
+      <c r="M20" s="193">
         <v>270</v>
       </c>
-      <c r="N20" s="207">
+      <c r="N20" s="193">
         <v>269</v>
       </c>
-      <c r="O20" s="207">
+      <c r="O20" s="193">
         <v>268</v>
       </c>
-      <c r="P20" s="207">
+      <c r="P20" s="193">
         <v>267</v>
       </c>
-      <c r="Q20" s="207">
+      <c r="Q20" s="193">
         <v>266</v>
       </c>
-      <c r="R20" s="207">
+      <c r="R20" s="193">
         <v>265</v>
       </c>
-      <c r="S20" s="207">
+      <c r="S20" s="193">
         <v>264</v>
       </c>
-      <c r="T20" s="207">
+      <c r="T20" s="193">
         <v>263</v>
       </c>
-      <c r="U20" s="207">
+      <c r="U20" s="193">
         <v>262</v>
       </c>
-      <c r="V20" s="207">
+      <c r="V20" s="193">
         <v>261</v>
       </c>
-      <c r="W20" s="154"/>
-      <c r="X20" s="218">
+      <c r="W20" s="152"/>
+      <c r="X20" s="193">
         <v>261</v>
       </c>
-      <c r="Y20" s="218">
+      <c r="Y20" s="193">
         <v>262</v>
       </c>
-      <c r="Z20" s="218">
+      <c r="Z20" s="193">
         <v>263</v>
       </c>
-      <c r="AA20" s="218">
+      <c r="AA20" s="193">
         <v>264</v>
       </c>
-      <c r="AB20" s="218">
+      <c r="AB20" s="193">
         <v>265</v>
       </c>
-      <c r="AC20" s="218">
+      <c r="AC20" s="193">
         <v>266</v>
       </c>
-      <c r="AD20" s="218">
+      <c r="AD20" s="193">
         <v>267</v>
       </c>
-      <c r="AE20" s="218">
+      <c r="AE20" s="193">
         <v>268</v>
       </c>
-      <c r="AF20" s="218">
+      <c r="AF20" s="193">
         <v>269</v>
       </c>
-      <c r="AG20" s="218">
+      <c r="AG20" s="193">
         <v>270</v>
       </c>
-      <c r="AH20" s="218">
+      <c r="AH20" s="193">
         <v>271</v>
       </c>
-      <c r="AI20" s="218">
+      <c r="AI20" s="193">
         <v>272</v>
       </c>
-      <c r="AJ20" s="218">
+      <c r="AJ20" s="193">
         <v>273</v>
       </c>
-      <c r="AK20" s="218">
+      <c r="AK20" s="193">
         <v>274</v>
       </c>
-      <c r="AL20" s="218">
+      <c r="AL20" s="193">
         <v>275</v>
       </c>
-      <c r="AM20" s="218">
+      <c r="AM20" s="193">
         <v>276</v>
       </c>
-      <c r="AN20" s="218">
+      <c r="AN20" s="193">
         <v>277</v>
       </c>
-      <c r="AO20" s="218">
+      <c r="AO20" s="193">
         <v>278</v>
       </c>
-      <c r="AP20" s="218">
+      <c r="AP20" s="193">
         <v>279</v>
       </c>
-      <c r="AQ20" s="218">
+      <c r="AQ20" s="193">
         <v>280</v>
       </c>
-      <c r="AR20" s="211" t="s">
+      <c r="AR20" s="197" t="s">
         <v>460</v>
       </c>
       <c r="AS20" s="51">
@@ -6747,132 +6324,132 @@
       <c r="AT20" s="13"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A21" s="134">
+      <c r="A21" s="133">
         <v>15</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="219">
+      <c r="B21" s="119"/>
+      <c r="C21" s="193">
         <v>300</v>
       </c>
-      <c r="D21" s="219">
+      <c r="D21" s="193">
         <v>299</v>
       </c>
-      <c r="E21" s="219">
+      <c r="E21" s="193">
         <v>298</v>
       </c>
-      <c r="F21" s="219">
+      <c r="F21" s="193">
         <v>297</v>
       </c>
-      <c r="G21" s="219">
+      <c r="G21" s="193">
         <v>296</v>
       </c>
-      <c r="H21" s="219">
+      <c r="H21" s="193">
         <v>295</v>
       </c>
-      <c r="I21" s="219">
+      <c r="I21" s="193">
         <v>294</v>
       </c>
-      <c r="J21" s="219">
+      <c r="J21" s="193">
         <v>293</v>
       </c>
-      <c r="K21" s="219">
+      <c r="K21" s="193">
         <v>292</v>
       </c>
-      <c r="L21" s="219">
+      <c r="L21" s="193">
         <v>291</v>
       </c>
-      <c r="M21" s="219">
+      <c r="M21" s="193">
         <v>290</v>
       </c>
-      <c r="N21" s="219">
+      <c r="N21" s="193">
         <v>289</v>
       </c>
-      <c r="O21" s="219">
+      <c r="O21" s="193">
         <v>288</v>
       </c>
-      <c r="P21" s="219">
+      <c r="P21" s="193">
         <v>287</v>
       </c>
-      <c r="Q21" s="219">
+      <c r="Q21" s="193">
         <v>286</v>
       </c>
-      <c r="R21" s="219">
+      <c r="R21" s="193">
         <v>285</v>
       </c>
-      <c r="S21" s="219">
+      <c r="S21" s="193">
         <v>284</v>
       </c>
-      <c r="T21" s="219">
+      <c r="T21" s="193">
         <v>283</v>
       </c>
-      <c r="U21" s="219">
+      <c r="U21" s="193">
         <v>282</v>
       </c>
-      <c r="V21" s="206">
+      <c r="V21" s="194">
         <v>281</v>
       </c>
-      <c r="W21" s="119"/>
-      <c r="X21" s="206">
+      <c r="W21" s="118"/>
+      <c r="X21" s="194">
         <v>281</v>
       </c>
-      <c r="Y21" s="219">
+      <c r="Y21" s="193">
         <v>282</v>
       </c>
-      <c r="Z21" s="219">
+      <c r="Z21" s="193">
         <v>283</v>
       </c>
-      <c r="AA21" s="219">
+      <c r="AA21" s="193">
         <v>284</v>
       </c>
-      <c r="AB21" s="219">
+      <c r="AB21" s="193">
         <v>285</v>
       </c>
-      <c r="AC21" s="219">
+      <c r="AC21" s="193">
         <v>286</v>
       </c>
-      <c r="AD21" s="219">
+      <c r="AD21" s="193">
         <v>287</v>
       </c>
-      <c r="AE21" s="219">
+      <c r="AE21" s="193">
         <v>288</v>
       </c>
-      <c r="AF21" s="219">
+      <c r="AF21" s="193">
         <v>289</v>
       </c>
-      <c r="AG21" s="219">
+      <c r="AG21" s="193">
         <v>290</v>
       </c>
-      <c r="AH21" s="219">
+      <c r="AH21" s="193">
         <v>291</v>
       </c>
-      <c r="AI21" s="219">
+      <c r="AI21" s="193">
         <v>292</v>
       </c>
-      <c r="AJ21" s="219">
+      <c r="AJ21" s="193">
         <v>293</v>
       </c>
-      <c r="AK21" s="219">
+      <c r="AK21" s="193">
         <v>294</v>
       </c>
-      <c r="AL21" s="219">
+      <c r="AL21" s="193">
         <v>295</v>
       </c>
-      <c r="AM21" s="219">
+      <c r="AM21" s="193">
         <v>296</v>
       </c>
-      <c r="AN21" s="219">
+      <c r="AN21" s="193">
         <v>297</v>
       </c>
-      <c r="AO21" s="219">
+      <c r="AO21" s="193">
         <v>298</v>
       </c>
-      <c r="AP21" s="219">
+      <c r="AP21" s="193">
         <v>299</v>
       </c>
-      <c r="AQ21" s="219">
+      <c r="AQ21" s="193">
         <v>300</v>
       </c>
-      <c r="AR21" s="120"/>
+      <c r="AR21" s="119"/>
       <c r="AS21" s="51">
         <v>15</v>
       </c>
@@ -6892,11 +6469,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="310" t="s">
+      <c r="N22" s="231" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="310"/>
-      <c r="P22" s="310"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="231"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6910,11 +6487,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="310" t="s">
+      <c r="AD22" s="231" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="310"/>
-      <c r="AF22" s="310"/>
+      <c r="AE22" s="231"/>
+      <c r="AF22" s="231"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6927,1796 +6504,1796 @@
       <c r="AP22" s="113"/>
       <c r="AQ22" s="113"/>
       <c r="AR22" s="52"/>
-      <c r="AS22" s="188"/>
+      <c r="AS22" s="179"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="222">
+      <c r="A23" s="225"/>
+      <c r="B23" s="258">
         <v>385</v>
       </c>
-      <c r="C23" s="222">
+      <c r="C23" s="258">
         <v>386</v>
       </c>
-      <c r="D23" s="222">
+      <c r="D23" s="258">
         <v>387</v>
       </c>
-      <c r="E23" s="222">
+      <c r="E23" s="258">
         <v>388</v>
       </c>
-      <c r="F23" s="222">
+      <c r="F23" s="258">
         <v>389</v>
       </c>
-      <c r="G23" s="222">
+      <c r="G23" s="258">
         <v>390</v>
       </c>
-      <c r="H23" s="222">
+      <c r="H23" s="258">
         <v>391</v>
       </c>
-      <c r="I23" s="222">
+      <c r="I23" s="258">
         <v>392</v>
       </c>
-      <c r="J23" s="222">
+      <c r="J23" s="258">
         <v>393</v>
       </c>
-      <c r="K23" s="222">
+      <c r="K23" s="258">
         <v>394</v>
       </c>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="158">
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="155">
         <v>1</v>
       </c>
-      <c r="O23" s="159"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="147">
+      <c r="O23" s="156"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="145">
         <v>239</v>
       </c>
-      <c r="S23" s="148">
+      <c r="S23" s="146">
         <v>238</v>
       </c>
-      <c r="T23" s="147" t="s">
+      <c r="T23" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="U23" s="147" t="s">
+      <c r="U23" s="145" t="s">
         <v>272</v>
       </c>
-      <c r="V23" s="147" t="s">
+      <c r="V23" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="W23" s="155"/>
-      <c r="X23" s="147" t="s">
+      <c r="W23" s="153"/>
+      <c r="X23" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="Y23" s="147" t="s">
+      <c r="Y23" s="145" t="s">
         <v>272</v>
       </c>
-      <c r="Z23" s="147" t="s">
+      <c r="Z23" s="145" t="s">
         <v>271</v>
       </c>
-      <c r="AA23" s="148">
+      <c r="AA23" s="146">
         <v>238</v>
       </c>
-      <c r="AB23" s="147">
+      <c r="AB23" s="145">
         <v>239</v>
       </c>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="159"/>
-      <c r="AF23" s="160">
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="157">
         <v>1</v>
       </c>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="225">
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="262">
         <v>394</v>
       </c>
-      <c r="AJ23" s="225">
+      <c r="AJ23" s="262">
         <v>393</v>
       </c>
-      <c r="AK23" s="225">
+      <c r="AK23" s="262">
         <v>392</v>
       </c>
-      <c r="AL23" s="225">
+      <c r="AL23" s="262">
         <v>391</v>
       </c>
-      <c r="AM23" s="225">
+      <c r="AM23" s="262">
         <v>390</v>
       </c>
-      <c r="AN23" s="225">
+      <c r="AN23" s="262">
         <v>389</v>
       </c>
-      <c r="AO23" s="225">
+      <c r="AO23" s="262">
         <v>388</v>
       </c>
-      <c r="AP23" s="225">
+      <c r="AP23" s="262">
         <v>387</v>
       </c>
-      <c r="AQ23" s="225">
+      <c r="AQ23" s="262">
         <v>386</v>
       </c>
-      <c r="AR23" s="225">
+      <c r="AR23" s="262">
         <v>385</v>
       </c>
-      <c r="AS23" s="188"/>
+      <c r="AS23" s="179"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-      <c r="B24" s="225">
+      <c r="A24" s="123"/>
+      <c r="B24" s="262">
         <v>395</v>
       </c>
-      <c r="C24" s="225">
+      <c r="C24" s="262">
         <v>396</v>
       </c>
-      <c r="D24" s="225">
+      <c r="D24" s="262">
         <v>397</v>
       </c>
-      <c r="E24" s="225">
+      <c r="E24" s="262">
         <v>398</v>
       </c>
-      <c r="F24" s="225">
+      <c r="F24" s="262">
         <v>399</v>
       </c>
-      <c r="G24" s="225">
+      <c r="G24" s="262">
         <v>400</v>
       </c>
-      <c r="H24" s="225">
+      <c r="H24" s="262">
         <v>401</v>
       </c>
-      <c r="I24" s="225">
+      <c r="I24" s="262">
         <v>402</v>
       </c>
-      <c r="J24" s="225">
+      <c r="J24" s="262">
         <v>403</v>
       </c>
-      <c r="K24" s="225">
+      <c r="K24" s="262">
         <v>404</v>
       </c>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="158">
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="155">
         <v>2</v>
       </c>
-      <c r="O24" s="161"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="137"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="198"/>
-      <c r="AD24" s="198"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="188"/>
+      <c r="Q24" s="188"/>
+      <c r="R24" s="119"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="119"/>
+      <c r="V24" s="119"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="119"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="119"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
       <c r="AE24" s="113"/>
-      <c r="AF24" s="160">
+      <c r="AF24" s="157">
         <v>2</v>
       </c>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="225">
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="262">
         <v>404</v>
       </c>
-      <c r="AJ24" s="225">
+      <c r="AJ24" s="262">
         <v>403</v>
       </c>
-      <c r="AK24" s="225">
+      <c r="AK24" s="262">
         <v>402</v>
       </c>
-      <c r="AL24" s="225">
+      <c r="AL24" s="262">
         <v>401</v>
       </c>
-      <c r="AM24" s="225">
+      <c r="AM24" s="262">
         <v>400</v>
       </c>
-      <c r="AN24" s="225">
+      <c r="AN24" s="262">
         <v>399</v>
       </c>
-      <c r="AO24" s="225">
+      <c r="AO24" s="262">
         <v>398</v>
       </c>
-      <c r="AP24" s="225">
+      <c r="AP24" s="262">
         <v>397</v>
       </c>
-      <c r="AQ24" s="225">
+      <c r="AQ24" s="262">
         <v>396</v>
       </c>
-      <c r="AR24" s="225">
+      <c r="AR24" s="262">
         <v>395</v>
       </c>
-      <c r="AS24" s="188"/>
+      <c r="AS24" s="179"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
-      <c r="B25" s="226">
+      <c r="A25" s="124"/>
+      <c r="B25" s="263">
         <v>405</v>
       </c>
-      <c r="C25" s="226">
+      <c r="C25" s="263">
         <v>406</v>
       </c>
-      <c r="D25" s="226">
+      <c r="D25" s="263">
         <v>407</v>
       </c>
-      <c r="E25" s="226">
+      <c r="E25" s="263">
         <v>408</v>
       </c>
-      <c r="F25" s="226">
+      <c r="F25" s="263">
         <v>409</v>
       </c>
-      <c r="G25" s="226">
+      <c r="G25" s="263">
         <v>410</v>
       </c>
-      <c r="H25" s="226">
+      <c r="H25" s="263">
         <v>411</v>
       </c>
-      <c r="I25" s="226">
+      <c r="I25" s="263">
         <v>412</v>
       </c>
-      <c r="J25" s="226">
+      <c r="J25" s="263">
         <v>413</v>
       </c>
-      <c r="K25" s="226">
+      <c r="K25" s="263">
         <v>414</v>
       </c>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="158">
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="155">
         <v>3</v>
       </c>
       <c r="O25" s="113"/>
-      <c r="P25" s="197"/>
-      <c r="Q25" s="197"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="157"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="199"/>
-      <c r="AD25" s="199"/>
+      <c r="P25" s="188"/>
+      <c r="Q25" s="188"/>
+      <c r="R25" s="119"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="119"/>
+      <c r="V25" s="119"/>
+      <c r="W25" s="154"/>
+      <c r="X25" s="119"/>
+      <c r="Y25" s="119"/>
+      <c r="Z25" s="119"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="190"/>
+      <c r="AD25" s="190"/>
       <c r="AE25" s="113"/>
-      <c r="AF25" s="160">
+      <c r="AF25" s="157">
         <v>3</v>
       </c>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="230">
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="263">
         <v>414</v>
       </c>
-      <c r="AJ25" s="230">
+      <c r="AJ25" s="263">
         <v>413</v>
       </c>
-      <c r="AK25" s="230">
+      <c r="AK25" s="263">
         <v>412</v>
       </c>
-      <c r="AL25" s="230">
+      <c r="AL25" s="263">
         <v>411</v>
       </c>
-      <c r="AM25" s="230">
+      <c r="AM25" s="263">
         <v>410</v>
       </c>
-      <c r="AN25" s="230">
+      <c r="AN25" s="263">
         <v>409</v>
       </c>
-      <c r="AO25" s="230">
+      <c r="AO25" s="263">
         <v>408</v>
       </c>
-      <c r="AP25" s="230">
+      <c r="AP25" s="263">
         <v>407</v>
       </c>
-      <c r="AQ25" s="230">
+      <c r="AQ25" s="263">
         <v>406</v>
       </c>
-      <c r="AR25" s="230">
+      <c r="AR25" s="263">
         <v>405</v>
       </c>
-      <c r="AS25" s="188"/>
+      <c r="AS25" s="179"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-      <c r="B26" s="227">
+      <c r="A26" s="123"/>
+      <c r="B26" s="264">
         <v>415</v>
       </c>
-      <c r="C26" s="227">
+      <c r="C26" s="264">
         <v>416</v>
       </c>
-      <c r="D26" s="227">
+      <c r="D26" s="264">
         <v>417</v>
       </c>
-      <c r="E26" s="227">
+      <c r="E26" s="264">
         <v>418</v>
       </c>
-      <c r="F26" s="227">
+      <c r="F26" s="264">
         <v>419</v>
       </c>
-      <c r="G26" s="227">
+      <c r="G26" s="264">
         <v>420</v>
       </c>
-      <c r="H26" s="227">
+      <c r="H26" s="264">
         <v>421</v>
       </c>
-      <c r="I26" s="227">
+      <c r="I26" s="264">
         <v>422</v>
       </c>
-      <c r="J26" s="227">
+      <c r="J26" s="264">
         <v>423</v>
       </c>
-      <c r="K26" s="227">
+      <c r="K26" s="264">
         <v>424</v>
       </c>
-      <c r="L26" s="227">
+      <c r="L26" s="264">
         <v>425</v>
       </c>
-      <c r="M26" s="227">
+      <c r="M26" s="264">
         <v>426</v>
       </c>
-      <c r="N26" s="158">
+      <c r="N26" s="155">
         <v>4</v>
       </c>
       <c r="O26" s="113"/>
-      <c r="P26" s="205">
+      <c r="P26" s="193">
         <v>307</v>
       </c>
-      <c r="Q26" s="205">
+      <c r="Q26" s="193">
         <v>306</v>
       </c>
-      <c r="R26" s="205">
+      <c r="R26" s="193">
         <v>305</v>
       </c>
-      <c r="S26" s="205">
+      <c r="S26" s="193">
         <v>304</v>
       </c>
-      <c r="T26" s="205">
+      <c r="T26" s="193">
         <v>303</v>
       </c>
-      <c r="U26" s="205">
+      <c r="U26" s="193">
         <v>302</v>
       </c>
-      <c r="V26" s="205">
+      <c r="V26" s="193">
         <v>301</v>
       </c>
-      <c r="W26" s="165"/>
-      <c r="X26" s="205">
+      <c r="W26" s="162"/>
+      <c r="X26" s="193">
         <v>301</v>
       </c>
-      <c r="Y26" s="205">
+      <c r="Y26" s="193">
         <v>302</v>
       </c>
-      <c r="Z26" s="205">
+      <c r="Z26" s="193">
         <v>303</v>
       </c>
-      <c r="AA26" s="205">
+      <c r="AA26" s="193">
         <v>304</v>
       </c>
-      <c r="AB26" s="205">
+      <c r="AB26" s="193">
         <v>305</v>
       </c>
-      <c r="AC26" s="205">
+      <c r="AC26" s="193">
         <v>306</v>
       </c>
-      <c r="AD26" s="205">
+      <c r="AD26" s="193">
         <v>307</v>
       </c>
       <c r="AE26" s="113"/>
-      <c r="AF26" s="160">
+      <c r="AF26" s="157">
         <v>4</v>
       </c>
-      <c r="AG26" s="229">
+      <c r="AG26" s="262">
         <v>426</v>
       </c>
-      <c r="AH26" s="231">
+      <c r="AH26" s="266">
         <v>425</v>
       </c>
-      <c r="AI26" s="229">
+      <c r="AI26" s="262">
         <v>424</v>
       </c>
-      <c r="AJ26" s="231">
+      <c r="AJ26" s="266">
         <v>423</v>
       </c>
-      <c r="AK26" s="229">
+      <c r="AK26" s="262">
         <v>422</v>
       </c>
-      <c r="AL26" s="231">
+      <c r="AL26" s="266">
         <v>421</v>
       </c>
-      <c r="AM26" s="229">
+      <c r="AM26" s="262">
         <v>420</v>
       </c>
-      <c r="AN26" s="231">
+      <c r="AN26" s="266">
         <v>419</v>
       </c>
-      <c r="AO26" s="229">
+      <c r="AO26" s="262">
         <v>418</v>
       </c>
-      <c r="AP26" s="231">
+      <c r="AP26" s="266">
         <v>417</v>
       </c>
-      <c r="AQ26" s="229">
+      <c r="AQ26" s="262">
         <v>416</v>
       </c>
-      <c r="AR26" s="231">
+      <c r="AR26" s="266">
         <v>415</v>
       </c>
-      <c r="AS26" s="188"/>
+      <c r="AS26" s="179"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
-      <c r="B27" s="227">
+      <c r="B27" s="264">
         <v>427</v>
       </c>
-      <c r="C27" s="227">
+      <c r="C27" s="264">
         <v>428</v>
       </c>
-      <c r="D27" s="227">
+      <c r="D27" s="264">
         <v>429</v>
       </c>
-      <c r="E27" s="227">
+      <c r="E27" s="264">
         <v>430</v>
       </c>
-      <c r="F27" s="227">
+      <c r="F27" s="264">
         <v>431</v>
       </c>
-      <c r="G27" s="227">
+      <c r="G27" s="264">
         <v>432</v>
       </c>
-      <c r="H27" s="227">
+      <c r="H27" s="264">
         <v>433</v>
       </c>
-      <c r="I27" s="227">
+      <c r="I27" s="264">
         <v>434</v>
       </c>
-      <c r="J27" s="227">
+      <c r="J27" s="264">
         <v>435</v>
       </c>
-      <c r="K27" s="227">
+      <c r="K27" s="264">
         <v>436</v>
       </c>
-      <c r="L27" s="227">
+      <c r="L27" s="264">
         <v>437</v>
       </c>
-      <c r="M27" s="227">
+      <c r="M27" s="264">
         <v>438</v>
       </c>
-      <c r="N27" s="158">
+      <c r="N27" s="155">
         <v>5</v>
       </c>
       <c r="O27" s="113"/>
-      <c r="P27" s="208">
+      <c r="P27" s="193">
         <v>314</v>
       </c>
-      <c r="Q27" s="208">
+      <c r="Q27" s="193">
         <v>313</v>
       </c>
-      <c r="R27" s="208">
+      <c r="R27" s="193">
         <v>312</v>
       </c>
-      <c r="S27" s="208">
+      <c r="S27" s="193">
         <v>311</v>
       </c>
-      <c r="T27" s="208">
+      <c r="T27" s="193">
         <v>310</v>
       </c>
-      <c r="U27" s="208">
+      <c r="U27" s="193">
         <v>309</v>
       </c>
-      <c r="V27" s="208">
+      <c r="V27" s="193">
         <v>308</v>
       </c>
-      <c r="W27" s="157"/>
-      <c r="X27" s="208">
+      <c r="W27" s="154"/>
+      <c r="X27" s="193">
         <v>308</v>
       </c>
-      <c r="Y27" s="208">
+      <c r="Y27" s="193">
         <v>309</v>
       </c>
-      <c r="Z27" s="208">
+      <c r="Z27" s="193">
         <v>310</v>
       </c>
-      <c r="AA27" s="208">
+      <c r="AA27" s="193">
         <v>311</v>
       </c>
-      <c r="AB27" s="208">
+      <c r="AB27" s="193">
         <v>312</v>
       </c>
-      <c r="AC27" s="208">
+      <c r="AC27" s="193">
         <v>313</v>
       </c>
-      <c r="AD27" s="208">
+      <c r="AD27" s="193">
         <v>314</v>
       </c>
       <c r="AE27" s="113"/>
-      <c r="AF27" s="160">
+      <c r="AF27" s="157">
         <v>5</v>
       </c>
-      <c r="AG27" s="232">
+      <c r="AG27" s="262">
         <v>438</v>
       </c>
-      <c r="AH27" s="233">
+      <c r="AH27" s="266">
         <v>437</v>
       </c>
-      <c r="AI27" s="232">
+      <c r="AI27" s="262">
         <v>436</v>
       </c>
-      <c r="AJ27" s="232">
+      <c r="AJ27" s="262">
         <v>435</v>
       </c>
-      <c r="AK27" s="232">
+      <c r="AK27" s="262">
         <v>434</v>
       </c>
-      <c r="AL27" s="232">
+      <c r="AL27" s="262">
         <v>433</v>
       </c>
-      <c r="AM27" s="232">
+      <c r="AM27" s="262">
         <v>432</v>
       </c>
-      <c r="AN27" s="232">
+      <c r="AN27" s="262">
         <v>431</v>
       </c>
-      <c r="AO27" s="234" t="s">
-        <v>760</v>
-      </c>
-      <c r="AP27" s="235">
+      <c r="AO27" s="267" t="s">
+        <v>758</v>
+      </c>
+      <c r="AP27" s="262">
         <v>429</v>
       </c>
-      <c r="AQ27" s="235">
+      <c r="AQ27" s="262">
         <v>428</v>
       </c>
-      <c r="AR27" s="235">
+      <c r="AR27" s="262">
         <v>427</v>
       </c>
-      <c r="AS27" s="188"/>
+      <c r="AS27" s="179"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="227">
+      <c r="A28" s="119"/>
+      <c r="B28" s="264">
         <v>439</v>
       </c>
-      <c r="C28" s="227">
+      <c r="C28" s="264">
         <v>440</v>
       </c>
-      <c r="D28" s="227">
+      <c r="D28" s="264">
         <v>441</v>
       </c>
-      <c r="E28" s="227">
+      <c r="E28" s="264">
         <v>442</v>
       </c>
-      <c r="F28" s="227">
+      <c r="F28" s="264">
         <v>443</v>
       </c>
-      <c r="G28" s="227">
+      <c r="G28" s="264">
         <v>444</v>
       </c>
-      <c r="H28" s="227">
+      <c r="H28" s="264">
         <v>445</v>
       </c>
-      <c r="I28" s="227">
+      <c r="I28" s="264">
         <v>446</v>
       </c>
-      <c r="J28" s="227">
+      <c r="J28" s="264">
         <v>447</v>
       </c>
-      <c r="K28" s="227">
+      <c r="K28" s="264">
         <v>448</v>
       </c>
-      <c r="L28" s="227">
+      <c r="L28" s="264">
         <v>449</v>
       </c>
-      <c r="M28" s="227">
+      <c r="M28" s="264">
         <v>450</v>
       </c>
-      <c r="N28" s="158">
+      <c r="N28" s="155">
         <v>6</v>
       </c>
       <c r="O28" s="113"/>
-      <c r="P28" s="208">
+      <c r="P28" s="193">
         <v>321</v>
       </c>
-      <c r="Q28" s="208">
+      <c r="Q28" s="193">
         <v>320</v>
       </c>
-      <c r="R28" s="208">
+      <c r="R28" s="193">
         <v>319</v>
       </c>
-      <c r="S28" s="208">
+      <c r="S28" s="193">
         <v>318</v>
       </c>
-      <c r="T28" s="208">
+      <c r="T28" s="193">
         <v>317</v>
       </c>
-      <c r="U28" s="208">
+      <c r="U28" s="193">
         <v>316</v>
       </c>
-      <c r="V28" s="208">
+      <c r="V28" s="193">
         <v>315</v>
       </c>
-      <c r="W28" s="157"/>
-      <c r="X28" s="208">
+      <c r="W28" s="154"/>
+      <c r="X28" s="193">
         <v>315</v>
       </c>
-      <c r="Y28" s="208">
+      <c r="Y28" s="193">
         <v>316</v>
       </c>
-      <c r="Z28" s="208">
+      <c r="Z28" s="193">
         <v>317</v>
       </c>
-      <c r="AA28" s="208">
+      <c r="AA28" s="193">
         <v>318</v>
       </c>
-      <c r="AB28" s="208">
+      <c r="AB28" s="193">
         <v>319</v>
       </c>
-      <c r="AC28" s="208">
+      <c r="AC28" s="193">
         <v>320</v>
       </c>
-      <c r="AD28" s="208">
+      <c r="AD28" s="193">
         <v>321</v>
       </c>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="160">
+      <c r="AE28" s="159"/>
+      <c r="AF28" s="157">
         <v>6</v>
       </c>
-      <c r="AG28" s="235">
+      <c r="AG28" s="262">
         <v>450</v>
       </c>
-      <c r="AH28" s="236">
+      <c r="AH28" s="266">
         <v>449</v>
       </c>
-      <c r="AI28" s="235">
+      <c r="AI28" s="262">
         <v>448</v>
       </c>
-      <c r="AJ28" s="235">
+      <c r="AJ28" s="262">
         <v>447</v>
       </c>
-      <c r="AK28" s="235">
+      <c r="AK28" s="262">
         <v>446</v>
       </c>
-      <c r="AL28" s="235">
+      <c r="AL28" s="262">
         <v>445</v>
       </c>
-      <c r="AM28" s="235">
+      <c r="AM28" s="262">
         <v>444</v>
       </c>
-      <c r="AN28" s="235">
+      <c r="AN28" s="262">
         <v>443</v>
       </c>
-      <c r="AO28" s="235">
+      <c r="AO28" s="262">
         <v>442</v>
       </c>
-      <c r="AP28" s="235">
+      <c r="AP28" s="262">
         <v>441</v>
       </c>
-      <c r="AQ28" s="235">
+      <c r="AQ28" s="262">
         <v>440</v>
       </c>
-      <c r="AR28" s="235">
+      <c r="AR28" s="262">
         <v>439</v>
       </c>
-      <c r="AS28" s="189"/>
+      <c r="AS28" s="180"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="128"/>
-      <c r="B29" s="228">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A29" s="127"/>
+      <c r="B29" s="265">
         <v>451</v>
       </c>
-      <c r="C29" s="228">
+      <c r="C29" s="265">
         <v>452</v>
       </c>
-      <c r="D29" s="228">
+      <c r="D29" s="265">
         <v>453</v>
       </c>
-      <c r="E29" s="228">
+      <c r="E29" s="265">
         <v>454</v>
       </c>
-      <c r="F29" s="228">
+      <c r="F29" s="265">
         <v>455</v>
       </c>
-      <c r="G29" s="228">
+      <c r="G29" s="265">
         <v>456</v>
       </c>
-      <c r="H29" s="228">
+      <c r="H29" s="265">
         <v>457</v>
       </c>
-      <c r="I29" s="228">
+      <c r="I29" s="265">
         <v>458</v>
       </c>
-      <c r="J29" s="228">
+      <c r="J29" s="265">
         <v>459</v>
       </c>
-      <c r="K29" s="228">
+      <c r="K29" s="265">
         <v>460</v>
       </c>
-      <c r="L29" s="228">
+      <c r="L29" s="265">
         <v>461</v>
       </c>
-      <c r="M29" s="228">
+      <c r="M29" s="265">
         <v>462</v>
       </c>
-      <c r="N29" s="158">
+      <c r="N29" s="155">
         <v>7</v>
       </c>
-      <c r="O29" s="114"/>
-      <c r="P29" s="208">
+      <c r="O29" s="222" t="s">
+        <v>762</v>
+      </c>
+      <c r="P29" s="193">
         <v>328</v>
       </c>
-      <c r="Q29" s="208">
+      <c r="Q29" s="193">
         <v>327</v>
       </c>
-      <c r="R29" s="208">
+      <c r="R29" s="193">
         <v>326</v>
       </c>
-      <c r="S29" s="208">
+      <c r="S29" s="193">
         <v>325</v>
       </c>
-      <c r="T29" s="208">
+      <c r="T29" s="259" t="s">
+        <v>779</v>
+      </c>
+      <c r="U29" s="271" t="s">
+        <v>364</v>
+      </c>
+      <c r="V29" s="195">
+        <v>322</v>
+      </c>
+      <c r="W29" s="154"/>
+      <c r="X29" s="195">
+        <v>322</v>
+      </c>
+      <c r="Y29" s="195">
+        <v>323</v>
+      </c>
+      <c r="Z29" s="195">
         <v>324</v>
       </c>
-      <c r="U29" s="208">
-        <v>323</v>
-      </c>
-      <c r="V29" s="208">
-        <v>322</v>
-      </c>
-      <c r="W29" s="157"/>
-      <c r="X29" s="208">
-        <v>322</v>
-      </c>
-      <c r="Y29" s="208">
-        <v>323</v>
-      </c>
-      <c r="Z29" s="208">
-        <v>324</v>
-      </c>
-      <c r="AA29" s="208">
+      <c r="AA29" s="195">
         <v>325</v>
       </c>
-      <c r="AB29" s="208">
+      <c r="AB29" s="195">
         <v>326</v>
       </c>
-      <c r="AC29" s="208">
+      <c r="AC29" s="195">
         <v>327</v>
       </c>
-      <c r="AD29" s="208">
+      <c r="AD29" s="195">
         <v>328</v>
       </c>
       <c r="AE29" s="113"/>
-      <c r="AF29" s="160">
+      <c r="AF29" s="157">
         <v>7</v>
       </c>
-      <c r="AG29" s="237">
+      <c r="AG29" s="194">
         <v>462</v>
       </c>
-      <c r="AH29" s="238">
+      <c r="AH29" s="268">
         <v>461</v>
       </c>
-      <c r="AI29" s="237">
+      <c r="AI29" s="194">
         <v>460</v>
       </c>
-      <c r="AJ29" s="238">
+      <c r="AJ29" s="268">
         <v>459</v>
       </c>
-      <c r="AK29" s="237">
+      <c r="AK29" s="194">
         <v>458</v>
       </c>
-      <c r="AL29" s="238">
+      <c r="AL29" s="268">
         <v>457</v>
       </c>
-      <c r="AM29" s="237">
+      <c r="AM29" s="194">
         <v>456</v>
       </c>
-      <c r="AN29" s="238">
+      <c r="AN29" s="268">
         <v>455</v>
       </c>
-      <c r="AO29" s="237">
+      <c r="AO29" s="194">
         <v>454</v>
       </c>
-      <c r="AP29" s="238">
+      <c r="AP29" s="268">
         <v>453</v>
       </c>
-      <c r="AQ29" s="237">
+      <c r="AQ29" s="194">
         <v>452</v>
       </c>
-      <c r="AR29" s="238">
+      <c r="AR29" s="268">
         <v>451</v>
       </c>
-      <c r="AS29" s="188"/>
+      <c r="AS29" s="179"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="225">
+      <c r="B30" s="262">
         <v>463</v>
       </c>
-      <c r="C30" s="225">
+      <c r="C30" s="262">
         <v>464</v>
       </c>
-      <c r="D30" s="225">
+      <c r="D30" s="262">
         <v>465</v>
       </c>
-      <c r="E30" s="225">
+      <c r="E30" s="262">
         <v>466</v>
       </c>
-      <c r="F30" s="225">
+      <c r="F30" s="262">
         <v>467</v>
       </c>
-      <c r="G30" s="225">
+      <c r="G30" s="262">
         <v>468</v>
       </c>
-      <c r="H30" s="225">
+      <c r="H30" s="262">
         <v>469</v>
       </c>
-      <c r="I30" s="225">
+      <c r="I30" s="262">
         <v>470</v>
       </c>
-      <c r="J30" s="225">
+      <c r="J30" s="262">
         <v>471</v>
       </c>
-      <c r="K30" s="225">
+      <c r="K30" s="262">
         <v>472</v>
       </c>
-      <c r="L30" s="225">
+      <c r="L30" s="262">
         <v>473</v>
       </c>
-      <c r="M30" s="225">
+      <c r="M30" s="262">
         <v>474</v>
       </c>
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="113"/>
-      <c r="P30" s="208">
+      <c r="O30" s="222"/>
+      <c r="P30" s="195">
         <v>335</v>
       </c>
-      <c r="Q30" s="208">
+      <c r="Q30" s="195">
         <v>334</v>
       </c>
-      <c r="R30" s="208">
+      <c r="R30" s="195">
         <v>333</v>
       </c>
-      <c r="S30" s="208">
+      <c r="S30" s="195">
         <v>332</v>
       </c>
-      <c r="T30" s="208">
+      <c r="T30" s="195">
         <v>331</v>
       </c>
-      <c r="U30" s="208">
+      <c r="U30" s="195">
         <v>330</v>
       </c>
-      <c r="V30" s="208">
+      <c r="V30" s="195">
         <v>329</v>
       </c>
-      <c r="W30" s="167"/>
-      <c r="X30" s="208">
+      <c r="W30" s="163"/>
+      <c r="X30" s="195">
         <v>329</v>
       </c>
-      <c r="Y30" s="208">
+      <c r="Y30" s="195">
         <v>330</v>
       </c>
-      <c r="Z30" s="208">
+      <c r="Z30" s="195">
         <v>331</v>
       </c>
-      <c r="AA30" s="208">
+      <c r="AA30" s="195">
         <v>332</v>
       </c>
-      <c r="AB30" s="208">
+      <c r="AB30" s="195">
         <v>333</v>
       </c>
-      <c r="AC30" s="208">
+      <c r="AC30" s="195">
         <v>334</v>
       </c>
-      <c r="AD30" s="208">
+      <c r="AD30" s="195">
         <v>335</v>
       </c>
       <c r="AE30" s="113"/>
-      <c r="AF30" s="163">
+      <c r="AF30" s="160">
         <v>8</v>
       </c>
-      <c r="AG30" s="239">
+      <c r="AG30" s="262">
         <v>474</v>
       </c>
-      <c r="AH30" s="240">
+      <c r="AH30" s="266">
         <v>473</v>
       </c>
-      <c r="AI30" s="239">
+      <c r="AI30" s="262">
         <v>472</v>
       </c>
-      <c r="AJ30" s="239">
+      <c r="AJ30" s="262">
         <v>471</v>
       </c>
-      <c r="AK30" s="239">
+      <c r="AK30" s="262">
         <v>470</v>
       </c>
-      <c r="AL30" s="239">
+      <c r="AL30" s="262">
         <v>469</v>
       </c>
-      <c r="AM30" s="239">
+      <c r="AM30" s="262">
         <v>468</v>
       </c>
-      <c r="AN30" s="239">
+      <c r="AN30" s="262">
         <v>467</v>
       </c>
-      <c r="AO30" s="239">
+      <c r="AO30" s="262">
         <v>466</v>
       </c>
-      <c r="AP30" s="239">
+      <c r="AP30" s="262">
         <v>465</v>
       </c>
-      <c r="AQ30" s="239">
+      <c r="AQ30" s="262">
         <v>464</v>
       </c>
-      <c r="AR30" s="239">
+      <c r="AR30" s="262">
         <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
-      <c r="B31" s="225">
+      <c r="B31" s="262">
         <v>475</v>
       </c>
-      <c r="C31" s="225">
+      <c r="C31" s="262">
         <v>476</v>
       </c>
-      <c r="D31" s="225">
+      <c r="D31" s="262">
         <v>477</v>
       </c>
-      <c r="E31" s="225">
+      <c r="E31" s="262">
         <v>478</v>
       </c>
-      <c r="F31" s="225">
+      <c r="F31" s="262">
         <v>479</v>
       </c>
-      <c r="G31" s="225">
+      <c r="G31" s="262">
         <v>480</v>
       </c>
-      <c r="H31" s="225">
+      <c r="H31" s="262">
         <v>481</v>
       </c>
-      <c r="I31" s="225">
+      <c r="I31" s="262">
         <v>482</v>
       </c>
-      <c r="J31" s="225">
+      <c r="J31" s="262">
         <v>483</v>
       </c>
-      <c r="K31" s="225">
+      <c r="K31" s="262">
         <v>484</v>
       </c>
-      <c r="L31" s="225">
+      <c r="L31" s="262">
         <v>485</v>
       </c>
-      <c r="M31" s="225">
+      <c r="M31" s="262">
         <v>486</v>
       </c>
-      <c r="N31" s="158">
+      <c r="N31" s="155">
         <v>9</v>
       </c>
-      <c r="O31" s="126"/>
-      <c r="P31" s="208">
+      <c r="O31" s="125"/>
+      <c r="P31" s="195">
         <v>342</v>
       </c>
-      <c r="Q31" s="208">
+      <c r="Q31" s="195">
         <v>341</v>
       </c>
-      <c r="R31" s="208">
+      <c r="R31" s="195">
         <v>340</v>
       </c>
-      <c r="S31" s="208">
+      <c r="S31" s="195">
         <v>339</v>
       </c>
-      <c r="T31" s="208">
+      <c r="T31" s="195">
         <v>338</v>
       </c>
-      <c r="U31" s="208">
+      <c r="U31" s="195">
         <v>337</v>
       </c>
-      <c r="V31" s="208">
+      <c r="V31" s="195">
         <v>336</v>
       </c>
-      <c r="W31" s="168"/>
-      <c r="X31" s="208">
+      <c r="W31" s="164"/>
+      <c r="X31" s="195">
         <v>336</v>
       </c>
-      <c r="Y31" s="208">
+      <c r="Y31" s="195">
         <v>337</v>
       </c>
-      <c r="Z31" s="208">
+      <c r="Z31" s="195">
         <v>338</v>
       </c>
-      <c r="AA31" s="208">
+      <c r="AA31" s="195">
         <v>339</v>
       </c>
-      <c r="AB31" s="208">
+      <c r="AB31" s="195">
         <v>340</v>
       </c>
-      <c r="AC31" s="208">
+      <c r="AC31" s="195">
         <v>341</v>
       </c>
-      <c r="AD31" s="208">
+      <c r="AD31" s="195">
         <v>342</v>
       </c>
       <c r="AE31" s="115"/>
-      <c r="AF31" s="195">
+      <c r="AF31" s="186">
         <v>9</v>
       </c>
-      <c r="AG31" s="239">
+      <c r="AG31" s="262">
         <v>486</v>
       </c>
-      <c r="AH31" s="240">
+      <c r="AH31" s="266">
         <v>485</v>
       </c>
-      <c r="AI31" s="239">
+      <c r="AI31" s="262">
         <v>484</v>
       </c>
-      <c r="AJ31" s="239">
+      <c r="AJ31" s="262">
         <v>483</v>
       </c>
-      <c r="AK31" s="239">
+      <c r="AK31" s="262">
         <v>482</v>
       </c>
-      <c r="AL31" s="239">
+      <c r="AL31" s="262">
         <v>481</v>
       </c>
-      <c r="AM31" s="239">
+      <c r="AM31" s="262">
         <v>480</v>
       </c>
-      <c r="AN31" s="239">
+      <c r="AN31" s="262">
         <v>479</v>
       </c>
-      <c r="AO31" s="239">
+      <c r="AO31" s="262">
         <v>478</v>
       </c>
-      <c r="AP31" s="239">
+      <c r="AP31" s="262">
         <v>477</v>
       </c>
-      <c r="AQ31" s="239">
+      <c r="AQ31" s="262">
         <v>476</v>
       </c>
-      <c r="AR31" s="239">
+      <c r="AR31" s="262">
         <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
-      <c r="B32" s="225">
+      <c r="B32" s="262">
         <v>487</v>
       </c>
-      <c r="C32" s="225">
+      <c r="C32" s="262">
         <v>488</v>
       </c>
-      <c r="D32" s="225">
+      <c r="D32" s="262">
         <v>489</v>
       </c>
-      <c r="E32" s="225">
+      <c r="E32" s="262">
         <v>490</v>
       </c>
-      <c r="F32" s="225">
+      <c r="F32" s="262">
         <v>491</v>
       </c>
-      <c r="G32" s="225">
+      <c r="G32" s="262">
         <v>492</v>
       </c>
-      <c r="H32" s="225">
+      <c r="H32" s="262">
         <v>493</v>
       </c>
-      <c r="I32" s="225">
+      <c r="I32" s="262">
         <v>494</v>
       </c>
-      <c r="J32" s="225">
+      <c r="J32" s="262">
         <v>495</v>
       </c>
-      <c r="K32" s="225">
+      <c r="K32" s="262">
         <v>496</v>
       </c>
-      <c r="L32" s="225">
+      <c r="L32" s="262">
         <v>497</v>
       </c>
-      <c r="M32" s="225">
+      <c r="M32" s="262">
         <v>498</v>
       </c>
-      <c r="N32" s="194">
+      <c r="N32" s="185">
         <v>10</v>
       </c>
       <c r="O32" s="115"/>
-      <c r="P32" s="208">
+      <c r="P32" s="195">
         <v>349</v>
       </c>
-      <c r="Q32" s="208">
+      <c r="Q32" s="195">
         <v>348</v>
       </c>
-      <c r="R32" s="208">
+      <c r="R32" s="195">
         <v>347</v>
       </c>
-      <c r="S32" s="208">
+      <c r="S32" s="195">
         <v>346</v>
       </c>
-      <c r="T32" s="208">
+      <c r="T32" s="195">
         <v>345</v>
       </c>
-      <c r="U32" s="208">
+      <c r="U32" s="195">
         <v>344</v>
       </c>
-      <c r="V32" s="208">
+      <c r="V32" s="195">
         <v>343</v>
       </c>
-      <c r="W32" s="168"/>
-      <c r="X32" s="208">
+      <c r="W32" s="164"/>
+      <c r="X32" s="195">
         <v>343</v>
       </c>
-      <c r="Y32" s="208">
+      <c r="Y32" s="195">
         <v>344</v>
       </c>
-      <c r="Z32" s="208">
+      <c r="Z32" s="195">
         <v>345</v>
       </c>
-      <c r="AA32" s="208">
+      <c r="AA32" s="195">
         <v>346</v>
       </c>
-      <c r="AB32" s="208">
+      <c r="AB32" s="195">
         <v>347</v>
       </c>
-      <c r="AC32" s="208">
+      <c r="AC32" s="195">
         <v>348</v>
       </c>
-      <c r="AD32" s="208">
+      <c r="AD32" s="195">
         <v>349</v>
       </c>
       <c r="AE32" s="115"/>
-      <c r="AF32" s="195">
+      <c r="AF32" s="186">
         <v>10</v>
       </c>
-      <c r="AG32" s="239">
+      <c r="AG32" s="262">
         <v>498</v>
       </c>
-      <c r="AH32" s="240">
+      <c r="AH32" s="266">
         <v>497</v>
       </c>
-      <c r="AI32" s="239">
+      <c r="AI32" s="262">
         <v>496</v>
       </c>
-      <c r="AJ32" s="239">
+      <c r="AJ32" s="262">
         <v>495</v>
       </c>
-      <c r="AK32" s="239">
+      <c r="AK32" s="262">
         <v>494</v>
       </c>
-      <c r="AL32" s="239">
+      <c r="AL32" s="262">
         <v>493</v>
       </c>
-      <c r="AM32" s="239">
+      <c r="AM32" s="262">
         <v>492</v>
       </c>
-      <c r="AN32" s="239">
+      <c r="AN32" s="262">
         <v>491</v>
       </c>
-      <c r="AO32" s="239">
+      <c r="AO32" s="262">
         <v>490</v>
       </c>
-      <c r="AP32" s="239">
+      <c r="AP32" s="262">
         <v>489</v>
       </c>
-      <c r="AQ32" s="239">
+      <c r="AQ32" s="262">
         <v>488</v>
       </c>
-      <c r="AR32" s="239">
+      <c r="AR32" s="262">
         <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="225">
+      <c r="B33" s="262">
         <v>499</v>
       </c>
-      <c r="C33" s="225">
+      <c r="C33" s="262">
         <v>500</v>
       </c>
-      <c r="D33" s="225">
+      <c r="D33" s="262">
         <v>501</v>
       </c>
-      <c r="E33" s="225">
+      <c r="E33" s="262">
         <v>502</v>
       </c>
-      <c r="F33" s="225">
+      <c r="F33" s="262">
         <v>503</v>
       </c>
-      <c r="G33" s="225">
+      <c r="G33" s="262">
         <v>504</v>
       </c>
-      <c r="H33" s="225">
+      <c r="H33" s="262">
         <v>505</v>
       </c>
-      <c r="I33" s="225">
+      <c r="I33" s="262">
         <v>506</v>
       </c>
-      <c r="J33" s="225">
+      <c r="J33" s="262">
         <v>507</v>
       </c>
-      <c r="K33" s="225">
+      <c r="K33" s="262">
         <v>508</v>
       </c>
-      <c r="L33" s="225">
+      <c r="L33" s="262">
         <v>509</v>
       </c>
-      <c r="M33" s="225">
+      <c r="M33" s="262">
         <v>510</v>
       </c>
-      <c r="N33" s="196">
+      <c r="N33" s="187">
         <v>11</v>
       </c>
       <c r="O33" s="115"/>
-      <c r="P33" s="208">
+      <c r="P33" s="195">
         <v>356</v>
       </c>
-      <c r="Q33" s="208">
+      <c r="Q33" s="195">
         <v>355</v>
       </c>
-      <c r="R33" s="208">
+      <c r="R33" s="195">
         <v>354</v>
       </c>
-      <c r="S33" s="208">
+      <c r="S33" s="195">
         <v>353</v>
       </c>
-      <c r="T33" s="208">
+      <c r="T33" s="195">
         <v>352</v>
       </c>
-      <c r="U33" s="208">
+      <c r="U33" s="195">
         <v>351</v>
       </c>
-      <c r="V33" s="208">
+      <c r="V33" s="195">
         <v>350</v>
       </c>
-      <c r="W33" s="168"/>
-      <c r="X33" s="208">
+      <c r="W33" s="164"/>
+      <c r="X33" s="195">
         <v>350</v>
       </c>
-      <c r="Y33" s="208">
+      <c r="Y33" s="195">
         <v>351</v>
       </c>
-      <c r="Z33" s="208">
+      <c r="Z33" s="195">
         <v>352</v>
       </c>
-      <c r="AA33" s="208">
+      <c r="AA33" s="195">
         <v>353</v>
       </c>
-      <c r="AB33" s="208">
+      <c r="AB33" s="195">
         <v>354</v>
       </c>
-      <c r="AC33" s="208">
+      <c r="AC33" s="195">
         <v>355</v>
       </c>
-      <c r="AD33" s="208">
+      <c r="AD33" s="195">
         <v>356</v>
       </c>
       <c r="AE33" s="115"/>
-      <c r="AF33" s="195">
+      <c r="AF33" s="186">
         <v>11</v>
       </c>
-      <c r="AG33" s="239">
+      <c r="AG33" s="262">
         <v>510</v>
       </c>
-      <c r="AH33" s="241">
+      <c r="AH33" s="268">
         <v>509</v>
       </c>
-      <c r="AI33" s="239">
+      <c r="AI33" s="262">
         <v>508</v>
       </c>
-      <c r="AJ33" s="242">
+      <c r="AJ33" s="194">
         <v>507</v>
       </c>
-      <c r="AK33" s="239">
+      <c r="AK33" s="262">
         <v>506</v>
       </c>
-      <c r="AL33" s="242">
+      <c r="AL33" s="194">
         <v>505</v>
       </c>
-      <c r="AM33" s="239">
+      <c r="AM33" s="262">
         <v>504</v>
       </c>
-      <c r="AN33" s="242">
+      <c r="AN33" s="194">
         <v>503</v>
       </c>
-      <c r="AO33" s="239">
+      <c r="AO33" s="262">
         <v>502</v>
       </c>
-      <c r="AP33" s="242">
+      <c r="AP33" s="194">
         <v>501</v>
       </c>
-      <c r="AQ33" s="239">
+      <c r="AQ33" s="262">
         <v>500</v>
       </c>
-      <c r="AR33" s="242">
+      <c r="AR33" s="194">
         <v>499</v>
       </c>
-      <c r="AS33" s="191"/>
+      <c r="AS33" s="182"/>
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
-      <c r="B34" s="225">
+      <c r="B34" s="262">
         <v>511</v>
       </c>
-      <c r="C34" s="225">
+      <c r="C34" s="262">
         <v>512</v>
       </c>
-      <c r="D34" s="225">
+      <c r="D34" s="262">
         <v>513</v>
       </c>
-      <c r="E34" s="225">
+      <c r="E34" s="262">
         <v>514</v>
       </c>
-      <c r="F34" s="225">
+      <c r="F34" s="262">
         <v>515</v>
       </c>
-      <c r="G34" s="225">
+      <c r="G34" s="262">
         <v>516</v>
       </c>
-      <c r="H34" s="225">
+      <c r="H34" s="262">
         <v>517</v>
       </c>
-      <c r="I34" s="225">
+      <c r="I34" s="262">
         <v>518</v>
       </c>
-      <c r="J34" s="225">
+      <c r="J34" s="262">
         <v>519</v>
       </c>
-      <c r="K34" s="225">
+      <c r="K34" s="262">
         <v>520</v>
       </c>
-      <c r="L34" s="225">
+      <c r="L34" s="262">
         <v>521</v>
       </c>
-      <c r="M34" s="225">
+      <c r="M34" s="262">
         <v>522</v>
       </c>
-      <c r="N34" s="196">
+      <c r="N34" s="187">
         <v>12</v>
       </c>
-      <c r="O34" s="143"/>
-      <c r="P34" s="220">
+      <c r="O34" s="141"/>
+      <c r="P34" s="195">
         <v>363</v>
       </c>
-      <c r="Q34" s="220">
+      <c r="Q34" s="260" t="s">
+        <v>778</v>
+      </c>
+      <c r="R34" s="201">
+        <v>361</v>
+      </c>
+      <c r="S34" s="201">
+        <v>360</v>
+      </c>
+      <c r="T34" s="201">
+        <v>359</v>
+      </c>
+      <c r="U34" s="201">
+        <v>358</v>
+      </c>
+      <c r="V34" s="201">
+        <v>357</v>
+      </c>
+      <c r="W34" s="167"/>
+      <c r="X34" s="201">
+        <v>357</v>
+      </c>
+      <c r="Y34" s="201">
+        <v>358</v>
+      </c>
+      <c r="Z34" s="201">
+        <v>359</v>
+      </c>
+      <c r="AA34" s="258">
+        <v>360</v>
+      </c>
+      <c r="AB34" s="258">
+        <v>361</v>
+      </c>
+      <c r="AC34" s="258">
         <v>362</v>
       </c>
-      <c r="R34" s="220">
-        <v>361</v>
-      </c>
-      <c r="S34" s="220">
-        <v>360</v>
-      </c>
-      <c r="T34" s="220">
-        <v>359</v>
-      </c>
-      <c r="U34" s="220">
-        <v>358</v>
-      </c>
-      <c r="V34" s="220">
-        <v>357</v>
-      </c>
-      <c r="W34" s="171"/>
-      <c r="X34" s="220">
-        <v>357</v>
-      </c>
-      <c r="Y34" s="220">
-        <v>358</v>
-      </c>
-      <c r="Z34" s="220">
-        <v>359</v>
-      </c>
-      <c r="AA34" s="220">
-        <v>360</v>
-      </c>
-      <c r="AB34" s="220">
-        <v>361</v>
-      </c>
-      <c r="AC34" s="220">
-        <v>362</v>
-      </c>
-      <c r="AD34" s="220">
+      <c r="AD34" s="258">
         <v>363</v>
       </c>
       <c r="AE34" s="115"/>
-      <c r="AF34" s="195">
+      <c r="AF34" s="186">
         <v>12</v>
       </c>
-      <c r="AG34" s="239">
+      <c r="AG34" s="262">
         <v>522</v>
       </c>
-      <c r="AH34" s="241">
+      <c r="AH34" s="268">
         <v>521</v>
       </c>
-      <c r="AI34" s="239">
+      <c r="AI34" s="262">
         <v>520</v>
       </c>
-      <c r="AJ34" s="242">
+      <c r="AJ34" s="194">
         <v>519</v>
       </c>
-      <c r="AK34" s="239">
+      <c r="AK34" s="262">
         <v>518</v>
       </c>
-      <c r="AL34" s="242">
+      <c r="AL34" s="194">
         <v>517</v>
       </c>
-      <c r="AM34" s="239">
+      <c r="AM34" s="262">
         <v>516</v>
       </c>
-      <c r="AN34" s="242">
+      <c r="AN34" s="194">
         <v>515</v>
       </c>
-      <c r="AO34" s="239">
+      <c r="AO34" s="262">
         <v>514</v>
       </c>
-      <c r="AP34" s="242">
+      <c r="AP34" s="194">
         <v>513</v>
       </c>
-      <c r="AQ34" s="239">
+      <c r="AQ34" s="262">
         <v>512</v>
       </c>
-      <c r="AR34" s="242">
+      <c r="AR34" s="194">
         <v>511</v>
       </c>
-      <c r="AS34" s="191"/>
+      <c r="AS34" s="182"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
-      <c r="B35" s="225">
+      <c r="B35" s="262">
         <v>523</v>
       </c>
-      <c r="C35" s="225">
+      <c r="C35" s="262">
         <v>524</v>
       </c>
-      <c r="D35" s="225">
+      <c r="D35" s="262">
         <v>525</v>
       </c>
-      <c r="E35" s="225">
+      <c r="E35" s="262">
         <v>526</v>
       </c>
-      <c r="F35" s="225">
+      <c r="F35" s="262">
         <v>527</v>
       </c>
-      <c r="G35" s="225">
+      <c r="G35" s="262">
         <v>528</v>
       </c>
-      <c r="H35" s="225">
+      <c r="H35" s="262">
         <v>529</v>
       </c>
-      <c r="I35" s="225">
+      <c r="I35" s="262">
         <v>530</v>
       </c>
-      <c r="J35" s="225">
+      <c r="J35" s="262">
         <v>531</v>
       </c>
-      <c r="K35" s="225">
+      <c r="K35" s="262">
         <v>532</v>
       </c>
-      <c r="L35" s="225">
+      <c r="L35" s="262">
         <v>533</v>
       </c>
-      <c r="M35" s="225">
+      <c r="M35" s="262">
         <v>534</v>
       </c>
-      <c r="N35" s="196">
+      <c r="N35" s="187">
         <v>13</v>
       </c>
-      <c r="O35" s="143"/>
-      <c r="P35" s="221">
+      <c r="O35" s="141"/>
+      <c r="P35" s="258">
         <v>370</v>
       </c>
-      <c r="Q35" s="221">
+      <c r="Q35" s="258">
         <v>369</v>
       </c>
-      <c r="R35" s="221">
+      <c r="R35" s="258">
         <v>368</v>
       </c>
-      <c r="S35" s="221">
+      <c r="S35" s="258">
         <v>367</v>
       </c>
-      <c r="T35" s="221">
+      <c r="T35" s="262">
         <v>366</v>
       </c>
-      <c r="U35" s="221">
+      <c r="U35" s="262">
         <v>365</v>
       </c>
-      <c r="V35" s="221">
+      <c r="V35" s="262">
         <v>364</v>
       </c>
-      <c r="W35" s="171"/>
-      <c r="X35" s="221">
+      <c r="W35" s="167"/>
+      <c r="X35" s="262">
         <v>364</v>
       </c>
-      <c r="Y35" s="221">
+      <c r="Y35" s="262">
         <v>365</v>
       </c>
-      <c r="Z35" s="221">
+      <c r="Z35" s="262">
         <v>366</v>
       </c>
-      <c r="AA35" s="221">
+      <c r="AA35" s="262">
         <v>367</v>
       </c>
-      <c r="AB35" s="221">
+      <c r="AB35" s="262">
         <v>368</v>
       </c>
-      <c r="AC35" s="221">
+      <c r="AC35" s="262">
         <v>369</v>
       </c>
-      <c r="AD35" s="221">
+      <c r="AD35" s="262">
         <v>370</v>
       </c>
       <c r="AE35" s="115"/>
-      <c r="AF35" s="195">
+      <c r="AF35" s="186">
         <v>13</v>
       </c>
-      <c r="AG35" s="239">
+      <c r="AG35" s="262">
         <v>534</v>
       </c>
-      <c r="AH35" s="241">
+      <c r="AH35" s="268">
         <v>533</v>
       </c>
-      <c r="AI35" s="239">
+      <c r="AI35" s="262">
         <v>532</v>
       </c>
-      <c r="AJ35" s="242">
+      <c r="AJ35" s="194">
         <v>531</v>
       </c>
-      <c r="AK35" s="239">
+      <c r="AK35" s="262">
         <v>530</v>
       </c>
-      <c r="AL35" s="242">
+      <c r="AL35" s="194">
         <v>529</v>
       </c>
-      <c r="AM35" s="239">
+      <c r="AM35" s="262">
         <v>528</v>
       </c>
-      <c r="AN35" s="242">
+      <c r="AN35" s="194">
         <v>527</v>
       </c>
-      <c r="AO35" s="239">
+      <c r="AO35" s="262">
         <v>526</v>
       </c>
-      <c r="AP35" s="242">
+      <c r="AP35" s="194">
         <v>525</v>
       </c>
-      <c r="AQ35" s="239">
+      <c r="AQ35" s="262">
         <v>524</v>
       </c>
-      <c r="AR35" s="242">
+      <c r="AR35" s="194">
         <v>523</v>
       </c>
-      <c r="AS35" s="191"/>
+      <c r="AS35" s="182"/>
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
-      <c r="B36" s="225">
+      <c r="B36" s="262">
         <v>535</v>
       </c>
-      <c r="C36" s="225">
+      <c r="C36" s="262">
         <v>536</v>
       </c>
-      <c r="D36" s="225">
+      <c r="D36" s="262">
         <v>537</v>
       </c>
-      <c r="E36" s="225">
+      <c r="E36" s="262">
         <v>538</v>
       </c>
-      <c r="F36" s="225">
+      <c r="F36" s="262">
         <v>539</v>
       </c>
-      <c r="G36" s="225">
+      <c r="G36" s="262">
         <v>540</v>
       </c>
-      <c r="H36" s="225">
+      <c r="H36" s="262">
         <v>541</v>
       </c>
-      <c r="I36" s="225">
+      <c r="I36" s="262">
         <v>542</v>
       </c>
-      <c r="J36" s="225">
+      <c r="J36" s="262">
         <v>543</v>
       </c>
-      <c r="K36" s="225">
+      <c r="K36" s="262">
         <v>544</v>
       </c>
-      <c r="L36" s="225">
+      <c r="L36" s="262">
         <v>545</v>
       </c>
-      <c r="M36" s="225">
+      <c r="M36" s="262">
         <v>546</v>
       </c>
-      <c r="N36" s="196">
+      <c r="N36" s="187">
         <v>14</v>
       </c>
-      <c r="O36" s="302" t="s">
-        <v>758</v>
-      </c>
-      <c r="P36" s="221">
+      <c r="O36" s="269"/>
+      <c r="P36" s="262">
         <v>377</v>
       </c>
-      <c r="Q36" s="221">
+      <c r="Q36" s="262">
         <v>376</v>
       </c>
-      <c r="R36" s="221">
+      <c r="R36" s="262">
         <v>375</v>
       </c>
-      <c r="S36" s="221">
+      <c r="S36" s="262">
         <v>374</v>
       </c>
-      <c r="T36" s="221">
+      <c r="T36" s="262">
         <v>373</v>
       </c>
-      <c r="U36" s="221">
+      <c r="U36" s="262">
         <v>372</v>
       </c>
-      <c r="V36" s="221">
+      <c r="V36" s="262">
         <v>371</v>
       </c>
-      <c r="W36" s="171"/>
-      <c r="X36" s="223">
+      <c r="W36" s="167"/>
+      <c r="X36" s="258">
         <v>371</v>
       </c>
-      <c r="Y36" s="223">
+      <c r="Y36" s="258">
         <v>372</v>
       </c>
-      <c r="Z36" s="223">
+      <c r="Z36" s="258">
         <v>373</v>
       </c>
-      <c r="AA36" s="223">
+      <c r="AA36" s="258">
         <v>374</v>
       </c>
-      <c r="AB36" s="223">
+      <c r="AB36" s="258">
         <v>375</v>
       </c>
-      <c r="AC36" s="223">
+      <c r="AC36" s="258">
         <v>376</v>
       </c>
-      <c r="AD36" s="223">
+      <c r="AD36" s="258">
         <v>377</v>
       </c>
       <c r="AE36" s="115"/>
-      <c r="AF36" s="195">
+      <c r="AF36" s="186">
         <v>14</v>
       </c>
-      <c r="AG36" s="242">
+      <c r="AG36" s="194">
         <v>545</v>
       </c>
-      <c r="AH36" s="242">
+      <c r="AH36" s="194">
         <v>544</v>
       </c>
-      <c r="AI36" s="242">
+      <c r="AI36" s="194">
         <v>543</v>
       </c>
-      <c r="AJ36" s="242">
+      <c r="AJ36" s="194">
         <v>542</v>
       </c>
-      <c r="AK36" s="242">
+      <c r="AK36" s="194">
         <v>541</v>
       </c>
-      <c r="AL36" s="242">
+      <c r="AL36" s="194">
         <v>540</v>
       </c>
-      <c r="AM36" s="242">
+      <c r="AM36" s="194">
         <v>539</v>
       </c>
-      <c r="AN36" s="242">
+      <c r="AN36" s="194">
         <v>538</v>
       </c>
-      <c r="AO36" s="242">
+      <c r="AO36" s="194">
         <v>537</v>
       </c>
-      <c r="AP36" s="242">
+      <c r="AP36" s="194">
         <v>536</v>
       </c>
-      <c r="AQ36" s="206">
+      <c r="AQ36" s="194">
         <v>535</v>
       </c>
-      <c r="AR36" s="120"/>
-      <c r="AS36" s="191"/>
+      <c r="AR36" s="119"/>
+      <c r="AS36" s="182"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
-      <c r="B37" s="225">
+      <c r="B37" s="262">
         <v>547</v>
       </c>
-      <c r="C37" s="225">
+      <c r="C37" s="262">
         <v>548</v>
       </c>
-      <c r="D37" s="225">
+      <c r="D37" s="262">
         <v>549</v>
       </c>
-      <c r="E37" s="225">
+      <c r="E37" s="262">
         <v>550</v>
       </c>
-      <c r="F37" s="225">
+      <c r="F37" s="262">
         <v>551</v>
       </c>
-      <c r="G37" s="225">
+      <c r="G37" s="262">
         <v>552</v>
       </c>
-      <c r="H37" s="225">
+      <c r="H37" s="262">
         <v>553</v>
       </c>
-      <c r="I37" s="225">
+      <c r="I37" s="262">
         <v>554</v>
       </c>
-      <c r="J37" s="225">
+      <c r="J37" s="262">
         <v>555</v>
       </c>
-      <c r="K37" s="225">
+      <c r="K37" s="262">
         <v>556</v>
       </c>
-      <c r="L37" s="225">
+      <c r="L37" s="262">
         <v>557</v>
       </c>
-      <c r="M37" s="225">
+      <c r="M37" s="262">
         <v>558</v>
       </c>
-      <c r="N37" s="196">
+      <c r="N37" s="187">
         <v>15</v>
       </c>
-      <c r="O37" s="143"/>
-      <c r="P37" s="224">
+      <c r="O37" s="141"/>
+      <c r="P37" s="258">
         <v>384</v>
       </c>
-      <c r="Q37" s="224">
+      <c r="Q37" s="258">
         <v>383</v>
       </c>
-      <c r="R37" s="224">
+      <c r="R37" s="258">
         <v>382</v>
       </c>
-      <c r="S37" s="224">
+      <c r="S37" s="258">
         <v>381</v>
       </c>
-      <c r="T37" s="224">
+      <c r="T37" s="258">
         <v>380</v>
       </c>
-      <c r="U37" s="224">
+      <c r="U37" s="258">
         <v>379</v>
       </c>
-      <c r="V37" s="224">
+      <c r="V37" s="258">
         <v>378</v>
       </c>
-      <c r="W37" s="171"/>
-      <c r="X37" s="222">
+      <c r="W37" s="167"/>
+      <c r="X37" s="258">
         <v>378</v>
       </c>
-      <c r="Y37" s="222">
+      <c r="Y37" s="258">
         <v>379</v>
       </c>
-      <c r="Z37" s="222">
+      <c r="Z37" s="258">
         <v>380</v>
       </c>
-      <c r="AA37" s="222">
+      <c r="AA37" s="258">
         <v>381</v>
       </c>
-      <c r="AB37" s="222">
+      <c r="AB37" s="258">
         <v>382</v>
       </c>
-      <c r="AC37" s="222">
+      <c r="AC37" s="258">
         <v>383</v>
       </c>
-      <c r="AD37" s="222">
+      <c r="AD37" s="262">
         <v>384</v>
       </c>
       <c r="AE37" s="115"/>
-      <c r="AF37" s="195">
+      <c r="AF37" s="186">
         <v>15</v>
       </c>
-      <c r="AG37" s="243"/>
+      <c r="AG37" s="202"/>
       <c r="AH37" s="13"/>
-      <c r="AI37" s="243"/>
-      <c r="AJ37" s="197"/>
-      <c r="AK37" s="243"/>
-      <c r="AL37" s="197"/>
-      <c r="AM37" s="243"/>
-      <c r="AN37" s="197"/>
-      <c r="AO37" s="243"/>
-      <c r="AP37" s="197"/>
-      <c r="AQ37" s="243"/>
-      <c r="AR37" s="197"/>
+      <c r="AI37" s="202"/>
+      <c r="AJ37" s="188"/>
+      <c r="AK37" s="202"/>
+      <c r="AL37" s="188"/>
+      <c r="AM37" s="202"/>
+      <c r="AN37" s="188"/>
+      <c r="AO37" s="202"/>
+      <c r="AP37" s="188"/>
+      <c r="AQ37" s="202"/>
+      <c r="AR37" s="188"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
@@ -8732,18 +8309,18 @@
       <c r="K38" s="115"/>
       <c r="L38" s="115"/>
       <c r="M38" s="115"/>
-      <c r="N38" s="142"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="170"/>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="170"/>
-      <c r="U38" s="170"/>
-      <c r="V38" s="172"/>
-      <c r="W38" s="171"/>
-      <c r="X38" s="168"/>
-      <c r="Y38" s="168"/>
+      <c r="N38" s="140"/>
+      <c r="O38" s="141"/>
+      <c r="P38" s="166"/>
+      <c r="Q38" s="166"/>
+      <c r="R38" s="166"/>
+      <c r="S38" s="166"/>
+      <c r="T38" s="166"/>
+      <c r="U38" s="166"/>
+      <c r="V38" s="168"/>
+      <c r="W38" s="167"/>
+      <c r="X38" s="164"/>
+      <c r="Y38" s="164"/>
       <c r="Z38" s="115"/>
       <c r="AA38" s="115"/>
       <c r="AB38" s="115"/>
@@ -8777,18 +8354,18 @@
       <c r="K39" s="115"/>
       <c r="L39" s="115"/>
       <c r="M39" s="115"/>
-      <c r="N39" s="142"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="170"/>
-      <c r="V39" s="172"/>
-      <c r="W39" s="171"/>
-      <c r="X39" s="168"/>
-      <c r="Y39" s="168"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="141"/>
+      <c r="P39" s="166"/>
+      <c r="Q39" s="166"/>
+      <c r="R39" s="166"/>
+      <c r="S39" s="166"/>
+      <c r="T39" s="166"/>
+      <c r="U39" s="166"/>
+      <c r="V39" s="168"/>
+      <c r="W39" s="167"/>
+      <c r="X39" s="164"/>
+      <c r="Y39" s="164"/>
       <c r="Z39" s="115"/>
       <c r="AA39" s="115"/>
       <c r="AB39" s="115"/>
@@ -8822,18 +8399,18 @@
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
       <c r="M40" s="115"/>
-      <c r="N40" s="142"/>
-      <c r="O40" s="143"/>
-      <c r="P40" s="170"/>
-      <c r="Q40" s="170"/>
-      <c r="R40" s="170"/>
-      <c r="S40" s="170"/>
-      <c r="T40" s="170"/>
-      <c r="U40" s="170"/>
-      <c r="V40" s="172"/>
-      <c r="W40" s="171"/>
-      <c r="X40" s="168"/>
-      <c r="Y40" s="168"/>
+      <c r="N40" s="140"/>
+      <c r="O40" s="141"/>
+      <c r="P40" s="166"/>
+      <c r="Q40" s="166"/>
+      <c r="R40" s="166"/>
+      <c r="S40" s="166"/>
+      <c r="T40" s="166"/>
+      <c r="U40" s="166"/>
+      <c r="V40" s="168"/>
+      <c r="W40" s="167"/>
+      <c r="X40" s="164"/>
+      <c r="Y40" s="164"/>
       <c r="Z40" s="115"/>
       <c r="AA40" s="115"/>
       <c r="AB40" s="115"/>
@@ -8867,18 +8444,18 @@
       <c r="K41" s="115"/>
       <c r="L41" s="115"/>
       <c r="M41" s="115"/>
-      <c r="N41" s="142"/>
-      <c r="O41" s="143"/>
-      <c r="P41" s="170"/>
-      <c r="Q41" s="170"/>
-      <c r="R41" s="170"/>
-      <c r="S41" s="170"/>
-      <c r="T41" s="170"/>
-      <c r="U41" s="170"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="171"/>
-      <c r="X41" s="168"/>
-      <c r="Y41" s="168"/>
+      <c r="N41" s="140"/>
+      <c r="O41" s="141"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="167"/>
+      <c r="X41" s="164"/>
+      <c r="Y41" s="164"/>
       <c r="Z41" s="115"/>
       <c r="AA41" s="115"/>
       <c r="AB41" s="115"/>
@@ -8912,18 +8489,18 @@
       <c r="K42" s="115"/>
       <c r="L42" s="115"/>
       <c r="M42" s="115"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="143"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-      <c r="V42" s="172"/>
-      <c r="W42" s="171"/>
-      <c r="X42" s="168"/>
-      <c r="Y42" s="168"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="141"/>
+      <c r="P42" s="166"/>
+      <c r="Q42" s="166"/>
+      <c r="R42" s="166"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="166"/>
+      <c r="U42" s="166"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="167"/>
+      <c r="X42" s="164"/>
+      <c r="Y42" s="164"/>
       <c r="Z42" s="115"/>
       <c r="AA42" s="115"/>
       <c r="AB42" s="115"/>
@@ -8957,18 +8534,18 @@
       <c r="K43" s="115"/>
       <c r="L43" s="115"/>
       <c r="M43" s="115"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="143"/>
-      <c r="P43" s="170"/>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="170"/>
-      <c r="S43" s="170"/>
-      <c r="T43" s="170"/>
-      <c r="U43" s="170"/>
-      <c r="V43" s="172"/>
-      <c r="W43" s="171"/>
-      <c r="X43" s="168"/>
-      <c r="Y43" s="168"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="141"/>
+      <c r="P43" s="166"/>
+      <c r="Q43" s="166"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="166"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="166"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="167"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
       <c r="Z43" s="115"/>
       <c r="AA43" s="115"/>
       <c r="AB43" s="115"/>
@@ -8996,34 +8573,34 @@
       <c r="E44" s="115"/>
       <c r="F44" s="115"/>
       <c r="G44" s="115"/>
-      <c r="H44" s="164"/>
+      <c r="H44" s="161"/>
       <c r="I44" s="115"/>
       <c r="J44" s="115"/>
       <c r="K44" s="115"/>
       <c r="L44" s="115"/>
       <c r="M44" s="115"/>
-      <c r="N44" s="142"/>
-      <c r="O44" s="142"/>
-      <c r="P44" s="171"/>
-      <c r="Q44" s="171"/>
-      <c r="R44" s="171"/>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="170"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="171"/>
-      <c r="X44" s="169"/>
-      <c r="Y44" s="169"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
-      <c r="AD44" s="166"/>
-      <c r="AE44" s="115"/>
-      <c r="AF44" s="115"/>
-      <c r="AG44" s="115"/>
-      <c r="AH44" s="115"/>
-      <c r="AI44" s="127"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="166"/>
+      <c r="T44" s="166"/>
+      <c r="U44" s="166"/>
+      <c r="V44" s="169"/>
+      <c r="W44" s="167"/>
+      <c r="X44" s="165"/>
+      <c r="Y44" s="165"/>
+      <c r="Z44" s="143"/>
+      <c r="AA44" s="143"/>
+      <c r="AB44" s="143"/>
+      <c r="AC44" s="143"/>
+      <c r="AD44" s="143"/>
+      <c r="AE44" s="143"/>
+      <c r="AF44" s="143"/>
+      <c r="AG44" s="143"/>
+      <c r="AH44" s="143"/>
+      <c r="AI44" s="126"/>
       <c r="AJ44" s="115"/>
       <c r="AK44" s="115"/>
       <c r="AL44" s="115"/>
@@ -9034,52 +8611,35 @@
       <c r="AQ44" s="115"/>
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="175"/>
-      <c r="B45" s="249">
-        <v>20</v>
-      </c>
-      <c r="C45" s="177" t="s">
-        <v>761</v>
-      </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="178"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="267"/>
-      <c r="O45" s="270">
-        <v>2</v>
-      </c>
-      <c r="P45" s="268" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q45" s="182"/>
-      <c r="R45" s="145"/>
-      <c r="S45" s="145"/>
-      <c r="T45" s="145"/>
-      <c r="U45" s="145"/>
-      <c r="V45" s="145"/>
-      <c r="W45" s="145"/>
-      <c r="X45" s="145"/>
-      <c r="Y45" s="145"/>
-      <c r="Z45" s="140"/>
-      <c r="AA45" s="294"/>
-      <c r="AB45" s="287">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="295" t="s">
-        <v>789</v>
-      </c>
-      <c r="AD45" s="145"/>
-      <c r="AE45" s="145"/>
-      <c r="AF45" s="145"/>
-      <c r="AG45" s="145"/>
-      <c r="AH45" s="115"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="143"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="143"/>
+      <c r="V45" s="143"/>
+      <c r="W45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="143"/>
+      <c r="AC45" s="143"/>
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="143"/>
       <c r="AI45" s="115"/>
       <c r="AJ45" s="115"/>
       <c r="AK45" s="115"/>
@@ -9090,55 +8650,30 @@
       <c r="AP45" s="115"/>
       <c r="AQ45" s="115"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="304" t="s">
-        <v>773</v>
-      </c>
-      <c r="B46" s="250">
-        <v>28</v>
-      </c>
-      <c r="C46" s="178" t="s">
-        <v>762</v>
-      </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="271">
-        <v>3</v>
-      </c>
-      <c r="P46" s="181" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q46" s="182"/>
-      <c r="R46" s="145"/>
-      <c r="S46" s="145"/>
-      <c r="T46" s="140"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="140"/>
-      <c r="W46" s="140"/>
-      <c r="X46" s="145"/>
-      <c r="Y46" s="145"/>
-      <c r="Z46" s="115"/>
-      <c r="AA46" s="269"/>
-      <c r="AB46" s="288">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="284" t="s">
-        <v>790</v>
-      </c>
-      <c r="AD46" s="145"/>
-      <c r="AE46" s="145"/>
-      <c r="AF46" s="145"/>
-      <c r="AG46" s="145"/>
-      <c r="AH46" s="115"/>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="171"/>
+      <c r="Q46" s="174"/>
+      <c r="R46" s="143"/>
+      <c r="S46" s="143"/>
+      <c r="T46" s="139"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="143"/>
+      <c r="Y46" s="143"/>
+      <c r="Z46" s="143"/>
+      <c r="AA46" s="143"/>
+      <c r="AB46" s="143"/>
+      <c r="AC46" s="143"/>
+      <c r="AD46" s="143"/>
+      <c r="AE46" s="143"/>
+      <c r="AF46" s="143"/>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="143"/>
       <c r="AI46" s="115"/>
       <c r="AJ46" s="115"/>
       <c r="AK46" s="115"/>
@@ -9149,56 +8684,31 @@
       <c r="AP46" s="115"/>
       <c r="AQ46" s="115"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="304" t="s">
-        <v>787</v>
-      </c>
-      <c r="B47" s="251">
-        <v>7</v>
-      </c>
-      <c r="C47" s="178" t="s">
-        <v>763</v>
-      </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="178"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="178"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="272">
-        <v>2</v>
-      </c>
-      <c r="P47" s="284" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q47" s="145"/>
-      <c r="R47" s="145"/>
-      <c r="S47" s="145"/>
-      <c r="T47" s="145"/>
-      <c r="U47" s="145"/>
-      <c r="V47" s="145"/>
-      <c r="W47" s="145"/>
-      <c r="X47" s="145"/>
-      <c r="Y47" s="145"/>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="171"/>
+      <c r="Q47" s="143"/>
+      <c r="R47" s="143"/>
+      <c r="S47" s="143"/>
+      <c r="T47" s="143"/>
+      <c r="U47" s="143"/>
+      <c r="V47" s="143"/>
+      <c r="W47" s="143"/>
+      <c r="X47" s="143"/>
+      <c r="Y47" s="143"/>
       <c r="Z47" s="115"/>
-      <c r="AA47" s="269" t="s">
-        <v>773</v>
-      </c>
-      <c r="AB47" s="289">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="284" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD47" s="145"/>
-      <c r="AE47" s="145"/>
-      <c r="AF47" s="145"/>
-      <c r="AG47" s="145"/>
+      <c r="AD47" s="143"/>
+      <c r="AE47" s="143"/>
+      <c r="AF47" s="143"/>
+      <c r="AG47" s="143"/>
       <c r="AH47" s="115"/>
       <c r="AI47" s="115"/>
       <c r="AJ47" s="115"/>
@@ -9211,57 +8721,55 @@
       <c r="AQ47" s="115"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="304" t="s">
-        <v>756</v>
-      </c>
-      <c r="B48" s="252">
-        <v>152</v>
-      </c>
-      <c r="C48" s="185" t="s">
-        <v>764</v>
-      </c>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="178"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="178"/>
-      <c r="N48" s="141"/>
-      <c r="O48" s="273">
+      <c r="A48" s="236" t="s">
+        <v>759</v>
+      </c>
+      <c r="B48" s="242"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="177"/>
+      <c r="J48" s="177"/>
+      <c r="K48" s="177"/>
+      <c r="L48" s="177"/>
+      <c r="M48" s="177"/>
+      <c r="N48" s="244" t="s">
+        <v>759</v>
+      </c>
+      <c r="O48" s="207">
+        <v>6</v>
+      </c>
+      <c r="P48" s="218" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q48" s="245"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="247"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="143"/>
+      <c r="W48" s="143"/>
+      <c r="X48" s="143"/>
+      <c r="Y48" s="143"/>
+      <c r="Z48" s="115"/>
+      <c r="AA48" s="243" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB48" s="219">
         <v>1</v>
       </c>
-      <c r="P48" s="284" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q48" s="145"/>
-      <c r="R48" s="145"/>
-      <c r="S48" s="145"/>
-      <c r="T48" s="145"/>
-      <c r="U48" s="145"/>
-      <c r="V48" s="145"/>
-      <c r="W48" s="145"/>
-      <c r="X48" s="145"/>
-      <c r="Y48" s="145"/>
-      <c r="Z48" s="115"/>
-      <c r="AA48" s="269" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB48" s="290">
-        <v>6</v>
-      </c>
-      <c r="AC48" s="284" t="s">
-        <v>792</v>
-      </c>
-      <c r="AD48" s="145"/>
-      <c r="AE48" s="145"/>
-      <c r="AF48" s="145"/>
-      <c r="AG48" s="145"/>
-      <c r="AH48" s="115"/>
-      <c r="AI48" s="115"/>
+      <c r="AC48" s="218" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD48" s="247"/>
+      <c r="AE48" s="247"/>
+      <c r="AF48" s="247"/>
+      <c r="AG48" s="247"/>
+      <c r="AH48" s="217"/>
+      <c r="AI48" s="217"/>
       <c r="AJ48" s="115"/>
       <c r="AK48" s="115"/>
       <c r="AL48" s="115"/>
@@ -9272,53 +8780,57 @@
       <c r="AQ48" s="115"/>
     </row>
     <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="176"/>
-      <c r="B49" s="253">
+      <c r="A49" s="224" t="s">
+        <v>760</v>
+      </c>
+      <c r="B49" s="206">
+        <v>120</v>
+      </c>
+      <c r="C49" s="240" t="s">
+        <v>757</v>
+      </c>
+      <c r="D49" s="241"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="241"/>
+      <c r="G49" s="241"/>
+      <c r="H49" s="241"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="177"/>
+      <c r="M49" s="177"/>
+      <c r="N49" s="223" t="s">
+        <v>760</v>
+      </c>
+      <c r="O49" s="254">
         <v>1</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="P49" s="214" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="139"/>
+      <c r="S49" s="176"/>
+      <c r="T49" s="176"/>
+      <c r="U49" s="143"/>
+      <c r="V49" s="143"/>
+      <c r="W49" s="143"/>
+      <c r="X49" s="143"/>
+      <c r="Y49" s="143"/>
+      <c r="Z49" s="115"/>
+      <c r="AA49" s="211" t="s">
+        <v>760</v>
+      </c>
+      <c r="AB49" s="213">
+        <v>66</v>
+      </c>
+      <c r="AC49" s="214" t="s">
         <v>765</v>
       </c>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="178"/>
-      <c r="K49" s="178"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="141"/>
-      <c r="O49" s="274">
-        <v>5</v>
-      </c>
-      <c r="P49" s="284" t="s">
-        <v>778</v>
-      </c>
-      <c r="Q49" s="144"/>
-      <c r="R49" s="140"/>
-      <c r="S49" s="145"/>
-      <c r="T49" s="145"/>
-      <c r="U49" s="145"/>
-      <c r="V49" s="145"/>
-      <c r="W49" s="145"/>
-      <c r="X49" s="145"/>
-      <c r="Y49" s="145"/>
-      <c r="Z49" s="115"/>
-      <c r="AA49" s="269" t="s">
-        <v>803</v>
-      </c>
-      <c r="AB49" s="291">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="284" t="s">
-        <v>793</v>
-      </c>
-      <c r="AD49" s="145"/>
-      <c r="AE49" s="145"/>
-      <c r="AF49" s="145"/>
-      <c r="AG49" s="145"/>
+      <c r="AD49" s="143"/>
+      <c r="AE49" s="143"/>
+      <c r="AF49" s="143"/>
+      <c r="AG49" s="143"/>
       <c r="AH49" s="115"/>
       <c r="AI49" s="115"/>
       <c r="AJ49" s="115"/>
@@ -9331,55 +8843,55 @@
       <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="244"/>
-      <c r="B50" s="254">
-        <v>26</v>
-      </c>
-      <c r="C50" s="245" t="s">
-        <v>799</v>
-      </c>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="186"/>
-      <c r="K50" s="186"/>
-      <c r="L50" s="186"/>
-      <c r="M50" s="186"/>
-      <c r="N50" s="303" t="s">
-        <v>773</v>
-      </c>
-      <c r="O50" s="275">
+      <c r="A50" s="235" t="s">
+        <v>756</v>
+      </c>
+      <c r="B50" s="242"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="223" t="s">
+        <v>761</v>
+      </c>
+      <c r="O50" s="216">
         <v>6</v>
       </c>
-      <c r="P50" s="284" t="s">
-        <v>779</v>
-      </c>
-      <c r="Q50" s="144"/>
-      <c r="R50" s="140"/>
-      <c r="S50" s="145"/>
-      <c r="T50" s="145"/>
-      <c r="U50" s="145"/>
-      <c r="V50" s="145"/>
-      <c r="W50" s="145"/>
-      <c r="X50" s="145"/>
-      <c r="Y50" s="145"/>
+      <c r="P50" s="214" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q50" s="143"/>
+      <c r="R50" s="143"/>
+      <c r="S50" s="143"/>
+      <c r="T50" s="143"/>
+      <c r="U50" s="143"/>
+      <c r="V50" s="143"/>
+      <c r="W50" s="143"/>
+      <c r="X50" s="143"/>
+      <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="269"/>
-      <c r="AB50" s="286">
-        <v>20</v>
-      </c>
-      <c r="AC50" s="284" t="s">
-        <v>788</v>
-      </c>
-      <c r="AD50" s="145"/>
-      <c r="AE50" s="145"/>
-      <c r="AF50" s="145"/>
-      <c r="AG50" s="145"/>
-      <c r="AH50" s="115"/>
-      <c r="AI50" s="115"/>
+      <c r="AA50" s="248" t="s">
+        <v>764</v>
+      </c>
+      <c r="AB50" s="261">
+        <v>9</v>
+      </c>
+      <c r="AC50" s="215" t="s">
+        <v>771</v>
+      </c>
+      <c r="AD50" s="175"/>
+      <c r="AE50" s="175"/>
+      <c r="AF50" s="175"/>
+      <c r="AG50" s="175"/>
+      <c r="AH50" s="210"/>
+      <c r="AI50" s="210"/>
       <c r="AJ50" s="115"/>
       <c r="AK50" s="115"/>
       <c r="AL50" s="115"/>
@@ -9390,53 +8902,39 @@
       <c r="AQ50" s="115"/>
     </row>
     <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="209"/>
-      <c r="B51" s="255">
-        <v>46</v>
-      </c>
-      <c r="C51" s="186" t="s">
-        <v>766</v>
-      </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
-      <c r="J51" s="186"/>
-      <c r="K51" s="186"/>
-      <c r="L51" s="186"/>
-      <c r="M51" s="186"/>
-      <c r="N51" s="303" t="s">
-        <v>787</v>
-      </c>
-      <c r="O51" s="276">
-        <v>4</v>
-      </c>
-      <c r="P51" s="284" t="s">
-        <v>786</v>
-      </c>
-      <c r="Q51" s="144"/>
-      <c r="R51" s="140"/>
-      <c r="S51" s="184"/>
-      <c r="T51" s="184"/>
-      <c r="U51" s="145"/>
-      <c r="V51" s="145"/>
-      <c r="W51" s="145"/>
-      <c r="X51" s="145"/>
-      <c r="Y51" s="145"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="238" t="s">
+        <v>756</v>
+      </c>
+      <c r="O51" s="208">
+        <v>10</v>
+      </c>
+      <c r="P51" s="239" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q51" s="143"/>
+      <c r="R51" s="143"/>
+      <c r="S51" s="143"/>
+      <c r="T51" s="143"/>
+      <c r="U51" s="143"/>
+      <c r="V51" s="143"/>
+      <c r="W51" s="143"/>
+      <c r="X51" s="143"/>
+      <c r="Y51" s="143"/>
       <c r="Z51" s="115"/>
-      <c r="AA51" s="115"/>
-      <c r="AB51" s="292">
-        <v>174</v>
-      </c>
-      <c r="AC51" s="284" t="s">
-        <v>794</v>
-      </c>
-      <c r="AD51" s="145"/>
-      <c r="AE51" s="145"/>
-      <c r="AF51" s="145"/>
-      <c r="AG51" s="145"/>
+      <c r="AD51" s="143"/>
+      <c r="AE51" s="143"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="143"/>
       <c r="AH51" s="115"/>
       <c r="AI51" s="115"/>
       <c r="AJ51" s="115"/>
@@ -9448,56 +8946,43 @@
       <c r="AP51" s="115"/>
       <c r="AQ51" s="115"/>
     </row>
-    <row r="52" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="209"/>
-      <c r="B52" s="256">
-        <v>5</v>
-      </c>
-      <c r="C52" s="178" t="s">
-        <v>767</v>
-      </c>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="303" t="s">
-        <v>796</v>
-      </c>
-      <c r="O52" s="277">
-        <v>5</v>
-      </c>
-      <c r="P52" s="284" t="s">
-        <v>780</v>
-      </c>
-      <c r="Q52" s="145"/>
-      <c r="R52" s="145"/>
-      <c r="S52" s="145"/>
-      <c r="T52" s="145"/>
-      <c r="U52" s="145"/>
-      <c r="V52" s="145"/>
-      <c r="W52" s="145"/>
-      <c r="X52" s="145"/>
-      <c r="Y52" s="145"/>
+    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="214"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="171"/>
+      <c r="N52" s="205"/>
+      <c r="O52" s="212">
+        <v>500</v>
+      </c>
+      <c r="P52" s="215" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q52" s="175"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="175"/>
+      <c r="T52" s="175"/>
+      <c r="U52" s="175"/>
+      <c r="V52" s="143"/>
+      <c r="W52" s="143"/>
+      <c r="X52" s="143"/>
+      <c r="Y52" s="143"/>
       <c r="Z52" s="115"/>
-      <c r="AA52" s="265"/>
-      <c r="AB52" s="293">
-        <v>22</v>
-      </c>
-      <c r="AC52" s="285" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD52" s="183"/>
-      <c r="AE52" s="183"/>
-      <c r="AF52" s="183"/>
-      <c r="AG52" s="183"/>
-      <c r="AH52" s="115"/>
-      <c r="AI52" s="115"/>
+      <c r="AA52" s="143"/>
+      <c r="AB52" s="143"/>
+      <c r="AC52" s="143"/>
+      <c r="AD52" s="143"/>
+      <c r="AE52" s="143"/>
+      <c r="AF52" s="143"/>
+      <c r="AG52" s="143"/>
+      <c r="AH52" s="143"/>
+      <c r="AI52" s="143"/>
       <c r="AJ52" s="115"/>
       <c r="AK52" s="115"/>
       <c r="AL52" s="115"/>
@@ -9507,56 +8992,39 @@
       <c r="AP52" s="115"/>
       <c r="AQ52" s="115"/>
     </row>
-    <row r="53" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="303"/>
-      <c r="B53" s="257">
-        <v>16</v>
-      </c>
-      <c r="C53" s="185" t="s">
-        <v>768</v>
-      </c>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="303" t="s">
-        <v>756</v>
-      </c>
-      <c r="O53" s="278">
-        <v>2</v>
-      </c>
-      <c r="P53" s="284" t="s">
-        <v>781</v>
-      </c>
-      <c r="Q53" s="145"/>
-      <c r="R53" s="145"/>
-      <c r="S53" s="145"/>
-      <c r="T53" s="145"/>
-      <c r="U53" s="145"/>
-      <c r="V53" s="145"/>
-      <c r="W53" s="145"/>
-      <c r="X53" s="145"/>
-      <c r="Y53" s="145"/>
-      <c r="Z53" s="115"/>
-      <c r="AA53" s="115"/>
-      <c r="AB53" s="299">
-        <v>14</v>
-      </c>
-      <c r="AC53" s="284" t="s">
-        <v>797</v>
-      </c>
-      <c r="AD53" s="145"/>
-      <c r="AE53" s="145"/>
-      <c r="AF53" s="145"/>
-      <c r="AG53" s="145"/>
-      <c r="AH53" s="115"/>
-      <c r="AI53" s="115"/>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="143"/>
+      <c r="O53" s="143"/>
+      <c r="P53" s="143"/>
+      <c r="Q53" s="143"/>
+      <c r="R53" s="143"/>
+      <c r="S53" s="143"/>
+      <c r="T53" s="143"/>
+      <c r="U53" s="143"/>
+      <c r="V53" s="143"/>
+      <c r="W53" s="143"/>
+      <c r="X53" s="143"/>
+      <c r="Y53" s="143"/>
+      <c r="Z53" s="143"/>
+      <c r="AA53" s="143"/>
+      <c r="AB53" s="143"/>
+      <c r="AC53" s="143"/>
+      <c r="AD53" s="143"/>
+      <c r="AE53" s="143"/>
+      <c r="AF53" s="143"/>
+      <c r="AG53" s="143"/>
+      <c r="AH53" s="143"/>
+      <c r="AI53" s="143"/>
       <c r="AJ53" s="115"/>
       <c r="AK53" s="115"/>
       <c r="AL53" s="115"/>
@@ -9566,52 +9034,40 @@
       <c r="AP53" s="115"/>
       <c r="AQ53" s="115"/>
     </row>
-    <row r="54" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="303"/>
-      <c r="B54" s="258">
-        <v>1</v>
-      </c>
-      <c r="C54" s="178" t="s">
-        <v>769</v>
-      </c>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="279">
-        <v>15</v>
-      </c>
-      <c r="P54" s="284" t="s">
-        <v>782</v>
-      </c>
-      <c r="Q54" s="145"/>
-      <c r="R54" s="145"/>
-      <c r="S54" s="145"/>
-      <c r="T54" s="145"/>
-      <c r="U54" s="145"/>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
-      <c r="Y54" s="145"/>
-      <c r="Z54" s="115"/>
-      <c r="AA54" s="265"/>
-      <c r="AB54" s="296">
-        <v>26</v>
-      </c>
-      <c r="AC54" s="285" t="s">
-        <v>798</v>
-      </c>
-      <c r="AD54" s="183"/>
-      <c r="AE54" s="183"/>
-      <c r="AF54" s="183"/>
-      <c r="AG54" s="183"/>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A54" s="214"/>
+      <c r="B54" s="214"/>
+      <c r="C54" s="214"/>
+      <c r="D54" s="214"/>
+      <c r="E54" s="214"/>
+      <c r="F54" s="214"/>
+      <c r="G54" s="214"/>
+      <c r="H54" s="214"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="171"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="143"/>
+      <c r="O54" s="143"/>
+      <c r="P54" s="143"/>
+      <c r="Q54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
+      <c r="U54" s="143"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="143"/>
+      <c r="X54" s="143"/>
+      <c r="Y54" s="143"/>
+      <c r="Z54" s="143"/>
+      <c r="AA54" s="143"/>
+      <c r="AB54" s="221"/>
+      <c r="AC54" s="143"/>
+      <c r="AD54" s="143"/>
+      <c r="AE54" s="115"/>
+      <c r="AF54" s="115"/>
+      <c r="AG54" s="115"/>
       <c r="AH54" s="115"/>
       <c r="AI54" s="115"/>
       <c r="AJ54" s="115"/>
@@ -9623,49 +9079,38 @@
       <c r="AP54" s="115"/>
       <c r="AQ54" s="115"/>
     </row>
-    <row r="55" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="303"/>
-      <c r="B55" s="259">
-        <v>4</v>
-      </c>
-      <c r="C55" s="178" t="s">
-        <v>770</v>
-      </c>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="178"/>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B55" s="196"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="171"/>
       <c r="N55" s="115"/>
-      <c r="O55" s="280">
-        <v>2</v>
-      </c>
-      <c r="P55" s="284" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q55" s="145"/>
-      <c r="R55" s="140"/>
-      <c r="S55" s="145"/>
-      <c r="T55" s="145"/>
-      <c r="U55" s="145"/>
-      <c r="V55" s="145"/>
-      <c r="W55" s="145"/>
-      <c r="X55" s="145"/>
-      <c r="Y55" s="145"/>
-      <c r="Z55" s="145"/>
-      <c r="AA55" s="145"/>
-      <c r="AB55" s="300">
-        <v>83</v>
-      </c>
-      <c r="AC55" s="284" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD55" s="145"/>
+      <c r="O55" s="209">
+        <v>3</v>
+      </c>
+      <c r="P55" s="143"/>
+      <c r="Q55" s="143"/>
+      <c r="R55" s="143"/>
+      <c r="S55" s="143"/>
+      <c r="T55" s="143"/>
+      <c r="U55" s="143"/>
+      <c r="V55" s="143"/>
+      <c r="W55" s="143"/>
+      <c r="X55" s="143"/>
+      <c r="Y55" s="143"/>
+      <c r="Z55" s="143"/>
+      <c r="AA55" s="143"/>
+      <c r="AB55" s="220"/>
+      <c r="AC55" s="143"/>
+      <c r="AD55" s="143"/>
       <c r="AE55" s="115"/>
       <c r="AF55" s="115"/>
       <c r="AG55" s="115"/>
@@ -9680,362 +9125,114 @@
       <c r="AP55" s="115"/>
       <c r="AQ55" s="115"/>
     </row>
-    <row r="56" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="303"/>
-      <c r="B56" s="260">
-        <v>3</v>
-      </c>
-      <c r="C56" s="178" t="s">
-        <v>771</v>
-      </c>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="178"/>
-      <c r="L56" s="178"/>
-      <c r="M56" s="178"/>
-      <c r="N56" s="115"/>
-      <c r="O56" s="281">
-        <v>90</v>
-      </c>
-      <c r="P56" s="284" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="140"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="214"/>
-      <c r="U56" s="145"/>
-      <c r="V56" s="145"/>
-      <c r="W56" s="145"/>
-      <c r="X56" s="145"/>
-      <c r="Y56" s="145"/>
-      <c r="Z56" s="145"/>
-      <c r="AA56" s="145"/>
-      <c r="AB56" s="298"/>
-      <c r="AC56" s="145"/>
-      <c r="AD56" s="145"/>
-      <c r="AE56" s="115"/>
-      <c r="AF56" s="115"/>
-      <c r="AG56" s="115"/>
-      <c r="AH56" s="115"/>
-      <c r="AI56" s="115"/>
-      <c r="AJ56" s="115"/>
-      <c r="AK56" s="115"/>
-      <c r="AL56" s="115"/>
-      <c r="AM56" s="115"/>
-      <c r="AN56" s="115"/>
-      <c r="AO56" s="115"/>
-      <c r="AP56" s="115"/>
-      <c r="AQ56" s="115"/>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A56" s="233">
+        <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
+        <v>719</v>
+      </c>
+      <c r="B56" s="233"/>
+      <c r="C56" s="233"/>
+      <c r="D56" s="233"/>
+      <c r="E56" s="233"/>
+      <c r="F56" s="233"/>
+      <c r="G56" s="233"/>
+      <c r="H56" s="233"/>
+      <c r="I56" s="233"/>
+      <c r="J56" s="233"/>
+      <c r="K56" s="233"/>
+      <c r="L56" s="233"/>
+      <c r="M56" s="233"/>
+      <c r="N56" s="233"/>
+      <c r="O56" s="234"/>
+      <c r="P56" s="233"/>
+      <c r="Q56" s="233"/>
+      <c r="R56" s="233"/>
+      <c r="S56" s="233"/>
+      <c r="T56" s="233"/>
+      <c r="U56" s="233"/>
+      <c r="V56" s="233"/>
+      <c r="W56" s="233"/>
+      <c r="X56" s="233"/>
+      <c r="Y56" s="233"/>
+      <c r="Z56" s="233"/>
+      <c r="AA56" s="233"/>
+      <c r="AB56" s="234"/>
+      <c r="AC56" s="233"/>
+      <c r="AD56" s="233"/>
+      <c r="AE56" s="233"/>
+      <c r="AF56" s="233"/>
+      <c r="AG56" s="233"/>
+      <c r="AH56" s="233"/>
+      <c r="AI56" s="233"/>
+      <c r="AJ56" s="233"/>
+      <c r="AK56" s="233"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B57" s="261">
-        <v>240</v>
-      </c>
-      <c r="C57" s="178" t="s">
-        <v>772</v>
-      </c>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="178"/>
-      <c r="J57" s="178"/>
-      <c r="K57" s="178"/>
-      <c r="L57" s="178"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="115"/>
-      <c r="O57" s="282">
-        <v>19</v>
-      </c>
-      <c r="P57" s="284" t="s">
-        <v>785</v>
-      </c>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="140"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="145"/>
-      <c r="X57" s="145"/>
-      <c r="Y57" s="145"/>
-      <c r="Z57" s="145"/>
-      <c r="AA57" s="145"/>
-      <c r="AB57" s="298"/>
-      <c r="AC57" s="145"/>
-      <c r="AD57" s="145"/>
-      <c r="AE57" s="115"/>
-      <c r="AF57" s="115"/>
-      <c r="AG57" s="115"/>
-      <c r="AH57" s="115"/>
-      <c r="AI57" s="115"/>
-      <c r="AJ57" s="115"/>
-      <c r="AK57" s="115"/>
-      <c r="AL57" s="115"/>
-      <c r="AM57" s="115"/>
-      <c r="AN57" s="115"/>
-      <c r="AO57" s="115"/>
-      <c r="AP57" s="115"/>
-      <c r="AQ57" s="115"/>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A58" s="247"/>
-      <c r="B58" s="262">
-        <v>18</v>
-      </c>
-      <c r="C58" s="248" t="s">
-        <v>759</v>
-      </c>
-      <c r="D58" s="248"/>
-      <c r="E58" s="248"/>
-      <c r="F58" s="248"/>
-      <c r="G58" s="248"/>
-      <c r="H58" s="248"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
-      <c r="K58" s="178"/>
-      <c r="L58" s="178"/>
-      <c r="M58" s="178"/>
-      <c r="N58" s="265"/>
-      <c r="O58" s="283">
-        <v>20</v>
-      </c>
-      <c r="P58" s="285" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q58" s="183"/>
-      <c r="R58" s="215"/>
-      <c r="S58" s="266"/>
-      <c r="T58" s="266"/>
-      <c r="U58" s="183"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="145"/>
-      <c r="X58" s="145"/>
-      <c r="Y58" s="145"/>
-      <c r="Z58" s="145"/>
-      <c r="AA58" s="145"/>
-      <c r="AB58" s="298"/>
-      <c r="AC58" s="145"/>
-      <c r="AD58" s="145"/>
-      <c r="AE58" s="115"/>
-      <c r="AF58" s="115"/>
-      <c r="AG58" s="115"/>
-      <c r="AH58" s="115"/>
-      <c r="AI58" s="115"/>
-      <c r="AJ58" s="115"/>
-      <c r="AK58" s="115"/>
-      <c r="AL58" s="115"/>
-      <c r="AM58" s="115"/>
-      <c r="AN58" s="115"/>
-      <c r="AO58" s="115"/>
-      <c r="AP58" s="115"/>
-      <c r="AQ58" s="115"/>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B59" s="210"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="178"/>
-      <c r="I59" s="178"/>
-      <c r="J59" s="178"/>
-      <c r="K59" s="178"/>
-      <c r="L59" s="178"/>
-      <c r="M59" s="178"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="264"/>
-      <c r="P59" s="214"/>
-      <c r="Q59" s="214"/>
-      <c r="R59" s="213"/>
-      <c r="S59" s="214"/>
-      <c r="T59" s="214"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="145"/>
-      <c r="W59" s="145"/>
-      <c r="X59" s="145"/>
-      <c r="Y59" s="145"/>
-      <c r="Z59" s="145"/>
-      <c r="AA59" s="145"/>
-      <c r="AB59" s="298"/>
-      <c r="AC59" s="145"/>
-      <c r="AD59" s="145"/>
-      <c r="AE59" s="115"/>
-      <c r="AF59" s="115"/>
-      <c r="AG59" s="115"/>
-      <c r="AH59" s="115"/>
-      <c r="AI59" s="115"/>
-      <c r="AJ59" s="115"/>
-      <c r="AK59" s="115"/>
-      <c r="AL59" s="115"/>
-      <c r="AM59" s="115"/>
-      <c r="AN59" s="115"/>
-      <c r="AO59" s="115"/>
-      <c r="AP59" s="115"/>
-      <c r="AQ59" s="115"/>
+    <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H58" s="232"/>
+      <c r="I58" s="232"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B60" s="210"/>
-      <c r="C60" s="178"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="178"/>
-      <c r="F60" s="178"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="178"/>
-      <c r="I60" s="178"/>
-      <c r="J60" s="178"/>
-      <c r="K60" s="178"/>
-      <c r="L60" s="178"/>
-      <c r="M60" s="178"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="263">
-        <v>3</v>
-      </c>
-      <c r="P60" s="145"/>
-      <c r="Q60" s="145"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="145"/>
-      <c r="Y60" s="145"/>
-      <c r="Z60" s="145"/>
-      <c r="AA60" s="145"/>
-      <c r="AB60" s="297"/>
-      <c r="AC60" s="145"/>
-      <c r="AD60" s="145"/>
-      <c r="AE60" s="115"/>
-      <c r="AF60" s="115"/>
-      <c r="AG60" s="115"/>
-      <c r="AH60" s="115"/>
-      <c r="AI60" s="115"/>
-      <c r="AJ60" s="115"/>
-      <c r="AK60" s="115"/>
-      <c r="AL60" s="115"/>
-      <c r="AM60" s="115"/>
-      <c r="AN60" s="115"/>
-      <c r="AO60" s="115"/>
-      <c r="AP60" s="115"/>
-      <c r="AQ60" s="115"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+      <c r="AC60" s="13"/>
+      <c r="AD60" s="13"/>
+      <c r="AE60" s="13"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A61" s="312">
-        <f>SUM(B45:B58,O45:O58,AB45:AB55)</f>
-        <v>1096</v>
-      </c>
-      <c r="B61" s="312"/>
-      <c r="C61" s="312"/>
-      <c r="D61" s="312"/>
-      <c r="E61" s="312"/>
-      <c r="F61" s="312"/>
-      <c r="G61" s="312"/>
-      <c r="H61" s="312"/>
-      <c r="I61" s="312"/>
-      <c r="J61" s="312"/>
-      <c r="K61" s="312"/>
-      <c r="L61" s="312"/>
-      <c r="M61" s="312"/>
-      <c r="N61" s="312"/>
-      <c r="O61" s="313"/>
-      <c r="P61" s="312"/>
-      <c r="Q61" s="312"/>
-      <c r="R61" s="312"/>
-      <c r="S61" s="312"/>
-      <c r="T61" s="312"/>
-      <c r="U61" s="312"/>
-      <c r="V61" s="312"/>
-      <c r="W61" s="312"/>
-      <c r="X61" s="312"/>
-      <c r="Y61" s="312"/>
-      <c r="Z61" s="312"/>
-      <c r="AA61" s="312"/>
-      <c r="AB61" s="313"/>
-      <c r="AC61" s="312"/>
-      <c r="AD61" s="312"/>
-      <c r="AE61" s="312"/>
-      <c r="AF61" s="312"/>
-      <c r="AG61" s="312"/>
-      <c r="AH61" s="312"/>
-      <c r="AI61" s="312"/>
-      <c r="AJ61" s="312"/>
-      <c r="AK61" s="312"/>
+    <row r="65" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI65" s="113"/>
+      <c r="AJ65" s="131"/>
     </row>
-    <row r="63" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H63" s="311"/>
-      <c r="I63" s="311"/>
+    <row r="66" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI66" s="113"/>
+      <c r="AJ66" s="131"/>
     </row>
-    <row r="65" spans="27:36" x14ac:dyDescent="0.2">
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
+    <row r="67" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI67" s="226"/>
+      <c r="AJ67" s="226"/>
     </row>
-    <row r="70" spans="27:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI68" s="113"/>
+      <c r="AJ68" s="131"/>
+    </row>
+    <row r="69" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI69" s="113"/>
+      <c r="AJ69" s="131"/>
+    </row>
+    <row r="70" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI70" s="113"/>
-      <c r="AJ70" s="132"/>
+      <c r="AJ70" s="114"/>
     </row>
-    <row r="71" spans="27:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI71" s="113"/>
-      <c r="AJ71" s="132"/>
+      <c r="AJ71" s="114"/>
     </row>
-    <row r="72" spans="27:36" x14ac:dyDescent="0.2">
-      <c r="AI72" s="305"/>
-      <c r="AJ72" s="305"/>
+    <row r="72" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AI72" s="113"/>
+      <c r="AJ72" s="114"/>
     </row>
-    <row r="73" spans="27:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI73" s="113"/>
-      <c r="AJ73" s="132"/>
+      <c r="AJ73" s="114"/>
     </row>
-    <row r="74" spans="27:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI74" s="113"/>
-      <c r="AJ74" s="132"/>
+      <c r="AJ74" s="114"/>
     </row>
-    <row r="75" spans="27:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI75" s="113"/>
-      <c r="AJ75" s="114"/>
+    <row r="80" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="M80" s="138"/>
     </row>
-    <row r="76" spans="27:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI76" s="113"/>
-      <c r="AJ76" s="114"/>
-    </row>
-    <row r="77" spans="27:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI77" s="113"/>
-      <c r="AJ77" s="114"/>
-    </row>
-    <row r="78" spans="27:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI78" s="113"/>
-      <c r="AJ78" s="114"/>
-    </row>
-    <row r="79" spans="27:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI79" s="113"/>
-      <c r="AJ79" s="114"/>
-    </row>
-    <row r="85" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M85" s="139"/>
-    </row>
-    <row r="86" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M86" s="139"/>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AI67:AJ67"/>
     <mergeCell ref="C1:AQ1"/>
     <mergeCell ref="E2:AO2"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A61:AK61"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A56:AK56"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
@@ -10050,7 +9247,7 @@
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:AZ477"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="107" workbookViewId="0">
+    <sheetView defaultGridColor="0" topLeftCell="A157" colorId="22" zoomScale="107" workbookViewId="0">
       <selection activeCell="Z231" sqref="Z231:AD231"/>
     </sheetView>
   </sheetViews>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2240FAE-3C52-472C-97CF-D50D6465BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665E2EC3-4570-41C9-A874-04A3A555FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3596,33 +3596,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3724,6 +3697,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4080,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A61" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4097,49 +4097,49 @@
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="227" t="s">
+      <c r="C1" s="264" t="s">
         <v>763</v>
       </c>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="228"/>
-      <c r="AB1" s="228"/>
-      <c r="AC1" s="228"/>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="228"/>
-      <c r="AH1" s="228"/>
-      <c r="AI1" s="228"/>
-      <c r="AJ1" s="228"/>
-      <c r="AK1" s="228"/>
-      <c r="AL1" s="228"/>
-      <c r="AM1" s="228"/>
-      <c r="AN1" s="228"/>
-      <c r="AO1" s="228"/>
-      <c r="AP1" s="228"/>
-      <c r="AQ1" s="229"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="265"/>
+      <c r="T1" s="265"/>
+      <c r="U1" s="265"/>
+      <c r="V1" s="265"/>
+      <c r="W1" s="265"/>
+      <c r="X1" s="265"/>
+      <c r="Y1" s="265"/>
+      <c r="Z1" s="265"/>
+      <c r="AA1" s="265"/>
+      <c r="AB1" s="265"/>
+      <c r="AC1" s="265"/>
+      <c r="AD1" s="265"/>
+      <c r="AE1" s="265"/>
+      <c r="AF1" s="265"/>
+      <c r="AG1" s="265"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="265"/>
+      <c r="AL1" s="265"/>
+      <c r="AM1" s="265"/>
+      <c r="AN1" s="265"/>
+      <c r="AO1" s="265"/>
+      <c r="AP1" s="265"/>
+      <c r="AQ1" s="266"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="179"/>
     </row>
@@ -4148,45 +4148,45 @@
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="230" t="s">
+      <c r="E2" s="267" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
-      <c r="K2" s="230"/>
-      <c r="L2" s="230"/>
-      <c r="M2" s="230"/>
-      <c r="N2" s="230"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="230"/>
-      <c r="S2" s="230"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="230"/>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="230"/>
-      <c r="AD2" s="230"/>
-      <c r="AE2" s="230"/>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="230"/>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="230"/>
-      <c r="AJ2" s="230"/>
-      <c r="AK2" s="230"/>
-      <c r="AL2" s="230"/>
-      <c r="AM2" s="230"/>
-      <c r="AN2" s="230"/>
-      <c r="AO2" s="230"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="267"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="267"/>
+      <c r="W2" s="267"/>
+      <c r="X2" s="267"/>
+      <c r="Y2" s="267"/>
+      <c r="Z2" s="267"/>
+      <c r="AA2" s="267"/>
+      <c r="AB2" s="267"/>
+      <c r="AC2" s="267"/>
+      <c r="AD2" s="267"/>
+      <c r="AE2" s="267"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="267"/>
+      <c r="AH2" s="267"/>
+      <c r="AI2" s="267"/>
+      <c r="AJ2" s="267"/>
+      <c r="AK2" s="267"/>
+      <c r="AL2" s="267"/>
+      <c r="AM2" s="267"/>
+      <c r="AN2" s="267"/>
+      <c r="AO2" s="267"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="123"/>
-      <c r="C7" s="249" t="s">
+      <c r="C7" s="240" t="s">
         <v>772</v>
       </c>
       <c r="D7" s="191" t="s">
@@ -4868,10 +4868,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="250" t="s">
+      <c r="C10" s="241" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="251" t="s">
+      <c r="D10" s="242" t="s">
         <v>773</v>
       </c>
       <c r="E10" s="192" t="s">
@@ -4889,10 +4889,10 @@
       <c r="I10" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="253" t="s">
+      <c r="J10" s="244" t="s">
         <v>774</v>
       </c>
-      <c r="K10" s="252" t="s">
+      <c r="K10" s="243" t="s">
         <v>775</v>
       </c>
       <c r="L10" s="200" t="s">
@@ -4910,38 +4910,38 @@
       <c r="P10" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="256" t="s">
+      <c r="Q10" s="247" t="s">
         <v>776</v>
       </c>
-      <c r="R10" s="255" t="s">
+      <c r="R10" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="S10" s="255" t="s">
+      <c r="S10" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="255" t="s">
+      <c r="T10" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="255" t="s">
+      <c r="U10" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="255" t="s">
+      <c r="V10" s="246" t="s">
         <v>58</v>
       </c>
       <c r="W10" s="137"/>
-      <c r="X10" s="255" t="s">
+      <c r="X10" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="255" t="s">
+      <c r="Y10" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="255" t="s">
+      <c r="Z10" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="255" t="s">
+      <c r="AA10" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="257" t="s">
+      <c r="AB10" s="248" t="s">
         <v>145</v>
       </c>
       <c r="AC10" s="193" t="s">
@@ -5135,7 +5135,7 @@
       <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="270"/>
+      <c r="B12" s="261"/>
       <c r="C12" s="193">
         <v>120</v>
       </c>
@@ -6469,11 +6469,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="231" t="s">
+      <c r="N22" s="268" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="231"/>
-      <c r="P22" s="231"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6487,11 +6487,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="231" t="s">
+      <c r="AD22" s="268" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="231"/>
-      <c r="AF22" s="231"/>
+      <c r="AE22" s="268"/>
+      <c r="AF22" s="268"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6508,34 +6508,34 @@
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="225"/>
-      <c r="B23" s="258">
+      <c r="B23" s="249">
         <v>385</v>
       </c>
-      <c r="C23" s="258">
+      <c r="C23" s="249">
         <v>386</v>
       </c>
-      <c r="D23" s="258">
+      <c r="D23" s="249">
         <v>387</v>
       </c>
-      <c r="E23" s="258">
+      <c r="E23" s="249">
         <v>388</v>
       </c>
-      <c r="F23" s="258">
+      <c r="F23" s="249">
         <v>389</v>
       </c>
-      <c r="G23" s="258">
+      <c r="G23" s="249">
         <v>390</v>
       </c>
-      <c r="H23" s="258">
+      <c r="H23" s="249">
         <v>391</v>
       </c>
-      <c r="I23" s="258">
+      <c r="I23" s="249">
         <v>392</v>
       </c>
-      <c r="J23" s="258">
+      <c r="J23" s="249">
         <v>393</v>
       </c>
-      <c r="K23" s="258">
+      <c r="K23" s="249">
         <v>394</v>
       </c>
       <c r="L23" s="149"/>
@@ -6585,68 +6585,68 @@
       </c>
       <c r="AG23" s="149"/>
       <c r="AH23" s="149"/>
-      <c r="AI23" s="262">
+      <c r="AI23" s="253">
         <v>394</v>
       </c>
-      <c r="AJ23" s="262">
+      <c r="AJ23" s="253">
         <v>393</v>
       </c>
-      <c r="AK23" s="262">
+      <c r="AK23" s="253">
         <v>392</v>
       </c>
-      <c r="AL23" s="262">
+      <c r="AL23" s="253">
         <v>391</v>
       </c>
-      <c r="AM23" s="262">
+      <c r="AM23" s="253">
         <v>390</v>
       </c>
-      <c r="AN23" s="262">
+      <c r="AN23" s="253">
         <v>389</v>
       </c>
-      <c r="AO23" s="262">
+      <c r="AO23" s="253">
         <v>388</v>
       </c>
-      <c r="AP23" s="262">
+      <c r="AP23" s="253">
         <v>387</v>
       </c>
-      <c r="AQ23" s="262">
+      <c r="AQ23" s="253">
         <v>386</v>
       </c>
-      <c r="AR23" s="262">
+      <c r="AR23" s="253">
         <v>385</v>
       </c>
       <c r="AS23" s="179"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
-      <c r="B24" s="262">
+      <c r="B24" s="253">
         <v>395</v>
       </c>
-      <c r="C24" s="262">
+      <c r="C24" s="253">
         <v>396</v>
       </c>
-      <c r="D24" s="262">
+      <c r="D24" s="253">
         <v>397</v>
       </c>
-      <c r="E24" s="262">
+      <c r="E24" s="253">
         <v>398</v>
       </c>
-      <c r="F24" s="262">
+      <c r="F24" s="253">
         <v>399</v>
       </c>
-      <c r="G24" s="262">
+      <c r="G24" s="253">
         <v>400</v>
       </c>
-      <c r="H24" s="262">
+      <c r="H24" s="253">
         <v>401</v>
       </c>
-      <c r="I24" s="262">
+      <c r="I24" s="253">
         <v>402</v>
       </c>
-      <c r="J24" s="262">
+      <c r="J24" s="253">
         <v>403</v>
       </c>
-      <c r="K24" s="262">
+      <c r="K24" s="253">
         <v>404</v>
       </c>
       <c r="L24" s="149"/>
@@ -6676,68 +6676,68 @@
       </c>
       <c r="AG24" s="149"/>
       <c r="AH24" s="149"/>
-      <c r="AI24" s="262">
+      <c r="AI24" s="253">
         <v>404</v>
       </c>
-      <c r="AJ24" s="262">
+      <c r="AJ24" s="253">
         <v>403</v>
       </c>
-      <c r="AK24" s="262">
+      <c r="AK24" s="253">
         <v>402</v>
       </c>
-      <c r="AL24" s="262">
+      <c r="AL24" s="253">
         <v>401</v>
       </c>
-      <c r="AM24" s="262">
+      <c r="AM24" s="253">
         <v>400</v>
       </c>
-      <c r="AN24" s="262">
+      <c r="AN24" s="253">
         <v>399</v>
       </c>
-      <c r="AO24" s="262">
+      <c r="AO24" s="253">
         <v>398</v>
       </c>
-      <c r="AP24" s="262">
+      <c r="AP24" s="253">
         <v>397</v>
       </c>
-      <c r="AQ24" s="262">
+      <c r="AQ24" s="253">
         <v>396</v>
       </c>
-      <c r="AR24" s="262">
+      <c r="AR24" s="253">
         <v>395</v>
       </c>
       <c r="AS24" s="179"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
-      <c r="B25" s="263">
+      <c r="B25" s="254">
         <v>405</v>
       </c>
-      <c r="C25" s="263">
+      <c r="C25" s="254">
         <v>406</v>
       </c>
-      <c r="D25" s="263">
+      <c r="D25" s="254">
         <v>407</v>
       </c>
-      <c r="E25" s="263">
+      <c r="E25" s="254">
         <v>408</v>
       </c>
-      <c r="F25" s="263">
+      <c r="F25" s="254">
         <v>409</v>
       </c>
-      <c r="G25" s="263">
+      <c r="G25" s="254">
         <v>410</v>
       </c>
-      <c r="H25" s="263">
+      <c r="H25" s="254">
         <v>411</v>
       </c>
-      <c r="I25" s="263">
+      <c r="I25" s="254">
         <v>412</v>
       </c>
-      <c r="J25" s="263">
+      <c r="J25" s="254">
         <v>413</v>
       </c>
-      <c r="K25" s="263">
+      <c r="K25" s="254">
         <v>414</v>
       </c>
       <c r="L25" s="149"/>
@@ -6767,74 +6767,74 @@
       </c>
       <c r="AG25" s="149"/>
       <c r="AH25" s="149"/>
-      <c r="AI25" s="263">
+      <c r="AI25" s="254">
         <v>414</v>
       </c>
-      <c r="AJ25" s="263">
+      <c r="AJ25" s="254">
         <v>413</v>
       </c>
-      <c r="AK25" s="263">
+      <c r="AK25" s="254">
         <v>412</v>
       </c>
-      <c r="AL25" s="263">
+      <c r="AL25" s="254">
         <v>411</v>
       </c>
-      <c r="AM25" s="263">
+      <c r="AM25" s="254">
         <v>410</v>
       </c>
-      <c r="AN25" s="263">
+      <c r="AN25" s="254">
         <v>409</v>
       </c>
-      <c r="AO25" s="263">
+      <c r="AO25" s="254">
         <v>408</v>
       </c>
-      <c r="AP25" s="263">
+      <c r="AP25" s="254">
         <v>407</v>
       </c>
-      <c r="AQ25" s="263">
+      <c r="AQ25" s="254">
         <v>406</v>
       </c>
-      <c r="AR25" s="263">
+      <c r="AR25" s="254">
         <v>405</v>
       </c>
       <c r="AS25" s="179"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
-      <c r="B26" s="264">
+      <c r="B26" s="255">
         <v>415</v>
       </c>
-      <c r="C26" s="264">
+      <c r="C26" s="255">
         <v>416</v>
       </c>
-      <c r="D26" s="264">
+      <c r="D26" s="255">
         <v>417</v>
       </c>
-      <c r="E26" s="264">
+      <c r="E26" s="255">
         <v>418</v>
       </c>
-      <c r="F26" s="264">
+      <c r="F26" s="255">
         <v>419</v>
       </c>
-      <c r="G26" s="264">
+      <c r="G26" s="255">
         <v>420</v>
       </c>
-      <c r="H26" s="264">
+      <c r="H26" s="255">
         <v>421</v>
       </c>
-      <c r="I26" s="264">
+      <c r="I26" s="255">
         <v>422</v>
       </c>
-      <c r="J26" s="264">
+      <c r="J26" s="255">
         <v>423</v>
       </c>
-      <c r="K26" s="264">
+      <c r="K26" s="255">
         <v>424</v>
       </c>
-      <c r="L26" s="264">
+      <c r="L26" s="255">
         <v>425</v>
       </c>
-      <c r="M26" s="264">
+      <c r="M26" s="255">
         <v>426</v>
       </c>
       <c r="N26" s="155">
@@ -6888,80 +6888,80 @@
       <c r="AF26" s="157">
         <v>4</v>
       </c>
-      <c r="AG26" s="262">
+      <c r="AG26" s="253">
         <v>426</v>
       </c>
-      <c r="AH26" s="266">
+      <c r="AH26" s="257">
         <v>425</v>
       </c>
-      <c r="AI26" s="262">
+      <c r="AI26" s="253">
         <v>424</v>
       </c>
-      <c r="AJ26" s="266">
+      <c r="AJ26" s="257">
         <v>423</v>
       </c>
-      <c r="AK26" s="262">
+      <c r="AK26" s="253">
         <v>422</v>
       </c>
-      <c r="AL26" s="266">
+      <c r="AL26" s="257">
         <v>421</v>
       </c>
-      <c r="AM26" s="262">
+      <c r="AM26" s="253">
         <v>420</v>
       </c>
-      <c r="AN26" s="266">
+      <c r="AN26" s="257">
         <v>419</v>
       </c>
-      <c r="AO26" s="262">
+      <c r="AO26" s="253">
         <v>418</v>
       </c>
-      <c r="AP26" s="266">
+      <c r="AP26" s="257">
         <v>417</v>
       </c>
-      <c r="AQ26" s="262">
+      <c r="AQ26" s="253">
         <v>416</v>
       </c>
-      <c r="AR26" s="266">
+      <c r="AR26" s="257">
         <v>415</v>
       </c>
       <c r="AS26" s="179"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
-      <c r="B27" s="264">
+      <c r="B27" s="255">
         <v>427</v>
       </c>
-      <c r="C27" s="264">
+      <c r="C27" s="255">
         <v>428</v>
       </c>
-      <c r="D27" s="264">
+      <c r="D27" s="255">
         <v>429</v>
       </c>
-      <c r="E27" s="264">
+      <c r="E27" s="255">
         <v>430</v>
       </c>
-      <c r="F27" s="264">
+      <c r="F27" s="255">
         <v>431</v>
       </c>
-      <c r="G27" s="264">
+      <c r="G27" s="255">
         <v>432</v>
       </c>
-      <c r="H27" s="264">
+      <c r="H27" s="255">
         <v>433</v>
       </c>
-      <c r="I27" s="264">
+      <c r="I27" s="255">
         <v>434</v>
       </c>
-      <c r="J27" s="264">
+      <c r="J27" s="255">
         <v>435</v>
       </c>
-      <c r="K27" s="264">
+      <c r="K27" s="255">
         <v>436</v>
       </c>
-      <c r="L27" s="264">
+      <c r="L27" s="255">
         <v>437</v>
       </c>
-      <c r="M27" s="264">
+      <c r="M27" s="255">
         <v>438</v>
       </c>
       <c r="N27" s="155">
@@ -7015,80 +7015,80 @@
       <c r="AF27" s="157">
         <v>5</v>
       </c>
-      <c r="AG27" s="262">
+      <c r="AG27" s="253">
         <v>438</v>
       </c>
-      <c r="AH27" s="266">
+      <c r="AH27" s="257">
         <v>437</v>
       </c>
-      <c r="AI27" s="262">
+      <c r="AI27" s="253">
         <v>436</v>
       </c>
-      <c r="AJ27" s="262">
+      <c r="AJ27" s="253">
         <v>435</v>
       </c>
-      <c r="AK27" s="262">
+      <c r="AK27" s="253">
         <v>434</v>
       </c>
-      <c r="AL27" s="262">
+      <c r="AL27" s="253">
         <v>433</v>
       </c>
-      <c r="AM27" s="262">
+      <c r="AM27" s="253">
         <v>432</v>
       </c>
-      <c r="AN27" s="262">
+      <c r="AN27" s="253">
         <v>431</v>
       </c>
-      <c r="AO27" s="267" t="s">
+      <c r="AO27" s="258" t="s">
         <v>758</v>
       </c>
-      <c r="AP27" s="262">
+      <c r="AP27" s="253">
         <v>429</v>
       </c>
-      <c r="AQ27" s="262">
+      <c r="AQ27" s="253">
         <v>428</v>
       </c>
-      <c r="AR27" s="262">
+      <c r="AR27" s="253">
         <v>427</v>
       </c>
       <c r="AS27" s="179"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="119"/>
-      <c r="B28" s="264">
+      <c r="B28" s="255">
         <v>439</v>
       </c>
-      <c r="C28" s="264">
+      <c r="C28" s="255">
         <v>440</v>
       </c>
-      <c r="D28" s="264">
+      <c r="D28" s="255">
         <v>441</v>
       </c>
-      <c r="E28" s="264">
+      <c r="E28" s="255">
         <v>442</v>
       </c>
-      <c r="F28" s="264">
+      <c r="F28" s="255">
         <v>443</v>
       </c>
-      <c r="G28" s="264">
+      <c r="G28" s="255">
         <v>444</v>
       </c>
-      <c r="H28" s="264">
+      <c r="H28" s="255">
         <v>445</v>
       </c>
-      <c r="I28" s="264">
+      <c r="I28" s="255">
         <v>446</v>
       </c>
-      <c r="J28" s="264">
+      <c r="J28" s="255">
         <v>447</v>
       </c>
-      <c r="K28" s="264">
+      <c r="K28" s="255">
         <v>448</v>
       </c>
-      <c r="L28" s="264">
+      <c r="L28" s="255">
         <v>449</v>
       </c>
-      <c r="M28" s="264">
+      <c r="M28" s="255">
         <v>450</v>
       </c>
       <c r="N28" s="155">
@@ -7142,80 +7142,80 @@
       <c r="AF28" s="157">
         <v>6</v>
       </c>
-      <c r="AG28" s="262">
+      <c r="AG28" s="253">
         <v>450</v>
       </c>
-      <c r="AH28" s="266">
+      <c r="AH28" s="257">
         <v>449</v>
       </c>
-      <c r="AI28" s="262">
+      <c r="AI28" s="253">
         <v>448</v>
       </c>
-      <c r="AJ28" s="262">
+      <c r="AJ28" s="253">
         <v>447</v>
       </c>
-      <c r="AK28" s="262">
+      <c r="AK28" s="253">
         <v>446</v>
       </c>
-      <c r="AL28" s="262">
+      <c r="AL28" s="253">
         <v>445</v>
       </c>
-      <c r="AM28" s="262">
+      <c r="AM28" s="253">
         <v>444</v>
       </c>
-      <c r="AN28" s="262">
+      <c r="AN28" s="253">
         <v>443</v>
       </c>
-      <c r="AO28" s="262">
+      <c r="AO28" s="253">
         <v>442</v>
       </c>
-      <c r="AP28" s="262">
+      <c r="AP28" s="253">
         <v>441</v>
       </c>
-      <c r="AQ28" s="262">
+      <c r="AQ28" s="253">
         <v>440</v>
       </c>
-      <c r="AR28" s="262">
+      <c r="AR28" s="253">
         <v>439</v>
       </c>
       <c r="AS28" s="180"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="127"/>
-      <c r="B29" s="265">
+      <c r="B29" s="256">
         <v>451</v>
       </c>
-      <c r="C29" s="265">
+      <c r="C29" s="256">
         <v>452</v>
       </c>
-      <c r="D29" s="265">
+      <c r="D29" s="256">
         <v>453</v>
       </c>
-      <c r="E29" s="265">
+      <c r="E29" s="256">
         <v>454</v>
       </c>
-      <c r="F29" s="265">
+      <c r="F29" s="256">
         <v>455</v>
       </c>
-      <c r="G29" s="265">
+      <c r="G29" s="256">
         <v>456</v>
       </c>
-      <c r="H29" s="265">
+      <c r="H29" s="256">
         <v>457</v>
       </c>
-      <c r="I29" s="265">
+      <c r="I29" s="256">
         <v>458</v>
       </c>
-      <c r="J29" s="265">
+      <c r="J29" s="256">
         <v>459</v>
       </c>
-      <c r="K29" s="265">
+      <c r="K29" s="256">
         <v>460</v>
       </c>
-      <c r="L29" s="265">
+      <c r="L29" s="256">
         <v>461</v>
       </c>
-      <c r="M29" s="265">
+      <c r="M29" s="256">
         <v>462</v>
       </c>
       <c r="N29" s="155">
@@ -7236,14 +7236,14 @@
       <c r="S29" s="193">
         <v>325</v>
       </c>
-      <c r="T29" s="259" t="s">
+      <c r="T29" s="253">
+        <v>326</v>
+      </c>
+      <c r="U29" s="250" t="s">
         <v>779</v>
       </c>
-      <c r="U29" s="271" t="s">
+      <c r="V29" s="262" t="s">
         <v>364</v>
-      </c>
-      <c r="V29" s="195">
-        <v>322</v>
       </c>
       <c r="W29" s="154"/>
       <c r="X29" s="195">
@@ -7274,77 +7274,77 @@
       <c r="AG29" s="194">
         <v>462</v>
       </c>
-      <c r="AH29" s="268">
+      <c r="AH29" s="259">
         <v>461</v>
       </c>
       <c r="AI29" s="194">
         <v>460</v>
       </c>
-      <c r="AJ29" s="268">
+      <c r="AJ29" s="259">
         <v>459</v>
       </c>
       <c r="AK29" s="194">
         <v>458</v>
       </c>
-      <c r="AL29" s="268">
+      <c r="AL29" s="259">
         <v>457</v>
       </c>
       <c r="AM29" s="194">
         <v>456</v>
       </c>
-      <c r="AN29" s="268">
+      <c r="AN29" s="259">
         <v>455</v>
       </c>
       <c r="AO29" s="194">
         <v>454</v>
       </c>
-      <c r="AP29" s="268">
+      <c r="AP29" s="259">
         <v>453</v>
       </c>
       <c r="AQ29" s="194">
         <v>452</v>
       </c>
-      <c r="AR29" s="268">
+      <c r="AR29" s="259">
         <v>451</v>
       </c>
       <c r="AS29" s="179"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="262">
+      <c r="B30" s="253">
         <v>463</v>
       </c>
-      <c r="C30" s="262">
+      <c r="C30" s="253">
         <v>464</v>
       </c>
-      <c r="D30" s="262">
+      <c r="D30" s="253">
         <v>465</v>
       </c>
-      <c r="E30" s="262">
+      <c r="E30" s="253">
         <v>466</v>
       </c>
-      <c r="F30" s="262">
+      <c r="F30" s="253">
         <v>467</v>
       </c>
-      <c r="G30" s="262">
+      <c r="G30" s="253">
         <v>468</v>
       </c>
-      <c r="H30" s="262">
+      <c r="H30" s="253">
         <v>469</v>
       </c>
-      <c r="I30" s="262">
+      <c r="I30" s="253">
         <v>470</v>
       </c>
-      <c r="J30" s="262">
+      <c r="J30" s="253">
         <v>471</v>
       </c>
-      <c r="K30" s="262">
+      <c r="K30" s="253">
         <v>472</v>
       </c>
-      <c r="L30" s="262">
+      <c r="L30" s="253">
         <v>473</v>
       </c>
-      <c r="M30" s="262">
+      <c r="M30" s="253">
         <v>474</v>
       </c>
       <c r="N30" s="113">
@@ -7398,79 +7398,79 @@
       <c r="AF30" s="160">
         <v>8</v>
       </c>
-      <c r="AG30" s="262">
+      <c r="AG30" s="253">
         <v>474</v>
       </c>
-      <c r="AH30" s="266">
+      <c r="AH30" s="257">
         <v>473</v>
       </c>
-      <c r="AI30" s="262">
+      <c r="AI30" s="253">
         <v>472</v>
       </c>
-      <c r="AJ30" s="262">
+      <c r="AJ30" s="253">
         <v>471</v>
       </c>
-      <c r="AK30" s="262">
+      <c r="AK30" s="253">
         <v>470</v>
       </c>
-      <c r="AL30" s="262">
+      <c r="AL30" s="253">
         <v>469</v>
       </c>
-      <c r="AM30" s="262">
+      <c r="AM30" s="253">
         <v>468</v>
       </c>
-      <c r="AN30" s="262">
+      <c r="AN30" s="253">
         <v>467</v>
       </c>
-      <c r="AO30" s="262">
+      <c r="AO30" s="253">
         <v>466</v>
       </c>
-      <c r="AP30" s="262">
+      <c r="AP30" s="253">
         <v>465</v>
       </c>
-      <c r="AQ30" s="262">
+      <c r="AQ30" s="253">
         <v>464</v>
       </c>
-      <c r="AR30" s="262">
+      <c r="AR30" s="253">
         <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
-      <c r="B31" s="262">
+      <c r="B31" s="253">
         <v>475</v>
       </c>
-      <c r="C31" s="262">
+      <c r="C31" s="253">
         <v>476</v>
       </c>
-      <c r="D31" s="262">
+      <c r="D31" s="253">
         <v>477</v>
       </c>
-      <c r="E31" s="262">
+      <c r="E31" s="253">
         <v>478</v>
       </c>
-      <c r="F31" s="262">
+      <c r="F31" s="253">
         <v>479</v>
       </c>
-      <c r="G31" s="262">
+      <c r="G31" s="253">
         <v>480</v>
       </c>
-      <c r="H31" s="262">
+      <c r="H31" s="253">
         <v>481</v>
       </c>
-      <c r="I31" s="262">
+      <c r="I31" s="253">
         <v>482</v>
       </c>
-      <c r="J31" s="262">
+      <c r="J31" s="253">
         <v>483</v>
       </c>
-      <c r="K31" s="262">
+      <c r="K31" s="253">
         <v>484</v>
       </c>
-      <c r="L31" s="262">
+      <c r="L31" s="253">
         <v>485</v>
       </c>
-      <c r="M31" s="262">
+      <c r="M31" s="253">
         <v>486</v>
       </c>
       <c r="N31" s="155">
@@ -7524,79 +7524,79 @@
       <c r="AF31" s="186">
         <v>9</v>
       </c>
-      <c r="AG31" s="262">
+      <c r="AG31" s="253">
         <v>486</v>
       </c>
-      <c r="AH31" s="266">
+      <c r="AH31" s="257">
         <v>485</v>
       </c>
-      <c r="AI31" s="262">
+      <c r="AI31" s="253">
         <v>484</v>
       </c>
-      <c r="AJ31" s="262">
+      <c r="AJ31" s="253">
         <v>483</v>
       </c>
-      <c r="AK31" s="262">
+      <c r="AK31" s="253">
         <v>482</v>
       </c>
-      <c r="AL31" s="262">
+      <c r="AL31" s="253">
         <v>481</v>
       </c>
-      <c r="AM31" s="262">
+      <c r="AM31" s="253">
         <v>480</v>
       </c>
-      <c r="AN31" s="262">
+      <c r="AN31" s="253">
         <v>479</v>
       </c>
-      <c r="AO31" s="262">
+      <c r="AO31" s="253">
         <v>478</v>
       </c>
-      <c r="AP31" s="262">
+      <c r="AP31" s="253">
         <v>477</v>
       </c>
-      <c r="AQ31" s="262">
+      <c r="AQ31" s="253">
         <v>476</v>
       </c>
-      <c r="AR31" s="262">
+      <c r="AR31" s="253">
         <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
-      <c r="B32" s="262">
+      <c r="B32" s="253">
         <v>487</v>
       </c>
-      <c r="C32" s="262">
+      <c r="C32" s="253">
         <v>488</v>
       </c>
-      <c r="D32" s="262">
+      <c r="D32" s="253">
         <v>489</v>
       </c>
-      <c r="E32" s="262">
+      <c r="E32" s="253">
         <v>490</v>
       </c>
-      <c r="F32" s="262">
+      <c r="F32" s="253">
         <v>491</v>
       </c>
-      <c r="G32" s="262">
+      <c r="G32" s="253">
         <v>492</v>
       </c>
-      <c r="H32" s="262">
+      <c r="H32" s="253">
         <v>493</v>
       </c>
-      <c r="I32" s="262">
+      <c r="I32" s="253">
         <v>494</v>
       </c>
-      <c r="J32" s="262">
+      <c r="J32" s="253">
         <v>495</v>
       </c>
-      <c r="K32" s="262">
+      <c r="K32" s="253">
         <v>496</v>
       </c>
-      <c r="L32" s="262">
+      <c r="L32" s="253">
         <v>497</v>
       </c>
-      <c r="M32" s="262">
+      <c r="M32" s="253">
         <v>498</v>
       </c>
       <c r="N32" s="185">
@@ -7650,79 +7650,79 @@
       <c r="AF32" s="186">
         <v>10</v>
       </c>
-      <c r="AG32" s="262">
+      <c r="AG32" s="253">
         <v>498</v>
       </c>
-      <c r="AH32" s="266">
+      <c r="AH32" s="257">
         <v>497</v>
       </c>
-      <c r="AI32" s="262">
+      <c r="AI32" s="253">
         <v>496</v>
       </c>
-      <c r="AJ32" s="262">
+      <c r="AJ32" s="253">
         <v>495</v>
       </c>
-      <c r="AK32" s="262">
+      <c r="AK32" s="253">
         <v>494</v>
       </c>
-      <c r="AL32" s="262">
+      <c r="AL32" s="253">
         <v>493</v>
       </c>
-      <c r="AM32" s="262">
+      <c r="AM32" s="253">
         <v>492</v>
       </c>
-      <c r="AN32" s="262">
+      <c r="AN32" s="253">
         <v>491</v>
       </c>
-      <c r="AO32" s="262">
+      <c r="AO32" s="253">
         <v>490</v>
       </c>
-      <c r="AP32" s="262">
+      <c r="AP32" s="253">
         <v>489</v>
       </c>
-      <c r="AQ32" s="262">
+      <c r="AQ32" s="253">
         <v>488</v>
       </c>
-      <c r="AR32" s="262">
+      <c r="AR32" s="253">
         <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="262">
+      <c r="B33" s="253">
         <v>499</v>
       </c>
-      <c r="C33" s="262">
+      <c r="C33" s="253">
         <v>500</v>
       </c>
-      <c r="D33" s="262">
+      <c r="D33" s="253">
         <v>501</v>
       </c>
-      <c r="E33" s="262">
+      <c r="E33" s="253">
         <v>502</v>
       </c>
-      <c r="F33" s="262">
+      <c r="F33" s="253">
         <v>503</v>
       </c>
-      <c r="G33" s="262">
+      <c r="G33" s="253">
         <v>504</v>
       </c>
-      <c r="H33" s="262">
+      <c r="H33" s="253">
         <v>505</v>
       </c>
-      <c r="I33" s="262">
+      <c r="I33" s="253">
         <v>506</v>
       </c>
-      <c r="J33" s="262">
+      <c r="J33" s="253">
         <v>507</v>
       </c>
-      <c r="K33" s="262">
+      <c r="K33" s="253">
         <v>508</v>
       </c>
-      <c r="L33" s="262">
+      <c r="L33" s="253">
         <v>509</v>
       </c>
-      <c r="M33" s="262">
+      <c r="M33" s="253">
         <v>510</v>
       </c>
       <c r="N33" s="187">
@@ -7776,37 +7776,37 @@
       <c r="AF33" s="186">
         <v>11</v>
       </c>
-      <c r="AG33" s="262">
+      <c r="AG33" s="253">
         <v>510</v>
       </c>
-      <c r="AH33" s="268">
+      <c r="AH33" s="259">
         <v>509</v>
       </c>
-      <c r="AI33" s="262">
+      <c r="AI33" s="253">
         <v>508</v>
       </c>
       <c r="AJ33" s="194">
         <v>507</v>
       </c>
-      <c r="AK33" s="262">
+      <c r="AK33" s="253">
         <v>506</v>
       </c>
       <c r="AL33" s="194">
         <v>505</v>
       </c>
-      <c r="AM33" s="262">
+      <c r="AM33" s="253">
         <v>504</v>
       </c>
       <c r="AN33" s="194">
         <v>503</v>
       </c>
-      <c r="AO33" s="262">
+      <c r="AO33" s="253">
         <v>502</v>
       </c>
       <c r="AP33" s="194">
         <v>501</v>
       </c>
-      <c r="AQ33" s="262">
+      <c r="AQ33" s="253">
         <v>500</v>
       </c>
       <c r="AR33" s="194">
@@ -7816,40 +7816,40 @@
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
-      <c r="B34" s="262">
+      <c r="B34" s="253">
         <v>511</v>
       </c>
-      <c r="C34" s="262">
+      <c r="C34" s="253">
         <v>512</v>
       </c>
-      <c r="D34" s="262">
+      <c r="D34" s="253">
         <v>513</v>
       </c>
-      <c r="E34" s="262">
+      <c r="E34" s="253">
         <v>514</v>
       </c>
-      <c r="F34" s="262">
+      <c r="F34" s="253">
         <v>515</v>
       </c>
-      <c r="G34" s="262">
+      <c r="G34" s="253">
         <v>516</v>
       </c>
-      <c r="H34" s="262">
+      <c r="H34" s="253">
         <v>517</v>
       </c>
-      <c r="I34" s="262">
+      <c r="I34" s="253">
         <v>518</v>
       </c>
-      <c r="J34" s="262">
+      <c r="J34" s="253">
         <v>519</v>
       </c>
-      <c r="K34" s="262">
+      <c r="K34" s="253">
         <v>520</v>
       </c>
-      <c r="L34" s="262">
+      <c r="L34" s="253">
         <v>521</v>
       </c>
-      <c r="M34" s="262">
+      <c r="M34" s="253">
         <v>522</v>
       </c>
       <c r="N34" s="187">
@@ -7859,11 +7859,11 @@
       <c r="P34" s="195">
         <v>363</v>
       </c>
-      <c r="Q34" s="260" t="s">
+      <c r="Q34" s="195">
+        <v>364</v>
+      </c>
+      <c r="R34" s="251" t="s">
         <v>778</v>
-      </c>
-      <c r="R34" s="201">
-        <v>361</v>
       </c>
       <c r="S34" s="201">
         <v>360</v>
@@ -7887,53 +7887,53 @@
       <c r="Z34" s="201">
         <v>359</v>
       </c>
-      <c r="AA34" s="258">
+      <c r="AA34" s="201">
         <v>360</v>
       </c>
-      <c r="AB34" s="258">
+      <c r="AB34" s="249">
         <v>361</v>
       </c>
-      <c r="AC34" s="258">
+      <c r="AC34" s="249">
         <v>362</v>
       </c>
-      <c r="AD34" s="258">
+      <c r="AD34" s="249">
         <v>363</v>
       </c>
       <c r="AE34" s="115"/>
       <c r="AF34" s="186">
         <v>12</v>
       </c>
-      <c r="AG34" s="262">
+      <c r="AG34" s="253">
         <v>522</v>
       </c>
-      <c r="AH34" s="268">
+      <c r="AH34" s="259">
         <v>521</v>
       </c>
-      <c r="AI34" s="262">
+      <c r="AI34" s="253">
         <v>520</v>
       </c>
       <c r="AJ34" s="194">
         <v>519</v>
       </c>
-      <c r="AK34" s="262">
+      <c r="AK34" s="253">
         <v>518</v>
       </c>
       <c r="AL34" s="194">
         <v>517</v>
       </c>
-      <c r="AM34" s="262">
+      <c r="AM34" s="253">
         <v>516</v>
       </c>
       <c r="AN34" s="194">
         <v>515</v>
       </c>
-      <c r="AO34" s="262">
+      <c r="AO34" s="253">
         <v>514</v>
       </c>
       <c r="AP34" s="194">
         <v>513</v>
       </c>
-      <c r="AQ34" s="262">
+      <c r="AQ34" s="253">
         <v>512</v>
       </c>
       <c r="AR34" s="194">
@@ -7943,124 +7943,124 @@
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
-      <c r="B35" s="262">
+      <c r="B35" s="253">
         <v>523</v>
       </c>
-      <c r="C35" s="262">
+      <c r="C35" s="253">
         <v>524</v>
       </c>
-      <c r="D35" s="262">
+      <c r="D35" s="253">
         <v>525</v>
       </c>
-      <c r="E35" s="262">
+      <c r="E35" s="253">
         <v>526</v>
       </c>
-      <c r="F35" s="262">
+      <c r="F35" s="253">
         <v>527</v>
       </c>
-      <c r="G35" s="262">
+      <c r="G35" s="253">
         <v>528</v>
       </c>
-      <c r="H35" s="262">
+      <c r="H35" s="253">
         <v>529</v>
       </c>
-      <c r="I35" s="262">
+      <c r="I35" s="253">
         <v>530</v>
       </c>
-      <c r="J35" s="262">
+      <c r="J35" s="253">
         <v>531</v>
       </c>
-      <c r="K35" s="262">
+      <c r="K35" s="253">
         <v>532</v>
       </c>
-      <c r="L35" s="262">
+      <c r="L35" s="253">
         <v>533</v>
       </c>
-      <c r="M35" s="262">
+      <c r="M35" s="253">
         <v>534</v>
       </c>
       <c r="N35" s="187">
         <v>13</v>
       </c>
       <c r="O35" s="141"/>
-      <c r="P35" s="258">
+      <c r="P35" s="249">
         <v>370</v>
       </c>
-      <c r="Q35" s="258">
+      <c r="Q35" s="249">
         <v>369</v>
       </c>
-      <c r="R35" s="258">
+      <c r="R35" s="249">
         <v>368</v>
       </c>
-      <c r="S35" s="258">
+      <c r="S35" s="249">
         <v>367</v>
       </c>
-      <c r="T35" s="262">
+      <c r="T35" s="253">
         <v>366</v>
       </c>
-      <c r="U35" s="262">
+      <c r="U35" s="253">
         <v>365</v>
       </c>
-      <c r="V35" s="262">
+      <c r="V35" s="253">
         <v>364</v>
       </c>
       <c r="W35" s="167"/>
-      <c r="X35" s="262">
+      <c r="X35" s="253">
         <v>364</v>
       </c>
-      <c r="Y35" s="262">
+      <c r="Y35" s="253">
         <v>365</v>
       </c>
-      <c r="Z35" s="262">
+      <c r="Z35" s="253">
         <v>366</v>
       </c>
-      <c r="AA35" s="262">
+      <c r="AA35" s="253">
         <v>367</v>
       </c>
-      <c r="AB35" s="262">
+      <c r="AB35" s="253">
         <v>368</v>
       </c>
-      <c r="AC35" s="262">
+      <c r="AC35" s="253">
         <v>369</v>
       </c>
-      <c r="AD35" s="262">
+      <c r="AD35" s="253">
         <v>370</v>
       </c>
       <c r="AE35" s="115"/>
       <c r="AF35" s="186">
         <v>13</v>
       </c>
-      <c r="AG35" s="262">
+      <c r="AG35" s="253">
         <v>534</v>
       </c>
-      <c r="AH35" s="268">
+      <c r="AH35" s="259">
         <v>533</v>
       </c>
-      <c r="AI35" s="262">
+      <c r="AI35" s="253">
         <v>532</v>
       </c>
       <c r="AJ35" s="194">
         <v>531</v>
       </c>
-      <c r="AK35" s="262">
+      <c r="AK35" s="253">
         <v>530</v>
       </c>
       <c r="AL35" s="194">
         <v>529</v>
       </c>
-      <c r="AM35" s="262">
+      <c r="AM35" s="253">
         <v>528</v>
       </c>
       <c r="AN35" s="194">
         <v>527</v>
       </c>
-      <c r="AO35" s="262">
+      <c r="AO35" s="253">
         <v>526</v>
       </c>
       <c r="AP35" s="194">
         <v>525</v>
       </c>
-      <c r="AQ35" s="262">
+      <c r="AQ35" s="253">
         <v>524</v>
       </c>
       <c r="AR35" s="194">
@@ -8070,87 +8070,87 @@
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
-      <c r="B36" s="262">
+      <c r="B36" s="253">
         <v>535</v>
       </c>
-      <c r="C36" s="262">
+      <c r="C36" s="253">
         <v>536</v>
       </c>
-      <c r="D36" s="262">
+      <c r="D36" s="253">
         <v>537</v>
       </c>
-      <c r="E36" s="262">
+      <c r="E36" s="253">
         <v>538</v>
       </c>
-      <c r="F36" s="262">
+      <c r="F36" s="253">
         <v>539</v>
       </c>
-      <c r="G36" s="262">
+      <c r="G36" s="253">
         <v>540</v>
       </c>
-      <c r="H36" s="262">
+      <c r="H36" s="253">
         <v>541</v>
       </c>
-      <c r="I36" s="262">
+      <c r="I36" s="253">
         <v>542</v>
       </c>
-      <c r="J36" s="262">
+      <c r="J36" s="253">
         <v>543</v>
       </c>
-      <c r="K36" s="262">
+      <c r="K36" s="253">
         <v>544</v>
       </c>
-      <c r="L36" s="262">
+      <c r="L36" s="253">
         <v>545</v>
       </c>
-      <c r="M36" s="262">
+      <c r="M36" s="253">
         <v>546</v>
       </c>
       <c r="N36" s="187">
         <v>14</v>
       </c>
-      <c r="O36" s="269"/>
-      <c r="P36" s="262">
+      <c r="O36" s="260"/>
+      <c r="P36" s="253">
         <v>377</v>
       </c>
-      <c r="Q36" s="262">
+      <c r="Q36" s="253">
         <v>376</v>
       </c>
-      <c r="R36" s="262">
+      <c r="R36" s="253">
         <v>375</v>
       </c>
-      <c r="S36" s="262">
+      <c r="S36" s="253">
         <v>374</v>
       </c>
-      <c r="T36" s="262">
+      <c r="T36" s="253">
         <v>373</v>
       </c>
-      <c r="U36" s="262">
+      <c r="U36" s="253">
         <v>372</v>
       </c>
-      <c r="V36" s="262">
+      <c r="V36" s="253">
         <v>371</v>
       </c>
       <c r="W36" s="167"/>
-      <c r="X36" s="258">
+      <c r="X36" s="249">
         <v>371</v>
       </c>
-      <c r="Y36" s="258">
+      <c r="Y36" s="249">
         <v>372</v>
       </c>
-      <c r="Z36" s="258">
+      <c r="Z36" s="249">
         <v>373</v>
       </c>
-      <c r="AA36" s="258">
+      <c r="AA36" s="249">
         <v>374</v>
       </c>
-      <c r="AB36" s="258">
+      <c r="AB36" s="249">
         <v>375</v>
       </c>
-      <c r="AC36" s="258">
+      <c r="AC36" s="249">
         <v>376</v>
       </c>
-      <c r="AD36" s="258">
+      <c r="AD36" s="249">
         <v>377</v>
       </c>
       <c r="AE36" s="115"/>
@@ -8195,87 +8195,87 @@
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
-      <c r="B37" s="262">
+      <c r="B37" s="253">
         <v>547</v>
       </c>
-      <c r="C37" s="262">
+      <c r="C37" s="253">
         <v>548</v>
       </c>
-      <c r="D37" s="262">
+      <c r="D37" s="253">
         <v>549</v>
       </c>
-      <c r="E37" s="262">
+      <c r="E37" s="253">
         <v>550</v>
       </c>
-      <c r="F37" s="262">
+      <c r="F37" s="253">
         <v>551</v>
       </c>
-      <c r="G37" s="262">
+      <c r="G37" s="253">
         <v>552</v>
       </c>
-      <c r="H37" s="262">
+      <c r="H37" s="253">
         <v>553</v>
       </c>
-      <c r="I37" s="262">
+      <c r="I37" s="253">
         <v>554</v>
       </c>
-      <c r="J37" s="262">
+      <c r="J37" s="253">
         <v>555</v>
       </c>
-      <c r="K37" s="262">
+      <c r="K37" s="253">
         <v>556</v>
       </c>
-      <c r="L37" s="262">
+      <c r="L37" s="253">
         <v>557</v>
       </c>
-      <c r="M37" s="262">
+      <c r="M37" s="253">
         <v>558</v>
       </c>
       <c r="N37" s="187">
         <v>15</v>
       </c>
       <c r="O37" s="141"/>
-      <c r="P37" s="258">
+      <c r="P37" s="249">
         <v>384</v>
       </c>
-      <c r="Q37" s="258">
+      <c r="Q37" s="249">
         <v>383</v>
       </c>
-      <c r="R37" s="258">
+      <c r="R37" s="249">
         <v>382</v>
       </c>
-      <c r="S37" s="258">
+      <c r="S37" s="249">
         <v>381</v>
       </c>
-      <c r="T37" s="258">
+      <c r="T37" s="249">
         <v>380</v>
       </c>
-      <c r="U37" s="258">
+      <c r="U37" s="249">
         <v>379</v>
       </c>
-      <c r="V37" s="258">
+      <c r="V37" s="249">
         <v>378</v>
       </c>
       <c r="W37" s="167"/>
-      <c r="X37" s="258">
+      <c r="X37" s="249">
         <v>378</v>
       </c>
-      <c r="Y37" s="258">
+      <c r="Y37" s="249">
         <v>379</v>
       </c>
-      <c r="Z37" s="258">
+      <c r="Z37" s="249">
         <v>380</v>
       </c>
-      <c r="AA37" s="258">
+      <c r="AA37" s="249">
         <v>381</v>
       </c>
-      <c r="AB37" s="258">
+      <c r="AB37" s="249">
         <v>382</v>
       </c>
-      <c r="AC37" s="258">
+      <c r="AC37" s="249">
         <v>383</v>
       </c>
-      <c r="AD37" s="262">
+      <c r="AD37" s="253">
         <v>384</v>
       </c>
       <c r="AE37" s="115"/>
@@ -8721,22 +8721,22 @@
       <c r="AQ47" s="115"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="236" t="s">
+      <c r="A48" s="227" t="s">
         <v>759</v>
       </c>
-      <c r="B48" s="242"/>
-      <c r="C48" s="237"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
+      <c r="B48" s="233"/>
+      <c r="C48" s="228"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="228"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="228"/>
+      <c r="H48" s="228"/>
       <c r="I48" s="177"/>
       <c r="J48" s="177"/>
       <c r="K48" s="177"/>
       <c r="L48" s="177"/>
       <c r="M48" s="177"/>
-      <c r="N48" s="244" t="s">
+      <c r="N48" s="235" t="s">
         <v>759</v>
       </c>
       <c r="O48" s="207">
@@ -8745,17 +8745,17 @@
       <c r="P48" s="218" t="s">
         <v>766</v>
       </c>
-      <c r="Q48" s="245"/>
-      <c r="R48" s="246"/>
-      <c r="S48" s="247"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="247"/>
+      <c r="Q48" s="236"/>
+      <c r="R48" s="237"/>
+      <c r="S48" s="238"/>
+      <c r="T48" s="238"/>
+      <c r="U48" s="238"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
-      <c r="AA48" s="243" t="s">
+      <c r="AA48" s="234" t="s">
         <v>759</v>
       </c>
       <c r="AB48" s="219">
@@ -8764,10 +8764,10 @@
       <c r="AC48" s="218" t="s">
         <v>770</v>
       </c>
-      <c r="AD48" s="247"/>
-      <c r="AE48" s="247"/>
-      <c r="AF48" s="247"/>
-      <c r="AG48" s="247"/>
+      <c r="AD48" s="238"/>
+      <c r="AE48" s="238"/>
+      <c r="AF48" s="238"/>
+      <c r="AG48" s="238"/>
       <c r="AH48" s="217"/>
       <c r="AI48" s="217"/>
       <c r="AJ48" s="115"/>
@@ -8786,14 +8786,14 @@
       <c r="B49" s="206">
         <v>120</v>
       </c>
-      <c r="C49" s="240" t="s">
+      <c r="C49" s="231" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="241"/>
-      <c r="E49" s="241"/>
-      <c r="F49" s="241"/>
-      <c r="G49" s="241"/>
-      <c r="H49" s="241"/>
+      <c r="D49" s="232"/>
+      <c r="E49" s="232"/>
+      <c r="F49" s="232"/>
+      <c r="G49" s="232"/>
+      <c r="H49" s="232"/>
       <c r="I49" s="177"/>
       <c r="J49" s="177"/>
       <c r="K49" s="177"/>
@@ -8802,7 +8802,7 @@
       <c r="N49" s="223" t="s">
         <v>760</v>
       </c>
-      <c r="O49" s="254">
+      <c r="O49" s="245">
         <v>1</v>
       </c>
       <c r="P49" s="214" t="s">
@@ -8843,10 +8843,10 @@
       <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="235" t="s">
+      <c r="A50" s="226" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="242"/>
+      <c r="B50" s="233"/>
       <c r="C50" s="203"/>
       <c r="D50" s="204"/>
       <c r="E50" s="204"/>
@@ -8877,10 +8877,10 @@
       <c r="X50" s="143"/>
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="248" t="s">
+      <c r="AA50" s="239" t="s">
         <v>764</v>
       </c>
-      <c r="AB50" s="261">
+      <c r="AB50" s="252">
         <v>9</v>
       </c>
       <c r="AC50" s="215" t="s">
@@ -8912,13 +8912,13 @@
       <c r="K51" s="171"/>
       <c r="L51" s="171"/>
       <c r="M51" s="171"/>
-      <c r="N51" s="238" t="s">
+      <c r="N51" s="229" t="s">
         <v>756</v>
       </c>
       <c r="O51" s="208">
         <v>10</v>
       </c>
-      <c r="P51" s="239" t="s">
+      <c r="P51" s="230" t="s">
         <v>769</v>
       </c>
       <c r="Q51" s="143"/>
@@ -9126,50 +9126,50 @@
       <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A56" s="233">
+      <c r="A56" s="270">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="233"/>
-      <c r="C56" s="233"/>
-      <c r="D56" s="233"/>
-      <c r="E56" s="233"/>
-      <c r="F56" s="233"/>
-      <c r="G56" s="233"/>
-      <c r="H56" s="233"/>
-      <c r="I56" s="233"/>
-      <c r="J56" s="233"/>
-      <c r="K56" s="233"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="233"/>
-      <c r="O56" s="234"/>
-      <c r="P56" s="233"/>
-      <c r="Q56" s="233"/>
-      <c r="R56" s="233"/>
-      <c r="S56" s="233"/>
-      <c r="T56" s="233"/>
-      <c r="U56" s="233"/>
-      <c r="V56" s="233"/>
-      <c r="W56" s="233"/>
-      <c r="X56" s="233"/>
-      <c r="Y56" s="233"/>
-      <c r="Z56" s="233"/>
-      <c r="AA56" s="233"/>
-      <c r="AB56" s="234"/>
-      <c r="AC56" s="233"/>
-      <c r="AD56" s="233"/>
-      <c r="AE56" s="233"/>
-      <c r="AF56" s="233"/>
-      <c r="AG56" s="233"/>
-      <c r="AH56" s="233"/>
-      <c r="AI56" s="233"/>
-      <c r="AJ56" s="233"/>
-      <c r="AK56" s="233"/>
+      <c r="B56" s="270"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="270"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="270"/>
+      <c r="K56" s="270"/>
+      <c r="L56" s="270"/>
+      <c r="M56" s="270"/>
+      <c r="N56" s="270"/>
+      <c r="O56" s="271"/>
+      <c r="P56" s="270"/>
+      <c r="Q56" s="270"/>
+      <c r="R56" s="270"/>
+      <c r="S56" s="270"/>
+      <c r="T56" s="270"/>
+      <c r="U56" s="270"/>
+      <c r="V56" s="270"/>
+      <c r="W56" s="270"/>
+      <c r="X56" s="270"/>
+      <c r="Y56" s="270"/>
+      <c r="Z56" s="270"/>
+      <c r="AA56" s="270"/>
+      <c r="AB56" s="271"/>
+      <c r="AC56" s="270"/>
+      <c r="AD56" s="270"/>
+      <c r="AE56" s="270"/>
+      <c r="AF56" s="270"/>
+      <c r="AG56" s="270"/>
+      <c r="AH56" s="270"/>
+      <c r="AI56" s="270"/>
+      <c r="AJ56" s="270"/>
+      <c r="AK56" s="270"/>
     </row>
     <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H58" s="232"/>
-      <c r="I58" s="232"/>
+      <c r="H58" s="269"/>
+      <c r="I58" s="269"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA60" s="13"/>
@@ -9187,8 +9187,8 @@
       <c r="AJ66" s="131"/>
     </row>
     <row r="67" spans="13:36" x14ac:dyDescent="0.2">
-      <c r="AI67" s="226"/>
-      <c r="AJ67" s="226"/>
+      <c r="AI67" s="263"/>
+      <c r="AJ67" s="263"/>
     </row>
     <row r="68" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI68" s="113"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665E2EC3-4570-41C9-A874-04A3A555FBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421EB9B1-0022-4588-96D1-F8C7D8C0BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2779,7 +2779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -3105,11 +3105,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3726,6 +3739,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4080,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34:V34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7350,8 +7366,8 @@
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="222"/>
-      <c r="P30" s="195">
+      <c r="O30" s="260"/>
+      <c r="P30" s="272">
         <v>335</v>
       </c>
       <c r="Q30" s="195">

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421EB9B1-0022-4588-96D1-F8C7D8C0BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696890F-3D2C-4647-A066-5D317553E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2313,9 +2313,6 @@
     <t>S1 FKP</t>
   </si>
   <si>
-    <t>FKEP</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -2388,6 +2385,9 @@
   </si>
   <si>
     <t>MKMV</t>
+  </si>
+  <si>
+    <t>Sel2</t>
   </si>
 </sst>
 </file>
@@ -3122,7 +3122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3408,9 +3408,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3543,9 +3540,6 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3674,9 +3668,6 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3689,20 +3680,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3710,6 +3687,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3739,7 +3719,43 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4096,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AT28" sqref="AT28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4107,106 +4123,106 @@
     <col min="23" max="23" width="1.33203125" customWidth="1"/>
     <col min="24" max="43" width="2.77734375" customWidth="1"/>
     <col min="44" max="44" width="2.88671875" customWidth="1"/>
-    <col min="45" max="45" width="3.6640625" style="181" customWidth="1"/>
+    <col min="45" max="45" width="3.6640625" style="180" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="264" t="s">
-        <v>763</v>
-      </c>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="L1" s="265"/>
-      <c r="M1" s="265"/>
-      <c r="N1" s="265"/>
-      <c r="O1" s="265"/>
-      <c r="P1" s="265"/>
-      <c r="Q1" s="265"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="265"/>
-      <c r="T1" s="265"/>
-      <c r="U1" s="265"/>
-      <c r="V1" s="265"/>
-      <c r="W1" s="265"/>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
-      <c r="Z1" s="265"/>
-      <c r="AA1" s="265"/>
-      <c r="AB1" s="265"/>
-      <c r="AC1" s="265"/>
-      <c r="AD1" s="265"/>
-      <c r="AE1" s="265"/>
-      <c r="AF1" s="265"/>
-      <c r="AG1" s="265"/>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="265"/>
-      <c r="AJ1" s="265"/>
-      <c r="AK1" s="265"/>
-      <c r="AL1" s="265"/>
-      <c r="AM1" s="265"/>
-      <c r="AN1" s="265"/>
-      <c r="AO1" s="265"/>
-      <c r="AP1" s="265"/>
-      <c r="AQ1" s="266"/>
+      <c r="C1" s="256" t="s">
+        <v>762</v>
+      </c>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="257"/>
+      <c r="AE1" s="257"/>
+      <c r="AF1" s="257"/>
+      <c r="AG1" s="257"/>
+      <c r="AH1" s="257"/>
+      <c r="AI1" s="257"/>
+      <c r="AJ1" s="257"/>
+      <c r="AK1" s="257"/>
+      <c r="AL1" s="257"/>
+      <c r="AM1" s="257"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="258"/>
       <c r="AR1" s="33"/>
-      <c r="AS1" s="179"/>
+      <c r="AS1" s="178"/>
     </row>
     <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="267"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="267"/>
-      <c r="W2" s="267"/>
-      <c r="X2" s="267"/>
-      <c r="Y2" s="267"/>
-      <c r="Z2" s="267"/>
-      <c r="AA2" s="267"/>
-      <c r="AB2" s="267"/>
-      <c r="AC2" s="267"/>
-      <c r="AD2" s="267"/>
-      <c r="AE2" s="267"/>
-      <c r="AF2" s="267"/>
-      <c r="AG2" s="267"/>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="267"/>
-      <c r="AJ2" s="267"/>
-      <c r="AK2" s="267"/>
-      <c r="AL2" s="267"/>
-      <c r="AM2" s="267"/>
-      <c r="AN2" s="267"/>
-      <c r="AO2" s="267"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="259"/>
+      <c r="AA2" s="259"/>
+      <c r="AB2" s="259"/>
+      <c r="AC2" s="259"/>
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="259"/>
+      <c r="AG2" s="259"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="259"/>
+      <c r="AJ2" s="259"/>
+      <c r="AK2" s="259"/>
+      <c r="AL2" s="259"/>
+      <c r="AM2" s="259"/>
+      <c r="AN2" s="259"/>
+      <c r="AO2" s="259"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
-      <c r="AS2" s="179"/>
+      <c r="AS2" s="178"/>
     </row>
     <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
@@ -4253,7 +4269,7 @@
       <c r="AP3" s="121"/>
       <c r="AQ3" s="120"/>
       <c r="AR3" s="33"/>
-      <c r="AS3" s="179"/>
+      <c r="AS3" s="178"/>
     </row>
     <row r="4" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -4303,7 +4319,7 @@
       <c r="AO4" s="116"/>
       <c r="AP4" s="116"/>
       <c r="AQ4" s="116"/>
-      <c r="AS4" s="179"/>
+      <c r="AS4" s="178"/>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
@@ -4437,7 +4453,7 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="183"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="47"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4481,132 +4497,132 @@
       <c r="AP6" s="51"/>
       <c r="AQ6" s="51"/>
       <c r="AR6" s="47"/>
-      <c r="AS6" s="179"/>
+      <c r="AS6" s="178"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="133">
         <v>1</v>
       </c>
       <c r="B7" s="123"/>
-      <c r="C7" s="240" t="s">
-        <v>772</v>
-      </c>
-      <c r="D7" s="191" t="s">
+      <c r="C7" s="238" t="s">
+        <v>771</v>
+      </c>
+      <c r="D7" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="191" t="s">
+      <c r="E7" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="191" t="s">
+      <c r="F7" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="191" t="s">
+      <c r="G7" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="191" t="s">
+      <c r="H7" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="191" t="s">
+      <c r="I7" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="191" t="s">
+      <c r="J7" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="191" t="s">
+      <c r="K7" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="191" t="s">
+      <c r="L7" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="199" t="s">
+      <c r="M7" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="191" t="s">
+      <c r="N7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="199" t="s">
+      <c r="O7" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="191" t="s">
+      <c r="P7" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="191" t="s">
+      <c r="Q7" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="191" t="s">
+      <c r="R7" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="191" t="s">
+      <c r="S7" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="191" t="s">
+      <c r="T7" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="191" t="s">
+      <c r="U7" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="191" t="s">
+      <c r="V7" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="150"/>
-      <c r="X7" s="191" t="s">
+      <c r="W7" s="149"/>
+      <c r="X7" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="Y7" s="191" t="s">
+      <c r="Y7" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="191" t="s">
+      <c r="Z7" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="191" t="s">
+      <c r="AA7" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="191" t="s">
+      <c r="AB7" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="191" t="s">
+      <c r="AC7" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="AD7" s="191" t="s">
+      <c r="AD7" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="191" t="s">
+      <c r="AE7" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="191" t="s">
+      <c r="AF7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="191" t="s">
+      <c r="AG7" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="AH7" s="191" t="s">
+      <c r="AH7" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="AI7" s="191" t="s">
+      <c r="AI7" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AJ7" s="191" t="s">
+      <c r="AJ7" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="AK7" s="191" t="s">
+      <c r="AK7" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="191" t="s">
+      <c r="AL7" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="AM7" s="191" t="s">
+      <c r="AM7" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="AN7" s="191" t="s">
+      <c r="AN7" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="AO7" s="191" t="s">
+      <c r="AO7" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="AP7" s="191" t="s">
+      <c r="AP7" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="AQ7" s="191" t="s">
+      <c r="AQ7" s="190" t="s">
         <v>9</v>
       </c>
       <c r="AR7" s="123"/>
@@ -4616,129 +4632,129 @@
       <c r="AT7" s="13"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="184">
+      <c r="A8" s="183">
         <v>2</v>
       </c>
       <c r="B8" s="123"/>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="191" t="s">
+      <c r="D8" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="F8" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="191" t="s">
+      <c r="G8" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="191" t="s">
+      <c r="I8" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="191" t="s">
+      <c r="J8" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="191" t="s">
+      <c r="K8" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="191" t="s">
+      <c r="L8" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="191" t="s">
+      <c r="M8" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="191" t="s">
+      <c r="N8" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="191" t="s">
+      <c r="O8" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="191" t="s">
+      <c r="P8" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="191" t="s">
+      <c r="Q8" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="191" t="s">
+      <c r="R8" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="191" t="s">
+      <c r="S8" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="191" t="s">
+      <c r="T8" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="191" t="s">
+      <c r="U8" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="191" t="s">
+      <c r="V8" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="151"/>
-      <c r="X8" s="191" t="s">
+      <c r="W8" s="150"/>
+      <c r="X8" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="191" t="s">
+      <c r="Y8" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="191" t="s">
+      <c r="Z8" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="191" t="s">
+      <c r="AA8" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="191" t="s">
+      <c r="AB8" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="AC8" s="191" t="s">
+      <c r="AC8" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="191" t="s">
+      <c r="AD8" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="191" t="s">
+      <c r="AE8" s="190" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="191" t="s">
+      <c r="AF8" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="AG8" s="191" t="s">
+      <c r="AG8" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="AH8" s="191" t="s">
+      <c r="AH8" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="AI8" s="191" t="s">
+      <c r="AI8" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="AJ8" s="191" t="s">
+      <c r="AJ8" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="191" t="s">
+      <c r="AK8" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="AL8" s="191" t="s">
+      <c r="AL8" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AM8" s="191" t="s">
+      <c r="AM8" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="AN8" s="191" t="s">
+      <c r="AN8" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="AO8" s="191" t="s">
+      <c r="AO8" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="AP8" s="191" t="s">
+      <c r="AP8" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AQ8" s="191" t="s">
+      <c r="AQ8" s="190" t="s">
         <v>34</v>
       </c>
       <c r="AR8" s="119"/>
@@ -4752,125 +4768,125 @@
         <v>3</v>
       </c>
       <c r="B9" s="135"/>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="191" t="s">
+      <c r="F9" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="G9" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="191" t="s">
+      <c r="H9" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="191" t="s">
+      <c r="I9" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="191" t="s">
+      <c r="J9" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="191" t="s">
+      <c r="K9" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="191" t="s">
+      <c r="L9" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="191" t="s">
+      <c r="M9" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="191" t="s">
+      <c r="N9" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="191" t="s">
+      <c r="O9" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="191" t="s">
+      <c r="P9" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="Q9" s="191" t="s">
+      <c r="Q9" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="191" t="s">
+      <c r="R9" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="191" t="s">
+      <c r="S9" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="T9" s="191" t="s">
+      <c r="T9" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="U9" s="191" t="s">
+      <c r="U9" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="191" t="s">
+      <c r="V9" s="190" t="s">
         <v>33</v>
       </c>
       <c r="W9" s="137"/>
-      <c r="X9" s="191" t="s">
+      <c r="X9" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="191" t="s">
+      <c r="Y9" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="Z9" s="191" t="s">
+      <c r="Z9" s="190" t="s">
         <v>76</v>
       </c>
-      <c r="AA9" s="191" t="s">
+      <c r="AA9" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="191" t="s">
+      <c r="AB9" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="191" t="s">
+      <c r="AC9" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="191" t="s">
+      <c r="AD9" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="AE9" s="191" t="s">
+      <c r="AE9" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="191" t="s">
+      <c r="AF9" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="AG9" s="191" t="s">
+      <c r="AG9" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="AH9" s="191" t="s">
+      <c r="AH9" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="AI9" s="191" t="s">
+      <c r="AI9" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="AJ9" s="191" t="s">
+      <c r="AJ9" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="AK9" s="191" t="s">
+      <c r="AK9" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="AL9" s="191" t="s">
+      <c r="AL9" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AM9" s="191" t="s">
+      <c r="AM9" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="AN9" s="191" t="s">
+      <c r="AN9" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="AO9" s="191" t="s">
+      <c r="AO9" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="AP9" s="191" t="s">
+      <c r="AP9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="191" t="s">
+      <c r="AQ9" s="190" t="s">
         <v>59</v>
       </c>
       <c r="AR9" s="123"/>
@@ -4884,128 +4900,128 @@
         <v>4</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="241" t="s">
+      <c r="C10" s="239" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="242" t="s">
+      <c r="D10" s="240" t="s">
+        <v>772</v>
+      </c>
+      <c r="E10" s="191" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="191" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="191" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="242" t="s">
         <v>773</v>
       </c>
-      <c r="E10" s="192" t="s">
+      <c r="K10" s="241" t="s">
+        <v>774</v>
+      </c>
+      <c r="L10" s="199" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="199" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="199" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="199" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="199" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="245" t="s">
+        <v>775</v>
+      </c>
+      <c r="R10" s="244" t="s">
+        <v>100</v>
+      </c>
+      <c r="S10" s="244" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="244" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" s="244" t="s">
+        <v>57</v>
+      </c>
+      <c r="V10" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="137"/>
+      <c r="X10" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="244" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z10" s="244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10" s="244" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="246" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC10" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="192" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE10" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF10" s="192" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG10" s="192" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH10" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI10" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ10" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK10" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM10" s="192" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN10" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO10" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="192" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="192" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="192" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="192" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="244" t="s">
-        <v>774</v>
-      </c>
-      <c r="K10" s="243" t="s">
-        <v>775</v>
-      </c>
-      <c r="L10" s="200" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="200" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="P10" s="200" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="247" t="s">
-        <v>776</v>
-      </c>
-      <c r="R10" s="246" t="s">
-        <v>100</v>
-      </c>
-      <c r="S10" s="246" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="246" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="246" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" s="246" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" s="137"/>
-      <c r="X10" s="246" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="246" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="246" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA10" s="246" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" s="248" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC10" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD10" s="193" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE10" s="193" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF10" s="193" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG10" s="193" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH10" s="193" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ10" s="193" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK10" s="193" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL10" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM10" s="193" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN10" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO10" s="193" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP10" s="193" t="s">
+      <c r="AP10" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="AQ10" s="193" t="s">
+      <c r="AQ10" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="AR10" s="170" t="s">
+      <c r="AR10" s="169" t="s">
         <v>537</v>
       </c>
       <c r="AS10" s="51">
@@ -5018,128 +5034,128 @@
         <v>5</v>
       </c>
       <c r="B11" s="115"/>
-      <c r="C11" s="193">
+      <c r="C11" s="192">
         <v>100</v>
       </c>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="193" t="s">
+      <c r="E11" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="193" t="s">
+      <c r="F11" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="193" t="s">
+      <c r="G11" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="193" t="s">
+      <c r="H11" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="193" t="s">
+      <c r="I11" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="193" t="s">
+      <c r="J11" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="193" t="s">
+      <c r="K11" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="193" t="s">
+      <c r="L11" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="193" t="s">
+      <c r="M11" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="193" t="s">
+      <c r="N11" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="193" t="s">
+      <c r="O11" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="193" t="s">
+      <c r="P11" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="193" t="s">
+      <c r="Q11" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="193" t="s">
+      <c r="R11" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="193" t="s">
+      <c r="S11" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="193" t="s">
+      <c r="T11" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="193" t="s">
+      <c r="U11" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="193" t="s">
+      <c r="V11" s="192" t="s">
         <v>84</v>
       </c>
       <c r="W11" s="137"/>
-      <c r="X11" s="193" t="s">
+      <c r="X11" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="193" t="s">
+      <c r="Y11" s="192" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="193" t="s">
+      <c r="Z11" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="193" t="s">
+      <c r="AA11" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="193" t="s">
+      <c r="AB11" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="193" t="s">
+      <c r="AC11" s="192" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="193" t="s">
+      <c r="AD11" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="193" t="s">
+      <c r="AE11" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="193" t="s">
+      <c r="AF11" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="193" t="s">
+      <c r="AG11" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" s="193" t="s">
+      <c r="AH11" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="193" t="s">
+      <c r="AI11" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="AJ11" s="193" t="s">
+      <c r="AJ11" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="193" t="s">
+      <c r="AK11" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="193" t="s">
+      <c r="AL11" s="192" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="193" t="s">
+      <c r="AM11" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="AN11" s="193" t="s">
+      <c r="AN11" s="192" t="s">
         <v>111</v>
       </c>
-      <c r="AO11" s="193" t="s">
+      <c r="AO11" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" s="193" t="s">
+      <c r="AP11" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="AQ11" s="193" t="s">
+      <c r="AQ11" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="AR11" s="197" t="s">
+      <c r="AR11" s="196" t="s">
         <v>537</v>
       </c>
       <c r="AS11" s="51">
@@ -5151,126 +5167,126 @@
       <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="261"/>
-      <c r="C12" s="193">
+      <c r="B12" s="252"/>
+      <c r="C12" s="192">
         <v>120</v>
       </c>
-      <c r="D12" s="193">
+      <c r="D12" s="192">
         <v>119</v>
       </c>
-      <c r="E12" s="193">
+      <c r="E12" s="192">
         <v>118</v>
       </c>
-      <c r="F12" s="193">
+      <c r="F12" s="192">
         <v>117</v>
       </c>
-      <c r="G12" s="193">
+      <c r="G12" s="192">
         <v>116</v>
       </c>
-      <c r="H12" s="193">
+      <c r="H12" s="192">
         <v>115</v>
       </c>
-      <c r="I12" s="193">
+      <c r="I12" s="192">
         <v>114</v>
       </c>
-      <c r="J12" s="193">
+      <c r="J12" s="192">
         <v>113</v>
       </c>
-      <c r="K12" s="193">
+      <c r="K12" s="192">
         <v>112</v>
       </c>
-      <c r="L12" s="193">
+      <c r="L12" s="192">
         <v>111</v>
       </c>
-      <c r="M12" s="193">
+      <c r="M12" s="192">
         <v>110</v>
       </c>
-      <c r="N12" s="193">
+      <c r="N12" s="192">
         <v>109</v>
       </c>
-      <c r="O12" s="193">
+      <c r="O12" s="192">
         <v>108</v>
       </c>
-      <c r="P12" s="193">
+      <c r="P12" s="192">
         <v>107</v>
       </c>
-      <c r="Q12" s="193">
+      <c r="Q12" s="192">
         <v>106</v>
       </c>
-      <c r="R12" s="193">
+      <c r="R12" s="192">
         <v>105</v>
       </c>
-      <c r="S12" s="193">
+      <c r="S12" s="192">
         <v>104</v>
       </c>
-      <c r="T12" s="193">
+      <c r="T12" s="192">
         <v>103</v>
       </c>
-      <c r="U12" s="193">
+      <c r="U12" s="192">
         <v>102</v>
       </c>
-      <c r="V12" s="193">
+      <c r="V12" s="192">
         <v>101</v>
       </c>
-      <c r="W12" s="184"/>
-      <c r="X12" s="193">
+      <c r="W12" s="183"/>
+      <c r="X12" s="192">
         <v>101</v>
       </c>
-      <c r="Y12" s="193" t="s">
+      <c r="Y12" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="193">
+      <c r="Z12" s="192">
         <v>102</v>
       </c>
-      <c r="AA12" s="193" t="s">
+      <c r="AA12" s="192" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="193">
+      <c r="AB12" s="192">
         <v>103</v>
       </c>
-      <c r="AC12" s="193" t="s">
+      <c r="AC12" s="192" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="193">
+      <c r="AD12" s="192">
         <v>104</v>
       </c>
-      <c r="AE12" s="193" t="s">
+      <c r="AE12" s="192" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="193">
+      <c r="AF12" s="192">
         <v>105</v>
       </c>
-      <c r="AG12" s="193" t="s">
+      <c r="AG12" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="193">
+      <c r="AH12" s="192">
         <v>106</v>
       </c>
-      <c r="AI12" s="193" t="s">
+      <c r="AI12" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" s="193">
+      <c r="AJ12" s="192">
         <v>107</v>
       </c>
-      <c r="AK12" s="193" t="s">
+      <c r="AK12" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="AL12" s="193">
+      <c r="AL12" s="192">
         <v>108</v>
       </c>
-      <c r="AM12" s="193" t="s">
+      <c r="AM12" s="192" t="s">
         <v>141</v>
       </c>
-      <c r="AN12" s="193">
+      <c r="AN12" s="192">
         <v>109</v>
       </c>
-      <c r="AO12" s="193" t="s">
+      <c r="AO12" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="193">
+      <c r="AP12" s="192">
         <v>110</v>
       </c>
-      <c r="AQ12" s="193" t="s">
+      <c r="AQ12" s="192" t="s">
         <v>139</v>
       </c>
       <c r="AR12" s="119"/>
@@ -5284,125 +5300,125 @@
         <v>7</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="193">
+      <c r="C13" s="192">
         <v>140</v>
       </c>
-      <c r="D13" s="193">
+      <c r="D13" s="192">
         <v>139</v>
       </c>
-      <c r="E13" s="193">
+      <c r="E13" s="192">
         <v>138</v>
       </c>
-      <c r="F13" s="193">
+      <c r="F13" s="192">
         <v>137</v>
       </c>
-      <c r="G13" s="193">
+      <c r="G13" s="192">
         <v>136</v>
       </c>
-      <c r="H13" s="193">
+      <c r="H13" s="192">
         <v>135</v>
       </c>
-      <c r="I13" s="193">
+      <c r="I13" s="192">
         <v>134</v>
       </c>
-      <c r="J13" s="193">
+      <c r="J13" s="192">
         <v>133</v>
       </c>
-      <c r="K13" s="193">
+      <c r="K13" s="192">
         <v>132</v>
       </c>
-      <c r="L13" s="193">
+      <c r="L13" s="192">
         <v>131</v>
       </c>
-      <c r="M13" s="193">
+      <c r="M13" s="192">
         <v>130</v>
       </c>
-      <c r="N13" s="193">
+      <c r="N13" s="192">
         <v>129</v>
       </c>
-      <c r="O13" s="193">
+      <c r="O13" s="192">
         <v>128</v>
       </c>
-      <c r="P13" s="193">
+      <c r="P13" s="192">
         <v>127</v>
       </c>
-      <c r="Q13" s="193">
+      <c r="Q13" s="192">
         <v>126</v>
       </c>
-      <c r="R13" s="193">
+      <c r="R13" s="192">
         <v>125</v>
       </c>
-      <c r="S13" s="193">
+      <c r="S13" s="192">
         <v>124</v>
       </c>
-      <c r="T13" s="193">
+      <c r="T13" s="192">
         <v>123</v>
       </c>
-      <c r="U13" s="193">
+      <c r="U13" s="192">
         <v>122</v>
       </c>
-      <c r="V13" s="193">
+      <c r="V13" s="192">
         <v>121</v>
       </c>
       <c r="W13" s="137"/>
-      <c r="X13" s="193">
+      <c r="X13" s="192">
         <v>121</v>
       </c>
-      <c r="Y13" s="193">
+      <c r="Y13" s="192">
         <v>122</v>
       </c>
-      <c r="Z13" s="193">
+      <c r="Z13" s="192">
         <v>123</v>
       </c>
-      <c r="AA13" s="193">
+      <c r="AA13" s="192">
         <v>124</v>
       </c>
-      <c r="AB13" s="193">
+      <c r="AB13" s="192">
         <v>125</v>
       </c>
-      <c r="AC13" s="193">
+      <c r="AC13" s="192">
         <v>126</v>
       </c>
-      <c r="AD13" s="193">
+      <c r="AD13" s="192">
         <v>127</v>
       </c>
-      <c r="AE13" s="193">
+      <c r="AE13" s="192">
         <v>128</v>
       </c>
-      <c r="AF13" s="193">
+      <c r="AF13" s="192">
         <v>129</v>
       </c>
-      <c r="AG13" s="193">
+      <c r="AG13" s="192">
         <v>130</v>
       </c>
-      <c r="AH13" s="193">
+      <c r="AH13" s="192">
         <v>131</v>
       </c>
-      <c r="AI13" s="193">
+      <c r="AI13" s="192">
         <v>132</v>
       </c>
-      <c r="AJ13" s="193">
+      <c r="AJ13" s="192">
         <v>133</v>
       </c>
-      <c r="AK13" s="193">
+      <c r="AK13" s="192">
         <v>134</v>
       </c>
-      <c r="AL13" s="193">
+      <c r="AL13" s="192">
         <v>135</v>
       </c>
-      <c r="AM13" s="193">
+      <c r="AM13" s="192">
         <v>136</v>
       </c>
-      <c r="AN13" s="193">
+      <c r="AN13" s="192">
         <v>137</v>
       </c>
-      <c r="AO13" s="193">
+      <c r="AO13" s="192">
         <v>138</v>
       </c>
-      <c r="AP13" s="193">
+      <c r="AP13" s="192">
         <v>139</v>
       </c>
-      <c r="AQ13" s="193">
+      <c r="AQ13" s="192">
         <v>140</v>
       </c>
       <c r="AR13" s="119"/>
@@ -5415,126 +5431,128 @@
       <c r="A14" s="133">
         <v>8</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="193">
+      <c r="B14" s="220" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14" s="192">
         <v>160</v>
       </c>
-      <c r="D14" s="193">
+      <c r="D14" s="192">
         <v>159</v>
       </c>
-      <c r="E14" s="193">
+      <c r="E14" s="192">
         <v>158</v>
       </c>
-      <c r="F14" s="193">
+      <c r="F14" s="192">
         <v>157</v>
       </c>
-      <c r="G14" s="193">
+      <c r="G14" s="192">
         <v>156</v>
       </c>
-      <c r="H14" s="193">
+      <c r="H14" s="192">
         <v>155</v>
       </c>
-      <c r="I14" s="193">
+      <c r="I14" s="192">
         <v>154</v>
       </c>
-      <c r="J14" s="193">
+      <c r="J14" s="192">
         <v>153</v>
       </c>
-      <c r="K14" s="193">
+      <c r="K14" s="192">
         <v>152</v>
       </c>
-      <c r="L14" s="193">
+      <c r="L14" s="192">
         <v>151</v>
       </c>
-      <c r="M14" s="193">
+      <c r="M14" s="192">
         <v>150</v>
       </c>
-      <c r="N14" s="193">
+      <c r="N14" s="192">
         <v>149</v>
       </c>
-      <c r="O14" s="193">
+      <c r="O14" s="192">
         <v>148</v>
       </c>
-      <c r="P14" s="193">
+      <c r="P14" s="192">
         <v>147</v>
       </c>
-      <c r="Q14" s="193">
+      <c r="Q14" s="192">
         <v>146</v>
       </c>
-      <c r="R14" s="193">
+      <c r="R14" s="192">
         <v>145</v>
       </c>
-      <c r="S14" s="193">
+      <c r="S14" s="192">
         <v>144</v>
       </c>
-      <c r="T14" s="193">
+      <c r="T14" s="192">
         <v>143</v>
       </c>
-      <c r="U14" s="193">
+      <c r="U14" s="192">
         <v>142</v>
       </c>
-      <c r="V14" s="193">
+      <c r="V14" s="192">
         <v>141</v>
       </c>
       <c r="W14" s="137"/>
-      <c r="X14" s="193" t="s">
+      <c r="X14" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="193" t="s">
+      <c r="Y14" s="192" t="s">
         <v>152</v>
       </c>
-      <c r="Z14" s="193" t="s">
+      <c r="Z14" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="193" t="s">
+      <c r="AA14" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="193" t="s">
+      <c r="AB14" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="AC14" s="193" t="s">
+      <c r="AC14" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="193" t="s">
+      <c r="AD14" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="193" t="s">
+      <c r="AE14" s="192" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="193" t="s">
+      <c r="AF14" s="192" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="193" t="s">
+      <c r="AG14" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="AH14" s="193" t="s">
+      <c r="AH14" s="192" t="s">
         <v>185</v>
       </c>
-      <c r="AI14" s="193" t="s">
+      <c r="AI14" s="192" t="s">
         <v>184</v>
       </c>
-      <c r="AJ14" s="193" t="s">
+      <c r="AJ14" s="192" t="s">
         <v>183</v>
       </c>
-      <c r="AK14" s="193" t="s">
+      <c r="AK14" s="192" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="193" t="s">
+      <c r="AL14" s="192" t="s">
         <v>181</v>
       </c>
-      <c r="AM14" s="193" t="s">
+      <c r="AM14" s="192" t="s">
         <v>180</v>
       </c>
-      <c r="AN14" s="193" t="s">
+      <c r="AN14" s="192" t="s">
         <v>179</v>
       </c>
-      <c r="AO14" s="193" t="s">
+      <c r="AO14" s="192" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" s="193" t="s">
+      <c r="AP14" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="AQ14" s="193" t="s">
+      <c r="AQ14" s="192" t="s">
         <v>176</v>
       </c>
       <c r="AR14" s="119"/>
@@ -5548,125 +5566,125 @@
         <v>9</v>
       </c>
       <c r="B15" s="119"/>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="193" t="s">
+      <c r="D15" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="193" t="s">
+      <c r="E15" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="193" t="s">
+      <c r="F15" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="193" t="s">
+      <c r="G15" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="193" t="s">
+      <c r="H15" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="193" t="s">
+      <c r="I15" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="193" t="s">
+      <c r="J15" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="193" t="s">
+      <c r="K15" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="193" t="s">
+      <c r="L15" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="193" t="s">
+      <c r="M15" s="192" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="193" t="s">
+      <c r="N15" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="193" t="s">
+      <c r="O15" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="P15" s="193" t="s">
+      <c r="P15" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="193" t="s">
+      <c r="Q15" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="193" t="s">
+      <c r="R15" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="193" t="s">
+      <c r="S15" s="192" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="193" t="s">
+      <c r="T15" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="193" t="s">
+      <c r="U15" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="193" t="s">
+      <c r="V15" s="192" t="s">
         <v>175</v>
       </c>
       <c r="W15" s="137"/>
-      <c r="X15" s="193" t="s">
+      <c r="X15" s="192" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="193" t="s">
+      <c r="Y15" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="Z15" s="193" t="s">
+      <c r="Z15" s="192" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="193" t="s">
+      <c r="AA15" s="192" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="193" t="s">
+      <c r="AB15" s="192" t="s">
         <v>171</v>
       </c>
-      <c r="AC15" s="193" t="s">
+      <c r="AC15" s="192" t="s">
         <v>170</v>
       </c>
-      <c r="AD15" s="193" t="s">
+      <c r="AD15" s="192" t="s">
         <v>169</v>
       </c>
-      <c r="AE15" s="193" t="s">
+      <c r="AE15" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="AF15" s="193" t="s">
+      <c r="AF15" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="AG15" s="193" t="s">
+      <c r="AG15" s="192" t="s">
         <v>208</v>
       </c>
-      <c r="AH15" s="193" t="s">
+      <c r="AH15" s="192" t="s">
         <v>207</v>
       </c>
-      <c r="AI15" s="193" t="s">
+      <c r="AI15" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="AJ15" s="193" t="s">
+      <c r="AJ15" s="192" t="s">
         <v>205</v>
       </c>
-      <c r="AK15" s="193" t="s">
+      <c r="AK15" s="192" t="s">
         <v>204</v>
       </c>
-      <c r="AL15" s="193" t="s">
+      <c r="AL15" s="192" t="s">
         <v>203</v>
       </c>
-      <c r="AM15" s="193" t="s">
+      <c r="AM15" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="193" t="s">
+      <c r="AN15" s="192" t="s">
         <v>201</v>
       </c>
-      <c r="AO15" s="193" t="s">
+      <c r="AO15" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="AP15" s="193" t="s">
+      <c r="AP15" s="192" t="s">
         <v>199</v>
       </c>
-      <c r="AQ15" s="193" t="s">
+      <c r="AQ15" s="192" t="s">
         <v>198</v>
       </c>
       <c r="AR15" s="123"/>
@@ -5680,125 +5698,125 @@
         <v>10</v>
       </c>
       <c r="B16" s="124"/>
-      <c r="C16" s="193">
+      <c r="C16" s="192">
         <v>200</v>
       </c>
-      <c r="D16" s="193">
+      <c r="D16" s="192">
         <v>199</v>
       </c>
-      <c r="E16" s="193" t="s">
+      <c r="E16" s="192" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="193" t="s">
+      <c r="F16" s="192" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="193" t="s">
+      <c r="G16" s="192" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="193" t="s">
+      <c r="H16" s="192" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="193" t="s">
+      <c r="I16" s="192" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="193" t="s">
+      <c r="J16" s="192" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="193" t="s">
+      <c r="K16" s="192" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="193" t="s">
+      <c r="L16" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="193" t="s">
+      <c r="M16" s="192" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="193" t="s">
+      <c r="N16" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="193" t="s">
+      <c r="O16" s="192" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="193" t="s">
+      <c r="P16" s="192" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="193" t="s">
+      <c r="Q16" s="192" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="193" t="s">
+      <c r="R16" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="S16" s="193" t="s">
+      <c r="S16" s="192" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="193" t="s">
+      <c r="T16" s="192" t="s">
         <v>195</v>
       </c>
-      <c r="U16" s="193" t="s">
+      <c r="U16" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="193" t="s">
+      <c r="V16" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="W16" s="151"/>
-      <c r="X16" s="193">
+      <c r="W16" s="150"/>
+      <c r="X16" s="192">
         <v>181</v>
       </c>
-      <c r="Y16" s="193">
+      <c r="Y16" s="192">
         <v>182</v>
       </c>
-      <c r="Z16" s="193">
+      <c r="Z16" s="192">
         <v>183</v>
       </c>
-      <c r="AA16" s="193">
+      <c r="AA16" s="192">
         <v>184</v>
       </c>
-      <c r="AB16" s="193">
+      <c r="AB16" s="192">
         <v>185</v>
       </c>
-      <c r="AC16" s="193">
+      <c r="AC16" s="192">
         <v>186</v>
       </c>
-      <c r="AD16" s="193">
+      <c r="AD16" s="192">
         <v>187</v>
       </c>
-      <c r="AE16" s="193">
+      <c r="AE16" s="192">
         <v>188</v>
       </c>
-      <c r="AF16" s="193">
+      <c r="AF16" s="192">
         <v>189</v>
       </c>
-      <c r="AG16" s="193">
+      <c r="AG16" s="192">
         <v>190</v>
       </c>
-      <c r="AH16" s="193">
+      <c r="AH16" s="192">
         <v>191</v>
       </c>
-      <c r="AI16" s="193">
+      <c r="AI16" s="192">
         <v>192</v>
       </c>
-      <c r="AJ16" s="193">
+      <c r="AJ16" s="192">
         <v>193</v>
       </c>
-      <c r="AK16" s="193">
+      <c r="AK16" s="192">
         <v>194</v>
       </c>
-      <c r="AL16" s="193">
+      <c r="AL16" s="192">
         <v>195</v>
       </c>
-      <c r="AM16" s="193">
+      <c r="AM16" s="192">
         <v>196</v>
       </c>
-      <c r="AN16" s="193">
+      <c r="AN16" s="192">
         <v>197</v>
       </c>
-      <c r="AO16" s="193">
+      <c r="AO16" s="192">
         <v>198</v>
       </c>
-      <c r="AP16" s="193">
+      <c r="AP16" s="192">
         <v>199</v>
       </c>
-      <c r="AQ16" s="193">
+      <c r="AQ16" s="192">
         <v>200</v>
       </c>
       <c r="AR16" s="119"/>
@@ -5812,125 +5830,125 @@
         <v>11</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="193">
+      <c r="C17" s="192">
         <v>220</v>
       </c>
-      <c r="D17" s="193">
+      <c r="D17" s="192">
         <v>219</v>
       </c>
-      <c r="E17" s="193">
+      <c r="E17" s="192">
         <v>218</v>
       </c>
-      <c r="F17" s="193">
+      <c r="F17" s="192">
         <v>217</v>
       </c>
-      <c r="G17" s="193">
+      <c r="G17" s="192">
         <v>216</v>
       </c>
-      <c r="H17" s="193">
+      <c r="H17" s="192">
         <v>215</v>
       </c>
-      <c r="I17" s="193">
+      <c r="I17" s="192">
         <v>214</v>
       </c>
-      <c r="J17" s="193">
+      <c r="J17" s="192">
         <v>213</v>
       </c>
-      <c r="K17" s="193">
+      <c r="K17" s="192">
         <v>212</v>
       </c>
-      <c r="L17" s="193">
+      <c r="L17" s="192">
         <v>211</v>
       </c>
-      <c r="M17" s="193">
+      <c r="M17" s="192">
         <v>210</v>
       </c>
-      <c r="N17" s="193">
+      <c r="N17" s="192">
         <v>209</v>
       </c>
-      <c r="O17" s="193">
+      <c r="O17" s="192">
         <v>208</v>
       </c>
-      <c r="P17" s="193">
+      <c r="P17" s="192">
         <v>207</v>
       </c>
-      <c r="Q17" s="193">
+      <c r="Q17" s="192">
         <v>206</v>
       </c>
-      <c r="R17" s="193">
+      <c r="R17" s="192">
         <v>205</v>
       </c>
-      <c r="S17" s="193">
+      <c r="S17" s="192">
         <v>204</v>
       </c>
-      <c r="T17" s="193">
+      <c r="T17" s="192">
         <v>203</v>
       </c>
-      <c r="U17" s="193">
+      <c r="U17" s="192">
         <v>202</v>
       </c>
-      <c r="V17" s="193">
+      <c r="V17" s="192">
         <v>201</v>
       </c>
       <c r="W17" s="137"/>
-      <c r="X17" s="193" t="s">
+      <c r="X17" s="192" t="s">
         <v>221</v>
       </c>
-      <c r="Y17" s="193" t="s">
+      <c r="Y17" s="192" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="193" t="s">
+      <c r="Z17" s="192" t="s">
         <v>219</v>
       </c>
-      <c r="AA17" s="193" t="s">
+      <c r="AA17" s="192" t="s">
         <v>218</v>
       </c>
-      <c r="AB17" s="193" t="s">
+      <c r="AB17" s="192" t="s">
         <v>217</v>
       </c>
-      <c r="AC17" s="193" t="s">
+      <c r="AC17" s="192" t="s">
         <v>216</v>
       </c>
-      <c r="AD17" s="193" t="s">
+      <c r="AD17" s="192" t="s">
         <v>215</v>
       </c>
-      <c r="AE17" s="193" t="s">
+      <c r="AE17" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="AF17" s="193" t="s">
+      <c r="AF17" s="192" t="s">
         <v>213</v>
       </c>
-      <c r="AG17" s="193" t="s">
+      <c r="AG17" s="192" t="s">
         <v>212</v>
       </c>
-      <c r="AH17" s="193" t="s">
+      <c r="AH17" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="AI17" s="193" t="s">
+      <c r="AI17" s="192" t="s">
         <v>249</v>
       </c>
-      <c r="AJ17" s="193" t="s">
+      <c r="AJ17" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" s="193" t="s">
+      <c r="AK17" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="AL17" s="193" t="s">
+      <c r="AL17" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="AM17" s="193" t="s">
+      <c r="AM17" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="AN17" s="193" t="s">
+      <c r="AN17" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="AO17" s="193" t="s">
+      <c r="AO17" s="192" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="193" t="s">
+      <c r="AP17" s="192" t="s">
         <v>242</v>
       </c>
-      <c r="AQ17" s="193" t="s">
+      <c r="AQ17" s="192" t="s">
         <v>241</v>
       </c>
       <c r="AR17" s="119"/>
@@ -5944,125 +5962,125 @@
         <v>12</v>
       </c>
       <c r="B18" s="119"/>
-      <c r="C18" s="193">
+      <c r="C18" s="192">
         <v>240</v>
       </c>
-      <c r="D18" s="193">
+      <c r="D18" s="192">
         <v>239</v>
       </c>
-      <c r="E18" s="193">
+      <c r="E18" s="192">
         <v>238</v>
       </c>
-      <c r="F18" s="193">
+      <c r="F18" s="192">
         <v>237</v>
       </c>
-      <c r="G18" s="193">
+      <c r="G18" s="192">
         <v>236</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="192">
         <v>235</v>
       </c>
-      <c r="I18" s="193">
+      <c r="I18" s="192">
         <v>234</v>
       </c>
-      <c r="J18" s="193">
+      <c r="J18" s="192">
         <v>233</v>
       </c>
-      <c r="K18" s="193">
+      <c r="K18" s="192">
         <v>232</v>
       </c>
-      <c r="L18" s="193">
+      <c r="L18" s="192">
         <v>231</v>
       </c>
-      <c r="M18" s="193">
+      <c r="M18" s="192">
         <v>230</v>
       </c>
-      <c r="N18" s="193">
+      <c r="N18" s="192">
         <v>229</v>
       </c>
-      <c r="O18" s="193">
+      <c r="O18" s="192">
         <v>228</v>
       </c>
-      <c r="P18" s="193">
+      <c r="P18" s="192">
         <v>227</v>
       </c>
-      <c r="Q18" s="193">
+      <c r="Q18" s="192">
         <v>226</v>
       </c>
-      <c r="R18" s="193">
+      <c r="R18" s="192">
         <v>225</v>
       </c>
-      <c r="S18" s="193">
+      <c r="S18" s="192">
         <v>224</v>
       </c>
-      <c r="T18" s="193">
+      <c r="T18" s="192">
         <v>223</v>
       </c>
-      <c r="U18" s="193">
+      <c r="U18" s="192">
         <v>222</v>
       </c>
-      <c r="V18" s="193">
+      <c r="V18" s="192">
         <v>221</v>
       </c>
       <c r="W18" s="137"/>
-      <c r="X18" s="193" t="s">
+      <c r="X18" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="193" t="s">
+      <c r="Y18" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="Z18" s="193" t="s">
+      <c r="Z18" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="193" t="s">
+      <c r="AA18" s="192" t="s">
         <v>237</v>
       </c>
-      <c r="AB18" s="193" t="s">
+      <c r="AB18" s="192" t="s">
         <v>251</v>
       </c>
-      <c r="AC18" s="193" t="s">
+      <c r="AC18" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="AD18" s="193" t="s">
+      <c r="AD18" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="AE18" s="193" t="s">
+      <c r="AE18" s="192" t="s">
         <v>236</v>
       </c>
-      <c r="AF18" s="193" t="s">
+      <c r="AF18" s="192" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="193" t="s">
+      <c r="AG18" s="192" t="s">
         <v>234</v>
       </c>
-      <c r="AH18" s="193" t="s">
+      <c r="AH18" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="193" t="s">
+      <c r="AI18" s="192" t="s">
         <v>276</v>
       </c>
-      <c r="AJ18" s="193" t="s">
+      <c r="AJ18" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="193" t="s">
+      <c r="AK18" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="AL18" s="193" t="s">
+      <c r="AL18" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="AM18" s="193" t="s">
+      <c r="AM18" s="192" t="s">
         <v>272</v>
       </c>
-      <c r="AN18" s="193" t="s">
+      <c r="AN18" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="AO18" s="193" t="s">
+      <c r="AO18" s="192" t="s">
         <v>270</v>
       </c>
-      <c r="AP18" s="193" t="s">
+      <c r="AP18" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="193" t="s">
+      <c r="AQ18" s="192" t="s">
         <v>268</v>
       </c>
       <c r="AR18" s="119"/>
@@ -6076,128 +6094,128 @@
         <v>13</v>
       </c>
       <c r="B19" s="119"/>
-      <c r="C19" s="193">
+      <c r="C19" s="192">
         <v>260</v>
       </c>
-      <c r="D19" s="193">
+      <c r="D19" s="192">
         <v>259</v>
       </c>
-      <c r="E19" s="193">
+      <c r="E19" s="192">
         <v>258</v>
       </c>
-      <c r="F19" s="193">
+      <c r="F19" s="192">
         <v>257</v>
       </c>
-      <c r="G19" s="193">
+      <c r="G19" s="192">
         <v>256</v>
       </c>
-      <c r="H19" s="193">
+      <c r="H19" s="192">
         <v>255</v>
       </c>
-      <c r="I19" s="193">
+      <c r="I19" s="192">
         <v>254</v>
       </c>
-      <c r="J19" s="193">
+      <c r="J19" s="192">
         <v>253</v>
       </c>
-      <c r="K19" s="193">
+      <c r="K19" s="192">
         <v>252</v>
       </c>
-      <c r="L19" s="193">
+      <c r="L19" s="192">
         <v>251</v>
       </c>
-      <c r="M19" s="193">
+      <c r="M19" s="192">
         <v>250</v>
       </c>
-      <c r="N19" s="193">
+      <c r="N19" s="192">
         <v>249</v>
       </c>
-      <c r="O19" s="193">
+      <c r="O19" s="192">
         <v>248</v>
       </c>
-      <c r="P19" s="193">
+      <c r="P19" s="192">
         <v>247</v>
       </c>
-      <c r="Q19" s="193">
+      <c r="Q19" s="192">
         <v>246</v>
       </c>
-      <c r="R19" s="193">
+      <c r="R19" s="192">
         <v>245</v>
       </c>
-      <c r="S19" s="193">
+      <c r="S19" s="192">
         <v>244</v>
       </c>
-      <c r="T19" s="193">
+      <c r="T19" s="192">
         <v>243</v>
       </c>
-      <c r="U19" s="193">
+      <c r="U19" s="192">
         <v>242</v>
       </c>
-      <c r="V19" s="193">
+      <c r="V19" s="192">
         <v>241</v>
       </c>
       <c r="W19" s="137"/>
-      <c r="X19" s="193">
+      <c r="X19" s="192">
         <v>241</v>
       </c>
-      <c r="Y19" s="193">
+      <c r="Y19" s="192">
         <v>242</v>
       </c>
-      <c r="Z19" s="193">
+      <c r="Z19" s="192">
         <v>243</v>
       </c>
-      <c r="AA19" s="193">
+      <c r="AA19" s="192">
         <v>244</v>
       </c>
-      <c r="AB19" s="193">
+      <c r="AB19" s="192">
         <v>245</v>
       </c>
-      <c r="AC19" s="193">
+      <c r="AC19" s="192">
         <v>246</v>
       </c>
-      <c r="AD19" s="193">
+      <c r="AD19" s="192">
         <v>247</v>
       </c>
-      <c r="AE19" s="193">
+      <c r="AE19" s="192">
         <v>248</v>
       </c>
-      <c r="AF19" s="193">
+      <c r="AF19" s="192">
         <v>249</v>
       </c>
-      <c r="AG19" s="193">
+      <c r="AG19" s="192">
         <v>250</v>
       </c>
-      <c r="AH19" s="193">
+      <c r="AH19" s="192">
         <v>251</v>
       </c>
-      <c r="AI19" s="193">
+      <c r="AI19" s="192">
         <v>252</v>
       </c>
-      <c r="AJ19" s="193">
+      <c r="AJ19" s="192">
         <v>253</v>
       </c>
-      <c r="AK19" s="193">
+      <c r="AK19" s="192">
         <v>254</v>
       </c>
-      <c r="AL19" s="193">
+      <c r="AL19" s="192">
         <v>255</v>
       </c>
-      <c r="AM19" s="193">
+      <c r="AM19" s="192">
         <v>256</v>
       </c>
-      <c r="AN19" s="193">
+      <c r="AN19" s="192">
         <v>257</v>
       </c>
-      <c r="AO19" s="193">
+      <c r="AO19" s="192">
         <v>258</v>
       </c>
-      <c r="AP19" s="193">
+      <c r="AP19" s="192">
         <v>259</v>
       </c>
-      <c r="AQ19" s="193">
+      <c r="AQ19" s="192">
         <v>260</v>
       </c>
-      <c r="AR19" s="178" t="s">
+      <c r="AR19" s="177" t="s">
         <v>460</v>
       </c>
       <c r="AS19" s="51">
@@ -6209,129 +6227,129 @@
       <c r="A20" s="133">
         <v>14</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="193">
+      <c r="B20" s="197"/>
+      <c r="C20" s="192">
         <v>280</v>
       </c>
-      <c r="D20" s="193">
+      <c r="D20" s="192">
         <v>279</v>
       </c>
-      <c r="E20" s="193">
+      <c r="E20" s="192">
         <v>278</v>
       </c>
-      <c r="F20" s="193">
+      <c r="F20" s="192">
         <v>277</v>
       </c>
-      <c r="G20" s="193">
+      <c r="G20" s="192">
         <v>276</v>
       </c>
-      <c r="H20" s="193">
+      <c r="H20" s="192">
         <v>275</v>
       </c>
-      <c r="I20" s="193">
+      <c r="I20" s="192">
         <v>274</v>
       </c>
-      <c r="J20" s="193">
+      <c r="J20" s="192">
         <v>273</v>
       </c>
-      <c r="K20" s="193">
+      <c r="K20" s="192">
         <v>272</v>
       </c>
-      <c r="L20" s="193">
+      <c r="L20" s="192">
         <v>271</v>
       </c>
-      <c r="M20" s="193">
+      <c r="M20" s="192">
         <v>270</v>
       </c>
-      <c r="N20" s="193">
+      <c r="N20" s="192">
         <v>269</v>
       </c>
-      <c r="O20" s="193">
+      <c r="O20" s="192">
         <v>268</v>
       </c>
-      <c r="P20" s="193">
+      <c r="P20" s="192">
         <v>267</v>
       </c>
-      <c r="Q20" s="193">
+      <c r="Q20" s="192">
         <v>266</v>
       </c>
-      <c r="R20" s="193">
+      <c r="R20" s="192">
         <v>265</v>
       </c>
-      <c r="S20" s="193">
+      <c r="S20" s="192">
         <v>264</v>
       </c>
-      <c r="T20" s="193">
+      <c r="T20" s="192">
         <v>263</v>
       </c>
-      <c r="U20" s="193">
+      <c r="U20" s="192">
         <v>262</v>
       </c>
-      <c r="V20" s="193">
+      <c r="V20" s="192">
         <v>261</v>
       </c>
-      <c r="W20" s="152"/>
-      <c r="X20" s="193">
+      <c r="W20" s="151"/>
+      <c r="X20" s="192">
         <v>261</v>
       </c>
-      <c r="Y20" s="193">
+      <c r="Y20" s="192">
         <v>262</v>
       </c>
-      <c r="Z20" s="193">
+      <c r="Z20" s="192">
         <v>263</v>
       </c>
-      <c r="AA20" s="193">
+      <c r="AA20" s="192">
         <v>264</v>
       </c>
-      <c r="AB20" s="193">
+      <c r="AB20" s="192">
         <v>265</v>
       </c>
-      <c r="AC20" s="193">
+      <c r="AC20" s="192">
         <v>266</v>
       </c>
-      <c r="AD20" s="193">
+      <c r="AD20" s="192">
         <v>267</v>
       </c>
-      <c r="AE20" s="193">
+      <c r="AE20" s="192">
         <v>268</v>
       </c>
-      <c r="AF20" s="193">
+      <c r="AF20" s="192">
         <v>269</v>
       </c>
-      <c r="AG20" s="193">
+      <c r="AG20" s="192">
         <v>270</v>
       </c>
-      <c r="AH20" s="193">
+      <c r="AH20" s="192">
         <v>271</v>
       </c>
-      <c r="AI20" s="193">
+      <c r="AI20" s="192">
         <v>272</v>
       </c>
-      <c r="AJ20" s="193">
+      <c r="AJ20" s="192">
         <v>273</v>
       </c>
-      <c r="AK20" s="193">
+      <c r="AK20" s="192">
         <v>274</v>
       </c>
-      <c r="AL20" s="193">
+      <c r="AL20" s="192">
         <v>275</v>
       </c>
-      <c r="AM20" s="193">
+      <c r="AM20" s="192">
         <v>276</v>
       </c>
-      <c r="AN20" s="193">
+      <c r="AN20" s="192">
         <v>277</v>
       </c>
-      <c r="AO20" s="193">
+      <c r="AO20" s="192">
         <v>278</v>
       </c>
-      <c r="AP20" s="193">
+      <c r="AP20" s="192">
         <v>279</v>
       </c>
-      <c r="AQ20" s="193">
+      <c r="AQ20" s="192">
         <v>280</v>
       </c>
-      <c r="AR20" s="197" t="s">
+      <c r="AR20" s="196" t="s">
         <v>460</v>
       </c>
       <c r="AS20" s="51">
@@ -6344,125 +6362,125 @@
         <v>15</v>
       </c>
       <c r="B21" s="119"/>
-      <c r="C21" s="193">
+      <c r="C21" s="192">
         <v>300</v>
       </c>
-      <c r="D21" s="193">
+      <c r="D21" s="192">
         <v>299</v>
       </c>
-      <c r="E21" s="193">
+      <c r="E21" s="192">
         <v>298</v>
       </c>
-      <c r="F21" s="193">
+      <c r="F21" s="192">
         <v>297</v>
       </c>
-      <c r="G21" s="193">
+      <c r="G21" s="192">
         <v>296</v>
       </c>
-      <c r="H21" s="193">
+      <c r="H21" s="192">
         <v>295</v>
       </c>
-      <c r="I21" s="193">
+      <c r="I21" s="192">
         <v>294</v>
       </c>
-      <c r="J21" s="193">
+      <c r="J21" s="192">
         <v>293</v>
       </c>
-      <c r="K21" s="193">
+      <c r="K21" s="192">
         <v>292</v>
       </c>
-      <c r="L21" s="193">
+      <c r="L21" s="192">
         <v>291</v>
       </c>
-      <c r="M21" s="193">
+      <c r="M21" s="192">
         <v>290</v>
       </c>
-      <c r="N21" s="193">
+      <c r="N21" s="192">
         <v>289</v>
       </c>
-      <c r="O21" s="193">
+      <c r="O21" s="192">
         <v>288</v>
       </c>
-      <c r="P21" s="193">
+      <c r="P21" s="192">
         <v>287</v>
       </c>
-      <c r="Q21" s="193">
+      <c r="Q21" s="192">
         <v>286</v>
       </c>
-      <c r="R21" s="193">
+      <c r="R21" s="192">
         <v>285</v>
       </c>
-      <c r="S21" s="193">
+      <c r="S21" s="192">
         <v>284</v>
       </c>
-      <c r="T21" s="193">
+      <c r="T21" s="192">
         <v>283</v>
       </c>
-      <c r="U21" s="193">
+      <c r="U21" s="192">
         <v>282</v>
       </c>
-      <c r="V21" s="194">
+      <c r="V21" s="193">
         <v>281</v>
       </c>
       <c r="W21" s="118"/>
-      <c r="X21" s="194">
+      <c r="X21" s="193">
         <v>281</v>
       </c>
-      <c r="Y21" s="193">
+      <c r="Y21" s="192">
         <v>282</v>
       </c>
-      <c r="Z21" s="193">
+      <c r="Z21" s="192">
         <v>283</v>
       </c>
-      <c r="AA21" s="193">
+      <c r="AA21" s="192">
         <v>284</v>
       </c>
-      <c r="AB21" s="193">
+      <c r="AB21" s="192">
         <v>285</v>
       </c>
-      <c r="AC21" s="193">
+      <c r="AC21" s="192">
         <v>286</v>
       </c>
-      <c r="AD21" s="193">
+      <c r="AD21" s="192">
         <v>287</v>
       </c>
-      <c r="AE21" s="193">
+      <c r="AE21" s="192">
         <v>288</v>
       </c>
-      <c r="AF21" s="193">
+      <c r="AF21" s="192">
         <v>289</v>
       </c>
-      <c r="AG21" s="193">
+      <c r="AG21" s="192">
         <v>290</v>
       </c>
-      <c r="AH21" s="193">
+      <c r="AH21" s="192">
         <v>291</v>
       </c>
-      <c r="AI21" s="193">
+      <c r="AI21" s="192">
         <v>292</v>
       </c>
-      <c r="AJ21" s="193">
+      <c r="AJ21" s="192">
         <v>293</v>
       </c>
-      <c r="AK21" s="193">
+      <c r="AK21" s="192">
         <v>294</v>
       </c>
-      <c r="AL21" s="193">
+      <c r="AL21" s="192">
         <v>295</v>
       </c>
-      <c r="AM21" s="193">
+      <c r="AM21" s="192">
         <v>296</v>
       </c>
-      <c r="AN21" s="193">
+      <c r="AN21" s="192">
         <v>297</v>
       </c>
-      <c r="AO21" s="193">
+      <c r="AO21" s="192">
         <v>298</v>
       </c>
-      <c r="AP21" s="193">
+      <c r="AP21" s="192">
         <v>299</v>
       </c>
-      <c r="AQ21" s="193">
+      <c r="AQ21" s="192">
         <v>300</v>
       </c>
       <c r="AR21" s="119"/>
@@ -6485,11 +6503,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="268" t="s">
+      <c r="N22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="268"/>
-      <c r="P22" s="268"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="260"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6503,11 +6521,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="268" t="s">
+      <c r="AD22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="268"/>
-      <c r="AF22" s="268"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6520,46 +6538,26 @@
       <c r="AP22" s="113"/>
       <c r="AQ22" s="113"/>
       <c r="AR22" s="52"/>
-      <c r="AS22" s="179"/>
+      <c r="AS22" s="178"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="225"/>
-      <c r="B23" s="249">
-        <v>385</v>
-      </c>
-      <c r="C23" s="249">
-        <v>386</v>
-      </c>
-      <c r="D23" s="249">
-        <v>387</v>
-      </c>
-      <c r="E23" s="249">
-        <v>388</v>
-      </c>
-      <c r="F23" s="249">
-        <v>389</v>
-      </c>
-      <c r="G23" s="249">
-        <v>390</v>
-      </c>
-      <c r="H23" s="249">
-        <v>391</v>
-      </c>
-      <c r="I23" s="249">
-        <v>392</v>
-      </c>
-      <c r="J23" s="249">
-        <v>393</v>
-      </c>
-      <c r="K23" s="249">
-        <v>394</v>
-      </c>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="155">
+      <c r="A23" s="223"/>
+      <c r="B23" s="265"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="265"/>
+      <c r="E23" s="265"/>
+      <c r="F23" s="265"/>
+      <c r="G23" s="265"/>
+      <c r="H23" s="265"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="265"/>
+      <c r="L23" s="266"/>
+      <c r="M23" s="266"/>
+      <c r="N23" s="154">
         <v>1</v>
       </c>
-      <c r="O23" s="156"/>
+      <c r="O23" s="155"/>
       <c r="P23" s="118"/>
       <c r="Q23" s="118"/>
       <c r="R23" s="145">
@@ -6577,7 +6575,7 @@
       <c r="V23" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="W23" s="153"/>
+      <c r="W23" s="152"/>
       <c r="X23" s="145" t="s">
         <v>273</v>
       </c>
@@ -6595,84 +6593,44 @@
       </c>
       <c r="AC23" s="136"/>
       <c r="AD23" s="136"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="157">
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="156">
         <v>1</v>
       </c>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="149"/>
-      <c r="AI23" s="253">
-        <v>394</v>
-      </c>
-      <c r="AJ23" s="253">
-        <v>393</v>
-      </c>
-      <c r="AK23" s="253">
-        <v>392</v>
-      </c>
-      <c r="AL23" s="253">
-        <v>391</v>
-      </c>
-      <c r="AM23" s="253">
-        <v>390</v>
-      </c>
-      <c r="AN23" s="253">
-        <v>389</v>
-      </c>
-      <c r="AO23" s="253">
-        <v>388</v>
-      </c>
-      <c r="AP23" s="253">
-        <v>387</v>
-      </c>
-      <c r="AQ23" s="253">
-        <v>386</v>
-      </c>
-      <c r="AR23" s="253">
-        <v>385</v>
-      </c>
-      <c r="AS23" s="179"/>
+      <c r="AG23" s="266"/>
+      <c r="AH23" s="266"/>
+      <c r="AI23" s="267"/>
+      <c r="AJ23" s="267"/>
+      <c r="AK23" s="267"/>
+      <c r="AL23" s="267"/>
+      <c r="AM23" s="267"/>
+      <c r="AN23" s="267"/>
+      <c r="AO23" s="267"/>
+      <c r="AP23" s="267"/>
+      <c r="AQ23" s="267"/>
+      <c r="AR23" s="267"/>
+      <c r="AS23" s="178"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
-      <c r="B24" s="253">
-        <v>395</v>
-      </c>
-      <c r="C24" s="253">
-        <v>396</v>
-      </c>
-      <c r="D24" s="253">
-        <v>397</v>
-      </c>
-      <c r="E24" s="253">
-        <v>398</v>
-      </c>
-      <c r="F24" s="253">
-        <v>399</v>
-      </c>
-      <c r="G24" s="253">
-        <v>400</v>
-      </c>
-      <c r="H24" s="253">
-        <v>401</v>
-      </c>
-      <c r="I24" s="253">
-        <v>402</v>
-      </c>
-      <c r="J24" s="253">
-        <v>403</v>
-      </c>
-      <c r="K24" s="253">
-        <v>404</v>
-      </c>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="155">
+      <c r="B24" s="267"/>
+      <c r="C24" s="267"/>
+      <c r="D24" s="267"/>
+      <c r="E24" s="267"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="267"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="267"/>
+      <c r="J24" s="267"/>
+      <c r="K24" s="267"/>
+      <c r="L24" s="266"/>
+      <c r="M24" s="266"/>
+      <c r="N24" s="154">
         <v>2</v>
       </c>
-      <c r="O24" s="158"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="188"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="187"/>
       <c r="R24" s="119"/>
       <c r="S24" s="119"/>
       <c r="T24" s="119"/>
@@ -6684,1632 +6642,920 @@
       <c r="Z24" s="119"/>
       <c r="AA24" s="119"/>
       <c r="AB24" s="119"/>
-      <c r="AC24" s="189"/>
-      <c r="AD24" s="189"/>
+      <c r="AC24" s="188"/>
+      <c r="AD24" s="188"/>
       <c r="AE24" s="113"/>
-      <c r="AF24" s="157">
+      <c r="AF24" s="156">
         <v>2</v>
       </c>
-      <c r="AG24" s="149"/>
-      <c r="AH24" s="149"/>
-      <c r="AI24" s="253">
-        <v>404</v>
-      </c>
-      <c r="AJ24" s="253">
-        <v>403</v>
-      </c>
-      <c r="AK24" s="253">
-        <v>402</v>
-      </c>
-      <c r="AL24" s="253">
-        <v>401</v>
-      </c>
-      <c r="AM24" s="253">
-        <v>400</v>
-      </c>
-      <c r="AN24" s="253">
-        <v>399</v>
-      </c>
-      <c r="AO24" s="253">
-        <v>398</v>
-      </c>
-      <c r="AP24" s="253">
-        <v>397</v>
-      </c>
-      <c r="AQ24" s="253">
-        <v>396</v>
-      </c>
-      <c r="AR24" s="253">
-        <v>395</v>
-      </c>
-      <c r="AS24" s="179"/>
+      <c r="AG24" s="266"/>
+      <c r="AH24" s="266"/>
+      <c r="AI24" s="267"/>
+      <c r="AJ24" s="267"/>
+      <c r="AK24" s="267"/>
+      <c r="AL24" s="267"/>
+      <c r="AM24" s="267"/>
+      <c r="AN24" s="267"/>
+      <c r="AO24" s="267"/>
+      <c r="AP24" s="267"/>
+      <c r="AQ24" s="267"/>
+      <c r="AR24" s="267"/>
+      <c r="AS24" s="178"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
-      <c r="B25" s="254">
-        <v>405</v>
-      </c>
-      <c r="C25" s="254">
-        <v>406</v>
-      </c>
-      <c r="D25" s="254">
-        <v>407</v>
-      </c>
-      <c r="E25" s="254">
-        <v>408</v>
-      </c>
-      <c r="F25" s="254">
-        <v>409</v>
-      </c>
-      <c r="G25" s="254">
-        <v>410</v>
-      </c>
-      <c r="H25" s="254">
-        <v>411</v>
-      </c>
-      <c r="I25" s="254">
-        <v>412</v>
-      </c>
-      <c r="J25" s="254">
-        <v>413</v>
-      </c>
-      <c r="K25" s="254">
-        <v>414</v>
-      </c>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="155">
+      <c r="B25" s="267"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="267"/>
+      <c r="G25" s="267"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="267"/>
+      <c r="L25" s="266"/>
+      <c r="M25" s="266"/>
+      <c r="N25" s="154">
         <v>3</v>
       </c>
       <c r="O25" s="113"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="188"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="187"/>
       <c r="R25" s="119"/>
       <c r="S25" s="119"/>
       <c r="T25" s="119"/>
       <c r="U25" s="119"/>
       <c r="V25" s="119"/>
-      <c r="W25" s="154"/>
+      <c r="W25" s="153"/>
       <c r="X25" s="119"/>
       <c r="Y25" s="119"/>
       <c r="Z25" s="119"/>
       <c r="AA25" s="119"/>
       <c r="AB25" s="119"/>
-      <c r="AC25" s="190"/>
-      <c r="AD25" s="190"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189"/>
       <c r="AE25" s="113"/>
-      <c r="AF25" s="157">
+      <c r="AF25" s="156">
         <v>3</v>
       </c>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="254">
-        <v>414</v>
-      </c>
-      <c r="AJ25" s="254">
-        <v>413</v>
-      </c>
-      <c r="AK25" s="254">
-        <v>412</v>
-      </c>
-      <c r="AL25" s="254">
-        <v>411</v>
-      </c>
-      <c r="AM25" s="254">
-        <v>410</v>
-      </c>
-      <c r="AN25" s="254">
-        <v>409</v>
-      </c>
-      <c r="AO25" s="254">
-        <v>408</v>
-      </c>
-      <c r="AP25" s="254">
-        <v>407</v>
-      </c>
-      <c r="AQ25" s="254">
-        <v>406</v>
-      </c>
-      <c r="AR25" s="254">
-        <v>405</v>
-      </c>
-      <c r="AS25" s="179"/>
+      <c r="AG25" s="266"/>
+      <c r="AH25" s="266"/>
+      <c r="AI25" s="267"/>
+      <c r="AJ25" s="267"/>
+      <c r="AK25" s="267"/>
+      <c r="AL25" s="267"/>
+      <c r="AM25" s="267"/>
+      <c r="AN25" s="267"/>
+      <c r="AO25" s="267"/>
+      <c r="AP25" s="267"/>
+      <c r="AQ25" s="267"/>
+      <c r="AR25" s="267"/>
+      <c r="AS25" s="178"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
-      <c r="B26" s="255">
-        <v>415</v>
-      </c>
-      <c r="C26" s="255">
-        <v>416</v>
-      </c>
-      <c r="D26" s="255">
-        <v>417</v>
-      </c>
-      <c r="E26" s="255">
-        <v>418</v>
-      </c>
-      <c r="F26" s="255">
-        <v>419</v>
-      </c>
-      <c r="G26" s="255">
-        <v>420</v>
-      </c>
-      <c r="H26" s="255">
-        <v>421</v>
-      </c>
-      <c r="I26" s="255">
-        <v>422</v>
-      </c>
-      <c r="J26" s="255">
-        <v>423</v>
-      </c>
-      <c r="K26" s="255">
-        <v>424</v>
-      </c>
-      <c r="L26" s="255">
-        <v>425</v>
-      </c>
-      <c r="M26" s="255">
-        <v>426</v>
-      </c>
-      <c r="N26" s="155">
+      <c r="B26" s="268"/>
+      <c r="C26" s="268"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="268"/>
+      <c r="N26" s="154">
         <v>4</v>
       </c>
       <c r="O26" s="113"/>
-      <c r="P26" s="193">
+      <c r="P26" s="192">
         <v>307</v>
       </c>
-      <c r="Q26" s="193">
+      <c r="Q26" s="192">
         <v>306</v>
       </c>
-      <c r="R26" s="193">
+      <c r="R26" s="192">
         <v>305</v>
       </c>
-      <c r="S26" s="193">
+      <c r="S26" s="192">
         <v>304</v>
       </c>
-      <c r="T26" s="193">
+      <c r="T26" s="192">
         <v>303</v>
       </c>
-      <c r="U26" s="193">
+      <c r="U26" s="192">
         <v>302</v>
       </c>
-      <c r="V26" s="193">
+      <c r="V26" s="192">
         <v>301</v>
       </c>
-      <c r="W26" s="162"/>
-      <c r="X26" s="193">
+      <c r="W26" s="161"/>
+      <c r="X26" s="192">
         <v>301</v>
       </c>
-      <c r="Y26" s="193">
+      <c r="Y26" s="192">
         <v>302</v>
       </c>
-      <c r="Z26" s="193">
+      <c r="Z26" s="192">
         <v>303</v>
       </c>
-      <c r="AA26" s="193">
+      <c r="AA26" s="192">
         <v>304</v>
       </c>
-      <c r="AB26" s="193">
+      <c r="AB26" s="192">
         <v>305</v>
       </c>
-      <c r="AC26" s="193">
+      <c r="AC26" s="192">
         <v>306</v>
       </c>
-      <c r="AD26" s="193">
+      <c r="AD26" s="192">
         <v>307</v>
       </c>
       <c r="AE26" s="113"/>
-      <c r="AF26" s="157">
+      <c r="AF26" s="156">
         <v>4</v>
       </c>
-      <c r="AG26" s="253">
-        <v>426</v>
-      </c>
-      <c r="AH26" s="257">
-        <v>425</v>
-      </c>
-      <c r="AI26" s="253">
-        <v>424</v>
-      </c>
-      <c r="AJ26" s="257">
-        <v>423</v>
-      </c>
-      <c r="AK26" s="253">
-        <v>422</v>
-      </c>
-      <c r="AL26" s="257">
-        <v>421</v>
-      </c>
-      <c r="AM26" s="253">
-        <v>420</v>
-      </c>
-      <c r="AN26" s="257">
-        <v>419</v>
-      </c>
-      <c r="AO26" s="253">
-        <v>418</v>
-      </c>
-      <c r="AP26" s="257">
-        <v>417</v>
-      </c>
-      <c r="AQ26" s="253">
-        <v>416</v>
-      </c>
-      <c r="AR26" s="257">
-        <v>415</v>
-      </c>
-      <c r="AS26" s="179"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="279"/>
+      <c r="AI26" s="267"/>
+      <c r="AJ26" s="279"/>
+      <c r="AK26" s="267"/>
+      <c r="AL26" s="279"/>
+      <c r="AM26" s="267"/>
+      <c r="AN26" s="279"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="279"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="279"/>
+      <c r="AS26" s="178"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
-      <c r="B27" s="255">
-        <v>427</v>
-      </c>
-      <c r="C27" s="255">
-        <v>428</v>
-      </c>
-      <c r="D27" s="255">
-        <v>429</v>
-      </c>
-      <c r="E27" s="255">
-        <v>430</v>
-      </c>
-      <c r="F27" s="255">
-        <v>431</v>
-      </c>
-      <c r="G27" s="255">
-        <v>432</v>
-      </c>
-      <c r="H27" s="255">
-        <v>433</v>
-      </c>
-      <c r="I27" s="255">
-        <v>434</v>
-      </c>
-      <c r="J27" s="255">
-        <v>435</v>
-      </c>
-      <c r="K27" s="255">
-        <v>436</v>
-      </c>
-      <c r="L27" s="255">
-        <v>437</v>
-      </c>
-      <c r="M27" s="255">
-        <v>438</v>
-      </c>
-      <c r="N27" s="155">
+      <c r="B27" s="268"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="268"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="268"/>
+      <c r="K27" s="268"/>
+      <c r="L27" s="268"/>
+      <c r="M27" s="268"/>
+      <c r="N27" s="154">
         <v>5</v>
       </c>
       <c r="O27" s="113"/>
-      <c r="P27" s="193">
+      <c r="P27" s="192">
         <v>314</v>
       </c>
-      <c r="Q27" s="193">
+      <c r="Q27" s="192">
         <v>313</v>
       </c>
-      <c r="R27" s="193">
+      <c r="R27" s="192">
         <v>312</v>
       </c>
-      <c r="S27" s="193">
+      <c r="S27" s="192">
         <v>311</v>
       </c>
-      <c r="T27" s="193">
+      <c r="T27" s="192">
         <v>310</v>
       </c>
-      <c r="U27" s="193">
+      <c r="U27" s="192">
         <v>309</v>
       </c>
-      <c r="V27" s="193">
+      <c r="V27" s="192">
         <v>308</v>
       </c>
-      <c r="W27" s="154"/>
-      <c r="X27" s="193">
+      <c r="W27" s="153"/>
+      <c r="X27" s="192">
         <v>308</v>
       </c>
-      <c r="Y27" s="193">
+      <c r="Y27" s="192">
         <v>309</v>
       </c>
-      <c r="Z27" s="193">
+      <c r="Z27" s="192">
         <v>310</v>
       </c>
-      <c r="AA27" s="193">
+      <c r="AA27" s="192">
         <v>311</v>
       </c>
-      <c r="AB27" s="193">
+      <c r="AB27" s="192">
         <v>312</v>
       </c>
-      <c r="AC27" s="193">
+      <c r="AC27" s="192">
         <v>313</v>
       </c>
-      <c r="AD27" s="193">
+      <c r="AD27" s="192">
         <v>314</v>
       </c>
       <c r="AE27" s="113"/>
-      <c r="AF27" s="157">
+      <c r="AF27" s="156">
         <v>5</v>
       </c>
-      <c r="AG27" s="253">
-        <v>438</v>
-      </c>
-      <c r="AH27" s="257">
-        <v>437</v>
-      </c>
-      <c r="AI27" s="253">
-        <v>436</v>
-      </c>
-      <c r="AJ27" s="253">
-        <v>435</v>
-      </c>
-      <c r="AK27" s="253">
-        <v>434</v>
-      </c>
-      <c r="AL27" s="253">
-        <v>433</v>
-      </c>
-      <c r="AM27" s="253">
-        <v>432</v>
-      </c>
-      <c r="AN27" s="253">
-        <v>431</v>
-      </c>
-      <c r="AO27" s="258" t="s">
-        <v>758</v>
-      </c>
-      <c r="AP27" s="253">
-        <v>429</v>
-      </c>
-      <c r="AQ27" s="253">
-        <v>428</v>
-      </c>
-      <c r="AR27" s="253">
-        <v>427</v>
-      </c>
-      <c r="AS27" s="179"/>
+      <c r="AG27" s="267"/>
+      <c r="AH27" s="279"/>
+      <c r="AI27" s="267"/>
+      <c r="AJ27" s="267"/>
+      <c r="AK27" s="267"/>
+      <c r="AL27" s="267"/>
+      <c r="AM27" s="267"/>
+      <c r="AN27" s="267"/>
+      <c r="AO27" s="280"/>
+      <c r="AP27" s="267"/>
+      <c r="AQ27" s="267"/>
+      <c r="AR27" s="267"/>
+      <c r="AS27" s="178"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="119"/>
-      <c r="B28" s="255">
-        <v>439</v>
-      </c>
-      <c r="C28" s="255">
-        <v>440</v>
-      </c>
-      <c r="D28" s="255">
-        <v>441</v>
-      </c>
-      <c r="E28" s="255">
-        <v>442</v>
-      </c>
-      <c r="F28" s="255">
-        <v>443</v>
-      </c>
-      <c r="G28" s="255">
-        <v>444</v>
-      </c>
-      <c r="H28" s="255">
-        <v>445</v>
-      </c>
-      <c r="I28" s="255">
-        <v>446</v>
-      </c>
-      <c r="J28" s="255">
-        <v>447</v>
-      </c>
-      <c r="K28" s="255">
-        <v>448</v>
-      </c>
-      <c r="L28" s="255">
-        <v>449</v>
-      </c>
-      <c r="M28" s="255">
-        <v>450</v>
-      </c>
-      <c r="N28" s="155">
+      <c r="B28" s="268"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="268"/>
+      <c r="J28" s="268"/>
+      <c r="K28" s="268"/>
+      <c r="L28" s="268"/>
+      <c r="M28" s="268"/>
+      <c r="N28" s="154">
         <v>6</v>
       </c>
       <c r="O28" s="113"/>
-      <c r="P28" s="193">
+      <c r="P28" s="192">
         <v>321</v>
       </c>
-      <c r="Q28" s="193">
+      <c r="Q28" s="192">
         <v>320</v>
       </c>
-      <c r="R28" s="193">
+      <c r="R28" s="192">
         <v>319</v>
       </c>
-      <c r="S28" s="193">
+      <c r="S28" s="192">
         <v>318</v>
       </c>
-      <c r="T28" s="193">
+      <c r="T28" s="192">
         <v>317</v>
       </c>
-      <c r="U28" s="193">
+      <c r="U28" s="192">
         <v>316</v>
       </c>
-      <c r="V28" s="193">
+      <c r="V28" s="192">
         <v>315</v>
       </c>
-      <c r="W28" s="154"/>
-      <c r="X28" s="193">
+      <c r="W28" s="153"/>
+      <c r="X28" s="192">
         <v>315</v>
       </c>
-      <c r="Y28" s="193">
+      <c r="Y28" s="192">
         <v>316</v>
       </c>
-      <c r="Z28" s="193">
+      <c r="Z28" s="192">
         <v>317</v>
       </c>
-      <c r="AA28" s="193">
+      <c r="AA28" s="192">
         <v>318</v>
       </c>
-      <c r="AB28" s="193">
+      <c r="AB28" s="192">
         <v>319</v>
       </c>
-      <c r="AC28" s="193">
+      <c r="AC28" s="192">
         <v>320</v>
       </c>
-      <c r="AD28" s="193">
+      <c r="AD28" s="192">
         <v>321</v>
       </c>
-      <c r="AE28" s="159"/>
-      <c r="AF28" s="157">
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="156">
         <v>6</v>
       </c>
-      <c r="AG28" s="253">
-        <v>450</v>
-      </c>
-      <c r="AH28" s="257">
-        <v>449</v>
-      </c>
-      <c r="AI28" s="253">
-        <v>448</v>
-      </c>
-      <c r="AJ28" s="253">
-        <v>447</v>
-      </c>
-      <c r="AK28" s="253">
-        <v>446</v>
-      </c>
-      <c r="AL28" s="253">
-        <v>445</v>
-      </c>
-      <c r="AM28" s="253">
-        <v>444</v>
-      </c>
-      <c r="AN28" s="253">
-        <v>443</v>
-      </c>
-      <c r="AO28" s="253">
-        <v>442</v>
-      </c>
-      <c r="AP28" s="253">
-        <v>441</v>
-      </c>
-      <c r="AQ28" s="253">
-        <v>440</v>
-      </c>
-      <c r="AR28" s="253">
-        <v>439</v>
-      </c>
-      <c r="AS28" s="180"/>
+      <c r="AG28" s="267"/>
+      <c r="AH28" s="279"/>
+      <c r="AI28" s="267"/>
+      <c r="AJ28" s="267"/>
+      <c r="AK28" s="267"/>
+      <c r="AL28" s="267"/>
+      <c r="AM28" s="267"/>
+      <c r="AN28" s="267"/>
+      <c r="AO28" s="267"/>
+      <c r="AP28" s="267"/>
+      <c r="AQ28" s="267"/>
+      <c r="AR28" s="267"/>
+      <c r="AS28" s="179"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="127"/>
-      <c r="B29" s="256">
-        <v>451</v>
-      </c>
-      <c r="C29" s="256">
-        <v>452</v>
-      </c>
-      <c r="D29" s="256">
-        <v>453</v>
-      </c>
-      <c r="E29" s="256">
-        <v>454</v>
-      </c>
-      <c r="F29" s="256">
-        <v>455</v>
-      </c>
-      <c r="G29" s="256">
-        <v>456</v>
-      </c>
-      <c r="H29" s="256">
-        <v>457</v>
-      </c>
-      <c r="I29" s="256">
-        <v>458</v>
-      </c>
-      <c r="J29" s="256">
-        <v>459</v>
-      </c>
-      <c r="K29" s="256">
-        <v>460</v>
-      </c>
-      <c r="L29" s="256">
-        <v>461</v>
-      </c>
-      <c r="M29" s="256">
-        <v>462</v>
-      </c>
-      <c r="N29" s="155">
+      <c r="B29" s="269"/>
+      <c r="C29" s="269"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="269"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="269"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="269"/>
+      <c r="M29" s="269"/>
+      <c r="N29" s="154">
         <v>7</v>
       </c>
-      <c r="O29" s="222" t="s">
-        <v>762</v>
-      </c>
-      <c r="P29" s="193">
+      <c r="O29" s="220" t="s">
+        <v>779</v>
+      </c>
+      <c r="P29" s="192">
         <v>328</v>
       </c>
-      <c r="Q29" s="193">
+      <c r="Q29" s="192">
         <v>327</v>
       </c>
-      <c r="R29" s="193">
+      <c r="R29" s="192">
         <v>326</v>
       </c>
-      <c r="S29" s="193">
+      <c r="S29" s="192">
         <v>325</v>
       </c>
-      <c r="T29" s="253">
+      <c r="T29" s="250">
         <v>326</v>
       </c>
-      <c r="U29" s="250" t="s">
-        <v>779</v>
-      </c>
-      <c r="V29" s="262" t="s">
+      <c r="U29" s="247" t="s">
+        <v>778</v>
+      </c>
+      <c r="V29" s="253" t="s">
         <v>364</v>
       </c>
-      <c r="W29" s="154"/>
-      <c r="X29" s="195">
+      <c r="W29" s="153"/>
+      <c r="X29" s="194">
         <v>322</v>
       </c>
-      <c r="Y29" s="195">
+      <c r="Y29" s="194">
         <v>323</v>
       </c>
-      <c r="Z29" s="195">
+      <c r="Z29" s="194">
         <v>324</v>
       </c>
-      <c r="AA29" s="195">
+      <c r="AA29" s="194">
         <v>325</v>
       </c>
-      <c r="AB29" s="195">
+      <c r="AB29" s="194">
         <v>326</v>
       </c>
-      <c r="AC29" s="195">
+      <c r="AC29" s="194">
         <v>327</v>
       </c>
-      <c r="AD29" s="195">
+      <c r="AD29" s="194">
         <v>328</v>
       </c>
       <c r="AE29" s="113"/>
-      <c r="AF29" s="157">
+      <c r="AF29" s="156">
         <v>7</v>
       </c>
-      <c r="AG29" s="194">
-        <v>462</v>
-      </c>
-      <c r="AH29" s="259">
-        <v>461</v>
-      </c>
-      <c r="AI29" s="194">
-        <v>460</v>
-      </c>
-      <c r="AJ29" s="259">
-        <v>459</v>
-      </c>
-      <c r="AK29" s="194">
-        <v>458</v>
-      </c>
-      <c r="AL29" s="259">
-        <v>457</v>
-      </c>
-      <c r="AM29" s="194">
-        <v>456</v>
-      </c>
-      <c r="AN29" s="259">
-        <v>455</v>
-      </c>
-      <c r="AO29" s="194">
-        <v>454</v>
-      </c>
-      <c r="AP29" s="259">
-        <v>453</v>
-      </c>
-      <c r="AQ29" s="194">
-        <v>452</v>
-      </c>
-      <c r="AR29" s="259">
-        <v>451</v>
-      </c>
-      <c r="AS29" s="179"/>
+      <c r="AG29" s="276"/>
+      <c r="AH29" s="275"/>
+      <c r="AI29" s="276"/>
+      <c r="AJ29" s="275"/>
+      <c r="AK29" s="276"/>
+      <c r="AL29" s="275"/>
+      <c r="AM29" s="276"/>
+      <c r="AN29" s="275"/>
+      <c r="AO29" s="276"/>
+      <c r="AP29" s="275"/>
+      <c r="AQ29" s="276"/>
+      <c r="AR29" s="275"/>
+      <c r="AS29" s="178"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="253">
-        <v>463</v>
-      </c>
-      <c r="C30" s="253">
-        <v>464</v>
-      </c>
-      <c r="D30" s="253">
-        <v>465</v>
-      </c>
-      <c r="E30" s="253">
-        <v>466</v>
-      </c>
-      <c r="F30" s="253">
-        <v>467</v>
-      </c>
-      <c r="G30" s="253">
-        <v>468</v>
-      </c>
-      <c r="H30" s="253">
-        <v>469</v>
-      </c>
-      <c r="I30" s="253">
-        <v>470</v>
-      </c>
-      <c r="J30" s="253">
-        <v>471</v>
-      </c>
-      <c r="K30" s="253">
-        <v>472</v>
-      </c>
-      <c r="L30" s="253">
-        <v>473</v>
-      </c>
-      <c r="M30" s="253">
-        <v>474</v>
-      </c>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="267"/>
+      <c r="M30" s="267"/>
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="260"/>
-      <c r="P30" s="272">
+      <c r="O30" s="251"/>
+      <c r="P30" s="254">
         <v>335</v>
       </c>
-      <c r="Q30" s="195">
+      <c r="Q30" s="194">
         <v>334</v>
       </c>
-      <c r="R30" s="195">
+      <c r="R30" s="194">
         <v>333</v>
       </c>
-      <c r="S30" s="195">
+      <c r="S30" s="194">
         <v>332</v>
       </c>
-      <c r="T30" s="195">
+      <c r="T30" s="194">
         <v>331</v>
       </c>
-      <c r="U30" s="195">
+      <c r="U30" s="194">
         <v>330</v>
       </c>
-      <c r="V30" s="195">
+      <c r="V30" s="194">
         <v>329</v>
       </c>
-      <c r="W30" s="163"/>
-      <c r="X30" s="195">
+      <c r="W30" s="162"/>
+      <c r="X30" s="194">
         <v>329</v>
       </c>
-      <c r="Y30" s="195">
+      <c r="Y30" s="194">
         <v>330</v>
       </c>
-      <c r="Z30" s="195">
+      <c r="Z30" s="194">
         <v>331</v>
       </c>
-      <c r="AA30" s="195">
+      <c r="AA30" s="194">
         <v>332</v>
       </c>
-      <c r="AB30" s="195">
+      <c r="AB30" s="194">
         <v>333</v>
       </c>
-      <c r="AC30" s="195">
+      <c r="AC30" s="194">
         <v>334</v>
       </c>
-      <c r="AD30" s="195">
+      <c r="AD30" s="194">
         <v>335</v>
       </c>
       <c r="AE30" s="113"/>
-      <c r="AF30" s="160">
+      <c r="AF30" s="159">
         <v>8</v>
       </c>
-      <c r="AG30" s="253">
-        <v>474</v>
-      </c>
-      <c r="AH30" s="257">
-        <v>473</v>
-      </c>
-      <c r="AI30" s="253">
-        <v>472</v>
-      </c>
-      <c r="AJ30" s="253">
-        <v>471</v>
-      </c>
-      <c r="AK30" s="253">
-        <v>470</v>
-      </c>
-      <c r="AL30" s="253">
-        <v>469</v>
-      </c>
-      <c r="AM30" s="253">
-        <v>468</v>
-      </c>
-      <c r="AN30" s="253">
-        <v>467</v>
-      </c>
-      <c r="AO30" s="253">
-        <v>466</v>
-      </c>
-      <c r="AP30" s="253">
-        <v>465</v>
-      </c>
-      <c r="AQ30" s="253">
-        <v>464</v>
-      </c>
-      <c r="AR30" s="253">
-        <v>463</v>
-      </c>
+      <c r="AG30" s="267"/>
+      <c r="AH30" s="279"/>
+      <c r="AI30" s="267"/>
+      <c r="AJ30" s="267"/>
+      <c r="AK30" s="267"/>
+      <c r="AL30" s="267"/>
+      <c r="AM30" s="267"/>
+      <c r="AN30" s="267"/>
+      <c r="AO30" s="267"/>
+      <c r="AP30" s="267"/>
+      <c r="AQ30" s="267"/>
+      <c r="AR30" s="267"/>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
-      <c r="B31" s="253">
-        <v>475</v>
-      </c>
-      <c r="C31" s="253">
-        <v>476</v>
-      </c>
-      <c r="D31" s="253">
-        <v>477</v>
-      </c>
-      <c r="E31" s="253">
-        <v>478</v>
-      </c>
-      <c r="F31" s="253">
-        <v>479</v>
-      </c>
-      <c r="G31" s="253">
-        <v>480</v>
-      </c>
-      <c r="H31" s="253">
-        <v>481</v>
-      </c>
-      <c r="I31" s="253">
-        <v>482</v>
-      </c>
-      <c r="J31" s="253">
-        <v>483</v>
-      </c>
-      <c r="K31" s="253">
-        <v>484</v>
-      </c>
-      <c r="L31" s="253">
-        <v>485</v>
-      </c>
-      <c r="M31" s="253">
-        <v>486</v>
-      </c>
-      <c r="N31" s="155">
+      <c r="B31" s="267"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="267"/>
+      <c r="H31" s="267"/>
+      <c r="I31" s="267"/>
+      <c r="J31" s="267"/>
+      <c r="K31" s="267"/>
+      <c r="L31" s="267"/>
+      <c r="M31" s="267"/>
+      <c r="N31" s="154">
         <v>9</v>
       </c>
       <c r="O31" s="125"/>
-      <c r="P31" s="195">
+      <c r="P31" s="194">
         <v>342</v>
       </c>
-      <c r="Q31" s="195">
+      <c r="Q31" s="194">
         <v>341</v>
       </c>
-      <c r="R31" s="195">
+      <c r="R31" s="194">
         <v>340</v>
       </c>
-      <c r="S31" s="195">
+      <c r="S31" s="194">
         <v>339</v>
       </c>
-      <c r="T31" s="195">
+      <c r="T31" s="194">
         <v>338</v>
       </c>
-      <c r="U31" s="195">
+      <c r="U31" s="194">
         <v>337</v>
       </c>
-      <c r="V31" s="195">
+      <c r="V31" s="194">
         <v>336</v>
       </c>
-      <c r="W31" s="164"/>
-      <c r="X31" s="195">
+      <c r="W31" s="163"/>
+      <c r="X31" s="194">
         <v>336</v>
       </c>
-      <c r="Y31" s="195">
+      <c r="Y31" s="194">
         <v>337</v>
       </c>
-      <c r="Z31" s="195">
+      <c r="Z31" s="194">
         <v>338</v>
       </c>
-      <c r="AA31" s="195">
+      <c r="AA31" s="194">
         <v>339</v>
       </c>
-      <c r="AB31" s="195">
+      <c r="AB31" s="194">
         <v>340</v>
       </c>
-      <c r="AC31" s="195">
+      <c r="AC31" s="194">
         <v>341</v>
       </c>
-      <c r="AD31" s="195">
+      <c r="AD31" s="194">
         <v>342</v>
       </c>
       <c r="AE31" s="115"/>
-      <c r="AF31" s="186">
+      <c r="AF31" s="185">
         <v>9</v>
       </c>
-      <c r="AG31" s="253">
-        <v>486</v>
-      </c>
-      <c r="AH31" s="257">
-        <v>485</v>
-      </c>
-      <c r="AI31" s="253">
-        <v>484</v>
-      </c>
-      <c r="AJ31" s="253">
-        <v>483</v>
-      </c>
-      <c r="AK31" s="253">
-        <v>482</v>
-      </c>
-      <c r="AL31" s="253">
-        <v>481</v>
-      </c>
-      <c r="AM31" s="253">
-        <v>480</v>
-      </c>
-      <c r="AN31" s="253">
-        <v>479</v>
-      </c>
-      <c r="AO31" s="253">
-        <v>478</v>
-      </c>
-      <c r="AP31" s="253">
-        <v>477</v>
-      </c>
-      <c r="AQ31" s="253">
-        <v>476</v>
-      </c>
-      <c r="AR31" s="253">
-        <v>475</v>
-      </c>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="279"/>
+      <c r="AI31" s="267"/>
+      <c r="AJ31" s="267"/>
+      <c r="AK31" s="267"/>
+      <c r="AL31" s="267"/>
+      <c r="AM31" s="267"/>
+      <c r="AN31" s="267"/>
+      <c r="AO31" s="267"/>
+      <c r="AP31" s="267"/>
+      <c r="AQ31" s="267"/>
+      <c r="AR31" s="267"/>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
-      <c r="B32" s="253">
-        <v>487</v>
-      </c>
-      <c r="C32" s="253">
-        <v>488</v>
-      </c>
-      <c r="D32" s="253">
-        <v>489</v>
-      </c>
-      <c r="E32" s="253">
-        <v>490</v>
-      </c>
-      <c r="F32" s="253">
-        <v>491</v>
-      </c>
-      <c r="G32" s="253">
-        <v>492</v>
-      </c>
-      <c r="H32" s="253">
-        <v>493</v>
-      </c>
-      <c r="I32" s="253">
-        <v>494</v>
-      </c>
-      <c r="J32" s="253">
-        <v>495</v>
-      </c>
-      <c r="K32" s="253">
-        <v>496</v>
-      </c>
-      <c r="L32" s="253">
-        <v>497</v>
-      </c>
-      <c r="M32" s="253">
-        <v>498</v>
-      </c>
-      <c r="N32" s="185">
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="267"/>
+      <c r="I32" s="267"/>
+      <c r="J32" s="267"/>
+      <c r="K32" s="267"/>
+      <c r="L32" s="267"/>
+      <c r="M32" s="267"/>
+      <c r="N32" s="184">
         <v>10</v>
       </c>
       <c r="O32" s="115"/>
-      <c r="P32" s="195">
+      <c r="P32" s="194">
         <v>349</v>
       </c>
-      <c r="Q32" s="195">
+      <c r="Q32" s="194">
         <v>348</v>
       </c>
-      <c r="R32" s="195">
+      <c r="R32" s="194">
         <v>347</v>
       </c>
-      <c r="S32" s="195">
+      <c r="S32" s="194">
         <v>346</v>
       </c>
-      <c r="T32" s="195">
+      <c r="T32" s="194">
         <v>345</v>
       </c>
-      <c r="U32" s="195">
+      <c r="U32" s="194">
         <v>344</v>
       </c>
-      <c r="V32" s="195">
+      <c r="V32" s="194">
         <v>343</v>
       </c>
-      <c r="W32" s="164"/>
-      <c r="X32" s="195">
+      <c r="W32" s="163"/>
+      <c r="X32" s="194">
         <v>343</v>
       </c>
-      <c r="Y32" s="195">
+      <c r="Y32" s="194">
         <v>344</v>
       </c>
-      <c r="Z32" s="195">
+      <c r="Z32" s="194">
         <v>345</v>
       </c>
-      <c r="AA32" s="195">
+      <c r="AA32" s="194">
         <v>346</v>
       </c>
-      <c r="AB32" s="195">
+      <c r="AB32" s="194">
         <v>347</v>
       </c>
-      <c r="AC32" s="195">
+      <c r="AC32" s="194">
         <v>348</v>
       </c>
-      <c r="AD32" s="195">
+      <c r="AD32" s="194">
         <v>349</v>
       </c>
       <c r="AE32" s="115"/>
-      <c r="AF32" s="186">
+      <c r="AF32" s="185">
         <v>10</v>
       </c>
-      <c r="AG32" s="253">
-        <v>498</v>
-      </c>
-      <c r="AH32" s="257">
-        <v>497</v>
-      </c>
-      <c r="AI32" s="253">
-        <v>496</v>
-      </c>
-      <c r="AJ32" s="253">
-        <v>495</v>
-      </c>
-      <c r="AK32" s="253">
-        <v>494</v>
-      </c>
-      <c r="AL32" s="253">
-        <v>493</v>
-      </c>
-      <c r="AM32" s="253">
-        <v>492</v>
-      </c>
-      <c r="AN32" s="253">
-        <v>491</v>
-      </c>
-      <c r="AO32" s="253">
-        <v>490</v>
-      </c>
-      <c r="AP32" s="253">
-        <v>489</v>
-      </c>
-      <c r="AQ32" s="253">
-        <v>488</v>
-      </c>
-      <c r="AR32" s="253">
-        <v>487</v>
-      </c>
+      <c r="AG32" s="267"/>
+      <c r="AH32" s="279"/>
+      <c r="AI32" s="267"/>
+      <c r="AJ32" s="267"/>
+      <c r="AK32" s="267"/>
+      <c r="AL32" s="267"/>
+      <c r="AM32" s="267"/>
+      <c r="AN32" s="267"/>
+      <c r="AO32" s="267"/>
+      <c r="AP32" s="267"/>
+      <c r="AQ32" s="267"/>
+      <c r="AR32" s="267"/>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="253">
-        <v>499</v>
-      </c>
-      <c r="C33" s="253">
-        <v>500</v>
-      </c>
-      <c r="D33" s="253">
-        <v>501</v>
-      </c>
-      <c r="E33" s="253">
-        <v>502</v>
-      </c>
-      <c r="F33" s="253">
-        <v>503</v>
-      </c>
-      <c r="G33" s="253">
-        <v>504</v>
-      </c>
-      <c r="H33" s="253">
-        <v>505</v>
-      </c>
-      <c r="I33" s="253">
-        <v>506</v>
-      </c>
-      <c r="J33" s="253">
-        <v>507</v>
-      </c>
-      <c r="K33" s="253">
-        <v>508</v>
-      </c>
-      <c r="L33" s="253">
-        <v>509</v>
-      </c>
-      <c r="M33" s="253">
-        <v>510</v>
-      </c>
-      <c r="N33" s="187">
+      <c r="B33" s="267"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="267"/>
+      <c r="E33" s="267"/>
+      <c r="F33" s="267"/>
+      <c r="G33" s="267"/>
+      <c r="H33" s="267"/>
+      <c r="I33" s="267"/>
+      <c r="J33" s="267"/>
+      <c r="K33" s="267"/>
+      <c r="L33" s="267"/>
+      <c r="M33" s="267"/>
+      <c r="N33" s="186">
         <v>11</v>
       </c>
       <c r="O33" s="115"/>
-      <c r="P33" s="195">
+      <c r="P33" s="194">
         <v>356</v>
       </c>
-      <c r="Q33" s="195">
+      <c r="Q33" s="194">
         <v>355</v>
       </c>
-      <c r="R33" s="195">
+      <c r="R33" s="194">
         <v>354</v>
       </c>
-      <c r="S33" s="195">
+      <c r="S33" s="194">
         <v>353</v>
       </c>
-      <c r="T33" s="195">
+      <c r="T33" s="194">
         <v>352</v>
       </c>
-      <c r="U33" s="195">
+      <c r="U33" s="194">
         <v>351</v>
       </c>
-      <c r="V33" s="195">
+      <c r="V33" s="194">
         <v>350</v>
       </c>
-      <c r="W33" s="164"/>
-      <c r="X33" s="195">
+      <c r="W33" s="163"/>
+      <c r="X33" s="264">
         <v>350</v>
       </c>
-      <c r="Y33" s="195">
+      <c r="Y33" s="264">
         <v>351</v>
       </c>
-      <c r="Z33" s="195">
+      <c r="Z33" s="264">
         <v>352</v>
       </c>
-      <c r="AA33" s="195">
+      <c r="AA33" s="264">
         <v>353</v>
       </c>
-      <c r="AB33" s="195">
+      <c r="AB33" s="194">
         <v>354</v>
       </c>
-      <c r="AC33" s="195">
+      <c r="AC33" s="194">
         <v>355</v>
       </c>
-      <c r="AD33" s="195">
+      <c r="AD33" s="194">
         <v>356</v>
       </c>
       <c r="AE33" s="115"/>
-      <c r="AF33" s="186">
+      <c r="AF33" s="185">
         <v>11</v>
       </c>
-      <c r="AG33" s="253">
-        <v>510</v>
-      </c>
-      <c r="AH33" s="259">
-        <v>509</v>
-      </c>
-      <c r="AI33" s="253">
-        <v>508</v>
-      </c>
-      <c r="AJ33" s="194">
-        <v>507</v>
-      </c>
-      <c r="AK33" s="253">
-        <v>506</v>
-      </c>
-      <c r="AL33" s="194">
-        <v>505</v>
-      </c>
-      <c r="AM33" s="253">
-        <v>504</v>
-      </c>
-      <c r="AN33" s="194">
-        <v>503</v>
-      </c>
-      <c r="AO33" s="253">
-        <v>502</v>
-      </c>
-      <c r="AP33" s="194">
-        <v>501</v>
-      </c>
-      <c r="AQ33" s="253">
-        <v>500</v>
-      </c>
-      <c r="AR33" s="194">
-        <v>499</v>
-      </c>
-      <c r="AS33" s="182"/>
+      <c r="AG33" s="267"/>
+      <c r="AH33" s="275"/>
+      <c r="AI33" s="267"/>
+      <c r="AJ33" s="276"/>
+      <c r="AK33" s="267"/>
+      <c r="AL33" s="276"/>
+      <c r="AM33" s="267"/>
+      <c r="AN33" s="276"/>
+      <c r="AO33" s="267"/>
+      <c r="AP33" s="276"/>
+      <c r="AQ33" s="267"/>
+      <c r="AR33" s="276"/>
+      <c r="AS33" s="181"/>
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
-      <c r="B34" s="253">
-        <v>511</v>
-      </c>
-      <c r="C34" s="253">
-        <v>512</v>
-      </c>
-      <c r="D34" s="253">
-        <v>513</v>
-      </c>
-      <c r="E34" s="253">
-        <v>514</v>
-      </c>
-      <c r="F34" s="253">
-        <v>515</v>
-      </c>
-      <c r="G34" s="253">
-        <v>516</v>
-      </c>
-      <c r="H34" s="253">
-        <v>517</v>
-      </c>
-      <c r="I34" s="253">
-        <v>518</v>
-      </c>
-      <c r="J34" s="253">
-        <v>519</v>
-      </c>
-      <c r="K34" s="253">
-        <v>520</v>
-      </c>
-      <c r="L34" s="253">
-        <v>521</v>
-      </c>
-      <c r="M34" s="253">
-        <v>522</v>
-      </c>
-      <c r="N34" s="187">
+      <c r="B34" s="267"/>
+      <c r="C34" s="267"/>
+      <c r="D34" s="267"/>
+      <c r="E34" s="267"/>
+      <c r="F34" s="267"/>
+      <c r="G34" s="267"/>
+      <c r="H34" s="267"/>
+      <c r="I34" s="267"/>
+      <c r="J34" s="267"/>
+      <c r="K34" s="267"/>
+      <c r="L34" s="267"/>
+      <c r="M34" s="267"/>
+      <c r="N34" s="186">
         <v>12</v>
       </c>
       <c r="O34" s="141"/>
-      <c r="P34" s="195">
+      <c r="P34" s="194">
         <v>363</v>
       </c>
-      <c r="Q34" s="195">
+      <c r="Q34" s="194">
         <v>364</v>
       </c>
-      <c r="R34" s="251" t="s">
-        <v>778</v>
-      </c>
-      <c r="S34" s="201">
+      <c r="R34" s="248" t="s">
+        <v>777</v>
+      </c>
+      <c r="S34" s="200">
         <v>360</v>
       </c>
-      <c r="T34" s="201">
+      <c r="T34" s="200">
         <v>359</v>
       </c>
-      <c r="U34" s="201">
+      <c r="U34" s="200">
         <v>358</v>
       </c>
-      <c r="V34" s="201">
+      <c r="V34" s="200">
         <v>357</v>
       </c>
-      <c r="W34" s="167"/>
-      <c r="X34" s="201">
+      <c r="W34" s="166"/>
+      <c r="X34" s="200">
         <v>357</v>
       </c>
-      <c r="Y34" s="201">
+      <c r="Y34" s="200">
         <v>358</v>
       </c>
-      <c r="Z34" s="201">
+      <c r="Z34" s="200">
         <v>359</v>
       </c>
-      <c r="AA34" s="201">
+      <c r="AA34" s="200">
         <v>360</v>
       </c>
-      <c r="AB34" s="249">
-        <v>361</v>
-      </c>
-      <c r="AC34" s="249">
-        <v>362</v>
-      </c>
-      <c r="AD34" s="249">
-        <v>363</v>
-      </c>
+      <c r="AB34" s="265"/>
+      <c r="AC34" s="265"/>
+      <c r="AD34" s="265"/>
       <c r="AE34" s="115"/>
-      <c r="AF34" s="186">
+      <c r="AF34" s="185">
         <v>12</v>
       </c>
-      <c r="AG34" s="253">
-        <v>522</v>
-      </c>
-      <c r="AH34" s="259">
-        <v>521</v>
-      </c>
-      <c r="AI34" s="253">
-        <v>520</v>
-      </c>
-      <c r="AJ34" s="194">
-        <v>519</v>
-      </c>
-      <c r="AK34" s="253">
-        <v>518</v>
-      </c>
-      <c r="AL34" s="194">
-        <v>517</v>
-      </c>
-      <c r="AM34" s="253">
-        <v>516</v>
-      </c>
-      <c r="AN34" s="194">
-        <v>515</v>
-      </c>
-      <c r="AO34" s="253">
-        <v>514</v>
-      </c>
-      <c r="AP34" s="194">
-        <v>513</v>
-      </c>
-      <c r="AQ34" s="253">
-        <v>512</v>
-      </c>
-      <c r="AR34" s="194">
-        <v>511</v>
-      </c>
-      <c r="AS34" s="182"/>
+      <c r="AG34" s="267"/>
+      <c r="AH34" s="275"/>
+      <c r="AI34" s="267"/>
+      <c r="AJ34" s="276"/>
+      <c r="AK34" s="267"/>
+      <c r="AL34" s="276"/>
+      <c r="AM34" s="267"/>
+      <c r="AN34" s="276"/>
+      <c r="AO34" s="267"/>
+      <c r="AP34" s="276"/>
+      <c r="AQ34" s="267"/>
+      <c r="AR34" s="276"/>
+      <c r="AS34" s="181"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
-      <c r="B35" s="253">
-        <v>523</v>
-      </c>
-      <c r="C35" s="253">
-        <v>524</v>
-      </c>
-      <c r="D35" s="253">
-        <v>525</v>
-      </c>
-      <c r="E35" s="253">
-        <v>526</v>
-      </c>
-      <c r="F35" s="253">
-        <v>527</v>
-      </c>
-      <c r="G35" s="253">
-        <v>528</v>
-      </c>
-      <c r="H35" s="253">
-        <v>529</v>
-      </c>
-      <c r="I35" s="253">
-        <v>530</v>
-      </c>
-      <c r="J35" s="253">
-        <v>531</v>
-      </c>
-      <c r="K35" s="253">
-        <v>532</v>
-      </c>
-      <c r="L35" s="253">
-        <v>533</v>
-      </c>
-      <c r="M35" s="253">
-        <v>534</v>
-      </c>
-      <c r="N35" s="187">
-        <v>13</v>
-      </c>
-      <c r="O35" s="141"/>
-      <c r="P35" s="249">
-        <v>370</v>
-      </c>
-      <c r="Q35" s="249">
-        <v>369</v>
-      </c>
-      <c r="R35" s="249">
-        <v>368</v>
-      </c>
-      <c r="S35" s="249">
-        <v>367</v>
-      </c>
-      <c r="T35" s="253">
-        <v>366</v>
-      </c>
-      <c r="U35" s="253">
-        <v>365</v>
-      </c>
-      <c r="V35" s="253">
-        <v>364</v>
-      </c>
-      <c r="W35" s="167"/>
-      <c r="X35" s="253">
-        <v>364</v>
-      </c>
-      <c r="Y35" s="253">
-        <v>365</v>
-      </c>
-      <c r="Z35" s="253">
-        <v>366</v>
-      </c>
-      <c r="AA35" s="253">
-        <v>367</v>
-      </c>
-      <c r="AB35" s="253">
-        <v>368</v>
-      </c>
-      <c r="AC35" s="253">
-        <v>369</v>
-      </c>
-      <c r="AD35" s="253">
-        <v>370</v>
-      </c>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="186">
-        <v>13</v>
-      </c>
-      <c r="AG35" s="253">
-        <v>534</v>
-      </c>
-      <c r="AH35" s="259">
-        <v>533</v>
-      </c>
-      <c r="AI35" s="253">
-        <v>532</v>
-      </c>
-      <c r="AJ35" s="194">
-        <v>531</v>
-      </c>
-      <c r="AK35" s="253">
-        <v>530</v>
-      </c>
-      <c r="AL35" s="194">
-        <v>529</v>
-      </c>
-      <c r="AM35" s="253">
-        <v>528</v>
-      </c>
-      <c r="AN35" s="194">
-        <v>527</v>
-      </c>
-      <c r="AO35" s="253">
-        <v>526</v>
-      </c>
-      <c r="AP35" s="194">
-        <v>525</v>
-      </c>
-      <c r="AQ35" s="253">
-        <v>524</v>
-      </c>
-      <c r="AR35" s="194">
-        <v>523</v>
-      </c>
-      <c r="AS35" s="182"/>
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="267"/>
+      <c r="I35" s="267"/>
+      <c r="J35" s="267"/>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="267"/>
+      <c r="N35" s="270"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="265"/>
+      <c r="Q35" s="265"/>
+      <c r="R35" s="265"/>
+      <c r="S35" s="265"/>
+      <c r="T35" s="267"/>
+      <c r="U35" s="267"/>
+      <c r="V35" s="267"/>
+      <c r="W35" s="272"/>
+      <c r="X35" s="267"/>
+      <c r="Y35" s="267"/>
+      <c r="Z35" s="267"/>
+      <c r="AA35" s="267"/>
+      <c r="AB35" s="267"/>
+      <c r="AC35" s="267"/>
+      <c r="AD35" s="267"/>
+      <c r="AE35" s="273"/>
+      <c r="AF35" s="274"/>
+      <c r="AG35" s="267"/>
+      <c r="AH35" s="275"/>
+      <c r="AI35" s="267"/>
+      <c r="AJ35" s="276"/>
+      <c r="AK35" s="267"/>
+      <c r="AL35" s="276"/>
+      <c r="AM35" s="267"/>
+      <c r="AN35" s="276"/>
+      <c r="AO35" s="267"/>
+      <c r="AP35" s="276"/>
+      <c r="AQ35" s="267"/>
+      <c r="AR35" s="276"/>
+      <c r="AS35" s="181"/>
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
-      <c r="B36" s="253">
-        <v>535</v>
-      </c>
-      <c r="C36" s="253">
-        <v>536</v>
-      </c>
-      <c r="D36" s="253">
-        <v>537</v>
-      </c>
-      <c r="E36" s="253">
-        <v>538</v>
-      </c>
-      <c r="F36" s="253">
-        <v>539</v>
-      </c>
-      <c r="G36" s="253">
-        <v>540</v>
-      </c>
-      <c r="H36" s="253">
-        <v>541</v>
-      </c>
-      <c r="I36" s="253">
-        <v>542</v>
-      </c>
-      <c r="J36" s="253">
-        <v>543</v>
-      </c>
-      <c r="K36" s="253">
-        <v>544</v>
-      </c>
-      <c r="L36" s="253">
-        <v>545</v>
-      </c>
-      <c r="M36" s="253">
-        <v>546</v>
-      </c>
-      <c r="N36" s="187">
-        <v>14</v>
-      </c>
-      <c r="O36" s="260"/>
-      <c r="P36" s="253">
-        <v>377</v>
-      </c>
-      <c r="Q36" s="253">
-        <v>376</v>
-      </c>
-      <c r="R36" s="253">
-        <v>375</v>
-      </c>
-      <c r="S36" s="253">
-        <v>374</v>
-      </c>
-      <c r="T36" s="253">
-        <v>373</v>
-      </c>
-      <c r="U36" s="253">
-        <v>372</v>
-      </c>
-      <c r="V36" s="253">
-        <v>371</v>
-      </c>
-      <c r="W36" s="167"/>
-      <c r="X36" s="249">
-        <v>371</v>
-      </c>
-      <c r="Y36" s="249">
-        <v>372</v>
-      </c>
-      <c r="Z36" s="249">
-        <v>373</v>
-      </c>
-      <c r="AA36" s="249">
-        <v>374</v>
-      </c>
-      <c r="AB36" s="249">
-        <v>375</v>
-      </c>
-      <c r="AC36" s="249">
-        <v>376</v>
-      </c>
-      <c r="AD36" s="249">
-        <v>377</v>
-      </c>
-      <c r="AE36" s="115"/>
-      <c r="AF36" s="186">
-        <v>14</v>
-      </c>
-      <c r="AG36" s="194">
-        <v>545</v>
-      </c>
-      <c r="AH36" s="194">
-        <v>544</v>
-      </c>
-      <c r="AI36" s="194">
-        <v>543</v>
-      </c>
-      <c r="AJ36" s="194">
-        <v>542</v>
-      </c>
-      <c r="AK36" s="194">
-        <v>541</v>
-      </c>
-      <c r="AL36" s="194">
-        <v>540</v>
-      </c>
-      <c r="AM36" s="194">
-        <v>539</v>
-      </c>
-      <c r="AN36" s="194">
-        <v>538</v>
-      </c>
-      <c r="AO36" s="194">
-        <v>537</v>
-      </c>
-      <c r="AP36" s="194">
-        <v>536</v>
-      </c>
-      <c r="AQ36" s="194">
-        <v>535</v>
-      </c>
-      <c r="AR36" s="119"/>
-      <c r="AS36" s="182"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="267"/>
+      <c r="I36" s="267"/>
+      <c r="J36" s="267"/>
+      <c r="K36" s="267"/>
+      <c r="L36" s="267"/>
+      <c r="M36" s="267"/>
+      <c r="N36" s="270"/>
+      <c r="O36" s="251"/>
+      <c r="P36" s="267"/>
+      <c r="Q36" s="267"/>
+      <c r="R36" s="267"/>
+      <c r="S36" s="267"/>
+      <c r="T36" s="267"/>
+      <c r="U36" s="267"/>
+      <c r="V36" s="267"/>
+      <c r="W36" s="272"/>
+      <c r="X36" s="265"/>
+      <c r="Y36" s="265"/>
+      <c r="Z36" s="265"/>
+      <c r="AA36" s="265"/>
+      <c r="AB36" s="265"/>
+      <c r="AC36" s="265"/>
+      <c r="AD36" s="265"/>
+      <c r="AE36" s="273"/>
+      <c r="AF36" s="274"/>
+      <c r="AG36" s="276"/>
+      <c r="AH36" s="276"/>
+      <c r="AI36" s="276"/>
+      <c r="AJ36" s="276"/>
+      <c r="AK36" s="276"/>
+      <c r="AL36" s="276"/>
+      <c r="AM36" s="276"/>
+      <c r="AN36" s="276"/>
+      <c r="AO36" s="276"/>
+      <c r="AP36" s="276"/>
+      <c r="AQ36" s="276"/>
+      <c r="AR36" s="276"/>
+      <c r="AS36" s="181"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
-      <c r="B37" s="253">
-        <v>547</v>
-      </c>
-      <c r="C37" s="253">
-        <v>548</v>
-      </c>
-      <c r="D37" s="253">
-        <v>549</v>
-      </c>
-      <c r="E37" s="253">
-        <v>550</v>
-      </c>
-      <c r="F37" s="253">
-        <v>551</v>
-      </c>
-      <c r="G37" s="253">
-        <v>552</v>
-      </c>
-      <c r="H37" s="253">
-        <v>553</v>
-      </c>
-      <c r="I37" s="253">
-        <v>554</v>
-      </c>
-      <c r="J37" s="253">
-        <v>555</v>
-      </c>
-      <c r="K37" s="253">
-        <v>556</v>
-      </c>
-      <c r="L37" s="253">
-        <v>557</v>
-      </c>
-      <c r="M37" s="253">
-        <v>558</v>
-      </c>
-      <c r="N37" s="187">
-        <v>15</v>
-      </c>
-      <c r="O37" s="141"/>
-      <c r="P37" s="249">
-        <v>384</v>
-      </c>
-      <c r="Q37" s="249">
-        <v>383</v>
-      </c>
-      <c r="R37" s="249">
-        <v>382</v>
-      </c>
-      <c r="S37" s="249">
-        <v>381</v>
-      </c>
-      <c r="T37" s="249">
-        <v>380</v>
-      </c>
-      <c r="U37" s="249">
-        <v>379</v>
-      </c>
-      <c r="V37" s="249">
-        <v>378</v>
-      </c>
-      <c r="W37" s="167"/>
-      <c r="X37" s="249">
-        <v>378</v>
-      </c>
-      <c r="Y37" s="249">
-        <v>379</v>
-      </c>
-      <c r="Z37" s="249">
-        <v>380</v>
-      </c>
-      <c r="AA37" s="249">
-        <v>381</v>
-      </c>
-      <c r="AB37" s="249">
-        <v>382</v>
-      </c>
-      <c r="AC37" s="249">
-        <v>383</v>
-      </c>
-      <c r="AD37" s="253">
-        <v>384</v>
-      </c>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="186">
-        <v>15</v>
-      </c>
-      <c r="AG37" s="202"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="202"/>
-      <c r="AJ37" s="188"/>
-      <c r="AK37" s="202"/>
-      <c r="AL37" s="188"/>
-      <c r="AM37" s="202"/>
-      <c r="AN37" s="188"/>
-      <c r="AO37" s="202"/>
-      <c r="AP37" s="188"/>
-      <c r="AQ37" s="202"/>
-      <c r="AR37" s="188"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="267"/>
+      <c r="D37" s="267"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="267"/>
+      <c r="G37" s="267"/>
+      <c r="H37" s="267"/>
+      <c r="I37" s="267"/>
+      <c r="J37" s="267"/>
+      <c r="K37" s="267"/>
+      <c r="L37" s="267"/>
+      <c r="M37" s="267"/>
+      <c r="N37" s="270"/>
+      <c r="O37" s="271"/>
+      <c r="P37" s="265"/>
+      <c r="Q37" s="265"/>
+      <c r="R37" s="265"/>
+      <c r="S37" s="265"/>
+      <c r="T37" s="265"/>
+      <c r="U37" s="265"/>
+      <c r="V37" s="265"/>
+      <c r="W37" s="272"/>
+      <c r="X37" s="265"/>
+      <c r="Y37" s="265"/>
+      <c r="Z37" s="265"/>
+      <c r="AA37" s="265"/>
+      <c r="AB37" s="265"/>
+      <c r="AC37" s="265"/>
+      <c r="AD37" s="267"/>
+      <c r="AE37" s="273"/>
+      <c r="AF37" s="274"/>
+      <c r="AG37" s="267"/>
+      <c r="AH37" s="277"/>
+      <c r="AI37" s="267"/>
+      <c r="AJ37" s="278"/>
+      <c r="AK37" s="267"/>
+      <c r="AL37" s="278"/>
+      <c r="AM37" s="267"/>
+      <c r="AN37" s="278"/>
+      <c r="AO37" s="267"/>
+      <c r="AP37" s="278"/>
+      <c r="AQ37" s="267"/>
+      <c r="AR37" s="278"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
@@ -8327,16 +7573,16 @@
       <c r="M38" s="115"/>
       <c r="N38" s="140"/>
       <c r="O38" s="141"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="166"/>
-      <c r="R38" s="166"/>
-      <c r="S38" s="166"/>
-      <c r="T38" s="166"/>
-      <c r="U38" s="166"/>
-      <c r="V38" s="168"/>
-      <c r="W38" s="167"/>
-      <c r="X38" s="164"/>
-      <c r="Y38" s="164"/>
+      <c r="P38" s="165"/>
+      <c r="Q38" s="165"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="165"/>
+      <c r="T38" s="165"/>
+      <c r="U38" s="165"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="163"/>
+      <c r="Y38" s="163"/>
       <c r="Z38" s="115"/>
       <c r="AA38" s="115"/>
       <c r="AB38" s="115"/>
@@ -8372,16 +7618,16 @@
       <c r="M39" s="115"/>
       <c r="N39" s="140"/>
       <c r="O39" s="141"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
-      <c r="S39" s="166"/>
-      <c r="T39" s="166"/>
-      <c r="U39" s="166"/>
-      <c r="V39" s="168"/>
-      <c r="W39" s="167"/>
-      <c r="X39" s="164"/>
-      <c r="Y39" s="164"/>
+      <c r="P39" s="165"/>
+      <c r="Q39" s="165"/>
+      <c r="R39" s="165"/>
+      <c r="S39" s="165"/>
+      <c r="T39" s="165"/>
+      <c r="U39" s="165"/>
+      <c r="V39" s="167"/>
+      <c r="W39" s="166"/>
+      <c r="X39" s="163"/>
+      <c r="Y39" s="163"/>
       <c r="Z39" s="115"/>
       <c r="AA39" s="115"/>
       <c r="AB39" s="115"/>
@@ -8417,16 +7663,16 @@
       <c r="M40" s="115"/>
       <c r="N40" s="140"/>
       <c r="O40" s="141"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
-      <c r="R40" s="166"/>
-      <c r="S40" s="166"/>
-      <c r="T40" s="166"/>
-      <c r="U40" s="166"/>
-      <c r="V40" s="168"/>
-      <c r="W40" s="167"/>
-      <c r="X40" s="164"/>
-      <c r="Y40" s="164"/>
+      <c r="P40" s="165"/>
+      <c r="Q40" s="165"/>
+      <c r="R40" s="165"/>
+      <c r="S40" s="165"/>
+      <c r="T40" s="165"/>
+      <c r="U40" s="165"/>
+      <c r="V40" s="167"/>
+      <c r="W40" s="166"/>
+      <c r="X40" s="163"/>
+      <c r="Y40" s="163"/>
       <c r="Z40" s="115"/>
       <c r="AA40" s="115"/>
       <c r="AB40" s="115"/>
@@ -8462,16 +7708,16 @@
       <c r="M41" s="115"/>
       <c r="N41" s="140"/>
       <c r="O41" s="141"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
-      <c r="T41" s="166"/>
-      <c r="U41" s="166"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="167"/>
-      <c r="X41" s="164"/>
-      <c r="Y41" s="164"/>
+      <c r="P41" s="165"/>
+      <c r="Q41" s="165"/>
+      <c r="R41" s="165"/>
+      <c r="S41" s="165"/>
+      <c r="T41" s="165"/>
+      <c r="U41" s="165"/>
+      <c r="V41" s="167"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="163"/>
+      <c r="Y41" s="163"/>
       <c r="Z41" s="115"/>
       <c r="AA41" s="115"/>
       <c r="AB41" s="115"/>
@@ -8507,16 +7753,16 @@
       <c r="M42" s="115"/>
       <c r="N42" s="140"/>
       <c r="O42" s="141"/>
-      <c r="P42" s="166"/>
-      <c r="Q42" s="166"/>
-      <c r="R42" s="166"/>
-      <c r="S42" s="166"/>
-      <c r="T42" s="166"/>
-      <c r="U42" s="166"/>
-      <c r="V42" s="168"/>
-      <c r="W42" s="167"/>
-      <c r="X42" s="164"/>
-      <c r="Y42" s="164"/>
+      <c r="P42" s="165"/>
+      <c r="Q42" s="165"/>
+      <c r="R42" s="165"/>
+      <c r="S42" s="165"/>
+      <c r="T42" s="165"/>
+      <c r="U42" s="165"/>
+      <c r="V42" s="167"/>
+      <c r="W42" s="166"/>
+      <c r="X42" s="163"/>
+      <c r="Y42" s="163"/>
       <c r="Z42" s="115"/>
       <c r="AA42" s="115"/>
       <c r="AB42" s="115"/>
@@ -8552,16 +7798,16 @@
       <c r="M43" s="115"/>
       <c r="N43" s="140"/>
       <c r="O43" s="141"/>
-      <c r="P43" s="166"/>
-      <c r="Q43" s="166"/>
-      <c r="R43" s="166"/>
-      <c r="S43" s="166"/>
-      <c r="T43" s="166"/>
-      <c r="U43" s="166"/>
-      <c r="V43" s="168"/>
-      <c r="W43" s="167"/>
-      <c r="X43" s="164"/>
-      <c r="Y43" s="164"/>
+      <c r="P43" s="165"/>
+      <c r="Q43" s="165"/>
+      <c r="R43" s="165"/>
+      <c r="S43" s="165"/>
+      <c r="T43" s="165"/>
+      <c r="U43" s="165"/>
+      <c r="V43" s="167"/>
+      <c r="W43" s="166"/>
+      <c r="X43" s="163"/>
+      <c r="Y43" s="163"/>
       <c r="Z43" s="115"/>
       <c r="AA43" s="115"/>
       <c r="AB43" s="115"/>
@@ -8589,7 +7835,7 @@
       <c r="E44" s="115"/>
       <c r="F44" s="115"/>
       <c r="G44" s="115"/>
-      <c r="H44" s="161"/>
+      <c r="H44" s="160"/>
       <c r="I44" s="115"/>
       <c r="J44" s="115"/>
       <c r="K44" s="115"/>
@@ -8597,16 +7843,16 @@
       <c r="M44" s="115"/>
       <c r="N44" s="140"/>
       <c r="O44" s="140"/>
-      <c r="P44" s="167"/>
-      <c r="Q44" s="167"/>
-      <c r="R44" s="167"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="169"/>
-      <c r="W44" s="167"/>
-      <c r="X44" s="165"/>
-      <c r="Y44" s="165"/>
+      <c r="P44" s="166"/>
+      <c r="Q44" s="166"/>
+      <c r="R44" s="166"/>
+      <c r="S44" s="165"/>
+      <c r="T44" s="165"/>
+      <c r="U44" s="165"/>
+      <c r="V44" s="168"/>
+      <c r="W44" s="166"/>
+      <c r="X44" s="164"/>
+      <c r="Y44" s="164"/>
       <c r="Z44" s="143"/>
       <c r="AA44" s="143"/>
       <c r="AB44" s="143"/>
@@ -8627,18 +7873,18 @@
       <c r="AQ44" s="115"/>
     </row>
     <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
-      <c r="M45" s="171"/>
-      <c r="Q45" s="174"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="Q45" s="173"/>
       <c r="R45" s="143"/>
       <c r="S45" s="143"/>
       <c r="T45" s="143"/>
@@ -8667,12 +7913,12 @@
       <c r="AQ45" s="115"/>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
-      <c r="M46" s="171"/>
-      <c r="Q46" s="174"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
+      <c r="Q46" s="173"/>
       <c r="R46" s="143"/>
       <c r="S46" s="143"/>
       <c r="T46" s="139"/>
@@ -8701,16 +7947,16 @@
       <c r="AQ46" s="115"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="171"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
       <c r="Q47" s="143"/>
       <c r="R47" s="143"/>
       <c r="S47" s="143"/>
@@ -8737,55 +7983,55 @@
       <c r="AQ47" s="115"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="227" t="s">
-        <v>759</v>
-      </c>
-      <c r="B48" s="233"/>
-      <c r="C48" s="228"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="228"/>
-      <c r="H48" s="228"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="177"/>
-      <c r="M48" s="177"/>
-      <c r="N48" s="235" t="s">
-        <v>759</v>
-      </c>
-      <c r="O48" s="207">
+      <c r="A48" s="225" t="s">
+        <v>758</v>
+      </c>
+      <c r="B48" s="231"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="226"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
+      <c r="L48" s="176"/>
+      <c r="M48" s="176"/>
+      <c r="N48" s="233" t="s">
+        <v>758</v>
+      </c>
+      <c r="O48" s="205">
         <v>6</v>
       </c>
-      <c r="P48" s="218" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q48" s="236"/>
-      <c r="R48" s="237"/>
-      <c r="S48" s="238"/>
-      <c r="T48" s="238"/>
-      <c r="U48" s="238"/>
+      <c r="P48" s="216" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q48" s="234"/>
+      <c r="R48" s="235"/>
+      <c r="S48" s="236"/>
+      <c r="T48" s="236"/>
+      <c r="U48" s="236"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
-      <c r="AA48" s="234" t="s">
-        <v>759</v>
-      </c>
-      <c r="AB48" s="219">
+      <c r="AA48" s="232" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB48" s="217">
         <v>1</v>
       </c>
-      <c r="AC48" s="218" t="s">
-        <v>770</v>
-      </c>
-      <c r="AD48" s="238"/>
-      <c r="AE48" s="238"/>
-      <c r="AF48" s="238"/>
-      <c r="AG48" s="238"/>
-      <c r="AH48" s="217"/>
-      <c r="AI48" s="217"/>
+      <c r="AC48" s="216" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD48" s="236"/>
+      <c r="AE48" s="236"/>
+      <c r="AF48" s="236"/>
+      <c r="AG48" s="236"/>
+      <c r="AH48" s="215"/>
+      <c r="AI48" s="215"/>
       <c r="AJ48" s="115"/>
       <c r="AK48" s="115"/>
       <c r="AL48" s="115"/>
@@ -8796,52 +8042,52 @@
       <c r="AQ48" s="115"/>
     </row>
     <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="224" t="s">
-        <v>760</v>
-      </c>
-      <c r="B49" s="206">
+      <c r="A49" s="222" t="s">
+        <v>759</v>
+      </c>
+      <c r="B49" s="204">
         <v>120</v>
       </c>
-      <c r="C49" s="231" t="s">
+      <c r="C49" s="229" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="232"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="232"/>
-      <c r="H49" s="232"/>
-      <c r="I49" s="177"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="177"/>
-      <c r="M49" s="177"/>
-      <c r="N49" s="223" t="s">
-        <v>760</v>
-      </c>
-      <c r="O49" s="245">
+      <c r="D49" s="230"/>
+      <c r="E49" s="230"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="176"/>
+      <c r="K49" s="176"/>
+      <c r="L49" s="176"/>
+      <c r="M49" s="176"/>
+      <c r="N49" s="221" t="s">
+        <v>759</v>
+      </c>
+      <c r="O49" s="243">
         <v>1</v>
       </c>
-      <c r="P49" s="214" t="s">
-        <v>767</v>
+      <c r="P49" s="212" t="s">
+        <v>766</v>
       </c>
       <c r="Q49" s="142"/>
       <c r="R49" s="139"/>
-      <c r="S49" s="176"/>
-      <c r="T49" s="176"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
       <c r="U49" s="143"/>
       <c r="V49" s="143"/>
       <c r="W49" s="143"/>
       <c r="X49" s="143"/>
       <c r="Y49" s="143"/>
       <c r="Z49" s="115"/>
-      <c r="AA49" s="211" t="s">
-        <v>760</v>
-      </c>
-      <c r="AB49" s="213">
+      <c r="AA49" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="AB49" s="211">
         <v>66</v>
       </c>
-      <c r="AC49" s="214" t="s">
-        <v>765</v>
+      <c r="AC49" s="212" t="s">
+        <v>764</v>
       </c>
       <c r="AD49" s="143"/>
       <c r="AE49" s="143"/>
@@ -8859,29 +8105,29 @@
       <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="226" t="s">
+      <c r="A50" s="224" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="233"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
-      <c r="M50" s="171"/>
-      <c r="N50" s="223" t="s">
-        <v>761</v>
-      </c>
-      <c r="O50" s="216">
+      <c r="B50" s="231"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="202"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="170"/>
+      <c r="N50" s="221" t="s">
+        <v>760</v>
+      </c>
+      <c r="O50" s="214">
         <v>6</v>
       </c>
-      <c r="P50" s="214" t="s">
-        <v>768</v>
+      <c r="P50" s="212" t="s">
+        <v>767</v>
       </c>
       <c r="Q50" s="143"/>
       <c r="R50" s="143"/>
@@ -8893,21 +8139,21 @@
       <c r="X50" s="143"/>
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="239" t="s">
-        <v>764</v>
-      </c>
-      <c r="AB50" s="252">
+      <c r="AA50" s="237" t="s">
+        <v>763</v>
+      </c>
+      <c r="AB50" s="249">
         <v>9</v>
       </c>
-      <c r="AC50" s="215" t="s">
-        <v>771</v>
-      </c>
-      <c r="AD50" s="175"/>
-      <c r="AE50" s="175"/>
-      <c r="AF50" s="175"/>
-      <c r="AG50" s="175"/>
-      <c r="AH50" s="210"/>
-      <c r="AI50" s="210"/>
+      <c r="AC50" s="213" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD50" s="174"/>
+      <c r="AE50" s="174"/>
+      <c r="AF50" s="174"/>
+      <c r="AG50" s="174"/>
+      <c r="AH50" s="208"/>
+      <c r="AI50" s="208"/>
       <c r="AJ50" s="115"/>
       <c r="AK50" s="115"/>
       <c r="AL50" s="115"/>
@@ -8918,24 +8164,24 @@
       <c r="AQ50" s="115"/>
     </row>
     <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="229" t="s">
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="227" t="s">
         <v>756</v>
       </c>
-      <c r="O51" s="208">
+      <c r="O51" s="206">
         <v>10</v>
       </c>
-      <c r="P51" s="230" t="s">
-        <v>769</v>
+      <c r="P51" s="228" t="s">
+        <v>768</v>
       </c>
       <c r="Q51" s="143"/>
       <c r="R51" s="143"/>
@@ -8963,28 +8209,28 @@
       <c r="AQ51" s="115"/>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="214"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="171"/>
-      <c r="N52" s="205"/>
-      <c r="O52" s="212">
+      <c r="D52" s="212"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
+      <c r="M52" s="170"/>
+      <c r="N52" s="203"/>
+      <c r="O52" s="210">
         <v>500</v>
       </c>
-      <c r="P52" s="215" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q52" s="175"/>
-      <c r="R52" s="175"/>
-      <c r="S52" s="175"/>
-      <c r="T52" s="175"/>
-      <c r="U52" s="175"/>
+      <c r="P52" s="213" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="174"/>
+      <c r="S52" s="174"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="174"/>
       <c r="V52" s="143"/>
       <c r="W52" s="143"/>
       <c r="X52" s="143"/>
@@ -9009,16 +8255,16 @@
       <c r="AQ52" s="115"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="170"/>
       <c r="N53" s="143"/>
       <c r="O53" s="143"/>
       <c r="P53" s="143"/>
@@ -9051,19 +8297,19 @@
       <c r="AQ53" s="115"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A54" s="214"/>
-      <c r="B54" s="214"/>
-      <c r="C54" s="214"/>
-      <c r="D54" s="214"/>
-      <c r="E54" s="214"/>
-      <c r="F54" s="214"/>
-      <c r="G54" s="214"/>
-      <c r="H54" s="214"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="171"/>
+      <c r="A54" s="212"/>
+      <c r="B54" s="212"/>
+      <c r="C54" s="212"/>
+      <c r="D54" s="212"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="212"/>
+      <c r="G54" s="212"/>
+      <c r="H54" s="212"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="170"/>
       <c r="N54" s="143"/>
       <c r="O54" s="143"/>
       <c r="P54" s="143"/>
@@ -9078,7 +8324,7 @@
       <c r="Y54" s="143"/>
       <c r="Z54" s="143"/>
       <c r="AA54" s="143"/>
-      <c r="AB54" s="221"/>
+      <c r="AB54" s="219"/>
       <c r="AC54" s="143"/>
       <c r="AD54" s="143"/>
       <c r="AE54" s="115"/>
@@ -9096,20 +8342,20 @@
       <c r="AQ54" s="115"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B55" s="196"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="171"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="170"/>
       <c r="N55" s="115"/>
-      <c r="O55" s="209">
+      <c r="O55" s="207">
         <v>3</v>
       </c>
       <c r="P55" s="143"/>
@@ -9124,7 +8370,7 @@
       <c r="Y55" s="143"/>
       <c r="Z55" s="143"/>
       <c r="AA55" s="143"/>
-      <c r="AB55" s="220"/>
+      <c r="AB55" s="218"/>
       <c r="AC55" s="143"/>
       <c r="AD55" s="143"/>
       <c r="AE55" s="115"/>
@@ -9142,50 +8388,50 @@
       <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A56" s="270">
+      <c r="A56" s="262">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="270"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="270"/>
-      <c r="E56" s="270"/>
-      <c r="F56" s="270"/>
-      <c r="G56" s="270"/>
-      <c r="H56" s="270"/>
-      <c r="I56" s="270"/>
-      <c r="J56" s="270"/>
-      <c r="K56" s="270"/>
-      <c r="L56" s="270"/>
-      <c r="M56" s="270"/>
-      <c r="N56" s="270"/>
-      <c r="O56" s="271"/>
-      <c r="P56" s="270"/>
-      <c r="Q56" s="270"/>
-      <c r="R56" s="270"/>
-      <c r="S56" s="270"/>
-      <c r="T56" s="270"/>
-      <c r="U56" s="270"/>
-      <c r="V56" s="270"/>
-      <c r="W56" s="270"/>
-      <c r="X56" s="270"/>
-      <c r="Y56" s="270"/>
-      <c r="Z56" s="270"/>
-      <c r="AA56" s="270"/>
-      <c r="AB56" s="271"/>
-      <c r="AC56" s="270"/>
-      <c r="AD56" s="270"/>
-      <c r="AE56" s="270"/>
-      <c r="AF56" s="270"/>
-      <c r="AG56" s="270"/>
-      <c r="AH56" s="270"/>
-      <c r="AI56" s="270"/>
-      <c r="AJ56" s="270"/>
-      <c r="AK56" s="270"/>
+      <c r="B56" s="262"/>
+      <c r="C56" s="262"/>
+      <c r="D56" s="262"/>
+      <c r="E56" s="262"/>
+      <c r="F56" s="262"/>
+      <c r="G56" s="262"/>
+      <c r="H56" s="262"/>
+      <c r="I56" s="262"/>
+      <c r="J56" s="262"/>
+      <c r="K56" s="262"/>
+      <c r="L56" s="262"/>
+      <c r="M56" s="262"/>
+      <c r="N56" s="262"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="262"/>
+      <c r="Q56" s="262"/>
+      <c r="R56" s="262"/>
+      <c r="S56" s="262"/>
+      <c r="T56" s="262"/>
+      <c r="U56" s="262"/>
+      <c r="V56" s="262"/>
+      <c r="W56" s="262"/>
+      <c r="X56" s="262"/>
+      <c r="Y56" s="262"/>
+      <c r="Z56" s="262"/>
+      <c r="AA56" s="262"/>
+      <c r="AB56" s="263"/>
+      <c r="AC56" s="262"/>
+      <c r="AD56" s="262"/>
+      <c r="AE56" s="262"/>
+      <c r="AF56" s="262"/>
+      <c r="AG56" s="262"/>
+      <c r="AH56" s="262"/>
+      <c r="AI56" s="262"/>
+      <c r="AJ56" s="262"/>
+      <c r="AK56" s="262"/>
     </row>
     <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H58" s="269"/>
-      <c r="I58" s="269"/>
+      <c r="H58" s="261"/>
+      <c r="I58" s="261"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA60" s="13"/>
@@ -9203,8 +8449,8 @@
       <c r="AJ66" s="131"/>
     </row>
     <row r="67" spans="13:36" x14ac:dyDescent="0.2">
-      <c r="AI67" s="263"/>
-      <c r="AJ67" s="263"/>
+      <c r="AI67" s="255"/>
+      <c r="AJ67" s="255"/>
     </row>
     <row r="68" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI68" s="113"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B696890F-3D2C-4647-A066-5D317553E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5F43F-299A-407C-A7F2-25773C6D4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3073,17 +3073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3110,6 +3099,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -3516,9 +3518,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3540,7 +3539,7 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,13 +3590,10 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3677,9 +3673,6 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3689,34 +3682,7 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3756,6 +3722,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4113,7 +4115,7 @@
   <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4129,49 +4131,49 @@
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="270" t="s">
         <v>762</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="257"/>
-      <c r="AE1" s="257"/>
-      <c r="AF1" s="257"/>
-      <c r="AG1" s="257"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="257"/>
-      <c r="AJ1" s="257"/>
-      <c r="AK1" s="257"/>
-      <c r="AL1" s="257"/>
-      <c r="AM1" s="257"/>
-      <c r="AN1" s="257"/>
-      <c r="AO1" s="257"/>
-      <c r="AP1" s="257"/>
-      <c r="AQ1" s="258"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="271"/>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
+      <c r="Z1" s="271"/>
+      <c r="AA1" s="271"/>
+      <c r="AB1" s="271"/>
+      <c r="AC1" s="271"/>
+      <c r="AD1" s="271"/>
+      <c r="AE1" s="271"/>
+      <c r="AF1" s="271"/>
+      <c r="AG1" s="271"/>
+      <c r="AH1" s="271"/>
+      <c r="AI1" s="271"/>
+      <c r="AJ1" s="271"/>
+      <c r="AK1" s="271"/>
+      <c r="AL1" s="271"/>
+      <c r="AM1" s="271"/>
+      <c r="AN1" s="271"/>
+      <c r="AO1" s="271"/>
+      <c r="AP1" s="271"/>
+      <c r="AQ1" s="272"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="178"/>
     </row>
@@ -4180,45 +4182,45 @@
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="259"/>
-      <c r="AA2" s="259"/>
-      <c r="AB2" s="259"/>
-      <c r="AC2" s="259"/>
-      <c r="AD2" s="259"/>
-      <c r="AE2" s="259"/>
-      <c r="AF2" s="259"/>
-      <c r="AG2" s="259"/>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="259"/>
-      <c r="AJ2" s="259"/>
-      <c r="AK2" s="259"/>
-      <c r="AL2" s="259"/>
-      <c r="AM2" s="259"/>
-      <c r="AN2" s="259"/>
-      <c r="AO2" s="259"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="273"/>
+      <c r="T2" s="273"/>
+      <c r="U2" s="273"/>
+      <c r="V2" s="273"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="273"/>
+      <c r="Y2" s="273"/>
+      <c r="Z2" s="273"/>
+      <c r="AA2" s="273"/>
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="273"/>
+      <c r="AD2" s="273"/>
+      <c r="AE2" s="273"/>
+      <c r="AF2" s="273"/>
+      <c r="AG2" s="273"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="273"/>
+      <c r="AJ2" s="273"/>
+      <c r="AK2" s="273"/>
+      <c r="AL2" s="273"/>
+      <c r="AM2" s="273"/>
+      <c r="AN2" s="273"/>
+      <c r="AO2" s="273"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
@@ -4504,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="123"/>
-      <c r="C7" s="238" t="s">
+      <c r="C7" s="236" t="s">
         <v>771</v>
       </c>
       <c r="D7" s="190" t="s">
@@ -4534,13 +4536,13 @@
       <c r="L7" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="198" t="s">
+      <c r="M7" s="197" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="198" t="s">
+      <c r="O7" s="197" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="190" t="s">
@@ -4886,10 +4888,12 @@
       <c r="AP9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="190" t="s">
+      <c r="AQ9" s="278" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="123"/>
+      <c r="AR9" s="279" t="s">
+        <v>761</v>
+      </c>
       <c r="AS9" s="51">
         <v>3</v>
       </c>
@@ -4900,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="239" t="s">
+      <c r="C10" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="240" t="s">
+      <c r="D10" s="238" t="s">
         <v>772</v>
       </c>
       <c r="E10" s="191" t="s">
@@ -4921,59 +4925,59 @@
       <c r="I10" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="242" t="s">
+      <c r="J10" s="240" t="s">
         <v>773</v>
       </c>
-      <c r="K10" s="241" t="s">
+      <c r="K10" s="239" t="s">
         <v>774</v>
       </c>
-      <c r="L10" s="199" t="s">
+      <c r="L10" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="199" t="s">
+      <c r="M10" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="199" t="s">
+      <c r="N10" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="199" t="s">
+      <c r="O10" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="199" t="s">
+      <c r="P10" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="245" t="s">
+      <c r="Q10" s="243" t="s">
         <v>775</v>
       </c>
-      <c r="R10" s="244" t="s">
+      <c r="R10" s="242" t="s">
         <v>100</v>
       </c>
-      <c r="S10" s="244" t="s">
+      <c r="S10" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="244" t="s">
+      <c r="T10" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="244" t="s">
+      <c r="U10" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="244" t="s">
+      <c r="V10" s="242" t="s">
         <v>58</v>
       </c>
       <c r="W10" s="137"/>
-      <c r="X10" s="244" t="s">
+      <c r="X10" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="244" t="s">
+      <c r="Y10" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="244" t="s">
+      <c r="Z10" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="244" t="s">
+      <c r="AA10" s="242" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="246" t="s">
+      <c r="AB10" s="244" t="s">
         <v>145</v>
       </c>
       <c r="AC10" s="192" t="s">
@@ -5155,7 +5159,7 @@
       <c r="AQ11" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="AR11" s="196" t="s">
+      <c r="AR11" s="195" t="s">
         <v>537</v>
       </c>
       <c r="AS11" s="51">
@@ -5167,7 +5171,7 @@
       <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="252"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="192">
         <v>120</v>
       </c>
@@ -5431,9 +5435,7 @@
       <c r="A14" s="133">
         <v>8</v>
       </c>
-      <c r="B14" s="220" t="s">
-        <v>761</v>
-      </c>
+      <c r="B14" s="119"/>
       <c r="C14" s="192">
         <v>160</v>
       </c>
@@ -6080,10 +6082,12 @@
       <c r="AP18" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="192" t="s">
+      <c r="AQ18" s="280" t="s">
         <v>268</v>
       </c>
-      <c r="AR18" s="119"/>
+      <c r="AR18" s="279" t="s">
+        <v>779</v>
+      </c>
       <c r="AS18" s="51">
         <v>12</v>
       </c>
@@ -6227,7 +6231,7 @@
       <c r="A20" s="133">
         <v>14</v>
       </c>
-      <c r="B20" s="197"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="192">
         <v>280</v>
       </c>
@@ -6349,7 +6353,7 @@
       <c r="AQ20" s="192">
         <v>280</v>
       </c>
-      <c r="AR20" s="196" t="s">
+      <c r="AR20" s="195" t="s">
         <v>460</v>
       </c>
       <c r="AS20" s="51">
@@ -6419,11 +6423,11 @@
       <c r="U21" s="192">
         <v>282</v>
       </c>
-      <c r="V21" s="193">
+      <c r="V21" s="192">
         <v>281</v>
       </c>
       <c r="W21" s="118"/>
-      <c r="X21" s="193">
+      <c r="X21" s="192">
         <v>281</v>
       </c>
       <c r="Y21" s="192">
@@ -6503,11 +6507,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="260" t="s">
+      <c r="N22" s="274" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="260"/>
-      <c r="P22" s="260"/>
+      <c r="O22" s="274"/>
+      <c r="P22" s="274"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6521,11 +6525,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="260" t="s">
+      <c r="AD22" s="274" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
+      <c r="AE22" s="274"/>
+      <c r="AF22" s="274"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6541,19 +6545,19 @@
       <c r="AS22" s="178"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="223"/>
-      <c r="B23" s="265"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="265"/>
-      <c r="H23" s="265"/>
-      <c r="I23" s="265"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="266"/>
+      <c r="A23" s="221"/>
+      <c r="B23" s="253"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="254"/>
       <c r="N23" s="154">
         <v>1</v>
       </c>
@@ -6597,34 +6601,34 @@
       <c r="AF23" s="156">
         <v>1</v>
       </c>
-      <c r="AG23" s="266"/>
-      <c r="AH23" s="266"/>
-      <c r="AI23" s="267"/>
-      <c r="AJ23" s="267"/>
-      <c r="AK23" s="267"/>
-      <c r="AL23" s="267"/>
-      <c r="AM23" s="267"/>
-      <c r="AN23" s="267"/>
-      <c r="AO23" s="267"/>
-      <c r="AP23" s="267"/>
-      <c r="AQ23" s="267"/>
-      <c r="AR23" s="267"/>
+      <c r="AG23" s="254"/>
+      <c r="AH23" s="254"/>
+      <c r="AI23" s="255"/>
+      <c r="AJ23" s="255"/>
+      <c r="AK23" s="255"/>
+      <c r="AL23" s="255"/>
+      <c r="AM23" s="255"/>
+      <c r="AN23" s="255"/>
+      <c r="AO23" s="255"/>
+      <c r="AP23" s="255"/>
+      <c r="AQ23" s="255"/>
+      <c r="AR23" s="255"/>
       <c r="AS23" s="178"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
-      <c r="B24" s="267"/>
-      <c r="C24" s="267"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="267"/>
-      <c r="G24" s="267"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="267"/>
-      <c r="J24" s="267"/>
-      <c r="K24" s="267"/>
-      <c r="L24" s="266"/>
-      <c r="M24" s="266"/>
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="255"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="255"/>
+      <c r="K24" s="255"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="254"/>
       <c r="N24" s="154">
         <v>2</v>
       </c>
@@ -6648,34 +6652,34 @@
       <c r="AF24" s="156">
         <v>2</v>
       </c>
-      <c r="AG24" s="266"/>
-      <c r="AH24" s="266"/>
-      <c r="AI24" s="267"/>
-      <c r="AJ24" s="267"/>
-      <c r="AK24" s="267"/>
-      <c r="AL24" s="267"/>
-      <c r="AM24" s="267"/>
-      <c r="AN24" s="267"/>
-      <c r="AO24" s="267"/>
-      <c r="AP24" s="267"/>
-      <c r="AQ24" s="267"/>
-      <c r="AR24" s="267"/>
+      <c r="AG24" s="254"/>
+      <c r="AH24" s="254"/>
+      <c r="AI24" s="255"/>
+      <c r="AJ24" s="255"/>
+      <c r="AK24" s="255"/>
+      <c r="AL24" s="255"/>
+      <c r="AM24" s="255"/>
+      <c r="AN24" s="255"/>
+      <c r="AO24" s="255"/>
+      <c r="AP24" s="255"/>
+      <c r="AQ24" s="255"/>
+      <c r="AR24" s="255"/>
       <c r="AS24" s="178"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
-      <c r="B25" s="267"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="267"/>
-      <c r="F25" s="267"/>
-      <c r="G25" s="267"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="267"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="267"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="255"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="254"/>
       <c r="N25" s="154">
         <v>3</v>
       </c>
@@ -6699,34 +6703,34 @@
       <c r="AF25" s="156">
         <v>3</v>
       </c>
-      <c r="AG25" s="266"/>
-      <c r="AH25" s="266"/>
-      <c r="AI25" s="267"/>
-      <c r="AJ25" s="267"/>
-      <c r="AK25" s="267"/>
-      <c r="AL25" s="267"/>
-      <c r="AM25" s="267"/>
-      <c r="AN25" s="267"/>
-      <c r="AO25" s="267"/>
-      <c r="AP25" s="267"/>
-      <c r="AQ25" s="267"/>
-      <c r="AR25" s="267"/>
+      <c r="AG25" s="254"/>
+      <c r="AH25" s="254"/>
+      <c r="AI25" s="255"/>
+      <c r="AJ25" s="255"/>
+      <c r="AK25" s="255"/>
+      <c r="AL25" s="255"/>
+      <c r="AM25" s="255"/>
+      <c r="AN25" s="255"/>
+      <c r="AO25" s="255"/>
+      <c r="AP25" s="255"/>
+      <c r="AQ25" s="255"/>
+      <c r="AR25" s="255"/>
       <c r="AS25" s="178"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
-      <c r="B26" s="268"/>
-      <c r="C26" s="268"/>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="268"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="268"/>
-      <c r="M26" s="268"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="256"/>
+      <c r="M26" s="256"/>
       <c r="N26" s="154">
         <v>4</v>
       </c>
@@ -6778,34 +6782,34 @@
       <c r="AF26" s="156">
         <v>4</v>
       </c>
-      <c r="AG26" s="267"/>
-      <c r="AH26" s="279"/>
-      <c r="AI26" s="267"/>
-      <c r="AJ26" s="279"/>
-      <c r="AK26" s="267"/>
-      <c r="AL26" s="279"/>
-      <c r="AM26" s="267"/>
-      <c r="AN26" s="279"/>
-      <c r="AO26" s="267"/>
-      <c r="AP26" s="279"/>
-      <c r="AQ26" s="267"/>
-      <c r="AR26" s="279"/>
+      <c r="AG26" s="255"/>
+      <c r="AH26" s="267"/>
+      <c r="AI26" s="255"/>
+      <c r="AJ26" s="267"/>
+      <c r="AK26" s="255"/>
+      <c r="AL26" s="267"/>
+      <c r="AM26" s="255"/>
+      <c r="AN26" s="267"/>
+      <c r="AO26" s="255"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="255"/>
+      <c r="AR26" s="267"/>
       <c r="AS26" s="178"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
-      <c r="B27" s="268"/>
-      <c r="C27" s="268"/>
-      <c r="D27" s="268"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="268"/>
-      <c r="L27" s="268"/>
-      <c r="M27" s="268"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="256"/>
+      <c r="M27" s="256"/>
       <c r="N27" s="154">
         <v>5</v>
       </c>
@@ -6857,34 +6861,34 @@
       <c r="AF27" s="156">
         <v>5</v>
       </c>
-      <c r="AG27" s="267"/>
-      <c r="AH27" s="279"/>
-      <c r="AI27" s="267"/>
-      <c r="AJ27" s="267"/>
-      <c r="AK27" s="267"/>
-      <c r="AL27" s="267"/>
-      <c r="AM27" s="267"/>
-      <c r="AN27" s="267"/>
-      <c r="AO27" s="280"/>
-      <c r="AP27" s="267"/>
-      <c r="AQ27" s="267"/>
-      <c r="AR27" s="267"/>
+      <c r="AG27" s="255"/>
+      <c r="AH27" s="267"/>
+      <c r="AI27" s="255"/>
+      <c r="AJ27" s="255"/>
+      <c r="AK27" s="255"/>
+      <c r="AL27" s="255"/>
+      <c r="AM27" s="255"/>
+      <c r="AN27" s="255"/>
+      <c r="AO27" s="268"/>
+      <c r="AP27" s="255"/>
+      <c r="AQ27" s="255"/>
+      <c r="AR27" s="255"/>
       <c r="AS27" s="178"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="119"/>
-      <c r="B28" s="268"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="256"/>
+      <c r="D28" s="256"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="256"/>
+      <c r="M28" s="256"/>
       <c r="N28" s="154">
         <v>6</v>
       </c>
@@ -6936,626 +6940,620 @@
       <c r="AF28" s="156">
         <v>6</v>
       </c>
-      <c r="AG28" s="267"/>
-      <c r="AH28" s="279"/>
-      <c r="AI28" s="267"/>
-      <c r="AJ28" s="267"/>
-      <c r="AK28" s="267"/>
-      <c r="AL28" s="267"/>
-      <c r="AM28" s="267"/>
-      <c r="AN28" s="267"/>
-      <c r="AO28" s="267"/>
-      <c r="AP28" s="267"/>
-      <c r="AQ28" s="267"/>
-      <c r="AR28" s="267"/>
+      <c r="AG28" s="255"/>
+      <c r="AH28" s="267"/>
+      <c r="AI28" s="255"/>
+      <c r="AJ28" s="255"/>
+      <c r="AK28" s="255"/>
+      <c r="AL28" s="255"/>
+      <c r="AM28" s="255"/>
+      <c r="AN28" s="255"/>
+      <c r="AO28" s="255"/>
+      <c r="AP28" s="255"/>
+      <c r="AQ28" s="255"/>
+      <c r="AR28" s="255"/>
       <c r="AS28" s="179"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="127"/>
-      <c r="B29" s="269"/>
-      <c r="C29" s="269"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269"/>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
-      <c r="L29" s="269"/>
-      <c r="M29" s="269"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="257"/>
+      <c r="H29" s="257"/>
+      <c r="I29" s="257"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="257"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="257"/>
       <c r="N29" s="154">
         <v>7</v>
       </c>
-      <c r="O29" s="220" t="s">
-        <v>779</v>
-      </c>
+      <c r="O29" s="113"/>
       <c r="P29" s="192">
         <v>328</v>
       </c>
       <c r="Q29" s="192">
         <v>327</v>
       </c>
-      <c r="R29" s="192">
+      <c r="R29" s="237">
         <v>326</v>
       </c>
-      <c r="S29" s="192">
+      <c r="S29" s="245" t="s">
+        <v>778</v>
+      </c>
+      <c r="T29" s="250" t="s">
+        <v>364</v>
+      </c>
+      <c r="U29" s="193">
+        <v>323</v>
+      </c>
+      <c r="V29" s="193">
+        <v>322</v>
+      </c>
+      <c r="W29" s="153"/>
+      <c r="X29" s="193">
+        <v>322</v>
+      </c>
+      <c r="Y29" s="193">
+        <v>323</v>
+      </c>
+      <c r="Z29" s="193">
+        <v>324</v>
+      </c>
+      <c r="AA29" s="193">
         <v>325</v>
       </c>
-      <c r="T29" s="250">
+      <c r="AB29" s="193">
         <v>326</v>
       </c>
-      <c r="U29" s="247" t="s">
-        <v>778</v>
-      </c>
-      <c r="V29" s="253" t="s">
-        <v>364</v>
-      </c>
-      <c r="W29" s="153"/>
-      <c r="X29" s="194">
-        <v>322</v>
-      </c>
-      <c r="Y29" s="194">
-        <v>323</v>
-      </c>
-      <c r="Z29" s="194">
-        <v>324</v>
-      </c>
-      <c r="AA29" s="194">
-        <v>325</v>
-      </c>
-      <c r="AB29" s="194">
-        <v>326</v>
-      </c>
-      <c r="AC29" s="194">
+      <c r="AC29" s="193">
         <v>327</v>
       </c>
-      <c r="AD29" s="194">
+      <c r="AD29" s="193">
         <v>328</v>
       </c>
       <c r="AE29" s="113"/>
       <c r="AF29" s="156">
         <v>7</v>
       </c>
-      <c r="AG29" s="276"/>
-      <c r="AH29" s="275"/>
-      <c r="AI29" s="276"/>
-      <c r="AJ29" s="275"/>
-      <c r="AK29" s="276"/>
-      <c r="AL29" s="275"/>
-      <c r="AM29" s="276"/>
-      <c r="AN29" s="275"/>
-      <c r="AO29" s="276"/>
-      <c r="AP29" s="275"/>
-      <c r="AQ29" s="276"/>
-      <c r="AR29" s="275"/>
+      <c r="AG29" s="264"/>
+      <c r="AH29" s="263"/>
+      <c r="AI29" s="264"/>
+      <c r="AJ29" s="263"/>
+      <c r="AK29" s="264"/>
+      <c r="AL29" s="263"/>
+      <c r="AM29" s="264"/>
+      <c r="AN29" s="263"/>
+      <c r="AO29" s="264"/>
+      <c r="AP29" s="263"/>
+      <c r="AQ29" s="264"/>
+      <c r="AR29" s="263"/>
       <c r="AS29" s="178"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="267"/>
-      <c r="I30" s="267"/>
-      <c r="J30" s="267"/>
-      <c r="K30" s="267"/>
-      <c r="L30" s="267"/>
-      <c r="M30" s="267"/>
+      <c r="B30" s="255"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="255"/>
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="251"/>
-      <c r="P30" s="254">
+      <c r="O30" s="248"/>
+      <c r="P30" s="251">
         <v>335</v>
       </c>
-      <c r="Q30" s="194">
+      <c r="Q30" s="193">
         <v>334</v>
       </c>
-      <c r="R30" s="194">
+      <c r="R30" s="193">
         <v>333</v>
       </c>
-      <c r="S30" s="194">
+      <c r="S30" s="193">
         <v>332</v>
       </c>
-      <c r="T30" s="194">
+      <c r="T30" s="193">
         <v>331</v>
       </c>
-      <c r="U30" s="194">
+      <c r="U30" s="193">
         <v>330</v>
       </c>
-      <c r="V30" s="194">
+      <c r="V30" s="193">
         <v>329</v>
       </c>
       <c r="W30" s="162"/>
-      <c r="X30" s="194">
+      <c r="X30" s="193">
         <v>329</v>
       </c>
-      <c r="Y30" s="194">
+      <c r="Y30" s="193">
         <v>330</v>
       </c>
-      <c r="Z30" s="194">
+      <c r="Z30" s="193">
         <v>331</v>
       </c>
-      <c r="AA30" s="194">
+      <c r="AA30" s="193">
         <v>332</v>
       </c>
-      <c r="AB30" s="194">
+      <c r="AB30" s="193">
         <v>333</v>
       </c>
-      <c r="AC30" s="194">
+      <c r="AC30" s="193">
         <v>334</v>
       </c>
-      <c r="AD30" s="194">
+      <c r="AD30" s="193">
         <v>335</v>
       </c>
       <c r="AE30" s="113"/>
       <c r="AF30" s="159">
         <v>8</v>
       </c>
-      <c r="AG30" s="267"/>
-      <c r="AH30" s="279"/>
-      <c r="AI30" s="267"/>
-      <c r="AJ30" s="267"/>
-      <c r="AK30" s="267"/>
-      <c r="AL30" s="267"/>
-      <c r="AM30" s="267"/>
-      <c r="AN30" s="267"/>
-      <c r="AO30" s="267"/>
-      <c r="AP30" s="267"/>
-      <c r="AQ30" s="267"/>
-      <c r="AR30" s="267"/>
+      <c r="AG30" s="255"/>
+      <c r="AH30" s="267"/>
+      <c r="AI30" s="255"/>
+      <c r="AJ30" s="255"/>
+      <c r="AK30" s="255"/>
+      <c r="AL30" s="255"/>
+      <c r="AM30" s="255"/>
+      <c r="AN30" s="255"/>
+      <c r="AO30" s="255"/>
+      <c r="AP30" s="255"/>
+      <c r="AQ30" s="255"/>
+      <c r="AR30" s="255"/>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
-      <c r="B31" s="267"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="267"/>
-      <c r="H31" s="267"/>
-      <c r="I31" s="267"/>
-      <c r="J31" s="267"/>
-      <c r="K31" s="267"/>
-      <c r="L31" s="267"/>
-      <c r="M31" s="267"/>
+      <c r="B31" s="255"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="255"/>
+      <c r="E31" s="255"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="255"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="255"/>
       <c r="N31" s="154">
         <v>9</v>
       </c>
       <c r="O31" s="125"/>
-      <c r="P31" s="194">
+      <c r="P31" s="193">
         <v>342</v>
       </c>
-      <c r="Q31" s="194">
+      <c r="Q31" s="193">
         <v>341</v>
       </c>
-      <c r="R31" s="194">
+      <c r="R31" s="193">
         <v>340</v>
       </c>
-      <c r="S31" s="194">
+      <c r="S31" s="193">
         <v>339</v>
       </c>
-      <c r="T31" s="194">
+      <c r="T31" s="193">
         <v>338</v>
       </c>
-      <c r="U31" s="194">
+      <c r="U31" s="193">
         <v>337</v>
       </c>
-      <c r="V31" s="194">
+      <c r="V31" s="193">
         <v>336</v>
       </c>
       <c r="W31" s="163"/>
-      <c r="X31" s="194">
+      <c r="X31" s="193">
         <v>336</v>
       </c>
-      <c r="Y31" s="194">
+      <c r="Y31" s="193">
         <v>337</v>
       </c>
-      <c r="Z31" s="194">
+      <c r="Z31" s="193">
         <v>338</v>
       </c>
-      <c r="AA31" s="194">
+      <c r="AA31" s="193">
         <v>339</v>
       </c>
-      <c r="AB31" s="194">
+      <c r="AB31" s="193">
         <v>340</v>
       </c>
-      <c r="AC31" s="194">
+      <c r="AC31" s="193">
         <v>341</v>
       </c>
-      <c r="AD31" s="194">
+      <c r="AD31" s="193">
         <v>342</v>
       </c>
       <c r="AE31" s="115"/>
       <c r="AF31" s="185">
         <v>9</v>
       </c>
-      <c r="AG31" s="267"/>
-      <c r="AH31" s="279"/>
-      <c r="AI31" s="267"/>
-      <c r="AJ31" s="267"/>
-      <c r="AK31" s="267"/>
-      <c r="AL31" s="267"/>
-      <c r="AM31" s="267"/>
-      <c r="AN31" s="267"/>
-      <c r="AO31" s="267"/>
-      <c r="AP31" s="267"/>
-      <c r="AQ31" s="267"/>
-      <c r="AR31" s="267"/>
+      <c r="AG31" s="255"/>
+      <c r="AH31" s="267"/>
+      <c r="AI31" s="255"/>
+      <c r="AJ31" s="255"/>
+      <c r="AK31" s="255"/>
+      <c r="AL31" s="255"/>
+      <c r="AM31" s="255"/>
+      <c r="AN31" s="255"/>
+      <c r="AO31" s="255"/>
+      <c r="AP31" s="255"/>
+      <c r="AQ31" s="255"/>
+      <c r="AR31" s="255"/>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="267"/>
-      <c r="I32" s="267"/>
-      <c r="J32" s="267"/>
-      <c r="K32" s="267"/>
-      <c r="L32" s="267"/>
-      <c r="M32" s="267"/>
+      <c r="B32" s="255"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="255"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="255"/>
+      <c r="L32" s="255"/>
+      <c r="M32" s="255"/>
       <c r="N32" s="184">
         <v>10</v>
       </c>
       <c r="O32" s="115"/>
-      <c r="P32" s="194">
+      <c r="P32" s="193">
         <v>349</v>
       </c>
-      <c r="Q32" s="194">
+      <c r="Q32" s="193">
         <v>348</v>
       </c>
-      <c r="R32" s="194">
+      <c r="R32" s="193">
         <v>347</v>
       </c>
-      <c r="S32" s="194">
+      <c r="S32" s="193">
         <v>346</v>
       </c>
-      <c r="T32" s="194">
+      <c r="T32" s="193">
         <v>345</v>
       </c>
-      <c r="U32" s="194">
+      <c r="U32" s="193">
         <v>344</v>
       </c>
-      <c r="V32" s="194">
+      <c r="V32" s="193">
         <v>343</v>
       </c>
       <c r="W32" s="163"/>
-      <c r="X32" s="194">
+      <c r="X32" s="193">
         <v>343</v>
       </c>
-      <c r="Y32" s="194">
+      <c r="Y32" s="193">
         <v>344</v>
       </c>
-      <c r="Z32" s="194">
+      <c r="Z32" s="193">
         <v>345</v>
       </c>
-      <c r="AA32" s="194">
+      <c r="AA32" s="193">
         <v>346</v>
       </c>
-      <c r="AB32" s="194">
+      <c r="AB32" s="193">
         <v>347</v>
       </c>
-      <c r="AC32" s="194">
+      <c r="AC32" s="193">
         <v>348</v>
       </c>
-      <c r="AD32" s="194">
+      <c r="AD32" s="193">
         <v>349</v>
       </c>
       <c r="AE32" s="115"/>
       <c r="AF32" s="185">
         <v>10</v>
       </c>
-      <c r="AG32" s="267"/>
-      <c r="AH32" s="279"/>
-      <c r="AI32" s="267"/>
-      <c r="AJ32" s="267"/>
-      <c r="AK32" s="267"/>
-      <c r="AL32" s="267"/>
-      <c r="AM32" s="267"/>
-      <c r="AN32" s="267"/>
-      <c r="AO32" s="267"/>
-      <c r="AP32" s="267"/>
-      <c r="AQ32" s="267"/>
-      <c r="AR32" s="267"/>
+      <c r="AG32" s="255"/>
+      <c r="AH32" s="267"/>
+      <c r="AI32" s="255"/>
+      <c r="AJ32" s="255"/>
+      <c r="AK32" s="255"/>
+      <c r="AL32" s="255"/>
+      <c r="AM32" s="255"/>
+      <c r="AN32" s="255"/>
+      <c r="AO32" s="255"/>
+      <c r="AP32" s="255"/>
+      <c r="AQ32" s="255"/>
+      <c r="AR32" s="255"/>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="267"/>
-      <c r="C33" s="267"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="267"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="267"/>
-      <c r="H33" s="267"/>
-      <c r="I33" s="267"/>
-      <c r="J33" s="267"/>
-      <c r="K33" s="267"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="267"/>
+      <c r="B33" s="255"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="255"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="255"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="255"/>
+      <c r="K33" s="255"/>
+      <c r="L33" s="255"/>
+      <c r="M33" s="255"/>
       <c r="N33" s="186">
         <v>11</v>
       </c>
       <c r="O33" s="115"/>
-      <c r="P33" s="194">
+      <c r="P33" s="193">
         <v>356</v>
       </c>
-      <c r="Q33" s="194">
+      <c r="Q33" s="193">
         <v>355</v>
       </c>
-      <c r="R33" s="194">
+      <c r="R33" s="193">
         <v>354</v>
       </c>
-      <c r="S33" s="194">
+      <c r="S33" s="193">
         <v>353</v>
       </c>
-      <c r="T33" s="194">
+      <c r="T33" s="193">
         <v>352</v>
       </c>
-      <c r="U33" s="194">
+      <c r="U33" s="193">
         <v>351</v>
       </c>
-      <c r="V33" s="194">
+      <c r="V33" s="193">
         <v>350</v>
       </c>
       <c r="W33" s="163"/>
-      <c r="X33" s="264">
+      <c r="X33" s="252">
         <v>350</v>
       </c>
-      <c r="Y33" s="264">
+      <c r="Y33" s="252">
         <v>351</v>
       </c>
-      <c r="Z33" s="264">
+      <c r="Z33" s="193">
         <v>352</v>
       </c>
-      <c r="AA33" s="264">
+      <c r="AA33" s="193">
         <v>353</v>
       </c>
-      <c r="AB33" s="194">
+      <c r="AB33" s="193">
         <v>354</v>
       </c>
-      <c r="AC33" s="194">
+      <c r="AC33" s="193">
         <v>355</v>
       </c>
-      <c r="AD33" s="194">
+      <c r="AD33" s="193">
         <v>356</v>
       </c>
       <c r="AE33" s="115"/>
       <c r="AF33" s="185">
         <v>11</v>
       </c>
-      <c r="AG33" s="267"/>
-      <c r="AH33" s="275"/>
-      <c r="AI33" s="267"/>
-      <c r="AJ33" s="276"/>
-      <c r="AK33" s="267"/>
-      <c r="AL33" s="276"/>
-      <c r="AM33" s="267"/>
-      <c r="AN33" s="276"/>
-      <c r="AO33" s="267"/>
-      <c r="AP33" s="276"/>
-      <c r="AQ33" s="267"/>
-      <c r="AR33" s="276"/>
+      <c r="AG33" s="255"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="255"/>
+      <c r="AJ33" s="264"/>
+      <c r="AK33" s="255"/>
+      <c r="AL33" s="264"/>
+      <c r="AM33" s="255"/>
+      <c r="AN33" s="264"/>
+      <c r="AO33" s="255"/>
+      <c r="AP33" s="264"/>
+      <c r="AQ33" s="255"/>
+      <c r="AR33" s="264"/>
       <c r="AS33" s="181"/>
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
-      <c r="B34" s="267"/>
-      <c r="C34" s="267"/>
-      <c r="D34" s="267"/>
-      <c r="E34" s="267"/>
-      <c r="F34" s="267"/>
-      <c r="G34" s="267"/>
-      <c r="H34" s="267"/>
-      <c r="I34" s="267"/>
-      <c r="J34" s="267"/>
-      <c r="K34" s="267"/>
-      <c r="L34" s="267"/>
-      <c r="M34" s="267"/>
+      <c r="B34" s="255"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="255"/>
+      <c r="E34" s="255"/>
+      <c r="F34" s="255"/>
+      <c r="G34" s="255"/>
+      <c r="H34" s="255"/>
+      <c r="I34" s="255"/>
+      <c r="J34" s="255"/>
+      <c r="K34" s="255"/>
+      <c r="L34" s="255"/>
+      <c r="M34" s="255"/>
       <c r="N34" s="186">
         <v>12</v>
       </c>
       <c r="O34" s="141"/>
-      <c r="P34" s="194">
-        <v>363</v>
-      </c>
-      <c r="Q34" s="194">
-        <v>364</v>
-      </c>
-      <c r="R34" s="248" t="s">
+      <c r="P34" s="246" t="s">
         <v>777</v>
       </c>
-      <c r="S34" s="200">
+      <c r="Q34" s="199">
+        <v>362</v>
+      </c>
+      <c r="R34" s="199">
+        <v>361</v>
+      </c>
+      <c r="S34" s="199">
         <v>360</v>
       </c>
-      <c r="T34" s="200">
+      <c r="T34" s="199">
         <v>359</v>
       </c>
-      <c r="U34" s="200">
+      <c r="U34" s="199">
         <v>358</v>
       </c>
-      <c r="V34" s="200">
+      <c r="V34" s="199">
         <v>357</v>
       </c>
       <c r="W34" s="166"/>
-      <c r="X34" s="200">
+      <c r="X34" s="199">
         <v>357</v>
       </c>
-      <c r="Y34" s="200">
+      <c r="Y34" s="199">
         <v>358</v>
       </c>
-      <c r="Z34" s="200">
-        <v>359</v>
-      </c>
-      <c r="AA34" s="200">
-        <v>360</v>
-      </c>
-      <c r="AB34" s="265"/>
-      <c r="AC34" s="265"/>
-      <c r="AD34" s="265"/>
+      <c r="Z34" s="253"/>
+      <c r="AA34" s="253"/>
+      <c r="AB34" s="253"/>
+      <c r="AC34" s="253"/>
+      <c r="AD34" s="253"/>
       <c r="AE34" s="115"/>
       <c r="AF34" s="185">
         <v>12</v>
       </c>
-      <c r="AG34" s="267"/>
-      <c r="AH34" s="275"/>
-      <c r="AI34" s="267"/>
-      <c r="AJ34" s="276"/>
-      <c r="AK34" s="267"/>
-      <c r="AL34" s="276"/>
-      <c r="AM34" s="267"/>
-      <c r="AN34" s="276"/>
-      <c r="AO34" s="267"/>
-      <c r="AP34" s="276"/>
-      <c r="AQ34" s="267"/>
-      <c r="AR34" s="276"/>
+      <c r="AG34" s="255"/>
+      <c r="AH34" s="263"/>
+      <c r="AI34" s="255"/>
+      <c r="AJ34" s="264"/>
+      <c r="AK34" s="255"/>
+      <c r="AL34" s="264"/>
+      <c r="AM34" s="255"/>
+      <c r="AN34" s="264"/>
+      <c r="AO34" s="255"/>
+      <c r="AP34" s="264"/>
+      <c r="AQ34" s="255"/>
+      <c r="AR34" s="264"/>
       <c r="AS34" s="181"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="267"/>
-      <c r="I35" s="267"/>
-      <c r="J35" s="267"/>
-      <c r="K35" s="267"/>
-      <c r="L35" s="267"/>
-      <c r="M35" s="267"/>
-      <c r="N35" s="270"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="265"/>
-      <c r="Q35" s="265"/>
-      <c r="R35" s="265"/>
-      <c r="S35" s="265"/>
-      <c r="T35" s="267"/>
-      <c r="U35" s="267"/>
-      <c r="V35" s="267"/>
-      <c r="W35" s="272"/>
-      <c r="X35" s="267"/>
-      <c r="Y35" s="267"/>
-      <c r="Z35" s="267"/>
-      <c r="AA35" s="267"/>
-      <c r="AB35" s="267"/>
-      <c r="AC35" s="267"/>
-      <c r="AD35" s="267"/>
-      <c r="AE35" s="273"/>
-      <c r="AF35" s="274"/>
-      <c r="AG35" s="267"/>
-      <c r="AH35" s="275"/>
-      <c r="AI35" s="267"/>
-      <c r="AJ35" s="276"/>
-      <c r="AK35" s="267"/>
-      <c r="AL35" s="276"/>
-      <c r="AM35" s="267"/>
-      <c r="AN35" s="276"/>
-      <c r="AO35" s="267"/>
-      <c r="AP35" s="276"/>
-      <c r="AQ35" s="267"/>
-      <c r="AR35" s="276"/>
+      <c r="B35" s="255"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="255"/>
+      <c r="F35" s="255"/>
+      <c r="G35" s="255"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="255"/>
+      <c r="J35" s="255"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="255"/>
+      <c r="M35" s="255"/>
+      <c r="N35" s="258"/>
+      <c r="O35" s="259"/>
+      <c r="P35" s="253"/>
+      <c r="Q35" s="253"/>
+      <c r="R35" s="253"/>
+      <c r="S35" s="253"/>
+      <c r="T35" s="255"/>
+      <c r="U35" s="255"/>
+      <c r="V35" s="255"/>
+      <c r="W35" s="260"/>
+      <c r="X35" s="255"/>
+      <c r="Y35" s="255"/>
+      <c r="Z35" s="255"/>
+      <c r="AA35" s="255"/>
+      <c r="AB35" s="255"/>
+      <c r="AC35" s="255"/>
+      <c r="AD35" s="255"/>
+      <c r="AE35" s="261"/>
+      <c r="AF35" s="262"/>
+      <c r="AG35" s="255"/>
+      <c r="AH35" s="263"/>
+      <c r="AI35" s="255"/>
+      <c r="AJ35" s="264"/>
+      <c r="AK35" s="255"/>
+      <c r="AL35" s="264"/>
+      <c r="AM35" s="255"/>
+      <c r="AN35" s="264"/>
+      <c r="AO35" s="255"/>
+      <c r="AP35" s="264"/>
+      <c r="AQ35" s="255"/>
+      <c r="AR35" s="264"/>
       <c r="AS35" s="181"/>
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="267"/>
-      <c r="I36" s="267"/>
-      <c r="J36" s="267"/>
-      <c r="K36" s="267"/>
-      <c r="L36" s="267"/>
-      <c r="M36" s="267"/>
-      <c r="N36" s="270"/>
-      <c r="O36" s="251"/>
-      <c r="P36" s="267"/>
-      <c r="Q36" s="267"/>
-      <c r="R36" s="267"/>
-      <c r="S36" s="267"/>
-      <c r="T36" s="267"/>
-      <c r="U36" s="267"/>
-      <c r="V36" s="267"/>
-      <c r="W36" s="272"/>
-      <c r="X36" s="265"/>
-      <c r="Y36" s="265"/>
-      <c r="Z36" s="265"/>
-      <c r="AA36" s="265"/>
-      <c r="AB36" s="265"/>
-      <c r="AC36" s="265"/>
-      <c r="AD36" s="265"/>
-      <c r="AE36" s="273"/>
-      <c r="AF36" s="274"/>
-      <c r="AG36" s="276"/>
-      <c r="AH36" s="276"/>
-      <c r="AI36" s="276"/>
-      <c r="AJ36" s="276"/>
-      <c r="AK36" s="276"/>
-      <c r="AL36" s="276"/>
-      <c r="AM36" s="276"/>
-      <c r="AN36" s="276"/>
-      <c r="AO36" s="276"/>
-      <c r="AP36" s="276"/>
-      <c r="AQ36" s="276"/>
-      <c r="AR36" s="276"/>
+      <c r="B36" s="255"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="255"/>
+      <c r="E36" s="255"/>
+      <c r="F36" s="255"/>
+      <c r="G36" s="255"/>
+      <c r="H36" s="255"/>
+      <c r="I36" s="255"/>
+      <c r="J36" s="255"/>
+      <c r="K36" s="255"/>
+      <c r="L36" s="255"/>
+      <c r="M36" s="255"/>
+      <c r="N36" s="258"/>
+      <c r="O36" s="248"/>
+      <c r="P36" s="255"/>
+      <c r="Q36" s="255"/>
+      <c r="R36" s="255"/>
+      <c r="S36" s="255"/>
+      <c r="T36" s="255"/>
+      <c r="U36" s="255"/>
+      <c r="V36" s="255"/>
+      <c r="W36" s="260"/>
+      <c r="X36" s="253"/>
+      <c r="Y36" s="253"/>
+      <c r="Z36" s="253"/>
+      <c r="AA36" s="253"/>
+      <c r="AB36" s="253"/>
+      <c r="AC36" s="253"/>
+      <c r="AD36" s="253"/>
+      <c r="AE36" s="261"/>
+      <c r="AF36" s="262"/>
+      <c r="AG36" s="264"/>
+      <c r="AH36" s="264"/>
+      <c r="AI36" s="264"/>
+      <c r="AJ36" s="264"/>
+      <c r="AK36" s="264"/>
+      <c r="AL36" s="264"/>
+      <c r="AM36" s="264"/>
+      <c r="AN36" s="264"/>
+      <c r="AO36" s="264"/>
+      <c r="AP36" s="264"/>
+      <c r="AQ36" s="264"/>
+      <c r="AR36" s="264"/>
       <c r="AS36" s="181"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
-      <c r="B37" s="267"/>
-      <c r="C37" s="267"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="267"/>
-      <c r="G37" s="267"/>
-      <c r="H37" s="267"/>
-      <c r="I37" s="267"/>
-      <c r="J37" s="267"/>
-      <c r="K37" s="267"/>
-      <c r="L37" s="267"/>
-      <c r="M37" s="267"/>
-      <c r="N37" s="270"/>
-      <c r="O37" s="271"/>
-      <c r="P37" s="265"/>
-      <c r="Q37" s="265"/>
-      <c r="R37" s="265"/>
-      <c r="S37" s="265"/>
-      <c r="T37" s="265"/>
-      <c r="U37" s="265"/>
-      <c r="V37" s="265"/>
-      <c r="W37" s="272"/>
-      <c r="X37" s="265"/>
-      <c r="Y37" s="265"/>
-      <c r="Z37" s="265"/>
-      <c r="AA37" s="265"/>
-      <c r="AB37" s="265"/>
-      <c r="AC37" s="265"/>
-      <c r="AD37" s="267"/>
-      <c r="AE37" s="273"/>
-      <c r="AF37" s="274"/>
-      <c r="AG37" s="267"/>
-      <c r="AH37" s="277"/>
-      <c r="AI37" s="267"/>
-      <c r="AJ37" s="278"/>
-      <c r="AK37" s="267"/>
-      <c r="AL37" s="278"/>
-      <c r="AM37" s="267"/>
-      <c r="AN37" s="278"/>
-      <c r="AO37" s="267"/>
-      <c r="AP37" s="278"/>
-      <c r="AQ37" s="267"/>
-      <c r="AR37" s="278"/>
+      <c r="B37" s="255"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="255"/>
+      <c r="E37" s="255"/>
+      <c r="F37" s="255"/>
+      <c r="G37" s="255"/>
+      <c r="H37" s="255"/>
+      <c r="I37" s="255"/>
+      <c r="J37" s="255"/>
+      <c r="K37" s="255"/>
+      <c r="L37" s="255"/>
+      <c r="M37" s="255"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="259"/>
+      <c r="P37" s="253"/>
+      <c r="Q37" s="253"/>
+      <c r="R37" s="253"/>
+      <c r="S37" s="253"/>
+      <c r="T37" s="253"/>
+      <c r="U37" s="253"/>
+      <c r="V37" s="253"/>
+      <c r="W37" s="260"/>
+      <c r="X37" s="253"/>
+      <c r="Y37" s="253"/>
+      <c r="Z37" s="253"/>
+      <c r="AA37" s="253"/>
+      <c r="AB37" s="253"/>
+      <c r="AC37" s="253"/>
+      <c r="AD37" s="255"/>
+      <c r="AE37" s="261"/>
+      <c r="AF37" s="262"/>
+      <c r="AG37" s="255"/>
+      <c r="AH37" s="265"/>
+      <c r="AI37" s="255"/>
+      <c r="AJ37" s="266"/>
+      <c r="AK37" s="255"/>
+      <c r="AL37" s="266"/>
+      <c r="AM37" s="255"/>
+      <c r="AN37" s="266"/>
+      <c r="AO37" s="255"/>
+      <c r="AP37" s="266"/>
+      <c r="AQ37" s="255"/>
+      <c r="AR37" s="266"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
@@ -7983,55 +7981,55 @@
       <c r="AQ47" s="115"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="225" t="s">
+      <c r="A48" s="223" t="s">
         <v>758</v>
       </c>
-      <c r="B48" s="231"/>
-      <c r="C48" s="226"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="226"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="226"/>
-      <c r="H48" s="226"/>
+      <c r="B48" s="229"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="224"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="224"/>
+      <c r="H48" s="224"/>
       <c r="I48" s="176"/>
       <c r="J48" s="176"/>
       <c r="K48" s="176"/>
       <c r="L48" s="176"/>
       <c r="M48" s="176"/>
-      <c r="N48" s="233" t="s">
+      <c r="N48" s="231" t="s">
         <v>758</v>
       </c>
-      <c r="O48" s="205">
+      <c r="O48" s="204">
         <v>6</v>
       </c>
-      <c r="P48" s="216" t="s">
+      <c r="P48" s="215" t="s">
         <v>765</v>
       </c>
-      <c r="Q48" s="234"/>
-      <c r="R48" s="235"/>
-      <c r="S48" s="236"/>
-      <c r="T48" s="236"/>
-      <c r="U48" s="236"/>
+      <c r="Q48" s="232"/>
+      <c r="R48" s="233"/>
+      <c r="S48" s="234"/>
+      <c r="T48" s="234"/>
+      <c r="U48" s="234"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
-      <c r="AA48" s="232" t="s">
+      <c r="AA48" s="230" t="s">
         <v>758</v>
       </c>
-      <c r="AB48" s="217">
+      <c r="AB48" s="216">
         <v>1</v>
       </c>
-      <c r="AC48" s="216" t="s">
+      <c r="AC48" s="215" t="s">
         <v>769</v>
       </c>
-      <c r="AD48" s="236"/>
-      <c r="AE48" s="236"/>
-      <c r="AF48" s="236"/>
-      <c r="AG48" s="236"/>
-      <c r="AH48" s="215"/>
-      <c r="AI48" s="215"/>
+      <c r="AD48" s="234"/>
+      <c r="AE48" s="234"/>
+      <c r="AF48" s="234"/>
+      <c r="AG48" s="234"/>
+      <c r="AH48" s="214"/>
+      <c r="AI48" s="214"/>
       <c r="AJ48" s="115"/>
       <c r="AK48" s="115"/>
       <c r="AL48" s="115"/>
@@ -8042,32 +8040,32 @@
       <c r="AQ48" s="115"/>
     </row>
     <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="222" t="s">
+      <c r="A49" s="220" t="s">
         <v>759</v>
       </c>
-      <c r="B49" s="204">
+      <c r="B49" s="203">
         <v>120</v>
       </c>
-      <c r="C49" s="229" t="s">
+      <c r="C49" s="227" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="230"/>
-      <c r="E49" s="230"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="230"/>
+      <c r="D49" s="228"/>
+      <c r="E49" s="228"/>
+      <c r="F49" s="228"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="228"/>
       <c r="I49" s="176"/>
       <c r="J49" s="176"/>
       <c r="K49" s="176"/>
       <c r="L49" s="176"/>
       <c r="M49" s="176"/>
-      <c r="N49" s="221" t="s">
+      <c r="N49" s="219" t="s">
         <v>759</v>
       </c>
-      <c r="O49" s="243">
+      <c r="O49" s="241">
         <v>1</v>
       </c>
-      <c r="P49" s="212" t="s">
+      <c r="P49" s="211" t="s">
         <v>766</v>
       </c>
       <c r="Q49" s="142"/>
@@ -8080,13 +8078,13 @@
       <c r="X49" s="143"/>
       <c r="Y49" s="143"/>
       <c r="Z49" s="115"/>
-      <c r="AA49" s="209" t="s">
+      <c r="AA49" s="208" t="s">
         <v>759</v>
       </c>
-      <c r="AB49" s="211">
+      <c r="AB49" s="210">
         <v>66</v>
       </c>
-      <c r="AC49" s="212" t="s">
+      <c r="AC49" s="211" t="s">
         <v>764</v>
       </c>
       <c r="AD49" s="143"/>
@@ -8105,28 +8103,28 @@
       <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="224" t="s">
+      <c r="A50" s="222" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="231"/>
-      <c r="C50" s="201"/>
-      <c r="D50" s="202"/>
-      <c r="E50" s="202"/>
-      <c r="F50" s="202"/>
-      <c r="G50" s="202"/>
-      <c r="H50" s="202"/>
+      <c r="B50" s="229"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
       <c r="I50" s="170"/>
       <c r="J50" s="170"/>
       <c r="K50" s="170"/>
       <c r="L50" s="170"/>
       <c r="M50" s="170"/>
-      <c r="N50" s="221" t="s">
+      <c r="N50" s="219" t="s">
         <v>760</v>
       </c>
-      <c r="O50" s="214">
+      <c r="O50" s="213">
         <v>6</v>
       </c>
-      <c r="P50" s="212" t="s">
+      <c r="P50" s="211" t="s">
         <v>767</v>
       </c>
       <c r="Q50" s="143"/>
@@ -8139,21 +8137,21 @@
       <c r="X50" s="143"/>
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="237" t="s">
+      <c r="AA50" s="235" t="s">
         <v>763</v>
       </c>
-      <c r="AB50" s="249">
+      <c r="AB50" s="247">
         <v>9</v>
       </c>
-      <c r="AC50" s="213" t="s">
+      <c r="AC50" s="212" t="s">
         <v>770</v>
       </c>
       <c r="AD50" s="174"/>
       <c r="AE50" s="174"/>
       <c r="AF50" s="174"/>
       <c r="AG50" s="174"/>
-      <c r="AH50" s="208"/>
-      <c r="AI50" s="208"/>
+      <c r="AH50" s="207"/>
+      <c r="AI50" s="207"/>
       <c r="AJ50" s="115"/>
       <c r="AK50" s="115"/>
       <c r="AL50" s="115"/>
@@ -8174,13 +8172,13 @@
       <c r="K51" s="170"/>
       <c r="L51" s="170"/>
       <c r="M51" s="170"/>
-      <c r="N51" s="227" t="s">
+      <c r="N51" s="225" t="s">
         <v>756</v>
       </c>
-      <c r="O51" s="206">
+      <c r="O51" s="205">
         <v>10</v>
       </c>
-      <c r="P51" s="228" t="s">
+      <c r="P51" s="226" t="s">
         <v>768</v>
       </c>
       <c r="Q51" s="143"/>
@@ -8209,7 +8207,7 @@
       <c r="AQ51" s="115"/>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="212"/>
+      <c r="D52" s="211"/>
       <c r="E52" s="170"/>
       <c r="F52" s="170"/>
       <c r="G52" s="170"/>
@@ -8219,11 +8217,11 @@
       <c r="K52" s="170"/>
       <c r="L52" s="170"/>
       <c r="M52" s="170"/>
-      <c r="N52" s="203"/>
-      <c r="O52" s="210">
+      <c r="N52" s="202"/>
+      <c r="O52" s="209">
         <v>500</v>
       </c>
-      <c r="P52" s="213" t="s">
+      <c r="P52" s="212" t="s">
         <v>776</v>
       </c>
       <c r="Q52" s="174"/>
@@ -8297,14 +8295,14 @@
       <c r="AQ53" s="115"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A54" s="212"/>
-      <c r="B54" s="212"/>
-      <c r="C54" s="212"/>
-      <c r="D54" s="212"/>
-      <c r="E54" s="212"/>
-      <c r="F54" s="212"/>
-      <c r="G54" s="212"/>
-      <c r="H54" s="212"/>
+      <c r="A54" s="211"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="211"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="211"/>
+      <c r="F54" s="211"/>
+      <c r="G54" s="211"/>
+      <c r="H54" s="211"/>
       <c r="I54" s="170"/>
       <c r="J54" s="170"/>
       <c r="K54" s="170"/>
@@ -8324,7 +8322,7 @@
       <c r="Y54" s="143"/>
       <c r="Z54" s="143"/>
       <c r="AA54" s="143"/>
-      <c r="AB54" s="219"/>
+      <c r="AB54" s="218"/>
       <c r="AC54" s="143"/>
       <c r="AD54" s="143"/>
       <c r="AE54" s="115"/>
@@ -8342,7 +8340,7 @@
       <c r="AQ54" s="115"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B55" s="195"/>
+      <c r="B55" s="194"/>
       <c r="C55" s="170"/>
       <c r="D55" s="170"/>
       <c r="E55" s="170"/>
@@ -8355,7 +8353,7 @@
       <c r="L55" s="170"/>
       <c r="M55" s="170"/>
       <c r="N55" s="115"/>
-      <c r="O55" s="207">
+      <c r="O55" s="206">
         <v>3</v>
       </c>
       <c r="P55" s="143"/>
@@ -8370,7 +8368,7 @@
       <c r="Y55" s="143"/>
       <c r="Z55" s="143"/>
       <c r="AA55" s="143"/>
-      <c r="AB55" s="218"/>
+      <c r="AB55" s="217"/>
       <c r="AC55" s="143"/>
       <c r="AD55" s="143"/>
       <c r="AE55" s="115"/>
@@ -8388,50 +8386,50 @@
       <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A56" s="262">
+      <c r="A56" s="276">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="262"/>
-      <c r="C56" s="262"/>
-      <c r="D56" s="262"/>
-      <c r="E56" s="262"/>
-      <c r="F56" s="262"/>
-      <c r="G56" s="262"/>
-      <c r="H56" s="262"/>
-      <c r="I56" s="262"/>
-      <c r="J56" s="262"/>
-      <c r="K56" s="262"/>
-      <c r="L56" s="262"/>
-      <c r="M56" s="262"/>
-      <c r="N56" s="262"/>
-      <c r="O56" s="263"/>
-      <c r="P56" s="262"/>
-      <c r="Q56" s="262"/>
-      <c r="R56" s="262"/>
-      <c r="S56" s="262"/>
-      <c r="T56" s="262"/>
-      <c r="U56" s="262"/>
-      <c r="V56" s="262"/>
-      <c r="W56" s="262"/>
-      <c r="X56" s="262"/>
-      <c r="Y56" s="262"/>
-      <c r="Z56" s="262"/>
-      <c r="AA56" s="262"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="262"/>
-      <c r="AD56" s="262"/>
-      <c r="AE56" s="262"/>
-      <c r="AF56" s="262"/>
-      <c r="AG56" s="262"/>
-      <c r="AH56" s="262"/>
-      <c r="AI56" s="262"/>
-      <c r="AJ56" s="262"/>
-      <c r="AK56" s="262"/>
+      <c r="B56" s="276"/>
+      <c r="C56" s="276"/>
+      <c r="D56" s="276"/>
+      <c r="E56" s="276"/>
+      <c r="F56" s="276"/>
+      <c r="G56" s="276"/>
+      <c r="H56" s="276"/>
+      <c r="I56" s="276"/>
+      <c r="J56" s="276"/>
+      <c r="K56" s="276"/>
+      <c r="L56" s="276"/>
+      <c r="M56" s="276"/>
+      <c r="N56" s="276"/>
+      <c r="O56" s="277"/>
+      <c r="P56" s="276"/>
+      <c r="Q56" s="276"/>
+      <c r="R56" s="276"/>
+      <c r="S56" s="276"/>
+      <c r="T56" s="276"/>
+      <c r="U56" s="276"/>
+      <c r="V56" s="276"/>
+      <c r="W56" s="276"/>
+      <c r="X56" s="276"/>
+      <c r="Y56" s="276"/>
+      <c r="Z56" s="276"/>
+      <c r="AA56" s="276"/>
+      <c r="AB56" s="277"/>
+      <c r="AC56" s="276"/>
+      <c r="AD56" s="276"/>
+      <c r="AE56" s="276"/>
+      <c r="AF56" s="276"/>
+      <c r="AG56" s="276"/>
+      <c r="AH56" s="276"/>
+      <c r="AI56" s="276"/>
+      <c r="AJ56" s="276"/>
+      <c r="AK56" s="276"/>
     </row>
     <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H58" s="261"/>
-      <c r="I58" s="261"/>
+      <c r="H58" s="275"/>
+      <c r="I58" s="275"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA60" s="13"/>
@@ -8449,8 +8447,8 @@
       <c r="AJ66" s="131"/>
     </row>
     <row r="67" spans="13:36" x14ac:dyDescent="0.2">
-      <c r="AI67" s="255"/>
-      <c r="AJ67" s="255"/>
+      <c r="AI67" s="269"/>
+      <c r="AJ67" s="269"/>
     </row>
     <row r="68" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI68" s="113"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D5F43F-299A-407C-A7F2-25773C6D4079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594FD7F8-BE47-42BD-8BA1-83C257CC6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2714,12 +2714,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="8"/>
       </patternFill>
@@ -2734,12 +2728,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2775,6 +2763,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,7 +3426,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3509,16 +3509,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3530,13 +3527,13 @@
     <xf numFmtId="0" fontId="41" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3546,13 +3543,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3562,10 +3559,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3574,14 +3568,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3637,40 +3631,31 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3679,13 +3664,13 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3724,6 +3709,12 @@
     <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3751,14 +3742,23 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4114,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AR48" sqref="AR48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4131,49 +4131,49 @@
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="267" t="s">
         <v>762</v>
       </c>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="271"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="L1" s="271"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="271"/>
-      <c r="T1" s="271"/>
-      <c r="U1" s="271"/>
-      <c r="V1" s="271"/>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="271"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-      <c r="AB1" s="271"/>
-      <c r="AC1" s="271"/>
-      <c r="AD1" s="271"/>
-      <c r="AE1" s="271"/>
-      <c r="AF1" s="271"/>
-      <c r="AG1" s="271"/>
-      <c r="AH1" s="271"/>
-      <c r="AI1" s="271"/>
-      <c r="AJ1" s="271"/>
-      <c r="AK1" s="271"/>
-      <c r="AL1" s="271"/>
-      <c r="AM1" s="271"/>
-      <c r="AN1" s="271"/>
-      <c r="AO1" s="271"/>
-      <c r="AP1" s="271"/>
-      <c r="AQ1" s="272"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
+      <c r="M1" s="268"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
+      <c r="X1" s="268"/>
+      <c r="Y1" s="268"/>
+      <c r="Z1" s="268"/>
+      <c r="AA1" s="268"/>
+      <c r="AB1" s="268"/>
+      <c r="AC1" s="268"/>
+      <c r="AD1" s="268"/>
+      <c r="AE1" s="268"/>
+      <c r="AF1" s="268"/>
+      <c r="AG1" s="268"/>
+      <c r="AH1" s="268"/>
+      <c r="AI1" s="268"/>
+      <c r="AJ1" s="268"/>
+      <c r="AK1" s="268"/>
+      <c r="AL1" s="268"/>
+      <c r="AM1" s="268"/>
+      <c r="AN1" s="268"/>
+      <c r="AO1" s="268"/>
+      <c r="AP1" s="268"/>
+      <c r="AQ1" s="269"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="178"/>
     </row>
@@ -4182,45 +4182,45 @@
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="273" t="s">
+      <c r="E2" s="270" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="273"/>
-      <c r="AJ2" s="273"/>
-      <c r="AK2" s="273"/>
-      <c r="AL2" s="273"/>
-      <c r="AM2" s="273"/>
-      <c r="AN2" s="273"/>
-      <c r="AO2" s="273"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="270"/>
+      <c r="T2" s="270"/>
+      <c r="U2" s="270"/>
+      <c r="V2" s="270"/>
+      <c r="W2" s="270"/>
+      <c r="X2" s="270"/>
+      <c r="Y2" s="270"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="270"/>
+      <c r="AB2" s="270"/>
+      <c r="AC2" s="270"/>
+      <c r="AD2" s="270"/>
+      <c r="AE2" s="270"/>
+      <c r="AF2" s="270"/>
+      <c r="AG2" s="270"/>
+      <c r="AH2" s="270"/>
+      <c r="AI2" s="270"/>
+      <c r="AJ2" s="270"/>
+      <c r="AK2" s="270"/>
+      <c r="AL2" s="270"/>
+      <c r="AM2" s="270"/>
+      <c r="AN2" s="270"/>
+      <c r="AO2" s="270"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="123"/>
-      <c r="C7" s="236" t="s">
+      <c r="C7" s="234" t="s">
         <v>771</v>
       </c>
       <c r="D7" s="190" t="s">
@@ -4536,13 +4536,13 @@
       <c r="L7" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="197" t="s">
+      <c r="M7" s="196" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="197" t="s">
+      <c r="O7" s="196" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="190" t="s">
@@ -4888,10 +4888,10 @@
       <c r="AP9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="278" t="s">
+      <c r="AQ9" s="264" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="279" t="s">
+      <c r="AR9" s="265" t="s">
         <v>761</v>
       </c>
       <c r="AS9" s="51">
@@ -4904,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="235" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="238" t="s">
+      <c r="D10" s="236" t="s">
         <v>772</v>
       </c>
       <c r="E10" s="191" t="s">
@@ -4925,104 +4925,104 @@
       <c r="I10" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="240" t="s">
+      <c r="J10" s="279" t="s">
         <v>773</v>
       </c>
-      <c r="K10" s="239" t="s">
+      <c r="K10" s="237" t="s">
         <v>774</v>
       </c>
-      <c r="L10" s="198" t="s">
+      <c r="L10" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="M10" s="198" t="s">
+      <c r="M10" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="198" t="s">
+      <c r="N10" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="198" t="s">
+      <c r="O10" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="198" t="s">
+      <c r="P10" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="243" t="s">
+      <c r="Q10" s="239" t="s">
         <v>775</v>
       </c>
-      <c r="R10" s="242" t="s">
+      <c r="R10" s="238" t="s">
         <v>100</v>
       </c>
-      <c r="S10" s="242" t="s">
+      <c r="S10" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="242" t="s">
+      <c r="T10" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="242" t="s">
+      <c r="U10" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="242" t="s">
+      <c r="V10" s="238" t="s">
         <v>58</v>
       </c>
       <c r="W10" s="137"/>
-      <c r="X10" s="242" t="s">
+      <c r="X10" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="242" t="s">
+      <c r="Y10" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="242" t="s">
+      <c r="Z10" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="242" t="s">
+      <c r="AA10" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="244" t="s">
+      <c r="AB10" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="AC10" s="192" t="s">
+      <c r="AC10" s="276" t="s">
         <v>99</v>
       </c>
-      <c r="AD10" s="192" t="s">
+      <c r="AD10" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="192" t="s">
+      <c r="AE10" s="276" t="s">
         <v>97</v>
       </c>
-      <c r="AF10" s="192" t="s">
+      <c r="AF10" s="276" t="s">
         <v>96</v>
       </c>
-      <c r="AG10" s="192" t="s">
+      <c r="AG10" s="276" t="s">
         <v>95</v>
       </c>
-      <c r="AH10" s="192" t="s">
+      <c r="AH10" s="276" t="s">
         <v>94</v>
       </c>
-      <c r="AI10" s="192" t="s">
+      <c r="AI10" s="276" t="s">
         <v>93</v>
       </c>
-      <c r="AJ10" s="192" t="s">
+      <c r="AJ10" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="192" t="s">
+      <c r="AK10" s="276" t="s">
         <v>91</v>
       </c>
-      <c r="AL10" s="192" t="s">
+      <c r="AL10" s="276" t="s">
         <v>90</v>
       </c>
-      <c r="AM10" s="192" t="s">
+      <c r="AM10" s="276" t="s">
         <v>89</v>
       </c>
-      <c r="AN10" s="192" t="s">
+      <c r="AN10" s="276" t="s">
         <v>88</v>
       </c>
-      <c r="AO10" s="192" t="s">
+      <c r="AO10" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="AP10" s="192" t="s">
+      <c r="AP10" s="276" t="s">
         <v>86</v>
       </c>
-      <c r="AQ10" s="192" t="s">
+      <c r="AQ10" s="276" t="s">
         <v>85</v>
       </c>
       <c r="AR10" s="169" t="s">
@@ -5038,128 +5038,128 @@
         <v>5</v>
       </c>
       <c r="B11" s="115"/>
-      <c r="C11" s="192">
+      <c r="C11" s="276">
         <v>100</v>
       </c>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="276" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="192" t="s">
+      <c r="E11" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="192" t="s">
+      <c r="F11" s="276" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="192" t="s">
+      <c r="G11" s="276" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="192" t="s">
+      <c r="H11" s="276" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="192" t="s">
+      <c r="I11" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="192" t="s">
+      <c r="J11" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="192" t="s">
+      <c r="K11" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="192" t="s">
+      <c r="L11" s="276" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="192" t="s">
+      <c r="M11" s="276" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="192" t="s">
+      <c r="N11" s="276" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="192" t="s">
+      <c r="O11" s="276" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="192" t="s">
+      <c r="P11" s="276" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="192" t="s">
+      <c r="Q11" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="192" t="s">
+      <c r="R11" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="192" t="s">
+      <c r="S11" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="192" t="s">
+      <c r="T11" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="192" t="s">
+      <c r="U11" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="192" t="s">
+      <c r="V11" s="276" t="s">
         <v>84</v>
       </c>
       <c r="W11" s="137"/>
-      <c r="X11" s="192" t="s">
+      <c r="X11" s="276" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="192" t="s">
+      <c r="Y11" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="192" t="s">
+      <c r="Z11" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="192" t="s">
+      <c r="AA11" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="192" t="s">
+      <c r="AB11" s="276" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="192" t="s">
+      <c r="AC11" s="276" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="192" t="s">
+      <c r="AD11" s="276" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="192" t="s">
+      <c r="AE11" s="276" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="192" t="s">
+      <c r="AF11" s="276" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="192" t="s">
+      <c r="AG11" s="276" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" s="192" t="s">
+      <c r="AH11" s="276" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="192" t="s">
+      <c r="AI11" s="276" t="s">
         <v>116</v>
       </c>
-      <c r="AJ11" s="192" t="s">
+      <c r="AJ11" s="276" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="192" t="s">
+      <c r="AK11" s="276" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="192" t="s">
+      <c r="AL11" s="276" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="192" t="s">
+      <c r="AM11" s="276" t="s">
         <v>112</v>
       </c>
-      <c r="AN11" s="192" t="s">
+      <c r="AN11" s="276" t="s">
         <v>111</v>
       </c>
-      <c r="AO11" s="192" t="s">
+      <c r="AO11" s="276" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" s="192" t="s">
+      <c r="AP11" s="276" t="s">
         <v>109</v>
       </c>
-      <c r="AQ11" s="192" t="s">
+      <c r="AQ11" s="276" t="s">
         <v>108</v>
       </c>
-      <c r="AR11" s="195" t="s">
+      <c r="AR11" s="194" t="s">
         <v>537</v>
       </c>
       <c r="AS11" s="51">
@@ -5171,126 +5171,126 @@
       <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="192">
+      <c r="B12" s="244"/>
+      <c r="C12" s="276">
         <v>120</v>
       </c>
-      <c r="D12" s="192">
+      <c r="D12" s="276">
         <v>119</v>
       </c>
-      <c r="E12" s="192">
+      <c r="E12" s="276">
         <v>118</v>
       </c>
-      <c r="F12" s="192">
+      <c r="F12" s="276">
         <v>117</v>
       </c>
-      <c r="G12" s="192">
+      <c r="G12" s="276">
         <v>116</v>
       </c>
-      <c r="H12" s="192">
+      <c r="H12" s="276">
         <v>115</v>
       </c>
-      <c r="I12" s="192">
+      <c r="I12" s="276">
         <v>114</v>
       </c>
-      <c r="J12" s="192">
+      <c r="J12" s="276">
         <v>113</v>
       </c>
-      <c r="K12" s="192">
+      <c r="K12" s="276">
         <v>112</v>
       </c>
-      <c r="L12" s="192">
+      <c r="L12" s="276">
         <v>111</v>
       </c>
-      <c r="M12" s="192">
+      <c r="M12" s="276">
         <v>110</v>
       </c>
-      <c r="N12" s="192">
+      <c r="N12" s="276">
         <v>109</v>
       </c>
-      <c r="O12" s="192">
+      <c r="O12" s="276">
         <v>108</v>
       </c>
-      <c r="P12" s="192">
+      <c r="P12" s="276">
         <v>107</v>
       </c>
-      <c r="Q12" s="192">
+      <c r="Q12" s="276">
         <v>106</v>
       </c>
-      <c r="R12" s="192">
+      <c r="R12" s="276">
         <v>105</v>
       </c>
-      <c r="S12" s="192">
+      <c r="S12" s="276">
         <v>104</v>
       </c>
-      <c r="T12" s="192">
+      <c r="T12" s="276">
         <v>103</v>
       </c>
-      <c r="U12" s="192">
+      <c r="U12" s="276">
         <v>102</v>
       </c>
-      <c r="V12" s="192">
+      <c r="V12" s="276">
         <v>101</v>
       </c>
       <c r="W12" s="183"/>
-      <c r="X12" s="192">
+      <c r="X12" s="276">
         <v>101</v>
       </c>
-      <c r="Y12" s="192" t="s">
+      <c r="Y12" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="192">
+      <c r="Z12" s="276">
         <v>102</v>
       </c>
-      <c r="AA12" s="192" t="s">
+      <c r="AA12" s="276" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="192">
+      <c r="AB12" s="276">
         <v>103</v>
       </c>
-      <c r="AC12" s="192" t="s">
+      <c r="AC12" s="276" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="192">
+      <c r="AD12" s="276">
         <v>104</v>
       </c>
-      <c r="AE12" s="192" t="s">
+      <c r="AE12" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="192">
+      <c r="AF12" s="276">
         <v>105</v>
       </c>
-      <c r="AG12" s="192" t="s">
+      <c r="AG12" s="276" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="192">
+      <c r="AH12" s="276">
         <v>106</v>
       </c>
-      <c r="AI12" s="192" t="s">
+      <c r="AI12" s="276" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" s="192">
+      <c r="AJ12" s="276">
         <v>107</v>
       </c>
-      <c r="AK12" s="192" t="s">
+      <c r="AK12" s="276" t="s">
         <v>142</v>
       </c>
-      <c r="AL12" s="192">
+      <c r="AL12" s="276">
         <v>108</v>
       </c>
-      <c r="AM12" s="192" t="s">
+      <c r="AM12" s="276" t="s">
         <v>141</v>
       </c>
-      <c r="AN12" s="192">
+      <c r="AN12" s="276">
         <v>109</v>
       </c>
-      <c r="AO12" s="192" t="s">
+      <c r="AO12" s="276" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="192">
+      <c r="AP12" s="276">
         <v>110</v>
       </c>
-      <c r="AQ12" s="192" t="s">
+      <c r="AQ12" s="276" t="s">
         <v>139</v>
       </c>
       <c r="AR12" s="119"/>
@@ -5304,125 +5304,125 @@
         <v>7</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="192">
+      <c r="C13" s="276">
         <v>140</v>
       </c>
-      <c r="D13" s="192">
+      <c r="D13" s="276">
         <v>139</v>
       </c>
-      <c r="E13" s="192">
+      <c r="E13" s="276">
         <v>138</v>
       </c>
-      <c r="F13" s="192">
+      <c r="F13" s="276">
         <v>137</v>
       </c>
-      <c r="G13" s="192">
+      <c r="G13" s="276">
         <v>136</v>
       </c>
-      <c r="H13" s="192">
+      <c r="H13" s="276">
         <v>135</v>
       </c>
-      <c r="I13" s="192">
+      <c r="I13" s="276">
         <v>134</v>
       </c>
-      <c r="J13" s="192">
+      <c r="J13" s="276">
         <v>133</v>
       </c>
-      <c r="K13" s="192">
+      <c r="K13" s="276">
         <v>132</v>
       </c>
-      <c r="L13" s="192">
+      <c r="L13" s="276">
         <v>131</v>
       </c>
-      <c r="M13" s="192">
+      <c r="M13" s="276">
         <v>130</v>
       </c>
-      <c r="N13" s="192">
+      <c r="N13" s="276">
         <v>129</v>
       </c>
-      <c r="O13" s="192">
+      <c r="O13" s="276">
         <v>128</v>
       </c>
-      <c r="P13" s="192">
+      <c r="P13" s="276">
         <v>127</v>
       </c>
-      <c r="Q13" s="192">
+      <c r="Q13" s="276">
         <v>126</v>
       </c>
-      <c r="R13" s="192">
+      <c r="R13" s="276">
         <v>125</v>
       </c>
-      <c r="S13" s="192">
+      <c r="S13" s="276">
         <v>124</v>
       </c>
-      <c r="T13" s="192">
+      <c r="T13" s="276">
         <v>123</v>
       </c>
-      <c r="U13" s="192">
+      <c r="U13" s="276">
         <v>122</v>
       </c>
-      <c r="V13" s="192">
+      <c r="V13" s="276">
         <v>121</v>
       </c>
       <c r="W13" s="137"/>
-      <c r="X13" s="192">
+      <c r="X13" s="276">
         <v>121</v>
       </c>
-      <c r="Y13" s="192">
+      <c r="Y13" s="276">
         <v>122</v>
       </c>
-      <c r="Z13" s="192">
+      <c r="Z13" s="276">
         <v>123</v>
       </c>
-      <c r="AA13" s="192">
+      <c r="AA13" s="276">
         <v>124</v>
       </c>
-      <c r="AB13" s="192">
+      <c r="AB13" s="276">
         <v>125</v>
       </c>
-      <c r="AC13" s="192">
+      <c r="AC13" s="276">
         <v>126</v>
       </c>
-      <c r="AD13" s="192">
+      <c r="AD13" s="276">
         <v>127</v>
       </c>
-      <c r="AE13" s="192">
+      <c r="AE13" s="276">
         <v>128</v>
       </c>
-      <c r="AF13" s="192">
+      <c r="AF13" s="276">
         <v>129</v>
       </c>
-      <c r="AG13" s="192">
+      <c r="AG13" s="276">
         <v>130</v>
       </c>
-      <c r="AH13" s="192">
+      <c r="AH13" s="276">
         <v>131</v>
       </c>
-      <c r="AI13" s="192">
+      <c r="AI13" s="276">
         <v>132</v>
       </c>
-      <c r="AJ13" s="192">
+      <c r="AJ13" s="276">
         <v>133</v>
       </c>
-      <c r="AK13" s="192">
+      <c r="AK13" s="276">
         <v>134</v>
       </c>
-      <c r="AL13" s="192">
+      <c r="AL13" s="276">
         <v>135</v>
       </c>
-      <c r="AM13" s="192">
+      <c r="AM13" s="276">
         <v>136</v>
       </c>
-      <c r="AN13" s="192">
+      <c r="AN13" s="276">
         <v>137</v>
       </c>
-      <c r="AO13" s="192">
+      <c r="AO13" s="276">
         <v>138</v>
       </c>
-      <c r="AP13" s="192">
+      <c r="AP13" s="276">
         <v>139</v>
       </c>
-      <c r="AQ13" s="192">
+      <c r="AQ13" s="276">
         <v>140</v>
       </c>
       <c r="AR13" s="119"/>
@@ -5436,125 +5436,125 @@
         <v>8</v>
       </c>
       <c r="B14" s="119"/>
-      <c r="C14" s="192">
+      <c r="C14" s="276">
         <v>160</v>
       </c>
-      <c r="D14" s="192">
+      <c r="D14" s="276">
         <v>159</v>
       </c>
-      <c r="E14" s="192">
+      <c r="E14" s="276">
         <v>158</v>
       </c>
-      <c r="F14" s="192">
+      <c r="F14" s="276">
         <v>157</v>
       </c>
-      <c r="G14" s="192">
+      <c r="G14" s="276">
         <v>156</v>
       </c>
-      <c r="H14" s="192">
+      <c r="H14" s="276">
         <v>155</v>
       </c>
-      <c r="I14" s="192">
+      <c r="I14" s="276">
         <v>154</v>
       </c>
-      <c r="J14" s="192">
+      <c r="J14" s="276">
         <v>153</v>
       </c>
-      <c r="K14" s="192">
+      <c r="K14" s="276">
         <v>152</v>
       </c>
-      <c r="L14" s="192">
+      <c r="L14" s="276">
         <v>151</v>
       </c>
-      <c r="M14" s="192">
+      <c r="M14" s="276">
         <v>150</v>
       </c>
-      <c r="N14" s="192">
+      <c r="N14" s="276">
         <v>149</v>
       </c>
-      <c r="O14" s="192">
+      <c r="O14" s="276">
         <v>148</v>
       </c>
-      <c r="P14" s="192">
+      <c r="P14" s="276">
         <v>147</v>
       </c>
-      <c r="Q14" s="192">
+      <c r="Q14" s="276">
         <v>146</v>
       </c>
-      <c r="R14" s="192">
+      <c r="R14" s="276">
         <v>145</v>
       </c>
-      <c r="S14" s="192">
+      <c r="S14" s="276">
         <v>144</v>
       </c>
-      <c r="T14" s="192">
+      <c r="T14" s="276">
         <v>143</v>
       </c>
-      <c r="U14" s="192">
+      <c r="U14" s="276">
         <v>142</v>
       </c>
-      <c r="V14" s="192">
+      <c r="V14" s="276">
         <v>141</v>
       </c>
       <c r="W14" s="137"/>
-      <c r="X14" s="192" t="s">
+      <c r="X14" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="192" t="s">
+      <c r="Y14" s="276" t="s">
         <v>152</v>
       </c>
-      <c r="Z14" s="192" t="s">
+      <c r="Z14" s="276" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="192" t="s">
+      <c r="AA14" s="276" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="192" t="s">
+      <c r="AB14" s="276" t="s">
         <v>149</v>
       </c>
-      <c r="AC14" s="192" t="s">
+      <c r="AC14" s="276" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="192" t="s">
+      <c r="AD14" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="192" t="s">
+      <c r="AE14" s="276" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="192" t="s">
+      <c r="AF14" s="276" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="192" t="s">
+      <c r="AG14" s="276" t="s">
         <v>186</v>
       </c>
-      <c r="AH14" s="192" t="s">
+      <c r="AH14" s="276" t="s">
         <v>185</v>
       </c>
-      <c r="AI14" s="192" t="s">
+      <c r="AI14" s="276" t="s">
         <v>184</v>
       </c>
-      <c r="AJ14" s="192" t="s">
+      <c r="AJ14" s="276" t="s">
         <v>183</v>
       </c>
-      <c r="AK14" s="192" t="s">
+      <c r="AK14" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="192" t="s">
+      <c r="AL14" s="276" t="s">
         <v>181</v>
       </c>
-      <c r="AM14" s="192" t="s">
+      <c r="AM14" s="276" t="s">
         <v>180</v>
       </c>
-      <c r="AN14" s="192" t="s">
+      <c r="AN14" s="276" t="s">
         <v>179</v>
       </c>
-      <c r="AO14" s="192" t="s">
+      <c r="AO14" s="276" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" s="192" t="s">
+      <c r="AP14" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="AQ14" s="192" t="s">
+      <c r="AQ14" s="276" t="s">
         <v>176</v>
       </c>
       <c r="AR14" s="119"/>
@@ -5568,125 +5568,125 @@
         <v>9</v>
       </c>
       <c r="B15" s="119"/>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="276" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="192" t="s">
+      <c r="D15" s="276" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="192" t="s">
+      <c r="E15" s="276" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="192" t="s">
+      <c r="F15" s="276" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="192" t="s">
+      <c r="G15" s="276" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="192" t="s">
+      <c r="H15" s="276" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="192" t="s">
+      <c r="I15" s="276" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="192" t="s">
+      <c r="J15" s="276" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="192" t="s">
+      <c r="K15" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="192" t="s">
+      <c r="L15" s="276" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="192" t="s">
+      <c r="M15" s="276" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="192" t="s">
+      <c r="N15" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="192" t="s">
+      <c r="O15" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="P15" s="192" t="s">
+      <c r="P15" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="192" t="s">
+      <c r="Q15" s="276" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="192" t="s">
+      <c r="R15" s="276" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="192" t="s">
+      <c r="S15" s="276" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="192" t="s">
+      <c r="T15" s="276" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="192" t="s">
+      <c r="U15" s="276" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="192" t="s">
+      <c r="V15" s="276" t="s">
         <v>175</v>
       </c>
       <c r="W15" s="137"/>
-      <c r="X15" s="192" t="s">
+      <c r="X15" s="276" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="192" t="s">
+      <c r="Y15" s="276" t="s">
         <v>174</v>
       </c>
-      <c r="Z15" s="192" t="s">
+      <c r="Z15" s="276" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="192" t="s">
+      <c r="AA15" s="276" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="192" t="s">
+      <c r="AB15" s="276" t="s">
         <v>171</v>
       </c>
-      <c r="AC15" s="192" t="s">
+      <c r="AC15" s="276" t="s">
         <v>170</v>
       </c>
-      <c r="AD15" s="192" t="s">
+      <c r="AD15" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="AE15" s="192" t="s">
+      <c r="AE15" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="AF15" s="192" t="s">
+      <c r="AF15" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="AG15" s="192" t="s">
+      <c r="AG15" s="276" t="s">
         <v>208</v>
       </c>
-      <c r="AH15" s="192" t="s">
+      <c r="AH15" s="276" t="s">
         <v>207</v>
       </c>
-      <c r="AI15" s="192" t="s">
+      <c r="AI15" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="AJ15" s="192" t="s">
+      <c r="AJ15" s="276" t="s">
         <v>205</v>
       </c>
-      <c r="AK15" s="192" t="s">
+      <c r="AK15" s="276" t="s">
         <v>204</v>
       </c>
-      <c r="AL15" s="192" t="s">
+      <c r="AL15" s="276" t="s">
         <v>203</v>
       </c>
-      <c r="AM15" s="192" t="s">
+      <c r="AM15" s="276" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="192" t="s">
+      <c r="AN15" s="276" t="s">
         <v>201</v>
       </c>
-      <c r="AO15" s="192" t="s">
+      <c r="AO15" s="276" t="s">
         <v>200</v>
       </c>
-      <c r="AP15" s="192" t="s">
+      <c r="AP15" s="276" t="s">
         <v>199</v>
       </c>
-      <c r="AQ15" s="192" t="s">
+      <c r="AQ15" s="276" t="s">
         <v>198</v>
       </c>
       <c r="AR15" s="123"/>
@@ -5700,125 +5700,125 @@
         <v>10</v>
       </c>
       <c r="B16" s="124"/>
-      <c r="C16" s="192">
+      <c r="C16" s="276">
         <v>200</v>
       </c>
-      <c r="D16" s="192">
+      <c r="D16" s="276">
         <v>199</v>
       </c>
-      <c r="E16" s="192" t="s">
+      <c r="E16" s="276" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="192" t="s">
+      <c r="F16" s="276" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="276" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="192" t="s">
+      <c r="H16" s="276" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="192" t="s">
+      <c r="I16" s="276" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="192" t="s">
+      <c r="J16" s="276" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="192" t="s">
+      <c r="K16" s="276" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="192" t="s">
+      <c r="L16" s="276" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="192" t="s">
+      <c r="M16" s="276" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="192" t="s">
+      <c r="N16" s="276" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="192" t="s">
+      <c r="O16" s="276" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="192" t="s">
+      <c r="P16" s="276" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="192" t="s">
+      <c r="Q16" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="192" t="s">
+      <c r="R16" s="276" t="s">
         <v>193</v>
       </c>
-      <c r="S16" s="192" t="s">
+      <c r="S16" s="276" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="192" t="s">
+      <c r="T16" s="276" t="s">
         <v>195</v>
       </c>
-      <c r="U16" s="192" t="s">
+      <c r="U16" s="276" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="192" t="s">
+      <c r="V16" s="276" t="s">
         <v>197</v>
       </c>
       <c r="W16" s="150"/>
-      <c r="X16" s="192">
+      <c r="X16" s="276">
         <v>181</v>
       </c>
-      <c r="Y16" s="192">
+      <c r="Y16" s="276">
         <v>182</v>
       </c>
-      <c r="Z16" s="192">
+      <c r="Z16" s="276">
         <v>183</v>
       </c>
-      <c r="AA16" s="192">
+      <c r="AA16" s="276">
         <v>184</v>
       </c>
-      <c r="AB16" s="192">
+      <c r="AB16" s="276">
         <v>185</v>
       </c>
-      <c r="AC16" s="192">
+      <c r="AC16" s="276">
         <v>186</v>
       </c>
-      <c r="AD16" s="192">
+      <c r="AD16" s="276">
         <v>187</v>
       </c>
-      <c r="AE16" s="192">
+      <c r="AE16" s="276">
         <v>188</v>
       </c>
-      <c r="AF16" s="192">
+      <c r="AF16" s="276">
         <v>189</v>
       </c>
-      <c r="AG16" s="192">
+      <c r="AG16" s="276">
         <v>190</v>
       </c>
-      <c r="AH16" s="192">
+      <c r="AH16" s="276">
         <v>191</v>
       </c>
-      <c r="AI16" s="192">
+      <c r="AI16" s="276">
         <v>192</v>
       </c>
-      <c r="AJ16" s="192">
+      <c r="AJ16" s="276">
         <v>193</v>
       </c>
-      <c r="AK16" s="192">
+      <c r="AK16" s="276">
         <v>194</v>
       </c>
-      <c r="AL16" s="192">
+      <c r="AL16" s="276">
         <v>195</v>
       </c>
-      <c r="AM16" s="192">
+      <c r="AM16" s="276">
         <v>196</v>
       </c>
-      <c r="AN16" s="192">
+      <c r="AN16" s="276">
         <v>197</v>
       </c>
-      <c r="AO16" s="192">
+      <c r="AO16" s="276">
         <v>198</v>
       </c>
-      <c r="AP16" s="192">
+      <c r="AP16" s="276">
         <v>199</v>
       </c>
-      <c r="AQ16" s="192">
+      <c r="AQ16" s="276">
         <v>200</v>
       </c>
       <c r="AR16" s="119"/>
@@ -5832,125 +5832,125 @@
         <v>11</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="192">
+      <c r="C17" s="276">
         <v>220</v>
       </c>
-      <c r="D17" s="192">
+      <c r="D17" s="276">
         <v>219</v>
       </c>
-      <c r="E17" s="192">
+      <c r="E17" s="276">
         <v>218</v>
       </c>
-      <c r="F17" s="192">
+      <c r="F17" s="276">
         <v>217</v>
       </c>
-      <c r="G17" s="192">
+      <c r="G17" s="276">
         <v>216</v>
       </c>
-      <c r="H17" s="192">
+      <c r="H17" s="276">
         <v>215</v>
       </c>
-      <c r="I17" s="192">
+      <c r="I17" s="276">
         <v>214</v>
       </c>
-      <c r="J17" s="192">
+      <c r="J17" s="276">
         <v>213</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="276">
         <v>212</v>
       </c>
-      <c r="L17" s="192">
+      <c r="L17" s="276">
         <v>211</v>
       </c>
-      <c r="M17" s="192">
+      <c r="M17" s="276">
         <v>210</v>
       </c>
-      <c r="N17" s="192">
+      <c r="N17" s="276">
         <v>209</v>
       </c>
-      <c r="O17" s="192">
+      <c r="O17" s="276">
         <v>208</v>
       </c>
-      <c r="P17" s="192">
+      <c r="P17" s="276">
         <v>207</v>
       </c>
-      <c r="Q17" s="192">
+      <c r="Q17" s="276">
         <v>206</v>
       </c>
-      <c r="R17" s="192">
+      <c r="R17" s="276">
         <v>205</v>
       </c>
-      <c r="S17" s="192">
+      <c r="S17" s="276">
         <v>204</v>
       </c>
-      <c r="T17" s="192">
+      <c r="T17" s="276">
         <v>203</v>
       </c>
-      <c r="U17" s="192">
+      <c r="U17" s="276">
         <v>202</v>
       </c>
-      <c r="V17" s="192">
+      <c r="V17" s="276">
         <v>201</v>
       </c>
       <c r="W17" s="137"/>
-      <c r="X17" s="192" t="s">
+      <c r="X17" s="276" t="s">
         <v>221</v>
       </c>
-      <c r="Y17" s="192" t="s">
+      <c r="Y17" s="276" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="192" t="s">
+      <c r="Z17" s="276" t="s">
         <v>219</v>
       </c>
-      <c r="AA17" s="192" t="s">
+      <c r="AA17" s="276" t="s">
         <v>218</v>
       </c>
-      <c r="AB17" s="192" t="s">
+      <c r="AB17" s="276" t="s">
         <v>217</v>
       </c>
-      <c r="AC17" s="192" t="s">
+      <c r="AC17" s="276" t="s">
         <v>216</v>
       </c>
-      <c r="AD17" s="192" t="s">
+      <c r="AD17" s="276" t="s">
         <v>215</v>
       </c>
-      <c r="AE17" s="192" t="s">
+      <c r="AE17" s="276" t="s">
         <v>214</v>
       </c>
-      <c r="AF17" s="192" t="s">
+      <c r="AF17" s="276" t="s">
         <v>213</v>
       </c>
-      <c r="AG17" s="192" t="s">
+      <c r="AG17" s="276" t="s">
         <v>212</v>
       </c>
-      <c r="AH17" s="192" t="s">
+      <c r="AH17" s="276" t="s">
         <v>250</v>
       </c>
-      <c r="AI17" s="192" t="s">
+      <c r="AI17" s="276" t="s">
         <v>249</v>
       </c>
-      <c r="AJ17" s="192" t="s">
+      <c r="AJ17" s="276" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" s="192" t="s">
+      <c r="AK17" s="276" t="s">
         <v>247</v>
       </c>
-      <c r="AL17" s="192" t="s">
+      <c r="AL17" s="276" t="s">
         <v>246</v>
       </c>
-      <c r="AM17" s="192" t="s">
+      <c r="AM17" s="276" t="s">
         <v>245</v>
       </c>
-      <c r="AN17" s="192" t="s">
+      <c r="AN17" s="276" t="s">
         <v>244</v>
       </c>
-      <c r="AO17" s="192" t="s">
+      <c r="AO17" s="276" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="192" t="s">
+      <c r="AP17" s="276" t="s">
         <v>242</v>
       </c>
-      <c r="AQ17" s="192" t="s">
+      <c r="AQ17" s="276" t="s">
         <v>241</v>
       </c>
       <c r="AR17" s="119"/>
@@ -5964,128 +5964,128 @@
         <v>12</v>
       </c>
       <c r="B18" s="119"/>
-      <c r="C18" s="192">
+      <c r="C18" s="276">
         <v>240</v>
       </c>
-      <c r="D18" s="192">
+      <c r="D18" s="276">
         <v>239</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="276">
         <v>238</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="276">
         <v>237</v>
       </c>
-      <c r="G18" s="192">
+      <c r="G18" s="276">
         <v>236</v>
       </c>
-      <c r="H18" s="192">
+      <c r="H18" s="276">
         <v>235</v>
       </c>
-      <c r="I18" s="192">
+      <c r="I18" s="276">
         <v>234</v>
       </c>
-      <c r="J18" s="192">
+      <c r="J18" s="276">
         <v>233</v>
       </c>
-      <c r="K18" s="192">
+      <c r="K18" s="276">
         <v>232</v>
       </c>
-      <c r="L18" s="192">
+      <c r="L18" s="276">
         <v>231</v>
       </c>
-      <c r="M18" s="192">
+      <c r="M18" s="276">
         <v>230</v>
       </c>
-      <c r="N18" s="192">
+      <c r="N18" s="276">
         <v>229</v>
       </c>
-      <c r="O18" s="192">
+      <c r="O18" s="276">
         <v>228</v>
       </c>
-      <c r="P18" s="192">
+      <c r="P18" s="276">
         <v>227</v>
       </c>
-      <c r="Q18" s="192">
+      <c r="Q18" s="276">
         <v>226</v>
       </c>
-      <c r="R18" s="192">
+      <c r="R18" s="276">
         <v>225</v>
       </c>
-      <c r="S18" s="192">
+      <c r="S18" s="276">
         <v>224</v>
       </c>
-      <c r="T18" s="192">
+      <c r="T18" s="276">
         <v>223</v>
       </c>
-      <c r="U18" s="192">
+      <c r="U18" s="276">
         <v>222</v>
       </c>
-      <c r="V18" s="192">
+      <c r="V18" s="276">
         <v>221</v>
       </c>
       <c r="W18" s="137"/>
-      <c r="X18" s="192" t="s">
+      <c r="X18" s="276" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="192" t="s">
+      <c r="Y18" s="276" t="s">
         <v>239</v>
       </c>
-      <c r="Z18" s="192" t="s">
+      <c r="Z18" s="276" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="192" t="s">
+      <c r="AA18" s="276" t="s">
         <v>237</v>
       </c>
-      <c r="AB18" s="192" t="s">
+      <c r="AB18" s="276" t="s">
         <v>251</v>
       </c>
-      <c r="AC18" s="192" t="s">
+      <c r="AC18" s="276" t="s">
         <v>252</v>
       </c>
-      <c r="AD18" s="192" t="s">
+      <c r="AD18" s="276" t="s">
         <v>253</v>
       </c>
-      <c r="AE18" s="192" t="s">
+      <c r="AE18" s="276" t="s">
         <v>236</v>
       </c>
-      <c r="AF18" s="192" t="s">
+      <c r="AF18" s="276" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="192" t="s">
+      <c r="AG18" s="276" t="s">
         <v>234</v>
       </c>
-      <c r="AH18" s="192" t="s">
+      <c r="AH18" s="276" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="192" t="s">
+      <c r="AI18" s="276" t="s">
         <v>276</v>
       </c>
-      <c r="AJ18" s="192" t="s">
+      <c r="AJ18" s="276" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="192" t="s">
+      <c r="AK18" s="276" t="s">
         <v>274</v>
       </c>
-      <c r="AL18" s="192" t="s">
+      <c r="AL18" s="276" t="s">
         <v>273</v>
       </c>
-      <c r="AM18" s="192" t="s">
+      <c r="AM18" s="276" t="s">
         <v>272</v>
       </c>
-      <c r="AN18" s="192" t="s">
+      <c r="AN18" s="276" t="s">
         <v>271</v>
       </c>
-      <c r="AO18" s="192" t="s">
+      <c r="AO18" s="276" t="s">
         <v>270</v>
       </c>
-      <c r="AP18" s="192" t="s">
+      <c r="AP18" s="276" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="280" t="s">
+      <c r="AQ18" s="278" t="s">
         <v>268</v>
       </c>
-      <c r="AR18" s="279" t="s">
+      <c r="AR18" s="265" t="s">
         <v>779</v>
       </c>
       <c r="AS18" s="51">
@@ -6098,125 +6098,125 @@
         <v>13</v>
       </c>
       <c r="B19" s="119"/>
-      <c r="C19" s="192">
+      <c r="C19" s="276">
         <v>260</v>
       </c>
-      <c r="D19" s="192">
+      <c r="D19" s="276">
         <v>259</v>
       </c>
-      <c r="E19" s="192">
+      <c r="E19" s="276">
         <v>258</v>
       </c>
-      <c r="F19" s="192">
+      <c r="F19" s="276">
         <v>257</v>
       </c>
-      <c r="G19" s="192">
+      <c r="G19" s="276">
         <v>256</v>
       </c>
-      <c r="H19" s="192">
+      <c r="H19" s="276">
         <v>255</v>
       </c>
-      <c r="I19" s="192">
+      <c r="I19" s="276">
         <v>254</v>
       </c>
-      <c r="J19" s="192">
+      <c r="J19" s="276">
         <v>253</v>
       </c>
-      <c r="K19" s="192">
+      <c r="K19" s="276">
         <v>252</v>
       </c>
-      <c r="L19" s="192">
+      <c r="L19" s="276">
         <v>251</v>
       </c>
-      <c r="M19" s="192">
+      <c r="M19" s="276">
         <v>250</v>
       </c>
-      <c r="N19" s="192">
+      <c r="N19" s="276">
         <v>249</v>
       </c>
-      <c r="O19" s="192">
+      <c r="O19" s="276">
         <v>248</v>
       </c>
-      <c r="P19" s="192">
+      <c r="P19" s="276">
         <v>247</v>
       </c>
-      <c r="Q19" s="192">
+      <c r="Q19" s="276">
         <v>246</v>
       </c>
-      <c r="R19" s="192">
+      <c r="R19" s="276">
         <v>245</v>
       </c>
-      <c r="S19" s="192">
+      <c r="S19" s="276">
         <v>244</v>
       </c>
-      <c r="T19" s="192">
+      <c r="T19" s="276">
         <v>243</v>
       </c>
-      <c r="U19" s="192">
+      <c r="U19" s="276">
         <v>242</v>
       </c>
-      <c r="V19" s="192">
+      <c r="V19" s="276">
         <v>241</v>
       </c>
       <c r="W19" s="137"/>
-      <c r="X19" s="192">
+      <c r="X19" s="276">
         <v>241</v>
       </c>
-      <c r="Y19" s="192">
+      <c r="Y19" s="276">
         <v>242</v>
       </c>
-      <c r="Z19" s="192">
+      <c r="Z19" s="276">
         <v>243</v>
       </c>
-      <c r="AA19" s="192">
+      <c r="AA19" s="276">
         <v>244</v>
       </c>
-      <c r="AB19" s="192">
+      <c r="AB19" s="276">
         <v>245</v>
       </c>
-      <c r="AC19" s="192">
+      <c r="AC19" s="276">
         <v>246</v>
       </c>
-      <c r="AD19" s="192">
+      <c r="AD19" s="276">
         <v>247</v>
       </c>
-      <c r="AE19" s="192">
+      <c r="AE19" s="276">
         <v>248</v>
       </c>
-      <c r="AF19" s="192">
+      <c r="AF19" s="276">
         <v>249</v>
       </c>
-      <c r="AG19" s="192">
+      <c r="AG19" s="276">
         <v>250</v>
       </c>
-      <c r="AH19" s="192">
+      <c r="AH19" s="276">
         <v>251</v>
       </c>
-      <c r="AI19" s="192">
+      <c r="AI19" s="276">
         <v>252</v>
       </c>
-      <c r="AJ19" s="192">
+      <c r="AJ19" s="276">
         <v>253</v>
       </c>
-      <c r="AK19" s="192">
+      <c r="AK19" s="276">
         <v>254</v>
       </c>
-      <c r="AL19" s="192">
+      <c r="AL19" s="276">
         <v>255</v>
       </c>
-      <c r="AM19" s="192">
+      <c r="AM19" s="276">
         <v>256</v>
       </c>
-      <c r="AN19" s="192">
+      <c r="AN19" s="276">
         <v>257</v>
       </c>
-      <c r="AO19" s="192">
+      <c r="AO19" s="276">
         <v>258</v>
       </c>
-      <c r="AP19" s="192">
+      <c r="AP19" s="276">
         <v>259</v>
       </c>
-      <c r="AQ19" s="192">
+      <c r="AQ19" s="276">
         <v>260</v>
       </c>
       <c r="AR19" s="177" t="s">
@@ -6231,129 +6231,129 @@
       <c r="A20" s="133">
         <v>14</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="192">
+      <c r="B20" s="195"/>
+      <c r="C20" s="276">
         <v>280</v>
       </c>
-      <c r="D20" s="192">
+      <c r="D20" s="276">
         <v>279</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="276">
         <v>278</v>
       </c>
-      <c r="F20" s="192">
+      <c r="F20" s="276">
         <v>277</v>
       </c>
-      <c r="G20" s="192">
+      <c r="G20" s="276">
         <v>276</v>
       </c>
-      <c r="H20" s="192">
+      <c r="H20" s="276">
         <v>275</v>
       </c>
-      <c r="I20" s="192">
+      <c r="I20" s="276">
         <v>274</v>
       </c>
-      <c r="J20" s="192">
+      <c r="J20" s="276">
         <v>273</v>
       </c>
-      <c r="K20" s="192">
+      <c r="K20" s="276">
         <v>272</v>
       </c>
-      <c r="L20" s="192">
+      <c r="L20" s="276">
         <v>271</v>
       </c>
-      <c r="M20" s="192">
+      <c r="M20" s="276">
         <v>270</v>
       </c>
-      <c r="N20" s="192">
+      <c r="N20" s="276">
         <v>269</v>
       </c>
-      <c r="O20" s="192">
+      <c r="O20" s="276">
         <v>268</v>
       </c>
-      <c r="P20" s="192">
+      <c r="P20" s="276">
         <v>267</v>
       </c>
-      <c r="Q20" s="192">
+      <c r="Q20" s="276">
         <v>266</v>
       </c>
-      <c r="R20" s="192">
+      <c r="R20" s="276">
         <v>265</v>
       </c>
-      <c r="S20" s="192">
+      <c r="S20" s="276">
         <v>264</v>
       </c>
-      <c r="T20" s="192">
+      <c r="T20" s="276">
         <v>263</v>
       </c>
-      <c r="U20" s="192">
+      <c r="U20" s="276">
         <v>262</v>
       </c>
-      <c r="V20" s="192">
+      <c r="V20" s="276">
         <v>261</v>
       </c>
       <c r="W20" s="151"/>
-      <c r="X20" s="192">
+      <c r="X20" s="276">
         <v>261</v>
       </c>
-      <c r="Y20" s="192">
+      <c r="Y20" s="276">
         <v>262</v>
       </c>
-      <c r="Z20" s="192">
+      <c r="Z20" s="276">
         <v>263</v>
       </c>
-      <c r="AA20" s="192">
+      <c r="AA20" s="276">
         <v>264</v>
       </c>
-      <c r="AB20" s="192">
+      <c r="AB20" s="276">
         <v>265</v>
       </c>
-      <c r="AC20" s="192">
+      <c r="AC20" s="276">
         <v>266</v>
       </c>
-      <c r="AD20" s="192">
+      <c r="AD20" s="276">
         <v>267</v>
       </c>
-      <c r="AE20" s="192">
+      <c r="AE20" s="276">
         <v>268</v>
       </c>
-      <c r="AF20" s="192">
+      <c r="AF20" s="276">
         <v>269</v>
       </c>
-      <c r="AG20" s="192">
+      <c r="AG20" s="276">
         <v>270</v>
       </c>
-      <c r="AH20" s="192">
+      <c r="AH20" s="276">
         <v>271</v>
       </c>
-      <c r="AI20" s="192">
+      <c r="AI20" s="276">
         <v>272</v>
       </c>
-      <c r="AJ20" s="192">
+      <c r="AJ20" s="276">
         <v>273</v>
       </c>
-      <c r="AK20" s="192">
+      <c r="AK20" s="276">
         <v>274</v>
       </c>
-      <c r="AL20" s="192">
+      <c r="AL20" s="276">
         <v>275</v>
       </c>
-      <c r="AM20" s="192">
+      <c r="AM20" s="276">
         <v>276</v>
       </c>
-      <c r="AN20" s="192">
+      <c r="AN20" s="276">
         <v>277</v>
       </c>
-      <c r="AO20" s="192">
+      <c r="AO20" s="276">
         <v>278</v>
       </c>
-      <c r="AP20" s="192">
+      <c r="AP20" s="276">
         <v>279</v>
       </c>
-      <c r="AQ20" s="192">
+      <c r="AQ20" s="276">
         <v>280</v>
       </c>
-      <c r="AR20" s="195" t="s">
+      <c r="AR20" s="194" t="s">
         <v>460</v>
       </c>
       <c r="AS20" s="51">
@@ -6366,125 +6366,125 @@
         <v>15</v>
       </c>
       <c r="B21" s="119"/>
-      <c r="C21" s="192">
+      <c r="C21" s="276">
         <v>300</v>
       </c>
-      <c r="D21" s="192">
+      <c r="D21" s="276">
         <v>299</v>
       </c>
-      <c r="E21" s="192">
+      <c r="E21" s="276">
         <v>298</v>
       </c>
-      <c r="F21" s="192">
+      <c r="F21" s="276">
         <v>297</v>
       </c>
-      <c r="G21" s="192">
+      <c r="G21" s="276">
         <v>296</v>
       </c>
-      <c r="H21" s="192">
+      <c r="H21" s="276">
         <v>295</v>
       </c>
-      <c r="I21" s="192">
+      <c r="I21" s="276">
         <v>294</v>
       </c>
-      <c r="J21" s="192">
+      <c r="J21" s="276">
         <v>293</v>
       </c>
-      <c r="K21" s="192">
+      <c r="K21" s="276">
         <v>292</v>
       </c>
-      <c r="L21" s="192">
+      <c r="L21" s="276">
         <v>291</v>
       </c>
-      <c r="M21" s="192">
+      <c r="M21" s="276">
         <v>290</v>
       </c>
-      <c r="N21" s="192">
+      <c r="N21" s="276">
         <v>289</v>
       </c>
-      <c r="O21" s="192">
+      <c r="O21" s="276">
         <v>288</v>
       </c>
-      <c r="P21" s="192">
+      <c r="P21" s="276">
         <v>287</v>
       </c>
-      <c r="Q21" s="192">
+      <c r="Q21" s="276">
         <v>286</v>
       </c>
-      <c r="R21" s="192">
+      <c r="R21" s="276">
         <v>285</v>
       </c>
-      <c r="S21" s="192">
+      <c r="S21" s="276">
         <v>284</v>
       </c>
-      <c r="T21" s="192">
+      <c r="T21" s="276">
         <v>283</v>
       </c>
-      <c r="U21" s="192">
+      <c r="U21" s="276">
         <v>282</v>
       </c>
-      <c r="V21" s="192">
+      <c r="V21" s="276">
         <v>281</v>
       </c>
       <c r="W21" s="118"/>
-      <c r="X21" s="192">
+      <c r="X21" s="276">
         <v>281</v>
       </c>
-      <c r="Y21" s="192">
+      <c r="Y21" s="276">
         <v>282</v>
       </c>
-      <c r="Z21" s="192">
+      <c r="Z21" s="276">
         <v>283</v>
       </c>
-      <c r="AA21" s="192">
+      <c r="AA21" s="276">
         <v>284</v>
       </c>
-      <c r="AB21" s="192">
+      <c r="AB21" s="276">
         <v>285</v>
       </c>
-      <c r="AC21" s="192">
+      <c r="AC21" s="276">
         <v>286</v>
       </c>
-      <c r="AD21" s="192">
+      <c r="AD21" s="276">
         <v>287</v>
       </c>
-      <c r="AE21" s="192">
+      <c r="AE21" s="276">
         <v>288</v>
       </c>
-      <c r="AF21" s="192">
+      <c r="AF21" s="276">
         <v>289</v>
       </c>
-      <c r="AG21" s="192">
+      <c r="AG21" s="276">
         <v>290</v>
       </c>
-      <c r="AH21" s="192">
+      <c r="AH21" s="276">
         <v>291</v>
       </c>
-      <c r="AI21" s="192">
+      <c r="AI21" s="276">
         <v>292</v>
       </c>
-      <c r="AJ21" s="192">
+      <c r="AJ21" s="276">
         <v>293</v>
       </c>
-      <c r="AK21" s="192">
+      <c r="AK21" s="276">
         <v>294</v>
       </c>
-      <c r="AL21" s="192">
+      <c r="AL21" s="276">
         <v>295</v>
       </c>
-      <c r="AM21" s="192">
+      <c r="AM21" s="276">
         <v>296</v>
       </c>
-      <c r="AN21" s="192">
+      <c r="AN21" s="276">
         <v>297</v>
       </c>
-      <c r="AO21" s="192">
+      <c r="AO21" s="276">
         <v>298</v>
       </c>
-      <c r="AP21" s="192">
+      <c r="AP21" s="276">
         <v>299</v>
       </c>
-      <c r="AQ21" s="192">
+      <c r="AQ21" s="276">
         <v>300</v>
       </c>
       <c r="AR21" s="119"/>
@@ -6507,11 +6507,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="274" t="s">
+      <c r="N22" s="271" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="274"/>
-      <c r="P22" s="274"/>
+      <c r="O22" s="271"/>
+      <c r="P22" s="271"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6525,11 +6525,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="274" t="s">
+      <c r="AD22" s="271" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="274"/>
-      <c r="AF22" s="274"/>
+      <c r="AE22" s="271"/>
+      <c r="AF22" s="271"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6545,19 +6545,19 @@
       <c r="AS22" s="178"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="221"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="253"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="253"/>
-      <c r="G23" s="253"/>
-      <c r="H23" s="253"/>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="254"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="249"/>
+      <c r="M23" s="249"/>
       <c r="N23" s="154">
         <v>1</v>
       </c>
@@ -6601,34 +6601,34 @@
       <c r="AF23" s="156">
         <v>1</v>
       </c>
-      <c r="AG23" s="254"/>
-      <c r="AH23" s="254"/>
-      <c r="AI23" s="255"/>
-      <c r="AJ23" s="255"/>
-      <c r="AK23" s="255"/>
-      <c r="AL23" s="255"/>
-      <c r="AM23" s="255"/>
-      <c r="AN23" s="255"/>
-      <c r="AO23" s="255"/>
-      <c r="AP23" s="255"/>
-      <c r="AQ23" s="255"/>
-      <c r="AR23" s="255"/>
+      <c r="AG23" s="249"/>
+      <c r="AH23" s="249"/>
+      <c r="AI23" s="250"/>
+      <c r="AJ23" s="250"/>
+      <c r="AK23" s="250"/>
+      <c r="AL23" s="250"/>
+      <c r="AM23" s="250"/>
+      <c r="AN23" s="250"/>
+      <c r="AO23" s="250"/>
+      <c r="AP23" s="250"/>
+      <c r="AQ23" s="250"/>
+      <c r="AR23" s="250"/>
       <c r="AS23" s="178"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
-      <c r="B24" s="255"/>
-      <c r="C24" s="255"/>
-      <c r="D24" s="255"/>
-      <c r="E24" s="255"/>
-      <c r="F24" s="255"/>
-      <c r="G24" s="255"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="255"/>
-      <c r="K24" s="255"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="254"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="250"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
       <c r="N24" s="154">
         <v>2</v>
       </c>
@@ -6652,34 +6652,34 @@
       <c r="AF24" s="156">
         <v>2</v>
       </c>
-      <c r="AG24" s="254"/>
-      <c r="AH24" s="254"/>
-      <c r="AI24" s="255"/>
-      <c r="AJ24" s="255"/>
-      <c r="AK24" s="255"/>
-      <c r="AL24" s="255"/>
-      <c r="AM24" s="255"/>
-      <c r="AN24" s="255"/>
-      <c r="AO24" s="255"/>
-      <c r="AP24" s="255"/>
-      <c r="AQ24" s="255"/>
-      <c r="AR24" s="255"/>
+      <c r="AG24" s="249"/>
+      <c r="AH24" s="249"/>
+      <c r="AI24" s="250"/>
+      <c r="AJ24" s="250"/>
+      <c r="AK24" s="250"/>
+      <c r="AL24" s="250"/>
+      <c r="AM24" s="250"/>
+      <c r="AN24" s="250"/>
+      <c r="AO24" s="250"/>
+      <c r="AP24" s="250"/>
+      <c r="AQ24" s="250"/>
+      <c r="AR24" s="250"/>
       <c r="AS24" s="178"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
-      <c r="B25" s="255"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="255"/>
-      <c r="K25" s="255"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="254"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="250"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="250"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="249"/>
+      <c r="M25" s="249"/>
       <c r="N25" s="154">
         <v>3</v>
       </c>
@@ -6703,857 +6703,857 @@
       <c r="AF25" s="156">
         <v>3</v>
       </c>
-      <c r="AG25" s="254"/>
-      <c r="AH25" s="254"/>
-      <c r="AI25" s="255"/>
-      <c r="AJ25" s="255"/>
-      <c r="AK25" s="255"/>
-      <c r="AL25" s="255"/>
-      <c r="AM25" s="255"/>
-      <c r="AN25" s="255"/>
-      <c r="AO25" s="255"/>
-      <c r="AP25" s="255"/>
-      <c r="AQ25" s="255"/>
-      <c r="AR25" s="255"/>
+      <c r="AG25" s="249"/>
+      <c r="AH25" s="249"/>
+      <c r="AI25" s="250"/>
+      <c r="AJ25" s="250"/>
+      <c r="AK25" s="250"/>
+      <c r="AL25" s="250"/>
+      <c r="AM25" s="250"/>
+      <c r="AN25" s="250"/>
+      <c r="AO25" s="250"/>
+      <c r="AP25" s="250"/>
+      <c r="AQ25" s="250"/>
+      <c r="AR25" s="250"/>
       <c r="AS25" s="178"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="256"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="251"/>
+      <c r="E26" s="251"/>
+      <c r="F26" s="251"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="251"/>
+      <c r="L26" s="251"/>
+      <c r="M26" s="251"/>
       <c r="N26" s="154">
         <v>4</v>
       </c>
       <c r="O26" s="113"/>
-      <c r="P26" s="192">
+      <c r="P26" s="276">
         <v>307</v>
       </c>
-      <c r="Q26" s="192">
+      <c r="Q26" s="276">
         <v>306</v>
       </c>
-      <c r="R26" s="192">
+      <c r="R26" s="276">
         <v>305</v>
       </c>
-      <c r="S26" s="192">
+      <c r="S26" s="276">
         <v>304</v>
       </c>
-      <c r="T26" s="192">
+      <c r="T26" s="276">
         <v>303</v>
       </c>
-      <c r="U26" s="192">
+      <c r="U26" s="276">
         <v>302</v>
       </c>
-      <c r="V26" s="192">
+      <c r="V26" s="276">
         <v>301</v>
       </c>
       <c r="W26" s="161"/>
-      <c r="X26" s="192">
+      <c r="X26" s="276">
         <v>301</v>
       </c>
-      <c r="Y26" s="192">
+      <c r="Y26" s="276">
         <v>302</v>
       </c>
-      <c r="Z26" s="192">
+      <c r="Z26" s="276">
         <v>303</v>
       </c>
-      <c r="AA26" s="192">
+      <c r="AA26" s="276">
         <v>304</v>
       </c>
-      <c r="AB26" s="192">
+      <c r="AB26" s="276">
         <v>305</v>
       </c>
-      <c r="AC26" s="192">
+      <c r="AC26" s="276">
         <v>306</v>
       </c>
-      <c r="AD26" s="192">
+      <c r="AD26" s="276">
         <v>307</v>
       </c>
       <c r="AE26" s="113"/>
       <c r="AF26" s="156">
         <v>4</v>
       </c>
-      <c r="AG26" s="255"/>
-      <c r="AH26" s="267"/>
-      <c r="AI26" s="255"/>
-      <c r="AJ26" s="267"/>
-      <c r="AK26" s="255"/>
-      <c r="AL26" s="267"/>
-      <c r="AM26" s="255"/>
-      <c r="AN26" s="267"/>
-      <c r="AO26" s="255"/>
-      <c r="AP26" s="267"/>
-      <c r="AQ26" s="255"/>
-      <c r="AR26" s="267"/>
+      <c r="AG26" s="250"/>
+      <c r="AH26" s="262"/>
+      <c r="AI26" s="250"/>
+      <c r="AJ26" s="262"/>
+      <c r="AK26" s="250"/>
+      <c r="AL26" s="262"/>
+      <c r="AM26" s="250"/>
+      <c r="AN26" s="262"/>
+      <c r="AO26" s="250"/>
+      <c r="AP26" s="262"/>
+      <c r="AQ26" s="250"/>
+      <c r="AR26" s="262"/>
       <c r="AS26" s="178"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="251"/>
+      <c r="L27" s="251"/>
+      <c r="M27" s="251"/>
       <c r="N27" s="154">
         <v>5</v>
       </c>
       <c r="O27" s="113"/>
-      <c r="P27" s="192">
+      <c r="P27" s="276">
         <v>314</v>
       </c>
-      <c r="Q27" s="192">
+      <c r="Q27" s="276">
         <v>313</v>
       </c>
-      <c r="R27" s="192">
+      <c r="R27" s="276">
         <v>312</v>
       </c>
-      <c r="S27" s="192">
+      <c r="S27" s="276">
         <v>311</v>
       </c>
-      <c r="T27" s="192">
+      <c r="T27" s="276">
         <v>310</v>
       </c>
-      <c r="U27" s="192">
+      <c r="U27" s="276">
         <v>309</v>
       </c>
-      <c r="V27" s="192">
+      <c r="V27" s="276">
         <v>308</v>
       </c>
       <c r="W27" s="153"/>
-      <c r="X27" s="192">
+      <c r="X27" s="276">
         <v>308</v>
       </c>
-      <c r="Y27" s="192">
+      <c r="Y27" s="276">
         <v>309</v>
       </c>
-      <c r="Z27" s="192">
+      <c r="Z27" s="276">
         <v>310</v>
       </c>
-      <c r="AA27" s="192">
+      <c r="AA27" s="276">
         <v>311</v>
       </c>
-      <c r="AB27" s="192">
+      <c r="AB27" s="276">
         <v>312</v>
       </c>
-      <c r="AC27" s="192">
+      <c r="AC27" s="276">
         <v>313</v>
       </c>
-      <c r="AD27" s="192">
+      <c r="AD27" s="276">
         <v>314</v>
       </c>
       <c r="AE27" s="113"/>
       <c r="AF27" s="156">
         <v>5</v>
       </c>
-      <c r="AG27" s="255"/>
-      <c r="AH27" s="267"/>
-      <c r="AI27" s="255"/>
-      <c r="AJ27" s="255"/>
-      <c r="AK27" s="255"/>
-      <c r="AL27" s="255"/>
-      <c r="AM27" s="255"/>
-      <c r="AN27" s="255"/>
-      <c r="AO27" s="268"/>
-      <c r="AP27" s="255"/>
-      <c r="AQ27" s="255"/>
-      <c r="AR27" s="255"/>
+      <c r="AG27" s="250"/>
+      <c r="AH27" s="262"/>
+      <c r="AI27" s="250"/>
+      <c r="AJ27" s="250"/>
+      <c r="AK27" s="250"/>
+      <c r="AL27" s="250"/>
+      <c r="AM27" s="250"/>
+      <c r="AN27" s="250"/>
+      <c r="AO27" s="263"/>
+      <c r="AP27" s="250"/>
+      <c r="AQ27" s="250"/>
+      <c r="AR27" s="250"/>
       <c r="AS27" s="178"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="119"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="256"/>
-      <c r="M28" s="256"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="251"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="251"/>
+      <c r="L28" s="251"/>
+      <c r="M28" s="251"/>
       <c r="N28" s="154">
         <v>6</v>
       </c>
       <c r="O28" s="113"/>
-      <c r="P28" s="192">
+      <c r="P28" s="276">
         <v>321</v>
       </c>
-      <c r="Q28" s="192">
+      <c r="Q28" s="276">
         <v>320</v>
       </c>
-      <c r="R28" s="192">
+      <c r="R28" s="276">
         <v>319</v>
       </c>
-      <c r="S28" s="192">
+      <c r="S28" s="276">
         <v>318</v>
       </c>
-      <c r="T28" s="192">
+      <c r="T28" s="276">
         <v>317</v>
       </c>
-      <c r="U28" s="192">
+      <c r="U28" s="276">
         <v>316</v>
       </c>
-      <c r="V28" s="192">
+      <c r="V28" s="276">
         <v>315</v>
       </c>
       <c r="W28" s="153"/>
-      <c r="X28" s="192">
+      <c r="X28" s="276">
         <v>315</v>
       </c>
-      <c r="Y28" s="192">
+      <c r="Y28" s="276">
         <v>316</v>
       </c>
-      <c r="Z28" s="192">
+      <c r="Z28" s="276">
         <v>317</v>
       </c>
-      <c r="AA28" s="192">
+      <c r="AA28" s="276">
         <v>318</v>
       </c>
-      <c r="AB28" s="192">
+      <c r="AB28" s="276">
         <v>319</v>
       </c>
-      <c r="AC28" s="192">
+      <c r="AC28" s="276">
         <v>320</v>
       </c>
-      <c r="AD28" s="192">
+      <c r="AD28" s="276">
         <v>321</v>
       </c>
       <c r="AE28" s="158"/>
       <c r="AF28" s="156">
         <v>6</v>
       </c>
-      <c r="AG28" s="255"/>
-      <c r="AH28" s="267"/>
-      <c r="AI28" s="255"/>
-      <c r="AJ28" s="255"/>
-      <c r="AK28" s="255"/>
-      <c r="AL28" s="255"/>
-      <c r="AM28" s="255"/>
-      <c r="AN28" s="255"/>
-      <c r="AO28" s="255"/>
-      <c r="AP28" s="255"/>
-      <c r="AQ28" s="255"/>
-      <c r="AR28" s="255"/>
+      <c r="AG28" s="250"/>
+      <c r="AH28" s="262"/>
+      <c r="AI28" s="250"/>
+      <c r="AJ28" s="250"/>
+      <c r="AK28" s="250"/>
+      <c r="AL28" s="250"/>
+      <c r="AM28" s="250"/>
+      <c r="AN28" s="250"/>
+      <c r="AO28" s="250"/>
+      <c r="AP28" s="250"/>
+      <c r="AQ28" s="250"/>
+      <c r="AR28" s="250"/>
       <c r="AS28" s="179"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="127"/>
-      <c r="B29" s="257"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
-      <c r="E29" s="257"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="257"/>
-      <c r="H29" s="257"/>
-      <c r="I29" s="257"/>
-      <c r="J29" s="257"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="257"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="252"/>
+      <c r="J29" s="252"/>
+      <c r="K29" s="252"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="252"/>
       <c r="N29" s="154">
         <v>7</v>
       </c>
       <c r="O29" s="113"/>
-      <c r="P29" s="192">
+      <c r="P29" s="276">
         <v>328</v>
       </c>
-      <c r="Q29" s="192">
+      <c r="Q29" s="276">
         <v>327</v>
       </c>
-      <c r="R29" s="237">
+      <c r="R29" s="235">
         <v>326</v>
       </c>
-      <c r="S29" s="245" t="s">
+      <c r="S29" s="240" t="s">
         <v>778</v>
       </c>
-      <c r="T29" s="250" t="s">
+      <c r="T29" s="245" t="s">
         <v>364</v>
       </c>
-      <c r="U29" s="193">
+      <c r="U29" s="192">
         <v>323</v>
       </c>
-      <c r="V29" s="193">
+      <c r="V29" s="192">
         <v>322</v>
       </c>
       <c r="W29" s="153"/>
-      <c r="X29" s="193">
+      <c r="X29" s="192">
         <v>322</v>
       </c>
-      <c r="Y29" s="193">
+      <c r="Y29" s="192">
         <v>323</v>
       </c>
-      <c r="Z29" s="193">
+      <c r="Z29" s="192">
         <v>324</v>
       </c>
-      <c r="AA29" s="193">
+      <c r="AA29" s="192">
         <v>325</v>
       </c>
-      <c r="AB29" s="193">
+      <c r="AB29" s="192">
         <v>326</v>
       </c>
-      <c r="AC29" s="193">
+      <c r="AC29" s="192">
         <v>327</v>
       </c>
-      <c r="AD29" s="193">
+      <c r="AD29" s="192">
         <v>328</v>
       </c>
       <c r="AE29" s="113"/>
       <c r="AF29" s="156">
         <v>7</v>
       </c>
-      <c r="AG29" s="264"/>
-      <c r="AH29" s="263"/>
-      <c r="AI29" s="264"/>
-      <c r="AJ29" s="263"/>
-      <c r="AK29" s="264"/>
-      <c r="AL29" s="263"/>
-      <c r="AM29" s="264"/>
-      <c r="AN29" s="263"/>
-      <c r="AO29" s="264"/>
-      <c r="AP29" s="263"/>
-      <c r="AQ29" s="264"/>
-      <c r="AR29" s="263"/>
+      <c r="AG29" s="259"/>
+      <c r="AH29" s="258"/>
+      <c r="AI29" s="259"/>
+      <c r="AJ29" s="258"/>
+      <c r="AK29" s="259"/>
+      <c r="AL29" s="258"/>
+      <c r="AM29" s="259"/>
+      <c r="AN29" s="258"/>
+      <c r="AO29" s="259"/>
+      <c r="AP29" s="258"/>
+      <c r="AQ29" s="259"/>
+      <c r="AR29" s="258"/>
       <c r="AS29" s="178"/>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
-      <c r="B30" s="255"/>
-      <c r="C30" s="255"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="255"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="255"/>
-      <c r="L30" s="255"/>
-      <c r="M30" s="255"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="250"/>
+      <c r="L30" s="250"/>
+      <c r="M30" s="250"/>
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="248"/>
-      <c r="P30" s="251">
+      <c r="O30" s="243"/>
+      <c r="P30" s="246">
         <v>335</v>
       </c>
-      <c r="Q30" s="193">
+      <c r="Q30" s="192">
         <v>334</v>
       </c>
-      <c r="R30" s="193">
+      <c r="R30" s="192">
         <v>333</v>
       </c>
-      <c r="S30" s="193">
+      <c r="S30" s="192">
         <v>332</v>
       </c>
-      <c r="T30" s="193">
+      <c r="T30" s="192">
         <v>331</v>
       </c>
-      <c r="U30" s="193">
+      <c r="U30" s="192">
         <v>330</v>
       </c>
-      <c r="V30" s="193">
+      <c r="V30" s="192">
         <v>329</v>
       </c>
       <c r="W30" s="162"/>
-      <c r="X30" s="193">
+      <c r="X30" s="192">
         <v>329</v>
       </c>
-      <c r="Y30" s="193">
+      <c r="Y30" s="192">
         <v>330</v>
       </c>
-      <c r="Z30" s="193">
+      <c r="Z30" s="192">
         <v>331</v>
       </c>
-      <c r="AA30" s="193">
+      <c r="AA30" s="192">
         <v>332</v>
       </c>
-      <c r="AB30" s="193">
+      <c r="AB30" s="192">
         <v>333</v>
       </c>
-      <c r="AC30" s="193">
+      <c r="AC30" s="192">
         <v>334</v>
       </c>
-      <c r="AD30" s="193">
+      <c r="AD30" s="192">
         <v>335</v>
       </c>
       <c r="AE30" s="113"/>
       <c r="AF30" s="159">
         <v>8</v>
       </c>
-      <c r="AG30" s="255"/>
-      <c r="AH30" s="267"/>
-      <c r="AI30" s="255"/>
-      <c r="AJ30" s="255"/>
-      <c r="AK30" s="255"/>
-      <c r="AL30" s="255"/>
-      <c r="AM30" s="255"/>
-      <c r="AN30" s="255"/>
-      <c r="AO30" s="255"/>
-      <c r="AP30" s="255"/>
-      <c r="AQ30" s="255"/>
-      <c r="AR30" s="255"/>
+      <c r="AG30" s="250"/>
+      <c r="AH30" s="262"/>
+      <c r="AI30" s="250"/>
+      <c r="AJ30" s="250"/>
+      <c r="AK30" s="250"/>
+      <c r="AL30" s="250"/>
+      <c r="AM30" s="250"/>
+      <c r="AN30" s="250"/>
+      <c r="AO30" s="250"/>
+      <c r="AP30" s="250"/>
+      <c r="AQ30" s="250"/>
+      <c r="AR30" s="250"/>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
-      <c r="B31" s="255"/>
-      <c r="C31" s="255"/>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="255"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="255"/>
-      <c r="L31" s="255"/>
-      <c r="M31" s="255"/>
+      <c r="B31" s="250"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="250"/>
+      <c r="E31" s="250"/>
+      <c r="F31" s="250"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="250"/>
+      <c r="I31" s="250"/>
+      <c r="J31" s="250"/>
+      <c r="K31" s="250"/>
+      <c r="L31" s="250"/>
+      <c r="M31" s="250"/>
       <c r="N31" s="154">
         <v>9</v>
       </c>
       <c r="O31" s="125"/>
-      <c r="P31" s="193">
+      <c r="P31" s="192">
         <v>342</v>
       </c>
-      <c r="Q31" s="193">
+      <c r="Q31" s="192">
         <v>341</v>
       </c>
-      <c r="R31" s="193">
+      <c r="R31" s="192">
         <v>340</v>
       </c>
-      <c r="S31" s="193">
+      <c r="S31" s="192">
         <v>339</v>
       </c>
-      <c r="T31" s="193">
+      <c r="T31" s="192">
         <v>338</v>
       </c>
-      <c r="U31" s="193">
+      <c r="U31" s="192">
         <v>337</v>
       </c>
-      <c r="V31" s="193">
+      <c r="V31" s="192">
         <v>336</v>
       </c>
       <c r="W31" s="163"/>
-      <c r="X31" s="193">
+      <c r="X31" s="192">
         <v>336</v>
       </c>
-      <c r="Y31" s="193">
+      <c r="Y31" s="192">
         <v>337</v>
       </c>
-      <c r="Z31" s="193">
+      <c r="Z31" s="192">
         <v>338</v>
       </c>
-      <c r="AA31" s="193">
+      <c r="AA31" s="192">
         <v>339</v>
       </c>
-      <c r="AB31" s="193">
+      <c r="AB31" s="192">
         <v>340</v>
       </c>
-      <c r="AC31" s="193">
+      <c r="AC31" s="192">
         <v>341</v>
       </c>
-      <c r="AD31" s="193">
+      <c r="AD31" s="192">
         <v>342</v>
       </c>
       <c r="AE31" s="115"/>
       <c r="AF31" s="185">
         <v>9</v>
       </c>
-      <c r="AG31" s="255"/>
-      <c r="AH31" s="267"/>
-      <c r="AI31" s="255"/>
-      <c r="AJ31" s="255"/>
-      <c r="AK31" s="255"/>
-      <c r="AL31" s="255"/>
-      <c r="AM31" s="255"/>
-      <c r="AN31" s="255"/>
-      <c r="AO31" s="255"/>
-      <c r="AP31" s="255"/>
-      <c r="AQ31" s="255"/>
-      <c r="AR31" s="255"/>
+      <c r="AG31" s="250"/>
+      <c r="AH31" s="262"/>
+      <c r="AI31" s="250"/>
+      <c r="AJ31" s="250"/>
+      <c r="AK31" s="250"/>
+      <c r="AL31" s="250"/>
+      <c r="AM31" s="250"/>
+      <c r="AN31" s="250"/>
+      <c r="AO31" s="250"/>
+      <c r="AP31" s="250"/>
+      <c r="AQ31" s="250"/>
+      <c r="AR31" s="250"/>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
-      <c r="B32" s="255"/>
-      <c r="C32" s="255"/>
-      <c r="D32" s="255"/>
-      <c r="E32" s="255"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="255"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="255"/>
-      <c r="L32" s="255"/>
-      <c r="M32" s="255"/>
+      <c r="B32" s="250"/>
+      <c r="C32" s="250"/>
+      <c r="D32" s="250"/>
+      <c r="E32" s="250"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="250"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="250"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="250"/>
       <c r="N32" s="184">
         <v>10</v>
       </c>
       <c r="O32" s="115"/>
-      <c r="P32" s="193">
+      <c r="P32" s="192">
         <v>349</v>
       </c>
-      <c r="Q32" s="193">
+      <c r="Q32" s="192">
         <v>348</v>
       </c>
-      <c r="R32" s="193">
+      <c r="R32" s="192">
         <v>347</v>
       </c>
-      <c r="S32" s="193">
+      <c r="S32" s="192">
         <v>346</v>
       </c>
-      <c r="T32" s="193">
+      <c r="T32" s="192">
         <v>345</v>
       </c>
-      <c r="U32" s="193">
+      <c r="U32" s="192">
         <v>344</v>
       </c>
-      <c r="V32" s="193">
+      <c r="V32" s="192">
         <v>343</v>
       </c>
       <c r="W32" s="163"/>
-      <c r="X32" s="193">
+      <c r="X32" s="192">
         <v>343</v>
       </c>
-      <c r="Y32" s="193">
+      <c r="Y32" s="192">
         <v>344</v>
       </c>
-      <c r="Z32" s="193">
+      <c r="Z32" s="192">
         <v>345</v>
       </c>
-      <c r="AA32" s="193">
+      <c r="AA32" s="192">
         <v>346</v>
       </c>
-      <c r="AB32" s="193">
+      <c r="AB32" s="192">
         <v>347</v>
       </c>
-      <c r="AC32" s="193">
+      <c r="AC32" s="192">
         <v>348</v>
       </c>
-      <c r="AD32" s="193">
+      <c r="AD32" s="192">
         <v>349</v>
       </c>
       <c r="AE32" s="115"/>
       <c r="AF32" s="185">
         <v>10</v>
       </c>
-      <c r="AG32" s="255"/>
-      <c r="AH32" s="267"/>
-      <c r="AI32" s="255"/>
-      <c r="AJ32" s="255"/>
-      <c r="AK32" s="255"/>
-      <c r="AL32" s="255"/>
-      <c r="AM32" s="255"/>
-      <c r="AN32" s="255"/>
-      <c r="AO32" s="255"/>
-      <c r="AP32" s="255"/>
-      <c r="AQ32" s="255"/>
-      <c r="AR32" s="255"/>
+      <c r="AG32" s="250"/>
+      <c r="AH32" s="262"/>
+      <c r="AI32" s="250"/>
+      <c r="AJ32" s="250"/>
+      <c r="AK32" s="250"/>
+      <c r="AL32" s="250"/>
+      <c r="AM32" s="250"/>
+      <c r="AN32" s="250"/>
+      <c r="AO32" s="250"/>
+      <c r="AP32" s="250"/>
+      <c r="AQ32" s="250"/>
+      <c r="AR32" s="250"/>
     </row>
     <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="255"/>
-      <c r="C33" s="255"/>
-      <c r="D33" s="255"/>
-      <c r="E33" s="255"/>
-      <c r="F33" s="255"/>
-      <c r="G33" s="255"/>
-      <c r="H33" s="255"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="255"/>
-      <c r="K33" s="255"/>
-      <c r="L33" s="255"/>
-      <c r="M33" s="255"/>
+      <c r="B33" s="250"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="250"/>
+      <c r="K33" s="250"/>
+      <c r="L33" s="250"/>
+      <c r="M33" s="250"/>
       <c r="N33" s="186">
         <v>11</v>
       </c>
       <c r="O33" s="115"/>
-      <c r="P33" s="193">
+      <c r="P33" s="192">
         <v>356</v>
       </c>
-      <c r="Q33" s="193">
+      <c r="Q33" s="192">
         <v>355</v>
       </c>
-      <c r="R33" s="193">
+      <c r="R33" s="192">
         <v>354</v>
       </c>
-      <c r="S33" s="193">
+      <c r="S33" s="192">
         <v>353</v>
       </c>
-      <c r="T33" s="193">
+      <c r="T33" s="192">
         <v>352</v>
       </c>
-      <c r="U33" s="193">
+      <c r="U33" s="192">
         <v>351</v>
       </c>
-      <c r="V33" s="193">
+      <c r="V33" s="192">
         <v>350</v>
       </c>
       <c r="W33" s="163"/>
-      <c r="X33" s="252">
+      <c r="X33" s="247">
         <v>350</v>
       </c>
-      <c r="Y33" s="252">
+      <c r="Y33" s="247">
         <v>351</v>
       </c>
-      <c r="Z33" s="193">
+      <c r="Z33" s="192">
         <v>352</v>
       </c>
-      <c r="AA33" s="193">
+      <c r="AA33" s="192">
         <v>353</v>
       </c>
-      <c r="AB33" s="193">
+      <c r="AB33" s="192">
         <v>354</v>
       </c>
-      <c r="AC33" s="193">
+      <c r="AC33" s="192">
         <v>355</v>
       </c>
-      <c r="AD33" s="193">
+      <c r="AD33" s="192">
         <v>356</v>
       </c>
       <c r="AE33" s="115"/>
       <c r="AF33" s="185">
         <v>11</v>
       </c>
-      <c r="AG33" s="255"/>
-      <c r="AH33" s="263"/>
-      <c r="AI33" s="255"/>
-      <c r="AJ33" s="264"/>
-      <c r="AK33" s="255"/>
-      <c r="AL33" s="264"/>
-      <c r="AM33" s="255"/>
-      <c r="AN33" s="264"/>
-      <c r="AO33" s="255"/>
-      <c r="AP33" s="264"/>
-      <c r="AQ33" s="255"/>
-      <c r="AR33" s="264"/>
+      <c r="AG33" s="250"/>
+      <c r="AH33" s="258"/>
+      <c r="AI33" s="250"/>
+      <c r="AJ33" s="259"/>
+      <c r="AK33" s="250"/>
+      <c r="AL33" s="259"/>
+      <c r="AM33" s="250"/>
+      <c r="AN33" s="259"/>
+      <c r="AO33" s="250"/>
+      <c r="AP33" s="259"/>
+      <c r="AQ33" s="250"/>
+      <c r="AR33" s="259"/>
       <c r="AS33" s="181"/>
     </row>
     <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
-      <c r="B34" s="255"/>
-      <c r="C34" s="255"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="255"/>
-      <c r="H34" s="255"/>
-      <c r="I34" s="255"/>
-      <c r="J34" s="255"/>
-      <c r="K34" s="255"/>
-      <c r="L34" s="255"/>
-      <c r="M34" s="255"/>
+      <c r="B34" s="250"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="250"/>
+      <c r="I34" s="250"/>
+      <c r="J34" s="250"/>
+      <c r="K34" s="250"/>
+      <c r="L34" s="250"/>
+      <c r="M34" s="250"/>
       <c r="N34" s="186">
         <v>12</v>
       </c>
       <c r="O34" s="141"/>
-      <c r="P34" s="246" t="s">
+      <c r="P34" s="241" t="s">
         <v>777</v>
       </c>
-      <c r="Q34" s="199">
+      <c r="Q34" s="198">
         <v>362</v>
       </c>
-      <c r="R34" s="199">
+      <c r="R34" s="198">
         <v>361</v>
       </c>
-      <c r="S34" s="199">
+      <c r="S34" s="198">
         <v>360</v>
       </c>
-      <c r="T34" s="199">
+      <c r="T34" s="198">
         <v>359</v>
       </c>
-      <c r="U34" s="199">
+      <c r="U34" s="198">
         <v>358</v>
       </c>
-      <c r="V34" s="199">
+      <c r="V34" s="198">
         <v>357</v>
       </c>
       <c r="W34" s="166"/>
-      <c r="X34" s="199">
+      <c r="X34" s="198">
         <v>357</v>
       </c>
-      <c r="Y34" s="199">
+      <c r="Y34" s="198">
         <v>358</v>
       </c>
-      <c r="Z34" s="253"/>
-      <c r="AA34" s="253"/>
-      <c r="AB34" s="253"/>
-      <c r="AC34" s="253"/>
-      <c r="AD34" s="253"/>
+      <c r="Z34" s="248"/>
+      <c r="AA34" s="248"/>
+      <c r="AB34" s="248"/>
+      <c r="AC34" s="248"/>
+      <c r="AD34" s="248"/>
       <c r="AE34" s="115"/>
       <c r="AF34" s="185">
         <v>12</v>
       </c>
-      <c r="AG34" s="255"/>
-      <c r="AH34" s="263"/>
-      <c r="AI34" s="255"/>
-      <c r="AJ34" s="264"/>
-      <c r="AK34" s="255"/>
-      <c r="AL34" s="264"/>
-      <c r="AM34" s="255"/>
-      <c r="AN34" s="264"/>
-      <c r="AO34" s="255"/>
-      <c r="AP34" s="264"/>
-      <c r="AQ34" s="255"/>
-      <c r="AR34" s="264"/>
+      <c r="AG34" s="250"/>
+      <c r="AH34" s="258"/>
+      <c r="AI34" s="250"/>
+      <c r="AJ34" s="259"/>
+      <c r="AK34" s="250"/>
+      <c r="AL34" s="259"/>
+      <c r="AM34" s="250"/>
+      <c r="AN34" s="259"/>
+      <c r="AO34" s="250"/>
+      <c r="AP34" s="259"/>
+      <c r="AQ34" s="250"/>
+      <c r="AR34" s="259"/>
       <c r="AS34" s="181"/>
     </row>
     <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
-      <c r="B35" s="255"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="255"/>
-      <c r="G35" s="255"/>
-      <c r="H35" s="255"/>
-      <c r="I35" s="255"/>
-      <c r="J35" s="255"/>
-      <c r="K35" s="255"/>
-      <c r="L35" s="255"/>
-      <c r="M35" s="255"/>
-      <c r="N35" s="258"/>
-      <c r="O35" s="259"/>
-      <c r="P35" s="253"/>
-      <c r="Q35" s="253"/>
-      <c r="R35" s="253"/>
-      <c r="S35" s="253"/>
-      <c r="T35" s="255"/>
-      <c r="U35" s="255"/>
-      <c r="V35" s="255"/>
-      <c r="W35" s="260"/>
-      <c r="X35" s="255"/>
-      <c r="Y35" s="255"/>
-      <c r="Z35" s="255"/>
-      <c r="AA35" s="255"/>
-      <c r="AB35" s="255"/>
-      <c r="AC35" s="255"/>
-      <c r="AD35" s="255"/>
-      <c r="AE35" s="261"/>
-      <c r="AF35" s="262"/>
-      <c r="AG35" s="255"/>
-      <c r="AH35" s="263"/>
-      <c r="AI35" s="255"/>
-      <c r="AJ35" s="264"/>
-      <c r="AK35" s="255"/>
-      <c r="AL35" s="264"/>
-      <c r="AM35" s="255"/>
-      <c r="AN35" s="264"/>
-      <c r="AO35" s="255"/>
-      <c r="AP35" s="264"/>
-      <c r="AQ35" s="255"/>
-      <c r="AR35" s="264"/>
+      <c r="B35" s="250"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="250"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="250"/>
+      <c r="I35" s="250"/>
+      <c r="J35" s="250"/>
+      <c r="K35" s="250"/>
+      <c r="L35" s="250"/>
+      <c r="M35" s="250"/>
+      <c r="N35" s="253"/>
+      <c r="O35" s="254"/>
+      <c r="P35" s="248"/>
+      <c r="Q35" s="248"/>
+      <c r="R35" s="248"/>
+      <c r="S35" s="248"/>
+      <c r="T35" s="250"/>
+      <c r="U35" s="250"/>
+      <c r="V35" s="250"/>
+      <c r="W35" s="255"/>
+      <c r="X35" s="250"/>
+      <c r="Y35" s="250"/>
+      <c r="Z35" s="250"/>
+      <c r="AA35" s="250"/>
+      <c r="AB35" s="250"/>
+      <c r="AC35" s="250"/>
+      <c r="AD35" s="250"/>
+      <c r="AE35" s="256"/>
+      <c r="AF35" s="257"/>
+      <c r="AG35" s="250"/>
+      <c r="AH35" s="258"/>
+      <c r="AI35" s="250"/>
+      <c r="AJ35" s="259"/>
+      <c r="AK35" s="250"/>
+      <c r="AL35" s="259"/>
+      <c r="AM35" s="250"/>
+      <c r="AN35" s="259"/>
+      <c r="AO35" s="250"/>
+      <c r="AP35" s="259"/>
+      <c r="AQ35" s="250"/>
+      <c r="AR35" s="259"/>
       <c r="AS35" s="181"/>
     </row>
     <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
-      <c r="B36" s="255"/>
-      <c r="C36" s="255"/>
-      <c r="D36" s="255"/>
-      <c r="E36" s="255"/>
-      <c r="F36" s="255"/>
-      <c r="G36" s="255"/>
-      <c r="H36" s="255"/>
-      <c r="I36" s="255"/>
-      <c r="J36" s="255"/>
-      <c r="K36" s="255"/>
-      <c r="L36" s="255"/>
-      <c r="M36" s="255"/>
-      <c r="N36" s="258"/>
-      <c r="O36" s="248"/>
-      <c r="P36" s="255"/>
-      <c r="Q36" s="255"/>
-      <c r="R36" s="255"/>
-      <c r="S36" s="255"/>
-      <c r="T36" s="255"/>
-      <c r="U36" s="255"/>
-      <c r="V36" s="255"/>
-      <c r="W36" s="260"/>
-      <c r="X36" s="253"/>
-      <c r="Y36" s="253"/>
-      <c r="Z36" s="253"/>
-      <c r="AA36" s="253"/>
-      <c r="AB36" s="253"/>
-      <c r="AC36" s="253"/>
-      <c r="AD36" s="253"/>
-      <c r="AE36" s="261"/>
-      <c r="AF36" s="262"/>
-      <c r="AG36" s="264"/>
-      <c r="AH36" s="264"/>
-      <c r="AI36" s="264"/>
-      <c r="AJ36" s="264"/>
-      <c r="AK36" s="264"/>
-      <c r="AL36" s="264"/>
-      <c r="AM36" s="264"/>
-      <c r="AN36" s="264"/>
-      <c r="AO36" s="264"/>
-      <c r="AP36" s="264"/>
-      <c r="AQ36" s="264"/>
-      <c r="AR36" s="264"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="250"/>
+      <c r="J36" s="250"/>
+      <c r="K36" s="250"/>
+      <c r="L36" s="250"/>
+      <c r="M36" s="250"/>
+      <c r="N36" s="253"/>
+      <c r="O36" s="243"/>
+      <c r="P36" s="250"/>
+      <c r="Q36" s="250"/>
+      <c r="R36" s="250"/>
+      <c r="S36" s="250"/>
+      <c r="T36" s="250"/>
+      <c r="U36" s="250"/>
+      <c r="V36" s="250"/>
+      <c r="W36" s="255"/>
+      <c r="X36" s="248"/>
+      <c r="Y36" s="248"/>
+      <c r="Z36" s="248"/>
+      <c r="AA36" s="248"/>
+      <c r="AB36" s="248"/>
+      <c r="AC36" s="248"/>
+      <c r="AD36" s="248"/>
+      <c r="AE36" s="256"/>
+      <c r="AF36" s="257"/>
+      <c r="AG36" s="259"/>
+      <c r="AH36" s="259"/>
+      <c r="AI36" s="259"/>
+      <c r="AJ36" s="259"/>
+      <c r="AK36" s="259"/>
+      <c r="AL36" s="259"/>
+      <c r="AM36" s="259"/>
+      <c r="AN36" s="259"/>
+      <c r="AO36" s="259"/>
+      <c r="AP36" s="259"/>
+      <c r="AQ36" s="259"/>
+      <c r="AR36" s="259"/>
       <c r="AS36" s="181"/>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
-      <c r="B37" s="255"/>
-      <c r="C37" s="255"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="255"/>
-      <c r="F37" s="255"/>
-      <c r="G37" s="255"/>
-      <c r="H37" s="255"/>
-      <c r="I37" s="255"/>
-      <c r="J37" s="255"/>
-      <c r="K37" s="255"/>
-      <c r="L37" s="255"/>
-      <c r="M37" s="255"/>
-      <c r="N37" s="258"/>
-      <c r="O37" s="259"/>
-      <c r="P37" s="253"/>
-      <c r="Q37" s="253"/>
-      <c r="R37" s="253"/>
-      <c r="S37" s="253"/>
-      <c r="T37" s="253"/>
-      <c r="U37" s="253"/>
-      <c r="V37" s="253"/>
-      <c r="W37" s="260"/>
-      <c r="X37" s="253"/>
-      <c r="Y37" s="253"/>
-      <c r="Z37" s="253"/>
-      <c r="AA37" s="253"/>
-      <c r="AB37" s="253"/>
-      <c r="AC37" s="253"/>
-      <c r="AD37" s="255"/>
-      <c r="AE37" s="261"/>
-      <c r="AF37" s="262"/>
-      <c r="AG37" s="255"/>
-      <c r="AH37" s="265"/>
-      <c r="AI37" s="255"/>
-      <c r="AJ37" s="266"/>
-      <c r="AK37" s="255"/>
-      <c r="AL37" s="266"/>
-      <c r="AM37" s="255"/>
-      <c r="AN37" s="266"/>
-      <c r="AO37" s="255"/>
-      <c r="AP37" s="266"/>
-      <c r="AQ37" s="255"/>
-      <c r="AR37" s="266"/>
+      <c r="B37" s="250"/>
+      <c r="C37" s="250"/>
+      <c r="D37" s="250"/>
+      <c r="E37" s="250"/>
+      <c r="F37" s="250"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="250"/>
+      <c r="I37" s="250"/>
+      <c r="J37" s="250"/>
+      <c r="K37" s="250"/>
+      <c r="L37" s="250"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="253"/>
+      <c r="O37" s="254"/>
+      <c r="P37" s="248"/>
+      <c r="Q37" s="248"/>
+      <c r="R37" s="248"/>
+      <c r="S37" s="248"/>
+      <c r="T37" s="248"/>
+      <c r="U37" s="248"/>
+      <c r="V37" s="248"/>
+      <c r="W37" s="255"/>
+      <c r="X37" s="248"/>
+      <c r="Y37" s="248"/>
+      <c r="Z37" s="248"/>
+      <c r="AA37" s="248"/>
+      <c r="AB37" s="248"/>
+      <c r="AC37" s="248"/>
+      <c r="AD37" s="250"/>
+      <c r="AE37" s="256"/>
+      <c r="AF37" s="257"/>
+      <c r="AG37" s="250"/>
+      <c r="AH37" s="260"/>
+      <c r="AI37" s="250"/>
+      <c r="AJ37" s="261"/>
+      <c r="AK37" s="250"/>
+      <c r="AL37" s="261"/>
+      <c r="AM37" s="250"/>
+      <c r="AN37" s="261"/>
+      <c r="AO37" s="250"/>
+      <c r="AP37" s="261"/>
+      <c r="AQ37" s="250"/>
+      <c r="AR37" s="261"/>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
@@ -7981,55 +7981,55 @@
       <c r="AQ47" s="115"/>
     </row>
     <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="223" t="s">
+      <c r="A48" s="221" t="s">
         <v>758</v>
       </c>
-      <c r="B48" s="229"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="224"/>
-      <c r="F48" s="224"/>
-      <c r="G48" s="224"/>
-      <c r="H48" s="224"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="222"/>
+      <c r="D48" s="222"/>
+      <c r="E48" s="222"/>
+      <c r="F48" s="222"/>
+      <c r="G48" s="222"/>
+      <c r="H48" s="222"/>
       <c r="I48" s="176"/>
       <c r="J48" s="176"/>
       <c r="K48" s="176"/>
       <c r="L48" s="176"/>
       <c r="M48" s="176"/>
-      <c r="N48" s="231" t="s">
+      <c r="N48" s="229" t="s">
         <v>758</v>
       </c>
-      <c r="O48" s="204">
+      <c r="O48" s="203">
         <v>6</v>
       </c>
-      <c r="P48" s="215" t="s">
+      <c r="P48" s="213" t="s">
         <v>765</v>
       </c>
-      <c r="Q48" s="232"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="234"/>
-      <c r="T48" s="234"/>
-      <c r="U48" s="234"/>
+      <c r="Q48" s="230"/>
+      <c r="R48" s="231"/>
+      <c r="S48" s="232"/>
+      <c r="T48" s="232"/>
+      <c r="U48" s="232"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
-      <c r="AA48" s="230" t="s">
+      <c r="AA48" s="228" t="s">
         <v>758</v>
       </c>
-      <c r="AB48" s="216">
+      <c r="AB48" s="214">
         <v>1</v>
       </c>
-      <c r="AC48" s="215" t="s">
+      <c r="AC48" s="213" t="s">
         <v>769</v>
       </c>
-      <c r="AD48" s="234"/>
-      <c r="AE48" s="234"/>
-      <c r="AF48" s="234"/>
-      <c r="AG48" s="234"/>
-      <c r="AH48" s="214"/>
-      <c r="AI48" s="214"/>
+      <c r="AD48" s="232"/>
+      <c r="AE48" s="232"/>
+      <c r="AF48" s="232"/>
+      <c r="AG48" s="232"/>
+      <c r="AH48" s="212"/>
+      <c r="AI48" s="212"/>
       <c r="AJ48" s="115"/>
       <c r="AK48" s="115"/>
       <c r="AL48" s="115"/>
@@ -8040,32 +8040,32 @@
       <c r="AQ48" s="115"/>
     </row>
     <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="220" t="s">
+      <c r="A49" s="218" t="s">
         <v>759</v>
       </c>
-      <c r="B49" s="203">
+      <c r="B49" s="202">
         <v>120</v>
       </c>
-      <c r="C49" s="227" t="s">
+      <c r="C49" s="225" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="228"/>
-      <c r="E49" s="228"/>
-      <c r="F49" s="228"/>
-      <c r="G49" s="228"/>
-      <c r="H49" s="228"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="226"/>
+      <c r="F49" s="226"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
       <c r="I49" s="176"/>
       <c r="J49" s="176"/>
       <c r="K49" s="176"/>
       <c r="L49" s="176"/>
       <c r="M49" s="176"/>
-      <c r="N49" s="219" t="s">
+      <c r="N49" s="217" t="s">
         <v>759</v>
       </c>
-      <c r="O49" s="241">
+      <c r="O49" s="280">
         <v>1</v>
       </c>
-      <c r="P49" s="211" t="s">
+      <c r="P49" s="209" t="s">
         <v>766</v>
       </c>
       <c r="Q49" s="142"/>
@@ -8078,13 +8078,13 @@
       <c r="X49" s="143"/>
       <c r="Y49" s="143"/>
       <c r="Z49" s="115"/>
-      <c r="AA49" s="208" t="s">
+      <c r="AA49" s="207" t="s">
         <v>759</v>
       </c>
-      <c r="AB49" s="210">
+      <c r="AB49" s="208">
         <v>66</v>
       </c>
-      <c r="AC49" s="211" t="s">
+      <c r="AC49" s="209" t="s">
         <v>764</v>
       </c>
       <c r="AD49" s="143"/>
@@ -8103,28 +8103,28 @@
       <c r="AQ49" s="115"/>
     </row>
     <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="222" t="s">
+      <c r="A50" s="220" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="229"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="201"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="201"/>
+      <c r="B50" s="227"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
       <c r="I50" s="170"/>
       <c r="J50" s="170"/>
       <c r="K50" s="170"/>
       <c r="L50" s="170"/>
       <c r="M50" s="170"/>
-      <c r="N50" s="219" t="s">
+      <c r="N50" s="217" t="s">
         <v>760</v>
       </c>
-      <c r="O50" s="213">
+      <c r="O50" s="211">
         <v>6</v>
       </c>
-      <c r="P50" s="211" t="s">
+      <c r="P50" s="209" t="s">
         <v>767</v>
       </c>
       <c r="Q50" s="143"/>
@@ -8137,21 +8137,21 @@
       <c r="X50" s="143"/>
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="235" t="s">
+      <c r="AA50" s="233" t="s">
         <v>763</v>
       </c>
-      <c r="AB50" s="247">
+      <c r="AB50" s="242">
         <v>9</v>
       </c>
-      <c r="AC50" s="212" t="s">
+      <c r="AC50" s="210" t="s">
         <v>770</v>
       </c>
       <c r="AD50" s="174"/>
       <c r="AE50" s="174"/>
       <c r="AF50" s="174"/>
       <c r="AG50" s="174"/>
-      <c r="AH50" s="207"/>
-      <c r="AI50" s="207"/>
+      <c r="AH50" s="206"/>
+      <c r="AI50" s="206"/>
       <c r="AJ50" s="115"/>
       <c r="AK50" s="115"/>
       <c r="AL50" s="115"/>
@@ -8172,13 +8172,13 @@
       <c r="K51" s="170"/>
       <c r="L51" s="170"/>
       <c r="M51" s="170"/>
-      <c r="N51" s="225" t="s">
+      <c r="N51" s="223" t="s">
         <v>756</v>
       </c>
-      <c r="O51" s="205">
+      <c r="O51" s="204">
         <v>10</v>
       </c>
-      <c r="P51" s="226" t="s">
+      <c r="P51" s="224" t="s">
         <v>768</v>
       </c>
       <c r="Q51" s="143"/>
@@ -8207,7 +8207,7 @@
       <c r="AQ51" s="115"/>
     </row>
     <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="211"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="170"/>
       <c r="F52" s="170"/>
       <c r="G52" s="170"/>
@@ -8217,11 +8217,11 @@
       <c r="K52" s="170"/>
       <c r="L52" s="170"/>
       <c r="M52" s="170"/>
-      <c r="N52" s="202"/>
-      <c r="O52" s="209">
+      <c r="N52" s="201"/>
+      <c r="O52" s="277">
         <v>500</v>
       </c>
-      <c r="P52" s="212" t="s">
+      <c r="P52" s="210" t="s">
         <v>776</v>
       </c>
       <c r="Q52" s="174"/>
@@ -8295,14 +8295,14 @@
       <c r="AQ53" s="115"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A54" s="211"/>
-      <c r="B54" s="211"/>
-      <c r="C54" s="211"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="211"/>
-      <c r="F54" s="211"/>
-      <c r="G54" s="211"/>
-      <c r="H54" s="211"/>
+      <c r="A54" s="209"/>
+      <c r="B54" s="209"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="209"/>
+      <c r="E54" s="209"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
       <c r="I54" s="170"/>
       <c r="J54" s="170"/>
       <c r="K54" s="170"/>
@@ -8322,7 +8322,7 @@
       <c r="Y54" s="143"/>
       <c r="Z54" s="143"/>
       <c r="AA54" s="143"/>
-      <c r="AB54" s="218"/>
+      <c r="AB54" s="216"/>
       <c r="AC54" s="143"/>
       <c r="AD54" s="143"/>
       <c r="AE54" s="115"/>
@@ -8340,7 +8340,7 @@
       <c r="AQ54" s="115"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B55" s="194"/>
+      <c r="B55" s="193"/>
       <c r="C55" s="170"/>
       <c r="D55" s="170"/>
       <c r="E55" s="170"/>
@@ -8353,7 +8353,7 @@
       <c r="L55" s="170"/>
       <c r="M55" s="170"/>
       <c r="N55" s="115"/>
-      <c r="O55" s="206">
+      <c r="O55" s="205">
         <v>3</v>
       </c>
       <c r="P55" s="143"/>
@@ -8368,7 +8368,7 @@
       <c r="Y55" s="143"/>
       <c r="Z55" s="143"/>
       <c r="AA55" s="143"/>
-      <c r="AB55" s="217"/>
+      <c r="AB55" s="215"/>
       <c r="AC55" s="143"/>
       <c r="AD55" s="143"/>
       <c r="AE55" s="115"/>
@@ -8386,50 +8386,50 @@
       <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A56" s="276">
+      <c r="A56" s="273">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="276"/>
-      <c r="C56" s="276"/>
-      <c r="D56" s="276"/>
-      <c r="E56" s="276"/>
-      <c r="F56" s="276"/>
-      <c r="G56" s="276"/>
-      <c r="H56" s="276"/>
-      <c r="I56" s="276"/>
-      <c r="J56" s="276"/>
-      <c r="K56" s="276"/>
-      <c r="L56" s="276"/>
-      <c r="M56" s="276"/>
-      <c r="N56" s="276"/>
-      <c r="O56" s="277"/>
-      <c r="P56" s="276"/>
-      <c r="Q56" s="276"/>
-      <c r="R56" s="276"/>
-      <c r="S56" s="276"/>
-      <c r="T56" s="276"/>
-      <c r="U56" s="276"/>
-      <c r="V56" s="276"/>
-      <c r="W56" s="276"/>
-      <c r="X56" s="276"/>
-      <c r="Y56" s="276"/>
-      <c r="Z56" s="276"/>
-      <c r="AA56" s="276"/>
-      <c r="AB56" s="277"/>
-      <c r="AC56" s="276"/>
-      <c r="AD56" s="276"/>
-      <c r="AE56" s="276"/>
-      <c r="AF56" s="276"/>
-      <c r="AG56" s="276"/>
-      <c r="AH56" s="276"/>
-      <c r="AI56" s="276"/>
-      <c r="AJ56" s="276"/>
-      <c r="AK56" s="276"/>
+      <c r="B56" s="273"/>
+      <c r="C56" s="273"/>
+      <c r="D56" s="273"/>
+      <c r="E56" s="273"/>
+      <c r="F56" s="273"/>
+      <c r="G56" s="273"/>
+      <c r="H56" s="273"/>
+      <c r="I56" s="273"/>
+      <c r="J56" s="273"/>
+      <c r="K56" s="273"/>
+      <c r="L56" s="273"/>
+      <c r="M56" s="273"/>
+      <c r="N56" s="273"/>
+      <c r="O56" s="274"/>
+      <c r="P56" s="273"/>
+      <c r="Q56" s="273"/>
+      <c r="R56" s="273"/>
+      <c r="S56" s="273"/>
+      <c r="T56" s="273"/>
+      <c r="U56" s="273"/>
+      <c r="V56" s="273"/>
+      <c r="W56" s="273"/>
+      <c r="X56" s="273"/>
+      <c r="Y56" s="273"/>
+      <c r="Z56" s="273"/>
+      <c r="AA56" s="273"/>
+      <c r="AB56" s="274"/>
+      <c r="AC56" s="273"/>
+      <c r="AD56" s="273"/>
+      <c r="AE56" s="273"/>
+      <c r="AF56" s="273"/>
+      <c r="AG56" s="273"/>
+      <c r="AH56" s="273"/>
+      <c r="AI56" s="273"/>
+      <c r="AJ56" s="273"/>
+      <c r="AK56" s="273"/>
     </row>
     <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H58" s="275"/>
-      <c r="I58" s="275"/>
+      <c r="H58" s="272"/>
+      <c r="I58" s="272"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA60" s="13"/>
@@ -8447,8 +8447,8 @@
       <c r="AJ66" s="131"/>
     </row>
     <row r="67" spans="13:36" x14ac:dyDescent="0.2">
-      <c r="AI67" s="269"/>
-      <c r="AJ67" s="269"/>
+      <c r="AI67" s="266"/>
+      <c r="AJ67" s="266"/>
     </row>
     <row r="68" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI68" s="113"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Hary\Denah Wisuda 163\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594FD7F8-BE47-42BD-8BA1-83C257CC6C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6928F145-D39B-4541-9936-D6298A7DB85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV 2024" sheetId="2" r:id="rId1"/>
@@ -3124,7 +3124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3602,18 +3602,6 @@
     <xf numFmtId="0" fontId="38" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3649,19 +3637,10 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3673,40 +3652,22 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3714,6 +3675,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3742,23 +3721,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3792,9 +3759,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3832,9 +3799,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3867,26 +3834,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3919,26 +3869,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4114,119 +4047,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AR48" sqref="AR48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="22" width="2.77734375" customWidth="1"/>
-    <col min="23" max="23" width="1.33203125" customWidth="1"/>
-    <col min="24" max="43" width="2.77734375" customWidth="1"/>
-    <col min="44" max="44" width="2.88671875" customWidth="1"/>
-    <col min="45" max="45" width="3.6640625" style="180" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="22" width="2.81640625" customWidth="1"/>
+    <col min="23" max="23" width="1.36328125" customWidth="1"/>
+    <col min="24" max="43" width="2.81640625" customWidth="1"/>
+    <col min="44" max="44" width="2.90625" customWidth="1"/>
+    <col min="45" max="45" width="3.6328125" style="180" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="256" t="s">
         <v>762</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="268"/>
-      <c r="T1" s="268"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="268"/>
-      <c r="W1" s="268"/>
-      <c r="X1" s="268"/>
-      <c r="Y1" s="268"/>
-      <c r="Z1" s="268"/>
-      <c r="AA1" s="268"/>
-      <c r="AB1" s="268"/>
-      <c r="AC1" s="268"/>
-      <c r="AD1" s="268"/>
-      <c r="AE1" s="268"/>
-      <c r="AF1" s="268"/>
-      <c r="AG1" s="268"/>
-      <c r="AH1" s="268"/>
-      <c r="AI1" s="268"/>
-      <c r="AJ1" s="268"/>
-      <c r="AK1" s="268"/>
-      <c r="AL1" s="268"/>
-      <c r="AM1" s="268"/>
-      <c r="AN1" s="268"/>
-      <c r="AO1" s="268"/>
-      <c r="AP1" s="268"/>
-      <c r="AQ1" s="269"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="257"/>
+      <c r="AE1" s="257"/>
+      <c r="AF1" s="257"/>
+      <c r="AG1" s="257"/>
+      <c r="AH1" s="257"/>
+      <c r="AI1" s="257"/>
+      <c r="AJ1" s="257"/>
+      <c r="AK1" s="257"/>
+      <c r="AL1" s="257"/>
+      <c r="AM1" s="257"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="258"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="178"/>
     </row>
-    <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="270" t="s">
+      <c r="E2" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270"/>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270"/>
-      <c r="V2" s="270"/>
-      <c r="W2" s="270"/>
-      <c r="X2" s="270"/>
-      <c r="Y2" s="270"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270"/>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270"/>
-      <c r="AD2" s="270"/>
-      <c r="AE2" s="270"/>
-      <c r="AF2" s="270"/>
-      <c r="AG2" s="270"/>
-      <c r="AH2" s="270"/>
-      <c r="AI2" s="270"/>
-      <c r="AJ2" s="270"/>
-      <c r="AK2" s="270"/>
-      <c r="AL2" s="270"/>
-      <c r="AM2" s="270"/>
-      <c r="AN2" s="270"/>
-      <c r="AO2" s="270"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="259"/>
+      <c r="AA2" s="259"/>
+      <c r="AB2" s="259"/>
+      <c r="AC2" s="259"/>
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="259"/>
+      <c r="AG2" s="259"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="259"/>
+      <c r="AJ2" s="259"/>
+      <c r="AK2" s="259"/>
+      <c r="AL2" s="259"/>
+      <c r="AM2" s="259"/>
+      <c r="AN2" s="259"/>
+      <c r="AO2" s="259"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="178"/>
     </row>
-    <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="120"/>
@@ -4323,7 +4256,7 @@
       <c r="AQ4" s="116"/>
       <c r="AS4" s="178"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="133" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="182"/>
       <c r="B6" s="47"/>
       <c r="C6" s="51"/>
@@ -4501,12 +4434,12 @@
       <c r="AR6" s="47"/>
       <c r="AS6" s="178"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="133">
         <v>1</v>
       </c>
       <c r="B7" s="123"/>
-      <c r="C7" s="234" t="s">
+      <c r="C7" s="230" t="s">
         <v>771</v>
       </c>
       <c r="D7" s="190" t="s">
@@ -4633,7 +4566,7 @@
       </c>
       <c r="AT7" s="13"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="183">
         <v>2</v>
       </c>
@@ -4765,7 +4698,7 @@
       </c>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="133">
         <v>3</v>
       </c>
@@ -4888,10 +4821,10 @@
       <c r="AP9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="264" t="s">
+      <c r="AQ9" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="265" t="s">
+      <c r="AR9" s="248" t="s">
         <v>761</v>
       </c>
       <c r="AS9" s="51">
@@ -4899,15 +4832,15 @@
       </c>
       <c r="AT9" s="13"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="133">
         <v>4</v>
       </c>
       <c r="B10" s="147"/>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="231" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="236" t="s">
+      <c r="D10" s="232" t="s">
         <v>772</v>
       </c>
       <c r="E10" s="191" t="s">
@@ -4925,10 +4858,10 @@
       <c r="I10" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="279" t="s">
+      <c r="J10" s="253" t="s">
         <v>773</v>
       </c>
-      <c r="K10" s="237" t="s">
+      <c r="K10" s="233" t="s">
         <v>774</v>
       </c>
       <c r="L10" s="197" t="s">
@@ -4946,83 +4879,83 @@
       <c r="P10" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="239" t="s">
+      <c r="Q10" s="235" t="s">
         <v>775</v>
       </c>
-      <c r="R10" s="238" t="s">
+      <c r="R10" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="S10" s="238" t="s">
+      <c r="S10" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="238" t="s">
+      <c r="T10" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="238" t="s">
+      <c r="U10" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="238" t="s">
+      <c r="V10" s="234" t="s">
         <v>58</v>
       </c>
       <c r="W10" s="137"/>
-      <c r="X10" s="238" t="s">
+      <c r="X10" s="234" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="238" t="s">
+      <c r="Y10" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="Z10" s="238" t="s">
+      <c r="Z10" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="AA10" s="238" t="s">
+      <c r="AA10" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="275" t="s">
+      <c r="AB10" s="249" t="s">
         <v>145</v>
       </c>
-      <c r="AC10" s="276" t="s">
+      <c r="AC10" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="AD10" s="276" t="s">
+      <c r="AD10" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="276" t="s">
+      <c r="AE10" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="AF10" s="276" t="s">
+      <c r="AF10" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="AG10" s="276" t="s">
+      <c r="AG10" s="250" t="s">
         <v>95</v>
       </c>
-      <c r="AH10" s="276" t="s">
+      <c r="AH10" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="AI10" s="276" t="s">
+      <c r="AI10" s="250" t="s">
         <v>93</v>
       </c>
-      <c r="AJ10" s="276" t="s">
+      <c r="AJ10" s="250" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="276" t="s">
+      <c r="AK10" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="AL10" s="276" t="s">
+      <c r="AL10" s="250" t="s">
         <v>90</v>
       </c>
-      <c r="AM10" s="276" t="s">
+      <c r="AM10" s="250" t="s">
         <v>89</v>
       </c>
-      <c r="AN10" s="276" t="s">
+      <c r="AN10" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="AO10" s="276" t="s">
+      <c r="AO10" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="AP10" s="276" t="s">
+      <c r="AP10" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="AQ10" s="276" t="s">
+      <c r="AQ10" s="250" t="s">
         <v>85</v>
       </c>
       <c r="AR10" s="169" t="s">
@@ -5033,130 +4966,130 @@
       </c>
       <c r="AT10" s="13"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
         <v>5</v>
       </c>
       <c r="B11" s="115"/>
-      <c r="C11" s="276">
+      <c r="C11" s="250">
         <v>100</v>
       </c>
-      <c r="D11" s="276" t="s">
+      <c r="D11" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="276" t="s">
+      <c r="E11" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="276" t="s">
+      <c r="F11" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="276" t="s">
+      <c r="G11" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="276" t="s">
+      <c r="H11" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="276" t="s">
+      <c r="I11" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="276" t="s">
+      <c r="J11" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="276" t="s">
+      <c r="K11" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="276" t="s">
+      <c r="L11" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="276" t="s">
+      <c r="M11" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="276" t="s">
+      <c r="N11" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="276" t="s">
+      <c r="O11" s="250" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="276" t="s">
+      <c r="P11" s="250" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="276" t="s">
+      <c r="Q11" s="250" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="276" t="s">
+      <c r="R11" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="276" t="s">
+      <c r="S11" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="276" t="s">
+      <c r="T11" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="276" t="s">
+      <c r="U11" s="250" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="276" t="s">
+      <c r="V11" s="250" t="s">
         <v>84</v>
       </c>
       <c r="W11" s="137"/>
-      <c r="X11" s="276" t="s">
+      <c r="X11" s="250" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="276" t="s">
+      <c r="Y11" s="250" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="276" t="s">
+      <c r="Z11" s="250" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="276" t="s">
+      <c r="AA11" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="276" t="s">
+      <c r="AB11" s="250" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="276" t="s">
+      <c r="AC11" s="250" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="276" t="s">
+      <c r="AD11" s="250" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="276" t="s">
+      <c r="AE11" s="250" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="276" t="s">
+      <c r="AF11" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="276" t="s">
+      <c r="AG11" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" s="276" t="s">
+      <c r="AH11" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="276" t="s">
+      <c r="AI11" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="AJ11" s="276" t="s">
+      <c r="AJ11" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="276" t="s">
+      <c r="AK11" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="276" t="s">
+      <c r="AL11" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="276" t="s">
+      <c r="AM11" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="AN11" s="276" t="s">
+      <c r="AN11" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="AO11" s="276" t="s">
+      <c r="AO11" s="250" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" s="276" t="s">
+      <c r="AP11" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="AQ11" s="276" t="s">
+      <c r="AQ11" s="250" t="s">
         <v>108</v>
       </c>
       <c r="AR11" s="194" t="s">
@@ -5167,130 +5100,130 @@
       </c>
       <c r="AT11" s="13"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="244"/>
-      <c r="C12" s="276">
+      <c r="B12" s="237"/>
+      <c r="C12" s="250">
         <v>120</v>
       </c>
-      <c r="D12" s="276">
+      <c r="D12" s="250">
         <v>119</v>
       </c>
-      <c r="E12" s="276">
+      <c r="E12" s="250">
         <v>118</v>
       </c>
-      <c r="F12" s="276">
+      <c r="F12" s="250">
         <v>117</v>
       </c>
-      <c r="G12" s="276">
+      <c r="G12" s="250">
         <v>116</v>
       </c>
-      <c r="H12" s="276">
+      <c r="H12" s="250">
         <v>115</v>
       </c>
-      <c r="I12" s="276">
+      <c r="I12" s="250">
         <v>114</v>
       </c>
-      <c r="J12" s="276">
+      <c r="J12" s="250">
         <v>113</v>
       </c>
-      <c r="K12" s="276">
+      <c r="K12" s="250">
         <v>112</v>
       </c>
-      <c r="L12" s="276">
+      <c r="L12" s="250">
         <v>111</v>
       </c>
-      <c r="M12" s="276">
+      <c r="M12" s="250">
         <v>110</v>
       </c>
-      <c r="N12" s="276">
+      <c r="N12" s="250">
         <v>109</v>
       </c>
-      <c r="O12" s="276">
+      <c r="O12" s="250">
         <v>108</v>
       </c>
-      <c r="P12" s="276">
+      <c r="P12" s="250">
         <v>107</v>
       </c>
-      <c r="Q12" s="276">
+      <c r="Q12" s="250">
         <v>106</v>
       </c>
-      <c r="R12" s="276">
+      <c r="R12" s="250">
         <v>105</v>
       </c>
-      <c r="S12" s="276">
+      <c r="S12" s="250">
         <v>104</v>
       </c>
-      <c r="T12" s="276">
+      <c r="T12" s="250">
         <v>103</v>
       </c>
-      <c r="U12" s="276">
+      <c r="U12" s="250">
         <v>102</v>
       </c>
-      <c r="V12" s="276">
+      <c r="V12" s="250">
         <v>101</v>
       </c>
       <c r="W12" s="183"/>
-      <c r="X12" s="276">
+      <c r="X12" s="250">
         <v>101</v>
       </c>
-      <c r="Y12" s="276" t="s">
+      <c r="Y12" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="276">
+      <c r="Z12" s="250">
         <v>102</v>
       </c>
-      <c r="AA12" s="276" t="s">
+      <c r="AA12" s="250" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="276">
+      <c r="AB12" s="250">
         <v>103</v>
       </c>
-      <c r="AC12" s="276" t="s">
+      <c r="AC12" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="276">
+      <c r="AD12" s="250">
         <v>104</v>
       </c>
-      <c r="AE12" s="276" t="s">
+      <c r="AE12" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="276">
+      <c r="AF12" s="250">
         <v>105</v>
       </c>
-      <c r="AG12" s="276" t="s">
+      <c r="AG12" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="276">
+      <c r="AH12" s="250">
         <v>106</v>
       </c>
-      <c r="AI12" s="276" t="s">
+      <c r="AI12" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" s="276">
+      <c r="AJ12" s="250">
         <v>107</v>
       </c>
-      <c r="AK12" s="276" t="s">
+      <c r="AK12" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="AL12" s="276">
+      <c r="AL12" s="250">
         <v>108</v>
       </c>
-      <c r="AM12" s="276" t="s">
+      <c r="AM12" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="AN12" s="276">
+      <c r="AN12" s="250">
         <v>109</v>
       </c>
-      <c r="AO12" s="276" t="s">
+      <c r="AO12" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="276">
+      <c r="AP12" s="250">
         <v>110</v>
       </c>
-      <c r="AQ12" s="276" t="s">
+      <c r="AQ12" s="250" t="s">
         <v>139</v>
       </c>
       <c r="AR12" s="119"/>
@@ -5299,130 +5232,130 @@
       </c>
       <c r="AT12" s="13"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="133">
         <v>7</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="276">
+      <c r="C13" s="250">
         <v>140</v>
       </c>
-      <c r="D13" s="276">
+      <c r="D13" s="250">
         <v>139</v>
       </c>
-      <c r="E13" s="276">
+      <c r="E13" s="250">
         <v>138</v>
       </c>
-      <c r="F13" s="276">
+      <c r="F13" s="250">
         <v>137</v>
       </c>
-      <c r="G13" s="276">
+      <c r="G13" s="250">
         <v>136</v>
       </c>
-      <c r="H13" s="276">
+      <c r="H13" s="250">
         <v>135</v>
       </c>
-      <c r="I13" s="276">
+      <c r="I13" s="250">
         <v>134</v>
       </c>
-      <c r="J13" s="276">
+      <c r="J13" s="250">
         <v>133</v>
       </c>
-      <c r="K13" s="276">
+      <c r="K13" s="250">
         <v>132</v>
       </c>
-      <c r="L13" s="276">
+      <c r="L13" s="250">
         <v>131</v>
       </c>
-      <c r="M13" s="276">
+      <c r="M13" s="250">
         <v>130</v>
       </c>
-      <c r="N13" s="276">
+      <c r="N13" s="250">
         <v>129</v>
       </c>
-      <c r="O13" s="276">
+      <c r="O13" s="250">
         <v>128</v>
       </c>
-      <c r="P13" s="276">
+      <c r="P13" s="250">
         <v>127</v>
       </c>
-      <c r="Q13" s="276">
+      <c r="Q13" s="250">
         <v>126</v>
       </c>
-      <c r="R13" s="276">
+      <c r="R13" s="250">
         <v>125</v>
       </c>
-      <c r="S13" s="276">
+      <c r="S13" s="250">
         <v>124</v>
       </c>
-      <c r="T13" s="276">
+      <c r="T13" s="250">
         <v>123</v>
       </c>
-      <c r="U13" s="276">
+      <c r="U13" s="250">
         <v>122</v>
       </c>
-      <c r="V13" s="276">
+      <c r="V13" s="250">
         <v>121</v>
       </c>
       <c r="W13" s="137"/>
-      <c r="X13" s="276">
+      <c r="X13" s="250">
         <v>121</v>
       </c>
-      <c r="Y13" s="276">
+      <c r="Y13" s="250">
         <v>122</v>
       </c>
-      <c r="Z13" s="276">
+      <c r="Z13" s="250">
         <v>123</v>
       </c>
-      <c r="AA13" s="276">
+      <c r="AA13" s="250">
         <v>124</v>
       </c>
-      <c r="AB13" s="276">
+      <c r="AB13" s="250">
         <v>125</v>
       </c>
-      <c r="AC13" s="276">
+      <c r="AC13" s="250">
         <v>126</v>
       </c>
-      <c r="AD13" s="276">
+      <c r="AD13" s="250">
         <v>127</v>
       </c>
-      <c r="AE13" s="276">
+      <c r="AE13" s="250">
         <v>128</v>
       </c>
-      <c r="AF13" s="276">
+      <c r="AF13" s="250">
         <v>129</v>
       </c>
-      <c r="AG13" s="276">
+      <c r="AG13" s="250">
         <v>130</v>
       </c>
-      <c r="AH13" s="276">
+      <c r="AH13" s="250">
         <v>131</v>
       </c>
-      <c r="AI13" s="276">
+      <c r="AI13" s="250">
         <v>132</v>
       </c>
-      <c r="AJ13" s="276">
+      <c r="AJ13" s="250">
         <v>133</v>
       </c>
-      <c r="AK13" s="276">
+      <c r="AK13" s="250">
         <v>134</v>
       </c>
-      <c r="AL13" s="276">
+      <c r="AL13" s="250">
         <v>135</v>
       </c>
-      <c r="AM13" s="276">
+      <c r="AM13" s="250">
         <v>136</v>
       </c>
-      <c r="AN13" s="276">
+      <c r="AN13" s="250">
         <v>137</v>
       </c>
-      <c r="AO13" s="276">
+      <c r="AO13" s="250">
         <v>138</v>
       </c>
-      <c r="AP13" s="276">
+      <c r="AP13" s="250">
         <v>139</v>
       </c>
-      <c r="AQ13" s="276">
+      <c r="AQ13" s="250">
         <v>140</v>
       </c>
       <c r="AR13" s="119"/>
@@ -5431,130 +5364,130 @@
       </c>
       <c r="AT13" s="13"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="133">
         <v>8</v>
       </c>
       <c r="B14" s="119"/>
-      <c r="C14" s="276">
+      <c r="C14" s="250">
         <v>160</v>
       </c>
-      <c r="D14" s="276">
+      <c r="D14" s="250">
         <v>159</v>
       </c>
-      <c r="E14" s="276">
+      <c r="E14" s="250">
         <v>158</v>
       </c>
-      <c r="F14" s="276">
+      <c r="F14" s="250">
         <v>157</v>
       </c>
-      <c r="G14" s="276">
+      <c r="G14" s="250">
         <v>156</v>
       </c>
-      <c r="H14" s="276">
+      <c r="H14" s="250">
         <v>155</v>
       </c>
-      <c r="I14" s="276">
+      <c r="I14" s="250">
         <v>154</v>
       </c>
-      <c r="J14" s="276">
+      <c r="J14" s="250">
         <v>153</v>
       </c>
-      <c r="K14" s="276">
+      <c r="K14" s="250">
         <v>152</v>
       </c>
-      <c r="L14" s="276">
+      <c r="L14" s="250">
         <v>151</v>
       </c>
-      <c r="M14" s="276">
+      <c r="M14" s="250">
         <v>150</v>
       </c>
-      <c r="N14" s="276">
+      <c r="N14" s="250">
         <v>149</v>
       </c>
-      <c r="O14" s="276">
+      <c r="O14" s="250">
         <v>148</v>
       </c>
-      <c r="P14" s="276">
+      <c r="P14" s="250">
         <v>147</v>
       </c>
-      <c r="Q14" s="276">
+      <c r="Q14" s="250">
         <v>146</v>
       </c>
-      <c r="R14" s="276">
+      <c r="R14" s="250">
         <v>145</v>
       </c>
-      <c r="S14" s="276">
+      <c r="S14" s="250">
         <v>144</v>
       </c>
-      <c r="T14" s="276">
+      <c r="T14" s="250">
         <v>143</v>
       </c>
-      <c r="U14" s="276">
+      <c r="U14" s="250">
         <v>142</v>
       </c>
-      <c r="V14" s="276">
+      <c r="V14" s="250">
         <v>141</v>
       </c>
       <c r="W14" s="137"/>
-      <c r="X14" s="276" t="s">
+      <c r="X14" s="250" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="276" t="s">
+      <c r="Y14" s="250" t="s">
         <v>152</v>
       </c>
-      <c r="Z14" s="276" t="s">
+      <c r="Z14" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="276" t="s">
+      <c r="AA14" s="250" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="276" t="s">
+      <c r="AB14" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="AC14" s="276" t="s">
+      <c r="AC14" s="250" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="276" t="s">
+      <c r="AD14" s="250" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="276" t="s">
+      <c r="AE14" s="250" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="276" t="s">
+      <c r="AF14" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="276" t="s">
+      <c r="AG14" s="250" t="s">
         <v>186</v>
       </c>
-      <c r="AH14" s="276" t="s">
+      <c r="AH14" s="250" t="s">
         <v>185</v>
       </c>
-      <c r="AI14" s="276" t="s">
+      <c r="AI14" s="250" t="s">
         <v>184</v>
       </c>
-      <c r="AJ14" s="276" t="s">
+      <c r="AJ14" s="250" t="s">
         <v>183</v>
       </c>
-      <c r="AK14" s="276" t="s">
+      <c r="AK14" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="276" t="s">
+      <c r="AL14" s="250" t="s">
         <v>181</v>
       </c>
-      <c r="AM14" s="276" t="s">
+      <c r="AM14" s="250" t="s">
         <v>180</v>
       </c>
-      <c r="AN14" s="276" t="s">
+      <c r="AN14" s="250" t="s">
         <v>179</v>
       </c>
-      <c r="AO14" s="276" t="s">
+      <c r="AO14" s="250" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" s="276" t="s">
+      <c r="AP14" s="250" t="s">
         <v>177</v>
       </c>
-      <c r="AQ14" s="276" t="s">
+      <c r="AQ14" s="250" t="s">
         <v>176</v>
       </c>
       <c r="AR14" s="119"/>
@@ -5563,130 +5496,130 @@
       </c>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="133">
         <v>9</v>
       </c>
       <c r="B15" s="119"/>
-      <c r="C15" s="276" t="s">
+      <c r="C15" s="250" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="276" t="s">
+      <c r="D15" s="250" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="276" t="s">
+      <c r="E15" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="276" t="s">
+      <c r="F15" s="250" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="276" t="s">
+      <c r="G15" s="250" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="276" t="s">
+      <c r="H15" s="250" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="276" t="s">
+      <c r="I15" s="250" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="276" t="s">
+      <c r="J15" s="250" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="276" t="s">
+      <c r="K15" s="250" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="276" t="s">
+      <c r="L15" s="250" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="276" t="s">
+      <c r="M15" s="250" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="276" t="s">
+      <c r="N15" s="250" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="276" t="s">
+      <c r="O15" s="250" t="s">
         <v>168</v>
       </c>
-      <c r="P15" s="276" t="s">
+      <c r="P15" s="250" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="276" t="s">
+      <c r="Q15" s="250" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="276" t="s">
+      <c r="R15" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="276" t="s">
+      <c r="S15" s="250" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="276" t="s">
+      <c r="T15" s="250" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="276" t="s">
+      <c r="U15" s="250" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="276" t="s">
+      <c r="V15" s="250" t="s">
         <v>175</v>
       </c>
       <c r="W15" s="137"/>
-      <c r="X15" s="276" t="s">
+      <c r="X15" s="250" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="276" t="s">
+      <c r="Y15" s="250" t="s">
         <v>174</v>
       </c>
-      <c r="Z15" s="276" t="s">
+      <c r="Z15" s="250" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="276" t="s">
+      <c r="AA15" s="250" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="276" t="s">
+      <c r="AB15" s="250" t="s">
         <v>171</v>
       </c>
-      <c r="AC15" s="276" t="s">
+      <c r="AC15" s="250" t="s">
         <v>170</v>
       </c>
-      <c r="AD15" s="276" t="s">
+      <c r="AD15" s="250" t="s">
         <v>169</v>
       </c>
-      <c r="AE15" s="276" t="s">
+      <c r="AE15" s="250" t="s">
         <v>168</v>
       </c>
-      <c r="AF15" s="276" t="s">
+      <c r="AF15" s="250" t="s">
         <v>209</v>
       </c>
-      <c r="AG15" s="276" t="s">
+      <c r="AG15" s="250" t="s">
         <v>208</v>
       </c>
-      <c r="AH15" s="276" t="s">
+      <c r="AH15" s="250" t="s">
         <v>207</v>
       </c>
-      <c r="AI15" s="276" t="s">
+      <c r="AI15" s="250" t="s">
         <v>206</v>
       </c>
-      <c r="AJ15" s="276" t="s">
+      <c r="AJ15" s="250" t="s">
         <v>205</v>
       </c>
-      <c r="AK15" s="276" t="s">
+      <c r="AK15" s="250" t="s">
         <v>204</v>
       </c>
-      <c r="AL15" s="276" t="s">
+      <c r="AL15" s="250" t="s">
         <v>203</v>
       </c>
-      <c r="AM15" s="276" t="s">
+      <c r="AM15" s="250" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="276" t="s">
+      <c r="AN15" s="250" t="s">
         <v>201</v>
       </c>
-      <c r="AO15" s="276" t="s">
+      <c r="AO15" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="AP15" s="276" t="s">
+      <c r="AP15" s="250" t="s">
         <v>199</v>
       </c>
-      <c r="AQ15" s="276" t="s">
+      <c r="AQ15" s="250" t="s">
         <v>198</v>
       </c>
       <c r="AR15" s="123"/>
@@ -5695,130 +5628,130 @@
       </c>
       <c r="AT15" s="13"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="133">
         <v>10</v>
       </c>
       <c r="B16" s="124"/>
-      <c r="C16" s="276">
+      <c r="C16" s="250">
         <v>200</v>
       </c>
-      <c r="D16" s="276">
+      <c r="D16" s="250">
         <v>199</v>
       </c>
-      <c r="E16" s="276" t="s">
+      <c r="E16" s="250" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="276" t="s">
+      <c r="F16" s="250" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="276" t="s">
+      <c r="G16" s="250" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="276" t="s">
+      <c r="H16" s="250" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="276" t="s">
+      <c r="I16" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="276" t="s">
+      <c r="J16" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="276" t="s">
+      <c r="K16" s="250" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="276" t="s">
+      <c r="L16" s="250" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="276" t="s">
+      <c r="M16" s="250" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="276" t="s">
+      <c r="N16" s="250" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="276" t="s">
+      <c r="O16" s="250" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="276" t="s">
+      <c r="P16" s="250" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="276" t="s">
+      <c r="Q16" s="250" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="276" t="s">
+      <c r="R16" s="250" t="s">
         <v>193</v>
       </c>
-      <c r="S16" s="276" t="s">
+      <c r="S16" s="250" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="276" t="s">
+      <c r="T16" s="250" t="s">
         <v>195</v>
       </c>
-      <c r="U16" s="276" t="s">
+      <c r="U16" s="250" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="276" t="s">
+      <c r="V16" s="250" t="s">
         <v>197</v>
       </c>
       <c r="W16" s="150"/>
-      <c r="X16" s="276">
+      <c r="X16" s="250">
         <v>181</v>
       </c>
-      <c r="Y16" s="276">
+      <c r="Y16" s="250">
         <v>182</v>
       </c>
-      <c r="Z16" s="276">
+      <c r="Z16" s="250">
         <v>183</v>
       </c>
-      <c r="AA16" s="276">
+      <c r="AA16" s="250">
         <v>184</v>
       </c>
-      <c r="AB16" s="276">
+      <c r="AB16" s="250">
         <v>185</v>
       </c>
-      <c r="AC16" s="276">
+      <c r="AC16" s="250">
         <v>186</v>
       </c>
-      <c r="AD16" s="276">
+      <c r="AD16" s="250">
         <v>187</v>
       </c>
-      <c r="AE16" s="276">
+      <c r="AE16" s="250">
         <v>188</v>
       </c>
-      <c r="AF16" s="276">
+      <c r="AF16" s="250">
         <v>189</v>
       </c>
-      <c r="AG16" s="276">
+      <c r="AG16" s="250">
         <v>190</v>
       </c>
-      <c r="AH16" s="276">
+      <c r="AH16" s="250">
         <v>191</v>
       </c>
-      <c r="AI16" s="276">
+      <c r="AI16" s="250">
         <v>192</v>
       </c>
-      <c r="AJ16" s="276">
+      <c r="AJ16" s="250">
         <v>193</v>
       </c>
-      <c r="AK16" s="276">
+      <c r="AK16" s="250">
         <v>194</v>
       </c>
-      <c r="AL16" s="276">
+      <c r="AL16" s="250">
         <v>195</v>
       </c>
-      <c r="AM16" s="276">
+      <c r="AM16" s="250">
         <v>196</v>
       </c>
-      <c r="AN16" s="276">
+      <c r="AN16" s="250">
         <v>197</v>
       </c>
-      <c r="AO16" s="276">
+      <c r="AO16" s="250">
         <v>198</v>
       </c>
-      <c r="AP16" s="276">
+      <c r="AP16" s="250">
         <v>199</v>
       </c>
-      <c r="AQ16" s="276">
+      <c r="AQ16" s="250">
         <v>200</v>
       </c>
       <c r="AR16" s="119"/>
@@ -5827,130 +5760,130 @@
       </c>
       <c r="AT16" s="13"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="133">
         <v>11</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="276">
+      <c r="C17" s="250">
         <v>220</v>
       </c>
-      <c r="D17" s="276">
+      <c r="D17" s="250">
         <v>219</v>
       </c>
-      <c r="E17" s="276">
+      <c r="E17" s="250">
         <v>218</v>
       </c>
-      <c r="F17" s="276">
+      <c r="F17" s="250">
         <v>217</v>
       </c>
-      <c r="G17" s="276">
+      <c r="G17" s="250">
         <v>216</v>
       </c>
-      <c r="H17" s="276">
+      <c r="H17" s="250">
         <v>215</v>
       </c>
-      <c r="I17" s="276">
+      <c r="I17" s="250">
         <v>214</v>
       </c>
-      <c r="J17" s="276">
+      <c r="J17" s="250">
         <v>213</v>
       </c>
-      <c r="K17" s="276">
+      <c r="K17" s="250">
         <v>212</v>
       </c>
-      <c r="L17" s="276">
+      <c r="L17" s="250">
         <v>211</v>
       </c>
-      <c r="M17" s="276">
+      <c r="M17" s="250">
         <v>210</v>
       </c>
-      <c r="N17" s="276">
+      <c r="N17" s="250">
         <v>209</v>
       </c>
-      <c r="O17" s="276">
+      <c r="O17" s="250">
         <v>208</v>
       </c>
-      <c r="P17" s="276">
+      <c r="P17" s="250">
         <v>207</v>
       </c>
-      <c r="Q17" s="276">
+      <c r="Q17" s="250">
         <v>206</v>
       </c>
-      <c r="R17" s="276">
+      <c r="R17" s="250">
         <v>205</v>
       </c>
-      <c r="S17" s="276">
+      <c r="S17" s="250">
         <v>204</v>
       </c>
-      <c r="T17" s="276">
+      <c r="T17" s="250">
         <v>203</v>
       </c>
-      <c r="U17" s="276">
+      <c r="U17" s="250">
         <v>202</v>
       </c>
-      <c r="V17" s="276">
+      <c r="V17" s="250">
         <v>201</v>
       </c>
       <c r="W17" s="137"/>
-      <c r="X17" s="276" t="s">
+      <c r="X17" s="250" t="s">
         <v>221</v>
       </c>
-      <c r="Y17" s="276" t="s">
+      <c r="Y17" s="250" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="276" t="s">
+      <c r="Z17" s="250" t="s">
         <v>219</v>
       </c>
-      <c r="AA17" s="276" t="s">
+      <c r="AA17" s="250" t="s">
         <v>218</v>
       </c>
-      <c r="AB17" s="276" t="s">
+      <c r="AB17" s="250" t="s">
         <v>217</v>
       </c>
-      <c r="AC17" s="276" t="s">
+      <c r="AC17" s="250" t="s">
         <v>216</v>
       </c>
-      <c r="AD17" s="276" t="s">
+      <c r="AD17" s="250" t="s">
         <v>215</v>
       </c>
-      <c r="AE17" s="276" t="s">
+      <c r="AE17" s="250" t="s">
         <v>214</v>
       </c>
-      <c r="AF17" s="276" t="s">
+      <c r="AF17" s="250" t="s">
         <v>213</v>
       </c>
-      <c r="AG17" s="276" t="s">
+      <c r="AG17" s="250" t="s">
         <v>212</v>
       </c>
-      <c r="AH17" s="276" t="s">
+      <c r="AH17" s="250" t="s">
         <v>250</v>
       </c>
-      <c r="AI17" s="276" t="s">
+      <c r="AI17" s="250" t="s">
         <v>249</v>
       </c>
-      <c r="AJ17" s="276" t="s">
+      <c r="AJ17" s="250" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" s="276" t="s">
+      <c r="AK17" s="250" t="s">
         <v>247</v>
       </c>
-      <c r="AL17" s="276" t="s">
+      <c r="AL17" s="250" t="s">
         <v>246</v>
       </c>
-      <c r="AM17" s="276" t="s">
+      <c r="AM17" s="250" t="s">
         <v>245</v>
       </c>
-      <c r="AN17" s="276" t="s">
+      <c r="AN17" s="250" t="s">
         <v>244</v>
       </c>
-      <c r="AO17" s="276" t="s">
+      <c r="AO17" s="250" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="276" t="s">
+      <c r="AP17" s="250" t="s">
         <v>242</v>
       </c>
-      <c r="AQ17" s="276" t="s">
+      <c r="AQ17" s="250" t="s">
         <v>241</v>
       </c>
       <c r="AR17" s="119"/>
@@ -5959,133 +5892,133 @@
       </c>
       <c r="AT17" s="13"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="133">
         <v>12</v>
       </c>
       <c r="B18" s="119"/>
-      <c r="C18" s="276">
+      <c r="C18" s="250">
         <v>240</v>
       </c>
-      <c r="D18" s="276">
+      <c r="D18" s="250">
         <v>239</v>
       </c>
-      <c r="E18" s="276">
+      <c r="E18" s="250">
         <v>238</v>
       </c>
-      <c r="F18" s="276">
+      <c r="F18" s="250">
         <v>237</v>
       </c>
-      <c r="G18" s="276">
+      <c r="G18" s="250">
         <v>236</v>
       </c>
-      <c r="H18" s="276">
+      <c r="H18" s="250">
         <v>235</v>
       </c>
-      <c r="I18" s="276">
+      <c r="I18" s="250">
         <v>234</v>
       </c>
-      <c r="J18" s="276">
+      <c r="J18" s="250">
         <v>233</v>
       </c>
-      <c r="K18" s="276">
+      <c r="K18" s="250">
         <v>232</v>
       </c>
-      <c r="L18" s="276">
+      <c r="L18" s="250">
         <v>231</v>
       </c>
-      <c r="M18" s="276">
+      <c r="M18" s="250">
         <v>230</v>
       </c>
-      <c r="N18" s="276">
+      <c r="N18" s="250">
         <v>229</v>
       </c>
-      <c r="O18" s="276">
+      <c r="O18" s="250">
         <v>228</v>
       </c>
-      <c r="P18" s="276">
+      <c r="P18" s="250">
         <v>227</v>
       </c>
-      <c r="Q18" s="276">
+      <c r="Q18" s="250">
         <v>226</v>
       </c>
-      <c r="R18" s="276">
+      <c r="R18" s="250">
         <v>225</v>
       </c>
-      <c r="S18" s="276">
+      <c r="S18" s="250">
         <v>224</v>
       </c>
-      <c r="T18" s="276">
+      <c r="T18" s="250">
         <v>223</v>
       </c>
-      <c r="U18" s="276">
+      <c r="U18" s="250">
         <v>222</v>
       </c>
-      <c r="V18" s="276">
+      <c r="V18" s="250">
         <v>221</v>
       </c>
       <c r="W18" s="137"/>
-      <c r="X18" s="276" t="s">
+      <c r="X18" s="250" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="276" t="s">
+      <c r="Y18" s="250" t="s">
         <v>239</v>
       </c>
-      <c r="Z18" s="276" t="s">
+      <c r="Z18" s="250" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="276" t="s">
+      <c r="AA18" s="250" t="s">
         <v>237</v>
       </c>
-      <c r="AB18" s="276" t="s">
+      <c r="AB18" s="250" t="s">
         <v>251</v>
       </c>
-      <c r="AC18" s="276" t="s">
+      <c r="AC18" s="250" t="s">
         <v>252</v>
       </c>
-      <c r="AD18" s="276" t="s">
+      <c r="AD18" s="250" t="s">
         <v>253</v>
       </c>
-      <c r="AE18" s="276" t="s">
+      <c r="AE18" s="250" t="s">
         <v>236</v>
       </c>
-      <c r="AF18" s="276" t="s">
+      <c r="AF18" s="250" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="276" t="s">
+      <c r="AG18" s="250" t="s">
         <v>234</v>
       </c>
-      <c r="AH18" s="276" t="s">
+      <c r="AH18" s="250" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="276" t="s">
+      <c r="AI18" s="250" t="s">
         <v>276</v>
       </c>
-      <c r="AJ18" s="276" t="s">
+      <c r="AJ18" s="250" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="276" t="s">
+      <c r="AK18" s="250" t="s">
         <v>274</v>
       </c>
-      <c r="AL18" s="276" t="s">
+      <c r="AL18" s="250" t="s">
         <v>273</v>
       </c>
-      <c r="AM18" s="276" t="s">
+      <c r="AM18" s="250" t="s">
         <v>272</v>
       </c>
-      <c r="AN18" s="276" t="s">
+      <c r="AN18" s="250" t="s">
         <v>271</v>
       </c>
-      <c r="AO18" s="276" t="s">
+      <c r="AO18" s="250" t="s">
         <v>270</v>
       </c>
-      <c r="AP18" s="276" t="s">
+      <c r="AP18" s="250" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="278" t="s">
+      <c r="AQ18" s="252" t="s">
         <v>268</v>
       </c>
-      <c r="AR18" s="265" t="s">
+      <c r="AR18" s="248" t="s">
         <v>779</v>
       </c>
       <c r="AS18" s="51">
@@ -6093,130 +6026,130 @@
       </c>
       <c r="AT18" s="13"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="133">
         <v>13</v>
       </c>
       <c r="B19" s="119"/>
-      <c r="C19" s="276">
+      <c r="C19" s="250">
         <v>260</v>
       </c>
-      <c r="D19" s="276">
+      <c r="D19" s="250">
         <v>259</v>
       </c>
-      <c r="E19" s="276">
+      <c r="E19" s="250">
         <v>258</v>
       </c>
-      <c r="F19" s="276">
+      <c r="F19" s="250">
         <v>257</v>
       </c>
-      <c r="G19" s="276">
+      <c r="G19" s="250">
         <v>256</v>
       </c>
-      <c r="H19" s="276">
+      <c r="H19" s="250">
         <v>255</v>
       </c>
-      <c r="I19" s="276">
+      <c r="I19" s="250">
         <v>254</v>
       </c>
-      <c r="J19" s="276">
+      <c r="J19" s="250">
         <v>253</v>
       </c>
-      <c r="K19" s="276">
+      <c r="K19" s="250">
         <v>252</v>
       </c>
-      <c r="L19" s="276">
+      <c r="L19" s="250">
         <v>251</v>
       </c>
-      <c r="M19" s="276">
+      <c r="M19" s="250">
         <v>250</v>
       </c>
-      <c r="N19" s="276">
+      <c r="N19" s="250">
         <v>249</v>
       </c>
-      <c r="O19" s="276">
+      <c r="O19" s="250">
         <v>248</v>
       </c>
-      <c r="P19" s="276">
+      <c r="P19" s="250">
         <v>247</v>
       </c>
-      <c r="Q19" s="276">
+      <c r="Q19" s="250">
         <v>246</v>
       </c>
-      <c r="R19" s="276">
+      <c r="R19" s="250">
         <v>245</v>
       </c>
-      <c r="S19" s="276">
+      <c r="S19" s="250">
         <v>244</v>
       </c>
-      <c r="T19" s="276">
+      <c r="T19" s="250">
         <v>243</v>
       </c>
-      <c r="U19" s="276">
+      <c r="U19" s="250">
         <v>242</v>
       </c>
-      <c r="V19" s="276">
+      <c r="V19" s="250">
         <v>241</v>
       </c>
       <c r="W19" s="137"/>
-      <c r="X19" s="276">
+      <c r="X19" s="250">
         <v>241</v>
       </c>
-      <c r="Y19" s="276">
+      <c r="Y19" s="250">
         <v>242</v>
       </c>
-      <c r="Z19" s="276">
+      <c r="Z19" s="250">
         <v>243</v>
       </c>
-      <c r="AA19" s="276">
+      <c r="AA19" s="250">
         <v>244</v>
       </c>
-      <c r="AB19" s="276">
+      <c r="AB19" s="250">
         <v>245</v>
       </c>
-      <c r="AC19" s="276">
+      <c r="AC19" s="250">
         <v>246</v>
       </c>
-      <c r="AD19" s="276">
+      <c r="AD19" s="250">
         <v>247</v>
       </c>
-      <c r="AE19" s="276">
+      <c r="AE19" s="250">
         <v>248</v>
       </c>
-      <c r="AF19" s="276">
+      <c r="AF19" s="250">
         <v>249</v>
       </c>
-      <c r="AG19" s="276">
+      <c r="AG19" s="250">
         <v>250</v>
       </c>
-      <c r="AH19" s="276">
+      <c r="AH19" s="250">
         <v>251</v>
       </c>
-      <c r="AI19" s="276">
+      <c r="AI19" s="250">
         <v>252</v>
       </c>
-      <c r="AJ19" s="276">
+      <c r="AJ19" s="250">
         <v>253</v>
       </c>
-      <c r="AK19" s="276">
+      <c r="AK19" s="250">
         <v>254</v>
       </c>
-      <c r="AL19" s="276">
+      <c r="AL19" s="250">
         <v>255</v>
       </c>
-      <c r="AM19" s="276">
+      <c r="AM19" s="250">
         <v>256</v>
       </c>
-      <c r="AN19" s="276">
+      <c r="AN19" s="250">
         <v>257</v>
       </c>
-      <c r="AO19" s="276">
+      <c r="AO19" s="250">
         <v>258</v>
       </c>
-      <c r="AP19" s="276">
+      <c r="AP19" s="250">
         <v>259</v>
       </c>
-      <c r="AQ19" s="276">
+      <c r="AQ19" s="250">
         <v>260</v>
       </c>
       <c r="AR19" s="177" t="s">
@@ -6227,130 +6160,130 @@
       </c>
       <c r="AT19" s="13"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="133">
         <v>14</v>
       </c>
       <c r="B20" s="195"/>
-      <c r="C20" s="276">
+      <c r="C20" s="250">
         <v>280</v>
       </c>
-      <c r="D20" s="276">
+      <c r="D20" s="250">
         <v>279</v>
       </c>
-      <c r="E20" s="276">
+      <c r="E20" s="250">
         <v>278</v>
       </c>
-      <c r="F20" s="276">
+      <c r="F20" s="250">
         <v>277</v>
       </c>
-      <c r="G20" s="276">
+      <c r="G20" s="250">
         <v>276</v>
       </c>
-      <c r="H20" s="276">
+      <c r="H20" s="250">
         <v>275</v>
       </c>
-      <c r="I20" s="276">
+      <c r="I20" s="250">
         <v>274</v>
       </c>
-      <c r="J20" s="276">
+      <c r="J20" s="250">
         <v>273</v>
       </c>
-      <c r="K20" s="276">
+      <c r="K20" s="250">
         <v>272</v>
       </c>
-      <c r="L20" s="276">
+      <c r="L20" s="250">
         <v>271</v>
       </c>
-      <c r="M20" s="276">
+      <c r="M20" s="250">
         <v>270</v>
       </c>
-      <c r="N20" s="276">
+      <c r="N20" s="250">
         <v>269</v>
       </c>
-      <c r="O20" s="276">
+      <c r="O20" s="250">
         <v>268</v>
       </c>
-      <c r="P20" s="276">
+      <c r="P20" s="250">
         <v>267</v>
       </c>
-      <c r="Q20" s="276">
+      <c r="Q20" s="250">
         <v>266</v>
       </c>
-      <c r="R20" s="276">
+      <c r="R20" s="250">
         <v>265</v>
       </c>
-      <c r="S20" s="276">
+      <c r="S20" s="250">
         <v>264</v>
       </c>
-      <c r="T20" s="276">
+      <c r="T20" s="250">
         <v>263</v>
       </c>
-      <c r="U20" s="276">
+      <c r="U20" s="250">
         <v>262</v>
       </c>
-      <c r="V20" s="276">
+      <c r="V20" s="250">
         <v>261</v>
       </c>
       <c r="W20" s="151"/>
-      <c r="X20" s="276">
+      <c r="X20" s="250">
         <v>261</v>
       </c>
-      <c r="Y20" s="276">
+      <c r="Y20" s="250">
         <v>262</v>
       </c>
-      <c r="Z20" s="276">
+      <c r="Z20" s="250">
         <v>263</v>
       </c>
-      <c r="AA20" s="276">
+      <c r="AA20" s="250">
         <v>264</v>
       </c>
-      <c r="AB20" s="276">
+      <c r="AB20" s="250">
         <v>265</v>
       </c>
-      <c r="AC20" s="276">
+      <c r="AC20" s="250">
         <v>266</v>
       </c>
-      <c r="AD20" s="276">
+      <c r="AD20" s="250">
         <v>267</v>
       </c>
-      <c r="AE20" s="276">
+      <c r="AE20" s="250">
         <v>268</v>
       </c>
-      <c r="AF20" s="276">
+      <c r="AF20" s="250">
         <v>269</v>
       </c>
-      <c r="AG20" s="276">
+      <c r="AG20" s="250">
         <v>270</v>
       </c>
-      <c r="AH20" s="276">
+      <c r="AH20" s="250">
         <v>271</v>
       </c>
-      <c r="AI20" s="276">
+      <c r="AI20" s="250">
         <v>272</v>
       </c>
-      <c r="AJ20" s="276">
+      <c r="AJ20" s="250">
         <v>273</v>
       </c>
-      <c r="AK20" s="276">
+      <c r="AK20" s="250">
         <v>274</v>
       </c>
-      <c r="AL20" s="276">
+      <c r="AL20" s="250">
         <v>275</v>
       </c>
-      <c r="AM20" s="276">
+      <c r="AM20" s="250">
         <v>276</v>
       </c>
-      <c r="AN20" s="276">
+      <c r="AN20" s="250">
         <v>277</v>
       </c>
-      <c r="AO20" s="276">
+      <c r="AO20" s="250">
         <v>278</v>
       </c>
-      <c r="AP20" s="276">
+      <c r="AP20" s="250">
         <v>279</v>
       </c>
-      <c r="AQ20" s="276">
+      <c r="AQ20" s="250">
         <v>280</v>
       </c>
       <c r="AR20" s="194" t="s">
@@ -6361,130 +6294,130 @@
       </c>
       <c r="AT20" s="13"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="133">
         <v>15</v>
       </c>
       <c r="B21" s="119"/>
-      <c r="C21" s="276">
+      <c r="C21" s="250">
         <v>300</v>
       </c>
-      <c r="D21" s="276">
+      <c r="D21" s="250">
         <v>299</v>
       </c>
-      <c r="E21" s="276">
+      <c r="E21" s="250">
         <v>298</v>
       </c>
-      <c r="F21" s="276">
+      <c r="F21" s="250">
         <v>297</v>
       </c>
-      <c r="G21" s="276">
+      <c r="G21" s="250">
         <v>296</v>
       </c>
-      <c r="H21" s="276">
+      <c r="H21" s="250">
         <v>295</v>
       </c>
-      <c r="I21" s="276">
+      <c r="I21" s="250">
         <v>294</v>
       </c>
-      <c r="J21" s="276">
+      <c r="J21" s="250">
         <v>293</v>
       </c>
-      <c r="K21" s="276">
+      <c r="K21" s="250">
         <v>292</v>
       </c>
-      <c r="L21" s="276">
+      <c r="L21" s="250">
         <v>291</v>
       </c>
-      <c r="M21" s="276">
+      <c r="M21" s="250">
         <v>290</v>
       </c>
-      <c r="N21" s="276">
+      <c r="N21" s="250">
         <v>289</v>
       </c>
-      <c r="O21" s="276">
+      <c r="O21" s="250">
         <v>288</v>
       </c>
-      <c r="P21" s="276">
+      <c r="P21" s="250">
         <v>287</v>
       </c>
-      <c r="Q21" s="276">
+      <c r="Q21" s="250">
         <v>286</v>
       </c>
-      <c r="R21" s="276">
+      <c r="R21" s="250">
         <v>285</v>
       </c>
-      <c r="S21" s="276">
+      <c r="S21" s="250">
         <v>284</v>
       </c>
-      <c r="T21" s="276">
+      <c r="T21" s="250">
         <v>283</v>
       </c>
-      <c r="U21" s="276">
+      <c r="U21" s="250">
         <v>282</v>
       </c>
-      <c r="V21" s="276">
+      <c r="V21" s="250">
         <v>281</v>
       </c>
       <c r="W21" s="118"/>
-      <c r="X21" s="276">
+      <c r="X21" s="250">
         <v>281</v>
       </c>
-      <c r="Y21" s="276">
+      <c r="Y21" s="250">
         <v>282</v>
       </c>
-      <c r="Z21" s="276">
+      <c r="Z21" s="250">
         <v>283</v>
       </c>
-      <c r="AA21" s="276">
+      <c r="AA21" s="250">
         <v>284</v>
       </c>
-      <c r="AB21" s="276">
+      <c r="AB21" s="250">
         <v>285</v>
       </c>
-      <c r="AC21" s="276">
+      <c r="AC21" s="250">
         <v>286</v>
       </c>
-      <c r="AD21" s="276">
+      <c r="AD21" s="250">
         <v>287</v>
       </c>
-      <c r="AE21" s="276">
+      <c r="AE21" s="250">
         <v>288</v>
       </c>
-      <c r="AF21" s="276">
+      <c r="AF21" s="250">
         <v>289</v>
       </c>
-      <c r="AG21" s="276">
+      <c r="AG21" s="250">
         <v>290</v>
       </c>
-      <c r="AH21" s="276">
+      <c r="AH21" s="250">
         <v>291</v>
       </c>
-      <c r="AI21" s="276">
+      <c r="AI21" s="250">
         <v>292</v>
       </c>
-      <c r="AJ21" s="276">
+      <c r="AJ21" s="250">
         <v>293</v>
       </c>
-      <c r="AK21" s="276">
+      <c r="AK21" s="250">
         <v>294</v>
       </c>
-      <c r="AL21" s="276">
+      <c r="AL21" s="250">
         <v>295</v>
       </c>
-      <c r="AM21" s="276">
+      <c r="AM21" s="250">
         <v>296</v>
       </c>
-      <c r="AN21" s="276">
+      <c r="AN21" s="250">
         <v>297</v>
       </c>
-      <c r="AO21" s="276">
+      <c r="AO21" s="250">
         <v>298</v>
       </c>
-      <c r="AP21" s="276">
+      <c r="AP21" s="250">
         <v>299</v>
       </c>
-      <c r="AQ21" s="276">
+      <c r="AQ21" s="250">
         <v>300</v>
       </c>
       <c r="AR21" s="119"/>
@@ -6493,7 +6426,7 @@
       </c>
       <c r="AT21" s="13"/>
     </row>
-    <row r="22" spans="1:46" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="113"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -6507,11 +6440,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="271" t="s">
+      <c r="N22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="271"/>
-      <c r="P22" s="271"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="260"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6525,11 +6458,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="271" t="s">
+      <c r="AD22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="271"/>
-      <c r="AF22" s="271"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6544,20 +6477,20 @@
       <c r="AR22" s="52"/>
       <c r="AS22" s="178"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="219"/>
-      <c r="B23" s="248"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="248"/>
-      <c r="K23" s="248"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="249"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="241"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
       <c r="N23" s="154">
         <v>1</v>
       </c>
@@ -6601,34 +6534,34 @@
       <c r="AF23" s="156">
         <v>1</v>
       </c>
-      <c r="AG23" s="249"/>
-      <c r="AH23" s="249"/>
-      <c r="AI23" s="250"/>
-      <c r="AJ23" s="250"/>
-      <c r="AK23" s="250"/>
-      <c r="AL23" s="250"/>
-      <c r="AM23" s="250"/>
-      <c r="AN23" s="250"/>
-      <c r="AO23" s="250"/>
-      <c r="AP23" s="250"/>
-      <c r="AQ23" s="250"/>
-      <c r="AR23" s="250"/>
+      <c r="AG23" s="242"/>
+      <c r="AH23" s="242"/>
+      <c r="AI23" s="243"/>
+      <c r="AJ23" s="243"/>
+      <c r="AK23" s="243"/>
+      <c r="AL23" s="243"/>
+      <c r="AM23" s="243"/>
+      <c r="AN23" s="243"/>
+      <c r="AO23" s="243"/>
+      <c r="AP23" s="243"/>
+      <c r="AQ23" s="243"/>
+      <c r="AR23" s="243"/>
       <c r="AS23" s="178"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="123"/>
-      <c r="B24" s="250"/>
-      <c r="C24" s="250"/>
-      <c r="D24" s="250"/>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="250"/>
-      <c r="I24" s="250"/>
-      <c r="J24" s="250"/>
-      <c r="K24" s="250"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
+      <c r="B24" s="243"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="243"/>
+      <c r="K24" s="243"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="242"/>
       <c r="N24" s="154">
         <v>2</v>
       </c>
@@ -6652,34 +6585,34 @@
       <c r="AF24" s="156">
         <v>2</v>
       </c>
-      <c r="AG24" s="249"/>
-      <c r="AH24" s="249"/>
-      <c r="AI24" s="250"/>
-      <c r="AJ24" s="250"/>
-      <c r="AK24" s="250"/>
-      <c r="AL24" s="250"/>
-      <c r="AM24" s="250"/>
-      <c r="AN24" s="250"/>
-      <c r="AO24" s="250"/>
-      <c r="AP24" s="250"/>
-      <c r="AQ24" s="250"/>
-      <c r="AR24" s="250"/>
+      <c r="AG24" s="242"/>
+      <c r="AH24" s="242"/>
+      <c r="AI24" s="243"/>
+      <c r="AJ24" s="243"/>
+      <c r="AK24" s="243"/>
+      <c r="AL24" s="243"/>
+      <c r="AM24" s="243"/>
+      <c r="AN24" s="243"/>
+      <c r="AO24" s="243"/>
+      <c r="AP24" s="243"/>
+      <c r="AQ24" s="243"/>
+      <c r="AR24" s="243"/>
       <c r="AS24" s="178"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="124"/>
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="249"/>
-      <c r="M25" s="249"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
+      <c r="I25" s="243"/>
+      <c r="J25" s="243"/>
+      <c r="K25" s="243"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="242"/>
       <c r="N25" s="154">
         <v>3</v>
       </c>
@@ -6703,288 +6636,288 @@
       <c r="AF25" s="156">
         <v>3</v>
       </c>
-      <c r="AG25" s="249"/>
-      <c r="AH25" s="249"/>
-      <c r="AI25" s="250"/>
-      <c r="AJ25" s="250"/>
-      <c r="AK25" s="250"/>
-      <c r="AL25" s="250"/>
-      <c r="AM25" s="250"/>
-      <c r="AN25" s="250"/>
-      <c r="AO25" s="250"/>
-      <c r="AP25" s="250"/>
-      <c r="AQ25" s="250"/>
-      <c r="AR25" s="250"/>
+      <c r="AG25" s="242"/>
+      <c r="AH25" s="242"/>
+      <c r="AI25" s="243"/>
+      <c r="AJ25" s="243"/>
+      <c r="AK25" s="243"/>
+      <c r="AL25" s="243"/>
+      <c r="AM25" s="243"/>
+      <c r="AN25" s="243"/>
+      <c r="AO25" s="243"/>
+      <c r="AP25" s="243"/>
+      <c r="AQ25" s="243"/>
+      <c r="AR25" s="243"/>
       <c r="AS25" s="178"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="123"/>
-      <c r="B26" s="251"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="251"/>
-      <c r="E26" s="251"/>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
-      <c r="M26" s="251"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
       <c r="N26" s="154">
         <v>4</v>
       </c>
       <c r="O26" s="113"/>
-      <c r="P26" s="276">
+      <c r="P26" s="250">
         <v>307</v>
       </c>
-      <c r="Q26" s="276">
+      <c r="Q26" s="250">
         <v>306</v>
       </c>
-      <c r="R26" s="276">
+      <c r="R26" s="250">
         <v>305</v>
       </c>
-      <c r="S26" s="276">
+      <c r="S26" s="250">
         <v>304</v>
       </c>
-      <c r="T26" s="276">
+      <c r="T26" s="250">
         <v>303</v>
       </c>
-      <c r="U26" s="276">
+      <c r="U26" s="250">
         <v>302</v>
       </c>
-      <c r="V26" s="276">
+      <c r="V26" s="250">
         <v>301</v>
       </c>
       <c r="W26" s="161"/>
-      <c r="X26" s="276">
+      <c r="X26" s="250">
         <v>301</v>
       </c>
-      <c r="Y26" s="276">
+      <c r="Y26" s="250">
         <v>302</v>
       </c>
-      <c r="Z26" s="276">
+      <c r="Z26" s="250">
         <v>303</v>
       </c>
-      <c r="AA26" s="276">
+      <c r="AA26" s="250">
         <v>304</v>
       </c>
-      <c r="AB26" s="276">
+      <c r="AB26" s="250">
         <v>305</v>
       </c>
-      <c r="AC26" s="276">
+      <c r="AC26" s="250">
         <v>306</v>
       </c>
-      <c r="AD26" s="276">
+      <c r="AD26" s="250">
         <v>307</v>
       </c>
       <c r="AE26" s="113"/>
       <c r="AF26" s="156">
         <v>4</v>
       </c>
-      <c r="AG26" s="250"/>
-      <c r="AH26" s="262"/>
-      <c r="AI26" s="250"/>
-      <c r="AJ26" s="262"/>
-      <c r="AK26" s="250"/>
-      <c r="AL26" s="262"/>
-      <c r="AM26" s="250"/>
-      <c r="AN26" s="262"/>
-      <c r="AO26" s="250"/>
-      <c r="AP26" s="262"/>
-      <c r="AQ26" s="250"/>
-      <c r="AR26" s="262"/>
+      <c r="AG26" s="243"/>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="243"/>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="243"/>
+      <c r="AL26" s="143"/>
+      <c r="AM26" s="243"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="243"/>
+      <c r="AP26" s="143"/>
+      <c r="AQ26" s="243"/>
+      <c r="AR26" s="143"/>
       <c r="AS26" s="178"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="115"/>
-      <c r="B27" s="251"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="251"/>
-      <c r="M27" s="251"/>
+      <c r="B27" s="244"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
       <c r="N27" s="154">
         <v>5</v>
       </c>
       <c r="O27" s="113"/>
-      <c r="P27" s="276">
+      <c r="P27" s="250">
         <v>314</v>
       </c>
-      <c r="Q27" s="276">
+      <c r="Q27" s="250">
         <v>313</v>
       </c>
-      <c r="R27" s="276">
+      <c r="R27" s="250">
         <v>312</v>
       </c>
-      <c r="S27" s="276">
+      <c r="S27" s="250">
         <v>311</v>
       </c>
-      <c r="T27" s="276">
+      <c r="T27" s="250">
         <v>310</v>
       </c>
-      <c r="U27" s="276">
+      <c r="U27" s="250">
         <v>309</v>
       </c>
-      <c r="V27" s="276">
+      <c r="V27" s="250">
         <v>308</v>
       </c>
       <c r="W27" s="153"/>
-      <c r="X27" s="276">
+      <c r="X27" s="250">
         <v>308</v>
       </c>
-      <c r="Y27" s="276">
+      <c r="Y27" s="250">
         <v>309</v>
       </c>
-      <c r="Z27" s="276">
+      <c r="Z27" s="250">
         <v>310</v>
       </c>
-      <c r="AA27" s="276">
+      <c r="AA27" s="250">
         <v>311</v>
       </c>
-      <c r="AB27" s="276">
+      <c r="AB27" s="250">
         <v>312</v>
       </c>
-      <c r="AC27" s="276">
+      <c r="AC27" s="250">
         <v>313</v>
       </c>
-      <c r="AD27" s="276">
+      <c r="AD27" s="250">
         <v>314</v>
       </c>
       <c r="AE27" s="113"/>
       <c r="AF27" s="156">
         <v>5</v>
       </c>
-      <c r="AG27" s="250"/>
-      <c r="AH27" s="262"/>
-      <c r="AI27" s="250"/>
-      <c r="AJ27" s="250"/>
-      <c r="AK27" s="250"/>
-      <c r="AL27" s="250"/>
-      <c r="AM27" s="250"/>
-      <c r="AN27" s="250"/>
-      <c r="AO27" s="263"/>
-      <c r="AP27" s="250"/>
-      <c r="AQ27" s="250"/>
-      <c r="AR27" s="250"/>
+      <c r="AG27" s="243"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="243"/>
+      <c r="AJ27" s="243"/>
+      <c r="AK27" s="243"/>
+      <c r="AL27" s="243"/>
+      <c r="AM27" s="243"/>
+      <c r="AN27" s="243"/>
+      <c r="AO27" s="246"/>
+      <c r="AP27" s="243"/>
+      <c r="AQ27" s="243"/>
+      <c r="AR27" s="243"/>
       <c r="AS27" s="178"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="119"/>
-      <c r="B28" s="251"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="251"/>
-      <c r="F28" s="251"/>
-      <c r="G28" s="251"/>
-      <c r="H28" s="251"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="251"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="251"/>
-      <c r="M28" s="251"/>
+      <c r="B28" s="244"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="244"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
       <c r="N28" s="154">
         <v>6</v>
       </c>
       <c r="O28" s="113"/>
-      <c r="P28" s="276">
+      <c r="P28" s="250">
         <v>321</v>
       </c>
-      <c r="Q28" s="276">
+      <c r="Q28" s="250">
         <v>320</v>
       </c>
-      <c r="R28" s="276">
+      <c r="R28" s="250">
         <v>319</v>
       </c>
-      <c r="S28" s="276">
+      <c r="S28" s="250">
         <v>318</v>
       </c>
-      <c r="T28" s="276">
+      <c r="T28" s="250">
         <v>317</v>
       </c>
-      <c r="U28" s="276">
+      <c r="U28" s="250">
         <v>316</v>
       </c>
-      <c r="V28" s="276">
+      <c r="V28" s="250">
         <v>315</v>
       </c>
       <c r="W28" s="153"/>
-      <c r="X28" s="276">
+      <c r="X28" s="250">
         <v>315</v>
       </c>
-      <c r="Y28" s="276">
+      <c r="Y28" s="250">
         <v>316</v>
       </c>
-      <c r="Z28" s="276">
+      <c r="Z28" s="250">
         <v>317</v>
       </c>
-      <c r="AA28" s="276">
+      <c r="AA28" s="250">
         <v>318</v>
       </c>
-      <c r="AB28" s="276">
+      <c r="AB28" s="250">
         <v>319</v>
       </c>
-      <c r="AC28" s="276">
+      <c r="AC28" s="250">
         <v>320</v>
       </c>
-      <c r="AD28" s="276">
+      <c r="AD28" s="250">
         <v>321</v>
       </c>
       <c r="AE28" s="158"/>
       <c r="AF28" s="156">
         <v>6</v>
       </c>
-      <c r="AG28" s="250"/>
-      <c r="AH28" s="262"/>
-      <c r="AI28" s="250"/>
-      <c r="AJ28" s="250"/>
-      <c r="AK28" s="250"/>
-      <c r="AL28" s="250"/>
-      <c r="AM28" s="250"/>
-      <c r="AN28" s="250"/>
-      <c r="AO28" s="250"/>
-      <c r="AP28" s="250"/>
-      <c r="AQ28" s="250"/>
-      <c r="AR28" s="250"/>
+      <c r="AG28" s="243"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="243"/>
+      <c r="AJ28" s="243"/>
+      <c r="AK28" s="243"/>
+      <c r="AL28" s="243"/>
+      <c r="AM28" s="243"/>
+      <c r="AN28" s="243"/>
+      <c r="AO28" s="243"/>
+      <c r="AP28" s="243"/>
+      <c r="AQ28" s="243"/>
+      <c r="AR28" s="243"/>
       <c r="AS28" s="179"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="127"/>
-      <c r="B29" s="252"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="252"/>
-      <c r="J29" s="252"/>
-      <c r="K29" s="252"/>
-      <c r="L29" s="252"/>
-      <c r="M29" s="252"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="245"/>
+      <c r="K29" s="245"/>
+      <c r="L29" s="245"/>
+      <c r="M29" s="245"/>
       <c r="N29" s="154">
         <v>7</v>
       </c>
       <c r="O29" s="113"/>
-      <c r="P29" s="276">
+      <c r="P29" s="250">
         <v>328</v>
       </c>
-      <c r="Q29" s="276">
+      <c r="Q29" s="250">
         <v>327</v>
       </c>
-      <c r="R29" s="235">
+      <c r="R29" s="231">
         <v>326</v>
       </c>
-      <c r="S29" s="240" t="s">
+      <c r="S29" s="265" t="s">
         <v>778</v>
       </c>
-      <c r="T29" s="245" t="s">
+      <c r="T29" s="238" t="s">
         <v>364</v>
       </c>
       <c r="U29" s="192">
@@ -7019,39 +6952,39 @@
       <c r="AF29" s="156">
         <v>7</v>
       </c>
-      <c r="AG29" s="259"/>
-      <c r="AH29" s="258"/>
-      <c r="AI29" s="259"/>
-      <c r="AJ29" s="258"/>
-      <c r="AK29" s="259"/>
-      <c r="AL29" s="258"/>
-      <c r="AM29" s="259"/>
-      <c r="AN29" s="258"/>
-      <c r="AO29" s="259"/>
-      <c r="AP29" s="258"/>
-      <c r="AQ29" s="259"/>
-      <c r="AR29" s="258"/>
+      <c r="AG29" s="119"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="119"/>
+      <c r="AJ29" s="118"/>
+      <c r="AK29" s="119"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="119"/>
+      <c r="AN29" s="118"/>
+      <c r="AO29" s="119"/>
+      <c r="AP29" s="118"/>
+      <c r="AQ29" s="119"/>
+      <c r="AR29" s="118"/>
       <c r="AS29" s="178"/>
     </row>
-    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="115"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="250"/>
-      <c r="L30" s="250"/>
-      <c r="M30" s="250"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="243"/>
+      <c r="J30" s="243"/>
+      <c r="K30" s="243"/>
+      <c r="L30" s="243"/>
+      <c r="M30" s="243"/>
       <c r="N30" s="113">
         <v>8</v>
       </c>
-      <c r="O30" s="243"/>
-      <c r="P30" s="246">
+      <c r="O30" s="175"/>
+      <c r="P30" s="239">
         <v>335</v>
       </c>
       <c r="Q30" s="192">
@@ -7098,33 +7031,33 @@
       <c r="AF30" s="159">
         <v>8</v>
       </c>
-      <c r="AG30" s="250"/>
-      <c r="AH30" s="262"/>
-      <c r="AI30" s="250"/>
-      <c r="AJ30" s="250"/>
-      <c r="AK30" s="250"/>
-      <c r="AL30" s="250"/>
-      <c r="AM30" s="250"/>
-      <c r="AN30" s="250"/>
-      <c r="AO30" s="250"/>
-      <c r="AP30" s="250"/>
-      <c r="AQ30" s="250"/>
-      <c r="AR30" s="250"/>
+      <c r="AG30" s="243"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="243"/>
+      <c r="AJ30" s="243"/>
+      <c r="AK30" s="243"/>
+      <c r="AL30" s="243"/>
+      <c r="AM30" s="243"/>
+      <c r="AN30" s="243"/>
+      <c r="AO30" s="243"/>
+      <c r="AP30" s="243"/>
+      <c r="AQ30" s="243"/>
+      <c r="AR30" s="243"/>
     </row>
-    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="115"/>
-      <c r="B31" s="250"/>
-      <c r="C31" s="250"/>
-      <c r="D31" s="250"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="250"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="250"/>
-      <c r="I31" s="250"/>
-      <c r="J31" s="250"/>
-      <c r="K31" s="250"/>
-      <c r="L31" s="250"/>
-      <c r="M31" s="250"/>
+      <c r="B31" s="243"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="243"/>
+      <c r="I31" s="243"/>
+      <c r="J31" s="243"/>
+      <c r="K31" s="243"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="243"/>
       <c r="N31" s="154">
         <v>9</v>
       </c>
@@ -7176,33 +7109,33 @@
       <c r="AF31" s="185">
         <v>9</v>
       </c>
-      <c r="AG31" s="250"/>
-      <c r="AH31" s="262"/>
-      <c r="AI31" s="250"/>
-      <c r="AJ31" s="250"/>
-      <c r="AK31" s="250"/>
-      <c r="AL31" s="250"/>
-      <c r="AM31" s="250"/>
-      <c r="AN31" s="250"/>
-      <c r="AO31" s="250"/>
-      <c r="AP31" s="250"/>
-      <c r="AQ31" s="250"/>
-      <c r="AR31" s="250"/>
+      <c r="AG31" s="243"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="243"/>
+      <c r="AJ31" s="243"/>
+      <c r="AK31" s="243"/>
+      <c r="AL31" s="243"/>
+      <c r="AM31" s="243"/>
+      <c r="AN31" s="243"/>
+      <c r="AO31" s="243"/>
+      <c r="AP31" s="243"/>
+      <c r="AQ31" s="243"/>
+      <c r="AR31" s="243"/>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="115"/>
-      <c r="B32" s="250"/>
-      <c r="C32" s="250"/>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="250"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="250"/>
+      <c r="B32" s="243"/>
+      <c r="C32" s="243"/>
+      <c r="D32" s="243"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="243"/>
+      <c r="H32" s="243"/>
+      <c r="I32" s="243"/>
+      <c r="J32" s="243"/>
+      <c r="K32" s="243"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="243"/>
       <c r="N32" s="184">
         <v>10</v>
       </c>
@@ -7254,33 +7187,33 @@
       <c r="AF32" s="185">
         <v>10</v>
       </c>
-      <c r="AG32" s="250"/>
-      <c r="AH32" s="262"/>
-      <c r="AI32" s="250"/>
-      <c r="AJ32" s="250"/>
-      <c r="AK32" s="250"/>
-      <c r="AL32" s="250"/>
-      <c r="AM32" s="250"/>
-      <c r="AN32" s="250"/>
-      <c r="AO32" s="250"/>
-      <c r="AP32" s="250"/>
-      <c r="AQ32" s="250"/>
-      <c r="AR32" s="250"/>
+      <c r="AG32" s="243"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="243"/>
+      <c r="AJ32" s="243"/>
+      <c r="AK32" s="243"/>
+      <c r="AL32" s="243"/>
+      <c r="AM32" s="243"/>
+      <c r="AN32" s="243"/>
+      <c r="AO32" s="243"/>
+      <c r="AP32" s="243"/>
+      <c r="AQ32" s="243"/>
+      <c r="AR32" s="243"/>
     </row>
-    <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="115"/>
-      <c r="B33" s="250"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="250"/>
-      <c r="L33" s="250"/>
-      <c r="M33" s="250"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
       <c r="N33" s="186">
         <v>11</v>
       </c>
@@ -7307,10 +7240,10 @@
         <v>350</v>
       </c>
       <c r="W33" s="163"/>
-      <c r="X33" s="247">
+      <c r="X33" s="240">
         <v>350</v>
       </c>
-      <c r="Y33" s="247">
+      <c r="Y33" s="240">
         <v>351</v>
       </c>
       <c r="Z33" s="192">
@@ -7332,46 +7265,42 @@
       <c r="AF33" s="185">
         <v>11</v>
       </c>
-      <c r="AG33" s="250"/>
-      <c r="AH33" s="258"/>
-      <c r="AI33" s="250"/>
-      <c r="AJ33" s="259"/>
-      <c r="AK33" s="250"/>
-      <c r="AL33" s="259"/>
-      <c r="AM33" s="250"/>
-      <c r="AN33" s="259"/>
-      <c r="AO33" s="250"/>
-      <c r="AP33" s="259"/>
-      <c r="AQ33" s="250"/>
-      <c r="AR33" s="259"/>
+      <c r="AG33" s="243"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="243"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="243"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="243"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="243"/>
+      <c r="AP33" s="119"/>
+      <c r="AQ33" s="243"/>
+      <c r="AR33" s="119"/>
       <c r="AS33" s="181"/>
     </row>
-    <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="115"/>
-      <c r="B34" s="250"/>
-      <c r="C34" s="250"/>
-      <c r="D34" s="250"/>
-      <c r="E34" s="250"/>
-      <c r="F34" s="250"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="250"/>
-      <c r="I34" s="250"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="250"/>
-      <c r="L34" s="250"/>
-      <c r="M34" s="250"/>
+      <c r="B34" s="243"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="243"/>
+      <c r="F34" s="243"/>
+      <c r="G34" s="243"/>
+      <c r="H34" s="243"/>
+      <c r="I34" s="243"/>
+      <c r="J34" s="243"/>
+      <c r="K34" s="243"/>
+      <c r="L34" s="243"/>
+      <c r="M34" s="243"/>
       <c r="N34" s="186">
         <v>12</v>
       </c>
       <c r="O34" s="141"/>
-      <c r="P34" s="241" t="s">
+      <c r="P34" s="241"/>
+      <c r="Q34" s="241"/>
+      <c r="R34" s="264" t="s">
         <v>777</v>
-      </c>
-      <c r="Q34" s="198">
-        <v>362</v>
-      </c>
-      <c r="R34" s="198">
-        <v>361</v>
       </c>
       <c r="S34" s="198">
         <v>360</v>
@@ -7392,170 +7321,174 @@
       <c r="Y34" s="198">
         <v>358</v>
       </c>
-      <c r="Z34" s="248"/>
-      <c r="AA34" s="248"/>
-      <c r="AB34" s="248"/>
-      <c r="AC34" s="248"/>
-      <c r="AD34" s="248"/>
+      <c r="Z34" s="198">
+        <v>359</v>
+      </c>
+      <c r="AA34" s="198">
+        <v>360</v>
+      </c>
+      <c r="AB34" s="241"/>
+      <c r="AC34" s="241"/>
+      <c r="AD34" s="241"/>
       <c r="AE34" s="115"/>
       <c r="AF34" s="185">
         <v>12</v>
       </c>
-      <c r="AG34" s="250"/>
-      <c r="AH34" s="258"/>
-      <c r="AI34" s="250"/>
-      <c r="AJ34" s="259"/>
-      <c r="AK34" s="250"/>
-      <c r="AL34" s="259"/>
-      <c r="AM34" s="250"/>
-      <c r="AN34" s="259"/>
-      <c r="AO34" s="250"/>
-      <c r="AP34" s="259"/>
-      <c r="AQ34" s="250"/>
-      <c r="AR34" s="259"/>
+      <c r="AG34" s="243"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="243"/>
+      <c r="AJ34" s="119"/>
+      <c r="AK34" s="243"/>
+      <c r="AL34" s="119"/>
+      <c r="AM34" s="243"/>
+      <c r="AN34" s="119"/>
+      <c r="AO34" s="243"/>
+      <c r="AP34" s="119"/>
+      <c r="AQ34" s="243"/>
+      <c r="AR34" s="119"/>
       <c r="AS34" s="181"/>
     </row>
-    <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="115"/>
-      <c r="B35" s="250"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="250"/>
-      <c r="H35" s="250"/>
-      <c r="I35" s="250"/>
-      <c r="J35" s="250"/>
-      <c r="K35" s="250"/>
-      <c r="L35" s="250"/>
-      <c r="M35" s="250"/>
-      <c r="N35" s="253"/>
-      <c r="O35" s="254"/>
-      <c r="P35" s="248"/>
-      <c r="Q35" s="248"/>
-      <c r="R35" s="248"/>
-      <c r="S35" s="248"/>
-      <c r="T35" s="250"/>
-      <c r="U35" s="250"/>
-      <c r="V35" s="250"/>
-      <c r="W35" s="255"/>
-      <c r="X35" s="250"/>
-      <c r="Y35" s="250"/>
-      <c r="Z35" s="250"/>
-      <c r="AA35" s="250"/>
-      <c r="AB35" s="250"/>
-      <c r="AC35" s="250"/>
-      <c r="AD35" s="250"/>
-      <c r="AE35" s="256"/>
-      <c r="AF35" s="257"/>
-      <c r="AG35" s="250"/>
-      <c r="AH35" s="258"/>
-      <c r="AI35" s="250"/>
-      <c r="AJ35" s="259"/>
-      <c r="AK35" s="250"/>
-      <c r="AL35" s="259"/>
-      <c r="AM35" s="250"/>
-      <c r="AN35" s="259"/>
-      <c r="AO35" s="250"/>
-      <c r="AP35" s="259"/>
-      <c r="AQ35" s="250"/>
-      <c r="AR35" s="259"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="243"/>
+      <c r="D35" s="243"/>
+      <c r="E35" s="243"/>
+      <c r="F35" s="243"/>
+      <c r="G35" s="243"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="243"/>
+      <c r="J35" s="243"/>
+      <c r="K35" s="243"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="241"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="241"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="243"/>
+      <c r="U35" s="243"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="166"/>
+      <c r="X35" s="243"/>
+      <c r="Y35" s="243"/>
+      <c r="Z35" s="243"/>
+      <c r="AA35" s="243"/>
+      <c r="AB35" s="243"/>
+      <c r="AC35" s="243"/>
+      <c r="AD35" s="243"/>
+      <c r="AE35" s="115"/>
+      <c r="AF35" s="185"/>
+      <c r="AG35" s="243"/>
+      <c r="AH35" s="118"/>
+      <c r="AI35" s="243"/>
+      <c r="AJ35" s="119"/>
+      <c r="AK35" s="243"/>
+      <c r="AL35" s="119"/>
+      <c r="AM35" s="243"/>
+      <c r="AN35" s="119"/>
+      <c r="AO35" s="243"/>
+      <c r="AP35" s="119"/>
+      <c r="AQ35" s="243"/>
+      <c r="AR35" s="119"/>
       <c r="AS35" s="181"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="115"/>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
-      <c r="I36" s="250"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="250"/>
-      <c r="L36" s="250"/>
-      <c r="M36" s="250"/>
-      <c r="N36" s="253"/>
-      <c r="O36" s="243"/>
-      <c r="P36" s="250"/>
-      <c r="Q36" s="250"/>
-      <c r="R36" s="250"/>
-      <c r="S36" s="250"/>
-      <c r="T36" s="250"/>
-      <c r="U36" s="250"/>
-      <c r="V36" s="250"/>
-      <c r="W36" s="255"/>
-      <c r="X36" s="248"/>
-      <c r="Y36" s="248"/>
-      <c r="Z36" s="248"/>
-      <c r="AA36" s="248"/>
-      <c r="AB36" s="248"/>
-      <c r="AC36" s="248"/>
-      <c r="AD36" s="248"/>
-      <c r="AE36" s="256"/>
-      <c r="AF36" s="257"/>
-      <c r="AG36" s="259"/>
-      <c r="AH36" s="259"/>
-      <c r="AI36" s="259"/>
-      <c r="AJ36" s="259"/>
-      <c r="AK36" s="259"/>
-      <c r="AL36" s="259"/>
-      <c r="AM36" s="259"/>
-      <c r="AN36" s="259"/>
-      <c r="AO36" s="259"/>
-      <c r="AP36" s="259"/>
-      <c r="AQ36" s="259"/>
-      <c r="AR36" s="259"/>
+      <c r="B36" s="243"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="243"/>
+      <c r="I36" s="243"/>
+      <c r="J36" s="243"/>
+      <c r="K36" s="243"/>
+      <c r="L36" s="243"/>
+      <c r="M36" s="243"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="243"/>
+      <c r="Q36" s="243"/>
+      <c r="R36" s="243"/>
+      <c r="S36" s="243"/>
+      <c r="T36" s="243"/>
+      <c r="U36" s="243"/>
+      <c r="V36" s="243"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="241"/>
+      <c r="Y36" s="241"/>
+      <c r="Z36" s="241"/>
+      <c r="AA36" s="241"/>
+      <c r="AB36" s="241"/>
+      <c r="AC36" s="241"/>
+      <c r="AD36" s="241"/>
+      <c r="AE36" s="115"/>
+      <c r="AF36" s="185"/>
+      <c r="AG36" s="119"/>
+      <c r="AH36" s="119"/>
+      <c r="AI36" s="119"/>
+      <c r="AJ36" s="119"/>
+      <c r="AK36" s="119"/>
+      <c r="AL36" s="119"/>
+      <c r="AM36" s="119"/>
+      <c r="AN36" s="119"/>
+      <c r="AO36" s="119"/>
+      <c r="AP36" s="119"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="119"/>
       <c r="AS36" s="181"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="115"/>
-      <c r="B37" s="250"/>
-      <c r="C37" s="250"/>
-      <c r="D37" s="250"/>
-      <c r="E37" s="250"/>
-      <c r="F37" s="250"/>
-      <c r="G37" s="250"/>
-      <c r="H37" s="250"/>
-      <c r="I37" s="250"/>
-      <c r="J37" s="250"/>
-      <c r="K37" s="250"/>
-      <c r="L37" s="250"/>
-      <c r="M37" s="250"/>
-      <c r="N37" s="253"/>
-      <c r="O37" s="254"/>
-      <c r="P37" s="248"/>
-      <c r="Q37" s="248"/>
-      <c r="R37" s="248"/>
-      <c r="S37" s="248"/>
-      <c r="T37" s="248"/>
-      <c r="U37" s="248"/>
-      <c r="V37" s="248"/>
-      <c r="W37" s="255"/>
-      <c r="X37" s="248"/>
-      <c r="Y37" s="248"/>
-      <c r="Z37" s="248"/>
-      <c r="AA37" s="248"/>
-      <c r="AB37" s="248"/>
-      <c r="AC37" s="248"/>
-      <c r="AD37" s="250"/>
-      <c r="AE37" s="256"/>
-      <c r="AF37" s="257"/>
-      <c r="AG37" s="250"/>
-      <c r="AH37" s="260"/>
-      <c r="AI37" s="250"/>
-      <c r="AJ37" s="261"/>
-      <c r="AK37" s="250"/>
-      <c r="AL37" s="261"/>
-      <c r="AM37" s="250"/>
-      <c r="AN37" s="261"/>
-      <c r="AO37" s="250"/>
-      <c r="AP37" s="261"/>
-      <c r="AQ37" s="250"/>
-      <c r="AR37" s="261"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="243"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="241"/>
+      <c r="Q37" s="241"/>
+      <c r="R37" s="241"/>
+      <c r="S37" s="241"/>
+      <c r="T37" s="241"/>
+      <c r="U37" s="241"/>
+      <c r="V37" s="241"/>
+      <c r="W37" s="166"/>
+      <c r="X37" s="241"/>
+      <c r="Y37" s="241"/>
+      <c r="Z37" s="241"/>
+      <c r="AA37" s="241"/>
+      <c r="AB37" s="241"/>
+      <c r="AC37" s="241"/>
+      <c r="AD37" s="243"/>
+      <c r="AE37" s="115"/>
+      <c r="AF37" s="185"/>
+      <c r="AG37" s="243"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="243"/>
+      <c r="AJ37" s="187"/>
+      <c r="AK37" s="243"/>
+      <c r="AL37" s="187"/>
+      <c r="AM37" s="243"/>
+      <c r="AN37" s="187"/>
+      <c r="AO37" s="243"/>
+      <c r="AP37" s="187"/>
+      <c r="AQ37" s="243"/>
+      <c r="AR37" s="187"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
@@ -7600,7 +7533,7 @@
       <c r="AP38" s="115"/>
       <c r="AQ38" s="115"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
@@ -7645,7 +7578,7 @@
       <c r="AP39" s="115"/>
       <c r="AQ39" s="115"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="115"/>
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
@@ -7690,7 +7623,7 @@
       <c r="AP40" s="115"/>
       <c r="AQ40" s="115"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="115"/>
       <c r="B41" s="115"/>
       <c r="C41" s="115"/>
@@ -7735,7 +7668,7 @@
       <c r="AP41" s="115"/>
       <c r="AQ41" s="115"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="115"/>
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
@@ -7780,7 +7713,7 @@
       <c r="AP42" s="115"/>
       <c r="AQ42" s="115"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
@@ -7825,7 +7758,7 @@
       <c r="AP43" s="115"/>
       <c r="AQ43" s="115"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="115"/>
       <c r="B44" s="115"/>
       <c r="C44" s="115"/>
@@ -7870,7 +7803,7 @@
       <c r="AP44" s="115"/>
       <c r="AQ44" s="115"/>
     </row>
-    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
       <c r="E45" s="170"/>
@@ -7910,7 +7843,7 @@
       <c r="AP45" s="115"/>
       <c r="AQ45" s="115"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I46" s="170"/>
       <c r="J46" s="170"/>
       <c r="K46" s="170"/>
@@ -7944,7 +7877,7 @@
       <c r="AP46" s="115"/>
       <c r="AQ46" s="115"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D47" s="170"/>
       <c r="E47" s="170"/>
       <c r="F47" s="170"/>
@@ -7980,11 +7913,11 @@
       <c r="AP47" s="115"/>
       <c r="AQ47" s="115"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="221" t="s">
         <v>758</v>
       </c>
-      <c r="B48" s="227"/>
+      <c r="B48" s="223"/>
       <c r="C48" s="222"/>
       <c r="D48" s="222"/>
       <c r="E48" s="222"/>
@@ -7996,7 +7929,7 @@
       <c r="K48" s="176"/>
       <c r="L48" s="176"/>
       <c r="M48" s="176"/>
-      <c r="N48" s="229" t="s">
+      <c r="N48" s="225" t="s">
         <v>758</v>
       </c>
       <c r="O48" s="203">
@@ -8005,17 +7938,17 @@
       <c r="P48" s="213" t="s">
         <v>765</v>
       </c>
-      <c r="Q48" s="230"/>
-      <c r="R48" s="231"/>
-      <c r="S48" s="232"/>
-      <c r="T48" s="232"/>
-      <c r="U48" s="232"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="227"/>
+      <c r="S48" s="228"/>
+      <c r="T48" s="228"/>
+      <c r="U48" s="228"/>
       <c r="V48" s="143"/>
       <c r="W48" s="143"/>
       <c r="X48" s="143"/>
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
-      <c r="AA48" s="228" t="s">
+      <c r="AA48" s="224" t="s">
         <v>758</v>
       </c>
       <c r="AB48" s="214">
@@ -8024,10 +7957,10 @@
       <c r="AC48" s="213" t="s">
         <v>769</v>
       </c>
-      <c r="AD48" s="232"/>
-      <c r="AE48" s="232"/>
-      <c r="AF48" s="232"/>
-      <c r="AG48" s="232"/>
+      <c r="AD48" s="228"/>
+      <c r="AE48" s="228"/>
+      <c r="AF48" s="228"/>
+      <c r="AG48" s="228"/>
       <c r="AH48" s="212"/>
       <c r="AI48" s="212"/>
       <c r="AJ48" s="115"/>
@@ -8039,21 +7972,21 @@
       <c r="AP48" s="115"/>
       <c r="AQ48" s="115"/>
     </row>
-    <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="218" t="s">
         <v>759</v>
       </c>
       <c r="B49" s="202">
         <v>120</v>
       </c>
-      <c r="C49" s="225" t="s">
+      <c r="C49" s="170" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="226"/>
-      <c r="E49" s="226"/>
-      <c r="F49" s="226"/>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
       <c r="I49" s="176"/>
       <c r="J49" s="176"/>
       <c r="K49" s="176"/>
@@ -8062,7 +7995,7 @@
       <c r="N49" s="217" t="s">
         <v>759</v>
       </c>
-      <c r="O49" s="280">
+      <c r="O49" s="254">
         <v>1</v>
       </c>
       <c r="P49" s="209" t="s">
@@ -8102,11 +8035,11 @@
       <c r="AP49" s="115"/>
       <c r="AQ49" s="115"/>
     </row>
-    <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A50" s="220" t="s">
         <v>756</v>
       </c>
-      <c r="B50" s="227"/>
+      <c r="B50" s="223"/>
       <c r="C50" s="199"/>
       <c r="D50" s="200"/>
       <c r="E50" s="200"/>
@@ -8137,10 +8070,10 @@
       <c r="X50" s="143"/>
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
-      <c r="AA50" s="233" t="s">
+      <c r="AA50" s="229" t="s">
         <v>763</v>
       </c>
-      <c r="AB50" s="242">
+      <c r="AB50" s="236">
         <v>9</v>
       </c>
       <c r="AC50" s="210" t="s">
@@ -8161,7 +8094,7 @@
       <c r="AP50" s="115"/>
       <c r="AQ50" s="115"/>
     </row>
-    <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D51" s="170"/>
       <c r="E51" s="170"/>
       <c r="F51" s="171"/>
@@ -8172,13 +8105,13 @@
       <c r="K51" s="170"/>
       <c r="L51" s="170"/>
       <c r="M51" s="170"/>
-      <c r="N51" s="223" t="s">
+      <c r="N51" s="217" t="s">
         <v>756</v>
       </c>
       <c r="O51" s="204">
         <v>10</v>
       </c>
-      <c r="P51" s="224" t="s">
+      <c r="P51" s="209" t="s">
         <v>768</v>
       </c>
       <c r="Q51" s="143"/>
@@ -8206,7 +8139,7 @@
       <c r="AP51" s="115"/>
       <c r="AQ51" s="115"/>
     </row>
-    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="209"/>
       <c r="E52" s="170"/>
       <c r="F52" s="170"/>
@@ -8218,7 +8151,7 @@
       <c r="L52" s="170"/>
       <c r="M52" s="170"/>
       <c r="N52" s="201"/>
-      <c r="O52" s="277">
+      <c r="O52" s="251">
         <v>500</v>
       </c>
       <c r="P52" s="210" t="s">
@@ -8252,7 +8185,7 @@
       <c r="AP52" s="115"/>
       <c r="AQ52" s="115"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D53" s="170"/>
       <c r="E53" s="170"/>
       <c r="F53" s="170"/>
@@ -8294,7 +8227,7 @@
       <c r="AP53" s="115"/>
       <c r="AQ53" s="115"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="209"/>
       <c r="B54" s="209"/>
       <c r="C54" s="209"/>
@@ -8339,7 +8272,7 @@
       <c r="AP54" s="115"/>
       <c r="AQ54" s="115"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B55" s="193"/>
       <c r="C55" s="170"/>
       <c r="D55" s="170"/>
@@ -8385,103 +8318,103 @@
       <c r="AP55" s="115"/>
       <c r="AQ55" s="115"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A56" s="273">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A56" s="262">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="273"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="273"/>
-      <c r="F56" s="273"/>
-      <c r="G56" s="273"/>
-      <c r="H56" s="273"/>
-      <c r="I56" s="273"/>
-      <c r="J56" s="273"/>
-      <c r="K56" s="273"/>
-      <c r="L56" s="273"/>
-      <c r="M56" s="273"/>
-      <c r="N56" s="273"/>
-      <c r="O56" s="274"/>
-      <c r="P56" s="273"/>
-      <c r="Q56" s="273"/>
-      <c r="R56" s="273"/>
-      <c r="S56" s="273"/>
-      <c r="T56" s="273"/>
-      <c r="U56" s="273"/>
-      <c r="V56" s="273"/>
-      <c r="W56" s="273"/>
-      <c r="X56" s="273"/>
-      <c r="Y56" s="273"/>
-      <c r="Z56" s="273"/>
-      <c r="AA56" s="273"/>
-      <c r="AB56" s="274"/>
-      <c r="AC56" s="273"/>
-      <c r="AD56" s="273"/>
-      <c r="AE56" s="273"/>
-      <c r="AF56" s="273"/>
-      <c r="AG56" s="273"/>
-      <c r="AH56" s="273"/>
-      <c r="AI56" s="273"/>
-      <c r="AJ56" s="273"/>
-      <c r="AK56" s="273"/>
+      <c r="B56" s="262"/>
+      <c r="C56" s="262"/>
+      <c r="D56" s="262"/>
+      <c r="E56" s="262"/>
+      <c r="F56" s="262"/>
+      <c r="G56" s="262"/>
+      <c r="H56" s="262"/>
+      <c r="I56" s="262"/>
+      <c r="J56" s="262"/>
+      <c r="K56" s="262"/>
+      <c r="L56" s="262"/>
+      <c r="M56" s="262"/>
+      <c r="N56" s="262"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="262"/>
+      <c r="Q56" s="262"/>
+      <c r="R56" s="262"/>
+      <c r="S56" s="262"/>
+      <c r="T56" s="262"/>
+      <c r="U56" s="262"/>
+      <c r="V56" s="262"/>
+      <c r="W56" s="262"/>
+      <c r="X56" s="262"/>
+      <c r="Y56" s="262"/>
+      <c r="Z56" s="262"/>
+      <c r="AA56" s="262"/>
+      <c r="AB56" s="263"/>
+      <c r="AC56" s="262"/>
+      <c r="AD56" s="262"/>
+      <c r="AE56" s="262"/>
+      <c r="AF56" s="262"/>
+      <c r="AG56" s="262"/>
+      <c r="AH56" s="262"/>
+      <c r="AI56" s="262"/>
+      <c r="AJ56" s="262"/>
+      <c r="AK56" s="262"/>
     </row>
-    <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H58" s="272"/>
-      <c r="I58" s="272"/>
+    <row r="58" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H58" s="261"/>
+      <c r="I58" s="261"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="65" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="13:36" x14ac:dyDescent="0.25">
       <c r="AI65" s="113"/>
       <c r="AJ65" s="131"/>
     </row>
-    <row r="66" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="13:36" x14ac:dyDescent="0.25">
       <c r="AI66" s="113"/>
       <c r="AJ66" s="131"/>
     </row>
-    <row r="67" spans="13:36" x14ac:dyDescent="0.2">
-      <c r="AI67" s="266"/>
-      <c r="AJ67" s="266"/>
+    <row r="67" spans="13:36" x14ac:dyDescent="0.25">
+      <c r="AI67" s="255"/>
+      <c r="AJ67" s="255"/>
     </row>
-    <row r="68" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="13:36" x14ac:dyDescent="0.25">
       <c r="AI68" s="113"/>
       <c r="AJ68" s="131"/>
     </row>
-    <row r="69" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="13:36" x14ac:dyDescent="0.25">
       <c r="AI69" s="113"/>
       <c r="AJ69" s="131"/>
     </row>
-    <row r="70" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AI70" s="113"/>
       <c r="AJ70" s="114"/>
     </row>
-    <row r="71" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AI71" s="113"/>
       <c r="AJ71" s="114"/>
     </row>
-    <row r="72" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AI72" s="113"/>
       <c r="AJ72" s="114"/>
     </row>
-    <row r="73" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AI73" s="113"/>
       <c r="AJ73" s="114"/>
     </row>
-    <row r="74" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AI74" s="113"/>
       <c r="AJ74" s="114"/>
     </row>
-    <row r="80" spans="13:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="13:36" x14ac:dyDescent="0.25">
       <c r="M80" s="138"/>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M81" s="138"/>
     </row>
   </sheetData>
@@ -8511,16 +8444,16 @@
       <selection activeCell="Z231" sqref="Z231:AD231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" customWidth="1"/>
-    <col min="2" max="24" width="2.77734375" customWidth="1"/>
-    <col min="25" max="25" width="3.77734375" customWidth="1"/>
-    <col min="26" max="48" width="2.77734375" customWidth="1"/>
-    <col min="49" max="49" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="24" width="2.81640625" customWidth="1"/>
+    <col min="25" max="25" width="3.81640625" customWidth="1"/>
+    <col min="26" max="48" width="2.81640625" customWidth="1"/>
+    <col min="49" max="49" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8563,14 +8496,14 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="3"/>
     </row>
-    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E2" s="4"/>
       <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AS2" s="6"/>
     </row>
-    <row r="3" spans="1:50" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="W3" s="8" t="s">
@@ -8579,7 +8512,7 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="6"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="10"/>
@@ -8622,11 +8555,11 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="11"/>
     </row>
-    <row r="5" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F5" s="7"/>
       <c r="AR5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
@@ -8634,7 +8567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -8769,7 +8702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
@@ -8779,7 +8712,7 @@
       <c r="T8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
@@ -9065,7 +8998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
@@ -9209,7 +9142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>80</v>
       </c>
@@ -9351,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
@@ -9489,7 +9422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -9631,7 +9564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>146</v>
       </c>
@@ -9771,7 +9704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>8</v>
       </c>
@@ -9909,7 +9842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -10051,7 +9984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>211</v>
       </c>
@@ -10191,7 +10124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>11</v>
       </c>
@@ -10327,7 +10260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>255</v>
       </c>
@@ -10467,7 +10400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>277</v>
       </c>
@@ -10609,7 +10542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>14</v>
       </c>
@@ -10747,7 +10680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>322</v>
       </c>
@@ -10891,7 +10824,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
@@ -11011,7 +10944,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="30"/>
@@ -11060,7 +10993,7 @@
       <c r="AU25" s="13"/>
       <c r="AV25" s="13"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D26" s="17" t="s">
         <v>365</v>
       </c>
@@ -11086,7 +11019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
@@ -11112,7 +11045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D28" s="17" t="s">
         <v>370</v>
       </c>
@@ -11139,7 +11072,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
@@ -11153,7 +11086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D30" s="17" t="s">
         <v>374</v>
       </c>
@@ -11179,7 +11112,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D31" s="17" t="s">
         <v>376</v>
       </c>
@@ -11205,7 +11138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D32" s="17" t="s">
         <v>378</v>
       </c>
@@ -11231,7 +11164,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D33" s="17" t="s">
         <v>380</v>
       </c>
@@ -11257,7 +11190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D34" s="17" t="s">
         <v>382</v>
       </c>
@@ -11281,7 +11214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D35" s="17" t="s">
         <v>383</v>
       </c>
@@ -11295,7 +11228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D36" s="17" t="s">
         <v>384</v>
       </c>
@@ -11319,7 +11252,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D37" s="17" t="s">
         <v>386</v>
       </c>
@@ -11333,7 +11266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D38" s="17" t="s">
         <v>387</v>
       </c>
@@ -11347,7 +11280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D39" s="17" t="s">
         <v>388</v>
       </c>
@@ -11361,7 +11294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>371</v>
       </c>
@@ -11376,8 +11309,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:49" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -11430,7 +11363,7 @@
       <c r="AV42" s="33"/>
       <c r="AW42" s="33"/>
     </row>
-    <row r="43" spans="1:49" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -11483,7 +11416,7 @@
       <c r="AV43" s="33"/>
       <c r="AW43" s="33"/>
     </row>
-    <row r="44" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -11534,7 +11467,7 @@
       <c r="AV44" s="33"/>
       <c r="AW44" s="33"/>
     </row>
-    <row r="45" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -11589,7 +11522,7 @@
       <c r="AV45" s="33"/>
       <c r="AW45" s="33"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="47" t="s">
@@ -11724,7 +11657,7 @@
       <c r="AV46" s="33"/>
       <c r="AW46" s="33"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>391</v>
       </c>
@@ -11859,7 +11792,7 @@
       <c r="AV47" s="47"/>
       <c r="AW47" s="33"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
       <c r="B48" s="33"/>
       <c r="C48" s="51"/>
@@ -11990,7 +11923,7 @@
       <c r="AV48" s="47"/>
       <c r="AW48" s="33"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -12041,7 +11974,7 @@
       <c r="AV49" s="33"/>
       <c r="AW49" s="33"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" s="53" t="s">
         <v>393</v>
       </c>
@@ -12186,7 +12119,7 @@
       </c>
       <c r="AW50" s="57"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" s="53" t="s">
         <v>394</v>
       </c>
@@ -12331,7 +12264,7 @@
       </c>
       <c r="AW51" s="59"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>395</v>
       </c>
@@ -12476,7 +12409,7 @@
       </c>
       <c r="AW52" s="33"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>396</v>
       </c>
@@ -12621,7 +12554,7 @@
       </c>
       <c r="AW53" s="57"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>397</v>
       </c>
@@ -12766,7 +12699,7 @@
       </c>
       <c r="AW54" s="47"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>398</v>
       </c>
@@ -12911,7 +12844,7 @@
       </c>
       <c r="AW55" s="57"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
         <v>399</v>
       </c>
@@ -13056,7 +12989,7 @@
       </c>
       <c r="AW56" s="57"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
         <v>400</v>
       </c>
@@ -13201,7 +13134,7 @@
       </c>
       <c r="AW57" s="33"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="53">
         <v>9</v>
       </c>
@@ -13346,7 +13279,7 @@
       </c>
       <c r="AW58" s="57"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="s">
         <v>401</v>
       </c>
@@ -13491,7 +13424,7 @@
       </c>
       <c r="AW59" s="33"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="53">
         <v>11</v>
       </c>
@@ -13636,7 +13569,7 @@
       </c>
       <c r="AW60" s="33"/>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="53">
         <v>12</v>
       </c>
@@ -13781,7 +13714,7 @@
       </c>
       <c r="AW61" s="57"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>402</v>
       </c>
@@ -13926,7 +13859,7 @@
       </c>
       <c r="AW62" s="33"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" s="53">
         <v>14</v>
       </c>
@@ -14071,7 +14004,7 @@
       </c>
       <c r="AW63" s="33"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>403</v>
       </c>
@@ -14216,7 +14149,7 @@
       </c>
       <c r="AW64" s="57"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>414</v>
       </c>
@@ -14365,7 +14298,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
@@ -14420,7 +14353,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="59" t="s">
         <v>438</v>
       </c>
@@ -14501,7 +14434,7 @@
       <c r="AV67" s="52"/>
       <c r="AW67" s="33"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="59" t="s">
         <v>444</v>
       </c>
@@ -14588,7 +14521,7 @@
       <c r="AV68" s="52"/>
       <c r="AW68" s="33"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="59" t="s">
         <v>451</v>
       </c>
@@ -14679,7 +14612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="59" t="s">
         <v>458</v>
       </c>
@@ -14776,7 +14709,7 @@
       <c r="AV70" s="52"/>
       <c r="AW70" s="33"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="59" t="s">
         <v>468</v>
       </c>
@@ -14868,7 +14801,7 @@
       <c r="AV71" s="52"/>
       <c r="AW71" s="33"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="59" t="s">
         <v>476</v>
       </c>
@@ -14963,7 +14896,7 @@
       <c r="AV72" s="52"/>
       <c r="AW72" s="33"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="59" t="s">
         <v>484</v>
       </c>
@@ -15058,7 +14991,7 @@
       <c r="AV73" s="52"/>
       <c r="AW73" s="33"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="59" t="s">
         <v>493</v>
       </c>
@@ -15153,7 +15086,7 @@
       <c r="AV74" s="52"/>
       <c r="AW74" s="33"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="59" t="s">
         <v>502</v>
       </c>
@@ -15248,7 +15181,7 @@
       <c r="AV75" s="52"/>
       <c r="AW75" s="33"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="59" t="s">
         <v>511</v>
       </c>
@@ -15340,7 +15273,7 @@
       <c r="AV76" s="52"/>
       <c r="AW76" s="33"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="59" t="s">
         <v>519</v>
       </c>
@@ -15434,7 +15367,7 @@
       <c r="AV77" s="52"/>
       <c r="AW77" s="33"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="59" t="s">
         <v>528</v>
       </c>
@@ -15523,7 +15456,7 @@
       <c r="AV78" s="52"/>
       <c r="AW78" s="33"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="s">
         <v>536</v>
       </c>
@@ -15614,7 +15547,7 @@
       <c r="AV79" s="52"/>
       <c r="AW79" s="33"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" s="52"/>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
@@ -15700,7 +15633,7 @@
       <c r="AV80" s="52"/>
       <c r="AW80" s="33"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A81" s="33"/>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -15787,7 +15720,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -15842,7 +15775,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -15895,7 +15828,7 @@
       <c r="AV83" s="33"/>
       <c r="AW83" s="33"/>
     </row>
-    <row r="84" spans="1:50" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -15948,7 +15881,7 @@
       <c r="AV84" s="33"/>
       <c r="AW84" s="33"/>
     </row>
-    <row r="85" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -15999,7 +15932,7 @@
       <c r="AV85" s="33"/>
       <c r="AW85" s="33"/>
     </row>
-    <row r="86" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -16054,7 +15987,7 @@
       <c r="AV86" s="33"/>
       <c r="AW86" s="33"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="47" t="s">
@@ -16189,7 +16122,7 @@
       <c r="AV87" s="33"/>
       <c r="AW87" s="33"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>391</v>
       </c>
@@ -16324,7 +16257,7 @@
       <c r="AV88" s="47"/>
       <c r="AW88" s="33"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A89" s="47"/>
       <c r="B89" s="33"/>
       <c r="C89" s="51"/>
@@ -16455,7 +16388,7 @@
       <c r="AV89" s="47"/>
       <c r="AW89" s="33"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -16512,7 +16445,7 @@
       <c r="AV90" s="33"/>
       <c r="AW90" s="33"/>
     </row>
-    <row r="91" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="64" t="s">
         <v>561</v>
       </c>
@@ -16660,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="64" t="s">
         <v>563</v>
       </c>
@@ -16806,7 +16739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="64" t="s">
         <v>565</v>
       </c>
@@ -16958,7 +16891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
         <v>396</v>
       </c>
@@ -17106,7 +17039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="53" t="s">
         <v>567</v>
       </c>
@@ -17256,7 +17189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="64" t="s">
         <v>398</v>
       </c>
@@ -17402,7 +17335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="64" t="s">
         <v>570</v>
       </c>
@@ -17546,7 +17479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
         <v>400</v>
       </c>
@@ -17694,7 +17627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A99" s="75" t="s">
         <v>571</v>
       </c>
@@ -17844,7 +17777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="53" t="s">
         <v>401</v>
       </c>
@@ -17992,7 +17925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="64">
         <v>11</v>
       </c>
@@ -18140,7 +18073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="53">
         <v>12</v>
       </c>
@@ -18290,7 +18223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="75" t="s">
         <v>573</v>
       </c>
@@ -18438,7 +18371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="64">
         <v>14</v>
       </c>
@@ -18586,7 +18519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="75" t="s">
         <v>574</v>
       </c>
@@ -18736,7 +18669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="64" t="s">
         <v>414</v>
       </c>
@@ -18886,7 +18819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="33"/>
       <c r="B107" s="52"/>
       <c r="C107" s="52"/>
@@ -18941,7 +18874,7 @@
       <c r="AV107" s="52"/>
       <c r="AW107" s="33"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A108" s="59" t="s">
         <v>438</v>
       </c>
@@ -19022,7 +18955,7 @@
       <c r="AV108" s="52"/>
       <c r="AW108" s="33"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A109" s="59" t="s">
         <v>444</v>
       </c>
@@ -19113,7 +19046,7 @@
       <c r="AV109" s="52"/>
       <c r="AW109" s="33"/>
     </row>
-    <row r="110" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="59" t="s">
         <v>451</v>
       </c>
@@ -19200,7 +19133,7 @@
       <c r="AV110" s="52"/>
       <c r="AW110" s="33"/>
     </row>
-    <row r="111" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="s">
         <v>458</v>
       </c>
@@ -19297,7 +19230,7 @@
       <c r="AV111" s="52"/>
       <c r="AW111" s="33"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A112" s="59" t="s">
         <v>468</v>
       </c>
@@ -19391,7 +19324,7 @@
       <c r="AV112" s="52"/>
       <c r="AW112" s="33"/>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A113" s="59" t="s">
         <v>476</v>
       </c>
@@ -19488,7 +19421,7 @@
       <c r="AV113" s="52"/>
       <c r="AW113" s="33"/>
     </row>
-    <row r="114" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="59" t="s">
         <v>484</v>
       </c>
@@ -19583,7 +19516,7 @@
       <c r="AV114" s="52"/>
       <c r="AW114" s="33"/>
     </row>
-    <row r="115" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="59" t="s">
         <v>493</v>
       </c>
@@ -19672,7 +19605,7 @@
       <c r="AV115" s="52"/>
       <c r="AW115" s="33"/>
     </row>
-    <row r="116" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A116" s="59" t="s">
         <v>502</v>
       </c>
@@ -19767,7 +19700,7 @@
       <c r="AV116" s="52"/>
       <c r="AW116" s="33"/>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A117" s="59" t="s">
         <v>511</v>
       </c>
@@ -19859,7 +19792,7 @@
       <c r="AV117" s="52"/>
       <c r="AW117" s="33"/>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A118" s="59" t="s">
         <v>519</v>
       </c>
@@ -19957,7 +19890,7 @@
       <c r="AV118" s="52"/>
       <c r="AW118" s="33"/>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A119" s="59" t="s">
         <v>528</v>
       </c>
@@ -20046,7 +19979,7 @@
       <c r="AV119" s="52"/>
       <c r="AW119" s="33"/>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A120" s="62" t="s">
         <v>536</v>
       </c>
@@ -20137,7 +20070,7 @@
       <c r="AV120" s="52"/>
       <c r="AW120" s="33"/>
     </row>
-    <row r="121" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="52"/>
       <c r="B121" s="52"/>
       <c r="C121" s="52"/>
@@ -20219,7 +20152,7 @@
       <c r="AV121" s="52"/>
       <c r="AW121" s="33"/>
     </row>
-    <row r="122" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33"/>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
@@ -20302,7 +20235,7 @@
       <c r="AV122" s="52"/>
       <c r="AW122" s="33"/>
     </row>
-    <row r="123" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33"/>
       <c r="B123" s="52"/>
       <c r="C123" s="52"/>
@@ -20353,7 +20286,7 @@
       <c r="AV123" s="52"/>
       <c r="AW123" s="33"/>
     </row>
-    <row r="124" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:49" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -20406,7 +20339,7 @@
       <c r="AV124" s="33"/>
       <c r="AW124" s="33"/>
     </row>
-    <row r="125" spans="1:49" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -20459,7 +20392,7 @@
       <c r="AV125" s="33"/>
       <c r="AW125" s="33"/>
     </row>
-    <row r="126" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -20514,7 +20447,7 @@
       <c r="AV126" s="33"/>
       <c r="AW126" s="33"/>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="47" t="s">
@@ -20649,7 +20582,7 @@
       <c r="AV127" s="33"/>
       <c r="AW127" s="33"/>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>391</v>
       </c>
@@ -20784,7 +20717,7 @@
       <c r="AV128" s="47"/>
       <c r="AW128" s="33"/>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A129" s="47"/>
       <c r="B129" s="33"/>
       <c r="C129" s="51"/>
@@ -20915,7 +20848,7 @@
       <c r="AV129" s="47"/>
       <c r="AW129" s="33"/>
     </row>
-    <row r="130" spans="1:49" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:49" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -20966,7 +20899,7 @@
       <c r="AV130" s="33"/>
       <c r="AW130" s="33"/>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A131" s="53" t="s">
         <v>393</v>
       </c>
@@ -21111,7 +21044,7 @@
       </c>
       <c r="AW131" s="57"/>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A132" s="53" t="s">
         <v>394</v>
       </c>
@@ -21256,7 +21189,7 @@
       </c>
       <c r="AW132" s="59"/>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A133" s="53" t="s">
         <v>395</v>
       </c>
@@ -21401,7 +21334,7 @@
       </c>
       <c r="AW133" s="33"/>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A134" s="53" t="s">
         <v>396</v>
       </c>
@@ -21546,7 +21479,7 @@
       </c>
       <c r="AW134" s="57"/>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A135" s="53" t="s">
         <v>397</v>
       </c>
@@ -21691,7 +21624,7 @@
       </c>
       <c r="AW135" s="47"/>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A136" s="53" t="s">
         <v>398</v>
       </c>
@@ -21836,7 +21769,7 @@
       </c>
       <c r="AW136" s="57"/>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A137" s="53" t="s">
         <v>399</v>
       </c>
@@ -21981,7 +21914,7 @@
       </c>
       <c r="AW137" s="57"/>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>400</v>
       </c>
@@ -22126,7 +22059,7 @@
       </c>
       <c r="AW138" s="33"/>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A139" s="53">
         <v>9</v>
       </c>
@@ -22271,7 +22204,7 @@
       </c>
       <c r="AW139" s="57"/>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A140" s="53" t="s">
         <v>401</v>
       </c>
@@ -22416,7 +22349,7 @@
       </c>
       <c r="AW140" s="33"/>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A141" s="53">
         <v>11</v>
       </c>
@@ -22561,7 +22494,7 @@
       </c>
       <c r="AW141" s="33"/>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A142" s="53">
         <v>12</v>
       </c>
@@ -22706,7 +22639,7 @@
       </c>
       <c r="AW142" s="57"/>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A143" s="53" t="s">
         <v>402</v>
       </c>
@@ -22851,7 +22784,7 @@
       </c>
       <c r="AW143" s="33"/>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A144" s="53">
         <v>14</v>
       </c>
@@ -22996,7 +22929,7 @@
       </c>
       <c r="AW144" s="33"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A145" s="53" t="s">
         <v>403</v>
       </c>
@@ -23141,7 +23074,7 @@
       </c>
       <c r="AW145" s="57"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A146" s="53" t="s">
         <v>414</v>
       </c>
@@ -23290,7 +23223,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="147" spans="1:50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:50" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="33"/>
       <c r="B147" s="52"/>
       <c r="C147" s="52"/>
@@ -23345,7 +23278,7 @@
       <c r="AV147" s="52"/>
       <c r="AW147" s="33"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A148" s="59"/>
       <c r="B148" s="52"/>
       <c r="C148" s="52"/>
@@ -23420,7 +23353,7 @@
       <c r="AV148" s="52"/>
       <c r="AW148" s="33"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A149" s="59"/>
       <c r="B149" s="52"/>
       <c r="C149" s="52"/>
@@ -23495,7 +23428,7 @@
       <c r="AV149" s="52"/>
       <c r="AW149" s="33"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A150" s="59"/>
       <c r="B150" s="52"/>
       <c r="C150" s="52"/>
@@ -23574,7 +23507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A151" s="59"/>
       <c r="B151" s="52"/>
       <c r="C151" s="52"/>
@@ -23657,7 +23590,7 @@
       <c r="AV151" s="52"/>
       <c r="AW151" s="33"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A152" s="59"/>
       <c r="B152" s="52"/>
       <c r="C152" s="52"/>
@@ -23740,7 +23673,7 @@
       <c r="AV152" s="52"/>
       <c r="AW152" s="33"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A153" s="59"/>
       <c r="B153" s="52"/>
       <c r="C153" s="52"/>
@@ -23823,7 +23756,7 @@
       <c r="AV153" s="52"/>
       <c r="AW153" s="33"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A154" s="59"/>
       <c r="B154" s="52"/>
       <c r="C154" s="52"/>
@@ -23906,7 +23839,7 @@
       <c r="AV154" s="52"/>
       <c r="AW154" s="33"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A155" s="59"/>
       <c r="B155" s="52"/>
       <c r="C155" s="52"/>
@@ -23989,7 +23922,7 @@
       <c r="AV155" s="52"/>
       <c r="AW155" s="33"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A156" s="59"/>
       <c r="B156" s="52"/>
       <c r="C156" s="52"/>
@@ -24072,7 +24005,7 @@
       <c r="AV156" s="52"/>
       <c r="AW156" s="33"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A157" s="59"/>
       <c r="B157" s="52"/>
       <c r="C157" s="52"/>
@@ -24155,7 +24088,7 @@
       <c r="AV157" s="52"/>
       <c r="AW157" s="33"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A158" s="59"/>
       <c r="B158" s="52"/>
       <c r="C158" s="52"/>
@@ -24238,7 +24171,7 @@
       <c r="AV158" s="52"/>
       <c r="AW158" s="33"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A159" s="59"/>
       <c r="B159" s="52"/>
       <c r="C159" s="52"/>
@@ -24321,7 +24254,7 @@
       <c r="AV159" s="52"/>
       <c r="AW159" s="33"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A160" s="59"/>
       <c r="B160" s="52"/>
       <c r="C160" s="52"/>
@@ -24404,7 +24337,7 @@
       <c r="AV160" s="52"/>
       <c r="AW160" s="33"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A161" s="52"/>
       <c r="B161" s="52"/>
       <c r="C161" s="52"/>
@@ -24487,7 +24420,7 @@
       <c r="AV161" s="52"/>
       <c r="AW161" s="33"/>
     </row>
-    <row r="162" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="33"/>
       <c r="B162" s="52"/>
       <c r="C162" s="52"/>
@@ -24579,7 +24512,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="33"/>
       <c r="B163" s="52"/>
       <c r="C163" s="52"/>
@@ -24662,7 +24595,7 @@
       <c r="AV163" s="52"/>
       <c r="AW163" s="5"/>
     </row>
-    <row r="164" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="33"/>
       <c r="B164" s="52"/>
       <c r="C164" s="52"/>
@@ -24750,7 +24683,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="165" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="33"/>
       <c r="B165" s="52"/>
       <c r="C165" s="52"/>
@@ -24801,7 +24734,7 @@
       <c r="AV165" s="52"/>
       <c r="AW165" s="33"/>
     </row>
-    <row r="166" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -24854,7 +24787,7 @@
       <c r="AV166" s="33"/>
       <c r="AW166" s="33"/>
     </row>
-    <row r="167" spans="1:50" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -24907,7 +24840,7 @@
       <c r="AV167" s="33"/>
       <c r="AW167" s="33"/>
     </row>
-    <row r="168" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -24958,7 +24891,7 @@
       <c r="AV168" s="33"/>
       <c r="AW168" s="33"/>
     </row>
-    <row r="169" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -25013,7 +24946,7 @@
       <c r="AV169" s="33"/>
       <c r="AW169" s="33"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A170" s="47" t="s">
         <v>4</v>
       </c>
@@ -25160,7 +25093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A171" s="47" t="s">
         <v>392</v>
       </c>
@@ -25307,7 +25240,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -25362,7 +25295,7 @@
       <c r="AV172" s="33"/>
       <c r="AW172" s="33"/>
     </row>
-    <row r="173" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="64" t="s">
         <v>581</v>
       </c>
@@ -25509,7 +25442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="64" t="s">
         <v>583</v>
       </c>
@@ -25652,7 +25585,7 @@
       </c>
       <c r="AW174" s="59"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A175" s="53" t="s">
         <v>395</v>
       </c>
@@ -25797,7 +25730,7 @@
       </c>
       <c r="AW175" s="33"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A176" s="53" t="s">
         <v>396</v>
       </c>
@@ -25942,7 +25875,7 @@
       </c>
       <c r="AW176" s="57"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A177" s="53" t="s">
         <v>586</v>
       </c>
@@ -26089,7 +26022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A178" s="53" t="s">
         <v>398</v>
       </c>
@@ -26234,7 +26167,7 @@
       </c>
       <c r="AW178" s="57"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A179" s="53" t="s">
         <v>399</v>
       </c>
@@ -26379,7 +26312,7 @@
       </c>
       <c r="AW179" s="57"/>
     </row>
-    <row r="180" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="53" t="s">
         <v>400</v>
       </c>
@@ -26524,7 +26457,7 @@
       </c>
       <c r="AW180" s="44"/>
     </row>
-    <row r="181" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="64">
         <v>9</v>
       </c>
@@ -26669,7 +26602,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="182" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -26810,7 +26743,7 @@
       </c>
       <c r="AW182" s="33"/>
     </row>
-    <row r="183" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A183" s="53">
         <v>11</v>
       </c>
@@ -26957,7 +26890,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
         <v>589</v>
       </c>
@@ -27102,7 +27035,7 @@
       </c>
       <c r="AW184" s="57"/>
     </row>
-    <row r="185" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="53" t="s">
         <v>402</v>
       </c>
@@ -27247,7 +27180,7 @@
       </c>
       <c r="AW185" s="44"/>
     </row>
-    <row r="186" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="64">
         <v>14</v>
       </c>
@@ -27392,7 +27325,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="64" t="s">
         <v>590</v>
       </c>
@@ -27535,7 +27468,7 @@
       </c>
       <c r="AW187" s="57"/>
     </row>
-    <row r="188" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="53" t="s">
         <v>591</v>
       </c>
@@ -27686,7 +27619,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="189" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="64">
         <v>17</v>
       </c>
@@ -27833,7 +27766,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A190" s="33"/>
       <c r="B190" s="52"/>
       <c r="C190" s="52"/>
@@ -27892,7 +27825,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A191" s="59" t="s">
         <v>592</v>
       </c>
@@ -27973,7 +27906,7 @@
       <c r="AV191" s="52"/>
       <c r="AW191" s="33"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A192" s="59" t="s">
         <v>593</v>
       </c>
@@ -28060,7 +27993,7 @@
       <c r="AV192" s="52"/>
       <c r="AW192" s="33"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A193" s="59" t="s">
         <v>595</v>
       </c>
@@ -28151,7 +28084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A194" s="59" t="s">
         <v>597</v>
       </c>
@@ -28248,7 +28181,7 @@
       <c r="AV194" s="52"/>
       <c r="AW194" s="33"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A195" s="59" t="s">
         <v>599</v>
       </c>
@@ -28342,7 +28275,7 @@
       <c r="AV195" s="52"/>
       <c r="AW195" s="33"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A196" s="59" t="s">
         <v>600</v>
       </c>
@@ -28439,7 +28372,7 @@
       <c r="AV196" s="52"/>
       <c r="AW196" s="33"/>
     </row>
-    <row r="197" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="59" t="s">
         <v>602</v>
       </c>
@@ -28528,7 +28461,7 @@
       <c r="AV197" s="52"/>
       <c r="AW197" s="33"/>
     </row>
-    <row r="198" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A198" s="59" t="s">
         <v>604</v>
       </c>
@@ -28623,7 +28556,7 @@
       <c r="AV198" s="52"/>
       <c r="AW198" s="33"/>
     </row>
-    <row r="199" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="59" t="s">
         <v>605</v>
       </c>
@@ -28721,7 +28654,7 @@
       <c r="AV199" s="52"/>
       <c r="AW199" s="33"/>
     </row>
-    <row r="200" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="59" t="s">
         <v>606</v>
       </c>
@@ -28811,7 +28744,7 @@
       <c r="AV200" s="52"/>
       <c r="AW200" s="33"/>
     </row>
-    <row r="201" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A201" s="59" t="s">
         <v>607</v>
       </c>
@@ -28907,7 +28840,7 @@
       <c r="AV201" s="52"/>
       <c r="AW201" s="33"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A202" s="62" t="s">
         <v>608</v>
       </c>
@@ -29000,7 +28933,7 @@
       <c r="AV202" s="52"/>
       <c r="AW202" s="33"/>
     </row>
-    <row r="203" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="52"/>
       <c r="B203" s="52"/>
       <c r="C203" s="52"/>
@@ -29086,7 +29019,7 @@
       <c r="AV203" s="52"/>
       <c r="AW203" s="33"/>
     </row>
-    <row r="204" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="52"/>
       <c r="B204" s="52"/>
       <c r="C204" s="52"/>
@@ -29169,7 +29102,7 @@
       <c r="AV204" s="52"/>
       <c r="AW204" s="33"/>
     </row>
-    <row r="205" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A205" s="33"/>
       <c r="B205" s="52"/>
       <c r="C205" s="52"/>
@@ -29261,8 +29194,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33"/>
       <c r="B207" s="33"/>
       <c r="C207" s="33"/>
@@ -29315,7 +29248,7 @@
       <c r="AV207" s="33"/>
       <c r="AW207" s="33"/>
     </row>
-    <row r="208" spans="1:50" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -29368,7 +29301,7 @@
       <c r="AV208" s="33"/>
       <c r="AW208" s="33"/>
     </row>
-    <row r="209" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="33"/>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
@@ -29419,7 +29352,7 @@
       <c r="AV209" s="33"/>
       <c r="AW209" s="33"/>
     </row>
-    <row r="210" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -29474,7 +29407,7 @@
       <c r="AV210" s="33"/>
       <c r="AW210" s="33"/>
     </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>4</v>
       </c>
@@ -29621,7 +29554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A212" s="47" t="s">
         <v>392</v>
       </c>
@@ -29768,7 +29701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.25">
       <c r="G213" s="13" t="s">
         <v>29</v>
       </c>
@@ -29776,7 +29709,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="214" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="64" t="s">
         <v>561</v>
       </c>
@@ -29921,7 +29854,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="215" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="64" t="s">
         <v>610</v>
       </c>
@@ -30068,7 +30001,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="216" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="64" t="s">
         <v>612</v>
       </c>
@@ -30215,7 +30148,7 @@
       </c>
       <c r="AW216" s="33"/>
     </row>
-    <row r="217" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A217" s="53" t="s">
         <v>614</v>
       </c>
@@ -30362,7 +30295,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="64" t="s">
         <v>397</v>
       </c>
@@ -30507,7 +30440,7 @@
       </c>
       <c r="AW218" s="74"/>
     </row>
-    <row r="219" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="64" t="s">
         <v>615</v>
       </c>
@@ -30652,7 +30585,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="220" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="53" t="s">
         <v>617</v>
       </c>
@@ -30799,7 +30732,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="221" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="64" t="s">
         <v>400</v>
       </c>
@@ -30946,7 +30879,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="64" t="s">
         <v>620</v>
       </c>
@@ -31091,7 +31024,7 @@
       </c>
       <c r="AW222" s="57"/>
     </row>
-    <row r="223" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="53" t="s">
         <v>621</v>
       </c>
@@ -31238,7 +31171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="224" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="64">
         <v>11</v>
       </c>
@@ -31383,7 +31316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="225" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="64">
         <v>12</v>
       </c>
@@ -31526,7 +31459,7 @@
       </c>
       <c r="AW225" s="57"/>
     </row>
-    <row r="226" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A226" s="53" t="s">
         <v>402</v>
       </c>
@@ -31671,7 +31604,7 @@
       </c>
       <c r="AW226" s="33"/>
     </row>
-    <row r="227" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="53" t="s">
         <v>622</v>
       </c>
@@ -31818,7 +31751,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="228" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="64" t="s">
         <v>403</v>
       </c>
@@ -31963,7 +31896,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A229" s="53" t="s">
         <v>623</v>
       </c>
@@ -32112,7 +32045,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A230" s="33"/>
       <c r="B230" s="52"/>
       <c r="C230" s="52"/>
@@ -32171,7 +32104,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A231" s="59" t="s">
         <v>438</v>
       </c>
@@ -32258,7 +32191,7 @@
       <c r="AV231" s="52"/>
       <c r="AW231" s="33"/>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A232" s="59" t="s">
         <v>444</v>
       </c>
@@ -32345,7 +32278,7 @@
       <c r="AV232" s="52"/>
       <c r="AW232" s="33"/>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A233" s="59" t="s">
         <v>451</v>
       </c>
@@ -32436,7 +32369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A234" s="59" t="s">
         <v>627</v>
       </c>
@@ -32531,7 +32464,7 @@
       <c r="AV234" s="52"/>
       <c r="AW234" s="33"/>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A235" s="59" t="s">
         <v>629</v>
       </c>
@@ -32626,7 +32559,7 @@
       <c r="AV235" s="52"/>
       <c r="AW235" s="33"/>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A236" s="59" t="s">
         <v>631</v>
       </c>
@@ -32721,7 +32654,7 @@
       <c r="AV236" s="52"/>
       <c r="AW236" s="33"/>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A237" s="59" t="s">
         <v>633</v>
       </c>
@@ -32816,7 +32749,7 @@
       <c r="AV237" s="52"/>
       <c r="AW237" s="33"/>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A238" s="59" t="s">
         <v>635</v>
       </c>
@@ -32911,7 +32844,7 @@
       <c r="AV238" s="52"/>
       <c r="AW238" s="33"/>
     </row>
-    <row r="239" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="59" t="s">
         <v>636</v>
       </c>
@@ -33007,7 +32940,7 @@
       <c r="AV239" s="52"/>
       <c r="AW239" s="33"/>
     </row>
-    <row r="240" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="59" t="s">
         <v>637</v>
       </c>
@@ -33100,7 +33033,7 @@
       <c r="AV240" s="52"/>
       <c r="AW240" s="33"/>
     </row>
-    <row r="241" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A241" s="59" t="s">
         <v>638</v>
       </c>
@@ -33195,7 +33128,7 @@
       <c r="AV241" s="52"/>
       <c r="AW241" s="33"/>
     </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A242" s="59" t="s">
         <v>640</v>
       </c>
@@ -33290,7 +33223,7 @@
       <c r="AV242" s="52"/>
       <c r="AW242" s="33"/>
     </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A243" s="62"/>
       <c r="B243" s="61"/>
       <c r="C243" s="61"/>
@@ -33376,7 +33309,7 @@
       <c r="AV243" s="52"/>
       <c r="AW243" s="33"/>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A244" s="52"/>
       <c r="B244" s="52"/>
       <c r="C244" s="52"/>
@@ -33464,7 +33397,7 @@
       <c r="AV244" s="52"/>
       <c r="AW244" s="33"/>
     </row>
-    <row r="245" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="33"/>
       <c r="B245" s="52"/>
       <c r="C245" s="52"/>
@@ -33561,8 +33494,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="246" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A247" s="33"/>
       <c r="B247" s="33"/>
       <c r="C247" s="33"/>
@@ -33615,7 +33548,7 @@
       <c r="AV247" s="33"/>
       <c r="AW247" s="33"/>
     </row>
-    <row r="248" spans="1:50" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -33668,7 +33601,7 @@
       <c r="AV248" s="33"/>
       <c r="AW248" s="33"/>
     </row>
-    <row r="249" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="33"/>
       <c r="B249" s="33"/>
       <c r="C249" s="33"/>
@@ -33719,7 +33652,7 @@
       <c r="AV249" s="33"/>
       <c r="AW249" s="33"/>
     </row>
-    <row r="250" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -33774,7 +33707,7 @@
       <c r="AV250" s="33"/>
       <c r="AW250" s="33"/>
     </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A251" s="33"/>
       <c r="B251" s="33"/>
       <c r="C251" s="47" t="s">
@@ -33909,7 +33842,7 @@
       <c r="AV251" s="33"/>
       <c r="AW251" s="33"/>
     </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>391</v>
       </c>
@@ -34044,7 +33977,7 @@
       <c r="AV252" s="47"/>
       <c r="AW252" s="33"/>
     </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A253" s="47"/>
       <c r="B253" s="33"/>
       <c r="C253" s="51"/>
@@ -34175,7 +34108,7 @@
       <c r="AV253" s="47"/>
       <c r="AW253" s="33"/>
     </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -34236,7 +34169,7 @@
       <c r="AV254" s="33"/>
       <c r="AW254" s="33"/>
     </row>
-    <row r="255" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="64" t="s">
         <v>645</v>
       </c>
@@ -34383,7 +34316,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="64" t="s">
         <v>647</v>
       </c>
@@ -34528,7 +34461,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="64" t="s">
         <v>648</v>
       </c>
@@ -34677,7 +34610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="64" t="s">
         <v>649</v>
       </c>
@@ -34824,7 +34757,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="259" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="53" t="s">
         <v>650</v>
       </c>
@@ -34971,7 +34904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="64" t="s">
         <v>398</v>
       </c>
@@ -35118,7 +35051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="261" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="64" t="s">
         <v>651</v>
       </c>
@@ -35263,7 +35196,7 @@
       </c>
       <c r="AW261" s="57"/>
     </row>
-    <row r="262" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A262" s="53" t="s">
         <v>400</v>
       </c>
@@ -35410,7 +35343,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="53" t="s">
         <v>652</v>
       </c>
@@ -35555,7 +35488,7 @@
       </c>
       <c r="AW263" s="83"/>
     </row>
-    <row r="264" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
         <v>401</v>
       </c>
@@ -35700,7 +35633,7 @@
       </c>
       <c r="AW264" s="33"/>
     </row>
-    <row r="265" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="53" t="s">
         <v>653</v>
       </c>
@@ -35847,7 +35780,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="64">
         <v>12</v>
       </c>
@@ -35992,7 +35925,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="267" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="64" t="s">
         <v>654</v>
       </c>
@@ -36137,7 +36070,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A268" s="53" t="s">
         <v>655</v>
       </c>
@@ -36282,7 +36215,7 @@
       </c>
       <c r="AW268" s="33"/>
     </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A269" s="53" t="s">
         <v>403</v>
       </c>
@@ -36427,7 +36360,7 @@
       </c>
       <c r="AW269" s="57"/>
     </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A270" s="53" t="s">
         <v>414</v>
       </c>
@@ -36576,7 +36509,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A271" s="57" t="s">
         <v>656</v>
       </c>
@@ -36637,7 +36570,7 @@
       <c r="AV271" s="52"/>
       <c r="AW271" s="33"/>
     </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A272" s="57" t="s">
         <v>657</v>
       </c>
@@ -36724,7 +36657,7 @@
       <c r="AV272" s="52"/>
       <c r="AW272" s="33"/>
     </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A273" s="57" t="s">
         <v>659</v>
       </c>
@@ -36811,7 +36744,7 @@
       <c r="AV273" s="52"/>
       <c r="AW273" s="33"/>
     </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A274" s="57" t="s">
         <v>660</v>
       </c>
@@ -36902,7 +36835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A275" s="57" t="s">
         <v>374</v>
       </c>
@@ -36997,7 +36930,7 @@
       <c r="AV275" s="52"/>
       <c r="AW275" s="33"/>
     </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A276" s="57" t="s">
         <v>662</v>
       </c>
@@ -37091,7 +37024,7 @@
       <c r="AV276" s="52"/>
       <c r="AW276" s="33"/>
     </row>
-    <row r="277" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="57" t="s">
         <v>663</v>
       </c>
@@ -37182,7 +37115,7 @@
       <c r="AV277" s="52"/>
       <c r="AW277" s="33"/>
     </row>
-    <row r="278" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="57" t="s">
         <v>493</v>
       </c>
@@ -37279,7 +37212,7 @@
       <c r="AV278" s="52"/>
       <c r="AW278" s="33"/>
     </row>
-    <row r="279" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A279" s="57" t="s">
         <v>664</v>
       </c>
@@ -37374,7 +37307,7 @@
       <c r="AV279" s="52"/>
       <c r="AW279" s="33"/>
     </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A280" s="57" t="s">
         <v>665</v>
       </c>
@@ -37466,7 +37399,7 @@
       <c r="AV280" s="52"/>
       <c r="AW280" s="33"/>
     </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A281" s="57" t="s">
         <v>666</v>
       </c>
@@ -37555,7 +37488,7 @@
       <c r="AV281" s="52"/>
       <c r="AW281" s="33"/>
     </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A282" s="57" t="s">
         <v>667</v>
       </c>
@@ -37644,7 +37577,7 @@
       <c r="AV282" s="52"/>
       <c r="AW282" s="33"/>
     </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A283" s="57" t="s">
         <v>668</v>
       </c>
@@ -37738,7 +37671,7 @@
       <c r="AV283" s="52"/>
       <c r="AW283" s="33"/>
     </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A284" s="57" t="s">
         <v>669</v>
       </c>
@@ -37827,7 +37760,7 @@
       <c r="AV284" s="52"/>
       <c r="AW284" s="33"/>
     </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A285" s="57" t="s">
         <v>598</v>
       </c>
@@ -37916,7 +37849,7 @@
       <c r="AV285" s="52"/>
       <c r="AW285" s="33"/>
     </row>
-    <row r="286" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="47"/>
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
@@ -38005,7 +37938,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="287" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AW287" s="80" t="s">
         <v>578</v>
       </c>
@@ -38014,7 +37947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
@@ -38067,7 +38000,7 @@
       <c r="AV288" s="33"/>
       <c r="AW288" s="33"/>
     </row>
-    <row r="289" spans="1:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:50" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="33"/>
       <c r="B289" s="33"/>
       <c r="C289" s="33"/>
@@ -38120,7 +38053,7 @@
       <c r="AV289" s="33"/>
       <c r="AW289" s="33"/>
     </row>
-    <row r="290" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -38175,7 +38108,7 @@
       <c r="AV290" s="33"/>
       <c r="AW290" s="33"/>
     </row>
-    <row r="291" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A291" s="33"/>
       <c r="B291" s="33"/>
       <c r="C291" s="47" t="s">
@@ -38310,7 +38243,7 @@
       <c r="AV291" s="33"/>
       <c r="AW291" s="33"/>
     </row>
-    <row r="292" spans="1:50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:50" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
@@ -38361,7 +38294,7 @@
       <c r="AV292" s="33"/>
       <c r="AW292" s="33"/>
     </row>
-    <row r="293" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A293" s="53" t="s">
         <v>393</v>
       </c>
@@ -38509,7 +38442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A294" s="53" t="s">
         <v>394</v>
       </c>
@@ -38657,7 +38590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
         <v>395</v>
       </c>
@@ -38805,7 +38738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A296" s="53" t="s">
         <v>396</v>
       </c>
@@ -38953,7 +38886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A297" s="53" t="s">
         <v>397</v>
       </c>
@@ -39101,7 +39034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A298" s="53" t="s">
         <v>398</v>
       </c>
@@ -39249,7 +39182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A299" s="53" t="s">
         <v>399</v>
       </c>
@@ -39397,7 +39330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A300" s="53" t="s">
         <v>400</v>
       </c>
@@ -39545,7 +39478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A301" s="53">
         <v>9</v>
       </c>
@@ -39693,7 +39626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A302" s="53" t="s">
         <v>401</v>
       </c>
@@ -39841,7 +39774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A303" s="53">
         <v>11</v>
       </c>
@@ -39989,7 +39922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A304" s="53">
         <v>12</v>
       </c>
@@ -40137,7 +40070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A305" s="53" t="s">
         <v>402</v>
       </c>
@@ -40285,7 +40218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A306" s="53">
         <v>14</v>
       </c>
@@ -40433,7 +40366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A307" s="53" t="s">
         <v>403</v>
       </c>
@@ -40581,7 +40514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A308" s="53" t="s">
         <v>414</v>
       </c>
@@ -40733,7 +40666,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A309" s="53">
         <v>17</v>
       </c>
@@ -40885,7 +40818,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A310" s="53">
         <v>18</v>
       </c>
@@ -41037,7 +40970,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="311" spans="1:51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:51" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="33"/>
       <c r="B311" s="52"/>
       <c r="C311" s="52"/>
@@ -41092,7 +41025,7 @@
       <c r="AV311" s="52"/>
       <c r="AW311" s="33"/>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A312" s="59"/>
       <c r="B312" s="52"/>
       <c r="C312" s="52"/>
@@ -41167,7 +41100,7 @@
       <c r="AV312" s="52"/>
       <c r="AW312" s="33"/>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A313" s="59"/>
       <c r="B313" s="52"/>
       <c r="C313" s="52"/>
@@ -41242,7 +41175,7 @@
       <c r="AV313" s="52"/>
       <c r="AW313" s="33"/>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A314" s="59"/>
       <c r="B314" s="52"/>
       <c r="C314" s="52"/>
@@ -41321,7 +41254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A315" s="59"/>
       <c r="B315" s="52"/>
       <c r="C315" s="52"/>
@@ -41404,7 +41337,7 @@
       <c r="AV315" s="52"/>
       <c r="AW315" s="33"/>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A316" s="59"/>
       <c r="B316" s="52"/>
       <c r="C316" s="52"/>
@@ -41487,7 +41420,7 @@
       <c r="AV316" s="52"/>
       <c r="AW316" s="33"/>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A317" s="59"/>
       <c r="B317" s="52"/>
       <c r="C317" s="52"/>
@@ -41570,7 +41503,7 @@
       <c r="AV317" s="52"/>
       <c r="AW317" s="33"/>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A318" s="59"/>
       <c r="B318" s="52"/>
       <c r="C318" s="52"/>
@@ -41653,7 +41586,7 @@
       <c r="AV318" s="52"/>
       <c r="AW318" s="33"/>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A319" s="59"/>
       <c r="B319" s="52"/>
       <c r="C319" s="52"/>
@@ -41736,7 +41669,7 @@
       <c r="AV319" s="52"/>
       <c r="AW319" s="33"/>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A320" s="59"/>
       <c r="B320" s="52"/>
       <c r="C320" s="52"/>
@@ -41819,7 +41752,7 @@
       <c r="AV320" s="52"/>
       <c r="AW320" s="33"/>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A321" s="59"/>
       <c r="B321" s="52"/>
       <c r="C321" s="52"/>
@@ -41902,7 +41835,7 @@
       <c r="AV321" s="52"/>
       <c r="AW321" s="33"/>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A322" s="59"/>
       <c r="B322" s="52"/>
       <c r="C322" s="52"/>
@@ -41985,7 +41918,7 @@
       <c r="AV322" s="52"/>
       <c r="AW322" s="33"/>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A323" s="59"/>
       <c r="B323" s="52"/>
       <c r="C323" s="52"/>
@@ -42068,7 +42001,7 @@
       <c r="AV323" s="52"/>
       <c r="AW323" s="33"/>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A324" s="59"/>
       <c r="B324" s="52"/>
       <c r="C324" s="52"/>
@@ -42151,7 +42084,7 @@
       <c r="AV324" s="52"/>
       <c r="AW324" s="33"/>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A325" s="52"/>
       <c r="B325" s="52"/>
       <c r="C325" s="52"/>
@@ -42234,7 +42167,7 @@
       <c r="AV325" s="52"/>
       <c r="AW325" s="33"/>
     </row>
-    <row r="326" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="33"/>
       <c r="B326" s="52"/>
       <c r="C326" s="52"/>
@@ -42327,7 +42260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A327" s="33"/>
       <c r="B327" s="52"/>
       <c r="C327" s="52"/>
@@ -42411,7 +42344,7 @@
       <c r="AW327" s="52"/>
       <c r="AX327" s="33"/>
     </row>
-    <row r="328" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="P328" s="52">
         <v>35</v>
       </c>
@@ -42476,8 +42409,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="330" spans="1:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="330" spans="1:51" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A330" s="33"/>
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
@@ -42530,7 +42463,7 @@
       <c r="AV330" s="33"/>
       <c r="AW330" s="33"/>
     </row>
-    <row r="331" spans="1:51" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:51" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="33"/>
       <c r="B331" s="33"/>
       <c r="C331" s="33"/>
@@ -42583,7 +42516,7 @@
       <c r="AV331" s="33"/>
       <c r="AW331" s="33"/>
     </row>
-    <row r="332" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A332" s="33"/>
       <c r="B332" s="33"/>
       <c r="C332" s="33"/>
@@ -42638,7 +42571,7 @@
       <c r="AV332" s="33"/>
       <c r="AW332" s="33"/>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="33"/>
       <c r="C333" s="47" t="s">
@@ -42773,7 +42706,7 @@
       <c r="AV333" s="33"/>
       <c r="AW333" s="33"/>
     </row>
-    <row r="334" spans="1:51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:51" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
@@ -42826,7 +42759,7 @@
       <c r="AV334" s="33"/>
       <c r="AW334" s="33"/>
     </row>
-    <row r="335" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="95" t="s">
         <v>581</v>
       </c>
@@ -42978,7 +42911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="64" t="s">
         <v>610</v>
       </c>
@@ -43130,7 +43063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="64" t="s">
         <v>670</v>
       </c>
@@ -43280,7 +43213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="64" t="s">
         <v>671</v>
       </c>
@@ -43430,7 +43363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="64" t="s">
         <v>673</v>
       </c>
@@ -43580,7 +43513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="64" t="s">
         <v>674</v>
       </c>
@@ -43730,7 +43663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="64" t="s">
         <v>399</v>
       </c>
@@ -43882,7 +43815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="64" t="s">
         <v>677</v>
       </c>
@@ -44030,7 +43963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="53">
         <v>9</v>
       </c>
@@ -44178,7 +44111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="64" t="s">
         <v>678</v>
       </c>
@@ -44328,7 +44261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="64" t="s">
         <v>679</v>
       </c>
@@ -44476,7 +44409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="53" t="s">
         <v>680</v>
       </c>
@@ -44624,7 +44557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="64" t="s">
         <v>402</v>
       </c>
@@ -44772,7 +44705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="53" t="s">
         <v>681</v>
       </c>
@@ -44920,7 +44853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="64" t="s">
         <v>403</v>
       </c>
@@ -45070,7 +45003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A350" s="53" t="s">
         <v>414</v>
       </c>
@@ -45222,7 +45155,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="351" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="53" t="s">
         <v>682</v>
       </c>
@@ -45374,7 +45307,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="352" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="64">
         <v>18</v>
       </c>
@@ -45528,7 +45461,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="353" spans="1:51" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:51" ht="9.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A353" s="33"/>
       <c r="B353" s="52"/>
       <c r="C353" s="52"/>
@@ -45583,7 +45516,7 @@
       <c r="AV353" s="52"/>
       <c r="AW353" s="33"/>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A354" s="57" t="s">
         <v>592</v>
       </c>
@@ -45670,7 +45603,7 @@
       <c r="AV354" s="52"/>
       <c r="AW354" s="33"/>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A355" s="57" t="s">
         <v>684</v>
       </c>
@@ -45757,7 +45690,7 @@
       <c r="AV355" s="52"/>
       <c r="AW355" s="33"/>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A356" s="57" t="s">
         <v>685</v>
       </c>
@@ -45848,7 +45781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A357" s="57" t="s">
         <v>597</v>
       </c>
@@ -45943,7 +45876,7 @@
       <c r="AV357" s="52"/>
       <c r="AW357" s="33"/>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A358" s="57" t="s">
         <v>687</v>
       </c>
@@ -46038,7 +45971,7 @@
       <c r="AV358" s="52"/>
       <c r="AW358" s="33"/>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A359" s="57" t="s">
         <v>688</v>
       </c>
@@ -46133,7 +46066,7 @@
       <c r="AV359" s="52"/>
       <c r="AW359" s="33"/>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A360" s="57" t="s">
         <v>689</v>
       </c>
@@ -46227,7 +46160,7 @@
       <c r="AV360" s="52"/>
       <c r="AW360" s="33"/>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A361" s="57" t="s">
         <v>690</v>
       </c>
@@ -46316,7 +46249,7 @@
       <c r="AV361" s="52"/>
       <c r="AW361" s="33"/>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A362" s="57" t="s">
         <v>691</v>
       </c>
@@ -46415,7 +46348,7 @@
       <c r="AV362" s="52"/>
       <c r="AW362" s="33"/>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A363" s="57" t="s">
         <v>692</v>
       </c>
@@ -46510,7 +46443,7 @@
       <c r="AV363" s="52"/>
       <c r="AW363" s="33"/>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A364" s="57" t="s">
         <v>693</v>
       </c>
@@ -46602,7 +46535,7 @@
       <c r="AV364" s="52"/>
       <c r="AW364" s="33"/>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A365" s="57" t="s">
         <v>528</v>
       </c>
@@ -46696,7 +46629,7 @@
       <c r="AV365" s="52"/>
       <c r="AW365" s="33"/>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A366" s="57" t="s">
         <v>536</v>
       </c>
@@ -46785,7 +46718,7 @@
       <c r="AV366" s="52"/>
       <c r="AW366" s="33"/>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A367" s="57" t="s">
         <v>694</v>
       </c>
@@ -46874,7 +46807,7 @@
       <c r="AV367" s="52"/>
       <c r="AW367" s="33"/>
     </row>
-    <row r="368" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="57"/>
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
@@ -46962,7 +46895,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="369" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="47"/>
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
@@ -47051,7 +46984,7 @@
       <c r="AW369" s="52"/>
       <c r="AX369" s="33"/>
     </row>
-    <row r="370" spans="1:51" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:51" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P370" s="79">
         <v>35</v>
       </c>
@@ -47116,8 +47049,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="372" spans="1:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="372" spans="1:51" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A372" s="33"/>
       <c r="B372" s="33"/>
       <c r="C372" s="33"/>
@@ -47170,7 +47103,7 @@
       <c r="AV372" s="33"/>
       <c r="AW372" s="33"/>
     </row>
-    <row r="373" spans="1:51" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:51" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="33"/>
       <c r="B373" s="33"/>
       <c r="C373" s="33"/>
@@ -47223,7 +47156,7 @@
       <c r="AV373" s="33"/>
       <c r="AW373" s="33"/>
     </row>
-    <row r="374" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A374" s="33"/>
       <c r="B374" s="33"/>
       <c r="C374" s="33"/>
@@ -47278,7 +47211,7 @@
       <c r="AV374" s="33"/>
       <c r="AW374" s="33"/>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A375" s="33"/>
       <c r="B375" s="33"/>
       <c r="C375" s="47" t="s">
@@ -47413,7 +47346,7 @@
       <c r="AV375" s="33"/>
       <c r="AW375" s="33"/>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A376" s="47" t="s">
         <v>392</v>
       </c>
@@ -47560,7 +47493,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A377" s="33"/>
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
@@ -47615,7 +47548,7 @@
       <c r="AV377" s="33"/>
       <c r="AW377" s="33"/>
     </row>
-    <row r="378" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="64" t="s">
         <v>581</v>
       </c>
@@ -47762,7 +47695,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="379" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="64" t="s">
         <v>697</v>
       </c>
@@ -47909,7 +47842,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="380" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="64" t="s">
         <v>648</v>
       </c>
@@ -48054,7 +47987,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="381" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="53" t="s">
         <v>699</v>
       </c>
@@ -48199,7 +48132,7 @@
       </c>
       <c r="AW381" s="83"/>
     </row>
-    <row r="382" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="64" t="s">
         <v>397</v>
       </c>
@@ -48344,7 +48277,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="383" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="64" t="s">
         <v>702</v>
       </c>
@@ -48493,7 +48426,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="64" t="s">
         <v>705</v>
       </c>
@@ -48636,7 +48569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="385" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="64" t="s">
         <v>707</v>
       </c>
@@ -48783,7 +48716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="386" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="64" t="s">
         <v>708</v>
       </c>
@@ -48926,7 +48859,7 @@
       <c r="AV386" s="66"/>
       <c r="AW386" s="83"/>
     </row>
-    <row r="387" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="64" t="s">
         <v>709</v>
       </c>
@@ -49071,7 +49004,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="388" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="64" t="s">
         <v>710</v>
       </c>
@@ -49218,7 +49151,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="389" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="64" t="s">
         <v>711</v>
       </c>
@@ -49365,7 +49298,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="390" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A390" s="53" t="s">
         <v>712</v>
       </c>
@@ -49510,7 +49443,7 @@
       </c>
       <c r="AW390" s="87"/>
     </row>
-    <row r="391" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A391" s="53">
         <v>14</v>
       </c>
@@ -49655,7 +49588,7 @@
       </c>
       <c r="AW391" s="33"/>
     </row>
-    <row r="392" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A392" s="53" t="s">
         <v>403</v>
       </c>
@@ -49800,7 +49733,7 @@
       </c>
       <c r="AW392" s="57"/>
     </row>
-    <row r="393" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A393" s="53" t="s">
         <v>414</v>
       </c>
@@ -49949,7 +49882,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="394" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A394" s="33"/>
       <c r="B394" s="52"/>
       <c r="C394" s="52"/>
@@ -50004,7 +49937,7 @@
       <c r="AV394" s="52"/>
       <c r="AW394" s="33"/>
     </row>
-    <row r="395" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A395" s="57" t="s">
         <v>592</v>
       </c>
@@ -50091,7 +50024,7 @@
       <c r="AV395" s="52"/>
       <c r="AW395" s="33"/>
     </row>
-    <row r="396" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A396" s="57" t="s">
         <v>714</v>
       </c>
@@ -50178,7 +50111,7 @@
       <c r="AV396" s="52"/>
       <c r="AW396" s="33"/>
     </row>
-    <row r="397" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A397" s="57" t="s">
         <v>716</v>
       </c>
@@ -50269,7 +50202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A398" s="57" t="s">
         <v>660</v>
       </c>
@@ -50364,7 +50297,7 @@
       <c r="AV398" s="52"/>
       <c r="AW398" s="33"/>
     </row>
-    <row r="399" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A399" s="57" t="s">
         <v>687</v>
       </c>
@@ -50459,7 +50392,7 @@
       <c r="AV399" s="52"/>
       <c r="AW399" s="33"/>
     </row>
-    <row r="400" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A400" s="57" t="s">
         <v>600</v>
       </c>
@@ -50554,7 +50487,7 @@
       <c r="AV400" s="52"/>
       <c r="AW400" s="33"/>
     </row>
-    <row r="401" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A401" s="57" t="s">
         <v>720</v>
       </c>
@@ -50653,7 +50586,7 @@
       <c r="AV401" s="52"/>
       <c r="AW401" s="33"/>
     </row>
-    <row r="402" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A402" s="57" t="s">
         <v>493</v>
       </c>
@@ -50747,7 +50680,7 @@
       <c r="AV402" s="52"/>
       <c r="AW402" s="33"/>
     </row>
-    <row r="403" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="57" t="s">
         <v>722</v>
       </c>
@@ -50836,7 +50769,7 @@
       <c r="AV403" s="52"/>
       <c r="AW403" s="33"/>
     </row>
-    <row r="404" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:52" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A404" s="57" t="s">
         <v>692</v>
       </c>
@@ -50931,7 +50864,7 @@
       <c r="AV404" s="52"/>
       <c r="AW404" s="33"/>
     </row>
-    <row r="405" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A405" s="57" t="s">
         <v>693</v>
       </c>
@@ -51023,7 +50956,7 @@
       <c r="AV405" s="52"/>
       <c r="AW405" s="33"/>
     </row>
-    <row r="406" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A406" s="57" t="s">
         <v>528</v>
       </c>
@@ -51117,7 +51050,7 @@
       <c r="AV406" s="52"/>
       <c r="AW406" s="33"/>
     </row>
-    <row r="407" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A407" s="57" t="s">
         <v>536</v>
       </c>
@@ -51206,7 +51139,7 @@
       <c r="AV407" s="52"/>
       <c r="AW407" s="33"/>
     </row>
-    <row r="408" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A408" s="57" t="s">
         <v>694</v>
       </c>
@@ -51295,7 +51228,7 @@
       <c r="AV408" s="52"/>
       <c r="AW408" s="33"/>
     </row>
-    <row r="409" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A409" s="57"/>
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
@@ -51382,7 +51315,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="410" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A410" s="47"/>
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
@@ -51470,7 +51403,7 @@
       <c r="AV410" s="52"/>
       <c r="AW410" s="5"/>
     </row>
-    <row r="411" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="33"/>
       <c r="B411" s="52"/>
       <c r="C411" s="52"/>
@@ -51553,8 +51486,8 @@
       <c r="AV411" s="52"/>
       <c r="AW411" s="5"/>
     </row>
-    <row r="412" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="1:52" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="413" spans="1:52" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A413" s="33"/>
       <c r="B413" s="33"/>
       <c r="C413" s="33"/>
@@ -51607,7 +51540,7 @@
       <c r="AV413" s="33"/>
       <c r="AW413" s="33"/>
     </row>
-    <row r="414" spans="1:52" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="33"/>
       <c r="B414" s="33"/>
       <c r="C414" s="33"/>
@@ -51660,7 +51593,7 @@
       <c r="AV414" s="33"/>
       <c r="AW414" s="33"/>
     </row>
-    <row r="415" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:52" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A415" s="33"/>
       <c r="B415" s="33"/>
       <c r="C415" s="33"/>
@@ -51715,7 +51648,7 @@
       <c r="AV415" s="33"/>
       <c r="AW415" s="33"/>
     </row>
-    <row r="416" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A416" s="33"/>
       <c r="B416" s="33"/>
       <c r="C416" s="47" t="s">
@@ -51854,7 +51787,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="417" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A417" s="47" t="s">
         <v>392</v>
       </c>
@@ -52001,7 +51934,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="418" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A418" s="33"/>
       <c r="B418" s="33"/>
       <c r="C418" s="33"/>
@@ -52052,7 +51985,7 @@
       <c r="AV418" s="33"/>
       <c r="AW418" s="33"/>
     </row>
-    <row r="419" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A419" s="53" t="s">
         <v>393</v>
       </c>
@@ -52197,7 +52130,7 @@
       </c>
       <c r="AW419" s="57"/>
     </row>
-    <row r="420" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A420" s="53" t="s">
         <v>394</v>
       </c>
@@ -52342,7 +52275,7 @@
       </c>
       <c r="AW420" s="59"/>
     </row>
-    <row r="421" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A421" s="53" t="s">
         <v>395</v>
       </c>
@@ -52487,7 +52420,7 @@
       </c>
       <c r="AW421" s="33"/>
     </row>
-    <row r="422" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A422" s="53" t="s">
         <v>396</v>
       </c>
@@ -52632,7 +52565,7 @@
       </c>
       <c r="AW422" s="57"/>
     </row>
-    <row r="423" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A423" s="53" t="s">
         <v>397</v>
       </c>
@@ -52777,7 +52710,7 @@
       </c>
       <c r="AW423" s="47"/>
     </row>
-    <row r="424" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A424" s="53" t="s">
         <v>398</v>
       </c>
@@ -52922,7 +52855,7 @@
       </c>
       <c r="AW424" s="57"/>
     </row>
-    <row r="425" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A425" s="53" t="s">
         <v>399</v>
       </c>
@@ -53067,7 +53000,7 @@
       </c>
       <c r="AW425" s="57"/>
     </row>
-    <row r="426" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A426" s="53" t="s">
         <v>400</v>
       </c>
@@ -53212,7 +53145,7 @@
       </c>
       <c r="AW426" s="33"/>
     </row>
-    <row r="427" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A427" s="53">
         <v>9</v>
       </c>
@@ -53357,7 +53290,7 @@
       </c>
       <c r="AW427" s="57"/>
     </row>
-    <row r="428" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A428" s="53" t="s">
         <v>401</v>
       </c>
@@ -53502,7 +53435,7 @@
       </c>
       <c r="AW428" s="33"/>
     </row>
-    <row r="429" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A429" s="53">
         <v>11</v>
       </c>
@@ -53647,7 +53580,7 @@
       </c>
       <c r="AW429" s="33"/>
     </row>
-    <row r="430" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A430" s="53">
         <v>12</v>
       </c>
@@ -53792,7 +53725,7 @@
       </c>
       <c r="AW430" s="57"/>
     </row>
-    <row r="431" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A431" s="53" t="s">
         <v>402</v>
       </c>
@@ -53937,7 +53870,7 @@
       </c>
       <c r="AW431" s="33"/>
     </row>
-    <row r="432" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A432" s="53">
         <v>14</v>
       </c>
@@ -54082,7 +54015,7 @@
       </c>
       <c r="AW432" s="33"/>
     </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A433" s="53" t="s">
         <v>403</v>
       </c>
@@ -54227,7 +54160,7 @@
       </c>
       <c r="AW433" s="57"/>
     </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A434" s="53" t="s">
         <v>414</v>
       </c>
@@ -54376,8 +54309,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="437" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="438" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="438" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A438" s="33"/>
       <c r="B438" s="33"/>
       <c r="C438" s="33"/>
@@ -54430,7 +54363,7 @@
       <c r="AV438" s="33"/>
       <c r="AW438" s="33"/>
     </row>
-    <row r="439" spans="1:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:50" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="33"/>
       <c r="B439" s="33"/>
       <c r="C439" s="33"/>
@@ -54483,7 +54416,7 @@
       <c r="AV439" s="33"/>
       <c r="AW439" s="33"/>
     </row>
-    <row r="440" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A440" s="33"/>
       <c r="B440" s="33"/>
       <c r="C440" s="33"/>
@@ -54538,7 +54471,7 @@
       <c r="AV440" s="33"/>
       <c r="AW440" s="33"/>
     </row>
-    <row r="441" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A441" s="33"/>
       <c r="B441" s="33"/>
       <c r="C441" s="47" t="s">
@@ -54673,7 +54606,7 @@
       <c r="AV441" s="33"/>
       <c r="AW441" s="33"/>
     </row>
-    <row r="442" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A442" s="47" t="s">
         <v>392</v>
       </c>
@@ -54820,7 +54753,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="443" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A443" s="33"/>
       <c r="B443" s="33"/>
       <c r="C443" s="33"/>
@@ -54871,7 +54804,7 @@
       <c r="AV443" s="33"/>
       <c r="AW443" s="33"/>
     </row>
-    <row r="444" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="64" t="s">
         <v>725</v>
       </c>
@@ -55016,7 +54949,7 @@
       </c>
       <c r="AW444" s="57"/>
     </row>
-    <row r="445" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="53" t="s">
         <v>726</v>
       </c>
@@ -55163,7 +55096,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="446" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="64" t="s">
         <v>395</v>
       </c>
@@ -55306,7 +55239,7 @@
       </c>
       <c r="AW446" s="33"/>
     </row>
-    <row r="447" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A447" s="53" t="s">
         <v>396</v>
       </c>
@@ -55451,7 +55384,7 @@
       </c>
       <c r="AW447" s="57"/>
     </row>
-    <row r="448" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A448" s="53" t="s">
         <v>728</v>
       </c>
@@ -55598,7 +55531,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="449" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A449" s="53" t="s">
         <v>398</v>
       </c>
@@ -55743,7 +55676,7 @@
       </c>
       <c r="AW449" s="57"/>
     </row>
-    <row r="450" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="53" t="s">
         <v>399</v>
       </c>
@@ -55888,7 +55821,7 @@
       </c>
       <c r="AW450" s="83"/>
     </row>
-    <row r="451" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="64" t="s">
         <v>400</v>
       </c>
@@ -56033,7 +55966,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="452" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="64" t="s">
         <v>730</v>
       </c>
@@ -56180,7 +56113,7 @@
       </c>
       <c r="AW452" s="57"/>
     </row>
-    <row r="453" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A453" s="53" t="s">
         <v>401</v>
       </c>
@@ -56327,7 +56260,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="454" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="53" t="s">
         <v>733</v>
       </c>
@@ -56472,7 +56405,7 @@
       </c>
       <c r="AW454" s="44"/>
     </row>
-    <row r="455" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="64">
         <v>12</v>
       </c>
@@ -56617,7 +56550,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="456" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="64" t="s">
         <v>735</v>
       </c>
@@ -56762,7 +56695,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="457" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="64" t="s">
         <v>737</v>
       </c>
@@ -56909,7 +56842,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="458" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="64" t="s">
         <v>739</v>
       </c>
@@ -57054,7 +56987,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="459" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A459" s="53" t="s">
         <v>741</v>
       </c>
@@ -57203,7 +57136,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="460" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A460" s="33"/>
       <c r="B460" s="52"/>
       <c r="C460" s="52"/>
@@ -57258,7 +57191,7 @@
       <c r="AV460" s="52"/>
       <c r="AW460" s="33"/>
     </row>
-    <row r="461" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A461" s="57" t="s">
         <v>742</v>
       </c>
@@ -57339,7 +57272,7 @@
       <c r="AV461" s="52"/>
       <c r="AW461" s="33"/>
     </row>
-    <row r="462" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A462" s="57" t="s">
         <v>743</v>
       </c>
@@ -57420,7 +57353,7 @@
       <c r="AV462" s="52"/>
       <c r="AW462" s="33"/>
     </row>
-    <row r="463" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A463" s="57" t="s">
         <v>744</v>
       </c>
@@ -57505,7 +57438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A464" s="57" t="s">
         <v>745</v>
       </c>
@@ -57594,7 +57527,7 @@
       <c r="AV464" s="52"/>
       <c r="AW464" s="33"/>
     </row>
-    <row r="465" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="57" t="s">
         <v>746</v>
       </c>
@@ -57685,7 +57618,7 @@
       <c r="AV465" s="52"/>
       <c r="AW465" s="33"/>
     </row>
-    <row r="466" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="57"/>
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
@@ -57771,7 +57704,7 @@
       <c r="AV466" s="52"/>
       <c r="AW466" s="33"/>
     </row>
-    <row r="467" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="57" t="s">
         <v>749</v>
       </c>
@@ -57862,7 +57795,7 @@
       <c r="AV467" s="52"/>
       <c r="AW467" s="33"/>
     </row>
-    <row r="468" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A468" s="57" t="s">
         <v>750</v>
       </c>
@@ -57951,7 +57884,7 @@
       <c r="AV468" s="52"/>
       <c r="AW468" s="33"/>
     </row>
-    <row r="469" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A469" s="57" t="s">
         <v>751</v>
       </c>
@@ -58008,7 +57941,7 @@
       <c r="AV469" s="52"/>
       <c r="AW469" s="33"/>
     </row>
-    <row r="470" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A470" s="57" t="s">
         <v>752</v>
       </c>
@@ -58065,7 +57998,7 @@
       <c r="AV470" s="52"/>
       <c r="AW470" s="33"/>
     </row>
-    <row r="471" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A471" s="57" t="s">
         <v>753</v>
       </c>
@@ -58122,7 +58055,7 @@
       <c r="AV471" s="52"/>
       <c r="AW471" s="33"/>
     </row>
-    <row r="472" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A472" s="57" t="s">
         <v>754</v>
       </c>
@@ -58179,7 +58112,7 @@
       <c r="AV472" s="52"/>
       <c r="AW472" s="33"/>
     </row>
-    <row r="473" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A473" s="57"/>
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
@@ -58233,7 +58166,7 @@
       <c r="AV473" s="52"/>
       <c r="AW473" s="33"/>
     </row>
-    <row r="474" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A474" s="57"/>
       <c r="B474" s="47"/>
       <c r="C474" s="52" t="s">
@@ -58292,7 +58225,7 @@
       <c r="AV474" s="52"/>
       <c r="AW474" s="33"/>
     </row>
-    <row r="475" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" s="57"/>
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
@@ -58343,7 +58276,7 @@
       <c r="AV475" s="52"/>
       <c r="AW475" s="5"/>
     </row>
-    <row r="476" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A476" s="47"/>
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
@@ -58394,7 +58327,7 @@
       <c r="AV476" s="52"/>
       <c r="AW476" s="5"/>
     </row>
-    <row r="477" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="33"/>
       <c r="B477" s="52"/>
       <c r="C477" s="52"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6928F145-D39B-4541-9936-D6298A7DB85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3092755-8CA9-4ECF-AE96-0898A32BA76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2334,9 +2334,6 @@
     <t>S1  Kedokteran Hewan</t>
   </si>
   <si>
-    <t>M. Pendidikan Biologi (MPB)</t>
-  </si>
-  <si>
     <t>M. Pendidikan Matematika (MPM)</t>
   </si>
   <si>
@@ -2365,6 +2362,15 @@
   </si>
   <si>
     <t>MPO</t>
+  </si>
+  <si>
+    <t>D3FKH</t>
+  </si>
+  <si>
+    <t>MKMV</t>
+  </si>
+  <si>
+    <t>Sel2</t>
   </si>
   <si>
     <r>
@@ -2377,17 +2383,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Selingan 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">M. Pendidikan Biologi (MPB)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Selingan 1</t>
     </r>
-  </si>
-  <si>
-    <t>D3FKH</t>
-  </si>
-  <si>
-    <t>MKMV</t>
-  </si>
-  <si>
-    <t>Sel2</t>
   </si>
 </sst>
 </file>
@@ -3694,6 +3705,12 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3719,12 +3736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4047,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A38" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,49 +4075,49 @@
     <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="258" t="s">
         <v>762</v>
       </c>
-      <c r="D1" s="257"/>
-      <c r="E1" s="257"/>
-      <c r="F1" s="257"/>
-      <c r="G1" s="257"/>
-      <c r="H1" s="257"/>
-      <c r="I1" s="257"/>
-      <c r="J1" s="257"/>
-      <c r="K1" s="257"/>
-      <c r="L1" s="257"/>
-      <c r="M1" s="257"/>
-      <c r="N1" s="257"/>
-      <c r="O1" s="257"/>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
-      <c r="X1" s="257"/>
-      <c r="Y1" s="257"/>
-      <c r="Z1" s="257"/>
-      <c r="AA1" s="257"/>
-      <c r="AB1" s="257"/>
-      <c r="AC1" s="257"/>
-      <c r="AD1" s="257"/>
-      <c r="AE1" s="257"/>
-      <c r="AF1" s="257"/>
-      <c r="AG1" s="257"/>
-      <c r="AH1" s="257"/>
-      <c r="AI1" s="257"/>
-      <c r="AJ1" s="257"/>
-      <c r="AK1" s="257"/>
-      <c r="AL1" s="257"/>
-      <c r="AM1" s="257"/>
-      <c r="AN1" s="257"/>
-      <c r="AO1" s="257"/>
-      <c r="AP1" s="257"/>
-      <c r="AQ1" s="258"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="259"/>
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="259"/>
+      <c r="AF1" s="259"/>
+      <c r="AG1" s="259"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="259"/>
+      <c r="AJ1" s="259"/>
+      <c r="AK1" s="259"/>
+      <c r="AL1" s="259"/>
+      <c r="AM1" s="259"/>
+      <c r="AN1" s="259"/>
+      <c r="AO1" s="259"/>
+      <c r="AP1" s="259"/>
+      <c r="AQ1" s="260"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="178"/>
     </row>
@@ -4115,45 +4126,45 @@
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="259"/>
-      <c r="N2" s="259"/>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="259"/>
-      <c r="V2" s="259"/>
-      <c r="W2" s="259"/>
-      <c r="X2" s="259"/>
-      <c r="Y2" s="259"/>
-      <c r="Z2" s="259"/>
-      <c r="AA2" s="259"/>
-      <c r="AB2" s="259"/>
-      <c r="AC2" s="259"/>
-      <c r="AD2" s="259"/>
-      <c r="AE2" s="259"/>
-      <c r="AF2" s="259"/>
-      <c r="AG2" s="259"/>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="259"/>
-      <c r="AJ2" s="259"/>
-      <c r="AK2" s="259"/>
-      <c r="AL2" s="259"/>
-      <c r="AM2" s="259"/>
-      <c r="AN2" s="259"/>
-      <c r="AO2" s="259"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
+      <c r="H2" s="261"/>
+      <c r="I2" s="261"/>
+      <c r="J2" s="261"/>
+      <c r="K2" s="261"/>
+      <c r="L2" s="261"/>
+      <c r="M2" s="261"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="261"/>
+      <c r="P2" s="261"/>
+      <c r="Q2" s="261"/>
+      <c r="R2" s="261"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="261"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="261"/>
+      <c r="AA2" s="261"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="261"/>
+      <c r="AD2" s="261"/>
+      <c r="AE2" s="261"/>
+      <c r="AF2" s="261"/>
+      <c r="AG2" s="261"/>
+      <c r="AH2" s="261"/>
+      <c r="AI2" s="261"/>
+      <c r="AJ2" s="261"/>
+      <c r="AK2" s="261"/>
+      <c r="AL2" s="261"/>
+      <c r="AM2" s="261"/>
+      <c r="AN2" s="261"/>
+      <c r="AO2" s="261"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
@@ -4440,7 +4451,7 @@
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="230" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D7" s="190" t="s">
         <v>10</v>
@@ -4841,7 +4852,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="232" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E10" s="191" t="s">
         <v>87</v>
@@ -4859,10 +4870,10 @@
         <v>91</v>
       </c>
       <c r="J10" s="253" t="s">
+        <v>772</v>
+      </c>
+      <c r="K10" s="233" t="s">
         <v>773</v>
-      </c>
-      <c r="K10" s="233" t="s">
-        <v>774</v>
       </c>
       <c r="L10" s="197" t="s">
         <v>94</v>
@@ -4880,7 +4891,7 @@
         <v>98</v>
       </c>
       <c r="Q10" s="235" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R10" s="234" t="s">
         <v>100</v>
@@ -6019,7 +6030,7 @@
         <v>268</v>
       </c>
       <c r="AR18" s="248" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AS18" s="51">
         <v>12</v>
@@ -6440,11 +6451,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="260" t="s">
+      <c r="N22" s="262" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="260"/>
-      <c r="P22" s="260"/>
+      <c r="O22" s="262"/>
+      <c r="P22" s="262"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6458,11 +6469,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="260" t="s">
+      <c r="AD22" s="262" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
+      <c r="AE22" s="262"/>
+      <c r="AF22" s="262"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6914,8 +6925,8 @@
       <c r="R29" s="231">
         <v>326</v>
       </c>
-      <c r="S29" s="265" t="s">
-        <v>778</v>
+      <c r="S29" s="256" t="s">
+        <v>776</v>
       </c>
       <c r="T29" s="238" t="s">
         <v>364</v>
@@ -7299,8 +7310,8 @@
       <c r="O34" s="141"/>
       <c r="P34" s="241"/>
       <c r="Q34" s="241"/>
-      <c r="R34" s="264" t="s">
-        <v>777</v>
+      <c r="R34" s="255" t="s">
+        <v>775</v>
       </c>
       <c r="S34" s="198">
         <v>360</v>
@@ -7936,7 +7947,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="213" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="Q48" s="226"/>
       <c r="R48" s="227"/>
@@ -7955,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="AC48" s="213" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AD48" s="228"/>
       <c r="AE48" s="228"/>
@@ -7999,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="209" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q49" s="142"/>
       <c r="R49" s="139"/>
@@ -8058,7 +8069,7 @@
         <v>6</v>
       </c>
       <c r="P50" s="209" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q50" s="143"/>
       <c r="R50" s="143"/>
@@ -8077,7 +8088,7 @@
         <v>9</v>
       </c>
       <c r="AC50" s="210" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AD50" s="174"/>
       <c r="AE50" s="174"/>
@@ -8112,7 +8123,7 @@
         <v>10</v>
       </c>
       <c r="P51" s="209" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q51" s="143"/>
       <c r="R51" s="143"/>
@@ -8155,7 +8166,7 @@
         <v>500</v>
       </c>
       <c r="P52" s="210" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Q52" s="174"/>
       <c r="R52" s="174"/>
@@ -8319,50 +8330,50 @@
       <c r="AQ55" s="115"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="262">
+      <c r="A56" s="264">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="262"/>
-      <c r="C56" s="262"/>
-      <c r="D56" s="262"/>
-      <c r="E56" s="262"/>
-      <c r="F56" s="262"/>
-      <c r="G56" s="262"/>
-      <c r="H56" s="262"/>
-      <c r="I56" s="262"/>
-      <c r="J56" s="262"/>
-      <c r="K56" s="262"/>
-      <c r="L56" s="262"/>
-      <c r="M56" s="262"/>
-      <c r="N56" s="262"/>
-      <c r="O56" s="263"/>
-      <c r="P56" s="262"/>
-      <c r="Q56" s="262"/>
-      <c r="R56" s="262"/>
-      <c r="S56" s="262"/>
-      <c r="T56" s="262"/>
-      <c r="U56" s="262"/>
-      <c r="V56" s="262"/>
-      <c r="W56" s="262"/>
-      <c r="X56" s="262"/>
-      <c r="Y56" s="262"/>
-      <c r="Z56" s="262"/>
-      <c r="AA56" s="262"/>
-      <c r="AB56" s="263"/>
-      <c r="AC56" s="262"/>
-      <c r="AD56" s="262"/>
-      <c r="AE56" s="262"/>
-      <c r="AF56" s="262"/>
-      <c r="AG56" s="262"/>
-      <c r="AH56" s="262"/>
-      <c r="AI56" s="262"/>
-      <c r="AJ56" s="262"/>
-      <c r="AK56" s="262"/>
+      <c r="B56" s="264"/>
+      <c r="C56" s="264"/>
+      <c r="D56" s="264"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="264"/>
+      <c r="G56" s="264"/>
+      <c r="H56" s="264"/>
+      <c r="I56" s="264"/>
+      <c r="J56" s="264"/>
+      <c r="K56" s="264"/>
+      <c r="L56" s="264"/>
+      <c r="M56" s="264"/>
+      <c r="N56" s="264"/>
+      <c r="O56" s="265"/>
+      <c r="P56" s="264"/>
+      <c r="Q56" s="264"/>
+      <c r="R56" s="264"/>
+      <c r="S56" s="264"/>
+      <c r="T56" s="264"/>
+      <c r="U56" s="264"/>
+      <c r="V56" s="264"/>
+      <c r="W56" s="264"/>
+      <c r="X56" s="264"/>
+      <c r="Y56" s="264"/>
+      <c r="Z56" s="264"/>
+      <c r="AA56" s="264"/>
+      <c r="AB56" s="265"/>
+      <c r="AC56" s="264"/>
+      <c r="AD56" s="264"/>
+      <c r="AE56" s="264"/>
+      <c r="AF56" s="264"/>
+      <c r="AG56" s="264"/>
+      <c r="AH56" s="264"/>
+      <c r="AI56" s="264"/>
+      <c r="AJ56" s="264"/>
+      <c r="AK56" s="264"/>
     </row>
     <row r="58" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H58" s="261"/>
-      <c r="I58" s="261"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AA60" s="13"/>
@@ -8380,8 +8391,8 @@
       <c r="AJ66" s="131"/>
     </row>
     <row r="67" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AI67" s="255"/>
-      <c r="AJ67" s="255"/>
+      <c r="AI67" s="257"/>
+      <c r="AJ67" s="257"/>
     </row>
     <row r="68" spans="13:36" x14ac:dyDescent="0.25">
       <c r="AI68" s="113"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3092755-8CA9-4ECF-AE96-0898A32BA76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9EC94-B100-48FC-9D1F-E3D7D5015EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2310,9 +2310,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>S1 FKP</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -2374,7 +2371,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">S1 FKIP           </t>
+      <t xml:space="preserve">S1 FKP    </t>
     </r>
     <r>
       <rPr>
@@ -2383,12 +2380,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Selingan 2</t>
+      <t>Sel 1 setelah no dada 60 putih</t>
     </r>
   </si>
   <si>
+    <t>M. Pendidikan Biologi (MPB)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">M. Pendidikan Biologi (MPB)  </t>
+      <t xml:space="preserve">S1 FKIP    </t>
     </r>
     <r>
       <rPr>
@@ -2397,7 +2397,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Selingan 1</t>
+      <t>Sel 2 setelah no dada 240 putih</t>
     </r>
   </si>
 </sst>
@@ -4058,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A38" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="AC54" sqref="AC54"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4076,7 @@
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="258" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D1" s="259"/>
       <c r="E1" s="259"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="230" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D7" s="190" t="s">
         <v>10</v>
@@ -4836,7 +4836,7 @@
         <v>59</v>
       </c>
       <c r="AR9" s="248" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS9" s="51">
         <v>3</v>
@@ -4852,7 +4852,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="232" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E10" s="191" t="s">
         <v>87</v>
@@ -4870,10 +4870,10 @@
         <v>91</v>
       </c>
       <c r="J10" s="253" t="s">
+        <v>771</v>
+      </c>
+      <c r="K10" s="233" t="s">
         <v>772</v>
-      </c>
-      <c r="K10" s="233" t="s">
-        <v>773</v>
       </c>
       <c r="L10" s="197" t="s">
         <v>94</v>
@@ -4891,7 +4891,7 @@
         <v>98</v>
       </c>
       <c r="Q10" s="235" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R10" s="234" t="s">
         <v>100</v>
@@ -6030,7 +6030,7 @@
         <v>268</v>
       </c>
       <c r="AR18" s="248" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AS18" s="51">
         <v>12</v>
@@ -6926,7 +6926,7 @@
         <v>326</v>
       </c>
       <c r="S29" s="256" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T29" s="238" t="s">
         <v>364</v>
@@ -7311,7 +7311,7 @@
       <c r="P34" s="241"/>
       <c r="Q34" s="241"/>
       <c r="R34" s="255" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S34" s="198">
         <v>360</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A48" s="221" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B48" s="223"/>
       <c r="C48" s="222"/>
@@ -7941,13 +7941,13 @@
       <c r="L48" s="176"/>
       <c r="M48" s="176"/>
       <c r="N48" s="225" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O48" s="203">
         <v>6</v>
       </c>
       <c r="P48" s="213" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q48" s="226"/>
       <c r="R48" s="227"/>
@@ -7960,13 +7960,13 @@
       <c r="Y48" s="143"/>
       <c r="Z48" s="115"/>
       <c r="AA48" s="224" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB48" s="214">
         <v>1</v>
       </c>
       <c r="AC48" s="213" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AD48" s="228"/>
       <c r="AE48" s="228"/>
@@ -7985,13 +7985,13 @@
     </row>
     <row r="49" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A49" s="218" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B49" s="202">
         <v>120</v>
       </c>
       <c r="C49" s="170" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="D49" s="176"/>
       <c r="E49" s="176"/>
@@ -8004,13 +8004,13 @@
       <c r="L49" s="176"/>
       <c r="M49" s="176"/>
       <c r="N49" s="217" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O49" s="254">
         <v>1</v>
       </c>
       <c r="P49" s="209" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q49" s="142"/>
       <c r="R49" s="139"/>
@@ -8023,13 +8023,13 @@
       <c r="Y49" s="143"/>
       <c r="Z49" s="115"/>
       <c r="AA49" s="207" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AB49" s="208">
         <v>66</v>
       </c>
       <c r="AC49" s="209" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AD49" s="143"/>
       <c r="AE49" s="143"/>
@@ -8063,13 +8063,13 @@
       <c r="L50" s="170"/>
       <c r="M50" s="170"/>
       <c r="N50" s="217" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O50" s="211">
         <v>6</v>
       </c>
       <c r="P50" s="209" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q50" s="143"/>
       <c r="R50" s="143"/>
@@ -8082,13 +8082,13 @@
       <c r="Y50" s="143"/>
       <c r="Z50" s="115"/>
       <c r="AA50" s="229" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AB50" s="236">
         <v>9</v>
       </c>
       <c r="AC50" s="210" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AD50" s="174"/>
       <c r="AE50" s="174"/>
@@ -8123,7 +8123,7 @@
         <v>10</v>
       </c>
       <c r="P51" s="209" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q51" s="143"/>
       <c r="R51" s="143"/>
@@ -8166,7 +8166,7 @@
         <v>500</v>
       </c>
       <c r="P52" s="210" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q52" s="174"/>
       <c r="R52" s="174"/>

--- a/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
+++ b/KURSIWIS. JUM'AT 22 NOVEMBER 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdeaCentre 300 20ISH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9EC94-B100-48FC-9D1F-E3D7D5015EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC1BA24-103D-448F-ACCD-BF0676D1CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV 2024" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11212" uniqueCount="779">
   <si>
     <t>DENAH TEMPAT DUDUK WISUDAWAN, SABTU 8 AGUSTUS 2009</t>
   </si>
@@ -2365,23 +2365,6 @@
   </si>
   <si>
     <t>MKMV</t>
-  </si>
-  <si>
-    <t>Sel2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">S1 FKP    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sel 1 setelah no dada 60 putih</t>
-    </r>
   </si>
   <si>
     <t>M. Pendidikan Biologi (MPB)</t>
@@ -2397,8 +2380,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Sel 2 setelah no dada 240 putih</t>
+      <t>Sel 1 setelah no dada 140 putih</t>
     </r>
+  </si>
+  <si>
+    <t>S1 FKP</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3118,24 +3104,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3681,9 +3654,6 @@
     <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3695,9 +3665,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3738,6 +3705,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3770,9 +3740,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3810,9 +3780,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3845,9 +3815,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3880,9 +3867,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4058,119 +4062,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="108" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" customWidth="1"/>
-    <col min="2" max="22" width="2.81640625" customWidth="1"/>
-    <col min="23" max="23" width="1.36328125" customWidth="1"/>
-    <col min="24" max="43" width="2.81640625" customWidth="1"/>
-    <col min="44" max="44" width="2.90625" customWidth="1"/>
-    <col min="45" max="45" width="3.6328125" style="180" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="22" width="2.77734375" customWidth="1"/>
+    <col min="23" max="23" width="1.33203125" customWidth="1"/>
+    <col min="24" max="43" width="2.77734375" customWidth="1"/>
+    <col min="44" max="44" width="2.88671875" customWidth="1"/>
+    <col min="45" max="45" width="3.6640625" style="180" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
-      <c r="C1" s="258" t="s">
+      <c r="C1" s="256" t="s">
         <v>761</v>
       </c>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="259"/>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="259"/>
-      <c r="AA1" s="259"/>
-      <c r="AB1" s="259"/>
-      <c r="AC1" s="259"/>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="259"/>
-      <c r="AG1" s="259"/>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="259"/>
-      <c r="AJ1" s="259"/>
-      <c r="AK1" s="259"/>
-      <c r="AL1" s="259"/>
-      <c r="AM1" s="259"/>
-      <c r="AN1" s="259"/>
-      <c r="AO1" s="259"/>
-      <c r="AP1" s="259"/>
-      <c r="AQ1" s="260"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
+      <c r="L1" s="257"/>
+      <c r="M1" s="257"/>
+      <c r="N1" s="257"/>
+      <c r="O1" s="257"/>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="257"/>
+      <c r="AB1" s="257"/>
+      <c r="AC1" s="257"/>
+      <c r="AD1" s="257"/>
+      <c r="AE1" s="257"/>
+      <c r="AF1" s="257"/>
+      <c r="AG1" s="257"/>
+      <c r="AH1" s="257"/>
+      <c r="AI1" s="257"/>
+      <c r="AJ1" s="257"/>
+      <c r="AK1" s="257"/>
+      <c r="AL1" s="257"/>
+      <c r="AM1" s="257"/>
+      <c r="AN1" s="257"/>
+      <c r="AO1" s="257"/>
+      <c r="AP1" s="257"/>
+      <c r="AQ1" s="258"/>
       <c r="AR1" s="33"/>
       <c r="AS1" s="178"/>
     </row>
-    <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="128"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="261" t="s">
+      <c r="E2" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="261"/>
-      <c r="P2" s="261"/>
-      <c r="Q2" s="261"/>
-      <c r="R2" s="261"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="261"/>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="261"/>
-      <c r="AD2" s="261"/>
-      <c r="AE2" s="261"/>
-      <c r="AF2" s="261"/>
-      <c r="AG2" s="261"/>
-      <c r="AH2" s="261"/>
-      <c r="AI2" s="261"/>
-      <c r="AJ2" s="261"/>
-      <c r="AK2" s="261"/>
-      <c r="AL2" s="261"/>
-      <c r="AM2" s="261"/>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
+      <c r="F2" s="259"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
+      <c r="I2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="259"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="259"/>
+      <c r="N2" s="259"/>
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="259"/>
+      <c r="AA2" s="259"/>
+      <c r="AB2" s="259"/>
+      <c r="AC2" s="259"/>
+      <c r="AD2" s="259"/>
+      <c r="AE2" s="259"/>
+      <c r="AF2" s="259"/>
+      <c r="AG2" s="259"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="259"/>
+      <c r="AJ2" s="259"/>
+      <c r="AK2" s="259"/>
+      <c r="AL2" s="259"/>
+      <c r="AM2" s="259"/>
+      <c r="AN2" s="259"/>
+      <c r="AO2" s="259"/>
       <c r="AP2" s="129"/>
       <c r="AQ2" s="130"/>
       <c r="AR2" s="33"/>
       <c r="AS2" s="178"/>
     </row>
-    <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="120"/>
@@ -4267,7 +4271,7 @@
       <c r="AQ4" s="116"/>
       <c r="AS4" s="178"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="133" t="s">
         <v>4</v>
       </c>
@@ -4398,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="182"/>
       <c r="B6" s="47"/>
       <c r="C6" s="51"/>
@@ -4445,7 +4449,7 @@
       <c r="AR6" s="47"/>
       <c r="AS6" s="178"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="133">
         <v>1</v>
       </c>
@@ -4577,7 +4581,7 @@
       </c>
       <c r="AT7" s="13"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="183">
         <v>2</v>
       </c>
@@ -4709,7 +4713,7 @@
       </c>
       <c r="AT8" s="13"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="133">
         <v>3</v>
       </c>
@@ -4832,18 +4836,16 @@
       <c r="AP9" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="247" t="s">
+      <c r="AQ9" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="248" t="s">
-        <v>760</v>
-      </c>
+      <c r="AR9" s="264"/>
       <c r="AS9" s="51">
         <v>3</v>
       </c>
       <c r="AT9" s="13"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="133">
         <v>4</v>
       </c>
@@ -4869,7 +4871,7 @@
       <c r="I10" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="253" t="s">
+      <c r="J10" s="251" t="s">
         <v>771</v>
       </c>
       <c r="K10" s="233" t="s">
@@ -4921,52 +4923,52 @@
       <c r="AA10" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="AB10" s="249" t="s">
+      <c r="AB10" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="AC10" s="250" t="s">
+      <c r="AC10" s="249" t="s">
         <v>99</v>
       </c>
-      <c r="AD10" s="250" t="s">
+      <c r="AD10" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="250" t="s">
+      <c r="AE10" s="249" t="s">
         <v>97</v>
       </c>
-      <c r="AF10" s="250" t="s">
+      <c r="AF10" s="249" t="s">
         <v>96</v>
       </c>
-      <c r="AG10" s="250" t="s">
+      <c r="AG10" s="249" t="s">
         <v>95</v>
       </c>
-      <c r="AH10" s="250" t="s">
+      <c r="AH10" s="249" t="s">
         <v>94</v>
       </c>
-      <c r="AI10" s="250" t="s">
+      <c r="AI10" s="249" t="s">
         <v>93</v>
       </c>
-      <c r="AJ10" s="250" t="s">
+      <c r="AJ10" s="249" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="250" t="s">
+      <c r="AK10" s="249" t="s">
         <v>91</v>
       </c>
-      <c r="AL10" s="250" t="s">
+      <c r="AL10" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="AM10" s="250" t="s">
+      <c r="AM10" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="AN10" s="250" t="s">
+      <c r="AN10" s="249" t="s">
         <v>88</v>
       </c>
-      <c r="AO10" s="250" t="s">
+      <c r="AO10" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="AP10" s="250" t="s">
+      <c r="AP10" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="AQ10" s="250" t="s">
+      <c r="AQ10" s="249" t="s">
         <v>85</v>
       </c>
       <c r="AR10" s="169" t="s">
@@ -4977,130 +4979,130 @@
       </c>
       <c r="AT10" s="13"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="133">
         <v>5</v>
       </c>
       <c r="B11" s="115"/>
-      <c r="C11" s="250">
+      <c r="C11" s="249">
         <v>100</v>
       </c>
-      <c r="D11" s="250" t="s">
+      <c r="D11" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="250" t="s">
+      <c r="E11" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="250" t="s">
+      <c r="F11" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="250" t="s">
+      <c r="G11" s="249" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="250" t="s">
+      <c r="H11" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="250" t="s">
+      <c r="I11" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="250" t="s">
+      <c r="J11" s="249" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="250" t="s">
+      <c r="K11" s="249" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="250" t="s">
+      <c r="L11" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="250" t="s">
+      <c r="M11" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="N11" s="250" t="s">
+      <c r="N11" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="250" t="s">
+      <c r="O11" s="249" t="s">
         <v>120</v>
       </c>
-      <c r="P11" s="250" t="s">
+      <c r="P11" s="249" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="250" t="s">
+      <c r="Q11" s="249" t="s">
         <v>122</v>
       </c>
-      <c r="R11" s="250" t="s">
+      <c r="R11" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="S11" s="250" t="s">
+      <c r="S11" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="250" t="s">
+      <c r="T11" s="249" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="250" t="s">
+      <c r="U11" s="249" t="s">
         <v>83</v>
       </c>
-      <c r="V11" s="250" t="s">
+      <c r="V11" s="249" t="s">
         <v>84</v>
       </c>
       <c r="W11" s="137"/>
-      <c r="X11" s="250" t="s">
+      <c r="X11" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="Y11" s="250" t="s">
+      <c r="Y11" s="249" t="s">
         <v>83</v>
       </c>
-      <c r="Z11" s="250" t="s">
+      <c r="Z11" s="249" t="s">
         <v>82</v>
       </c>
-      <c r="AA11" s="250" t="s">
+      <c r="AA11" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="AB11" s="250" t="s">
+      <c r="AB11" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="AC11" s="250" t="s">
+      <c r="AC11" s="249" t="s">
         <v>122</v>
       </c>
-      <c r="AD11" s="250" t="s">
+      <c r="AD11" s="249" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="250" t="s">
+      <c r="AE11" s="249" t="s">
         <v>120</v>
       </c>
-      <c r="AF11" s="250" t="s">
+      <c r="AF11" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="250" t="s">
+      <c r="AG11" s="249" t="s">
         <v>118</v>
       </c>
-      <c r="AH11" s="250" t="s">
+      <c r="AH11" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="AI11" s="250" t="s">
+      <c r="AI11" s="249" t="s">
         <v>116</v>
       </c>
-      <c r="AJ11" s="250" t="s">
+      <c r="AJ11" s="249" t="s">
         <v>115</v>
       </c>
-      <c r="AK11" s="250" t="s">
+      <c r="AK11" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="AL11" s="250" t="s">
+      <c r="AL11" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="AM11" s="250" t="s">
+      <c r="AM11" s="249" t="s">
         <v>112</v>
       </c>
-      <c r="AN11" s="250" t="s">
+      <c r="AN11" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="AO11" s="250" t="s">
+      <c r="AO11" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" s="250" t="s">
+      <c r="AP11" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="AQ11" s="250" t="s">
+      <c r="AQ11" s="249" t="s">
         <v>108</v>
       </c>
       <c r="AR11" s="194" t="s">
@@ -5111,130 +5113,130 @@
       </c>
       <c r="AT11" s="13"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="133">
         <v>6</v>
       </c>
       <c r="B12" s="237"/>
-      <c r="C12" s="250">
+      <c r="C12" s="249">
         <v>120</v>
       </c>
-      <c r="D12" s="250">
+      <c r="D12" s="249">
         <v>119</v>
       </c>
-      <c r="E12" s="250">
+      <c r="E12" s="249">
         <v>118</v>
       </c>
-      <c r="F12" s="250">
+      <c r="F12" s="249">
         <v>117</v>
       </c>
-      <c r="G12" s="250">
+      <c r="G12" s="249">
         <v>116</v>
       </c>
-      <c r="H12" s="250">
+      <c r="H12" s="249">
         <v>115</v>
       </c>
-      <c r="I12" s="250">
+      <c r="I12" s="249">
         <v>114</v>
       </c>
-      <c r="J12" s="250">
+      <c r="J12" s="249">
         <v>113</v>
       </c>
-      <c r="K12" s="250">
+      <c r="K12" s="249">
         <v>112</v>
       </c>
-      <c r="L12" s="250">
+      <c r="L12" s="249">
         <v>111</v>
       </c>
-      <c r="M12" s="250">
+      <c r="M12" s="249">
         <v>110</v>
       </c>
-      <c r="N12" s="250">
+      <c r="N12" s="249">
         <v>109</v>
       </c>
-      <c r="O12" s="250">
+      <c r="O12" s="249">
         <v>108</v>
       </c>
-      <c r="P12" s="250">
+      <c r="P12" s="249">
         <v>107</v>
       </c>
-      <c r="Q12" s="250">
+      <c r="Q12" s="249">
         <v>106</v>
       </c>
-      <c r="R12" s="250">
+      <c r="R12" s="249">
         <v>105</v>
       </c>
-      <c r="S12" s="250">
+      <c r="S12" s="249">
         <v>104</v>
       </c>
-      <c r="T12" s="250">
+      <c r="T12" s="249">
         <v>103</v>
       </c>
-      <c r="U12" s="250">
+      <c r="U12" s="249">
         <v>102</v>
       </c>
-      <c r="V12" s="250">
+      <c r="V12" s="249">
         <v>101</v>
       </c>
       <c r="W12" s="183"/>
-      <c r="X12" s="250">
+      <c r="X12" s="249">
         <v>101</v>
       </c>
-      <c r="Y12" s="250" t="s">
+      <c r="Y12" s="249" t="s">
         <v>106</v>
       </c>
-      <c r="Z12" s="250">
+      <c r="Z12" s="249">
         <v>102</v>
       </c>
-      <c r="AA12" s="250" t="s">
+      <c r="AA12" s="249" t="s">
         <v>105</v>
       </c>
-      <c r="AB12" s="250">
+      <c r="AB12" s="249">
         <v>103</v>
       </c>
-      <c r="AC12" s="250" t="s">
+      <c r="AC12" s="249" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="250">
+      <c r="AD12" s="249">
         <v>104</v>
       </c>
-      <c r="AE12" s="250" t="s">
+      <c r="AE12" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="AF12" s="250">
+      <c r="AF12" s="249">
         <v>105</v>
       </c>
-      <c r="AG12" s="250" t="s">
+      <c r="AG12" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="AH12" s="250">
+      <c r="AH12" s="249">
         <v>106</v>
       </c>
-      <c r="AI12" s="250" t="s">
+      <c r="AI12" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="AJ12" s="250">
+      <c r="AJ12" s="249">
         <v>107</v>
       </c>
-      <c r="AK12" s="250" t="s">
+      <c r="AK12" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="AL12" s="250">
+      <c r="AL12" s="249">
         <v>108</v>
       </c>
-      <c r="AM12" s="250" t="s">
+      <c r="AM12" s="249" t="s">
         <v>141</v>
       </c>
-      <c r="AN12" s="250">
+      <c r="AN12" s="249">
         <v>109</v>
       </c>
-      <c r="AO12" s="250" t="s">
+      <c r="AO12" s="249" t="s">
         <v>140</v>
       </c>
-      <c r="AP12" s="250">
+      <c r="AP12" s="249">
         <v>110</v>
       </c>
-      <c r="AQ12" s="250" t="s">
+      <c r="AQ12" s="249" t="s">
         <v>139</v>
       </c>
       <c r="AR12" s="119"/>
@@ -5243,262 +5245,264 @@
       </c>
       <c r="AT12" s="13"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="133">
         <v>7</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="250">
+      <c r="C13" s="249">
         <v>140</v>
       </c>
-      <c r="D13" s="250">
+      <c r="D13" s="249">
         <v>139</v>
       </c>
-      <c r="E13" s="250">
+      <c r="E13" s="249">
         <v>138</v>
       </c>
-      <c r="F13" s="250">
+      <c r="F13" s="249">
         <v>137</v>
       </c>
-      <c r="G13" s="250">
+      <c r="G13" s="249">
         <v>136</v>
       </c>
-      <c r="H13" s="250">
+      <c r="H13" s="249">
         <v>135</v>
       </c>
-      <c r="I13" s="250">
+      <c r="I13" s="249">
         <v>134</v>
       </c>
-      <c r="J13" s="250">
+      <c r="J13" s="249">
         <v>133</v>
       </c>
-      <c r="K13" s="250">
+      <c r="K13" s="249">
         <v>132</v>
       </c>
-      <c r="L13" s="250">
+      <c r="L13" s="249">
         <v>131</v>
       </c>
-      <c r="M13" s="250">
+      <c r="M13" s="249">
         <v>130</v>
       </c>
-      <c r="N13" s="250">
+      <c r="N13" s="249">
         <v>129</v>
       </c>
-      <c r="O13" s="250">
+      <c r="O13" s="249">
         <v>128</v>
       </c>
-      <c r="P13" s="250">
+      <c r="P13" s="249">
         <v>127</v>
       </c>
-      <c r="Q13" s="250">
+      <c r="Q13" s="249">
         <v>126</v>
       </c>
-      <c r="R13" s="250">
+      <c r="R13" s="249">
         <v>125</v>
       </c>
-      <c r="S13" s="250">
+      <c r="S13" s="249">
         <v>124</v>
       </c>
-      <c r="T13" s="250">
+      <c r="T13" s="249">
         <v>123</v>
       </c>
-      <c r="U13" s="250">
+      <c r="U13" s="249">
         <v>122</v>
       </c>
-      <c r="V13" s="250">
+      <c r="V13" s="249">
         <v>121</v>
       </c>
       <c r="W13" s="137"/>
-      <c r="X13" s="250">
+      <c r="X13" s="249">
         <v>121</v>
       </c>
-      <c r="Y13" s="250">
+      <c r="Y13" s="249">
         <v>122</v>
       </c>
-      <c r="Z13" s="250">
+      <c r="Z13" s="249">
         <v>123</v>
       </c>
-      <c r="AA13" s="250">
+      <c r="AA13" s="249">
         <v>124</v>
       </c>
-      <c r="AB13" s="250">
+      <c r="AB13" s="249">
         <v>125</v>
       </c>
-      <c r="AC13" s="250">
+      <c r="AC13" s="249">
         <v>126</v>
       </c>
-      <c r="AD13" s="250">
+      <c r="AD13" s="249">
         <v>127</v>
       </c>
-      <c r="AE13" s="250">
+      <c r="AE13" s="249">
         <v>128</v>
       </c>
-      <c r="AF13" s="250">
+      <c r="AF13" s="249">
         <v>129</v>
       </c>
-      <c r="AG13" s="250">
+      <c r="AG13" s="249">
         <v>130</v>
       </c>
-      <c r="AH13" s="250">
+      <c r="AH13" s="249">
         <v>131</v>
       </c>
-      <c r="AI13" s="250">
+      <c r="AI13" s="249">
         <v>132</v>
       </c>
-      <c r="AJ13" s="250">
+      <c r="AJ13" s="249">
         <v>133</v>
       </c>
-      <c r="AK13" s="250">
+      <c r="AK13" s="249">
         <v>134</v>
       </c>
-      <c r="AL13" s="250">
+      <c r="AL13" s="249">
         <v>135</v>
       </c>
-      <c r="AM13" s="250">
+      <c r="AM13" s="249">
         <v>136</v>
       </c>
-      <c r="AN13" s="250">
+      <c r="AN13" s="249">
         <v>137</v>
       </c>
-      <c r="AO13" s="250">
+      <c r="AO13" s="249">
         <v>138</v>
       </c>
-      <c r="AP13" s="250">
+      <c r="AP13" s="249">
         <v>139</v>
       </c>
-      <c r="AQ13" s="250">
+      <c r="AQ13" s="249">
         <v>140</v>
       </c>
-      <c r="AR13" s="119"/>
+      <c r="AR13" s="247" t="s">
+        <v>760</v>
+      </c>
       <c r="AS13" s="51">
         <v>7</v>
       </c>
       <c r="AT13" s="13"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="133">
         <v>8</v>
       </c>
       <c r="B14" s="119"/>
-      <c r="C14" s="250">
+      <c r="C14" s="249">
         <v>160</v>
       </c>
-      <c r="D14" s="250">
+      <c r="D14" s="249">
         <v>159</v>
       </c>
-      <c r="E14" s="250">
+      <c r="E14" s="249">
         <v>158</v>
       </c>
-      <c r="F14" s="250">
+      <c r="F14" s="249">
         <v>157</v>
       </c>
-      <c r="G14" s="250">
+      <c r="G14" s="249">
         <v>156</v>
       </c>
-      <c r="H14" s="250">
+      <c r="H14" s="249">
         <v>155</v>
       </c>
-      <c r="I14" s="250">
+      <c r="I14" s="249">
         <v>154</v>
       </c>
-      <c r="J14" s="250">
+      <c r="J14" s="249">
         <v>153</v>
       </c>
-      <c r="K14" s="250">
+      <c r="K14" s="249">
         <v>152</v>
       </c>
-      <c r="L14" s="250">
+      <c r="L14" s="249">
         <v>151</v>
       </c>
-      <c r="M14" s="250">
+      <c r="M14" s="249">
         <v>150</v>
       </c>
-      <c r="N14" s="250">
+      <c r="N14" s="249">
         <v>149</v>
       </c>
-      <c r="O14" s="250">
+      <c r="O14" s="249">
         <v>148</v>
       </c>
-      <c r="P14" s="250">
+      <c r="P14" s="249">
         <v>147</v>
       </c>
-      <c r="Q14" s="250">
+      <c r="Q14" s="249">
         <v>146</v>
       </c>
-      <c r="R14" s="250">
+      <c r="R14" s="249">
         <v>145</v>
       </c>
-      <c r="S14" s="250">
+      <c r="S14" s="249">
         <v>144</v>
       </c>
-      <c r="T14" s="250">
+      <c r="T14" s="249">
         <v>143</v>
       </c>
-      <c r="U14" s="250">
+      <c r="U14" s="249">
         <v>142</v>
       </c>
-      <c r="V14" s="250">
+      <c r="V14" s="249">
         <v>141</v>
       </c>
       <c r="W14" s="137"/>
-      <c r="X14" s="250" t="s">
+      <c r="X14" s="249" t="s">
         <v>153</v>
       </c>
-      <c r="Y14" s="250" t="s">
+      <c r="Y14" s="249" t="s">
         <v>152</v>
       </c>
-      <c r="Z14" s="250" t="s">
+      <c r="Z14" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="250" t="s">
+      <c r="AA14" s="249" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="250" t="s">
+      <c r="AB14" s="249" t="s">
         <v>149</v>
       </c>
-      <c r="AC14" s="250" t="s">
+      <c r="AC14" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="AD14" s="250" t="s">
+      <c r="AD14" s="249" t="s">
         <v>147</v>
       </c>
-      <c r="AE14" s="250" t="s">
+      <c r="AE14" s="249" t="s">
         <v>188</v>
       </c>
-      <c r="AF14" s="250" t="s">
+      <c r="AF14" s="249" t="s">
         <v>187</v>
       </c>
-      <c r="AG14" s="250" t="s">
+      <c r="AG14" s="249" t="s">
         <v>186</v>
       </c>
-      <c r="AH14" s="250" t="s">
+      <c r="AH14" s="249" t="s">
         <v>185</v>
       </c>
-      <c r="AI14" s="250" t="s">
+      <c r="AI14" s="249" t="s">
         <v>184</v>
       </c>
-      <c r="AJ14" s="250" t="s">
+      <c r="AJ14" s="249" t="s">
         <v>183</v>
       </c>
-      <c r="AK14" s="250" t="s">
+      <c r="AK14" s="249" t="s">
         <v>182</v>
       </c>
-      <c r="AL14" s="250" t="s">
+      <c r="AL14" s="249" t="s">
         <v>181</v>
       </c>
-      <c r="AM14" s="250" t="s">
+      <c r="AM14" s="249" t="s">
         <v>180</v>
       </c>
-      <c r="AN14" s="250" t="s">
+      <c r="AN14" s="249" t="s">
         <v>179</v>
       </c>
-      <c r="AO14" s="250" t="s">
+      <c r="AO14" s="249" t="s">
         <v>178</v>
       </c>
-      <c r="AP14" s="250" t="s">
+      <c r="AP14" s="249" t="s">
         <v>177</v>
       </c>
-      <c r="AQ14" s="250" t="s">
+      <c r="AQ14" s="249" t="s">
         <v>176</v>
       </c>
       <c r="AR14" s="119"/>
@@ -5507,130 +5511,130 @@
       </c>
       <c r="AT14" s="13"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="133">
         <v>9</v>
       </c>
       <c r="B15" s="119"/>
-      <c r="C15" s="250" t="s">
+      <c r="C15" s="249" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="250" t="s">
+      <c r="D15" s="249" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="250" t="s">
+      <c r="E15" s="249" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="250" t="s">
+      <c r="F15" s="249" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="250" t="s">
+      <c r="G15" s="249" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="250" t="s">
+      <c r="H15" s="249" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="250" t="s">
+      <c r="I15" s="249" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="250" t="s">
+      <c r="J15" s="249" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="250" t="s">
+      <c r="K15" s="249" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="250" t="s">
+      <c r="L15" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="250" t="s">
+      <c r="M15" s="249" t="s">
         <v>208</v>
       </c>
-      <c r="N15" s="250" t="s">
+      <c r="N15" s="249" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="250" t="s">
+      <c r="O15" s="249" t="s">
         <v>168</v>
       </c>
-      <c r="P15" s="250" t="s">
+      <c r="P15" s="249" t="s">
         <v>169</v>
       </c>
-      <c r="Q15" s="250" t="s">
+      <c r="Q15" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="R15" s="250" t="s">
+      <c r="R15" s="249" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="250" t="s">
+      <c r="S15" s="249" t="s">
         <v>172</v>
       </c>
-      <c r="T15" s="250" t="s">
+      <c r="T15" s="249" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="250" t="s">
+      <c r="U15" s="249" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="250" t="s">
+      <c r="V15" s="249" t="s">
         <v>175</v>
       </c>
       <c r="W15" s="137"/>
-      <c r="X15" s="250" t="s">
+      <c r="X15" s="249" t="s">
         <v>175</v>
       </c>
-      <c r="Y15" s="250" t="s">
+      <c r="Y15" s="249" t="s">
         <v>174</v>
       </c>
-      <c r="Z15" s="250" t="s">
+      <c r="Z15" s="249" t="s">
         <v>173</v>
       </c>
-      <c r="AA15" s="250" t="s">
+      <c r="AA15" s="249" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="250" t="s">
+      <c r="AB15" s="249" t="s">
         <v>171</v>
       </c>
-      <c r="AC15" s="250" t="s">
+      <c r="AC15" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="AD15" s="250" t="s">
+      <c r="AD15" s="249" t="s">
         <v>169</v>
       </c>
-      <c r="AE15" s="250" t="s">
+      <c r="AE15" s="249" t="s">
         <v>168</v>
       </c>
-      <c r="AF15" s="250" t="s">
+      <c r="AF15" s="249" t="s">
         <v>209</v>
       </c>
-      <c r="AG15" s="250" t="s">
+      <c r="AG15" s="249" t="s">
         <v>208</v>
       </c>
-      <c r="AH15" s="250" t="s">
+      <c r="AH15" s="249" t="s">
         <v>207</v>
       </c>
-      <c r="AI15" s="250" t="s">
+      <c r="AI15" s="249" t="s">
         <v>206</v>
       </c>
-      <c r="AJ15" s="250" t="s">
+      <c r="AJ15" s="249" t="s">
         <v>205</v>
       </c>
-      <c r="AK15" s="250" t="s">
+      <c r="AK15" s="249" t="s">
         <v>204</v>
       </c>
-      <c r="AL15" s="250" t="s">
+      <c r="AL15" s="249" t="s">
         <v>203</v>
       </c>
-      <c r="AM15" s="250" t="s">
+      <c r="AM15" s="249" t="s">
         <v>202</v>
       </c>
-      <c r="AN15" s="250" t="s">
+      <c r="AN15" s="249" t="s">
         <v>201</v>
       </c>
-      <c r="AO15" s="250" t="s">
+      <c r="AO15" s="249" t="s">
         <v>200</v>
       </c>
-      <c r="AP15" s="250" t="s">
+      <c r="AP15" s="249" t="s">
         <v>199</v>
       </c>
-      <c r="AQ15" s="250" t="s">
+      <c r="AQ15" s="249" t="s">
         <v>198</v>
       </c>
       <c r="AR15" s="123"/>
@@ -5639,130 +5643,130 @@
       </c>
       <c r="AT15" s="13"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="133">
         <v>10</v>
       </c>
       <c r="B16" s="124"/>
-      <c r="C16" s="250">
+      <c r="C16" s="249">
         <v>200</v>
       </c>
-      <c r="D16" s="250">
+      <c r="D16" s="249">
         <v>199</v>
       </c>
-      <c r="E16" s="250" t="s">
+      <c r="E16" s="249" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="250" t="s">
+      <c r="F16" s="249" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="250" t="s">
+      <c r="G16" s="249" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="250" t="s">
+      <c r="H16" s="249" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="250" t="s">
+      <c r="I16" s="249" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="250" t="s">
+      <c r="J16" s="249" t="s">
         <v>229</v>
       </c>
-      <c r="K16" s="250" t="s">
+      <c r="K16" s="249" t="s">
         <v>230</v>
       </c>
-      <c r="L16" s="250" t="s">
+      <c r="L16" s="249" t="s">
         <v>231</v>
       </c>
-      <c r="M16" s="250" t="s">
+      <c r="M16" s="249" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="250" t="s">
+      <c r="N16" s="249" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="250" t="s">
+      <c r="O16" s="249" t="s">
         <v>190</v>
       </c>
-      <c r="P16" s="250" t="s">
+      <c r="P16" s="249" t="s">
         <v>191</v>
       </c>
-      <c r="Q16" s="250" t="s">
+      <c r="Q16" s="249" t="s">
         <v>192</v>
       </c>
-      <c r="R16" s="250" t="s">
+      <c r="R16" s="249" t="s">
         <v>193</v>
       </c>
-      <c r="S16" s="250" t="s">
+      <c r="S16" s="249" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="250" t="s">
+      <c r="T16" s="249" t="s">
         <v>195</v>
       </c>
-      <c r="U16" s="250" t="s">
+      <c r="U16" s="249" t="s">
         <v>196</v>
       </c>
-      <c r="V16" s="250" t="s">
+      <c r="V16" s="249" t="s">
         <v>197</v>
       </c>
       <c r="W16" s="150"/>
-      <c r="X16" s="250">
+      <c r="X16" s="249">
         <v>181</v>
       </c>
-      <c r="Y16" s="250">
+      <c r="Y16" s="249">
         <v>182</v>
       </c>
-      <c r="Z16" s="250">
+      <c r="Z16" s="249">
         <v>183</v>
       </c>
-      <c r="AA16" s="250">
+      <c r="AA16" s="249">
         <v>184</v>
       </c>
-      <c r="AB16" s="250">
+      <c r="AB16" s="249">
         <v>185</v>
       </c>
-      <c r="AC16" s="250">
+      <c r="AC16" s="249">
         <v>186</v>
       </c>
-      <c r="AD16" s="250">
+      <c r="AD16" s="249">
         <v>187</v>
       </c>
-      <c r="AE16" s="250">
+      <c r="AE16" s="249">
         <v>188</v>
       </c>
-      <c r="AF16" s="250">
+      <c r="AF16" s="249">
         <v>189</v>
       </c>
-      <c r="AG16" s="250">
+      <c r="AG16" s="249">
         <v>190</v>
       </c>
-      <c r="AH16" s="250">
+      <c r="AH16" s="249">
         <v>191</v>
       </c>
-      <c r="AI16" s="250">
+      <c r="AI16" s="249">
         <v>192</v>
       </c>
-      <c r="AJ16" s="250">
+      <c r="AJ16" s="249">
         <v>193</v>
       </c>
-      <c r="AK16" s="250">
+      <c r="AK16" s="249">
         <v>194</v>
       </c>
-      <c r="AL16" s="250">
+      <c r="AL16" s="249">
         <v>195</v>
       </c>
-      <c r="AM16" s="250">
+      <c r="AM16" s="249">
         <v>196</v>
       </c>
-      <c r="AN16" s="250">
+      <c r="AN16" s="249">
         <v>197</v>
       </c>
-      <c r="AO16" s="250">
+      <c r="AO16" s="249">
         <v>198</v>
       </c>
-      <c r="AP16" s="250">
+      <c r="AP16" s="249">
         <v>199</v>
       </c>
-      <c r="AQ16" s="250">
+      <c r="AQ16" s="249">
         <v>200</v>
       </c>
       <c r="AR16" s="119"/>
@@ -5771,130 +5775,130 @@
       </c>
       <c r="AT16" s="13"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="133">
         <v>11</v>
       </c>
       <c r="B17" s="119"/>
-      <c r="C17" s="250">
+      <c r="C17" s="249">
         <v>220</v>
       </c>
-      <c r="D17" s="250">
+      <c r="D17" s="249">
         <v>219</v>
       </c>
-      <c r="E17" s="250">
+      <c r="E17" s="249">
         <v>218</v>
       </c>
-      <c r="F17" s="250">
+      <c r="F17" s="249">
         <v>217</v>
       </c>
-      <c r="G17" s="250">
+      <c r="G17" s="249">
         <v>216</v>
       </c>
-      <c r="H17" s="250">
+      <c r="H17" s="249">
         <v>215</v>
       </c>
-      <c r="I17" s="250">
+      <c r="I17" s="249">
         <v>214</v>
       </c>
-      <c r="J17" s="250">
+      <c r="J17" s="249">
         <v>213</v>
       </c>
-      <c r="K17" s="250">
+      <c r="K17" s="249">
         <v>212</v>
       </c>
-      <c r="L17" s="250">
+      <c r="L17" s="249">
         <v>211</v>
       </c>
-      <c r="M17" s="250">
+      <c r="M17" s="249">
         <v>210</v>
       </c>
-      <c r="N17" s="250">
+      <c r="N17" s="249">
         <v>209</v>
       </c>
-      <c r="O17" s="250">
+      <c r="O17" s="249">
         <v>208</v>
       </c>
-      <c r="P17" s="250">
+      <c r="P17" s="249">
         <v>207</v>
       </c>
-      <c r="Q17" s="250">
+      <c r="Q17" s="249">
         <v>206</v>
       </c>
-      <c r="R17" s="250">
+      <c r="R17" s="249">
         <v>205</v>
       </c>
-      <c r="S17" s="250">
+      <c r="S17" s="249">
         <v>204</v>
       </c>
-      <c r="T17" s="250">
+      <c r="T17" s="249">
         <v>203</v>
       </c>
-      <c r="U17" s="250">
+      <c r="U17" s="249">
         <v>202</v>
       </c>
-      <c r="V17" s="250">
+      <c r="V17" s="249">
         <v>201</v>
       </c>
       <c r="W17" s="137"/>
-      <c r="X17" s="250" t="s">
+      <c r="X17" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="Y17" s="250" t="s">
+      <c r="Y17" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="Z17" s="250" t="s">
+      <c r="Z17" s="249" t="s">
         <v>219</v>
       </c>
-      <c r="AA17" s="250" t="s">
+      <c r="AA17" s="249" t="s">
         <v>218</v>
       </c>
-      <c r="AB17" s="250" t="s">
+      <c r="AB17" s="249" t="s">
         <v>217</v>
       </c>
-      <c r="AC17" s="250" t="s">
+      <c r="AC17" s="249" t="s">
         <v>216</v>
       </c>
-      <c r="AD17" s="250" t="s">
+      <c r="AD17" s="249" t="s">
         <v>215</v>
       </c>
-      <c r="AE17" s="250" t="s">
+      <c r="AE17" s="249" t="s">
         <v>214</v>
       </c>
-      <c r="AF17" s="250" t="s">
+      <c r="AF17" s="249" t="s">
         <v>213</v>
       </c>
-      <c r="AG17" s="250" t="s">
+      <c r="AG17" s="249" t="s">
         <v>212</v>
       </c>
-      <c r="AH17" s="250" t="s">
+      <c r="AH17" s="249" t="s">
         <v>250</v>
       </c>
-      <c r="AI17" s="250" t="s">
+      <c r="AI17" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="AJ17" s="250" t="s">
+      <c r="AJ17" s="249" t="s">
         <v>248</v>
       </c>
-      <c r="AK17" s="250" t="s">
+      <c r="AK17" s="249" t="s">
         <v>247</v>
       </c>
-      <c r="AL17" s="250" t="s">
+      <c r="AL17" s="249" t="s">
         <v>246</v>
       </c>
-      <c r="AM17" s="250" t="s">
+      <c r="AM17" s="249" t="s">
         <v>245</v>
       </c>
-      <c r="AN17" s="250" t="s">
+      <c r="AN17" s="249" t="s">
         <v>244</v>
       </c>
-      <c r="AO17" s="250" t="s">
+      <c r="AO17" s="249" t="s">
         <v>243</v>
       </c>
-      <c r="AP17" s="250" t="s">
+      <c r="AP17" s="249" t="s">
         <v>242</v>
       </c>
-      <c r="AQ17" s="250" t="s">
+      <c r="AQ17" s="249" t="s">
         <v>241</v>
       </c>
       <c r="AR17" s="119"/>
@@ -5903,264 +5907,262 @@
       </c>
       <c r="AT17" s="13"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="133">
         <v>12</v>
       </c>
       <c r="B18" s="119"/>
-      <c r="C18" s="250">
+      <c r="C18" s="249">
         <v>240</v>
       </c>
-      <c r="D18" s="250">
+      <c r="D18" s="249">
         <v>239</v>
       </c>
-      <c r="E18" s="250">
+      <c r="E18" s="249">
         <v>238</v>
       </c>
-      <c r="F18" s="250">
+      <c r="F18" s="249">
         <v>237</v>
       </c>
-      <c r="G18" s="250">
+      <c r="G18" s="249">
         <v>236</v>
       </c>
-      <c r="H18" s="250">
+      <c r="H18" s="249">
         <v>235</v>
       </c>
-      <c r="I18" s="250">
+      <c r="I18" s="249">
         <v>234</v>
       </c>
-      <c r="J18" s="250">
+      <c r="J18" s="249">
         <v>233</v>
       </c>
-      <c r="K18" s="250">
+      <c r="K18" s="249">
         <v>232</v>
       </c>
-      <c r="L18" s="250">
+      <c r="L18" s="249">
         <v>231</v>
       </c>
-      <c r="M18" s="250">
+      <c r="M18" s="249">
         <v>230</v>
       </c>
-      <c r="N18" s="250">
+      <c r="N18" s="249">
         <v>229</v>
       </c>
-      <c r="O18" s="250">
+      <c r="O18" s="249">
         <v>228</v>
       </c>
-      <c r="P18" s="250">
+      <c r="P18" s="249">
         <v>227</v>
       </c>
-      <c r="Q18" s="250">
+      <c r="Q18" s="249">
         <v>226</v>
       </c>
-      <c r="R18" s="250">
+      <c r="R18" s="249">
         <v>225</v>
       </c>
-      <c r="S18" s="250">
+      <c r="S18" s="249">
         <v>224</v>
       </c>
-      <c r="T18" s="250">
+      <c r="T18" s="249">
         <v>223</v>
       </c>
-      <c r="U18" s="250">
+      <c r="U18" s="249">
         <v>222</v>
       </c>
-      <c r="V18" s="250">
+      <c r="V18" s="249">
         <v>221</v>
       </c>
       <c r="W18" s="137"/>
-      <c r="X18" s="250" t="s">
+      <c r="X18" s="249" t="s">
         <v>240</v>
       </c>
-      <c r="Y18" s="250" t="s">
+      <c r="Y18" s="249" t="s">
         <v>239</v>
       </c>
-      <c r="Z18" s="250" t="s">
+      <c r="Z18" s="249" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="250" t="s">
+      <c r="AA18" s="249" t="s">
         <v>237</v>
       </c>
-      <c r="AB18" s="250" t="s">
+      <c r="AB18" s="249" t="s">
         <v>251</v>
       </c>
-      <c r="AC18" s="250" t="s">
+      <c r="AC18" s="249" t="s">
         <v>252</v>
       </c>
-      <c r="AD18" s="250" t="s">
+      <c r="AD18" s="249" t="s">
         <v>253</v>
       </c>
-      <c r="AE18" s="250" t="s">
+      <c r="AE18" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="AF18" s="250" t="s">
+      <c r="AF18" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="AG18" s="250" t="s">
+      <c r="AG18" s="249" t="s">
         <v>234</v>
       </c>
-      <c r="AH18" s="250" t="s">
+      <c r="AH18" s="249" t="s">
         <v>233</v>
       </c>
-      <c r="AI18" s="250" t="s">
+      <c r="AI18" s="249" t="s">
         <v>276</v>
       </c>
-      <c r="AJ18" s="250" t="s">
+      <c r="AJ18" s="249" t="s">
         <v>275</v>
       </c>
-      <c r="AK18" s="250" t="s">
+      <c r="AK18" s="249" t="s">
         <v>274</v>
       </c>
-      <c r="AL18" s="250" t="s">
+      <c r="AL18" s="249" t="s">
         <v>273</v>
       </c>
-      <c r="AM18" s="250" t="s">
+      <c r="AM18" s="249" t="s">
         <v>272</v>
       </c>
-      <c r="AN18" s="250" t="s">
+      <c r="AN18" s="249" t="s">
         <v>271</v>
       </c>
-      <c r="AO18" s="250" t="s">
+      <c r="AO18" s="249" t="s">
         <v>270</v>
       </c>
-      <c r="AP18" s="250" t="s">
+      <c r="AP18" s="249" t="s">
         <v>269</v>
       </c>
-      <c r="AQ18" s="252" t="s">
+      <c r="AQ18" s="249" t="s">
         <v>268</v>
       </c>
-      <c r="AR18" s="248" t="s">
-        <v>776</v>
-      </c>
+      <c r="AR18" s="264"/>
       <c r="AS18" s="51">
         <v>12</v>
       </c>
       <c r="AT18" s="13"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="133">
         <v>13</v>
       </c>
       <c r="B19" s="119"/>
-      <c r="C19" s="250">
+      <c r="C19" s="249">
         <v>260</v>
       </c>
-      <c r="D19" s="250">
+      <c r="D19" s="249">
         <v>259</v>
       </c>
-      <c r="E19" s="250">
+      <c r="E19" s="249">
         <v>258</v>
       </c>
-      <c r="F19" s="250">
+      <c r="F19" s="249">
         <v>257</v>
       </c>
-      <c r="G19" s="250">
+      <c r="G19" s="249">
         <v>256</v>
       </c>
-      <c r="H19" s="250">
+      <c r="H19" s="249">
         <v>255</v>
       </c>
-      <c r="I19" s="250">
+      <c r="I19" s="249">
         <v>254</v>
       </c>
-      <c r="J19" s="250">
+      <c r="J19" s="249">
         <v>253</v>
       </c>
-      <c r="K19" s="250">
+      <c r="K19" s="249">
         <v>252</v>
       </c>
-      <c r="L19" s="250">
+      <c r="L19" s="249">
         <v>251</v>
       </c>
-      <c r="M19" s="250">
+      <c r="M19" s="249">
         <v>250</v>
       </c>
-      <c r="N19" s="250">
+      <c r="N19" s="249">
         <v>249</v>
       </c>
-      <c r="O19" s="250">
+      <c r="O19" s="249">
         <v>248</v>
       </c>
-      <c r="P19" s="250">
+      <c r="P19" s="249">
         <v>247</v>
       </c>
-      <c r="Q19" s="250">
+      <c r="Q19" s="249">
         <v>246</v>
       </c>
-      <c r="R19" s="250">
+      <c r="R19" s="249">
         <v>245</v>
       </c>
-      <c r="S19" s="250">
+      <c r="S19" s="249">
         <v>244</v>
       </c>
-      <c r="T19" s="250">
+      <c r="T19" s="249">
         <v>243</v>
       </c>
-      <c r="U19" s="250">
+      <c r="U19" s="249">
         <v>242</v>
       </c>
-      <c r="V19" s="250">
+      <c r="V19" s="249">
         <v>241</v>
       </c>
       <c r="W19" s="137"/>
-      <c r="X19" s="250">
+      <c r="X19" s="249">
         <v>241</v>
       </c>
-      <c r="Y19" s="250">
+      <c r="Y19" s="249">
         <v>242</v>
       </c>
-      <c r="Z19" s="250">
+      <c r="Z19" s="249">
         <v>243</v>
       </c>
-      <c r="AA19" s="250">
+      <c r="AA19" s="249">
         <v>244</v>
       </c>
-      <c r="AB19" s="250">
+      <c r="AB19" s="249">
         <v>245</v>
       </c>
-      <c r="AC19" s="250">
+      <c r="AC19" s="249">
         <v>246</v>
       </c>
-      <c r="AD19" s="250">
+      <c r="AD19" s="249">
         <v>247</v>
       </c>
-      <c r="AE19" s="250">
+      <c r="AE19" s="249">
         <v>248</v>
       </c>
-      <c r="AF19" s="250">
+      <c r="AF19" s="249">
         <v>249</v>
       </c>
-      <c r="AG19" s="250">
+      <c r="AG19" s="249">
         <v>250</v>
       </c>
-      <c r="AH19" s="250">
+      <c r="AH19" s="249">
         <v>251</v>
       </c>
-      <c r="AI19" s="250">
+      <c r="AI19" s="249">
         <v>252</v>
       </c>
-      <c r="AJ19" s="250">
+      <c r="AJ19" s="249">
         <v>253</v>
       </c>
-      <c r="AK19" s="250">
+      <c r="AK19" s="249">
         <v>254</v>
       </c>
-      <c r="AL19" s="250">
+      <c r="AL19" s="249">
         <v>255</v>
       </c>
-      <c r="AM19" s="250">
+      <c r="AM19" s="249">
         <v>256</v>
       </c>
-      <c r="AN19" s="250">
+      <c r="AN19" s="249">
         <v>257</v>
       </c>
-      <c r="AO19" s="250">
+      <c r="AO19" s="249">
         <v>258</v>
       </c>
-      <c r="AP19" s="250">
+      <c r="AP19" s="249">
         <v>259</v>
       </c>
-      <c r="AQ19" s="250">
+      <c r="AQ19" s="249">
         <v>260</v>
       </c>
       <c r="AR19" s="177" t="s">
@@ -6171,130 +6173,130 @@
       </c>
       <c r="AT19" s="13"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="133">
         <v>14</v>
       </c>
       <c r="B20" s="195"/>
-      <c r="C20" s="250">
+      <c r="C20" s="249">
         <v>280</v>
       </c>
-      <c r="D20" s="250">
+      <c r="D20" s="249">
         <v>279</v>
       </c>
-      <c r="E20" s="250">
+      <c r="E20" s="249">
         <v>278</v>
       </c>
-      <c r="F20" s="250">
+      <c r="F20" s="249">
         <v>277</v>
       </c>
-      <c r="G20" s="250">
+      <c r="G20" s="249">
         <v>276</v>
       </c>
-      <c r="H20" s="250">
+      <c r="H20" s="249">
         <v>275</v>
       </c>
-      <c r="I20" s="250">
+      <c r="I20" s="249">
         <v>274</v>
       </c>
-      <c r="J20" s="250">
+      <c r="J20" s="249">
         <v>273</v>
       </c>
-      <c r="K20" s="250">
+      <c r="K20" s="249">
         <v>272</v>
       </c>
-      <c r="L20" s="250">
+      <c r="L20" s="249">
         <v>271</v>
       </c>
-      <c r="M20" s="250">
+      <c r="M20" s="249">
         <v>270</v>
       </c>
-      <c r="N20" s="250">
+      <c r="N20" s="249">
         <v>269</v>
       </c>
-      <c r="O20" s="250">
+      <c r="O20" s="249">
         <v>268</v>
       </c>
-      <c r="P20" s="250">
+      <c r="P20" s="249">
         <v>267</v>
       </c>
-      <c r="Q20" s="250">
+      <c r="Q20" s="249">
         <v>266</v>
       </c>
-      <c r="R20" s="250">
+      <c r="R20" s="249">
         <v>265</v>
       </c>
-      <c r="S20" s="250">
+      <c r="S20" s="249">
         <v>264</v>
       </c>
-      <c r="T20" s="250">
+      <c r="T20" s="249">
         <v>263</v>
       </c>
-      <c r="U20" s="250">
+      <c r="U20" s="249">
         <v>262</v>
       </c>
-      <c r="V20" s="250">
+      <c r="V20" s="249">
         <v>261</v>
       </c>
       <c r="W20" s="151"/>
-      <c r="X20" s="250">
+      <c r="X20" s="249">
         <v>261</v>
       </c>
-      <c r="Y20" s="250">
+      <c r="Y20" s="249">
         <v>262</v>
       </c>
-      <c r="Z20" s="250">
+      <c r="Z20" s="249">
         <v>263</v>
       </c>
-      <c r="AA20" s="250">
+      <c r="AA20" s="249">
         <v>264</v>
       </c>
-      <c r="AB20" s="250">
+      <c r="AB20" s="249">
         <v>265</v>
       </c>
-      <c r="AC20" s="250">
+      <c r="AC20" s="249">
         <v>266</v>
       </c>
-      <c r="AD20" s="250">
+      <c r="AD20" s="249">
         <v>267</v>
       </c>
-      <c r="AE20" s="250">
+      <c r="AE20" s="249">
         <v>268</v>
       </c>
-      <c r="AF20" s="250">
+      <c r="AF20" s="249">
         <v>269</v>
       </c>
-      <c r="AG20" s="250">
+      <c r="AG20" s="249">
         <v>270</v>
       </c>
-      <c r="AH20" s="250">
+      <c r="AH20" s="249">
         <v>271</v>
       </c>
-      <c r="AI20" s="250">
+      <c r="AI20" s="249">
         <v>272</v>
       </c>
-      <c r="AJ20" s="250">
+      <c r="AJ20" s="249">
         <v>273</v>
       </c>
-      <c r="AK20" s="250">
+      <c r="AK20" s="249">
         <v>274</v>
       </c>
-      <c r="AL20" s="250">
+      <c r="AL20" s="249">
         <v>275</v>
       </c>
-      <c r="AM20" s="250">
+      <c r="AM20" s="249">
         <v>276</v>
       </c>
-      <c r="AN20" s="250">
+      <c r="AN20" s="249">
         <v>277</v>
       </c>
-      <c r="AO20" s="250">
+      <c r="AO20" s="249">
         <v>278</v>
       </c>
-      <c r="AP20" s="250">
+      <c r="AP20" s="249">
         <v>279</v>
       </c>
-      <c r="AQ20" s="250">
+      <c r="AQ20" s="249">
         <v>280</v>
       </c>
       <c r="AR20" s="194" t="s">
@@ -6305,130 +6307,130 @@
       </c>
       <c r="AT20" s="13"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="133">
         <v>15</v>
       </c>
       <c r="B21" s="119"/>
-      <c r="C21" s="250">
+      <c r="C21" s="249">
         <v>300</v>
       </c>
-      <c r="D21" s="250">
+      <c r="D21" s="249">
         <v>299</v>
       </c>
-      <c r="E21" s="250">
+      <c r="E21" s="249">
         <v>298</v>
       </c>
-      <c r="F21" s="250">
+      <c r="F21" s="249">
         <v>297</v>
       </c>
-      <c r="G21" s="250">
+      <c r="G21" s="249">
         <v>296</v>
       </c>
-      <c r="H21" s="250">
+      <c r="H21" s="249">
         <v>295</v>
       </c>
-      <c r="I21" s="250">
+      <c r="I21" s="249">
         <v>294</v>
       </c>
-      <c r="J21" s="250">
+      <c r="J21" s="249">
         <v>293</v>
       </c>
-      <c r="K21" s="250">
+      <c r="K21" s="249">
         <v>292</v>
       </c>
-      <c r="L21" s="250">
+      <c r="L21" s="249">
         <v>291</v>
       </c>
-      <c r="M21" s="250">
+      <c r="M21" s="249">
         <v>290</v>
       </c>
-      <c r="N21" s="250">
+      <c r="N21" s="249">
         <v>289</v>
       </c>
-      <c r="O21" s="250">
+      <c r="O21" s="249">
         <v>288</v>
       </c>
-      <c r="P21" s="250">
+      <c r="P21" s="249">
         <v>287</v>
       </c>
-      <c r="Q21" s="250">
+      <c r="Q21" s="249">
         <v>286</v>
       </c>
-      <c r="R21" s="250">
+      <c r="R21" s="249">
         <v>285</v>
       </c>
-      <c r="S21" s="250">
+      <c r="S21" s="249">
         <v>284</v>
       </c>
-      <c r="T21" s="250">
+      <c r="T21" s="249">
         <v>283</v>
       </c>
-      <c r="U21" s="250">
+      <c r="U21" s="249">
         <v>282</v>
       </c>
-      <c r="V21" s="250">
+      <c r="V21" s="249">
         <v>281</v>
       </c>
       <c r="W21" s="118"/>
-      <c r="X21" s="250">
+      <c r="X21" s="249">
         <v>281</v>
       </c>
-      <c r="Y21" s="250">
+      <c r="Y21" s="249">
         <v>282</v>
       </c>
-      <c r="Z21" s="250">
+      <c r="Z21" s="249">
         <v>283</v>
       </c>
-      <c r="AA21" s="250">
+      <c r="AA21" s="249">
         <v>284</v>
       </c>
-      <c r="AB21" s="250">
+      <c r="AB21" s="249">
         <v>285</v>
       </c>
-      <c r="AC21" s="250">
+      <c r="AC21" s="249">
         <v>286</v>
       </c>
-      <c r="AD21" s="250">
+      <c r="AD21" s="249">
         <v>287</v>
       </c>
-      <c r="AE21" s="250">
+      <c r="AE21" s="249">
         <v>288</v>
       </c>
-      <c r="AF21" s="250">
+      <c r="AF21" s="249">
         <v>289</v>
       </c>
-      <c r="AG21" s="250">
+      <c r="AG21" s="249">
         <v>290</v>
       </c>
-      <c r="AH21" s="250">
+      <c r="AH21" s="249">
         <v>291</v>
       </c>
-      <c r="AI21" s="250">
+      <c r="AI21" s="249">
         <v>292</v>
       </c>
-      <c r="AJ21" s="250">
+      <c r="AJ21" s="249">
         <v>293</v>
       </c>
-      <c r="AK21" s="250">
+      <c r="AK21" s="249">
         <v>294</v>
       </c>
-      <c r="AL21" s="250">
+      <c r="AL21" s="249">
         <v>295</v>
       </c>
-      <c r="AM21" s="250">
+      <c r="AM21" s="249">
         <v>296</v>
       </c>
-      <c r="AN21" s="250">
+      <c r="AN21" s="249">
         <v>297</v>
       </c>
-      <c r="AO21" s="250">
+      <c r="AO21" s="249">
         <v>298</v>
       </c>
-      <c r="AP21" s="250">
+      <c r="AP21" s="249">
         <v>299</v>
       </c>
-      <c r="AQ21" s="250">
+      <c r="AQ21" s="249">
         <v>300</v>
       </c>
       <c r="AR21" s="119"/>
@@ -6437,7 +6439,7 @@
       </c>
       <c r="AT21" s="13"/>
     </row>
-    <row r="22" spans="1:46" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="113"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -6451,11 +6453,11 @@
       <c r="K22" s="113"/>
       <c r="L22" s="113"/>
       <c r="M22" s="113"/>
-      <c r="N22" s="262" t="s">
+      <c r="N22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="O22" s="262"/>
-      <c r="P22" s="262"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="260"/>
       <c r="Q22" s="113"/>
       <c r="R22" s="113"/>
       <c r="S22" s="113"/>
@@ -6469,11 +6471,11 @@
       <c r="AA22" s="113"/>
       <c r="AB22" s="113"/>
       <c r="AC22" s="113"/>
-      <c r="AD22" s="262" t="s">
+      <c r="AD22" s="260" t="s">
         <v>575</v>
       </c>
-      <c r="AE22" s="262"/>
-      <c r="AF22" s="262"/>
+      <c r="AE22" s="260"/>
+      <c r="AF22" s="260"/>
       <c r="AG22" s="113"/>
       <c r="AH22" s="113"/>
       <c r="AI22" s="113"/>
@@ -6488,7 +6490,7 @@
       <c r="AR22" s="52"/>
       <c r="AS22" s="178"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="219"/>
       <c r="B23" s="241"/>
       <c r="C23" s="241"/>
@@ -6559,7 +6561,7 @@
       <c r="AR23" s="243"/>
       <c r="AS23" s="178"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="123"/>
       <c r="B24" s="243"/>
       <c r="C24" s="243"/>
@@ -6610,7 +6612,7 @@
       <c r="AR24" s="243"/>
       <c r="AS24" s="178"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
       <c r="B25" s="243"/>
       <c r="C25" s="243"/>
@@ -6661,7 +6663,7 @@
       <c r="AR25" s="243"/>
       <c r="AS25" s="178"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="123"/>
       <c r="B26" s="244"/>
       <c r="C26" s="244"/>
@@ -6679,47 +6681,47 @@
         <v>4</v>
       </c>
       <c r="O26" s="113"/>
-      <c r="P26" s="250">
+      <c r="P26" s="249">
         <v>307</v>
       </c>
-      <c r="Q26" s="250">
+      <c r="Q26" s="249">
         <v>306</v>
       </c>
-      <c r="R26" s="250">
+      <c r="R26" s="249">
         <v>305</v>
       </c>
-      <c r="S26" s="250">
+      <c r="S26" s="249">
         <v>304</v>
       </c>
-      <c r="T26" s="250">
+      <c r="T26" s="249">
         <v>303</v>
       </c>
-      <c r="U26" s="250">
+      <c r="U26" s="249">
         <v>302</v>
       </c>
-      <c r="V26" s="250">
+      <c r="V26" s="249">
         <v>301</v>
       </c>
       <c r="W26" s="161"/>
-      <c r="X26" s="250">
+      <c r="X26" s="249">
         <v>301</v>
       </c>
-      <c r="Y26" s="250">
+      <c r="Y26" s="249">
         <v>302</v>
       </c>
-      <c r="Z26" s="250">
+      <c r="Z26" s="249">
         <v>303</v>
       </c>
-      <c r="AA26" s="250">
+      <c r="AA26" s="249">
         <v>304</v>
       </c>
-      <c r="AB26" s="250">
+      <c r="AB26" s="249">
         <v>305</v>
       </c>
-      <c r="AC26" s="250">
+      <c r="AC26" s="249">
         <v>306</v>
       </c>
-      <c r="AD26" s="250">
+      <c r="AD26" s="249">
         <v>307</v>
       </c>
       <c r="AE26" s="113"/>
@@ -6740,7 +6742,7 @@
       <c r="AR26" s="143"/>
       <c r="AS26" s="178"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="115"/>
       <c r="B27" s="244"/>
       <c r="C27" s="244"/>
@@ -6758,47 +6760,47 @@
         <v>5</v>
       </c>
       <c r="O27" s="113"/>
-      <c r="P27" s="250">
+      <c r="P27" s="249">
         <v>314</v>
       </c>
-      <c r="Q27" s="250">
+      <c r="Q27" s="249">
         <v>313</v>
       </c>
-      <c r="R27" s="250">
+      <c r="R27" s="249">
         <v>312</v>
       </c>
-      <c r="S27" s="250">
+      <c r="S27" s="249">
         <v>311</v>
       </c>
-      <c r="T27" s="250">
+      <c r="T27" s="249">
         <v>310</v>
       </c>
-      <c r="U27" s="250">
+      <c r="U27" s="249">
         <v>309</v>
       </c>
-      <c r="V27" s="250">
+      <c r="V27" s="249">
         <v>308</v>
       </c>
       <c r="W27" s="153"/>
-      <c r="X27" s="250">
+      <c r="X27" s="249">
         <v>308</v>
       </c>
-      <c r="Y27" s="250">
+      <c r="Y27" s="249">
         <v>309</v>
       </c>
-      <c r="Z27" s="250">
+      <c r="Z27" s="249">
         <v>310</v>
       </c>
-      <c r="AA27" s="250">
+      <c r="AA27" s="249">
         <v>311</v>
       </c>
-      <c r="AB27" s="250">
+      <c r="AB27" s="249">
         <v>312</v>
       </c>
-      <c r="AC27" s="250">
+      <c r="AC27" s="249">
         <v>313</v>
       </c>
-      <c r="AD27" s="250">
+      <c r="AD27" s="249">
         <v>314</v>
       </c>
       <c r="AE27" s="113"/>
@@ -6819,7 +6821,7 @@
       <c r="AR27" s="243"/>
       <c r="AS27" s="178"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="119"/>
       <c r="B28" s="244"/>
       <c r="C28" s="244"/>
@@ -6837,47 +6839,47 @@
         <v>6</v>
       </c>
       <c r="O28" s="113"/>
-      <c r="P28" s="250">
+      <c r="P28" s="249">
         <v>321</v>
       </c>
-      <c r="Q28" s="250">
+      <c r="Q28" s="249">
         <v>320</v>
       </c>
-      <c r="R28" s="250">
+      <c r="R28" s="249">
         <v>319</v>
       </c>
-      <c r="S28" s="250">
+      <c r="S28" s="249">
         <v>318</v>
       </c>
-      <c r="T28" s="250">
+      <c r="T28" s="249">
         <v>317</v>
       </c>
-      <c r="U28" s="250">
+      <c r="U28" s="249">
         <v>316</v>
       </c>
-      <c r="V28" s="250">
+      <c r="V28" s="249">
         <v>315</v>
       </c>
       <c r="W28" s="153"/>
-      <c r="X28" s="250">
+      <c r="X28" s="249">
         <v>315</v>
       </c>
-      <c r="Y28" s="250">
+      <c r="Y28" s="249">
         <v>316</v>
       </c>
-      <c r="Z28" s="250">
+      <c r="Z28" s="249">
         <v>317</v>
       </c>
-      <c r="AA28" s="250">
+      <c r="AA28" s="249">
         <v>318</v>
       </c>
-      <c r="AB28" s="250">
+      <c r="AB28" s="249">
         <v>319</v>
       </c>
-      <c r="AC28" s="250">
+      <c r="AC28" s="249">
         <v>320</v>
       </c>
-      <c r="AD28" s="250">
+      <c r="AD28" s="249">
         <v>321</v>
       </c>
       <c r="AE28" s="158"/>
@@ -6898,7 +6900,7 @@
       <c r="AR28" s="243"/>
       <c r="AS28" s="179"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="127"/>
       <c r="B29" s="245"/>
       <c r="C29" s="245"/>
@@ -6916,16 +6918,16 @@
         <v>7</v>
       </c>
       <c r="O29" s="113"/>
-      <c r="P29" s="250">
+      <c r="P29" s="249">
         <v>328</v>
       </c>
-      <c r="Q29" s="250">
+      <c r="Q29" s="249">
         <v>327</v>
       </c>
       <c r="R29" s="231">
         <v>326</v>
       </c>
-      <c r="S29" s="256" t="s">
+      <c r="S29" s="254" t="s">
         <v>775</v>
       </c>
       <c r="T29" s="238" t="s">
@@ -6977,7 +6979,7 @@
       <c r="AR29" s="118"/>
       <c r="AS29" s="178"/>
     </row>
-    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="115"/>
       <c r="B30" s="243"/>
       <c r="C30" s="243"/>
@@ -7055,7 +7057,7 @@
       <c r="AQ30" s="243"/>
       <c r="AR30" s="243"/>
     </row>
-    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="115"/>
       <c r="B31" s="243"/>
       <c r="C31" s="243"/>
@@ -7133,7 +7135,7 @@
       <c r="AQ31" s="243"/>
       <c r="AR31" s="243"/>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="115"/>
       <c r="B32" s="243"/>
       <c r="C32" s="243"/>
@@ -7211,7 +7213,7 @@
       <c r="AQ32" s="243"/>
       <c r="AR32" s="243"/>
     </row>
-    <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="243"/>
       <c r="C33" s="243"/>
@@ -7290,7 +7292,7 @@
       <c r="AR33" s="119"/>
       <c r="AS33" s="181"/>
     </row>
-    <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="243"/>
       <c r="C34" s="243"/>
@@ -7310,7 +7312,7 @@
       <c r="O34" s="141"/>
       <c r="P34" s="241"/>
       <c r="Q34" s="241"/>
-      <c r="R34" s="255" t="s">
+      <c r="R34" s="253" t="s">
         <v>774</v>
       </c>
       <c r="S34" s="198">
@@ -7359,7 +7361,7 @@
       <c r="AR34" s="119"/>
       <c r="AS34" s="181"/>
     </row>
-    <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="243"/>
       <c r="C35" s="243"/>
@@ -7406,7 +7408,7 @@
       <c r="AR35" s="119"/>
       <c r="AS35" s="181"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="243"/>
       <c r="C36" s="243"/>
@@ -7453,7 +7455,7 @@
       <c r="AR36" s="119"/>
       <c r="AS36" s="181"/>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37" s="115"/>
       <c r="B37" s="243"/>
       <c r="C37" s="243"/>
@@ -7499,7 +7501,7 @@
       <c r="AQ37" s="243"/>
       <c r="AR37" s="187"/>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38" s="115"/>
       <c r="B38" s="115"/>
       <c r="C38" s="115"/>
@@ -7544,7 +7546,7 @@
       <c r="AP38" s="115"/>
       <c r="AQ38" s="115"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39" s="115"/>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
@@ -7589,7 +7591,7 @@
       <c r="AP39" s="115"/>
       <c r="AQ39" s="115"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40" s="115"/>
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
@@ -7634,7 +7636,7 @@
       <c r="AP40" s="115"/>
       <c r="AQ40" s="115"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41" s="115"/>
       <c r="B41" s="115"/>
       <c r="C41" s="115"/>
@@ -7679,7 +7681,7 @@
       <c r="AP41" s="115"/>
       <c r="AQ41" s="115"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42" s="115"/>
       <c r="B42" s="115"/>
       <c r="C42" s="115"/>
@@ -7724,7 +7726,7 @@
       <c r="AP42" s="115"/>
       <c r="AQ42" s="115"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
@@ -7769,7 +7771,7 @@
       <c r="AP43" s="115"/>
       <c r="AQ43" s="115"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44" s="115"/>
       <c r="B44" s="115"/>
       <c r="C44" s="115"/>
@@ -7814,7 +7816,7 @@
       <c r="AP44" s="115"/>
       <c r="AQ44" s="115"/>
     </row>
-    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
       <c r="E45" s="170"/>
@@ -7854,7 +7856,7 @@
       <c r="AP45" s="115"/>
       <c r="AQ45" s="115"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="I46" s="170"/>
       <c r="J46" s="170"/>
       <c r="K46" s="170"/>
@@ -7888,7 +7890,7 @@
       <c r="AP46" s="115"/>
       <c r="AQ46" s="115"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="D47" s="170"/>
       <c r="E47" s="170"/>
       <c r="F47" s="170"/>
@@ -7924,7 +7926,7 @@
       <c r="AP47" s="115"/>
       <c r="AQ47" s="115"/>
     </row>
-    <row r="48" spans="1:45" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="221" t="s">
         <v>757</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>6</v>
       </c>
       <c r="P48" s="213" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="Q48" s="226"/>
       <c r="R48" s="227"/>
@@ -7983,7 +7985,7 @@
       <c r="AP48" s="115"/>
       <c r="AQ48" s="115"/>
     </row>
-    <row r="49" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="218" t="s">
         <v>758</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="170" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D49" s="176"/>
       <c r="E49" s="176"/>
@@ -8006,7 +8008,7 @@
       <c r="N49" s="217" t="s">
         <v>758</v>
       </c>
-      <c r="O49" s="254">
+      <c r="O49" s="252">
         <v>1</v>
       </c>
       <c r="P49" s="209" t="s">
@@ -8046,7 +8048,7 @@
       <c r="AP49" s="115"/>
       <c r="AQ49" s="115"/>
     </row>
-    <row r="50" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="220" t="s">
         <v>756</v>
       </c>
@@ -8105,7 +8107,7 @@
       <c r="AP50" s="115"/>
       <c r="AQ50" s="115"/>
     </row>
-    <row r="51" spans="1:43" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" ht="15.75" x14ac:dyDescent="0.2">
       <c r="D51" s="170"/>
       <c r="E51" s="170"/>
       <c r="F51" s="171"/>
@@ -8150,7 +8152,7 @@
       <c r="AP51" s="115"/>
       <c r="AQ51" s="115"/>
     </row>
-    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="209"/>
       <c r="E52" s="170"/>
       <c r="F52" s="170"/>
@@ -8162,11 +8164,11 @@
       <c r="L52" s="170"/>
       <c r="M52" s="170"/>
       <c r="N52" s="201"/>
-      <c r="O52" s="251">
+      <c r="O52" s="250">
         <v>500</v>
       </c>
       <c r="P52" s="210" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Q52" s="174"/>
       <c r="R52" s="174"/>
@@ -8196,7 +8198,7 @@
       <c r="AP52" s="115"/>
       <c r="AQ52" s="115"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="D53" s="170"/>
       <c r="E53" s="170"/>
       <c r="F53" s="170"/>
@@ -8238,7 +8240,7 @@
       <c r="AP53" s="115"/>
       <c r="AQ53" s="115"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" s="209"/>
       <c r="B54" s="209"/>
       <c r="C54" s="209"/>
@@ -8283,7 +8285,7 @@
       <c r="AP54" s="115"/>
       <c r="AQ54" s="115"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B55" s="193"/>
       <c r="C55" s="170"/>
       <c r="D55" s="170"/>
@@ -8329,103 +8331,103 @@
       <c r="AP55" s="115"/>
       <c r="AQ55" s="115"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="264">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A56" s="262">
         <f>SUM(B48:B50,O48:O52,AB48:AB50)</f>
         <v>719</v>
       </c>
-      <c r="B56" s="264"/>
-      <c r="C56" s="264"/>
-      <c r="D56" s="264"/>
-      <c r="E56" s="264"/>
-      <c r="F56" s="264"/>
-      <c r="G56" s="264"/>
-      <c r="H56" s="264"/>
-      <c r="I56" s="264"/>
-      <c r="J56" s="264"/>
-      <c r="K56" s="264"/>
-      <c r="L56" s="264"/>
-      <c r="M56" s="264"/>
-      <c r="N56" s="264"/>
-      <c r="O56" s="265"/>
-      <c r="P56" s="264"/>
-      <c r="Q56" s="264"/>
-      <c r="R56" s="264"/>
-      <c r="S56" s="264"/>
-      <c r="T56" s="264"/>
-      <c r="U56" s="264"/>
-      <c r="V56" s="264"/>
-      <c r="W56" s="264"/>
-      <c r="X56" s="264"/>
-      <c r="Y56" s="264"/>
-      <c r="Z56" s="264"/>
-      <c r="AA56" s="264"/>
-      <c r="AB56" s="265"/>
-      <c r="AC56" s="264"/>
-      <c r="AD56" s="264"/>
-      <c r="AE56" s="264"/>
-      <c r="AF56" s="264"/>
-      <c r="AG56" s="264"/>
-      <c r="AH56" s="264"/>
-      <c r="AI56" s="264"/>
-      <c r="AJ56" s="264"/>
-      <c r="AK56" s="264"/>
+      <c r="B56" s="262"/>
+      <c r="C56" s="262"/>
+      <c r="D56" s="262"/>
+      <c r="E56" s="262"/>
+      <c r="F56" s="262"/>
+      <c r="G56" s="262"/>
+      <c r="H56" s="262"/>
+      <c r="I56" s="262"/>
+      <c r="J56" s="262"/>
+      <c r="K56" s="262"/>
+      <c r="L56" s="262"/>
+      <c r="M56" s="262"/>
+      <c r="N56" s="262"/>
+      <c r="O56" s="263"/>
+      <c r="P56" s="262"/>
+      <c r="Q56" s="262"/>
+      <c r="R56" s="262"/>
+      <c r="S56" s="262"/>
+      <c r="T56" s="262"/>
+      <c r="U56" s="262"/>
+      <c r="V56" s="262"/>
+      <c r="W56" s="262"/>
+      <c r="X56" s="262"/>
+      <c r="Y56" s="262"/>
+      <c r="Z56" s="262"/>
+      <c r="AA56" s="262"/>
+      <c r="AB56" s="263"/>
+      <c r="AC56" s="262"/>
+      <c r="AD56" s="262"/>
+      <c r="AE56" s="262"/>
+      <c r="AF56" s="262"/>
+      <c r="AG56" s="262"/>
+      <c r="AH56" s="262"/>
+      <c r="AI56" s="262"/>
+      <c r="AJ56" s="262"/>
+      <c r="AK56" s="262"/>
     </row>
-    <row r="58" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H58" s="263"/>
-      <c r="I58" s="263"/>
+    <row r="58" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H58" s="261"/>
+      <c r="I58" s="261"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="13"/>
       <c r="AE60" s="13"/>
     </row>
-    <row r="65" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI65" s="113"/>
       <c r="AJ65" s="131"/>
     </row>
-    <row r="66" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI66" s="113"/>
       <c r="AJ66" s="131"/>
     </row>
-    <row r="67" spans="13:36" x14ac:dyDescent="0.25">
-      <c r="AI67" s="257"/>
-      <c r="AJ67" s="257"/>
+    <row r="67" spans="13:36" x14ac:dyDescent="0.2">
+      <c r="AI67" s="255"/>
+      <c r="AJ67" s="255"/>
     </row>
-    <row r="68" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI68" s="113"/>
       <c r="AJ68" s="131"/>
     </row>
-    <row r="69" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="13:36" x14ac:dyDescent="0.2">
       <c r="AI69" s="113"/>
       <c r="AJ69" s="131"/>
     </row>
-    <row r="70" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI70" s="113"/>
       <c r="AJ70" s="114"/>
     </row>
-    <row r="71" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI71" s="113"/>
       <c r="AJ71" s="114"/>
     </row>
-    <row r="72" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI72" s="113"/>
       <c r="AJ72" s="114"/>
     </row>
-    <row r="73" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI73" s="113"/>
       <c r="AJ73" s="114"/>
     </row>
-    <row r="74" spans="13:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AI74" s="113"/>
       <c r="AJ74" s="114"/>
     </row>
-    <row r="80" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="13:36" x14ac:dyDescent="0.2">
       <c r="M80" s="138"/>
     </row>
-    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M81" s="138"/>
     </row>
   </sheetData>
@@ -8455,16 +8457,16 @@
       <selection activeCell="Z231" sqref="Z231:AD231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="24" width="2.81640625" customWidth="1"/>
-    <col min="25" max="25" width="3.81640625" customWidth="1"/>
-    <col min="26" max="48" width="2.81640625" customWidth="1"/>
-    <col min="49" max="49" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="24" width="2.77734375" customWidth="1"/>
+    <col min="25" max="25" width="3.77734375" customWidth="1"/>
+    <col min="26" max="48" width="2.77734375" customWidth="1"/>
+    <col min="49" max="49" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8507,14 +8509,14 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="3"/>
     </row>
-    <row r="2" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="4"/>
       <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AS2" s="6"/>
     </row>
-    <row r="3" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="W3" s="8" t="s">
@@ -8523,7 +8525,7 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="6"/>
     </row>
-    <row r="4" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="10"/>
@@ -8566,11 +8568,11 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="11"/>
     </row>
-    <row r="5" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F5" s="7"/>
       <c r="AR5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
@@ -8578,7 +8580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="G8" s="17" t="s">
         <v>5</v>
       </c>
@@ -8723,7 +8725,7 @@
       <c r="T8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>55</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>80</v>
       </c>
@@ -9295,7 +9297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>5</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>146</v>
       </c>
@@ -9715,7 +9717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>8</v>
       </c>
@@ -9853,7 +9855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -9995,7 +9997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>211</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>11</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>255</v>
       </c>
@@ -10411,7 +10413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>277</v>
       </c>
@@ -10553,7 +10555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>14</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>322</v>
       </c>
@@ -10835,7 +10837,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>16</v>
       </c>
@@ -10955,7 +10957,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="30"/>
@@ -11004,7 +11006,7 @@
       <c r="AU25" s="13"/>
       <c r="AV25" s="13"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D26" s="17" t="s">
         <v>365</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D27" s="17" t="s">
         <v>368</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D28" s="17" t="s">
         <v>370</v>
       </c>
@@ -11083,7 +11085,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D29" s="17" t="s">
         <v>373</v>
       </c>
@@ -11097,7 +11099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D30" s="17" t="s">
         <v>374</v>
       </c>
@@ -11123,7 +11125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D31" s="17" t="s">
         <v>376</v>
       </c>
@@ -11149,7 +11151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="D32" s="17" t="s">
         <v>378</v>
       </c>
@@ -11175,7 +11177,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D33" s="17" t="s">
         <v>380</v>
       </c>
@@ -11201,7 +11203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D34" s="17" t="s">
         <v>382</v>
       </c>
@@ -11225,7 +11227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D35" s="17" t="s">
         <v>383</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D36" s="17" t="s">
         <v>384</v>
       </c>
@@ -11263,7 +11265,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D37" s="17" t="s">
         <v>386</v>
       </c>
@@ -11277,7 +11279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D38" s="17" t="s">
         <v>387</v>
       </c>
@@ -11291,7 +11293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D39" s="17" t="s">
         <v>388</v>
       </c>
@@ -11305,7 +11307,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>371</v>
       </c>
@@ -11320,8 +11322,8 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:49" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -11374,7 +11376,7 @@
       <c r="AV42" s="33"/>
       <c r="AW42" s="33"/>
     </row>
-    <row r="43" spans="1:49" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -11427,7 +11429,7 @@
       <c r="AV43" s="33"/>
       <c r="AW43" s="33"/>
     </row>
-    <row r="44" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -11478,7 +11480,7 @@
       <c r="AV44" s="33"/>
       <c r="AW44" s="33"/>
     </row>
-    <row r="45" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -11533,7 +11535,7 @@
       <c r="AV45" s="33"/>
       <c r="AW45" s="33"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="47" t="s">
@@ -11668,7 +11670,7 @@
       <c r="AV46" s="33"/>
       <c r="AW46" s="33"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
         <v>391</v>
       </c>
@@ -11803,7 +11805,7 @@
       <c r="AV47" s="47"/>
       <c r="AW47" s="33"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="47"/>
       <c r="B48" s="33"/>
       <c r="C48" s="51"/>
@@ -11934,7 +11936,7 @@
       <c r="AV48" s="47"/>
       <c r="AW48" s="33"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -11985,7 +11987,7 @@
       <c r="AV49" s="33"/>
       <c r="AW49" s="33"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
         <v>393</v>
       </c>
@@ -12130,7 +12132,7 @@
       </c>
       <c r="AW50" s="57"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A51" s="53" t="s">
         <v>394</v>
       </c>
@@ -12275,7 +12277,7 @@
       </c>
       <c r="AW51" s="59"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A52" s="53" t="s">
         <v>395</v>
       </c>
@@ -12420,7 +12422,7 @@
       </c>
       <c r="AW52" s="33"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A53" s="53" t="s">
         <v>396</v>
       </c>
@@ -12565,7 +12567,7 @@
       </c>
       <c r="AW53" s="57"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A54" s="53" t="s">
         <v>397</v>
       </c>
@@ -12710,7 +12712,7 @@
       </c>
       <c r="AW54" s="47"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
         <v>398</v>
       </c>
@@ -12855,7 +12857,7 @@
       </c>
       <c r="AW55" s="57"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A56" s="53" t="s">
         <v>399</v>
       </c>
@@ -13000,7 +13002,7 @@
       </c>
       <c r="AW56" s="57"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="s">
         <v>400</v>
       </c>
@@ -13145,7 +13147,7 @@
       </c>
       <c r="AW57" s="33"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A58" s="53">
         <v>9</v>
       </c>
@@ -13290,7 +13292,7 @@
       </c>
       <c r="AW58" s="57"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="s">
         <v>401</v>
       </c>
@@ -13435,7 +13437,7 @@
       </c>
       <c r="AW59" s="33"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A60" s="53">
         <v>11</v>
       </c>
@@ -13580,7 +13582,7 @@
       </c>
       <c r="AW60" s="33"/>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A61" s="53">
         <v>12</v>
       </c>
@@ -13725,7 +13727,7 @@
       </c>
       <c r="AW61" s="57"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A62" s="53" t="s">
         <v>402</v>
       </c>
@@ -13870,7 +13872,7 @@
       </c>
       <c r="AW62" s="33"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A63" s="53">
         <v>14</v>
       </c>
@@ -14015,7 +14017,7 @@
       </c>
       <c r="AW63" s="33"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
         <v>403</v>
       </c>
@@ -14160,7 +14162,7 @@
       </c>
       <c r="AW64" s="57"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
         <v>414</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
@@ -14364,7 +14366,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="59" t="s">
         <v>438</v>
       </c>
@@ -14445,7 +14447,7 @@
       <c r="AV67" s="52"/>
       <c r="AW67" s="33"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="59" t="s">
         <v>444</v>
       </c>
@@ -14532,7 +14534,7 @@
       <c r="AV68" s="52"/>
       <c r="AW68" s="33"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="59" t="s">
         <v>451</v>
       </c>
@@ -14623,7 +14625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
         <v>458</v>
       </c>
@@ -14720,7 +14722,7 @@
       <c r="AV70" s="52"/>
       <c r="AW70" s="33"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="59" t="s">
         <v>468</v>
       </c>
@@ -14812,7 +14814,7 @@
       <c r="AV71" s="52"/>
       <c r="AW71" s="33"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="59" t="s">
         <v>476</v>
       </c>
@@ -14907,7 +14909,7 @@
       <c r="AV72" s="52"/>
       <c r="AW72" s="33"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="59" t="s">
         <v>484</v>
       </c>
@@ -15002,7 +15004,7 @@
       <c r="AV73" s="52"/>
       <c r="AW73" s="33"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="59" t="s">
         <v>493</v>
       </c>
@@ -15097,7 +15099,7 @@
       <c r="AV74" s="52"/>
       <c r="AW74" s="33"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="59" t="s">
         <v>502</v>
       </c>
@@ -15192,7 +15194,7 @@
       <c r="AV75" s="52"/>
       <c r="AW75" s="33"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="s">
         <v>511</v>
       </c>
@@ -15284,7 +15286,7 @@
       <c r="AV76" s="52"/>
       <c r="AW76" s="33"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="59" t="s">
         <v>519</v>
       </c>
@@ -15378,7 +15380,7 @@
       <c r="AV77" s="52"/>
       <c r="AW77" s="33"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="59" t="s">
         <v>528</v>
       </c>
@@ -15467,7 +15469,7 @@
       <c r="AV78" s="52"/>
       <c r="AW78" s="33"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="62" t="s">
         <v>536</v>
       </c>
@@ -15558,7 +15560,7 @@
       <c r="AV79" s="52"/>
       <c r="AW79" s="33"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
@@ -15644,7 +15646,7 @@
       <c r="AV80" s="52"/>
       <c r="AW80" s="33"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="33"/>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
@@ -15731,7 +15733,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33"/>
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
@@ -15786,7 +15788,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="83" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -15839,7 +15841,7 @@
       <c r="AV83" s="33"/>
       <c r="AW83" s="33"/>
     </row>
-    <row r="84" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -15892,7 +15894,7 @@
       <c r="AV84" s="33"/>
       <c r="AW84" s="33"/>
     </row>
-    <row r="85" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -15943,7 +15945,7 @@
       <c r="AV85" s="33"/>
       <c r="AW85" s="33"/>
     </row>
-    <row r="86" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -15998,7 +16000,7 @@
       <c r="AV86" s="33"/>
       <c r="AW86" s="33"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="47" t="s">
@@ -16133,7 +16135,7 @@
       <c r="AV87" s="33"/>
       <c r="AW87" s="33"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="47" t="s">
         <v>391</v>
       </c>
@@ -16268,7 +16270,7 @@
       <c r="AV88" s="47"/>
       <c r="AW88" s="33"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="47"/>
       <c r="B89" s="33"/>
       <c r="C89" s="51"/>
@@ -16399,7 +16401,7 @@
       <c r="AV89" s="47"/>
       <c r="AW89" s="33"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -16456,7 +16458,7 @@
       <c r="AV90" s="33"/>
       <c r="AW90" s="33"/>
     </row>
-    <row r="91" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
         <v>561</v>
       </c>
@@ -16604,7 +16606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="64" t="s">
         <v>563</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
         <v>565</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A94" s="53" t="s">
         <v>396</v>
       </c>
@@ -17050,7 +17052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
         <v>567</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="64" t="s">
         <v>398</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
         <v>570</v>
       </c>
@@ -17490,7 +17492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A98" s="53" t="s">
         <v>400</v>
       </c>
@@ -17638,7 +17640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="75" t="s">
         <v>571</v>
       </c>
@@ -17788,7 +17790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
         <v>401</v>
       </c>
@@ -17936,7 +17938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="64">
         <v>11</v>
       </c>
@@ -18084,7 +18086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A102" s="53">
         <v>12</v>
       </c>
@@ -18234,7 +18236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="75" t="s">
         <v>573</v>
       </c>
@@ -18382,7 +18384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="64">
         <v>14</v>
       </c>
@@ -18530,7 +18532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="75" t="s">
         <v>574</v>
       </c>
@@ -18680,7 +18682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="64" t="s">
         <v>414</v>
       </c>
@@ -18830,7 +18832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="52"/>
       <c r="C107" s="52"/>
@@ -18885,7 +18887,7 @@
       <c r="AV107" s="52"/>
       <c r="AW107" s="33"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="59" t="s">
         <v>438</v>
       </c>
@@ -18966,7 +18968,7 @@
       <c r="AV108" s="52"/>
       <c r="AW108" s="33"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="59" t="s">
         <v>444</v>
       </c>
@@ -19057,7 +19059,7 @@
       <c r="AV109" s="52"/>
       <c r="AW109" s="33"/>
     </row>
-    <row r="110" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="59" t="s">
         <v>451</v>
       </c>
@@ -19144,7 +19146,7 @@
       <c r="AV110" s="52"/>
       <c r="AW110" s="33"/>
     </row>
-    <row r="111" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A111" s="59" t="s">
         <v>458</v>
       </c>
@@ -19241,7 +19243,7 @@
       <c r="AV111" s="52"/>
       <c r="AW111" s="33"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="59" t="s">
         <v>468</v>
       </c>
@@ -19335,7 +19337,7 @@
       <c r="AV112" s="52"/>
       <c r="AW112" s="33"/>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A113" s="59" t="s">
         <v>476</v>
       </c>
@@ -19432,7 +19434,7 @@
       <c r="AV113" s="52"/>
       <c r="AW113" s="33"/>
     </row>
-    <row r="114" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="59" t="s">
         <v>484</v>
       </c>
@@ -19527,7 +19529,7 @@
       <c r="AV114" s="52"/>
       <c r="AW114" s="33"/>
     </row>
-    <row r="115" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="59" t="s">
         <v>493</v>
       </c>
@@ -19616,7 +19618,7 @@
       <c r="AV115" s="52"/>
       <c r="AW115" s="33"/>
     </row>
-    <row r="116" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A116" s="59" t="s">
         <v>502</v>
       </c>
@@ -19711,7 +19713,7 @@
       <c r="AV116" s="52"/>
       <c r="AW116" s="33"/>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A117" s="59" t="s">
         <v>511</v>
       </c>
@@ -19803,7 +19805,7 @@
       <c r="AV117" s="52"/>
       <c r="AW117" s="33"/>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A118" s="59" t="s">
         <v>519</v>
       </c>
@@ -19901,7 +19903,7 @@
       <c r="AV118" s="52"/>
       <c r="AW118" s="33"/>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A119" s="59" t="s">
         <v>528</v>
       </c>
@@ -19990,7 +19992,7 @@
       <c r="AV119" s="52"/>
       <c r="AW119" s="33"/>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A120" s="62" t="s">
         <v>536</v>
       </c>
@@ -20081,7 +20083,7 @@
       <c r="AV120" s="52"/>
       <c r="AW120" s="33"/>
     </row>
-    <row r="121" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="52"/>
       <c r="B121" s="52"/>
       <c r="C121" s="52"/>
@@ -20163,7 +20165,7 @@
       <c r="AV121" s="52"/>
       <c r="AW121" s="33"/>
     </row>
-    <row r="122" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A122" s="33"/>
       <c r="B122" s="52"/>
       <c r="C122" s="52"/>
@@ -20246,7 +20248,7 @@
       <c r="AV122" s="52"/>
       <c r="AW122" s="33"/>
     </row>
-    <row r="123" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33"/>
       <c r="B123" s="52"/>
       <c r="C123" s="52"/>
@@ -20297,7 +20299,7 @@
       <c r="AV123" s="52"/>
       <c r="AW123" s="33"/>
     </row>
-    <row r="124" spans="1:49" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -20350,7 +20352,7 @@
       <c r="AV124" s="33"/>
       <c r="AW124" s="33"/>
     </row>
-    <row r="125" spans="1:49" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:49" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -20403,7 +20405,7 @@
       <c r="AV125" s="33"/>
       <c r="AW125" s="33"/>
     </row>
-    <row r="126" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -20458,7 +20460,7 @@
       <c r="AV126" s="33"/>
       <c r="AW126" s="33"/>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="47" t="s">
@@ -20593,7 +20595,7 @@
       <c r="AV127" s="33"/>
       <c r="AW127" s="33"/>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A128" s="47" t="s">
         <v>391</v>
       </c>
@@ -20728,7 +20730,7 @@
       <c r="AV128" s="47"/>
       <c r="AW128" s="33"/>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A129" s="47"/>
       <c r="B129" s="33"/>
       <c r="C129" s="51"/>
@@ -20859,7 +20861,7 @@
       <c r="AV129" s="47"/>
       <c r="AW129" s="33"/>
     </row>
-    <row r="130" spans="1:49" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:49" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -20910,7 +20912,7 @@
       <c r="AV130" s="33"/>
       <c r="AW130" s="33"/>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A131" s="53" t="s">
         <v>393</v>
       </c>
@@ -21055,7 +21057,7 @@
       </c>
       <c r="AW131" s="57"/>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A132" s="53" t="s">
         <v>394</v>
       </c>
@@ -21200,7 +21202,7 @@
       </c>
       <c r="AW132" s="59"/>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A133" s="53" t="s">
         <v>395</v>
       </c>
@@ -21345,7 +21347,7 @@
       </c>
       <c r="AW133" s="33"/>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A134" s="53" t="s">
         <v>396</v>
       </c>
@@ -21490,7 +21492,7 @@
       </c>
       <c r="AW134" s="57"/>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A135" s="53" t="s">
         <v>397</v>
       </c>
@@ -21635,7 +21637,7 @@
       </c>
       <c r="AW135" s="47"/>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A136" s="53" t="s">
         <v>398</v>
       </c>
@@ -21780,7 +21782,7 @@
       </c>
       <c r="AW136" s="57"/>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A137" s="53" t="s">
         <v>399</v>
       </c>
@@ -21925,7 +21927,7 @@
       </c>
       <c r="AW137" s="57"/>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A138" s="53" t="s">
         <v>400</v>
       </c>
@@ -22070,7 +22072,7 @@
       </c>
       <c r="AW138" s="33"/>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A139" s="53">
         <v>9</v>
       </c>
@@ -22215,7 +22217,7 @@
       </c>
       <c r="AW139" s="57"/>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A140" s="53" t="s">
         <v>401</v>
       </c>
@@ -22360,7 +22362,7 @@
       </c>
       <c r="AW140" s="33"/>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A141" s="53">
         <v>11</v>
       </c>
@@ -22505,7 +22507,7 @@
       </c>
       <c r="AW141" s="33"/>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A142" s="53">
         <v>12</v>
       </c>
@@ -22650,7 +22652,7 @@
       </c>
       <c r="AW142" s="57"/>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A143" s="53" t="s">
         <v>402</v>
       </c>
@@ -22795,7 +22797,7 @@
       </c>
       <c r="AW143" s="33"/>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A144" s="53">
         <v>14</v>
       </c>
@@ -22940,7 +22942,7 @@
       </c>
       <c r="AW144" s="33"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A145" s="53" t="s">
         <v>403</v>
       </c>
@@ -23085,7 +23087,7 @@
       </c>
       <c r="AW145" s="57"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A146" s="53" t="s">
         <v>414</v>
       </c>
@@ -23234,7 +23236,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="147" spans="1:50" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="33"/>
       <c r="B147" s="52"/>
       <c r="C147" s="52"/>
@@ -23289,7 +23291,7 @@
       <c r="AV147" s="52"/>
       <c r="AW147" s="33"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A148" s="59"/>
       <c r="B148" s="52"/>
       <c r="C148" s="52"/>
@@ -23364,7 +23366,7 @@
       <c r="AV148" s="52"/>
       <c r="AW148" s="33"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A149" s="59"/>
       <c r="B149" s="52"/>
       <c r="C149" s="52"/>
@@ -23439,7 +23441,7 @@
       <c r="AV149" s="52"/>
       <c r="AW149" s="33"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A150" s="59"/>
       <c r="B150" s="52"/>
       <c r="C150" s="52"/>
@@ -23518,7 +23520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A151" s="59"/>
       <c r="B151" s="52"/>
       <c r="C151" s="52"/>
@@ -23601,7 +23603,7 @@
       <c r="AV151" s="52"/>
       <c r="AW151" s="33"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A152" s="59"/>
       <c r="B152" s="52"/>
       <c r="C152" s="52"/>
@@ -23684,7 +23686,7 @@
       <c r="AV152" s="52"/>
       <c r="AW152" s="33"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="59"/>
       <c r="B153" s="52"/>
       <c r="C153" s="52"/>
@@ -23767,7 +23769,7 @@
       <c r="AV153" s="52"/>
       <c r="AW153" s="33"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A154" s="59"/>
       <c r="B154" s="52"/>
       <c r="C154" s="52"/>
@@ -23850,7 +23852,7 @@
       <c r="AV154" s="52"/>
       <c r="AW154" s="33"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A155" s="59"/>
       <c r="B155" s="52"/>
       <c r="C155" s="52"/>
@@ -23933,7 +23935,7 @@
       <c r="AV155" s="52"/>
       <c r="AW155" s="33"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="59"/>
       <c r="B156" s="52"/>
       <c r="C156" s="52"/>
@@ -24016,7 +24018,7 @@
       <c r="AV156" s="52"/>
       <c r="AW156" s="33"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A157" s="59"/>
       <c r="B157" s="52"/>
       <c r="C157" s="52"/>
@@ -24099,7 +24101,7 @@
       <c r="AV157" s="52"/>
       <c r="AW157" s="33"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="59"/>
       <c r="B158" s="52"/>
       <c r="C158" s="52"/>
@@ -24182,7 +24184,7 @@
       <c r="AV158" s="52"/>
       <c r="AW158" s="33"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A159" s="59"/>
       <c r="B159" s="52"/>
       <c r="C159" s="52"/>
@@ -24265,7 +24267,7 @@
       <c r="AV159" s="52"/>
       <c r="AW159" s="33"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A160" s="59"/>
       <c r="B160" s="52"/>
       <c r="C160" s="52"/>
@@ -24348,7 +24350,7 @@
       <c r="AV160" s="52"/>
       <c r="AW160" s="33"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" s="52"/>
       <c r="B161" s="52"/>
       <c r="C161" s="52"/>
@@ -24431,7 +24433,7 @@
       <c r="AV161" s="52"/>
       <c r="AW161" s="33"/>
     </row>
-    <row r="162" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="33"/>
       <c r="B162" s="52"/>
       <c r="C162" s="52"/>
@@ -24523,7 +24525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="33"/>
       <c r="B163" s="52"/>
       <c r="C163" s="52"/>
@@ -24606,7 +24608,7 @@
       <c r="AV163" s="52"/>
       <c r="AW163" s="5"/>
     </row>
-    <row r="164" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="33"/>
       <c r="B164" s="52"/>
       <c r="C164" s="52"/>
@@ -24694,7 +24696,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="165" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="33"/>
       <c r="B165" s="52"/>
       <c r="C165" s="52"/>
@@ -24745,7 +24747,7 @@
       <c r="AV165" s="52"/>
       <c r="AW165" s="33"/>
     </row>
-    <row r="166" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -24798,7 +24800,7 @@
       <c r="AV166" s="33"/>
       <c r="AW166" s="33"/>
     </row>
-    <row r="167" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -24851,7 +24853,7 @@
       <c r="AV167" s="33"/>
       <c r="AW167" s="33"/>
     </row>
-    <row r="168" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -24902,7 +24904,7 @@
       <c r="AV168" s="33"/>
       <c r="AW168" s="33"/>
     </row>
-    <row r="169" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -24957,7 +24959,7 @@
       <c r="AV169" s="33"/>
       <c r="AW169" s="33"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" s="47" t="s">
         <v>4</v>
       </c>
@@ -25104,7 +25106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" s="47" t="s">
         <v>392</v>
       </c>
@@ -25251,7 +25253,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -25306,7 +25308,7 @@
       <c r="AV172" s="33"/>
       <c r="AW172" s="33"/>
     </row>
-    <row r="173" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="64" t="s">
         <v>581</v>
       </c>
@@ -25453,7 +25455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="64" t="s">
         <v>583</v>
       </c>
@@ -25596,7 +25598,7 @@
       </c>
       <c r="AW174" s="59"/>
     </row>
-    <row r="175" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A175" s="53" t="s">
         <v>395</v>
       </c>
@@ -25741,7 +25743,7 @@
       </c>
       <c r="AW175" s="33"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="53" t="s">
         <v>396</v>
       </c>
@@ -25886,7 +25888,7 @@
       </c>
       <c r="AW176" s="57"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="53" t="s">
         <v>586</v>
       </c>
@@ -26033,7 +26035,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="53" t="s">
         <v>398</v>
       </c>
@@ -26178,7 +26180,7 @@
       </c>
       <c r="AW178" s="57"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A179" s="53" t="s">
         <v>399</v>
       </c>
@@ -26323,7 +26325,7 @@
       </c>
       <c r="AW179" s="57"/>
     </row>
-    <row r="180" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="53" t="s">
         <v>400</v>
       </c>
@@ -26468,7 +26470,7 @@
       </c>
       <c r="AW180" s="44"/>
     </row>
-    <row r="181" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="64">
         <v>9</v>
       </c>
@@ -26613,7 +26615,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="182" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="64" t="s">
         <v>588</v>
       </c>
@@ -26754,7 +26756,7 @@
       </c>
       <c r="AW182" s="33"/>
     </row>
-    <row r="183" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A183" s="53">
         <v>11</v>
       </c>
@@ -26901,7 +26903,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A184" s="53" t="s">
         <v>589</v>
       </c>
@@ -27046,7 +27048,7 @@
       </c>
       <c r="AW184" s="57"/>
     </row>
-    <row r="185" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="53" t="s">
         <v>402</v>
       </c>
@@ -27191,7 +27193,7 @@
       </c>
       <c r="AW185" s="44"/>
     </row>
-    <row r="186" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="64">
         <v>14</v>
       </c>
@@ -27336,7 +27338,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="187" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="64" t="s">
         <v>590</v>
       </c>
@@ -27479,7 +27481,7 @@
       </c>
       <c r="AW187" s="57"/>
     </row>
-    <row r="188" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="53" t="s">
         <v>591</v>
       </c>
@@ -27630,7 +27632,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="189" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="64">
         <v>17</v>
       </c>
@@ -27777,7 +27779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="190" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33"/>
       <c r="B190" s="52"/>
       <c r="C190" s="52"/>
@@ -27836,7 +27838,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A191" s="59" t="s">
         <v>592</v>
       </c>
@@ -27917,7 +27919,7 @@
       <c r="AV191" s="52"/>
       <c r="AW191" s="33"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A192" s="59" t="s">
         <v>593</v>
       </c>
@@ -28004,7 +28006,7 @@
       <c r="AV192" s="52"/>
       <c r="AW192" s="33"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" s="59" t="s">
         <v>595</v>
       </c>
@@ -28095,7 +28097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="59" t="s">
         <v>597</v>
       </c>
@@ -28192,7 +28194,7 @@
       <c r="AV194" s="52"/>
       <c r="AW194" s="33"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" s="59" t="s">
         <v>599</v>
       </c>
@@ -28286,7 +28288,7 @@
       <c r="AV195" s="52"/>
       <c r="AW195" s="33"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" s="59" t="s">
         <v>600</v>
       </c>
@@ -28383,7 +28385,7 @@
       <c r="AV196" s="52"/>
       <c r="AW196" s="33"/>
     </row>
-    <row r="197" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="59" t="s">
         <v>602</v>
       </c>
@@ -28472,7 +28474,7 @@
       <c r="AV197" s="52"/>
       <c r="AW197" s="33"/>
     </row>
-    <row r="198" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A198" s="59" t="s">
         <v>604</v>
       </c>
@@ -28567,7 +28569,7 @@
       <c r="AV198" s="52"/>
       <c r="AW198" s="33"/>
     </row>
-    <row r="199" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="59" t="s">
         <v>605</v>
       </c>
@@ -28665,7 +28667,7 @@
       <c r="AV199" s="52"/>
       <c r="AW199" s="33"/>
     </row>
-    <row r="200" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="59" t="s">
         <v>606</v>
       </c>
@@ -28755,7 +28757,7 @@
       <c r="AV200" s="52"/>
       <c r="AW200" s="33"/>
     </row>
-    <row r="201" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A201" s="59" t="s">
         <v>607</v>
       </c>
@@ -28851,7 +28853,7 @@
       <c r="AV201" s="52"/>
       <c r="AW201" s="33"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="62" t="s">
         <v>608</v>
       </c>
@@ -28944,7 +28946,7 @@
       <c r="AV202" s="52"/>
       <c r="AW202" s="33"/>
     </row>
-    <row r="203" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
       <c r="B203" s="52"/>
       <c r="C203" s="52"/>
@@ -29030,7 +29032,7 @@
       <c r="AV203" s="52"/>
       <c r="AW203" s="33"/>
     </row>
-    <row r="204" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
       <c r="B204" s="52"/>
       <c r="C204" s="52"/>
@@ -29113,7 +29115,7 @@
       <c r="AV204" s="52"/>
       <c r="AW204" s="33"/>
     </row>
-    <row r="205" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A205" s="33"/>
       <c r="B205" s="52"/>
       <c r="C205" s="52"/>
@@ -29205,8 +29207,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A207" s="33"/>
       <c r="B207" s="33"/>
       <c r="C207" s="33"/>
@@ -29259,7 +29261,7 @@
       <c r="AV207" s="33"/>
       <c r="AW207" s="33"/>
     </row>
-    <row r="208" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -29312,7 +29314,7 @@
       <c r="AV208" s="33"/>
       <c r="AW208" s="33"/>
     </row>
-    <row r="209" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="33"/>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
@@ -29363,7 +29365,7 @@
       <c r="AV209" s="33"/>
       <c r="AW209" s="33"/>
     </row>
-    <row r="210" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -29418,7 +29420,7 @@
       <c r="AV210" s="33"/>
       <c r="AW210" s="33"/>
     </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A211" s="47" t="s">
         <v>4</v>
       </c>
@@ -29565,7 +29567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A212" s="47" t="s">
         <v>392</v>
       </c>
@@ -29712,7 +29714,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.2">
       <c r="G213" s="13" t="s">
         <v>29</v>
       </c>
@@ -29720,7 +29722,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="214" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="64" t="s">
         <v>561</v>
       </c>
@@ -29865,7 +29867,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="215" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="64" t="s">
         <v>610</v>
       </c>
@@ -30012,7 +30014,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="216" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="64" t="s">
         <v>612</v>
       </c>
@@ -30159,7 +30161,7 @@
       </c>
       <c r="AW216" s="33"/>
     </row>
-    <row r="217" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A217" s="53" t="s">
         <v>614</v>
       </c>
@@ -30306,7 +30308,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="64" t="s">
         <v>397</v>
       </c>
@@ -30451,7 +30453,7 @@
       </c>
       <c r="AW218" s="74"/>
     </row>
-    <row r="219" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="64" t="s">
         <v>615</v>
       </c>
@@ -30596,7 +30598,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="220" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="53" t="s">
         <v>617</v>
       </c>
@@ -30743,7 +30745,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="221" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="64" t="s">
         <v>400</v>
       </c>
@@ -30890,7 +30892,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="222" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="64" t="s">
         <v>620</v>
       </c>
@@ -31035,7 +31037,7 @@
       </c>
       <c r="AW222" s="57"/>
     </row>
-    <row r="223" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="53" t="s">
         <v>621</v>
       </c>
@@ -31182,7 +31184,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="224" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="64">
         <v>11</v>
       </c>
@@ -31327,7 +31329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="225" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="64">
         <v>12</v>
       </c>
@@ -31470,7 +31472,7 @@
       </c>
       <c r="AW225" s="57"/>
     </row>
-    <row r="226" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A226" s="53" t="s">
         <v>402</v>
       </c>
@@ -31615,7 +31617,7 @@
       </c>
       <c r="AW226" s="33"/>
     </row>
-    <row r="227" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="53" t="s">
         <v>622</v>
       </c>
@@ -31762,7 +31764,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="228" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="64" t="s">
         <v>403</v>
       </c>
@@ -31907,7 +31909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A229" s="53" t="s">
         <v>623</v>
       </c>
@@ -32056,7 +32058,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A230" s="33"/>
       <c r="B230" s="52"/>
       <c r="C230" s="52"/>
@@ -32115,7 +32117,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A231" s="59" t="s">
         <v>438</v>
       </c>
@@ -32202,7 +32204,7 @@
       <c r="AV231" s="52"/>
       <c r="AW231" s="33"/>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A232" s="59" t="s">
         <v>444</v>
       </c>
@@ -32289,7 +32291,7 @@
       <c r="AV232" s="52"/>
       <c r="AW232" s="33"/>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A233" s="59" t="s">
         <v>451</v>
       </c>
@@ -32380,7 +32382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A234" s="59" t="s">
         <v>627</v>
       </c>
@@ -32475,7 +32477,7 @@
       <c r="AV234" s="52"/>
       <c r="AW234" s="33"/>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A235" s="59" t="s">
         <v>629</v>
       </c>
@@ -32570,7 +32572,7 @@
       <c r="AV235" s="52"/>
       <c r="AW235" s="33"/>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A236" s="59" t="s">
         <v>631</v>
       </c>
@@ -32665,7 +32667,7 @@
       <c r="AV236" s="52"/>
       <c r="AW236" s="33"/>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A237" s="59" t="s">
         <v>633</v>
       </c>
@@ -32760,7 +32762,7 @@
       <c r="AV237" s="52"/>
       <c r="AW237" s="33"/>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A238" s="59" t="s">
         <v>635</v>
       </c>
@@ -32855,7 +32857,7 @@
       <c r="AV238" s="52"/>
       <c r="AW238" s="33"/>
     </row>
-    <row r="239" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="59" t="s">
         <v>636</v>
       </c>
@@ -32951,7 +32953,7 @@
       <c r="AV239" s="52"/>
       <c r="AW239" s="33"/>
     </row>
-    <row r="240" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="59" t="s">
         <v>637</v>
       </c>
@@ -33044,7 +33046,7 @@
       <c r="AV240" s="52"/>
       <c r="AW240" s="33"/>
     </row>
-    <row r="241" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A241" s="59" t="s">
         <v>638</v>
       </c>
@@ -33139,7 +33141,7 @@
       <c r="AV241" s="52"/>
       <c r="AW241" s="33"/>
     </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A242" s="59" t="s">
         <v>640</v>
       </c>
@@ -33234,7 +33236,7 @@
       <c r="AV242" s="52"/>
       <c r="AW242" s="33"/>
     </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A243" s="62"/>
       <c r="B243" s="61"/>
       <c r="C243" s="61"/>
@@ -33320,7 +33322,7 @@
       <c r="AV243" s="52"/>
       <c r="AW243" s="33"/>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A244" s="52"/>
       <c r="B244" s="52"/>
       <c r="C244" s="52"/>
@@ -33408,7 +33410,7 @@
       <c r="AV244" s="52"/>
       <c r="AW244" s="33"/>
     </row>
-    <row r="245" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="33"/>
       <c r="B245" s="52"/>
       <c r="C245" s="52"/>
@@ -33505,8 +33507,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="246" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="247" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A247" s="33"/>
       <c r="B247" s="33"/>
       <c r="C247" s="33"/>
@@ -33559,7 +33561,7 @@
       <c r="AV247" s="33"/>
       <c r="AW247" s="33"/>
     </row>
-    <row r="248" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:50" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -33612,7 +33614,7 @@
       <c r="AV248" s="33"/>
       <c r="AW248" s="33"/>
     </row>
-    <row r="249" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="33"/>
       <c r="B249" s="33"/>
       <c r="C249" s="33"/>
@@ -33663,7 +33665,7 @@
       <c r="AV249" s="33"/>
       <c r="AW249" s="33"/>
     </row>
-    <row r="250" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -33718,7 +33720,7 @@
       <c r="AV250" s="33"/>
       <c r="AW250" s="33"/>
     </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A251" s="33"/>
       <c r="B251" s="33"/>
       <c r="C251" s="47" t="s">
@@ -33853,7 +33855,7 @@
       <c r="AV251" s="33"/>
       <c r="AW251" s="33"/>
     </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A252" s="47" t="s">
         <v>391</v>
       </c>
@@ -33988,7 +33990,7 @@
       <c r="AV252" s="47"/>
       <c r="AW252" s="33"/>
     </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A253" s="47"/>
       <c r="B253" s="33"/>
       <c r="C253" s="51"/>
@@ -34119,7 +34121,7 @@
       <c r="AV253" s="47"/>
       <c r="AW253" s="33"/>
     </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -34180,7 +34182,7 @@
       <c r="AV254" s="33"/>
       <c r="AW254" s="33"/>
     </row>
-    <row r="255" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="64" t="s">
         <v>645</v>
       </c>
@@ -34327,7 +34329,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="256" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="64" t="s">
         <v>647</v>
       </c>
@@ -34472,7 +34474,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="257" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="64" t="s">
         <v>648</v>
       </c>
@@ -34621,7 +34623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="64" t="s">
         <v>649</v>
       </c>
@@ -34768,7 +34770,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="259" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="53" t="s">
         <v>650</v>
       </c>
@@ -34915,7 +34917,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="64" t="s">
         <v>398</v>
       </c>
@@ -35062,7 +35064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="261" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="64" t="s">
         <v>651</v>
       </c>
@@ -35207,7 +35209,7 @@
       </c>
       <c r="AW261" s="57"/>
     </row>
-    <row r="262" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A262" s="53" t="s">
         <v>400</v>
       </c>
@@ -35354,7 +35356,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="263" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="53" t="s">
         <v>652</v>
       </c>
@@ -35499,7 +35501,7 @@
       </c>
       <c r="AW263" s="83"/>
     </row>
-    <row r="264" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="64" t="s">
         <v>401</v>
       </c>
@@ -35644,7 +35646,7 @@
       </c>
       <c r="AW264" s="33"/>
     </row>
-    <row r="265" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="53" t="s">
         <v>653</v>
       </c>
@@ -35791,7 +35793,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="64">
         <v>12</v>
       </c>
@@ -35936,7 +35938,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="267" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="64" t="s">
         <v>654</v>
       </c>
@@ -36081,7 +36083,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="268" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A268" s="53" t="s">
         <v>655</v>
       </c>
@@ -36226,7 +36228,7 @@
       </c>
       <c r="AW268" s="33"/>
     </row>
-    <row r="269" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A269" s="53" t="s">
         <v>403</v>
       </c>
@@ -36371,7 +36373,7 @@
       </c>
       <c r="AW269" s="57"/>
     </row>
-    <row r="270" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A270" s="53" t="s">
         <v>414</v>
       </c>
@@ -36520,7 +36522,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="271" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A271" s="57" t="s">
         <v>656</v>
       </c>
@@ -36581,7 +36583,7 @@
       <c r="AV271" s="52"/>
       <c r="AW271" s="33"/>
     </row>
-    <row r="272" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A272" s="57" t="s">
         <v>657</v>
       </c>
@@ -36668,7 +36670,7 @@
       <c r="AV272" s="52"/>
       <c r="AW272" s="33"/>
     </row>
-    <row r="273" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A273" s="57" t="s">
         <v>659</v>
       </c>
@@ -36755,7 +36757,7 @@
       <c r="AV273" s="52"/>
       <c r="AW273" s="33"/>
     </row>
-    <row r="274" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A274" s="57" t="s">
         <v>660</v>
       </c>
@@ -36846,7 +36848,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A275" s="57" t="s">
         <v>374</v>
       </c>
@@ -36941,7 +36943,7 @@
       <c r="AV275" s="52"/>
       <c r="AW275" s="33"/>
     </row>
-    <row r="276" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A276" s="57" t="s">
         <v>662</v>
       </c>
@@ -37035,7 +37037,7 @@
       <c r="AV276" s="52"/>
       <c r="AW276" s="33"/>
     </row>
-    <row r="277" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="57" t="s">
         <v>663</v>
       </c>
@@ -37126,7 +37128,7 @@
       <c r="AV277" s="52"/>
       <c r="AW277" s="33"/>
     </row>
-    <row r="278" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="57" t="s">
         <v>493</v>
       </c>
@@ -37223,7 +37225,7 @@
       <c r="AV278" s="52"/>
       <c r="AW278" s="33"/>
     </row>
-    <row r="279" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A279" s="57" t="s">
         <v>664</v>
       </c>
@@ -37318,7 +37320,7 @@
       <c r="AV279" s="52"/>
       <c r="AW279" s="33"/>
     </row>
-    <row r="280" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A280" s="57" t="s">
         <v>665</v>
       </c>
@@ -37410,7 +37412,7 @@
       <c r="AV280" s="52"/>
       <c r="AW280" s="33"/>
     </row>
-    <row r="281" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A281" s="57" t="s">
         <v>666</v>
       </c>
@@ -37499,7 +37501,7 @@
       <c r="AV281" s="52"/>
       <c r="AW281" s="33"/>
     </row>
-    <row r="282" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A282" s="57" t="s">
         <v>667</v>
       </c>
@@ -37588,7 +37590,7 @@
       <c r="AV282" s="52"/>
       <c r="AW282" s="33"/>
     </row>
-    <row r="283" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A283" s="57" t="s">
         <v>668</v>
       </c>
@@ -37682,7 +37684,7 @@
       <c r="AV283" s="52"/>
       <c r="AW283" s="33"/>
     </row>
-    <row r="284" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A284" s="57" t="s">
         <v>669</v>
       </c>
@@ -37771,7 +37773,7 @@
       <c r="AV284" s="52"/>
       <c r="AW284" s="33"/>
     </row>
-    <row r="285" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A285" s="57" t="s">
         <v>598</v>
       </c>
@@ -37860,7 +37862,7 @@
       <c r="AV285" s="52"/>
       <c r="AW285" s="33"/>
     </row>
-    <row r="286" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="47"/>
       <c r="B286" s="47"/>
       <c r="C286" s="47"/>
@@ -37949,7 +37951,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="287" spans="1:50" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AW287" s="80" t="s">
         <v>578</v>
       </c>
@@ -37958,7 +37960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
@@ -38011,7 +38013,7 @@
       <c r="AV288" s="33"/>
       <c r="AW288" s="33"/>
     </row>
-    <row r="289" spans="1:50" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="33"/>
       <c r="B289" s="33"/>
       <c r="C289" s="33"/>
@@ -38064,7 +38066,7 @@
       <c r="AV289" s="33"/>
       <c r="AW289" s="33"/>
     </row>
-    <row r="290" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -38119,7 +38121,7 @@
       <c r="AV290" s="33"/>
       <c r="AW290" s="33"/>
     </row>
-    <row r="291" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A291" s="33"/>
       <c r="B291" s="33"/>
       <c r="C291" s="47" t="s">
@@ -38254,7 +38256,7 @@
       <c r="AV291" s="33"/>
       <c r="AW291" s="33"/>
     </row>
-    <row r="292" spans="1:50" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:50" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
@@ -38305,7 +38307,7 @@
       <c r="AV292" s="33"/>
       <c r="AW292" s="33"/>
     </row>
-    <row r="293" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A293" s="53" t="s">
         <v>393</v>
       </c>
@@ -38453,7 +38455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A294" s="53" t="s">
         <v>394</v>
       </c>
@@ -38601,7 +38603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A295" s="53" t="s">
         <v>395</v>
       </c>
@@ -38749,7 +38751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A296" s="53" t="s">
         <v>396</v>
       </c>
@@ -38897,7 +38899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A297" s="53" t="s">
         <v>397</v>
       </c>
@@ -39045,7 +39047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A298" s="53" t="s">
         <v>398</v>
       </c>
@@ -39193,7 +39195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A299" s="53" t="s">
         <v>399</v>
       </c>
@@ -39341,7 +39343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A300" s="53" t="s">
         <v>400</v>
       </c>
@@ -39489,7 +39491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A301" s="53">
         <v>9</v>
       </c>
@@ -39637,7 +39639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A302" s="53" t="s">
         <v>401</v>
       </c>
@@ -39785,7 +39787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A303" s="53">
         <v>11</v>
       </c>
@@ -39933,7 +39935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A304" s="53">
         <v>12</v>
       </c>
@@ -40081,7 +40083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A305" s="53" t="s">
         <v>402</v>
       </c>
@@ -40229,7 +40231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A306" s="53">
         <v>14</v>
       </c>
@@ -40377,7 +40379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A307" s="53" t="s">
         <v>403</v>
       </c>
@@ -40525,7 +40527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A308" s="53" t="s">
         <v>414</v>
       </c>
@@ -40677,7 +40679,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="309" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A309" s="53">
         <v>17</v>
       </c>
@@ -40829,7 +40831,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="310" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A310" s="53">
         <v>18</v>
       </c>
@@ -40981,7 +40983,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="311" spans="1:51" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="33"/>
       <c r="B311" s="52"/>
       <c r="C311" s="52"/>
@@ -41036,7 +41038,7 @@
       <c r="AV311" s="52"/>
       <c r="AW311" s="33"/>
     </row>
-    <row r="312" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A312" s="59"/>
       <c r="B312" s="52"/>
       <c r="C312" s="52"/>
@@ -41111,7 +41113,7 @@
       <c r="AV312" s="52"/>
       <c r="AW312" s="33"/>
     </row>
-    <row r="313" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A313" s="59"/>
       <c r="B313" s="52"/>
       <c r="C313" s="52"/>
@@ -41186,7 +41188,7 @@
       <c r="AV313" s="52"/>
       <c r="AW313" s="33"/>
     </row>
-    <row r="314" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A314" s="59"/>
       <c r="B314" s="52"/>
       <c r="C314" s="52"/>
@@ -41265,7 +41267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A315" s="59"/>
       <c r="B315" s="52"/>
       <c r="C315" s="52"/>
@@ -41348,7 +41350,7 @@
       <c r="AV315" s="52"/>
       <c r="AW315" s="33"/>
     </row>
-    <row r="316" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A316" s="59"/>
       <c r="B316" s="52"/>
       <c r="C316" s="52"/>
@@ -41431,7 +41433,7 @@
       <c r="AV316" s="52"/>
       <c r="AW316" s="33"/>
     </row>
-    <row r="317" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A317" s="59"/>
       <c r="B317" s="52"/>
       <c r="C317" s="52"/>
@@ -41514,7 +41516,7 @@
       <c r="AV317" s="52"/>
       <c r="AW317" s="33"/>
     </row>
-    <row r="318" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A318" s="59"/>
       <c r="B318" s="52"/>
       <c r="C318" s="52"/>
@@ -41597,7 +41599,7 @@
       <c r="AV318" s="52"/>
       <c r="AW318" s="33"/>
     </row>
-    <row r="319" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A319" s="59"/>
       <c r="B319" s="52"/>
       <c r="C319" s="52"/>
@@ -41680,7 +41682,7 @@
       <c r="AV319" s="52"/>
       <c r="AW319" s="33"/>
     </row>
-    <row r="320" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A320" s="59"/>
       <c r="B320" s="52"/>
       <c r="C320" s="52"/>
@@ -41763,7 +41765,7 @@
       <c r="AV320" s="52"/>
       <c r="AW320" s="33"/>
     </row>
-    <row r="321" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A321" s="59"/>
       <c r="B321" s="52"/>
       <c r="C321" s="52"/>
@@ -41846,7 +41848,7 @@
       <c r="AV321" s="52"/>
       <c r="AW321" s="33"/>
     </row>
-    <row r="322" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A322" s="59"/>
       <c r="B322" s="52"/>
       <c r="C322" s="52"/>
@@ -41929,7 +41931,7 @@
       <c r="AV322" s="52"/>
       <c r="AW322" s="33"/>
     </row>
-    <row r="323" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A323" s="59"/>
       <c r="B323" s="52"/>
       <c r="C323" s="52"/>
@@ -42012,7 +42014,7 @@
       <c r="AV323" s="52"/>
       <c r="AW323" s="33"/>
     </row>
-    <row r="324" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A324" s="59"/>
       <c r="B324" s="52"/>
       <c r="C324" s="52"/>
@@ -42095,7 +42097,7 @@
       <c r="AV324" s="52"/>
       <c r="AW324" s="33"/>
     </row>
-    <row r="325" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A325" s="52"/>
       <c r="B325" s="52"/>
       <c r="C325" s="52"/>
@@ -42178,7 +42180,7 @@
       <c r="AV325" s="52"/>
       <c r="AW325" s="33"/>
     </row>
-    <row r="326" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="33"/>
       <c r="B326" s="52"/>
       <c r="C326" s="52"/>
@@ -42271,7 +42273,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="327" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A327" s="33"/>
       <c r="B327" s="52"/>
       <c r="C327" s="52"/>
@@ -42355,7 +42357,7 @@
       <c r="AW327" s="52"/>
       <c r="AX327" s="33"/>
     </row>
-    <row r="328" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="P328" s="52">
         <v>35</v>
       </c>
@@ -42420,8 +42422,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="329" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="330" spans="1:51" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="1:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
       <c r="B330" s="33"/>
       <c r="C330" s="33"/>
@@ -42474,7 +42476,7 @@
       <c r="AV330" s="33"/>
       <c r="AW330" s="33"/>
     </row>
-    <row r="331" spans="1:51" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:51" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="33"/>
       <c r="B331" s="33"/>
       <c r="C331" s="33"/>
@@ -42527,7 +42529,7 @@
       <c r="AV331" s="33"/>
       <c r="AW331" s="33"/>
     </row>
-    <row r="332" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33"/>
       <c r="B332" s="33"/>
       <c r="C332" s="33"/>
@@ -42582,7 +42584,7 @@
       <c r="AV332" s="33"/>
       <c r="AW332" s="33"/>
     </row>
-    <row r="333" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A333" s="33"/>
       <c r="B333" s="33"/>
       <c r="C333" s="47" t="s">
@@ -42717,7 +42719,7 @@
       <c r="AV333" s="33"/>
       <c r="AW333" s="33"/>
     </row>
-    <row r="334" spans="1:51" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:51" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="33"/>
       <c r="B334" s="33"/>
       <c r="C334" s="33"/>
@@ -42770,7 +42772,7 @@
       <c r="AV334" s="33"/>
       <c r="AW334" s="33"/>
     </row>
-    <row r="335" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="95" t="s">
         <v>581</v>
       </c>
@@ -42922,7 +42924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="64" t="s">
         <v>610</v>
       </c>
@@ -43074,7 +43076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="64" t="s">
         <v>670</v>
       </c>
@@ -43224,7 +43226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="64" t="s">
         <v>671</v>
       </c>
@@ -43374,7 +43376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="64" t="s">
         <v>673</v>
       </c>
@@ -43524,7 +43526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="64" t="s">
         <v>674</v>
       </c>
@@ -43674,7 +43676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="64" t="s">
         <v>399</v>
       </c>
@@ -43826,7 +43828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="64" t="s">
         <v>677</v>
       </c>
@@ -43974,7 +43976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="53">
         <v>9</v>
       </c>
@@ -44122,7 +44124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="64" t="s">
         <v>678</v>
       </c>
@@ -44272,7 +44274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="64" t="s">
         <v>679</v>
       </c>
@@ -44420,7 +44422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="53" t="s">
         <v>680</v>
       </c>
@@ -44568,7 +44570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="64" t="s">
         <v>402</v>
       </c>
@@ -44716,7 +44718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="53" t="s">
         <v>681</v>
       </c>
@@ -44864,7 +44866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="64" t="s">
         <v>403</v>
       </c>
@@ -45014,7 +45016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A350" s="53" t="s">
         <v>414</v>
       </c>
@@ -45166,7 +45168,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="351" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="53" t="s">
         <v>682</v>
       </c>
@@ -45318,7 +45320,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="352" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="64">
         <v>18</v>
       </c>
@@ -45472,7 +45474,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="353" spans="1:51" ht="9.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:51" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A353" s="33"/>
       <c r="B353" s="52"/>
       <c r="C353" s="52"/>
@@ -45527,7 +45529,7 @@
       <c r="AV353" s="52"/>
       <c r="AW353" s="33"/>
     </row>
-    <row r="354" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A354" s="57" t="s">
         <v>592</v>
       </c>
@@ -45614,7 +45616,7 @@
       <c r="AV354" s="52"/>
       <c r="AW354" s="33"/>
     </row>
-    <row r="355" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A355" s="57" t="s">
         <v>684</v>
       </c>
@@ -45701,7 +45703,7 @@
       <c r="AV355" s="52"/>
       <c r="AW355" s="33"/>
     </row>
-    <row r="356" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A356" s="57" t="s">
         <v>685</v>
       </c>
@@ -45792,7 +45794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A357" s="57" t="s">
         <v>597</v>
       </c>
@@ -45887,7 +45889,7 @@
       <c r="AV357" s="52"/>
       <c r="AW357" s="33"/>
     </row>
-    <row r="358" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A358" s="57" t="s">
         <v>687</v>
       </c>
@@ -45982,7 +45984,7 @@
       <c r="AV358" s="52"/>
       <c r="AW358" s="33"/>
     </row>
-    <row r="359" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A359" s="57" t="s">
         <v>688</v>
       </c>
@@ -46077,7 +46079,7 @@
       <c r="AV359" s="52"/>
       <c r="AW359" s="33"/>
     </row>
-    <row r="360" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A360" s="57" t="s">
         <v>689</v>
       </c>
@@ -46171,7 +46173,7 @@
       <c r="AV360" s="52"/>
       <c r="AW360" s="33"/>
     </row>
-    <row r="361" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A361" s="57" t="s">
         <v>690</v>
       </c>
@@ -46260,7 +46262,7 @@
       <c r="AV361" s="52"/>
       <c r="AW361" s="33"/>
     </row>
-    <row r="362" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A362" s="57" t="s">
         <v>691</v>
       </c>
@@ -46359,7 +46361,7 @@
       <c r="AV362" s="52"/>
       <c r="AW362" s="33"/>
     </row>
-    <row r="363" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A363" s="57" t="s">
         <v>692</v>
       </c>
@@ -46454,7 +46456,7 @@
       <c r="AV363" s="52"/>
       <c r="AW363" s="33"/>
     </row>
-    <row r="364" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A364" s="57" t="s">
         <v>693</v>
       </c>
@@ -46546,7 +46548,7 @@
       <c r="AV364" s="52"/>
       <c r="AW364" s="33"/>
     </row>
-    <row r="365" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A365" s="57" t="s">
         <v>528</v>
       </c>
@@ -46640,7 +46642,7 @@
       <c r="AV365" s="52"/>
       <c r="AW365" s="33"/>
     </row>
-    <row r="366" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A366" s="57" t="s">
         <v>536</v>
       </c>
@@ -46729,7 +46731,7 @@
       <c r="AV366" s="52"/>
       <c r="AW366" s="33"/>
     </row>
-    <row r="367" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A367" s="57" t="s">
         <v>694</v>
       </c>
@@ -46818,7 +46820,7 @@
       <c r="AV367" s="52"/>
       <c r="AW367" s="33"/>
     </row>
-    <row r="368" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="57"/>
       <c r="B368" s="47"/>
       <c r="C368" s="47"/>
@@ -46906,7 +46908,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="369" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="47"/>
       <c r="B369" s="47"/>
       <c r="C369" s="47"/>
@@ -46995,7 +46997,7 @@
       <c r="AW369" s="52"/>
       <c r="AX369" s="33"/>
     </row>
-    <row r="370" spans="1:51" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:51" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P370" s="79">
         <v>35</v>
       </c>
@@ -47060,8 +47062,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="372" spans="1:51" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="1:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A372" s="33"/>
       <c r="B372" s="33"/>
       <c r="C372" s="33"/>
@@ -47114,7 +47116,7 @@
       <c r="AV372" s="33"/>
       <c r="AW372" s="33"/>
     </row>
-    <row r="373" spans="1:51" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:51" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="33"/>
       <c r="B373" s="33"/>
       <c r="C373" s="33"/>
@@ -47167,7 +47169,7 @@
       <c r="AV373" s="33"/>
       <c r="AW373" s="33"/>
     </row>
-    <row r="374" spans="1:51" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:51" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A374" s="33"/>
       <c r="B374" s="33"/>
       <c r="C374" s="33"/>
@@ -47222,7 +47224,7 @@
       <c r="AV374" s="33"/>
       <c r="AW374" s="33"/>
     </row>
-    <row r="375" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A375" s="33"/>
       <c r="B375" s="33"/>
       <c r="C375" s="47" t="s">
@@ -47357,7 +47359,7 @@
       <c r="AV375" s="33"/>
       <c r="AW375" s="33"/>
     </row>
-    <row r="376" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A376" s="47" t="s">
         <v>392</v>
       </c>
@@ -47504,7 +47506,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="377" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A377" s="33"/>
       <c r="B377" s="33"/>
       <c r="C377" s="33"/>
@@ -47559,7 +47561,7 @@
       <c r="AV377" s="33"/>
       <c r="AW377" s="33"/>
     </row>
-    <row r="378" spans="1:51" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="64" t="s">
         <v>581</v>
       </c>
@@ -47706,7 +47708,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="379" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="64" t="s">
         <v>697</v>
       </c>
@@ -47853,7 +47855,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="380" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="64" t="s">
         <v>648</v>
       </c>
@@ -47998,7 +48000,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="381" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="53" t="s">
         <v>699</v>
       </c>
@@ -48143,7 +48145,7 @@
       </c>
       <c r="AW381" s="83"/>
     </row>
-    <row r="382" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="64" t="s">
         <v>397</v>
       </c>
@@ -48288,7 +48290,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="383" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="64" t="s">
         <v>702</v>
       </c>
@@ -48437,7 +48439,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="384" spans="1:51" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:51" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="64" t="s">
         <v>705</v>
       </c>
@@ -48580,7 +48582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="385" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="64" t="s">
         <v>707</v>
       </c>
@@ -48727,7 +48729,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="386" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="64" t="s">
         <v>708</v>
       </c>
@@ -48870,7 +48872,7 @@
       <c r="AV386" s="66"/>
       <c r="AW386" s="83"/>
     </row>
-    <row r="387" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="64" t="s">
         <v>709</v>
       </c>
@@ -49015,7 +49017,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="388" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="64" t="s">
         <v>710</v>
       </c>
@@ -49162,7 +49164,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="389" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="64" t="s">
         <v>711</v>
       </c>
@@ -49309,7 +49311,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="390" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A390" s="53" t="s">
         <v>712</v>
       </c>
@@ -49454,7 +49456,7 @@
       </c>
       <c r="AW390" s="87"/>
     </row>
-    <row r="391" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A391" s="53">
         <v>14</v>
       </c>
@@ -49599,7 +49601,7 @@
       </c>
       <c r="AW391" s="33"/>
     </row>
-    <row r="392" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A392" s="53" t="s">
         <v>403</v>
       </c>
@@ -49744,7 +49746,7 @@
       </c>
       <c r="AW392" s="57"/>
     </row>
-    <row r="393" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A393" s="53" t="s">
         <v>414</v>
       </c>
@@ -49893,7 +49895,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="394" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A394" s="33"/>
       <c r="B394" s="52"/>
       <c r="C394" s="52"/>
@@ -49948,7 +49950,7 @@
       <c r="AV394" s="52"/>
       <c r="AW394" s="33"/>
     </row>
-    <row r="395" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A395" s="57" t="s">
         <v>592</v>
       </c>
@@ -50035,7 +50037,7 @@
       <c r="AV395" s="52"/>
       <c r="AW395" s="33"/>
     </row>
-    <row r="396" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A396" s="57" t="s">
         <v>714</v>
       </c>
@@ -50122,7 +50124,7 @@
       <c r="AV396" s="52"/>
       <c r="AW396" s="33"/>
     </row>
-    <row r="397" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A397" s="57" t="s">
         <v>716</v>
       </c>
@@ -50213,7 +50215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A398" s="57" t="s">
         <v>660</v>
       </c>
@@ -50308,7 +50310,7 @@
       <c r="AV398" s="52"/>
       <c r="AW398" s="33"/>
     </row>
-    <row r="399" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A399" s="57" t="s">
         <v>687</v>
       </c>
@@ -50403,7 +50405,7 @@
       <c r="AV399" s="52"/>
       <c r="AW399" s="33"/>
     </row>
-    <row r="400" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A400" s="57" t="s">
         <v>600</v>
       </c>
@@ -50498,7 +50500,7 @@
       <c r="AV400" s="52"/>
       <c r="AW400" s="33"/>
     </row>
-    <row r="401" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A401" s="57" t="s">
         <v>720</v>
       </c>
@@ -50597,7 +50599,7 @@
       <c r="AV401" s="52"/>
       <c r="AW401" s="33"/>
     </row>
-    <row r="402" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A402" s="57" t="s">
         <v>493</v>
       </c>
@@ -50691,7 +50693,7 @@
       <c r="AV402" s="52"/>
       <c r="AW402" s="33"/>
     </row>
-    <row r="403" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="57" t="s">
         <v>722</v>
       </c>
@@ -50780,7 +50782,7 @@
       <c r="AV403" s="52"/>
       <c r="AW403" s="33"/>
     </row>
-    <row r="404" spans="1:52" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A404" s="57" t="s">
         <v>692</v>
       </c>
@@ -50875,7 +50877,7 @@
       <c r="AV404" s="52"/>
       <c r="AW404" s="33"/>
     </row>
-    <row r="405" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A405" s="57" t="s">
         <v>693</v>
       </c>
@@ -50967,7 +50969,7 @@
       <c r="AV405" s="52"/>
       <c r="AW405" s="33"/>
     </row>
-    <row r="406" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A406" s="57" t="s">
         <v>528</v>
       </c>
@@ -51061,7 +51063,7 @@
       <c r="AV406" s="52"/>
       <c r="AW406" s="33"/>
     </row>
-    <row r="407" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A407" s="57" t="s">
         <v>536</v>
       </c>
@@ -51150,7 +51152,7 @@
       <c r="AV407" s="52"/>
       <c r="AW407" s="33"/>
     </row>
-    <row r="408" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A408" s="57" t="s">
         <v>694</v>
       </c>
@@ -51239,7 +51241,7 @@
       <c r="AV408" s="52"/>
       <c r="AW408" s="33"/>
     </row>
-    <row r="409" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="57"/>
       <c r="B409" s="47"/>
       <c r="C409" s="47"/>
@@ -51326,7 +51328,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="410" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="47"/>
       <c r="B410" s="47"/>
       <c r="C410" s="47"/>
@@ -51414,7 +51416,7 @@
       <c r="AV410" s="52"/>
       <c r="AW410" s="5"/>
     </row>
-    <row r="411" spans="1:52" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="33"/>
       <c r="B411" s="52"/>
       <c r="C411" s="52"/>
@@ -51497,8 +51499,8 @@
       <c r="AV411" s="52"/>
       <c r="AW411" s="5"/>
     </row>
-    <row r="412" spans="1:52" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="413" spans="1:52" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="1:52" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A413" s="33"/>
       <c r="B413" s="33"/>
       <c r="C413" s="33"/>
@@ -51551,7 +51553,7 @@
       <c r="AV413" s="33"/>
       <c r="AW413" s="33"/>
     </row>
-    <row r="414" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:52" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="33"/>
       <c r="B414" s="33"/>
       <c r="C414" s="33"/>
@@ -51604,7 +51606,7 @@
       <c r="AV414" s="33"/>
       <c r="AW414" s="33"/>
     </row>
-    <row r="415" spans="1:52" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A415" s="33"/>
       <c r="B415" s="33"/>
       <c r="C415" s="33"/>
@@ -51659,7 +51661,7 @@
       <c r="AV415" s="33"/>
       <c r="AW415" s="33"/>
     </row>
-    <row r="416" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A416" s="33"/>
       <c r="B416" s="33"/>
       <c r="C416" s="47" t="s">
@@ -51798,7 +51800,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="417" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A417" s="47" t="s">
         <v>392</v>
       </c>
@@ -51945,7 +51947,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="418" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A418" s="33"/>
       <c r="B418" s="33"/>
       <c r="C418" s="33"/>
@@ -51996,7 +51998,7 @@
       <c r="AV418" s="33"/>
       <c r="AW418" s="33"/>
     </row>
-    <row r="419" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A419" s="53" t="s">
         <v>393</v>
       </c>
@@ -52141,7 +52143,7 @@
       </c>
       <c r="AW419" s="57"/>
     </row>
-    <row r="420" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A420" s="53" t="s">
         <v>394</v>
       </c>
@@ -52286,7 +52288,7 @@
       </c>
       <c r="AW420" s="59"/>
     </row>
-    <row r="421" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A421" s="53" t="s">
         <v>395</v>
       </c>
@@ -52431,7 +52433,7 @@
       </c>
       <c r="AW421" s="33"/>
     </row>
-    <row r="422" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A422" s="53" t="s">
         <v>396</v>
       </c>
@@ -52576,7 +52578,7 @@
       </c>
       <c r="AW422" s="57"/>
     </row>
-    <row r="423" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A423" s="53" t="s">
         <v>397</v>
       </c>
@@ -52721,7 +52723,7 @@
       </c>
       <c r="AW423" s="47"/>
     </row>
-    <row r="424" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A424" s="53" t="s">
         <v>398</v>
       </c>
@@ -52866,7 +52868,7 @@
       </c>
       <c r="AW424" s="57"/>
     </row>
-    <row r="425" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A425" s="53" t="s">
         <v>399</v>
       </c>
@@ -53011,7 +53013,7 @@
       </c>
       <c r="AW425" s="57"/>
     </row>
-    <row r="426" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A426" s="53" t="s">
         <v>400</v>
       </c>
@@ -53156,7 +53158,7 @@
       </c>
       <c r="AW426" s="33"/>
     </row>
-    <row r="427" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A427" s="53">
         <v>9</v>
       </c>
@@ -53301,7 +53303,7 @@
       </c>
       <c r="AW427" s="57"/>
     </row>
-    <row r="428" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A428" s="53" t="s">
         <v>401</v>
       </c>
@@ -53446,7 +53448,7 @@
       </c>
       <c r="AW428" s="33"/>
     </row>
-    <row r="429" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A429" s="53">
         <v>11</v>
       </c>
@@ -53591,7 +53593,7 @@
       </c>
       <c r="AW429" s="33"/>
     </row>
-    <row r="430" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A430" s="53">
         <v>12</v>
       </c>
@@ -53736,7 +53738,7 @@
       </c>
       <c r="AW430" s="57"/>
     </row>
-    <row r="431" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A431" s="53" t="s">
         <v>402</v>
       </c>
@@ -53881,7 +53883,7 @@
       </c>
       <c r="AW431" s="33"/>
     </row>
-    <row r="432" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A432" s="53">
         <v>14</v>
       </c>
@@ -54026,7 +54028,7 @@
       </c>
       <c r="AW432" s="33"/>
     </row>
-    <row r="433" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A433" s="53" t="s">
         <v>403</v>
       </c>
@@ -54171,7 +54173,7 @@
       </c>
       <c r="AW433" s="57"/>
     </row>
-    <row r="434" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A434" s="53" t="s">
         <v>414</v>
       </c>
@@ -54320,8 +54322,8 @@
         <v>736</v>
       </c>
     </row>
-    <row r="437" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="438" spans="1:50" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="1:50" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A438" s="33"/>
       <c r="B438" s="33"/>
       <c r="C438" s="33"/>
@@ -54374,7 +54376,7 @@
       <c r="AV438" s="33"/>
       <c r="AW438" s="33"/>
     </row>
-    <row r="439" spans="1:50" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:50" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="33"/>
       <c r="B439" s="33"/>
       <c r="C439" s="33"/>
@@ -54427,7 +54429,7 @@
       <c r="AV439" s="33"/>
       <c r="AW439" s="33"/>
     </row>
-    <row r="440" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A440" s="33"/>
       <c r="B440" s="33"/>
       <c r="C440" s="33"/>
@@ -54482,7 +54484,7 @@
       <c r="AV440" s="33"/>
       <c r="AW440" s="33"/>
     </row>
-    <row r="441" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A441" s="33"/>
       <c r="B441" s="33"/>
       <c r="C441" s="47" t="s">
@@ -54617,7 +54619,7 @@
       <c r="AV441" s="33"/>
       <c r="AW441" s="33"/>
     </row>
-    <row r="442" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A442" s="47" t="s">
         <v>392</v>
       </c>
@@ -54764,7 +54766,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="443" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A443" s="33"/>
       <c r="B443" s="33"/>
       <c r="C443" s="33"/>
@@ -54815,7 +54817,7 @@
       <c r="AV443" s="33"/>
       <c r="AW443" s="33"/>
     </row>
-    <row r="444" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="64" t="s">
         <v>725</v>
       </c>
@@ -54960,7 +54962,7 @@
       </c>
       <c r="AW444" s="57"/>
     </row>
-    <row r="445" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="53" t="s">
         <v>726</v>
       </c>
@@ -55107,7 +55109,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="446" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="64" t="s">
         <v>395</v>
       </c>
@@ -55250,7 +55252,7 @@
       </c>
       <c r="AW446" s="33"/>
     </row>
-    <row r="447" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A447" s="53" t="s">
         <v>396</v>
       </c>
@@ -55395,7 +55397,7 @@
       </c>
       <c r="AW447" s="57"/>
     </row>
-    <row r="448" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A448" s="53" t="s">
         <v>728</v>
       </c>
@@ -55542,7 +55544,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="449" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A449" s="53" t="s">
         <v>398</v>
       </c>
@@ -55687,7 +55689,7 @@
       </c>
       <c r="AW449" s="57"/>
     </row>
-    <row r="450" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="53" t="s">
         <v>399</v>
       </c>
@@ -55832,7 +55834,7 @@
       </c>
       <c r="AW450" s="83"/>
     </row>
-    <row r="451" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="64" t="s">
         <v>400</v>
       </c>
@@ -55977,7 +55979,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="452" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="64" t="s">
         <v>730</v>
       </c>
@@ -56124,7 +56126,7 @@
       </c>
       <c r="AW452" s="57"/>
     </row>
-    <row r="453" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A453" s="53" t="s">
         <v>401</v>
       </c>
@@ -56271,7 +56273,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="454" spans="1:50" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A454" s="53" t="s">
         <v>733</v>
       </c>
@@ -56416,7 +56418,7 @@
       </c>
       <c r="AW454" s="44"/>
     </row>
-    <row r="455" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="64">
         <v>12</v>
       </c>
@@ -56561,7 +56563,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="456" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="64" t="s">
         <v>735</v>
       </c>
@@ -56706,7 +56708,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="457" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="64" t="s">
         <v>737</v>
       </c>
@@ -56853,7 +56855,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="458" spans="1:50" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:50" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A458" s="64" t="s">
         <v>739</v>
       </c>
@@ -56998,7 +57000,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="459" spans="1:50" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:50" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A459" s="53" t="s">
         <v>741</v>
       </c>
@@ -57147,7 +57149,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="460" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A460" s="33"/>
       <c r="B460" s="52"/>
       <c r="C460" s="52"/>
@@ -57202,7 +57204,7 @@
       <c r="AV460" s="52"/>
       <c r="AW460" s="33"/>
     </row>
-    <row r="461" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A461" s="57" t="s">
         <v>742</v>
       </c>
@@ -57283,7 +57285,7 @@
       <c r="AV461" s="52"/>
       <c r="AW461" s="33"/>
     </row>
-    <row r="462" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A462" s="57" t="s">
         <v>743</v>
       </c>
@@ -57364,7 +57366,7 @@
       <c r="AV462" s="52"/>
       <c r="AW462" s="33"/>
     </row>
-    <row r="463" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A463" s="57" t="s">
         <v>744</v>
       </c>
@@ -57449,7 +57451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A464" s="57" t="s">
         <v>745</v>
       </c>
@@ -57538,7 +57540,7 @@
       <c r="AV464" s="52"/>
       <c r="AW464" s="33"/>
     </row>
-    <row r="465" spans="1:49" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A465" s="57" t="s">
         <v>746</v>
       </c>
@@ -57629,7 +57631,7 @@
       <c r="AV465" s="52"/>
       <c r="AW465" s="33"/>
     </row>
-    <row r="466" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A466" s="57"/>
       <c r="B466" s="47"/>
       <c r="C466" s="47"/>
@@ -57715,7 +57717,7 @@
       <c r="AV466" s="52"/>
       <c r="AW466" s="33"/>
     </row>
-    <row r="467" spans="1:49" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:49" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A467" s="57" t="s">
         <v>749</v>
       </c>
@@ -57806,7 +57808,7 @@
       <c r="AV467" s="52"/>
       <c r="AW467" s="33"/>
     </row>
-    <row r="468" spans="1:49" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:49" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A468" s="57" t="s">
         <v>750</v>
       </c>
@@ -57895,7 +57897,7 @@
       <c r="AV468" s="52"/>
       <c r="AW468" s="33"/>
     </row>
-    <row r="469" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A469" s="57" t="s">
         <v>751</v>
       </c>
@@ -57952,7 +57954,7 @@
       <c r="AV469" s="52"/>
       <c r="AW469" s="33"/>
     </row>
-    <row r="470" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A470" s="57" t="s">
         <v>752</v>
       </c>
@@ -58009,7 +58011,7 @@
       <c r="AV470" s="52"/>
       <c r="AW470" s="33"/>
     </row>
-    <row r="471" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A471" s="57" t="s">
         <v>753</v>
       </c>
@@ -58066,7 +58068,7 @@
       <c r="AV471" s="52"/>
       <c r="AW471" s="33"/>
     </row>
-    <row r="472" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A472" s="57" t="s">
         <v>754</v>
       </c>
@@ -58123,7 +58125,7 @@
       <c r="AV472" s="52"/>
       <c r="AW472" s="33"/>
     </row>
-    <row r="473" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A473" s="57"/>
       <c r="B473" s="47"/>
       <c r="C473" s="47"/>
@@ -58177,7 +58179,7 @@
       <c r="AV473" s="52"/>
       <c r="AW473" s="33"/>
     </row>
-    <row r="474" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A474" s="57"/>
       <c r="B474" s="47"/>
       <c r="C474" s="52" t="s">
@@ -58236,7 +58238,7 @@
       <c r="AV474" s="52"/>
       <c r="AW474" s="33"/>
     </row>
-    <row r="475" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="57"/>
       <c r="B475" s="47"/>
       <c r="C475" s="47"/>
@@ -58287,7 +58289,7 @@
       <c r="AV475" s="52"/>
       <c r="AW475" s="5"/>
     </row>
-    <row r="476" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="47"/>
       <c r="B476" s="47"/>
       <c r="C476" s="47"/>
@@ -58338,7 +58340,7 @@
       <c r="AV476" s="52"/>
       <c r="AW476" s="5"/>
     </row>
-    <row r="477" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="33"/>
       <c r="B477" s="52"/>
       <c r="C477" s="52"/>
